--- a/ch1_evidence_causes/data/samples_5.3_narrowed_criteria3.xlsx
+++ b/ch1_evidence_causes/data/samples_5.3_narrowed_criteria3.xlsx
@@ -414,304 +414,309 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2791392372</t>
+          <t>https://openalex.org/W4225725528</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.bpj.2017.11.1191</t>
+          <t>https://doi.org/10.48550/arxiv.2202.08184</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rebbeck et al. (2018)</t>
+          <t>Bross et al. (2022)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FRET-Based Mapping and Millisecond Structural Kinetics of Calmodulin Bound to Ryanodine Receptor Channels</t>
+          <t>Tomographic Muon Imaging of the Great Pyramid of Giza</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Using time-resolved fluorescence resonance energy transfer (TR-FRET), we resolved distinct structural states underlying CaM regulation of skeletal and cardiac ryanodine receptor isoforms (RyR1 and RyR2) at relaxed and contracting [Ca2+], and determined the kinetics of Ca2+-driven transitions between these structural states. Cryo-EM and FRET-based mapping place Ca2+-CaM in similar locations on RyR1 and RyR2. However, the position of apo-CaM remains controversial. To resolve the structural states of CaM bound to RyR1 and RyR2 in isolated sarcoplasmic reticulum membranes at 0.03 and 30 μM Ca2+, we used TR-FRET between fluorophores targeted to the cytoplasmic assembly of RyR1 or RyR2 via donor-FKBP12.6 labeled at one of eight sites and acceptor-CaM labeled at one of four sites. Donor-acceptor distances were used to trilaterate the acceptor locations within RyR. On both RyR1 and RyR2, we detect a Ca2+-driven decrease in the separation between CaM lobes, suggesting a Ca2+-CaM structure that is more compact than apo-CaM. On RyR1 (but not on RyR2), we found that the position of probes attached to N-lobe of Ca-insensitive CaM (CaM1234) overlapped with probes bound to WT-CaM in nM Ca2+, suggesting an apo-CaM/RyR1 complex at nM Ca2+. On RyR2, the CaM1234 N-lobe is shifted “upward”, suggesting that WT-CaM is at least partly Ca2+-loaded when bound to RyR2 in nM Ca2+. By integrating our TR-FRET system in a stopped-flow experiment, we resolved millisecond Ca2+-driven structural transitions of CaM-bound to RyR. These fast time constants highlight the importance of understanding CaM's action as a Ca2+ sensor in modulating RyR channel function during muscle contraction. This work was supported by NIH grants R01HL092097 (RLC/DMB) and R37AG26160 (DDT), and by American Heart Association Postdoctoral Fellowship 16POST31010019 (RTR).</t>
+          <t>The pyramids of the Giza plateau have fascinated visitors since ancient times and are the last of the Seven Wonders of the ancient world still standing. It has been half a century since Luiz Alvarez and his team used cosmic-ray muon imaging to look for hidden chambers in Khafres Pyramid. Advances in instrumentation for High-Energy Physics (HEP) allowed a new survey, ScanPyramids, to make important new discoveries at the Great Pyramid (Khufu) utilizing the same basic technique that the Alvarez team used, but now with modern instrumentation. The Exploring the Great Pyramid Mission plans to field a very-large muon telescope system that will be transformational with respect to the field of cosmic-ray muon imaging. We plan to field a telescope system that has upwards of 100 times the sensitivity of the equipment that has recently been used at the Great Pyramid, will image muons from nearly all angles and will, for the first time, produce a true tomographic image of such a large structure.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391600179</t>
+          <t>https://openalex.org/W2055986502</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.18260/1-2--43202</t>
+          <t>https://doi.org/10.1002/ajmg.a.33284</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wiggins et al. (2024)</t>
+          <t>Levenson (2010)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doing Academia Differently: The Creation of a Cohort-Based Postdoctoral Scholars Program for Emerging Engineering Faculty</t>
+          <t>Personalized medicine presents challenges and opportunities</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Abstract The postdoctoral to professoriate pathway is a conventional path to develop significant engineering faculty talent and diversify the engineering academia workforce. Relatively few studies have examined the science, technology, engineering, and mathematics (STEM) postdoc experience, even though these scholars have faced structural and interpersonal challenges as they navigate the transition to faculty positions. Even less literature exists about the experiences of underrepresented minority (URM) postdocs in STEM. Data suggest that the number of URM postdocs is abysmal, revealing the need for more empirical studies and practical recommendations for how to recruit, support, and retain these individuals. This paper examines the work and community of a public land grant university's College of Engineering (name of postdoc scholars program). (Program) was founded under (Dean) leadership and influenced by (Faculty)'s research work and lived experience with the mission to diversify the next generation of engineering leaders in academia. With a focus on intersectional mentorship, the purpose of the postdoc program is to create well-rounded scholars versed in research, teaching, and service. Using ethnography partnered with semi-structured interviews, this study aims to explore the experiences of the first cohort of (Program) postdoc scholars to understand how a newly created intersectional mentorship model facilitates scholars' progression toward faculty positions while curating an inclusive community and culture for scholars. The intersectional mentorship model framing this postdoc program is based on research conducted by (Faculty), with some adaptations from Walker et al.'s (2009) The Formation of Scholars, which presents a multiple apprenticeship framework that offers a holistic approach to mentoring for scholars. The three mentor types in the program are primary (focused on research), secondary (focused on teaching and/or service), and intersectional (aligned with identities of scholars' choosing). This model engages scholars, mentors, and members of the administrative team in authentic dialogue to promote a culture that differs from traditional models of postdoc mentorship and development. Initial findings show that to maximize the progression of postdoctoral scholars, it is important to understand and address their self-identified issues surrounding mentorship and professional barriers that impede their success. The target audiences of this work are institutional programs, individuals who work with postdoctoral scholars, and those with an interest in diversifying and retaining future URM STEM faculty. Recommendations offer suggestions about ways to support, mentor, and build an inclusive community for postdocs that helps them become independent, confident, and competent emerging faculty who can succeed in academia.</t>
+          <t xml:space="preserve">Researchers detail progress and the work ahead Much work remains if personalized medicine is to fulfill its promise of revolutionizing healthcare, according to genetics researchers who spoke at the 2009 Annual Meeting of the American Society of Human Genetics (ASHG). Personalized medicine represents an obvious opportunity to stop “treating people in a one-size-fits all way,” said Alan Guttmacher, MD, acting director of the National Human Genome Research Institute (NHGRI) at the National Institutes of Health (NIH) in Bethesda, Maryland, during a press briefing. Today, it is clear that genetics affect how individuals react to medications, added Edward McCabe, MD, PhD, ASHG past president and physician-in-chief at the University of California, Los Angeles Mattel Children's Hospital. For example, rofecoxib (Vioxx) is quite effective for the majority of people for whom its prescribed, but a certain small percentage of patients suffer serious side effects, which Dr. McCabe attributed to genetic variation. “We need more therapies targeted toward individuals, especially drugs that work with an individual's genetic makeup so the risk of side effects is reduced,” he said. However, development of these drugs requires large databases of associations of single nucleotide polymorphisms (SNPs), drug side effects, and risk of disease, Dr. McCabe said. Genome wide association studies (GWAS), which involve rapidly scanning markers across the complete genomes of many people to find genetic variations associated with a particular disease and large population studies that aim to translate knowledge of genetics to medical practice would produce necessary data. Little data from such studies now exist. Personalized medicine aims to use genomic and molecular information to target medical treatments to the individual. Genetic testing to inform warfarin dosing—now ongoing at some clinics—is an example of one application of personalized medicine that would benefit from such studies. While several studies have looked at such testing in particular, and others are in progress, Dr. McCabe noted that, “studying one population [and genetic testing in warfarin dosing] doesn't tell us much about another population.” Breast cancer prevention and treatment efforts would benefit greatly from GWAS, Dr. Guttmacher added. GWAS data might inform several debates over proper care, including the age at which individual women should start having regular mammograms. GWAS are beginning to deliver data that will someday settle these types of questions involving human genetic variability. But, although much knowledge has been derived from GWAS on common diseases already, those studies have underscored “that we don't understand the mechanisms in human heritability,” Dr. Guttmacher noted, adding that the future of personalized medicine depends in part on such knowledge. Study of the interactions between genes and environment represents an even greater challenge—and opportunity—to personalized medicine, said Dr. Guttmacher. Data on how diet, exercise, and toxin exposure affect genes are extremely important, but getting this information is a very difficult and expensive endeavor, he added. In a separate symposium at the meeting, Dr. Guttmacher noted that some countries and companies have launched longitudinal studies of gene-environment and gene-gene interactions with very good genotypic, phenotypic, and environmental information. He called for a U.S.-based study of similar quality. The best research on these interactions and GWAS will have little impact if healthcare providers do not use it and patients do not accept resulting treatments, said Dr. Guttmacher during the press briefing. To this end, NIH's Mulitplex Imitative is examining how patients react to the offer of personalized medicine and if patients and providers use results effectively. “We assume that personalized medicine is better, but we need to show it's effective,” Dr. Guttmacher explained. ASHG President Roderick McInnes, MD, PhD, science director of the Institute of Genetics in the Canadian Institutes of Health Research in Toronto, noted that studies have pointed to various genetic associations with both increased and decreased risk of coronary artery disease. Echoing Dr. Guttmacher's remarks on the lack of knowledge about how genes interact with the environment, he warned that, “because the complexity is remarkable, we must be careful not to over-promise [regarding what personalized medicine can do].” Along with Drs. McCabe and Guttmacher, Dr. McInnes pointed to pharmacogenetics as the most promising area of personalized medicine. In addition to research that has shown genotyping certain patients prescribed warfarin can reduce adverse events, he noted that testing for variation in the gene that expresses thiopurine methyltransferase (TPMT) is now helping to make chemotherapy with 6-mercaptopurine safer for some patients. Patients with alleles linked to difficulty metabolizing the drug are at </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283826111</t>
+          <t>https://openalex.org/W2130079398</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/jacs.2c04571</t>
+          <t>https://doi.org/10.2737/pnw-gtr-422</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Zhang et al. (2022)</t>
+          <t>Wallin et al. (1998)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Degradable ZnS-Supported Bioorthogonal Nanozymes with Enhanced Catalytic Activity for Intracellular Activation of Therapeutics</t>
+          <t>A landscape plan based on historical fire regimes for a managed forest ecosystem: the Augusta Creek study.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bioorthogonal catalysis using transition-metal catalysts (TMCs) provides a toolkit for the in situ generation of imaging and therapeutic agents in biological environments. Integrating TMCs with nanomaterials mimics key properties of natural enzymes, providing bioorthogonal “nanozymes”. ZnS nanoparticles provide a platform for bioorthogonal nanozymes using ruthenium catalysts embedded in self-assembled monolayers on the particle surface. These nanozymes uncage allylated profluorophores and prodrugs. The ZnS core combines the non-toxicity and degradability with the enhancement of Ru catalysis through the release of thiolate surface ligands that accelerate the rate-determining step in the Ru-mediated deallylation catalytic cycle. The maximum rate of reaction (Vmax) increases ∼2.5-fold as compared to the non-degradable gold nanoparticle analogue. The therapeutic potential of these bioorthogonal nanozymes is demonstrated by activating a chemotherapy drug from an inactive prodrug with efficient killing of cancer cells.</t>
+          <t>The Augusta Creek project was initiated to establish and integrate landscape and watershed objectives into a landscape plan to guide management activities within a 7600-hectare (19,000-acre) planning area in western Oregon. Primary objectives included the maintenance of native species, ecosystem processes and structures, and long-term ecosystem productivity in a federally managed landscape where substantial acreage was allocated to timber harvest. Landscape and watershed management objectives and prescriptions were based on an interpreted range of natural variability of landscape conditions and disturbance processes. A dendrochronological study characterized fire patterns and regimes over the last 500 years. Changes in landscape conditions throughout the larger surrounding watershed due to human uses (e.g., roads in riparian areas, widespread clearcutting, a major dam, and portions of a designated wilderness and an unroaded area) also were factored into the landscape plan. Landscape prescriptions include an aquatic reserve system comprised of small watersheds distributed throughout the planning area and major valley-bottom corridor reserves that connect the small-watershed reserves. Where timber harvest was allocated, prescriptions derived from interpretations of fire regimes differ in rotation ages (100 to 300 years), green-tree retention levels (15- to 50- percent canopy cover), and spatial patterns of residual trees. General prescriptions for fire management also were based on interpretations of past fire regimes. All these prescriptions were linked to specific blocks of land to provide an efficient transition to site-level planning and project implementation. Landscape and watershed conditions were projected 200 years into the future and compared with conditions that would result from application of standards, guidelines, and assumptions in the Northwest Forest Plan prior to adjustments resulting from watershed analyses. The contrasting prescriptions for aquatic reserves and timber harvest (rotation lengths, green-tree retention levels, and spatial patterns) in these two approaches resulted in strikingly different potential future landscapes. These differences have significant implications for some ecosystem processes and habitats. We view this management approach as a potential postwatershed analysis implementation of the Northwest Forest Plan and offer it as an example of how ecosystem management could be applied in a particular landscape by using the results of watershed analysis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W259869057</t>
+          <t>https://openalex.org/W2040265599</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3816/clc.2009.s.001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Waters (2007)</t>
+          <t>Bunn (2009)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Out of Print: Traditional Textbook Publishers Are Having to Adjust to a Changing Market, as K-12 Educators Show a Growing Interest in Digital Content</t>
+          <t>Novel Therapies for Non–Small-Cell Lung Cancer: A 2008 Update</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Anita Givens first began teaching elementary school students to use computers back in the mid-1980s, there were few digital learning materials available and little demand for electronic textbooks. In fact, parents and educators worried that the advent of computers in schools would result in students' spending too much time in the company of computer monitors, and not enough time with real books. Many people were saying, 'We don't want kids sitting in front of a computer all day at school,' as though they were television sets, recalls Givens, who serves the Texas Education Agency as the senior director for instructional materials and educational technology. Look at how many of us now sit in front of a computer all day at work. how we do business. how we communicate through e-mail. how we accomplish tasks using the web. And it's important to leverage that technology--that now common experience--so it's a seamless part of the learning experience for students. I, A lot has changed in 20 years. Teachers, parents, and especially students are embracing electronic educational content today in growing numbers. Givens' agency, for one, has made deployment of digital learning tools and content a priority. The TEA has adopted electronic instructional materials and educational technologies from a range of publishers and depositories--which store and distribute instructional materials for publishing companies--including Glencoe/McGraw-Hill, Pearson Scott Foresman, Harcourt, and Classroom Connect, among others, and from websites such as Learning.com. The influx of alternative digital content has actually altered Texas' formal definition of to include electronic media. reconsideration and redefining of the textbook and how it relates to teaching is occurring across K-12. The consensus definition, however, is still aborning. What now can correctly be called a textbook? For some, printed materials scanned as a PDF file qualify; for others, a certain level of interactivity and even multimedia is required. little else, there is agreement on this: no longer printed pages in a bound book. We define an e-book as a digital book that is available for download, reading, and printing from a connected PC, Mac, or notebook--and for a variety of our materials, PDAs and smart phones, says Steve Potash, CEO of digital content provider OverDrive. When you talk about an e-book or a digital book, with the exception of digital audio books, you are still talking about text, about reading. Digital book file formats vary, Potash points out. A PDF file, for example, is usually searchable, and the reader can sometimes apply highlighting and annotations from the PC. Some digital books are readable from a cell phone or PDA running Adobe's Acrobat eBook or the Mobipocket Reader. Digital audio books can be downloaded to an MP3 player. And Adobe eBooks have built-in text-to-speech capabilities so that a reader may have the book read aloud by the computer. This is disruptive technology, Potash says. It's changing education in fundamental ways. Givens elaborates. If we're going to prepare our students to live and work in the 21st century, we have to make sure that they are comfortable with 21st-century tools, she says. They become the most proficient with these tools when they are connected to content, when they are an integral part of the core curriculum areas--language arts and reading, math, science, and social studies--across the spectrum. More Than Letters on a Screen Mark Bretl agrees that a revolution is afoot with the arrival of electronic textbooks in K-12 environments, but he finds it difficult to work up much enthusiasm for PDF files. Bretl believes that interactivity and multimedia are the keys to this new incarnation of the textbook, which the founders of Kinetic Books, where Bretl is vice president, call, aptly, kinetic textbooks. …</t>
+          <t>Lung cancer is the leading cause of cancer death in the United States and worldwide.1,2 The 5-year survival rate of 16% remains suboptimal and far lower than 5-year survival rates for all cancers (66%) and other common cancers such as breast, colon, and prostate cancers.1 Cytotoxic chemotherapy has been the mainstay of treatment for patients with advanced small-cell lung cancer and non–small-cell lung cancer (NSCLC) for many years.3-5 Because these therapies have many toxicities that kill a substantial number of tumor cells, it is imperative that we develop biomarkers to identify patients most likely to respond to individual drugs and to develop agents with reduced toxicities. The revolution in our understanding of the molecular basis of lung cancer leads to the identification of new therapeutic targets. Among these new targets are growth factor pathways that stimulate not only tumor growth but also the growth of blood vessels that permit lung cancer growth (angiogenesis). In this supplement to Clinical Lung Cancer, the recent advances in novel therapies for lung cancer are reviewed by experts in the field. With respect to the novel targets, the epidermal growth factor (EGF) pathway for lung cancer cells and the vascular endothelial growth factor (VEGF) pathway for endothelial cells are highlighted. Horn and Sandler review the emerging data on antiangiogenic therapies for NSCLC. There are several ways to inhibit the pathway, including monoclonal antibodies (MoAbs) directed to the VEGF ligand (bevacizumab) or MoAbs to the VEGF receptor (VEGFR; eg, IMC-1121B). Many small-molecule tyrosine kinase inhibitors (TKIs) of VEGFR signaling are also being studied. Among all antiangiogenic therapies of any class, only bevacizumab (Avastin) is currently US Food and Drug Administration (FDA) approved for lung cancer therapy. Herein, Joy and Butts review the status of inhibitors of the EGF receptor (EGFR) signaling pathway. Once again, there are both MoAbs to the receptor, such as cetuximab, and small-molecule TKIs of EGFR signaling, such as erlotinib and gefitinib. The smallmolecule inhibitor erlotinib is approved for use in NSCLC by the FDA, and there are promising emerging data for cetuximab and gefitinib. There are intense studies to identify the best biomarkers to select patients for these therapies. Activating EGFR mutations appear to be excellent markers for sensitivity to EGFR TKIs. EGFR protein expression, EGFR gene copy number by fluorescence in situ hybridization, and other markers are being evaluated to assist in the selection of patients for cetuximab therapy. Pakkala and Ramalingam review studies that evaluate dual inhibition of both the EGFR and VEGFR pathways. The dual inhibition can be achieved by combining agents specific for each pathway (eg, erlotinib and bevacizumab) and by using single small-molecule TKIs that target both pathways (eg, vandetanib). Scagliotti and colleagues review recent studies focusing on the novel cytotoxic chemotherapeutic agent pemetrexed. Pemetrexed is a multitargeted antifolate that is FDA approved for use in both firstand second-line therapy for advanced NSCLC. Multiple studies have demonstrated that its activity is greater in nonsquamous carcinomas than in squamous carcinomas. The authors explore the molecular basis for this difference. Finally, West reviews the next generation of targeted therapies for advanced NSCLC. There are many promising targets, including insulin-like growth factor-1 receptor signaling; c-Met signaling; mammalian target of rapamycin; AKT and phosphatidylinositol 3-kinase signaling; and inducers of apoptosis, such as TRAIL, and agonist antibodies to DR4 or DR5. This supplement highlights the major advances in lung cancer therapy that have the potential to improve 5-year survival rates and reduce the pain and suffering experienced by patients with lung cancer.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W35716547</t>
+          <t>https://openalex.org/W259869057</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Snyder et al. (2005)</t>
+          <t>Waters (2007)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Social work with Bosnian Muslim refugee children and families: a review of the literature.</t>
+          <t>Out of Print: Traditional Textbook Publishers Are Having to Adjust to a Changing Market, as K-12 Educators Show a Growing Interest in Digital Content</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>More than two million Bosnian Muslims were ethnically cleansed in the Balkan region; of these, 200,000 were killed while the others were forced to flee their homes and become refugees. This article focuses on the influence of societal and cultural values coupled with wartime experiences on the transition of Bosnian refugee families to their new countries. Consideration is given to culturally competent theoretical frameworks and practice principles social workers can use to assist Bosnian Muslim children and families in their adaptation process within their resettlement communities. Thousands of refugees from Bosnia-Herzegovina have fled to the United States to seek protection from the ethno-religious conflicts of the region. To best assist these families, service providers must understand their wartime and migration experiences and their culture. The purpose of this article is to review the literature relevant to working with Bosnian Muslim refugees as well as to understand the unique issues facing this population. The authors' interest in Bosnian Muslim refugees is a personal one. Between 1992 and 2001, nearly 3,500 Bosnian refugees escaping ethnic cleansing and war migrated to Bowling Green, a small city of 50,000 in rural southcentral Kentucky. The Bowling Green International Center has been a part of the local community since 1979 and actively works with the United States Committee for Refugees and Immigrants (USCRI). For more than 25 years, the center has assisted thousands of refugees of many nationalities in their migration to the United States and the local community. According to the center's director, Marty Deputy, Bosnians make up the largest percentage of refugees that have relocated to Bowling Green (personal communication, February 3, 2005). Deputy also indicated that while Bosnian refugees have adapted well to the local community, they still face many challenges because of their experiences in Bosnia in addition to their integration into a new culture. One of the issues that continue to haunt many Bosnian refugees is post-traumatic stress-a result of war and genocide. Post-traumatic stress is particularly an issue for the adult women, who experienced the trauma of rape and sexual assault as well as witnessing the murder of their children and spouses. According to Deputy (personal communication, February 3, 2005), social workers should approach Bosnian families and children with cultural competence. If visiting a Bosnian home, for example, removing one's shoes when entering is a display of respect and sensitivity. A willingness to drink a strong cup of Bosnian coffee is also appreciated. Social workers also must be sensitive about body language and speech tone. It is also important not to assume that all Bosnians are alike. As with all cultures, there is tremendous variation in the Bosnian culture, along with individual differences in personality and environmental experiences. The Bosnian migration also affected the Department of Social Work at Western Kentucky University in Bowling Green. One of the authors of this story, Nihada Zulcic, is the first Bosnian social work major in the baccalaureate program. Her experiences in migrating from Bosnia to the local community her presence in the social work program, the broader challenges of Bosnian refugees in Bowling Green, and their effect on shaping the fabric of the local community led the authors to write this article. Method This article will review the literature related to Bosnian Muslim culture to illuminate the theoretical frameworks and practice principles social workers could effectively use, including the following areas of specific interest: the history of the region, the Bosnian Muslim's experiences prior to emigrating, the problems and issues refugee families typically encountered in their resettlement countries, and the Bosnian Muslim's cultural strengths and resiliency factors. In conducting the literature review, three methods were used. …</t>
+          <t>Anita Givens first began teaching elementary school students to use computers back in the mid-1980s, there were few digital learning materials available and little demand for electronic textbooks. In fact, parents and educators worried that the advent of computers in schools would result in students' spending too much time in the company of computer monitors, and not enough time with real books. Many people were saying, 'We don't want kids sitting in front of a computer all day at school,' as though they were television sets, recalls Givens, who serves the Texas Education Agency as the senior director for instructional materials and educational technology. Look at how many of us now sit in front of a computer all day at work. how we do business. how we communicate through e-mail. how we accomplish tasks using the web. And it's important to leverage that technology--that now common experience--so it's a seamless part of the learning experience for students. I, A lot has changed in 20 years. Teachers, parents, and especially students are embracing electronic educational content today in growing numbers. Givens' agency, for one, has made deployment of digital learning tools and content a priority. The TEA has adopted electronic instructional materials and educational technologies from a range of publishers and depositories--which store and distribute instructional materials for publishing companies--including Glencoe/McGraw-Hill, Pearson Scott Foresman, Harcourt, and Classroom Connect, among others, and from websites such as Learning.com. The influx of alternative digital content has actually altered Texas' formal definition of to include electronic media. reconsideration and redefining of the textbook and how it relates to teaching is occurring across K-12. The consensus definition, however, is still aborning. What now can correctly be called a textbook? For some, printed materials scanned as a PDF file qualify; for others, a certain level of interactivity and even multimedia is required. little else, there is agreement on this: no longer printed pages in a bound book. We define an e-book as a digital book that is available for download, reading, and printing from a connected PC, Mac, or notebook--and for a variety of our materials, PDAs and smart phones, says Steve Potash, CEO of digital content provider OverDrive. When you talk about an e-book or a digital book, with the exception of digital audio books, you are still talking about text, about reading. Digital book file formats vary, Potash points out. A PDF file, for example, is usually searchable, and the reader can sometimes apply highlighting and annotations from the PC. Some digital books are readable from a cell phone or PDA running Adobe's Acrobat eBook or the Mobipocket Reader. Digital audio books can be downloaded to an MP3 player. And Adobe eBooks have built-in text-to-speech capabilities so that a reader may have the book read aloud by the computer. This is disruptive technology, Potash says. It's changing education in fundamental ways. Givens elaborates. If we're going to prepare our students to live and work in the 21st century, we have to make sure that they are comfortable with 21st-century tools, she says. They become the most proficient with these tools when they are connected to content, when they are an integral part of the core curriculum areas--language arts and reading, math, science, and social studies--across the spectrum. More Than Letters on a Screen Mark Bretl agrees that a revolution is afoot with the arrival of electronic textbooks in K-12 environments, but he finds it difficult to work up much enthusiasm for PDF files. Bretl believes that interactivity and multimedia are the keys to this new incarnation of the textbook, which the founders of Kinetic Books, where Bretl is vice president, call, aptly, kinetic textbooks. …</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2741322247</t>
+          <t>https://openalex.org/W3209206529</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1386/ejac.36.2.137_1</t>
+          <t>https://doi.org/10.1088/1748-9326/ac3605</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Koehler (2017)</t>
+          <t>Khatri‐Chhetri et al. (2021)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sweet sick teens: Gothic narratives of American adolescent sexuality</t>
+          <t>Financing climate change mitigation in agriculture: assessment of investment cases</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Abstract Pivotal to the transition into adulthood is sexual maturation, an inescapable rite of passage which this article investigates across a range of contemporary American media. Beginning in the 1980s through the turn of the twenty-first century, the works in this archive tend to represent the increasingly politicized, stigmatized adolescent body as a conflict zone, a liminal precinct in which sex, illness and death often intersect to traumatic and Gothic effect. They consist of culturally influential ‘indie’ narratives that bridge the gap or, at times, blur the line between the mainstream and cult subculture. Starting from Victor Turner’s seminal work on the adolescent’s passage into adulthood, I place the concept of liminality side by side with the cultural imagination of the frontier. The sex and death dichotomy that characterizes adolescent sexuality shares with the fundamental trope of the frontier a wide array of Gothic connotations. Pre-existing scholarship on Gothic teen studies has yet to extrapolate on the portrayals of sickly teen bodies that run rampant in Gothic works. To append this missing link, I discuss Freudian drives, Susan Sontag’s illness metaphors, and Priscilla Wald’s readings of contagion narratives to lay the groundwork for the connection between sex, illness and cultural anxieties that these late-century narratives communicate. Indeed, I understand contemporary Gothic along the lines of Catherine Spooner, who quipped in her 2006 monograph that ‘[l]ike a malevolent virus, Gothic narratives have [...] spread across disciplinary boundaries to infect all kinds of media…’ (2006: 8). I consider sick teen bodies across a variety of works under two main headings: first, those that rely heavily on anaesthetized imagery to evoke the Gothic. Beginning with 2015’s genre-bending It Follows (Mitchell), I work backwards to trace its clear-cut intertext – The Virgin Suicides (Coppola, 1993), a teen dream-turned-nightmare likewise set in suburban Detroit. The second heading explores decidedly more violent works, among them the graphic novel Black Hole and the horror film Ginger Snaps (Fawcett, 2000), which juxtapose adolescence and supernatural monstrosities that act as carriers of disease. The female is often at the centre of the narratives at hand, and though these works explore the world of minors, rarely, problematically are ‘minority’ bodies represented. Common to these works are stigmatized figures who fight for individual expression yet often fail to emerge from the adolescent stage as autonomous adults, due either to their unwillingness to conform to mainstream culture or the failure of this culture to integrate them.</t>
+          <t>Abstract More than one-quarter of the world’s greenhouse gas emissions come from agriculture, forestry, and land-use change. As with other sectors of the economy, agriculture should also contribute to meeting countries’ emission reduction targets. Transformation of agriculture to low-carbon food systems requires much larger investments in low emission development options from global climate finance, domestic budgets, and the private sector. Innovative financing mechanisms and instruments that integrate climate finance, agriculture development budgets, and private sector investment can improve and increase farmers’ and other value chain actors’ access to finance while delivering environmental, economic, and social benefits. Investment cases assessed in this study provide rich information to design and implement mitigation options in agriculture through unlocking additional sources of public and private capital, strengthening the links between financial institutions, farmers, and agribusiness, and coordination of actions across multiple stakeholders. These investment cases expand support for existing agricultural best practices, integrate forestry and agricultural actions to avoid land-use change, and support the transition to market-based solutions.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3198723610</t>
+          <t>https://openalex.org/W2741322247</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12913-021-06942-y</t>
+          <t>https://doi.org/10.1386/ejac.36.2.137_1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fridberg et al. (2021)</t>
+          <t>Koehler (2017)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The innovation characteristics of person-centred care as perceived by healthcare professionals: an interview study employing a deductive-inductive content analysis guided by the consolidated framework for implementation research</t>
+          <t>Sweet sick teens: Gothic narratives of American adolescent sexuality</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Abstract Background Person-centred care (PCC) is promoted as an innovation that will improve patients’ rights and increase their participation in healthcare. Experience shows that the implementation of PCC is challenging and often results in varying levels of adoption. How health care professionals (HCPs) perceive an innovation such as PCC is an important factor to consider in implementation. Yet, such studies are scarce. Thus, in a sample of healthcare units in a region in Sweden, involved in a transition to PCC, we aimed to investigate HCPs’ perceptions of PCC. Methods An interview study was conducted in 2018 during the implementation of PCC with HCPs ( n = 97) representing diverse vocational roles in six healthcare contexts. Data were collected via focus groups ( n = 15), dyadic interviews ( n = 5), and individual interviews ( n = 22) and analysed using a deductive–inductive content analysis. The deductive approach was guided by the Consolidated Framework for Implementation Research (CFIR), followed by an inductive analysis to describe HCPs’ in-depth perceptions of PCC in relation to each of the CFIR constructs. Results Eight constructs from two of the CFIR domains, Intervention characteristics and Inner setting, were used to code HCPs’ perceptions of PCC. One construct, Observability, was added to the coding sheet to fully describe all the data. The constructs Relative advantage, Complexity, Compatibility, Observability, and Available resources were discussed in depth by HCPs and resulted in rich and detailed data in the inductive data analysis. This analysis showed large variations in perceptions of PCC among HCPs, based on factors such as the PCCs ethical underpinnings, its operationalisation into concrete working routines, and each HCPs’ unique recognition of PCC and the value they placed on it. Conclusions We identified nine CFIR constructs that seem pertinent to HCPs’ perceptions of PCC. HCPs report an array of mixed perceptions of PCC, underlining its complex nature. The perceptions are shaped by a range of factors, such as their individual understandings of the concept and the operationalisation of PCC in their local context. Stakeholders in charge of implementing PCC might use the results as a guide, delineating factors that may be important to consider in a wide range of healthcare contexts.</t>
+          <t>Abstract Pivotal to the transition into adulthood is sexual maturation, an inescapable rite of passage which this article investigates across a range of contemporary American media. Beginning in the 1980s through the turn of the twenty-first century, the works in this archive tend to represent the increasingly politicized, stigmatized adolescent body as a conflict zone, a liminal precinct in which sex, illness and death often intersect to traumatic and Gothic effect. They consist of culturally influential ‘indie’ narratives that bridge the gap or, at times, blur the line between the mainstream and cult subculture. Starting from Victor Turner’s seminal work on the adolescent’s passage into adulthood, I place the concept of liminality side by side with the cultural imagination of the frontier. The sex and death dichotomy that characterizes adolescent sexuality shares with the fundamental trope of the frontier a wide array of Gothic connotations. Pre-existing scholarship on Gothic teen studies has yet to extrapolate on the portrayals of sickly teen bodies that run rampant in Gothic works. To append this missing link, I discuss Freudian drives, Susan Sontag’s illness metaphors, and Priscilla Wald’s readings of contagion narratives to lay the groundwork for the connection between sex, illness and cultural anxieties that these late-century narratives communicate. Indeed, I understand contemporary Gothic along the lines of Catherine Spooner, who quipped in her 2006 monograph that ‘[l]ike a malevolent virus, Gothic narratives have [...] spread across disciplinary boundaries to infect all kinds of media…’ (2006: 8). I consider sick teen bodies across a variety of works under two main headings: first, those that rely heavily on anaesthetized imagery to evoke the Gothic. Beginning with 2015’s genre-bending It Follows (Mitchell), I work backwards to trace its clear-cut intertext – The Virgin Suicides (Coppola, 1993), a teen dream-turned-nightmare likewise set in suburban Detroit. The second heading explores decidedly more violent works, among them the graphic novel Black Hole and the horror film Ginger Snaps (Fawcett, 2000), which juxtapose adolescence and supernatural monstrosities that act as carriers of disease. The female is often at the centre of the narratives at hand, and though these works explore the world of minors, rarely, problematically are ‘minority’ bodies represented. Common to these works are stigmatized figures who fight for individual expression yet often fail to emerge from the adolescent stage as autonomous adults, due either to their unwillingness to conform to mainstream culture or the failure of this culture to integrate them.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1496992349</t>
+          <t>https://openalex.org/W3198723610</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1186/s12913-021-06942-y</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bercaw (2013)</t>
+          <t>Fridberg et al. (2021)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
+          <t>The innovation characteristics of person-centred care as perceived by healthcare professionals: an interview study employing a deductive-inductive content analysis guided by the consolidated framework for implementation research</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
+          <t>Abstract Background Person-centred care (PCC) is promoted as an innovation that will improve patients’ rights and increase their participation in healthcare. Experience shows that the implementation of PCC is challenging and often results in varying levels of adoption. How health care professionals (HCPs) perceive an innovation such as PCC is an important factor to consider in implementation. Yet, such studies are scarce. Thus, in a sample of healthcare units in a region in Sweden, involved in a transition to PCC, we aimed to investigate HCPs’ perceptions of PCC. Methods An interview study was conducted in 2018 during the implementation of PCC with HCPs ( n = 97) representing diverse vocational roles in six healthcare contexts. Data were collected via focus groups ( n = 15), dyadic interviews ( n = 5), and individual interviews ( n = 22) and analysed using a deductive–inductive content analysis. The deductive approach was guided by the Consolidated Framework for Implementation Research (CFIR), followed by an inductive analysis to describe HCPs’ in-depth perceptions of PCC in relation to each of the CFIR constructs. Results Eight constructs from two of the CFIR domains, Intervention characteristics and Inner setting, were used to code HCPs’ perceptions of PCC. One construct, Observability, was added to the coding sheet to fully describe all the data. The constructs Relative advantage, Complexity, Compatibility, Observability, and Available resources were discussed in depth by HCPs and resulted in rich and detailed data in the inductive data analysis. This analysis showed large variations in perceptions of PCC among HCPs, based on factors such as the PCCs ethical underpinnings, its operationalisation into concrete working routines, and each HCPs’ unique recognition of PCC and the value they placed on it. Conclusions We identified nine CFIR constructs that seem pertinent to HCPs’ perceptions of PCC. HCPs report an array of mixed perceptions of PCC, underlining its complex nature. The perceptions are shaped by a range of factors, such as their individual understandings of the concept and the operationalisation of PCC in their local context. Stakeholders in charge of implementing PCC might use the results as a guide, delineating factors that may be important to consider in a wide range of healthcare contexts.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2921611086</t>
+          <t>https://openalex.org/W4283807879</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/en12050924</t>
+          <t>https://doi.org/10.26577/hj.2022.v64.i2.10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bento et al. (2019)</t>
+          <t>Ashirbekova &amp; Abylkhanova (2022)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Daily Operation Optimization of a Hybrid Energy System Considering a Short-Term Electricity Price Forecast Scheme</t>
+          <t>Methods of Presenting Information in the Journalism of B. Omaruly</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The scenario where the renewable generation penetration is steadily on the rise in an increasingly atomized system, with much of the installed capacity “sitting” on a distribution level, is in clear contrast with the “old paradigm” of a natural oligopoly formed by vertical structures. Thereby, the fading of the classical producer–consumer division to a broader prosumer “concept” is fostered. This crucial transition will tackle environmental harms associated with conventional energy sources, especially in this age where a greater concern regarding sustainability and environmental protection exists. The “smoothness” of this transition from a reliable conventional generation mix to a more volatile and “parti-colored" one will be particularly challenging, given escalating electricity demands arising from transportation electrification and proliferation of demand-response mechanisms. In this foreseeable framework, proper Hybrid Energy Systems sizing, and operation strategies will be crucial to dictate the electric power system’s contribution to the “green” agenda. This paper presents an optimal power dispatch strategy for grid-connected/off-grid hybrid energy systems with storage capabilities. The Short-Term Price Forecast information as an important decision-making tool for market players will guide the cost side dispatch strategy, alongside with the storage availability. Different scenarios were examined to highlight the effectiveness of the proposed approach.</t>
+          <t>The journalistic side of Bauyrzhan Omaruly, who has his own style in the development of the national press, is unique in that he knows how to raise a topical issue. Whatever problem B. Omaruly wrote, he approached it carefully and with great responsibility. Its freshness of idea and uniqueness lies in the clarity of the author's position. &amp;nbsp;Bauyrzhan's travel essays, which give life to living and non-living things, have become readers' favorite works. Therefore, we believe that looking into the workshop of the resourceful journalist B. Omaruly and identifying its features is a necessary topic for domestic journalism. The main purpose of the scientific article is to show the problematic, thematic features of the journalistic works of B. Omaruly, to determine his artistic abilities and to express his civil position. Omaruly is a writer who studies the chosen topic in detail. He has a deep knowledge of journalistic research methods. At the same time, the choice and discovery of the topic by the publicist were analyzed from the point of view of creative abilities. His desire to master the genre of the journalistic work (analytical, artistic, journalistic, epistolary) is determined by the analysis of specific articles, essays, interviews, journalistic studies. The publicist not only master these genres, but also has a unique style in their transformation. The article analyzes journalistic texts by B. Omaruly, published in the newspapers «Leninshil zhas» («Zhas Alash»), «Aikyn», in terms of genre, theme, problem, language, style, features of the author's position. His original style, personality and curiosity are explored in his other works. Omaruly is a writer with a unique style in domestic journalism. His personality is reflected in the chosen topic, the nature of the writer who studies the issue in detail, his respect for national values ​​and boundless love for the Motherland, high taste for the art of speech. In the works of B. Omaruly a special reflection of nature and man, the relationship between man and society, the fate of the individual appeared. This is an excellent school for today's young journalists. &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Keywords: national journalism, publicist, press, essay, Bauyrzhan Omaruly.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4247868226</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.6004/jadpro.2015.6.4.1</t>
+          <t>https://openalex.org/W1496992349</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Viale (2015)</t>
+          <t>Bercaw (2013)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cancer Care in the United States: A System in Transition</t>
+          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3092134418</t>
+          <t>https://openalex.org/W4247868226</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3917/cnx.113.0075</t>
+          <t>https://doi.org/10.6004/jadpro.2015.6.4.1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Béraud &amp; Ravit (2020)</t>
+          <t>Viale (2015)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Approche clinique et psychodynamique des expériences d’effroi… chez les patients hospitalisés en unité pour malades difficiles</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Les actes violents souffrent depuis longtemps d’une représentation déficitaire du sujet, envisagée comme l’émergence d’une carence représentative mettant indubitablement en difficulté le travail de la pensée. L’acte est alors perçu comme un langage hors expression symbolique. En cela, il génère violence et effroi. Notre propos, en appui sur la clinique rencontrée en unité pour malades difficiles ( umd ), sera ici d’envisager l’agir violent comme une tentative de contextualisation d’un vécu d’effroi. Nous pensons que la répétition des comportements violents serait ainsi des tentatives extrêmes pour « ex-corporer » et déposer à l’extérieur de la psyché, des expériences de destruction subjective impensables mais éprouvables à travers la charge d’effroi qu’elles véhiculent. L’ umd serait un lieu « spécifique » dédié à l’accueil de ces éléments archaïques en attente de transformation subjectivante. Le psychologue exerçant dans une telle institution ferait ainsi office de méta-conteneur du travail du négatif pour tenter de symboliser la destructivité.</t>
+          <t>Cancer Care in the United States: A System in Transition</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4205156204</t>
+          <t>https://openalex.org/W3092134418</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1542/peds.110.s3.1301</t>
+          <t>https://doi.org/10.3917/cnx.113.0075</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Blum (2002)</t>
+          <t>Béraud &amp; Ravit (2020)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Introduction</t>
+          <t>Approche clinique et psychodynamique des expériences d’effroi… chez les patients hospitalisés en unité pour malades difficiles</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>In 1984, US Surgeon General C. Everett Koop, MD, cohosted a national invitational conference with Undersecretary of Education Madeline Will, focusing on the needs of older adolescents with chronic and disabling conditions.1 For the first time, issues of health care transition were on the national radar. This new attention was brought about by dramatically improved survival rates during the 1970s and early 1980s for children born with chronic and disabling conditions. That conference was followed 5 years later by the 1989 Surgeon General’s Conference titled “Growing Up and Getting Medical Care: Youth with Special Health Care Needs.”2 That conference set forth a national agenda in training, research, and program development with a goal of establishing a seamless health care system that would allow young people with special health care needs to move from child-centered to adult-centered services.Today, nearly 2 decades after the first invitational conference, the process of transitioning youth with special health needs to adult health care appears to be only marginally further ahead of where it was at that time. No doubt, there is more awareness today of the issues facing older adolescents and young adults with special health care needs than there was a generation ago. So too, our knowledge of impediments to and factors that facilitate the transition process has been more clearly established. But it is equally clear that the medical community, specifically, and the health care community, more broadly, have yet to put into place a set of changes needed to ensure that young people most dependent on coordinated health care services are able to make the transition to the adult health care system and still receive the services that they need.It is against this backdrop that in September 2001, the American Academy of Pediatrics sponsored a national invitational conference to bring together leaders from the primary care specialties of pediatrics, internal medicine, and family practice; subspecialties of adolescent medicine, physical medicine and rehabilitation, and neurology and neurodevelopmental disabilities; psychiatry; and the professions of social work, psychology, and nursing as well as parents of young adults with disabilities. The conference was supported by the Maternal and Child Health Bureau of the US Department of Health and Human Services, Health Resources and Services Administration, which has set health care transitions as 1 of its 6 action steps to help ensure that by the year 2010, comprehensive community-based service systems are in place for all children and youth with special health care needs.3 In addition, the Johnson Foundation provided support that allowed the meeting to be held at its educational conference center Wingspread in Racine, Wisconsin. Thirty-eight individuals met from Friday evening until Sunday afternoon to craft a national policy statement on health care transitions.The policy statement (see pages 1304–1306) represents a consensus for the critical first steps that the medical profession needs to undertake if the vision of a family-centered, continuous, comprehensive, coordinated, compassionate, and culturally competent health care system that is as developmentally appropriate as it is technically sophisticated is to be realized. This consensus document has now been approved as policy by the boards of directors of the American Academy of Pediatrics, the American Academy of Family Practice, and the American College of Physicians-American Society of Internal Medicine.In preparing for the conference, 4 papers were commissioned that together deepen our understanding of the health care transition process, the financial factors that complicate that process, and models of care coordination that have the promise of facilitating it.In their article, “Health Care Transition: Destinations Unknown,” Reiss and Gibson review the evolving policies in the United States related to health care transition from the first conference that was held through a 1999 meeting titled “Transition Revolution.” In the 1999 meeting, it was recommended that youth with special health care needs participate as decision makers and partners in the planning process for their own health care. Additionally, participants urged that all youth with special health care needs have identified medical homes that are responsive to their needs. They saw Title V of the Social Security Act4 as a vehicle to facilitate the development of transition systems for children, youth, and young adults with special health care needs and their families, and they identified as a priority the need to provide youth with special health care needs accessible and affordable insurance coverage. Reiss and Gibson provide data from youth, parent, and provider focus groups that identify factors that impede and that promote health care transition in 3 domains: service needs, structural issues, and personal preferences and interpersonal dynamics. They con</t>
+          <t>Les actes violents souffrent depuis longtemps d’une représentation déficitaire du sujet, envisagée comme l’émergence d’une carence représentative mettant indubitablement en difficulté le travail de la pensée. L’acte est alors perçu comme un langage hors expression symbolique. En cela, il génère violence et effroi. Notre propos, en appui sur la clinique rencontrée en unité pour malades difficiles ( umd ), sera ici d’envisager l’agir violent comme une tentative de contextualisation d’un vécu d’effroi. Nous pensons que la répétition des comportements violents serait ainsi des tentatives extrêmes pour « ex-corporer » et déposer à l’extérieur de la psyché, des expériences de destruction subjective impensables mais éprouvables à travers la charge d’effroi qu’elles véhiculent. L’ umd serait un lieu « spécifique » dédié à l’accueil de ces éléments archaïques en attente de transformation subjectivante. Le psychologue exerçant dans une telle institution ferait ainsi office de méta-conteneur du travail du négatif pour tenter de symboliser la destructivité.</t>
         </is>
       </c>
     </row>
@@ -745,501 +750,582 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2083191661</t>
+          <t>https://openalex.org/W1998058414</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0966-9795(01)00082-6</t>
+          <t>https://doi.org/10.1109/iros.2013.6696514</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Inui &amp; Yamaguchi (2001)</t>
+          <t>Furgale et al. (2013)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Deformation mechanisms of transition-metal disilicides with the hexagonal C40 structure</t>
+          <t>Unified temporal and spatial calibration for multi-sensor systems</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>The deformation mechanisms of (0001)&lt;1210&gt; basal slip in single crystals of five different transition-metal disilicides with the hexagonal C40 structure has been investigated in the temperature range from room temperature to 1500 °C in compression. High resolution transmission electron microscopy of the core structure of 1/3&lt;1210&gt; dislocations is used to deduce the difference in deformation mechanisms. These five different disilicides are found to be classified into two groups depending on deformation mechanism, which is reflected in the difference in the onset temperature for plastic flow. The low-temperature group, which consists of VSi2, NbSi2 and TaSi2, exhibits the onset temperature for plastic flow around 0.3 T/Tm (Tm: melting temperature) and they deform by a conventional shear mechanism. On the other hand, the high temperature group, which consists of CrSi2 and Mo(Si,Al)2, exhibits the onset temperature around 0.6 T/Tm and they deform by a synchroshear mechanism. Factors affecting the deformation mechanism in these C40 disilicides are discussed in terms of directionality of atomic bonding and the relative stability of the C40 phase with respect to the C11b phase.</t>
+          <t>In order to increase accuracy and robustness in state estimation for robotics, a growing number of applications rely on data from multiple complementary sensors. For the best performance in sensor fusion, these different sensors must be spatially and temporally registered with respect to each other. To this end, a number of approaches have been developed to estimate these system parameters in a two stage process, first estimating the time offset and subsequently solving for the spatial transformation between sensors. In this work, we present on a novel framework for jointly estimating the temporal offset between measurements of different sensors and their spatial displacements with respect to each other. The approach is enabled by continuous-time batch estimation and extends previous work by seamlessly incorporating time offsets within the rigorous theoretical framework of maximum likelihood estimation. Experimental results for a camera to inertial measurement unit (IMU) calibration prove the ability of this framework to accurately estimate time offsets up to a fraction of the smallest measurement period.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1610938443</t>
+          <t>https://openalex.org/W3215381013</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1182/blood-2021-148653</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bainum &amp; James (1977)</t>
+          <t>Chan et al. (2021)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The dynamics and optimal control of spinning spacecraft with movable telescoping appendages. Part C: Effect of flexibility during boom deployment</t>
+          <t>Identification of BCL6 As Synthetic Lethality in RAS-Driven B-Cell Transformation</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>The dynamics of a spinning symmetrical spacecraft system during the deployment (or retraction) of flexible boom-type appendages were investigated. The effect of flexibility during boom deployment is treated by modelling the deployable members as compound spherical pendula of varying length (according to a control law). The orientation of the flexible booms with respect to the hub, is described by a sequence of two Euler angles. The boom members contain a flexural stiffness which can be related to an assumed effective restoring linear spring constant, and structural damping which effects the entire system. Linearized equations of motion for this system, when the boom length is constant, involve periodic coefficients with the frequency of the hub spin. A bounded transformation is found which converts this system into a kinematically equivalent one involving only constant coefficients.</t>
+          <t>Abstract Background: Genetic lesions in the RAS-ERK pathway (NRAS, KRAS, RAF1, MAP2K1, PTPN11, NF1) are oncogenic drivers in ~40% of B-cell acute lymphoblastic leukemia (B-ALL) cases and are associated with chemoresistance and relapse. During normal B-cell development, persistent activation of RAS-ERK-signaling induces negative B-cell selection and cell death (Yasuda et al., 2011). The deleterious effect of persistent RAS-ERK signaling is mainly caused by PRDM1-mediated repression of BCL6 (Setz et al., 2018). Hence, the tumor suppressor PRDM1 and the proto-oncogene BCL6 are reciprocal antagonists during B-cell development (Shaffer et al., 2002). Genetic lesions that cause permanent activation of the RAS-ERK pathway in B-ALL would be expected to cell death as in normal B-cell development. Here we examined the mechanistic basis of how oncogenic activation of RAS-ERK signaling in B-ALL not only avoids cell death but also promotes malignant transformation. Results: Strikingly, doxycycline-inducible expression of NRAS G12D in murine B-cell precursors, resulted on dramatic increases of BCL6 mRNA (~390-fold) and protein (~50-fold) levels, which came at the expense of PRDM1. For these reasons, we explored mechanisms underpinning transactivation of BCL6 and tested whether RAS-dependent induction of BCL6 represents a mechanism to oppose PRDM1-mediated cell death. Consistent with transactivation of BCL6 downstream of ERK-activation, ChIP-seq analysis revealed binding of ERK-dependent transcription factors (CREB1, ELK1, EGR1, JUND and C-JUN) to the BCL6 promoter in human B cells. Highlighting an essential role of Erk-signaling in RAS-mediated upregulation of Bcl6 expression, pharmacological ERK-inhibition abrogated NRAS G12D-mediated Bcl6 induction. Likewise, Erk2-deletion abolished the ability of B-ALL cells to induce expression of Bcl6. Furthermore, pharmacological activation of ERK (BCI-215) markedly induced BCL6 expression. Together, these findings reveal a new pathway of BCL6-activation in B-ALL cells that depends on oncogenic RAS-ERK-signaling. To address the mechanistic role of BCL6 in RAS-driven B-ALL, we established a genetic model for Cre-mediated deletion of Bcl6 in NRAS G12D B-ALL cells. Genetic ablation of Bcl6 resulted in rapid depletion of B-ALL cells and compromised colony formation. Notably, Bcl6-deletion prevented leukemia-initiation in transplant recipient mice (P=0.007). Furthermore, patient-derived RAS-driven B-ALL cells were highly sensitive to pharmacological inhibition of BCL6 using peptide (RI-BPI) and small molecule (FX1) inhibitors. Importantly, treatment with RI-BPI delayed onset of fatal disease and prolonged survival of transplant recipient mice (P=0.009). We then tested whether targeting BCL6 can be leveraged in combination with existing treatment regimen and found that RI-BPI potentiated the effects of vincristine on killing patient-derived RAS-driven B-ALL cells. Hence, BCL6 represents a previously unrecognized therapeutic target in RAS-driven B-ALL that can be leveraged to sensitize to conventional chemotherapy. Mechanistically, genetic ablation or pharmacological inhibition of BCL6 increased expression of PRDM1 in RAS-driven B-ALL cells. shRNA-mediated knockdown of Prdm1 rescued Bcl6-deficiency in RAS-driven B-ALL cells. While Bcl6-deletion resulted in cell death of B-ALL cells, this was largely reversed by loss of Prdm1. Altogether, our findings suggest that compromised leukemogenesis was a result of aberrant PRDM1 expression in BCL6-deficient RAS-driven B-ALL cells. Conclusions: While permanent activation of the RAS-ERK pathway induces negative selection and cell death in normal B-cell precursors owing to excessive activation of the PRDM1 tumor suppressor, B-ALL cells carrying RAS-activating lesions have evolved a mechanism to evade PRDM1-mediated cell death by massive (&amp;amp;gt;300-fold) upregulation of BCL6. In RAS-driven B-ALL, oncogenic expression of BCL6 suppresses PRDM1 and enables malignant transformation. Importantly, BCL6 expression in RAS-driven B-ALL represents a previously unrecognized synthetic lethality. Hence, peptide and small molecule inhibition of BCL6 de-represses PRDM1, reconstitutes PRDM1-dependent tumor suppression and represents a selective vulnerability in RAS-driven B-ALL cells that can be leveraged to overcome conventional mechanisms of drug-resistance in refractory B-ALL. Disclosures No relevant conflicts of interest to declare.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4225300071</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/01.nep.0000000000000920</t>
+          <t>https://openalex.org/W1610938443</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ellis et al. (2021)</t>
+          <t>Bainum &amp; James (1977)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Parkinson’s Disease Medication Administration During a Care Transition: The Impact of Interprofessional Team Simulation on Student Competency, Comfort, and Knowledge</t>
+          <t>The dynamics and optimal control of spinning spacecraft with movable telescoping appendages. Part C: Effect of flexibility during boom deployment</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>This study investigated the impact of an interprofessional mock code on students' comfort and competency related to Parkinson's disease (PD) medication administration during care transitions.Patients with PD are at increased risk for medication errors during hospitalization. Individualization of PD medication creates vulnerability during care transitions.Four interprofessional groups took part in this study: baccalaureate degree senior nursing students (n = 113), master's level nurse anesthesia students (n = 35), doctor of osteopathic medicine fourth-year students (n = 32), and doctor of clinical psychology fourth-year students (n = 22). Groups participated in an unfolding case study simulation involving a mock code with a focus on the omission of time-sensitive PD medication. Pre- and postsimulation test results were compared.Findings indicated an increased understanding among three of the four groups relating to medication timing during care transitions.All groups improved with respect to perceived comfort and competency.</t>
+          <t>The dynamics of a spinning symmetrical spacecraft system during the deployment (or retraction) of flexible boom-type appendages were investigated. The effect of flexibility during boom deployment is treated by modelling the deployable members as compound spherical pendula of varying length (according to a control law). The orientation of the flexible booms with respect to the hub, is described by a sequence of two Euler angles. The boom members contain a flexural stiffness which can be related to an assumed effective restoring linear spring constant, and structural damping which effects the entire system. Linearized equations of motion for this system, when the boom length is constant, involve periodic coefficients with the frequency of the hub spin. A bounded transformation is found which converts this system into a kinematically equivalent one involving only constant coefficients.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2094600015</t>
+          <t>https://openalex.org/W2995359922</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s030500099800364x</t>
+          <t>https://doi.org/10.48550/arxiv.1912.07648</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Colas (1999)</t>
+          <t>Liu et al. (2019)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Introducing infants to referential events: a development study of maternal ostensive marking in French</t>
+          <t>Rethinking Medical Image Reconstruction via Shape Prior, Going Deeper and Faster: Deep Joint Indirect Registration and Reconstruction</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>It is well known that mothers give then infants lessons in conversational competence from an early age. This study considered how maternal gestures and prosody contribute to this developing competence. It examines how mothers use ostensive marking to point out common references at different stages of development. The corpus consisted of longitudinal observations of four mother-infant dyads during free play (infants aged 0;4 to 1;1), at three stages of sensorimotor development (III, IV and V). Four dimensions of ostensive marking were considered: (1) the span of the marked utterance (holistic vs. local); (2) the communication channel used (gestural vs. prosodic); (3) the type of gestural marker (oriented, iconic, conventional, beats); and (4) the type of prosodic marker (emphasis, prosodic cliché, reinforced nuclear stress, focal accent). Although there was no clear change in the patterns of specific types of gestural or prosodic markers, the results showed that mothers adapt their gestures to the infant's processing level. Between stages III and V, they move from holistic to local and from gestural to prosodic marking. Stage IV appears to be an excellent period for observing the transition.</t>
+          <t>Indirect image registration is a promising technique to improve image reconstruction quality by providing a shape prior for the reconstruction task. In this paper, we propose a novel hybrid method that seeks to reconstruct high quality images from few measurements whilst requiring low computational cost. With this purpose, our framework intertwines indirect registration and reconstruction tasks is a single functional. It is based on two major novelties. Firstly, we introduce a model based on deep nets to solve the indirect registration problem, in which the inversion and registration mappings are recurrently connected through a fixed-point interaction based sparse optimisation. Secondly, we introduce specific inversion blocks, that use the explicit physical forward operator, to map the acquired measurements to the image reconstruction. We also introduce registration blocks based deep nets to predict the registration parameters and warp transformation accurately and efficiently. We demonstrate, through extensive numerical and visual experiments, that our framework outperforms significantly classic reconstruction schemes and other bi-task method; this in terms of both image quality and computational time. Finally, we show generalisation capabilities of our approach by demonstrating their performance on fast Magnetic Resonance Imaging (MRI), sparse view computed tomography (CT) and low dose CT with measurements much below the Nyquist limit.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3186116205</t>
+          <t>https://openalex.org/W4386070126</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-88506-5.50238-2</t>
+          <t>https://doi.org/10.3390/jintelligence11090170</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Baratsas et al. (2021)</t>
+          <t>Wang et al. (2023)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Circular Economy Systems Engineering: A case study on the Coffee Supply Chain</t>
+          <t>AI for Psychometrics: Validating Machine Learning Models in Measuring Emotional Intelligence with Eye-Tracking Techniques</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>The current linear “take-make-waste” extractive models that have powered the tremendous growth of the last centuries, lead to the depletion of natural resources and environmental degradation. Circular Economy (CE) aims to address these impacts by building supply chains that are restorative, regenerative, and environmentally benign, through re-utilizing products and materials, using renewable energy sources, and closing any open loops. Process Systems Engineering (PSE) could play a critical role in this transition, providing the necessary analytical tools for a quantitative evaluation, and exploring alternative pathways for social and economic advancement. As such, we present here a novel framework for the modeling and optimization of CE food supply chains, along with a representative case study for the supply chain of coffee. First, the alternative pathways for the production of the desired product and the utilization of wastes are identified. Then, a Resource-Task-Network (RTN) representation that captures all these pathways is constructed. Since this analysis must be conducted holistically, a mixed-integer linear programming model that captures the entire supply chain, its objectives, and constraints is formulated, and it is solved to multi-objective optimality.</t>
+          <t>AI, or artificial intelligence, is a technology of creating algorithms and computer systems that mimic human cognitive abilities to perform tasks. Many industries are undergoing revolutions due to the advances and applications of AI technology. The current study explored a burgeoning field-Psychometric AI, which integrates AI methodologies and psychological measurement to not only improve measurement accuracy, efficiency, and effectiveness but also help reduce human bias and increase objectivity in measurement. Specifically, by leveraging unobtrusive eye-tracking sensing techniques and performing 1470 runs with seven different machine-learning classifiers, the current study systematically examined the efficacy of various (ML) models in measuring different facets and measures of the emotional intelligence (EI) construct. Our results revealed an average accuracy ranging from 50-90%, largely depending on the percentile to dichotomize the EI scores. More importantly, our study found that AI algorithms were powerful enough to achieve high accuracy with as little as 5 or 2 s of eye-tracking data. The research also explored the effects of EI facets/measures on ML measurement accuracy and identified many eye-tracking features most predictive of EI scores. Both theoretical and practical implications are discussed.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3111802645</t>
+          <t>https://openalex.org/W3186116205</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.32983/2222-4459-2020-10-384-391</t>
+          <t>https://doi.org/10.1016/b978-0-323-88506-5.50238-2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Проскурніна (2020)</t>
+          <t>Baratsas et al. (2021)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Transformation of Business Models of Retail Enterprises in the Conditions of Digitalization</t>
+          <t>Circular Economy Systems Engineering: A case study on the Coffee Supply Chain</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>The article is aimed at generalizing the theoretical and practical principles of transformation of business models of retail enterprises in the digitalization of the economy. The determinants of innovative transformation of retail business models are characterized, which allow, based on internal and external conditions, to critically rethink and adjust the basic principle by which value is created. The need to search for ideas of the latest business models of retail trade, on the basis of which enterprises will be able to be successful and grow rapidly in the conditions of digitalization, is proved. A scientific generalization and systematization of business models of value creation in both off-line and on-line channels is carried out. According to the model of Graf and Schneider, a value chain is defined, which is based on the following primary activities: supply (range, focused on demand); presentation of the product (photo of the product, listing, recommendations, text); marketing and sales (off-line marketing, on-line marketing, sales channels); executing sale and purchase (issue of check, payment methods, risk analysis); logistics (delivery of goods, management of return of goods); customer service (dialogue with the client in social networks, hot-line, chat, on-line self-service). These determinants in the course of value creation can be materialized on the basis of innovative approaches, through multichannel sales, use of brands, pricing management, integration of customers into various processes and shopper marketing (buying marketing), which allows to focus on the decision-making process from the first opinion of the consumer about the purchase of goods and further on, during making the choice. It is noted that the rapid response to changes, the proactive search for new ideas and high readiness for digitalization are triggers of the successful transformation of the business model of retailers in the digital revolution. As the main competencies at the retail enterprises the author defines innovation, digital intelligence and personalization, which must be adequately used to win the competition.</t>
+          <t>The current linear “take-make-waste” extractive models that have powered the tremendous growth of the last centuries, lead to the depletion of natural resources and environmental degradation. Circular Economy (CE) aims to address these impacts by building supply chains that are restorative, regenerative, and environmentally benign, through re-utilizing products and materials, using renewable energy sources, and closing any open loops. Process Systems Engineering (PSE) could play a critical role in this transition, providing the necessary analytical tools for a quantitative evaluation, and exploring alternative pathways for social and economic advancement. As such, we present here a novel framework for the modeling and optimization of CE food supply chains, along with a representative case study for the supply chain of coffee. First, the alternative pathways for the production of the desired product and the utilization of wastes are identified. Then, a Resource-Task-Network (RTN) representation that captures all these pathways is constructed. Since this analysis must be conducted holistically, a mixed-integer linear programming model that captures the entire supply chain, its objectives, and constraints is formulated, and it is solved to multi-objective optimality.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4392774098</t>
+          <t>https://openalex.org/W3111802645</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4271/2023-01-5143</t>
+          <t>https://doi.org/10.32983/2222-4459-2020-10-384-391</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kumar et al. (2024)</t>
+          <t>Проскурніна (2020)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Design and Testing of Unmanned Aerial Vehicle with Morphing Control Surface</t>
+          <t>Transformation of Business Models of Retail Enterprises in the Conditions of Digitalization</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>&amp;lt;div class="section abstract"&amp;gt;&amp;lt;div class="htmlview paragraph"&amp;gt;The prospective generation of Unmanned Aerial Vehicles (UAVs) can attempt to eliminate conventional primary control surfaces, thereby seeking to enhance operational efficiency. This endeavor constitutes an experimental manifestation of morphing principles utilizing Shape Memory Alloy (SMA), specifically Nitinol, to actuate control surfaces through a meticulously orchestrated application of power cycles at diverse frequencies. The integration of Morphing Technology has garnered heightened attention within the aviation industry, owing to its capacity to augment efficiency and performance across a spectrum of flight conditions.&amp;lt;/div&amp;gt;&amp;lt;div class="htmlview paragraph"&amp;gt;The intrinsic appeal of morphing lies in its potential to dynamically alter wing geometry during flight, thereby optimizing fuel efficiency and mitigating environmental impact through diminished carbon emissions resulting from reduced drag. This, in turn, necessitates reduced thrust to achieve similar or same performance levels.&amp;lt;/div&amp;gt;&amp;lt;div class="htmlview paragraph"&amp;gt;The pivotal material employed for achieving desired shape alterations is Nitinol, distinguished by its Shape Memory Alloy (SMA) characteristics when subjected to controlled heating beyond its transformation temperature. The process entails the passage of current through the Nitinol wire until it reverts to its initial preset configuration. However, this method is inherently limited, attaining only maximum deflection when activated and maintaining a neutral deflection when inactive.&amp;lt;/div&amp;gt;&amp;lt;div class="htmlview paragraph"&amp;gt;To overcome this inherent constraint, a strategy is devised, involving the manipulation of the control surface deflection angle. This is accomplished through the judicious activation and deactivation of the circuit at varied time intervals, enabling a spectrum of deflection angles to be achieved. This transformative approach holds considerable promise for application in low and medium altitude UAVs, thereby potentially extending their range and/or endurance. With a potential to improve of approx. 2% can be observed compared to conventional methods.&amp;lt;/div&amp;gt;&amp;lt;/div&amp;gt;</t>
+          <t>The article is aimed at generalizing the theoretical and practical principles of transformation of business models of retail enterprises in the digitalization of the economy. The determinants of innovative transformation of retail business models are characterized, which allow, based on internal and external conditions, to critically rethink and adjust the basic principle by which value is created. The need to search for ideas of the latest business models of retail trade, on the basis of which enterprises will be able to be successful and grow rapidly in the conditions of digitalization, is proved. A scientific generalization and systematization of business models of value creation in both off-line and on-line channels is carried out. According to the model of Graf and Schneider, a value chain is defined, which is based on the following primary activities: supply (range, focused on demand); presentation of the product (photo of the product, listing, recommendations, text); marketing and sales (off-line marketing, on-line marketing, sales channels); executing sale and purchase (issue of check, payment methods, risk analysis); logistics (delivery of goods, management of return of goods); customer service (dialogue with the client in social networks, hot-line, chat, on-line self-service). These determinants in the course of value creation can be materialized on the basis of innovative approaches, through multichannel sales, use of brands, pricing management, integration of customers into various processes and shopper marketing (buying marketing), which allows to focus on the decision-making process from the first opinion of the consumer about the purchase of goods and further on, during making the choice. It is noted that the rapid response to changes, the proactive search for new ideas and high readiness for digitalization are triggers of the successful transformation of the business model of retailers in the digital revolution. As the main competencies at the retail enterprises the author defines innovation, digital intelligence and personalization, which must be adequately used to win the competition.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3129739317</t>
+          <t>https://openalex.org/W2027717763</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jcis.2021.02.057</t>
+          <t>https://doi.org/10.12968/jowc.1999.8.9.26205</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Peychev &amp; Slavchov (2021)</t>
+          <t>Hofman (1999)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Adsorption model and phase transitions of diblock perfluoroalkylated surfactants at the water∣alkane interface</t>
+          <t>The past and future progress of wound care</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>We present a theory of the adsorption behaviour and phase transitions in monolayers of perfluoroalkylated alcohols, n-CnF2n+1CmH2mOH, at the water∣oil interface, and validate it for a range of temperatures and surfactant structures. The reason for the observed cohesive behaviour is identified as dispersion attraction between the fluorocarbon blocks. The London constant is determined from the increment of the lateral attraction parameter with the size of the fluorocarbon chain. The monolayers exhibit phase transition from liquid expanded state to van der Waals crystal. However, they are supercritical with respect to the gas–liquid transition. For the description of the liquid phase, we use the sticky disc model – fluid monolayer made of hard discs interacting with a short-ranged sticky potential. For the crystalline phase, a two-dimensional cell model is developed using the same interaction potential. This new model coincides with the empirical equation of state of Jura and Harkins, and ascribes physical meaning to its parameters. We extend the theory of Ivanov et al. for the adsorption constant Ka to diblock molecules; it predicts accurately the dependence of Ka and the adsorption heat on the surfactant structure. An invariant phase diagram of the monolayers is constructed.</t>
+          <t>The forthcoming European Wound Management Association (EWMA) meeting in Harrogate (November 9-11) promises debate on a broad range of topics. The progress of wound healing during the past century will be reviewed, with particular emphasis on the radical changes that have emerged during the past 30 years. In this time there has been an upsurge in the availability of wound-care products in developed countries, together with an increasing emphasis on the need for evidence-based medicine.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390729744</t>
+          <t>https://openalex.org/W3001590248</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/jsen.2024.3349422</t>
+          <t>https://doi.org/10.5250/legacy.36.2.0181</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Peng et al. (2024)</t>
+          <t>Strand (2019)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Constant Temperature Hot-Film Sensor for the Measurement of Near-Wall Turbulence and Flow Direction</t>
+          <t>Women's Petitions and &amp;lt;em&amp;gt;The Linwoods&amp;lt;/em&amp;gt;</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wall shear stress and flow direction provide a basis for analyzing the boundary layer conditions, investigating drag reduction mechanisms, and enhancing environmental perception. This work presents novel single-loop and dual-loop hot-film sensors driven by the constant temperature, which are capable of simultaneously measuring wall shear stress and flow direction. Based on the heat transfer and fluid dynamics theory, a mathematical model is developed to analyze the flow directions. The sensors feature multi-layer structures, where the numerous leads are concealed and embedded in the insulation layer to enhance their robustness and integration. Utilizing the microelectromechanical system technology, sensor prototypes with single-loop and double-loop are fabricated. In particular, a new process method for accomplishing junction holes in the polyimide insulation layer is proposed. The sidewall-to-bottom angle of junction holes fabricated through wet etching is ~29.4°. After metal lays are deposited in the junction holes, the upper and bottom surfaces of the insulation layer are able to conduct electricity. Moreover, a testing system consisting of a microchannel and a turbulence generator is established to carry out the experimental verification. Then, the hot-film sensors are tested in the microchannel with a maximum Reynolds number of &lt;italic xmlns:mml="http://www.w3.org/1998/Math/MathML" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;Re&lt;/i&gt; &lt;sub xmlns:mml="http://www.w3.org/1998/Math/MathML" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;d&lt;/sub&gt; = 8600. Low-frequency turbulence as well as natural transition signals are detected by the hot-film sensors successfully. In the range of wall shear stress from 0 to 14.2 Pa, the accuracies of the dual-loop and single-loop hot-film sensors in perceiving flow directions are better than ± 3° and ± 6.5°, respectively. This work assists to analyze the boundary layer states, investigate drag reduction mechanisms, and enhance environmental perception in flow field.</t>
+          <t>Women's Petitions and The Linwoods Amy Dunham Strand I have again come a petitioner to you," says republican heroine Isabella Linwood to the British military leader Sir Henry Clinton in Catharine Maria Sedgwick's historical romance The Linwoods (1835), highlighting Isabella's repeated role as a petitioner in the novel (275). In central scenes throughout The Linwoods, Isabella petitions Sir Henry, appealing with "due humility" to reunite the Linwood family (240), if not to free her patriot brother Herbert, imprisoned in New York while impetuously seeking reconciliation with their Loyalist father. Isabella's petitions simultaneously trace the constitution of her political convictions from tory to rebel. In turn, Sedgwick petitions her readers throughout her "humble story," echoing Isabella's goals of republican union and transformation for her own era (315). In a series of gendered political performances in The Linwoods, Sedgwick thus invokes a central genre informing mid-nineteenth-century American women's writing: the petition, or political prayer, often on behalf of others—and a foundational genre in Anglo-American jurisprudence, relying on conventions of humility and republicanism to express requests to government officials. In translating the petition's rhetorical conventions of humility and republicanism into The Linwoods with an eye to performances of gender, Sedgwick's fiction foregrounds the constitutive rhetorical production of both citizenship and womanhood in nineteenth-century America. In recent years, historical studies have underlined the importance of tropes of humility and republicanism in petitions by American women who "were clearly aware of gender categories in antebellum America that mapped gender onto the public/private distinction" such that "to petition Congress was, for many women of the early Republic, a calculated but significant political risk" (Carpenter and Moore 483). In the novel, Sedgwick is aware of the calculated risk of women's petitioning; consequently, as in antebellum women's petitioning, she invokes [End Page 181] the humble rhetoric of petitioning with strategic performances of gender to persuade her auditors while still embracing republican ideals, registering protest with the goal of union. In doing so, Sedgwick uses Isabella's petitions to imagine women's political agency and to cast her as a burgeoning model of female citizenship who could still, without losing womanly virtues, participate in the body politic. In petitions to readers, the narrator of The Linwoods does the same, performing gender conventions alongside petitioning's conventions, often to mitigate its potential political risk. Sedgwick is among several nineteenth-century women writers who discursively explore women's political agency through novel incorporations of such in-text, thematic petitions and extratextual, authorial petitions, such that the fictions themselves can be read as petitions to their readers that theorize women's political agency. Not only in The Linwoods, female heroines and their authors strategically recast the rhetoric of the petition—beseeching, appealing, or praying, in speech, writing, or action—to intervene in issues of justice and freedom and to become political actors in gender-inflected ways, as rhetorical situations demand. For instance, at the heart of Harriet Beecher Stowe's Uncle Tom's Cabin (1852), Mrs. Bird petitions for escaped, potentially imprisoned slaves, challenging husband Senator Bird on the Fugitive Slave Law with a political prayer, as she "ruled [in her domestic sphere] more by entreaty and persuasion than by command or argument" (68; emphasis added). Mrs. Bird's spoken petition marks Senator Bird's political transformation, preparing him to receive the live, runaway Eliza at their door, with her own, embodied appeal in "the real presence of distress,—the imploring human eye, the frail, trembling human hand, the despairing appeal of helpless agony" (77; emphasis added). In E. D. E. N. Southworth's The Hidden Hand (1859), the popular heroine Capitola circulates a written petition for Black Donald, also unjustly imprisoned, and, when her conciliatory petition fails, Capitola resorts to action, a radical rescue of this prisoner. While these earlier fictions integrate women's petitioning rhetoric, by the time Rebecca Harding Davis published Life in the Iron-Mills (1861), women's petitioning had become so recognizable that it evolved into a figure sculpted of korl—a fully embodied visual representation of Davis's authorial petitions, direct sentimental appeals to her readers on the soul-starvation...</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2129977543</t>
+          <t>https://openalex.org/W4380877901</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1194/jlr.m200135-jlr200</t>
+          <t>https://doi.org/10.1016/j.mtchem.2023.101600</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Guérin et al. (2002)</t>
+          <t>Rani et al. (2023)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cholesteryl ester flux from HDL to VLDL-1 is preferentially enhanced in type IIB hyperlipidemia in the postprandial state</t>
+          <t>Bifunctional metal-organic frameworks as selective turn-on fluorescence sensors for tryptophan and heterogeneous catalysts for Knoevenagel condensation reaction</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Postprandial triglyceride-rich lipoproteins (TRL) exert proatherogenic effects at the arterial wall, including lipid deposition. Following consumption of a mixed meal (1,200 kcal), plasma-mediated cellular free cholesterol (FC) efflux, lecithin:cholesterol acyltransferase (LCAT), and cholesteryl ester transfer protein (CETP) activities were determined in subjects (n = 12) displaying type IIB hyperlipidemia and compared with those in a normolipidemic control group (n = 14). The relative capacity of plasma to induce FC efflux from Fu5AH cells via the SR-BI receptor was significantly increased 4 h postprandially (+23%; P &lt; 0.005) in the type IIB group, whereas it remained unchanged for postprandial plasma from normolipidemic subjects. LCAT activity was significantly elevated 2 h postprandially in both the IIB and control groups, (+46% and +36%, respectively; P &lt; 0.005 vs. respective baseline value). In type IIB subjects, total cholesteryl ester (CE) mass transfer from HDL to total TRL [chylomicrons (CMs) + VLDL-1 + VLDL-2 + IDL] increased progressively from 15 ± 2 μg CE/h/ml at baseline to 28 ± 2 μg CE transferred/h/ml (+87%; P = 0.0004) at 4 h postprandially. CE transfer to CMs and VLDL-1 was preferentially stimulated (2.6-fold and 2.3-fold respectively) at 4 h in IIB subjects and occurred concomitantly with elevation in mass and particle number of both CMs (2.3-fold) and VLDL-1 (1.3-fold). Furthermore, in type IIB subjects, CETP-mediated total CE flux over the 8 h postprandial period from HDL to potentially atherogenic TRL was significantly enhanced, and notably to VLDL-1 (32-fold elevation; P &lt; 0.005), relative to control subjects. Such CE transfer flux was reflected in a significant postprandial increase in CE-TG ratio in both CMs and VLDL-1 in type IIB plasmas.In conclusion, HDL-CE is preferentially targeted to VLDL-1 via the action of CETP during alimentary lipemia, thereby favoring formation and accumulation of atherogenic CE-rich remnant particles. Postprandial triglyceride-rich lipoproteins (TRL) exert proatherogenic effects at the arterial wall, including lipid deposition. Following consumption of a mixed meal (1,200 kcal), plasma-mediated cellular free cholesterol (FC) efflux, lecithin:cholesterol acyltransferase (LCAT), and cholesteryl ester transfer protein (CETP) activities were determined in subjects (n = 12) displaying type IIB hyperlipidemia and compared with those in a normolipidemic control group (n = 14). The relative capacity of plasma to induce FC efflux from Fu5AH cells via the SR-BI receptor was significantly increased 4 h postprandially (+23%; P &lt; 0.005) in the type IIB group, whereas it remained unchanged for postprandial plasma from normolipidemic subjects. LCAT activity was significantly elevated 2 h postprandially in both the IIB and control groups, (+46% and +36%, respectively; P &lt; 0.005 vs. respective baseline value). In type IIB subjects, total cholesteryl ester (CE) mass transfer from HDL to total TRL [chylomicrons (CMs) + VLDL-1 + VLDL-2 + IDL] increased progressively from 15 ± 2 μg CE/h/ml at baseline to 28 ± 2 μg CE transferred/h/ml (+87%; P = 0.0004) at 4 h postprandially. CE transfer to CMs and VLDL-1 was preferentially stimulated (2.6-fold and 2.3-fold respectively) at 4 h in IIB subjects and occurred concomitantly with elevation in mass and particle number of both CMs (2.3-fold) and VLDL-1 (1.3-fold). Furthermore, in type IIB subjects, CETP-mediated total CE flux over the 8 h postprandial period from HDL to potentially atherogenic TRL was significantly enhanced, and notably to VLDL-1 (32-fold elevation; P &lt; 0.005), relative to control subjects. Such CE transfer flux was reflected in a significant postprandial increase in CE-TG ratio in both CMs and VLDL-1 in type IIB plasmas. In conclusion, HDL-CE is preferentially targeted to VLDL-1 via the action of CETP during alimentary lipemia, thereby favoring formation and accumulation of atherogenic CE-rich remnant particles. In order to maintain cholesterol homeostasis in peripheral tissues, excess cellular cholesterol is returned to the liver for excretion via a multistep process termed “reverse cholesterol transport” (RCT) (1Tall A. Plasma lipid transfer proteins.Annu. Rev. Biochem. 1995; 64: 235-257Google Scholar). A key component of this process involves the transfer of a significant portion of the cholesteryl ester (CE) pool in HDL to apoB-containing lipoproteins (VLDL, IDL, and LDL) via the action of the cholesteryl ester transfer protein (CETP) (2Goldberg D.I. Beltz W.F. Pittman R.C. Evaluation of pathways for the cellular uptake of high density lipoprotein cholesterol esters in rabbits.J Clin Invest. 1991; 87: 331-346Google Scholar).Hyperlipidemia of phenotype IIB is associated with an increased risk of premature coronary artery disease and is characterized by concomitant elevation of circulating levels of atherogenic apoB-containing, triglyceride-rich (VLDL) and cholesterol-rich lipoproteins (VLDL remnants, IDL, and LDL</t>
+          <t>Two new doubly interpenetrated metal-organic frameworks (MOFs) with formulas [{Zn(L1)(5-nipa)}·DMA]α (1a) and [{Cd(L2)(5-nipa)(H2O)}]α (1b) have been discussed herein, where [L1 = N,N'-(oxybis(4,1-phenylene))diisonicotinamide; L2 = N,N'-(methylenebis(4,1-phenylene)) diisonicotinamide; 5-H2nipa = 5-nitroisophthalic acid; DMA = dimethylacetamide]. A single crystal X-ray analysis reveals that 1a exhibits a 2D-interpenetrated interwoven sheet and finally adapts a 3D framework structure with the help of π···π stacking interactions. Similarly, 1b displays a two-fold interpenetrated 2D sheet-like architecture and is finally adjusted to a 3D structure. Both 1a and 1b feature channels with a cross-section of 25.06 × 25.06 Å2 and 24.01 × 24.01 Å2, respectively, running along the b-axis. Topological analysis of 1a and 1b by ToposPro suggests a (4)-connected uninodal sql topology with point symbol {44.62}. Further, 1a and 1b were exploited as molecular sensors for several amino acids exposing different shapes and sizes and exhibiting selective turn-on fluorescence sensing towards biologically important D/L-tryptophan with the notable limit of detection values of 0.084/0.110 μM and 0.143/0.141 μM, respectively, in aqueous medium. In addition, 1a and 1b were also exploited as heterogeneous catalysts towards several assorted aldehydes having different electronic environments, including sterically demanding aldehydes, under mild reaction conditions and obtained up to 97% of the respective Knoevenagel condensation product. Importantly, sterically hindered aldehydes also worked well with the MOF catalysts 1a and 1b, but showed comparatively low conversion. It is important to mention that in both cases, these MOF materials are recyclable for up to five consecutive runs without displaying any substantial loss in their sensing or catalytic activities. Moreover, the present investigation cultivates a new vision to design novel luminescent MOFs that can be used as multifunctional materials for the turn-on sensing of small organic molecules as well as instigated as heterogeneous catalysts in diverse organic transformation reactions.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1986734478</t>
+          <t>https://openalex.org/W3129739317</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02500160108537921</t>
+          <t>https://doi.org/10.1016/j.jcis.2021.02.057</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Henrich (2001)</t>
+          <t>Peychev &amp; Slavchov (2021)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>The griot storyteller and modern media</t>
+          <t>Adsorption model and phase transitions of diblock perfluoroalkylated surfactants at the water∣alkane interface</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ABSTRACT The griot, or African storyteller, was and is today, the main conveyer of the collective wisdom of the tribal peoples of Africa. Stories are presented in a stylistic way and are associated with great enjoyment. Even today among the rural Wolof of Senegal people gather in village squares to hang on each word the griot says. In fact, the Wolof are Muslims, about two million of whom live in Senegal. Large percentages are non-literate and the griot reinforces cultural norms of their adopted Islamic religion. There are many intruding influences on the cultural status quo of human beings. Culture is not static, rather transitional. Historically, this cultural status quo was influenced by increased interaction between villages, development workers desiring to drill wells to bring clean water to the villagers and by medical workers with improved health care and reduced infant mortality. In many ways, these so-called ‘backward’ cultures were wrenched into the 20th century. Culture was ignored. Infrastructure improvements were abandoned because they were ‘extra cultural’ and not desired by the villagers. Innovations which took the west hundreds of years to adopt are pushed onto less developed peoples and if they do not adopt these innovations, they are called laggards by the diffusion researchers. In this article, I will look at the village griot, his influence on the peoples of West Africa and India through two case studies. The first case deals with the Griot as opinion leader in facilitating change in Nigeria. The second case is based on a 1984 project I undertook in southern India using a traditional folk singer, or Villaputu artist to stimulate change. I will address the parallels between the Griot and modern media. My conclusions will be that modern TV &amp; cinema does not occupy the same place as the griot in our society. TV &amp; cinema do wield great influence and do communicate culture. Although they are more pervasive in our lives, modern media can provide mixed messages to the viewers.</t>
+          <t>We present a theory of the adsorption behaviour and phase transitions in monolayers of perfluoroalkylated alcohols, n-CnF2n+1CmH2mOH, at the water∣oil interface, and validate it for a range of temperatures and surfactant structures. The reason for the observed cohesive behaviour is identified as dispersion attraction between the fluorocarbon blocks. The London constant is determined from the increment of the lateral attraction parameter with the size of the fluorocarbon chain. The monolayers exhibit phase transition from liquid expanded state to van der Waals crystal. However, they are supercritical with respect to the gas–liquid transition. For the description of the liquid phase, we use the sticky disc model – fluid monolayer made of hard discs interacting with a short-ranged sticky potential. For the crystalline phase, a two-dimensional cell model is developed using the same interaction potential. This new model coincides with the empirical equation of state of Jura and Harkins, and ascribes physical meaning to its parameters. We extend the theory of Ivanov et al. for the adsorption constant Ka to diblock molecules; it predicts accurately the dependence of Ka and the adsorption heat on the surfactant structure. An invariant phase diagram of the monolayers is constructed.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1541265469</t>
+          <t>https://openalex.org/W1986734478</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-7660.2012.01743.x</t>
+          <t>https://doi.org/10.1080/02500160108537921</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Razavi (2012)</t>
+          <t>Henrich (2001)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;i&gt;World Development Report 2012: Gender Equality and Development&lt;/i&gt;— A Commentary</t>
+          <t>The griot storyteller and modern media</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Development and ChangeVolume 43, Issue 1 p. 423-437 Assessment World Development Report 2012: Gender Equality and Development— A Commentary Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author First published: 21 February 2012 https://doi.org/10.1111/j.1467-7660.2012.01743.xCitations: 60Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Abramo, Lais and Maria Elena Valenzuela (2005) ‘Women's Labour Force Participation Rates in Latin America’, International Labour Review 144(4): 370–99. Agarwal, Bina (1994) A Field of One's Own: Gender and Land Rights in South Asia. Cambridge : Cambridge University Press. Arza, Camila (forthcoming) “ Pension Reform and Gender Equality in Latin America.” Programme Paper. Geneva : UNRISD. Bangura, Yusuf (2000) ‘ Public Sector Restructuring: The Institutional and Social Effects of Fiscal, Managerial and Capacity-Building Reforms’. Occasional Paper No. 3. Geneva : UNRISD. Beneria, Lourdes (2001) ‘Shifting the Risk: New Employment Patterns, Informalization, and Women's Work’, International Journal of Politics, Culture and Society 15(1): 27–53. Berik, Günseli and Yana van der Meulen Rodgers (2009) ‘ Engendering Development Strategies and Macroeconomic Policies? What's Sound and Sensible?’, in Günseli Berik, Yana van der Meulen Rodgers and Ann Zammit (eds) Social Justice and Gender Equality: Rethinking Development Strategies and Macroeconomic Policies, pp. 1–43. London and New York : Routledge/UNRISD. Borchorst, Anette (1994) ‘The Scandinavian Welfare States: Patriarchal, Gender-Neutral or Woman-Friendly?’, International Journal of Contemporary Sociology 31: 1–23. Budlender, Debbie (2008) ‘ Feasibility and Appropriateness of Attaching Behavioural Conditions to a Social Support Grant for Children Aged 15–17 Years’. Report prepared for Department of Social Development (Government of South Africa), Final Version. Cerrutti, Marcela (2000) ‘Economic Reform, Structural Adjustment and Female Labor Force Participation in Buenos Aires, Argentina’, World Development 28(5): 879–91. Chen, Martha, Joanne Vanek, Francie Lund, James Heintz, Renana Jhabvala and Chris Bonner (2005) Progress of the World's Women 2005: Women, Work, and Poverty. New York : UNIFEM. DFID (2011) ‘ Cash Transfers Evidence Paper. Policy Division. London : Department for International Development. Dolan, Catherine and Kristina Sorby (2003) ‘ Gender and Employment in High-Value Agriculture Industries’. Agriculture and Rural Development Working Paper No. 7. Washington , DC : The World Bank. Dollar, David and Roberta Gatti (1999) ‘ Gender Inequality, Income, and Growth: Are Good Times Good for Women?. World Bank Policy Research Report Working Paper Series No. 1. Washington , DC : The World Bank. Elson, Diane (1995) ‘ Male Bias in Macroeconomics: The Case of Structural Adjustment’, in Diane Elson (ed.) Male Bias in the Development Process, pp. 164–90. Manchester : Manchester University Press. Elson, Diane (1999) ‘Labor Markets as Gendered Institutions: Equality, Efficiency and Empowerment Issues’, World Development 27(3): 611–27. Elson, Diane (2009) ‘Gender Equality and Economic Growth in the World Bank World Development Report 20</t>
+          <t>ABSTRACT The griot, or African storyteller, was and is today, the main conveyer of the collective wisdom of the tribal peoples of Africa. Stories are presented in a stylistic way and are associated with great enjoyment. Even today among the rural Wolof of Senegal people gather in village squares to hang on each word the griot says. In fact, the Wolof are Muslims, about two million of whom live in Senegal. Large percentages are non-literate and the griot reinforces cultural norms of their adopted Islamic religion. There are many intruding influences on the cultural status quo of human beings. Culture is not static, rather transitional. Historically, this cultural status quo was influenced by increased interaction between villages, development workers desiring to drill wells to bring clean water to the villagers and by medical workers with improved health care and reduced infant mortality. In many ways, these so-called ‘backward’ cultures were wrenched into the 20th century. Culture was ignored. Infrastructure improvements were abandoned because they were ‘extra cultural’ and not desired by the villagers. Innovations which took the west hundreds of years to adopt are pushed onto less developed peoples and if they do not adopt these innovations, they are called laggards by the diffusion researchers. In this article, I will look at the village griot, his influence on the peoples of West Africa and India through two case studies. The first case deals with the Griot as opinion leader in facilitating change in Nigeria. The second case is based on a 1984 project I undertook in southern India using a traditional folk singer, or Villaputu artist to stimulate change. I will address the parallels between the Griot and modern media. My conclusions will be that modern TV &amp; cinema does not occupy the same place as the griot in our society. TV &amp; cinema do wield great influence and do communicate culture. Although they are more pervasive in our lives, modern media can provide mixed messages to the viewers.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2269927566</t>
+          <t>https://openalex.org/W1541265469</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2217/pmt.15.51</t>
+          <t>https://doi.org/10.1111/j.1467-7660.2012.01743.x</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ingelmo et al. (2016)</t>
+          <t>Razavi (2012)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pain control after pediatric surgery: learning from the past to perfect the future</t>
+          <t>&lt;i&gt;World Development Report 2012: Gender Equality and Development&lt;/i&gt;— A Commentary</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pain ManagementVol. 6, No. 1 EditorialPain control after pediatric surgery: learning from the past to perfect the futurePablo Ingelmo, Gonzalo Rivera &amp; Robert BairdPablo Ingelmo*Author for correspondence: E-mail Address: pablo.ingelmo@mcgill.ca Chronic Pain Service, Department of Anesthesia, Montreal Children’s Hospital, 1001 Decaire Boulevard, B04.2427, Montreal, H4A 3J1, CanadaSearch for more papers by this author, Gonzalo Rivera Chronic Pain Service, Department of Anesthesia, Montreal Children’s Hospital, 1001 Decaire Boulevard, B04.2427, Montreal, H4A 3J1, CanadaSearch for more papers by this author &amp; Robert Baird Department of Pediatric Surgery, Montreal Children’s Hospital, 1001 Decaire Boulevard, B04.2316, Montreal, H4A 3J1, CanadaSearch for more papers by this authorPublished Online:17 Dec 2015https://doi.org/10.2217/pmt.15.51AboutSectionsView ArticleView Full TextPDF/EPUB ToolsAdd to favoritesDownload CitationsTrack CitationsPermissionsReprints ShareShare onFacebookTwitterLinkedInRedditEmail View articleKeywords: analgesiachildrenpainpediatric surgerypostoperativeReferences1 Liu Y, Seipel C, Lopez ME et al. A retrospective study of multimodal analgesic treatment after laparoscopic appendectomy in children. Paediatr. Anaesth. 23(12), 1187–1192 (2013).Medline, Google Scholar2 Stewart DW, Ragg PG, Sheppard S, Chalkiadis GA. The severity and duration of postoperative pain and analgesia requirements in children after tonsillectomy, orchidopexy, or inguinal hernia repair. Paediatr. Anaesth. 22(2), 136–143 (2012).Crossref, Medline, Google Scholar3 Macrae WA. Chronic post-surgical pain: 10 years on. Br. J. Anaesth. 101(1), 77–86 (2008).Crossref, Medline, CAS, Google Scholar4 Rashiq S, Dick BD. Post-surgical pain syndromes: a review for the non-pain specialist. Can. J. Anesth. 61(2), 123–130 (2014).Crossref, Medline, Google Scholar5 Nelson KL, Yaster M, Kost-Byerly S, Monitto CL. A national survey of American pediatric anesthesiologist: patient-controlled analgesia and other intravenous opioid therapies in pediatric acute management. Anesth. Analg. 110(3), 754–760 (2010).Crossref, Medline, CAS, Google Scholar6 Howard RF, Lloyd-Thomas A, Thomas M et al. Nurse-controlled analgesia (NCA) following major surgery in 10,000 patients in a children’s hospital. Paediatr. Anaesth. 20(2), 126–134 (2010).Crossref, Medline, Google Scholar7 McNicol ED, Ferguson MC, Hudcova J. Patient controlled opioid analgesia versus non-patient controlled opioid analgesia for postoperative pain. Cochrane Database Syst. Rev. 2(6), CD003348 (2015).Google Scholar8 Jöhr M. Regional anaesthesia in neonates, infants and children: an educational review. Eur. J. Anaesthesiol. 32(5), 289–297 (2015).Crossref, Medline, Google Scholar9 Baird R, Guilbault MP, Tessier R, Ansermino JM. A systematic review and meta-analysis of caudal blockade versus alternative analgesic strategies for pediatric inguinal hernia repair. J. Pediatr. Surg. 48(5), 1077–1085 (2013).Crossref, Medline, Google Scholar10 Abdallah FW, Brull R. The definition of block “success” in the contemporary literature: are we speaking the same language? Reg. Anesth. Pain Med. 37(5), 545–553 (2012).Crossref, Medline, Google Scholar11 MacLaren J, Kain ZN. Research to practice in pediatric pain: what are we missing? Pediatrics 122(2), 443–444 (2008).Crossref, Medline, Google Scholar12 Ingelmo PM, Bucciero M, Somaini M et al. Intraperitoneal nebulization of ropivacaine for pain control after laparoscopic cholecystectomy: a double-blind, randomized, placebo-controlled trial. Br. J. Anaesth. 110(5), 800–806 (2013).Crossref, Medline, CAS, Google Scholar13 Gonzalez KW, Dalton BG, Millspaugh D, Thomas PG, St Peter SD. Epidural versus patient-controlled analgesia after pediatric thoracotomy for malignancy: a preliminary review. Eur. J. Pediatr. Surg. doi:10.1055/s-0035-1554805 (2015) (Epub ahead of print).Medline, Google Scholar14 Suresh S, Chan VW. Ultrasound guided transversus abdominis plane block in infants, children and adolescents: a simple procedural guidance for their performance. Paediatr. Anaesth. 19(4), 296–299 (2009).Crossref, Medline, Google Scholar15 Di Pede A, Morini F, Lombardi MH et al. Comparison of regional vs systemic analgesia for post-thoracotomy care in infants. Paediatr. Anaesth. 24(6), 569–573 (2014).Crossref, Medline, Google Scholar16 Joshi GP, Schug SA, Kehlet H. Procedure-specific pain management and outcome strategies. Best Pract. Res. Clin. Anaesthesiol. 28(2), 191–201 (2014).Crossref, Medline, Google Scholar17 McGrath PJ, Walco GA, Turk DC et al. Core outcome domains and measures for pediatric acute and chronic/recurrent pain clinical trials: PedIMMPACT recommendations. J. Pain. 9(9), 771–783 (2008).Crossref, Medline, Google Scholar18 Fortier MA, Chou J, Maurer EL, Kain ZN. Acute to chronic postoperative pain in children: preliminary findings. J. Pediatr. Surg. 46(9), 1700–1705 (2011).Crossref, Medline, Google Scholar19 Shipton EA. The transition of acute postoperativ</t>
+          <t>Development and ChangeVolume 43, Issue 1 p. 423-437 Assessment World Development Report 2012: Gender Equality and Development— A Commentary Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author First published: 21 February 2012 https://doi.org/10.1111/j.1467-7660.2012.01743.xCitations: 60Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Abramo, Lais and Maria Elena Valenzuela (2005) ‘Women's Labour Force Participation Rates in Latin America’, International Labour Review 144(4): 370–99. Agarwal, Bina (1994) A Field of One's Own: Gender and Land Rights in South Asia. Cambridge : Cambridge University Press. Arza, Camila (forthcoming) “ Pension Reform and Gender Equality in Latin America.” Programme Paper. Geneva : UNRISD. Bangura, Yusuf (2000) ‘ Public Sector Restructuring: The Institutional and Social Effects of Fiscal, Managerial and Capacity-Building Reforms’. Occasional Paper No. 3. Geneva : UNRISD. Beneria, Lourdes (2001) ‘Shifting the Risk: New Employment Patterns, Informalization, and Women's Work’, International Journal of Politics, Culture and Society 15(1): 27–53. Berik, Günseli and Yana van der Meulen Rodgers (2009) ‘ Engendering Development Strategies and Macroeconomic Policies? What's Sound and Sensible?’, in Günseli Berik, Yana van der Meulen Rodgers and Ann Zammit (eds) Social Justice and Gender Equality: Rethinking Development Strategies and Macroeconomic Policies, pp. 1–43. London and New York : Routledge/UNRISD. Borchorst, Anette (1994) ‘The Scandinavian Welfare States: Patriarchal, Gender-Neutral or Woman-Friendly?’, International Journal of Contemporary Sociology 31: 1–23. Budlender, Debbie (2008) ‘ Feasibility and Appropriateness of Attaching Behavioural Conditions to a Social Support Grant for Children Aged 15–17 Years’. Report prepared for Department of Social Development (Government of South Africa), Final Version. Cerrutti, Marcela (2000) ‘Economic Reform, Structural Adjustment and Female Labor Force Participation in Buenos Aires, Argentina’, World Development 28(5): 879–91. Chen, Martha, Joanne Vanek, Francie Lund, James Heintz, Renana Jhabvala and Chris Bonner (2005) Progress of the World's Women 2005: Women, Work, and Poverty. New York : UNIFEM. DFID (2011) ‘ Cash Transfers Evidence Paper. Policy Division. London : Department for International Development. Dolan, Catherine and Kristina Sorby (2003) ‘ Gender and Employment in High-Value Agriculture Industries’. Agriculture and Rural Development Working Paper No. 7. Washington , DC : The World Bank. Dollar, David and Roberta Gatti (1999) ‘ Gender Inequality, Income, and Growth: Are Good Times Good for Women?. World Bank Policy Research Report Working Paper Series No. 1. Washington , DC : The World Bank. Elson, Diane (1995) ‘ Male Bias in Macroeconomics: The Case of Structural Adjustment’, in Diane Elson (ed.) Male Bias in the Development Process, pp. 164–90. Manchester : Manchester University Press. Elson, Diane (1999) ‘Labor Markets as Gendered Institutions: Equality, Efficiency and Empowerment Issues’, World Development 27(3): 611–27. Elson, Diane (2009) ‘Gender Equality and Economic Growth in the World Bank World Development Report 20</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4247403066</t>
+          <t>https://openalex.org/W1989039149</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/apm.12041</t>
+          <t>https://doi.org/10.1016/j.virusres.2013.02.006</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Kim et al. (2012)</t>
+          <t>Goel et al. (2013)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mutational analysis of &lt;i&gt;SATB1&lt;/i&gt; gene in hepatocellular carcinomas</t>
+          <t>An infectious HHV-6B isolate from a healthy adult with chromosomally integrated virus and a reporter based relative viral titer assay</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>To the Editor To the Editor The Special AT-rich Sequence-Binding protein 1 (SATB1) is a cell-type-specific organizer of the genome 1. SATB1 regulates gene expression in thymocytes and pre B-cells by binding to matrix attachment region (MAR) of DNA 2. MAR is a specific DNA sequence that binds to nuclear matrix in vitro and these sequences have been posited to form the base of chromosomal loops 3. It plays an important role in the organization of higher-order chromatin structure 4. SATB1 as a MAR-binding protein regulates the genes by folding chromatin into loop domain 5. Recent studies have shown that SATB1 promotes tumor growth and metastasis through chromatin gene recombination in breast cancer 6. Furthermore, SATB1 is not only overexpressed in a large number of human cancers, but is also an excellent prognostic marker in some cancers 7-10. All of these findings strongly imply that SATB1 is a possible candidate oncogene that it may contribute to carcinogenesis. Hepatocellular carcinoma (HCC) is one of the most common cancers in the world with the highest incidence in Southeast Asia and Africa. In Korea, it accounts for an estimated 12.2% of all malignancies, with 16.4% in the male population and 6.5% in the female population 11. The pathogenesis of HCC has been studied extensively, and molecular changes during malignant transformation have been identified. Hepatocarcinogenesis is considered as a multistep process originating from hepatic stem cells or mature hepatocytes 12. Genetic and epigenetic alterations leads to an activation of oncogenes and inhibition of tumor suppressor genes accompanied by an escalation of genetic instability and the disruption of signaling pathways related to the main promoters of hepatocarcinogenesis, namely cell proliferation and angiogenesis 13. Until now, mutation of the SATB1 gene has not been described in HCC. To investigate whether or not genetic alterations of SATB1 are involved in hepatocellular carcinogenesis, we searched for somatic mutation of the SATB1 gene in HCC. Hepatocellular carcinoma samples and their corresponding non-cancerous liver tissues of 38 patients were evaluated. This study was approved by the Institutional Review Boards at the Ulsan University Hospital. Frozen tissue samples were ground to a very fine powder in liquid nitrogen. Genomic DNA was prepared using a procedure based on a protocol described previously 14. Genomic DNA samples from cancer cells and corresponding non-cancerous liver tissues were amplified with 15 sets of primers covering the entire coding region (10 exons) of the SATB1 gene (Table 1). Numbering of DNA of the SATB1 was done in respect to the ATG start codon according to the genomic sequence of Genbank accession no. NM_002971. All PCR products in exons 2–11 of the SATB1 gene were screened by single strand conformation polymorphism (SSCP) analysis (Mutation Detection Enhancement; FMC BioProducts, Rockland, ME, USA) with 10% glycerol and sequencing analysis. We repeated the experiments three times to ensure the specificity of the results, and found that the data were consistent. In this study, we found one (2.6%) mutation in 38 HCC cases. The mutation was missense mutation: a AGT to AAT transition at codon 354 (S354N). S354N was found in exon 7A located within the MAR domain of the SATB1 gene. It has been reported that SATB1 recruits histone deacetylase complex to the MAR site inside the interleukin-2 receptor α gene 5. In addition, SATB1 regulates the expression of fetal globin genes by binding to MAR in the β-globin cluster 15. Thus, it is likely that the SATB1 mutation identified in cancer cells may contribute to the development of HCC by defect of protein-protein interaction. There was no mutation in corresponding normal DNAs of these tissues, indicating that the mutation detected in the cancer cells had arisen somatically. SSCP gels of these cases with mutation showed aberrantly migrating mutant bands with remaining wild-type bands, suggesting hemizygous mutations (Fig. 1). Thus, these results suggest that the mutation of the SATB1 gene maybe a rare event in the development of HCC in Korean population. Recent study revealed that SATB1 plays an important role in the development and progression of liver cancer through increase of cell cycle progression and defect in apoptosis 16. As SATB1 promotes tumor growth and metastasis in liver cancer, we presumed that mutation of SATB1 gene might affect not only cell cycle progression but also apoptosis pathway in liver cancer. Functional analysis of the mutation identified in this study will broaden our understanding of the pathogenesis of HCCs. This work was supported by Priority Research Center Program through the National Research Foundation of Korea (NRF) funded by the Ministry of Education, Science and Technology (2012-0717).</t>
+          <t>Human herpesvirus 6B (HHV-6B) primary infections occur in early childhood and establish a life-long latency in the most healthy adults. HHV-6B was detectable in the peripheral blood mononuclear cells (PBMC) and granulocytes by serial genomic DNA dilution PCR till 10 pg of template DNA, in a healthy adult. Epstein Barr virus (EBV) mediated transformation of the PBMC resulted in establishment of a B-cell line. Southern hybridization with the PBMC as well as the cell line DNA showed distinct signals for high copy viral genomes and Gardella gel analysis indicated chromosomal integration of the HHV-6B. Integration site analysis in the PBMC and the cell line indicated an atypical viral integration in non-telomeric region of chromosome 12. Cell free culture medium of the cell line could infect different mononuclear cell lines, naïve or mitogen stimulated PBMC and was found to impart productive infection in a recipient T cell line. An HIV-1 LTR driven luciferase based reporter cell line was made and a single step assay was developed for estimating HHV-6B relative concentration in the culture supernatants. This study thus reports a new infectious HHV-6B isolate with uncommon integration site, spontaneous production from a cell line and also development of a simple relative HHV-6B titer assay.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3118058104</t>
+          <t>https://openalex.org/W2090201870</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0005-2736(99)00034-6</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Adeyanju et al. (2019)</t>
+          <t>Ortíz &amp; Aranda (1999)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Family Care Givers Educational Needs in the Care of the Home Dwelling Aged in Ikare-Akoko Community of Ondo State, Nigeria</t>
+          <t>The influence of vitamin K1 on the structure and phase behaviour of model membrane systems</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Globally, the term family or informal caregiver refers to an unpaid family member, friend, or neighbour who provides care for ill or disabled aged who cannot do for themselves a variety of fundamental tasks due to loss of independence. The purpose of the study was to explore family caregivers' educational needs in the care of aged in Ikare-Akoko Ondo State, Nigeria. A mixed method research design was adopted and a multistage sampling methods were used to select fifty (50) participants for the quantitative descriptive phase and ten (10) participants for the qualitative explorative phase respectively . An observational check list was used to obtain data in the descriptive quantitative phase while an interview guide was used to guide the interview that helped to elicit qualitative data. The instruments were validated and reliability tested. Data were analysed with the aid of International Business Machine SPSS version 23. Descriptive statistics was done to generate frequencies and percentages of responses from the quantitative data while interview excerpts were subjected to content analysis. Major findings of the study showed that family caregivers' practical caregiving need is modest. They appreciably performed procedures on medication care, grooming, pain assessment, food preparation and moving patients. However, caregivers demonstrated inadequate skill in performing procedures on emergency resuscitation. The study also revealed that family caregivers perceived caregiving as merely assisting care recipients with ADL and administering medications. they were found to engage in risky practices which can be detrimental to the health of their older relatives, as well as to their own health. More so, family caregivers possess inadequate information about the illness and treatment of care of the aged. They also lack support and have deficient knowledge on where to get external support. Thus there is need for training on care of older relatives at home and how to access help and support from health and social care professionals. In this light, a health education program for family caregivers of aged in Ikare-Akoko could be based on the Melei's transition theory and should include content such as strategies to care for the aged transition from one life stage to another and to be adequately adapted to new roles among others.</t>
+          <t>Vitamin K1 is a component of the Photosystem I of plants which constitutes the major dietary form of vitamin K. The major function of this vitamin is to be cofactor of the microsomal gamma-glutamylcarboxylase. Recently, novel roles for this vitamin in the membrane have been postulated. To get insight into the influence of vitamin K1 on the phospholipid component of the membrane, we have studied the interaction between vitamin K1 and model membranes composed of dimyristoylphosphatidylcholine (DMPC) and dielaidoylphosphatidylethanolamine (DEPE). We utilized high-sensitivity differential scanning calorimetry and small-angle X-ray diffraction techniques. Vitamin K1 affected the thermotropic properties of the phospholipids, broadened and shifted the transitions to lower temperatures, and produced the appearance of several peaks in the thermograms. The presence of the vitamin gave rise to the formation of vitamin-rich domains which were immiscible with the bulk phospholipid in both the gel and the liquid-crystalline phases. Vitamin K1 was unable to alter the lamellar organization of DMPC, but we found that it produced an increase in the interlamellar repeat spacing of DMPC at 10 degrees C. Interestingly, vitamin K1 promoted the formation of inverted hexagonal HII structures in the DEPE system. We discuss the possible implications that these vitamin K1-phospholipid interactions might have with respect to the biological function of the vitamin.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2911952093</t>
+          <t>https://openalex.org/W4247403066</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.32461/2226-3209.4.2013.138059</t>
+          <t>https://doi.org/10.1111/apm.12041</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Shevchenko (2013)</t>
+          <t>Kim et al. (2012)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The Role of the Modern Ukrainian Family in the Formation of Cultural Identity</t>
+          <t>Mutational analysis of &lt;i&gt;SATB1&lt;/i&gt; gene in hepatocellular carcinomas</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>The article deals with the formation of cultural identity in modern Ukrainian family, analyzes the role of family socialization features. Considerable attention is given to cultural and educational potential of the family and its influence on the cultural identity formation. Process of identity formation is always largely determined by the specific socio-cultural factors which were shaped by centuries of historical development. Family as a social institution deserves priority attention among those fundamental factors. Family – first principle of society. It is a certain social group in which most individual characteristics of the parents , their children and other family members showed through their behavior and personality development which are formed with self-knowledge, self-actualization and socialization of its members. Family by its characteristics is a social structure that goes through various stages of growth and development and through improved performance of its functions. It enriches the treasury of material and spiritual values of the people. The material and moral responsibility of family members to each other and to society is the main feature on the basis of these theoretical studies , modern family has to become a key element in the individual`s education and socialization. Proceeding with historical and modern conceptions of identity, a person in the epicenter of culture, is the highest spiritual value which becomes it`s spiritual essence and a part of humanity. The person develops it through culture. The cultural essence of personality is the backbone component of its integrity. Cultural values in the socio-cultural sphere are achieved by the beliefs of humanity that were formed and still continue to grow in the transformation of the socio-historical situation. The succession of generations is a process of mutual transfer, assimilation, storage and use of material and spiritual values, social information and experience of previous generations where the family plays an important role. The family in Ukraine fells under the influence of transformation of socio-cultural and political processes and transformations. They reflect on it and led to significant changes in their functioning. Socio-economic conditions of life appear in the relationship: increasing conflict, collapsing the established ethical principles of operation of the complete family. Dysfunctions increased in economic, legal and moral vulnerability of families, reducing their role in the socialization and education of children. This affects today's youth significantly. This effect is motivated by emotion, culture, internal rules and possibilities of family resources. However, the modern Ukrainian family does not realize it`s great educational potential. It depends on many social factors , especially economic life marked both positive and negative trends. This feature needs detailed analysis of trends, opportunities and constraints for the implementation of the educational potential of Ukrainian families. It ensures the development of the individual in the modern world. Therefore, the study of socio-cultural and psycho-educational situation in the family upbringing of the young generation has to become a basis for further development of public policy in education. The content of individual’s education in modern Ukrainian family should be integrated into national and humanist culture of the people in Intercontinental area. Content of education should reflect and establish the highest national and universal value orientation in the minds of modern and young people: spiritual, cultural, humanistic, ethical, aesthetic, physical, social and labor. It should also reflect the practice of modern Ukrainian family in the independent state. Based on these theoretical studies, the modern family is a major element in the education of contemporary identity and in shaping its culture. In Ukrainian family, it`s ideas were always clearly distinguished and rooted in the depths of people's life, minds, work and creativity. At all times ideals of the family were the highest and most sacred for our people. Family was considered to be a fundamental principle of human life, a kind of fortress, which provided development and protection of personality’s best qualities, including: labor as the most complete form of expression and creativity of human capabilities, sources of wealth and pleasure; spirituality as a synthetic form of understanding the world and ourselves in the same high moral dimension of creative and humane attitude to the environment and people. Ukrainian family has to cultivate such qualities of character and personality characteristics as: respect for parents and family devotion, commitment to mutual support , formation of national consciousness and identity, love for the land and people, formation of high language culture, respect the culture, customs and traditions of the peoples who inhabit the Ukraine, and the peoples of the world. F</t>
+          <t>To the Editor To the Editor The Special AT-rich Sequence-Binding protein 1 (SATB1) is a cell-type-specific organizer of the genome 1. SATB1 regulates gene expression in thymocytes and pre B-cells by binding to matrix attachment region (MAR) of DNA 2. MAR is a specific DNA sequence that binds to nuclear matrix in vitro and these sequences have been posited to form the base of chromosomal loops 3. It plays an important role in the organization of higher-order chromatin structure 4. SATB1 as a MAR-binding protein regulates the genes by folding chromatin into loop domain 5. Recent studies have shown that SATB1 promotes tumor growth and metastasis through chromatin gene recombination in breast cancer 6. Furthermore, SATB1 is not only overexpressed in a large number of human cancers, but is also an excellent prognostic marker in some cancers 7-10. All of these findings strongly imply that SATB1 is a possible candidate oncogene that it may contribute to carcinogenesis. Hepatocellular carcinoma (HCC) is one of the most common cancers in the world with the highest incidence in Southeast Asia and Africa. In Korea, it accounts for an estimated 12.2% of all malignancies, with 16.4% in the male population and 6.5% in the female population 11. The pathogenesis of HCC has been studied extensively, and molecular changes during malignant transformation have been identified. Hepatocarcinogenesis is considered as a multistep process originating from hepatic stem cells or mature hepatocytes 12. Genetic and epigenetic alterations leads to an activation of oncogenes and inhibition of tumor suppressor genes accompanied by an escalation of genetic instability and the disruption of signaling pathways related to the main promoters of hepatocarcinogenesis, namely cell proliferation and angiogenesis 13. Until now, mutation of the SATB1 gene has not been described in HCC. To investigate whether or not genetic alterations of SATB1 are involved in hepatocellular carcinogenesis, we searched for somatic mutation of the SATB1 gene in HCC. Hepatocellular carcinoma samples and their corresponding non-cancerous liver tissues of 38 patients were evaluated. This study was approved by the Institutional Review Boards at the Ulsan University Hospital. Frozen tissue samples were ground to a very fine powder in liquid nitrogen. Genomic DNA was prepared using a procedure based on a protocol described previously 14. Genomic DNA samples from cancer cells and corresponding non-cancerous liver tissues were amplified with 15 sets of primers covering the entire coding region (10 exons) of the SATB1 gene (Table 1). Numbering of DNA of the SATB1 was done in respect to the ATG start codon according to the genomic sequence of Genbank accession no. NM_002971. All PCR products in exons 2–11 of the SATB1 gene were screened by single strand conformation polymorphism (SSCP) analysis (Mutation Detection Enhancement; FMC BioProducts, Rockland, ME, USA) with 10% glycerol and sequencing analysis. We repeated the experiments three times to ensure the specificity of the results, and found that the data were consistent. In this study, we found one (2.6%) mutation in 38 HCC cases. The mutation was missense mutation: a AGT to AAT transition at codon 354 (S354N). S354N was found in exon 7A located within the MAR domain of the SATB1 gene. It has been reported that SATB1 recruits histone deacetylase complex to the MAR site inside the interleukin-2 receptor α gene 5. In addition, SATB1 regulates the expression of fetal globin genes by binding to MAR in the β-globin cluster 15. Thus, it is likely that the SATB1 mutation identified in cancer cells may contribute to the development of HCC by defect of protein-protein interaction. There was no mutation in corresponding normal DNAs of these tissues, indicating that the mutation detected in the cancer cells had arisen somatically. SSCP gels of these cases with mutation showed aberrantly migrating mutant bands with remaining wild-type bands, suggesting hemizygous mutations (Fig. 1). Thus, these results suggest that the mutation of the SATB1 gene maybe a rare event in the development of HCC in Korean population. Recent study revealed that SATB1 plays an important role in the development and progression of liver cancer through increase of cell cycle progression and defect in apoptosis 16. As SATB1 promotes tumor growth and metastasis in liver cancer, we presumed that mutation of SATB1 gene might affect not only cell cycle progression but also apoptosis pathway in liver cancer. Functional analysis of the mutation identified in this study will broaden our understanding of the pathogenesis of HCCs. This work was supported by Priority Research Center Program through the National Research Foundation of Korea (NRF) funded by the Ministry of Education, Science and Technology (2012-0717).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2040925306</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.urolonc.2011.07.015</t>
+          <t>https://openalex.org/W3118058104</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bhattacharyya et al. (2013)</t>
+          <t>Adeyanju et al. (2019)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A phase II study of mitomycin, fluorouracil, folinic acid, and irinotecan (MFI) for the treatment of transitional cell carcinoma of the bladder</t>
+          <t>Family Care Givers Educational Needs in the Care of the Home Dwelling Aged in Ikare-Akoko Community of Ondo State, Nigeria</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cisplatin-based chemotherapy is standard care for metastatic transitional cell carcinoma (TCC) of the urinary tract. However it is not appropriate for all patients, particularly those with poor renal function. There is no clear consensus on the optimal regimen for these individuals or for those after cisplatin failure. Here we present data using mitomycin, 5-fluorouracil, and irinotecan (MFI) in these patients. Patients with TCC, who had either received cisplatin-based chemotherapy previously or who were not deemed fit for cisplatin therapy (creatinine clearance was less than 60 ml/min) were eligible for treatment with the experimental combination chemotherapy regimen MFI. Thirty-six patients were treated with MFI between 2001 and 2004. Overall response rate was 19% and median overall survival (OS) was 5.4 months (95% CI 3.3–8.4 months). The response rate and overall survival in both groups was 19% and 5.4 months, respectively, (95% CI 2.9–7.1 months) in the pretreated and 2.5– 9.3 months in the untreated. The most common toxicity was malaise (grade 3 or 4 = 28%). MFI appear to be a combination which requires further investigation in patients where cisplatin and gemcitabine are not applicable.</t>
+          <t>Globally, the term family or informal caregiver refers to an unpaid family member, friend, or neighbour who provides care for ill or disabled aged who cannot do for themselves a variety of fundamental tasks due to loss of independence. The purpose of the study was to explore family caregivers' educational needs in the care of aged in Ikare-Akoko Ondo State, Nigeria. A mixed method research design was adopted and a multistage sampling methods were used to select fifty (50) participants for the quantitative descriptive phase and ten (10) participants for the qualitative explorative phase respectively . An observational check list was used to obtain data in the descriptive quantitative phase while an interview guide was used to guide the interview that helped to elicit qualitative data. The instruments were validated and reliability tested. Data were analysed with the aid of International Business Machine SPSS version 23. Descriptive statistics was done to generate frequencies and percentages of responses from the quantitative data while interview excerpts were subjected to content analysis. Major findings of the study showed that family caregivers' practical caregiving need is modest. They appreciably performed procedures on medication care, grooming, pain assessment, food preparation and moving patients. However, caregivers demonstrated inadequate skill in performing procedures on emergency resuscitation. The study also revealed that family caregivers perceived caregiving as merely assisting care recipients with ADL and administering medications. they were found to engage in risky practices which can be detrimental to the health of their older relatives, as well as to their own health. More so, family caregivers possess inadequate information about the illness and treatment of care of the aged. They also lack support and have deficient knowledge on where to get external support. Thus there is need for training on care of older relatives at home and how to access help and support from health and social care professionals. In this light, a health education program for family caregivers of aged in Ikare-Akoko could be based on the Melei's transition theory and should include content such as strategies to care for the aged transition from one life stage to another and to be adequately adapted to new roles among others.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1975763821</t>
+          <t>https://openalex.org/W3141252252</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ijnurstu.2010.03.019</t>
+          <t>https://doi.org/10.1109/spline.2007.23</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Gibson et al. (2010)</t>
+          <t>Voelter &amp; Groher (2007)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Children and young people's experiences of cancer care: A qualitative research study using participatory methods</t>
+          <t>Product Line Implementation using Aspect-Oriented and Model-Driven Software Development</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Little is known about whether children's cancer services actually meet children's needs, as the majority of previous research has sought the views of parents as proxies.To explore children's and young peoples' views of cancer care and to present a conceptual model of communication and information sharing.Three Principal Cancer Treatment centres in the United Kingdom.Thirty-eight participants at different stages of the cancer journey (e.g. on treatment, near end of treatment, up to 18 months following treatment) were grouped for data collection by age: young children (4-5 years), older children (6-12 years) and young people (13-19 years).Data were collected concurrently over 6 months using age-appropriate, participatory-based techniques. Techniques included play and puppets, the draw and write method, interviews and an activities day.Some findings confirmed previously reported issues, such as, young children's inabilities to voice their preferences, and the importance of familiar environments and parental support for all ages. New findings suggested children worry about the permanence of symptoms, and older children are unhappy about their parents leading communications with health professionals. As communication and information sharing featured as an area in which children's and young people's preferences changed most dramatically, we propose a conceptual model of communication roles of patients, their parents, and health professionals to illuminate communication patterns. The model suggests children (aged 4-12 years) reside in the background of information sharing with health professionals until they gain autonomy as young people (around age 13). They then move into the foreground, and their parents transition into a supportive background role. Reviewing this model may help younger children realise their abilities to voice their preferences and older children to move into the foreground. Parents and professionals, in turn, can learn to develop in their supportive background roles. We encourage further testing of the model to define roles within relevant contexts.Overall, this study offers a perspective on the needs and preferences of children and young people receiving cancer care. Differences across ages were more striking with reference to preferences for communication. These differences are highly relevant to the way we communicate information to children and young people.</t>
+          <t>Software product line engineering aims to reduce development time, effort, cost, and complexity by taking advantage of the commonality within a portfolio of similar products. The effectiveness of a software product line approach directly depends on how well feature variability within the portfolio is implemented and managed throughout the development lifecycle, from early analysis through maintenance and evolution. This paper presents an approach that facilitates variability implementation, management and tracing by integrating model-driven and aspect-oriented software development. Features are separated in models and composed by aspect-oriented composition techniques on model level. Model transformations support the transition from problem to solution domain. Aspect-oriented techniques enable the explicit expression and modularization of variability on model, code, and template level The presented concepts are illustrated with a case study of a home automation system.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>https://openalex.org/W2911952093</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.32461/2226-3209.4.2013.138059</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Shevchenko (2013)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>The Role of the Modern Ukrainian Family in the Formation of Cultural Identity</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>The article deals with the formation of cultural identity in modern Ukrainian family, analyzes the role of family socialization features. Considerable attention is given to cultural and educational potential of the family and its influence on the cultural identity formation. Process of identity formation is always largely determined by the specific socio-cultural factors which were shaped by centuries of historical development. Family as a social institution deserves priority attention among those fundamental factors. Family – first principle of society. It is a certain social group in which most individual characteristics of the parents , their children and other family members showed through their behavior and personality development which are formed with self-knowledge, self-actualization and socialization of its members. Family by its characteristics is a social structure that goes through various stages of growth and development and through improved performance of its functions. It enriches the treasury of material and spiritual values of the people. The material and moral responsibility of family members to each other and to society is the main feature on the basis of these theoretical studies , modern family has to become a key element in the individual`s education and socialization. Proceeding with historical and modern conceptions of identity, a person in the epicenter of culture, is the highest spiritual value which becomes it`s spiritual essence and a part of humanity. The person develops it through culture. The cultural essence of personality is the backbone component of its integrity. Cultural values in the socio-cultural sphere are achieved by the beliefs of humanity that were formed and still continue to grow in the transformation of the socio-historical situation. The succession of generations is a process of mutual transfer, assimilation, storage and use of material and spiritual values, social information and experience of previous generations where the family plays an important role. The family in Ukraine fells under the influence of transformation of socio-cultural and political processes and transformations. They reflect on it and led to significant changes in their functioning. Socio-economic conditions of life appear in the relationship: increasing conflict, collapsing the established ethical principles of operation of the complete family. Dysfunctions increased in economic, legal and moral vulnerability of families, reducing their role in the socialization and education of children. This affects today's youth significantly. This effect is motivated by emotion, culture, internal rules and possibilities of family resources. However, the modern Ukrainian family does not realize it`s great educational potential. It depends on many social factors , especially economic life marked both positive and negative trends. This feature needs detailed analysis of trends, opportunities and constraints for the implementation of the educational potential of Ukrainian families. It ensures the development of the individual in the modern world. Therefore, the study of socio-cultural and psycho-educational situation in the family upbringing of the young generation has to become a basis for further development of public policy in education. The content of individual’s education in modern Ukrainian family should be integrated into national and humanist culture of the people in Intercontinental area. Content of education should reflect and establish the highest national and universal value orientation in the minds of modern and young people: spiritual, cultural, humanistic, ethical, aesthetic, physical, social and labor. It should also reflect the practice of modern Ukrainian family in the independent state. Based on these theoretical studies, the modern family is a major element in the education of contemporary identity and in shaping its culture. In Ukrainian family, it`s ideas were always clearly distinguished and rooted in the depths of people's life, minds, work and creativity. At all times ideals of the family were the highest and most sacred for our people. Family was considered to be a fundamental principle of human life, a kind of fortress, which provided development and protection of personality’s best qualities, including: labor as the most complete form of expression and creativity of human capabilities, sources of wealth and pleasure; spirituality as a synthetic form of understanding the world and ourselves in the same high moral dimension of creative and humane attitude to the environment and people. Ukrainian family has to cultivate such qualities of character and personality characteristics as: respect for parents and family devotion, commitment to mutual support , formation of national consciousness and identity, love for the land and people, formation of high language culture, respect the culture, customs and traditions of the peoples who inhabit the Ukraine, and the peoples of the world. F</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3037811040</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acs.inorgchem.0c00834</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ibáñez et al. (2020)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Structural and Lattice-Dynamical Properties of Tb&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;3&lt;/sub&gt; under Compression: A Comparative Study with Rare Earth and Related Sesquioxides</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>We report a joint experimental and theoretical investigation of the high pressure structural and vibrational properties of terbium sesquioxide (Tb2O3). Powder X-ray diffraction and Raman scattering measurements show that cubic Ia3̅ (C-type) Tb2O3 undergoes two phase transitions up to 25 GPa. We observe a first irreversible reconstructive transition to the monoclinic C2/m (B-type) phase at ∼7 GPa and a subsequent reversible displacive transition from the monoclinic to the trigonal P3̅m1 (A-type) phase at ∼12 GPa. Thus, Tb2O3 is found to follow the well-known C → B → A phase transition sequence found in other cubic rare earth sesquioxides with cations of larger atomic mass than Tb. Our ab initio theoretical calculations predict phase transition pressures and bulk moduli for the three phases in rather good agreement with experimental results. Moreover, Raman-active modes of the three phases have been monitored as a function of pressure, while lattice-dynamics calculations have allowed us to confirm the assignment of the experimental phonon modes in the C- and A-type phases as well as to make a tentative assignment of the symmetry of most vibrational modes in the B-type phase. Finally, we extract the bulk moduli and the Raman-active mode frequencies together with their pressure coefficients for the three phases of Tb2O3. These results are thoroughly compared and discussed in relation to those reported for rare earth and other related sesquioxides as well as with new calculations for selected sesquioxides. It is concluded that the evolution of the volume and bulk modulus of all the three phases of these technologically relevant compounds exhibit a nearly linear trend with respect to the third power of the ionic radii of the cations and that the values of the bulk moduli for the three phases depend on the filling of the f orbitals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2556968239</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5751/es-01595-110118</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Olsson et al. (2006)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Shooting the Rapids: Navigating Transitions to Adaptive Governance of Social-Ecological Systems</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>The case studies of Kristianstads Vattenrike, Sweden; the Northern Highlands Lake District and the Everglades in the USA; the Mae Nam Ping Basin, Thailand; and the Goulburn-Broken Catchment, Australia, were compared to assess the outcome of different actions for transforming social-ecological systems (SESs).The transformations consisted of two phases, a preparation phase and a transition phase, linked by a window of opportunity.Key leaders and shadow networks can prepare a system for change by exploring alternative system configurations and developing strategies for choosing from among possible futures.Key leaders can recognize and use or create windows of opportunity and navigate transitions toward adaptive governance.Leadership functions include the ability to span scales of governance, orchestrate networks, integrate and communicate understanding, and reconcile different problem domains.Successful transformations rely on epistemic and shadow networks to provide novel ideas and ways of governing SESs.We conclude by listing some rules of thumb" that can help build leadership and networks for successful transformations toward adaptive governance of social-ecological systems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>https://openalex.org/W2026250138</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11606-015-3255-0</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Callahan (2015)</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Opening the Door to Transgender Care</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>This issue of the Journal of General Internal Medicine showcases an intriguing and uncommon article: “Electronic Health Records and Transgender Patients—Practical Recommendations for the Collection of Gender Identity Data.”1 Readers who currently see no transgender or transsexual (now commonly referred to as trans) patients may wonder why this paper was selected for publication. While the common belief has been that trans patients needed to be referred to endocrinologists or other specialists, there is now increasing recognition that quality primary care can be provided by general internists and others who are willing to expand their practice by engaging in dialogue with the patient and others committed to caring for trans patients. Another common belief in the past was that trans people were universally committed to full medical and surgical transition. The trans patients seeking care now appear to vary widely on how few or how many transition services they seek. Significant expansion and personalization of trans care is critical in efforts to reduce health disparities for these populations._x000D_
 _x000D_
@@ -1255,5710 +1341,5598 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4205326087</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/ijtj/ijab032</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Verwoerd et al. (2022)</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Peace as Betrayal: On the Human Cost of Relational Peacebuilding in Transitional Contexts</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ABSTRACT This article explores the micro-dynamics of intragroup betrayal and self-betrayal that can be evoked by relational peacebuilding between groups. The painful accusation of betrayal by close, family-type group members and internally feeling like a betrayer as a result of working with the ‘other side’ is presented as an underestimated human cost of relational peacebuilding. This understanding emerged from an international ‘Beyond Dehumanisation’ research project, which included experienced peace practitioners from South Africa, the Israel-Palestine region and the conflict in and about Northern Ireland. The emerging diagnostic framework is supported by (and provides empirical support for) theories of betrayal that stress how deeply relational betrayal is. The resonance with Margalit’s theory of betrayal as the ‘undermining of thick relations’ is especially strong. ‘Peace as betrayal’ suggests the need for more practical support for peacebuilders and can also be applied more widely to render resistance to transitional justice processes more visible.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3038121166</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1049/iet-pel.2020.0404</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Zhang et al. (2020)</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Energy management strategy with two degrees of freedom for hybrid energy storage systems in islanded DC microgrids</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>IET Power ElectronicsVolume 13, Issue 14 p. 3171-3179 Research Article Free Access Energy management strategy with two degrees of freedom for hybrid energy storage systems in islanded DC microgrids Yuhan Zhang, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorGuiping Du, Corresponding Author gpdu@scut.edu.cn School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorYanxiong Lei, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this author Yuhan Zhang, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorGuiping Du, Corresponding Author gpdu@scut.edu.cn School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorYanxiong Lei, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this author First published: 01 November 2020 https://doi.org/10.1049/iet-pel.2020.0404Citations: 2 AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinked InRedditWechat Abstract In this study, a novel energy management strategy (EMS) with two degrees of freedom is proposed for hybrid energy storage systems consisting of supercapacitor (SC) and battery in islanded microgrids. The proposal introduces two degrees of freedom including an adaptive high-pass filter cut-off frequency f c and a charge/discharge coefficient k b, according to the SC and battery state of charge (SOC), respectively. The f c regulates SC current in the transient process and the k b controls battery current in the steady-state. Therefore, appropriate power distribution that the SC suppresses the transient power fluctuations while the battery supports average power demand is realised, over-charging, and over-discharging are avoided and the current stress of the battery during the shut-down process is reduced. Moreover, three operation modes for isolated DC microgrids, comprising power-sharing mode, battery-only mode, and extreme mode are demonstrated. Hence, the DC microgrid can remain stable for the whole time, achieve seamless transitions from the power-sharing mode to the two others, and provide faster SOC recovery of the SC. The effectiveness of the proposed EMS is validated by experimental studies with a prototype of the simplified DC microgrid. Nomenclature f c adaptive high-pass filter cut-off frequency k b charge/discharge coefficient SOCSC, DODSC SC state of charge and depth of discharge tk −1, tk, tk +1 (k − 1)th, k th, and (k + 1)th time instance SOCb battery state of charge SOCSC_min, SOCSC_max SC SOC minimum and maximum limits SOCb_min, SOCb_low, SOCb_high, SOCb_max battery SOC minimum, low, high, and maximum limits V dc, V dc _ ref, V err DC bus actual voltage, voltage reference, and voltage deviation i SC_s, i b_s SC and battery current settings 1 Introduction Owing to the energy shortage and environmental pollution caused by the massive use of fossil fuel, people have realised the importance of renewable energy sources (RESs), such as solar photovoltaic (PV) and wind [1]. To utilise these RESs more efficiently and economically, microgrids have been implemented [2]. However, the volatility and intermittent of RESs result in power mismatch, voltage fluctuations, and system instability in DC microgrids. Therefore, the energy storage systems (ESSs) are deployed in DC microgrids to address the aforementioned issues [3]. Ideal energy storage is required to have high energy and power density, long cycle life, fast dynamic response etc. However, no existing energy storage can meet all requirements simultaneously [4, 5]. Fig. 1 presents the Ragone chart describing the power and energy density of different energy storage [6]. Therefore, various energy storages with different characteristics are combined to form the hybrid ESS (HESS). Among different configurations of HESS, the combination of the supercapacitor (SC) and the battery is the most mainstream [7]. In Fig. 1, the SC has high-power density and short charge/discharge time, while the battery has a relatively high-energy density with a slow dynamic response. Thus, the SC is utilised to suppress the transient power fluctuations and the batter</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4320516614</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1108/978-1-80382-517-520231011</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Lehr &amp; Vaughan (2023)</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Humanistic Leadership and its Enduring Legacy in a Post-Covid-19 World</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>As societies worldwide continue to navigate and recover from the impacts of the Covid-19 pandemic, the world is at a unique crossroads. How can leaders in higher education institutions (HEIs) prioritize holistic human needs and maximize interpersonal and collegial human connection, while continuing to guide and grow successful learning communities both in-person and virtually? With potential costs and benefits in mind, pertinent literature is reviewed, and the limitations and silver linings presented by the ongoing pandemic are explored. Different forms of grief and loss experienced by faculty and students as well as the effects of technostress amid this time of change are also recognized. Concepts and practices introduced by prominent humanistic thought-leaders are discussed as a way to navigate the educational impacts created by the pandemic. A key finding presented is that leaders and HEIs that prioritize human connections and relationships, in concert with adopting technological advancements, are better equipped to maintain personal well-being while enhancing academic success in the long term. By fostering learning environments based on psychological safety, compassion, autonomy, and adaptability, humanistic leaders contribute to the betterment of HEIs as a whole. To this end, the enduring legacy of humanistic leadership is pivotal in this new era of global and individual humanistic transformation amid change.</t>
-        </is>
-      </c>
-    </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4232336923</t>
+          <t>https://openalex.org/W4205326087</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/mdr.2006.0083</t>
+          <t>https://doi.org/10.1093/ijtj/ijab032</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Moi (2006)</t>
+          <t>Verwoerd et al. (2022)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>"First and Foremost a Human Being": Idealism, Theatre, and Gender in A Doll's House</t>
+          <t>Peace as Betrayal: On the Human Cost of Relational Peacebuilding in Transitional Contexts</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>"First and Foremost a Human Being":Idealism, Theatre, and Gender in A Doll's House1 Toril Moi (bio) Introduction A Doll's House is the first full-blown example of Ibsen's modernism. It contains a devastating critique of idealism entwined with a turn to the everyday, a celebration of theatre combined with a fierce analysis of everyday theatricality (A Doll's House is teeming with metatheatrical elements) and a preoccupation with the conditions of love in modernity. In A Doll's House, Ibsen mobilizes all these features in a contemporary setting and in relation to a fundamentally modern theme: namely, the situation of women in the family and society.2 The result is a play that calls for a radical transformation [forvandling], not just, or not even primarily, of laws and institutions, but of human beings and their ideas of love. This article explores three major themes in A Doll's House: idealism, theatre, and gender. Although idealist aesthetic norms were a primary concern for many of the play's first critics, contemporary literary scholars have barely raised the subject.3 In this article, I use the term "idealism" to mean "idealist aesthetics," defined broadly as the idea that the task of art is to create beauty, combined with the belief that beauty, truth, and goodness are one. Taking questions of beauty to be questions of morality and truth, idealist aesthetics thus seemlessly merge aesthetics [End Page 256] and ethics. Although the earliest versions of idealist aesthetics had been espoused by Romantic radicals such as Friedrich Schiller, Madame de Staël, and - a little later - Shelley, by the time of A Doll's House, the Romantic movement was long dead; yet idealist aesthetics lived on, albeit in increasingly tired and exhausted forms, which often were aligned with conservative and moralistic social forces. Not surprisingly, then, in the wake of the radical Danish intellectual Georg Brandes's fiery call for a modern literature in his 1871-72 lectures on Hovedstrømninger i Europeisk litteratur, idealism was increasingly coming under attack, and - as I show in my book Henrik Ibsen and the Birth of Modernism - Ibsen's works were the linchpin of the burgeoning modernist opposition to idealism.4 The moment of A Doll's House marks a clear shift in the increasingly intense cultural battle between idealists and emerging modernists in Europe. Idealist responses to A Doll's House were embattled in a way that idealist responses to Love's Comedy and Emperor and Galilean were not.5 In this article, I will show that defenders of Ibsen's realism nevertheless come across as less sophisticated than their idealist opponents. In fact, by propagating the idea that A Doll's House was to be understood as a "slice of life," Ibsen's first admirers entirely missed his pro-theatricalism, his metatheatrical insistence that what we are seeing is theatre. Around 1880, then, neither Ibsen's enemies nor his friends were in a position truly to grasp the scope of his aesthetic achievement. But idealism was not just an important element in the reception of A Doll's House. It is also embedded in the play, most strikingly in the character of Torvald Helmer, a card-carrying idealist aesthete if ever there was one. Moreover, Helmer's idealism and Nora's unthinking echoing of it make them theatricalize both themselves and each other, most strikingly by taking themselves to be starring in various idealist scenarios of female sacrifice and male rescue. Ibsen's critique of idealism is the condition of possibility for his revolutionary analysis of gender in modernity. In this respect, the key line of the play is Nora's claim to be "first and foremost a human being (359)."6 Nora's struggle for recognition as a human being is rightly considered an exemplary case of women's struggle for political and social rights.7 But Nora claims her humanity only after explicitly rejecting two other identities: namely, "doll" and "wife and mother." In order to show what these refusals mean, I first consider the signification of the figure of the doll. "The human body is the best picture of the human soul," Ludwig Wittgenstein writes (152). What...</t>
+          <t>ABSTRACT This article explores the micro-dynamics of intragroup betrayal and self-betrayal that can be evoked by relational peacebuilding between groups. The painful accusation of betrayal by close, family-type group members and internally feeling like a betrayer as a result of working with the ‘other side’ is presented as an underestimated human cost of relational peacebuilding. This understanding emerged from an international ‘Beyond Dehumanisation’ research project, which included experienced peace practitioners from South Africa, the Israel-Palestine region and the conflict in and about Northern Ireland. The emerging diagnostic framework is supported by (and provides empirical support for) theories of betrayal that stress how deeply relational betrayal is. The resonance with Margalit’s theory of betrayal as the ‘undermining of thick relations’ is especially strong. ‘Peace as betrayal’ suggests the need for more practical support for peacebuilders and can also be applied more widely to render resistance to transitional justice processes more visible.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2042254363</t>
+          <t>https://openalex.org/W4320516614</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ichqp.2010.5625383</t>
+          <t>https://doi.org/10.1108/978-1-80382-517-520231011</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Le et al. (2010)</t>
+          <t>Lehr &amp; Vaughan (2023)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Analysis of power disturbances from monitoring multiple levels and locations in a power system</t>
+          <t>Humanistic Leadership and its Enduring Legacy in a Post-Covid-19 World</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>This paper proposes a new methodology for diagnosing the original source and underlying causes of power system disturbances, where voltage and current recordings from different locations of a power system are collected. In the proposed method, disturbances are first pre-classified based on the number of transition segments. The spatial zone of the source of disturbances is coarsely determined from voltage recordings only. Disturbances are then further analyzed and characterized by extracting information from both voltages and currents. Finally more accurate information about the location of the source of disturbances is obtained by different techniques depending on the type of disturbances. Several underlying causes are analyzed and classified by using the proposed features extracted from both voltage and current waveforms. Finally, the location of the source of disturbances is refined once the underlying causes are found. Case studies were performed on a large grid-connected wind farm with disturbances from several underlying causes, including: fault, unit tripping, transformer, capacitor, and cable energizing generated by PSCAD/EMTDC.</t>
+          <t>As societies worldwide continue to navigate and recover from the impacts of the Covid-19 pandemic, the world is at a unique crossroads. How can leaders in higher education institutions (HEIs) prioritize holistic human needs and maximize interpersonal and collegial human connection, while continuing to guide and grow successful learning communities both in-person and virtually? With potential costs and benefits in mind, pertinent literature is reviewed, and the limitations and silver linings presented by the ongoing pandemic are explored. Different forms of grief and loss experienced by faculty and students as well as the effects of technostress amid this time of change are also recognized. Concepts and practices introduced by prominent humanistic thought-leaders are discussed as a way to navigate the educational impacts created by the pandemic. A key finding presented is that leaders and HEIs that prioritize human connections and relationships, in concert with adopting technological advancements, are better equipped to maintain personal well-being while enhancing academic success in the long term. By fostering learning environments based on psychological safety, compassion, autonomy, and adaptability, humanistic leaders contribute to the betterment of HEIs as a whole. To this end, the enduring legacy of humanistic leadership is pivotal in this new era of global and individual humanistic transformation amid change.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3101089542</t>
+          <t>https://openalex.org/W4232336923</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/mdr.2006.0083</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Saxon et al. (2018)</t>
+          <t>Moi (2006)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Development of an Interdisciplinary Cardiovascular ICU Ventilator Weaning Team to Improve Patient Outcomes and Decreased Intubation Times</t>
+          <t>"First and Foremost a Human Being": Idealism, Theatre, and Gender in A Doll's House</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Background: Historically, the overall post-operative care (including, ventilator weaning) in the Cardiovascular ICU was the responsibility of the nursing staff. Respiratory therapy staff would assist with ventilator weaning on an as-needed basis. When transitioning to new ventilators, it was suggested that a dedicated Respiratory therapy team could wean the patients from mechanical ventilation in less time than a primary nurse-lead weaning approach. Methods: Data collected from patients9 that underwent cardiac surgery from January 2017 through August 2017 was reviewed. An opportunity for improvement was noted in regards to streamlining the weaning and extubation process. A two person respiratory therapist based weaning team was put into place to focus on these patients upon arrival into the ICU. Additionally, a revised ventilator management protocol was utilized to manage these patients improving the weaning and extubation process. Results: Each medical discipline developed recommendations for improving patient care in their respective areas. The respiratory therapists implemented a weaning team that was focused solely on management of these post- operative patients. This allowed direct observation of respiratory patterns, selection of appropriate ventilator settings, blood gas management, and timely assessment for the readiness of CPAP. Recently, we revised the standard process to include administration of a paralytic reversal agent upon admission to the ICU. This further reduced the time for nursing staff to decrease sedation. Our standard process also included a standardized PEEP of +8 to help post-surgical alveolar recruitment and oxygenation. Finally, all staff completed Team STEPPS and Cultural Beliefs training which facilitated open communication between all team members regarding care management, patient extubation readiness, and options for oxygen devices post extubation Conclusions: Data regarding outcomes for RT weaning of post-operative patients in the CVICU shows an increase of patients being extubated within 6 hours from 51.56% in September of 2017 to 81% as of April of 2018. Disclosures: None.</t>
+          <t>"First and Foremost a Human Being":Idealism, Theatre, and Gender in A Doll's House1 Toril Moi (bio) Introduction A Doll's House is the first full-blown example of Ibsen's modernism. It contains a devastating critique of idealism entwined with a turn to the everyday, a celebration of theatre combined with a fierce analysis of everyday theatricality (A Doll's House is teeming with metatheatrical elements) and a preoccupation with the conditions of love in modernity. In A Doll's House, Ibsen mobilizes all these features in a contemporary setting and in relation to a fundamentally modern theme: namely, the situation of women in the family and society.2 The result is a play that calls for a radical transformation [forvandling], not just, or not even primarily, of laws and institutions, but of human beings and their ideas of love. This article explores three major themes in A Doll's House: idealism, theatre, and gender. Although idealist aesthetic norms were a primary concern for many of the play's first critics, contemporary literary scholars have barely raised the subject.3 In this article, I use the term "idealism" to mean "idealist aesthetics," defined broadly as the idea that the task of art is to create beauty, combined with the belief that beauty, truth, and goodness are one. Taking questions of beauty to be questions of morality and truth, idealist aesthetics thus seemlessly merge aesthetics [End Page 256] and ethics. Although the earliest versions of idealist aesthetics had been espoused by Romantic radicals such as Friedrich Schiller, Madame de Staël, and - a little later - Shelley, by the time of A Doll's House, the Romantic movement was long dead; yet idealist aesthetics lived on, albeit in increasingly tired and exhausted forms, which often were aligned with conservative and moralistic social forces. Not surprisingly, then, in the wake of the radical Danish intellectual Georg Brandes's fiery call for a modern literature in his 1871-72 lectures on Hovedstrømninger i Europeisk litteratur, idealism was increasingly coming under attack, and - as I show in my book Henrik Ibsen and the Birth of Modernism - Ibsen's works were the linchpin of the burgeoning modernist opposition to idealism.4 The moment of A Doll's House marks a clear shift in the increasingly intense cultural battle between idealists and emerging modernists in Europe. Idealist responses to A Doll's House were embattled in a way that idealist responses to Love's Comedy and Emperor and Galilean were not.5 In this article, I will show that defenders of Ibsen's realism nevertheless come across as less sophisticated than their idealist opponents. In fact, by propagating the idea that A Doll's House was to be understood as a "slice of life," Ibsen's first admirers entirely missed his pro-theatricalism, his metatheatrical insistence that what we are seeing is theatre. Around 1880, then, neither Ibsen's enemies nor his friends were in a position truly to grasp the scope of his aesthetic achievement. But idealism was not just an important element in the reception of A Doll's House. It is also embedded in the play, most strikingly in the character of Torvald Helmer, a card-carrying idealist aesthete if ever there was one. Moreover, Helmer's idealism and Nora's unthinking echoing of it make them theatricalize both themselves and each other, most strikingly by taking themselves to be starring in various idealist scenarios of female sacrifice and male rescue. Ibsen's critique of idealism is the condition of possibility for his revolutionary analysis of gender in modernity. In this respect, the key line of the play is Nora's claim to be "first and foremost a human being (359)."6 Nora's struggle for recognition as a human being is rightly considered an exemplary case of women's struggle for political and social rights.7 But Nora claims her humanity only after explicitly rejecting two other identities: namely, "doll" and "wife and mother." In order to show what these refusals mean, I first consider the signification of the figure of the doll. "The human body is the best picture of the human soul," Ludwig Wittgenstein writes (152). What...</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3129798316</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.36106/ijsr/7136867</t>
+          <t>https://openalex.org/W3101089542</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Motghare &amp; Mourya (2021)</t>
+          <t>Saxon et al. (2018)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>EFFECT OF ORAL MOTOR MUSCLE STIMULATION ON OUTCOMES OF PRETERM INFANT SYSTEMATIC REVIEW OF PUBLISHED LITERATURE, 2006-2019.</t>
+          <t>Development of an Interdisciplinary Cardiovascular ICU Ventilator Weaning Team to Improve Patient Outcomes and Decreased Intubation Times</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Prematurity is incredibly common in children within the Indian scenario. Techniques for oral motor stimulation have been explored, therefore the preterm newborn develops the transition to full oral feeding safer and active suck in an exceedingly shorter time This study aims to hold out a systematic scientific review of national and international literature reporting different techniques and elucidate their effectiveness, regarding the oral sensorimotor stimulation of preterm neonates that remained hospitalized. According to the literature, the foremost current technique utilized in India is that non-nutritive sucking with a gloved finger or orthodontic pacifier. Other countries also recorded the technique of non-nutritive sucking in pacifiers followed by oral motor muscle stimulation as a current new approach. these techniques have been positively affecting neonates' oral function development. Regarding the need for promotion of exclusive breastfeeding, recent publications highlighted a concerning percentage of synthetic nipples usage for stimulation in neonatal intensive care medical units.</t>
+          <t>Background: Historically, the overall post-operative care (including, ventilator weaning) in the Cardiovascular ICU was the responsibility of the nursing staff. Respiratory therapy staff would assist with ventilator weaning on an as-needed basis. When transitioning to new ventilators, it was suggested that a dedicated Respiratory therapy team could wean the patients from mechanical ventilation in less time than a primary nurse-lead weaning approach. Methods: Data collected from patients9 that underwent cardiac surgery from January 2017 through August 2017 was reviewed. An opportunity for improvement was noted in regards to streamlining the weaning and extubation process. A two person respiratory therapist based weaning team was put into place to focus on these patients upon arrival into the ICU. Additionally, a revised ventilator management protocol was utilized to manage these patients improving the weaning and extubation process. Results: Each medical discipline developed recommendations for improving patient care in their respective areas. The respiratory therapists implemented a weaning team that was focused solely on management of these post- operative patients. This allowed direct observation of respiratory patterns, selection of appropriate ventilator settings, blood gas management, and timely assessment for the readiness of CPAP. Recently, we revised the standard process to include administration of a paralytic reversal agent upon admission to the ICU. This further reduced the time for nursing staff to decrease sedation. Our standard process also included a standardized PEEP of +8 to help post-surgical alveolar recruitment and oxygenation. Finally, all staff completed Team STEPPS and Cultural Beliefs training which facilitated open communication between all team members regarding care management, patient extubation readiness, and options for oxygen devices post extubation Conclusions: Data regarding outcomes for RT weaning of post-operative patients in the CVICU shows an increase of patients being extubated within 6 hours from 51.56% in September of 2017 to 81% as of April of 2018. Disclosures: None.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2039777622</t>
+          <t>https://openalex.org/W3119439580</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/1541344609339023</t>
+          <t>https://doi.org/10.1016/j.jpurol.2020.12.020</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rosen (2009)</t>
+          <t>Claeys et al. (2021)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Transformation of Central and Peripheral Beliefs in the Eyes of the ‘‘Other’’</t>
+          <t>Barriers in transitioning urologic patients from pediatric to adult care</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Peace education in the context of intractable conflict involves conflicting collective historical narratives and underlying beliefs. Could it be that peace education is coping with transformation of different types of beliefs rooted in the collective narratives of the conflict? This study suggests differentiation between central and peripheral beliefs and their connection to the behavioral patterns toward the ‘‘other.’’ A total of 546 Jewish and 410 Palestinian 10th grade male and female youth (aged 15—16) from Israel participated in this study. The study identified and characterized the perception of central beliefs from the collective narrative of the ‘‘other’’ as well as more peripheral ones. In addition, it was found that the central beliefs are more connected to the readiness for social contact with the other side as compared to the peripheral ones. Implications for peace education in regions of intractable conflict are discussed.</t>
+          <t>&lt;h2&gt;Summary&lt;/h2&gt; As the advances in medicine continue to emerge, more children with congenital or pediatric-onset chronic urologic conditions are surviving well into adulthood. This imposes an ever rising there is a need for adequate transition of these patients from pediatric to adult care. Despite position statements from multiple heath care organizations and several models proposed in literature, different issues and gaps in urologic transition continue to exist. Major barriers in this transition are adolescence, a challenging time that is characterized by impulsive behavior and risk taking, and the longstanding relation between both patients and paediatric providers. Both pediatric and adult care providers need to be aware of the special needs of maturing youth with chronic care problems related to education, self-management, legal issues and psychological support during care transition. Furthermore, they need to understand and address the currently existing obstacles for adequate transition. There is need for active communication with each other and the patient to develop sustainable relationships that can support the transitioning process. It is therefore in the greatest interest of the care provider to make this transition as smooth as possible. This paper aims to point out the currently perceived barriers in care transition within the urological context, reflect on previous implemented models for care transition and present proposals for improvement.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3031896801</t>
+          <t>https://openalex.org/W4392680595</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acs.accounts.0c00127</t>
+          <t>https://doi.org/10.5219/1962</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Jiang et al. (2020)</t>
+          <t>Akimova et al. (2024)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Synergistic Modulation of Non-Precious-Metal Electrocatalysts for Advanced Water Splitting</t>
+          <t>Enzymatic hydrolysis in food processing: biotechnological advancements, applications, and future perspectives</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ConspectusHydrogen is an ideal energy carrier and plays a critical role in the future energy transition. Distinct from steam reforming, electrochemical water splitting, especially powered by renewables, has been considered as a promising technique for scalable production of high-purity hydrogen with no carbon emission. Its commercialization relies on the reduction of electricity consumption and thus hydrogen cost, calling for highly efficient and cost-effective electrocatalysts with the capability of steadily working at high hydrogen output. This requires the electrocatalysts to feature (1) highly active intrinsic sites, (2) abundant accessible active sites, (3) effective electron and mass transfer, (4) high chemical and structural durability, and (5) low-cost and scalable synthesis. It should be noted that all these requirements should be fulfilled together for a practicable electrocatalyst. Much effort has been devoted to addressing one or a few aspects, especially improving the electrocatalytic activity by electronic modulation of active sites, while few reviews have focused on the synergistic modulation of these aspects together although it is essential for advanced electrochemical water splitting.In this Account, we will present recent innovative strategies with an emphasis on our solutions for synergistically modulating intrinsic active sites, electron transportation, mass transfer, and gas evolution, as well as mechanical and chemical durability, of non-precious-metal electrocatalysts, aiming for cost-effective and highly efficient water splitting. The following approaches for coupling these aspects are summarized for both cathodic hydrogen evolution reaction (HER) and anodic oxygen evolution reaction (OER). (1) Synergistic electronic modulations. The electronic structure of a catalytic site determines the adsorption/desorption of reactive intermediates and thus intrinsic activity. It can be tuned by heterogeneous doping, strain effect, spin polarization, etc. Coupling these effects to optimize the reaction pathways or target simultaneously the activity and stability would advance electrocatalytic performance. (2) Synergistic electronic and crystalline modulation. The crystallinity, crystalline phase, crystalline facets, crystalline defects, etc. affect both activity and stability. Coupling these effects with electronic modulation would enhance the activity together with stability. (3) Synergistic electronic and morphological modulation. It will focus on concurrently modulating electronic structure for improving the intrinsic activity and morphology for increasing accessible active sites, especially through single action or processing. The mass transfer and gas evolution properties can also be enhanced by morphological modulation to enable water splitting at large output. (4) Synergistic modulation of elementary reactions. Electrocatalytic reaction generally consists of a couple of elementary reactions. Each one may need a specific active site. Designing and combining various components targeting every elementary step on a space-limited catalyst surface will balance the intermediates and these steps for accelerating the overall reaction. (5) Integrated electrocatalyst design. Taking all these strategies together into account is necessary to integrate all above essential features into one electrocatalyst for enabling high-output water electrolysis. Beyond the progress made to date, the remaining challenges and opportunities is also discussed. With these insights, hopefully, this Account will shed light on the rational design of practical water-splitting electrocatalysts for the cost-effective and scalable production of hydrogen.</t>
+          <t>In food processing, enzymatic hydrolysis has become a revolutionary biotechnological instrument that provides consistency and sustainability that are unmatched by traditional techniques. This work thoroughly analyzes current developments in enzymatic hydrolysis and examines its uses in various food processing contexts. The biotechnological aspects—such as substrate specificity, enzyme engineering, and sustainable process optimization—are the main focus. The historical background and development of enzymatic hydrolysis in food processing are explored at the study's outset, highlighting the process's transformation from a specialized use to a critical component of contemporary biotechnological food production. A thorough literature review underscores the specificity of enzymes in dissolving various dietary components, offering insights into the biotechnological nuances controlling substrate-enzyme interactions. A careful examination of the many enzymes used in enzymatic hydrolysis and a full assessment of their uses and specificities are provided. Enzymatic hydrolysis selection criteria are outlined, taking regulatory compliance, thermostability, pH sensitivity, and substrate specificity into account. The integration of enzymatic hydrolysis into workflows for food processing is also covered, focusing on compatibility with current infrastructure and processing parameters. The case studies that demonstrate the effective use of enzymatic hydrolysis in various food production situations are the core of the research. These examples illustrate the adaptability and effectiveness of enzymatic processes in improving food quality, from developing gluten-free products to optimizing fermentation in baked goods. In its futuristic conclusion, the article imagines how enzymatic hydrolysis will continue to influence food processing in the years to come. The biotechnological viewpoint strongly emphasizes current research directions, such as integrating enzymatic processes into sustainable food production techniques and engineering enzymes for increased specificity. This biotechnological investigation highlights how enzymatic hydrolysis may completely change the food processing industry by providing accuracy, sustainability, and creativity in pursuing wholesome, nutrient-dense, and aesthetically pleasing food items.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2110493470</t>
+          <t>https://openalex.org/W3129798316</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1176/appi.ajp.2008.08030398</t>
+          <t>https://doi.org/10.36106/ijsr/7136867</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Campanella (2008)</t>
+          <t>Motghare &amp; Mourya (2021)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>The Green Bike</t>
+          <t>EFFECT OF ORAL MOTOR MUSCLE STIMULATION ON OUTCOMES OF PRETERM INFANT SYSTEMATIC REVIEW OF PUBLISHED LITERATURE, 2006-2019.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Back to table of contents Previous article Next article IntrospectionsFull AccessThe Green BikeKarla Campanella M.D., M.A.Karla Campanella M.D., M.A.Search for more papers by this authorPublished Online:1 Sep 2008https://doi.org/10.1176/appi.ajp.2008.08030398AboutSectionsPDF/EPUB ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InEmail I was in the middle of a hectic night on call in the ED. I had a long list of patients to see—all with suicidal ideation of one form or another.I begin evaluating the next patient. Stifling a yawn, I smoothly transition from HPI to ROS. How’s your sleep, appetite, energy? I am on a roll. Past Psychiatric History and Family History pass by like signposts on a late-night road trip. Turning the corner onto Social History, I am moments away from being able to check the patient off my list and that much closer to a few stolen moments of sleep.“Have you ever been abused?” With that question, the momentum is broken. The patient, an older African American female, gets a faraway look in her eyes.“Back then,” she finally says, “They could not get black teachers for the school in my neighborhood. So I had a white fourth grade teacher.” The patient reflected on how honored she felt that he singled her out and gave her special jobs to do. “I had never been shown attention from a white man before.” But then one day he took her into the broom closet and molested her.Mesmerized, I listened as the patient shared how more and more men from the neighborhood sexually abused her—shopkeepers, neighbors, cousins, brothers. When she challenged her brothers, they said, “That is just the way it is supposed to be.” The men would call to her from their houses as she walked down the street. “Hey, do you want a quarter?” The patient confided that she loved to swim and a day’s admission to the pool cost a quarter. “I swam every day.”Quietly, the patient told me how much she hated it. How she would constantly change her walking route to avoid the calling men. But still they would find her. She had no one to go to for help. Her family was poor, and her mother was always working. Her father was an alcoholic.But a neighbor lady seemed to know what was happening. One day, she gave the patient her daughter’s old green bike. Now the men would call, but the patient could pedal fast and get away. “Yes, I loved that green bike,” the patient smiled, “I took such good care of it.”Deeply touched, I gazed upon this former medical record number on a checklist and said, “You are a strong woman.” She looked at me and said, “That is the way with African American women. We have to be strong no matter what. We are just supposed to take whatever life gives us. We are not supposed to ask for help.”Silently, I thanked her for derailing my goal-directed history evaluation, and for taking me on a cross-cultural detour through the pain of poverty, racial tension, and sexual aggression. Her story of the power of a neighbor’s kindness in the midst of a neighborhood’s inhumanity touched my soul, and forever I will carry the image of that old green bike along with the determined little girl for whom it was a link to sanity.Address correspondence and reprint requests to Dr. Campanella, University of Pennsylvania Health System, 2nd Floor, 3535 Market St., Philadelphia, PA 19104; [email protected] (e-mail). Introspection accepted for publication April 2008 (doi: 10.1176/appi.ajp.2008.08030398). FiguresReferencesCited byDetailsCited ByNone Volume 165Issue 9 September, 2008Pages 1110-1110THE AMERICAN JOURNAL OF PSYCHIATRY September 2008 Volume 165 Number 9 Metrics PDF download History Published online 1 September 2008 Published in print 1 September 2008</t>
+          <t>Prematurity is incredibly common in children within the Indian scenario. Techniques for oral motor stimulation have been explored, therefore the preterm newborn develops the transition to full oral feeding safer and active suck in an exceedingly shorter time This study aims to hold out a systematic scientific review of national and international literature reporting different techniques and elucidate their effectiveness, regarding the oral sensorimotor stimulation of preterm neonates that remained hospitalized. According to the literature, the foremost current technique utilized in India is that non-nutritive sucking with a gloved finger or orthodontic pacifier. Other countries also recorded the technique of non-nutritive sucking in pacifiers followed by oral motor muscle stimulation as a current new approach. these techniques have been positively affecting neonates' oral function development. Regarding the need for promotion of exclusive breastfeeding, recent publications highlighted a concerning percentage of synthetic nipples usage for stimulation in neonatal intensive care medical units.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2066296828</t>
+          <t>https://openalex.org/W4385839247</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1207/s15544818ped0101_2</t>
+          <t>https://doi.org/10.5194/egusphere-2023-1730</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Kalantzis (2006)</t>
+          <t>Ekberzade et al. (2023)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Changing Subjectivities, New Learning</t>
+          <t>GC Insights: Fostering transformative change for biodiversity restoration through transdisciplinary research</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>In this article I argue that today's social transformations are of such depth and significance that they demand a fundamental rethinking of the nature of pedagogy. I address 3 closely interwoven facets of change: the nature of subjectivity, where as citizens, workers, and cultural beings, we are more and more required to be users and players rather than spectators or delegates; the growing intensity and significance of lifeworld diversity in which the local is more multifarious and the global more proximate; and the changing means of production of meaning where the semantic web is increasingly ubiquitous and its meanings multimodal. The response of a New Learning must be multifaceted and holistic. More than reactive, the New Learning must be creative, itself an agent of change rather than merely reflective of change. The transformations wrought by the New Learning must be systemic, rhetorical, and evident in the everyday practices of teaching and learning. In the article I highlight just one of a number of possible pathways, and that is the shift from a psychological/cognitivist view of learning to an epistemological one.</t>
+          <t>Abstract. Despite being considered one of the most pressing global issues, biodiversity loss and the degradation of ecosystems is continuing at an alarming rate. In December 2022, COP15 saw the adoption of the Kunming-Montreal Global Biodiversity Framework, where four overarching international goals for biodiversity and 23 targets. While these targets are a positive step to address the drivers of biodiversity loss, we will not only need public and political will to reach the goals and targets outlined but also more effective methods to integrate and use scientific information. To facilitate this, scientists and research institutions need to establish new and innovative approaches to transform the way science is conducted, communicated, and integrated into the policymaking process. This will require the scientific community to become proficient at working in inter and transdisciplinary teams, establishing connectivity, and engaging in the policymaking process to ensure that the best available scientific evidence is not only comprehensible to decision makers, but also timely and relevant. Here, we detail how scientists can embrace transformative change within and outside of their own communities to increase the impact of their research and help reach global targets that benefit society.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2790881213</t>
+          <t>https://openalex.org/W2039777622</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/1541344609339023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Noe et al. (2011)</t>
+          <t>Rosen (2009)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Emergence of giant superfluorescent pulses from semiconductor quantum wells in a strong magnetic field</t>
+          <t>Transformation of Central and Peripheral Beliefs in the Eyes of the ‘‘Other’’</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Currently, considerable resurgent interest exists in the concept of superradiance (SR), i.e., accelerated relaxation of excited dipoles due to cooperative spontaneous emission, first proposed by Dicke in 1954. Recent authors have discussed SR in diverse contexts, including cavity quantum electrodynamics, quantum phase transitions, and plasmonics. At the heart of these various experiments lies the coherent coupling of constituent particles to each other via their radiation field that cooperatively governs the dynamics of the whole system. In the most exciting form of SR, called superfluorescence (SF), macroscopic coherence spontaneously builds up out of an initially incoherent ensemble of excited dipoles and then decays abruptly. Here, we demonstrate the emergence of this photon-mediated, cooperative, many-body state in a very unlikely system: an ultradense electron-hole plasma in a semiconductor. We observe intense, delayed pulses, or bursts, of coherent radiation from highly photo-excited semiconductor quantum wells with a concomitant sudden decrease in population from total inversion to zero. Unlike previously reported SF in atomic and molecular systems that occur on nanosecond time scales, these intense SF bursts have picosecond pulse-widths and are delayed in time by tens of picoseconds with respect to the excitation pulse. They appear only at sufficiently high excitation powers and magnetic fields and sufficiently low temperatures - where various interactions causing decoherence are suppressed. We present theoretical simulations based on the relaxation and recombination dynamics of ultrahigh-density electron-hole pairs in a quantizing magnetic field, which successfully capture the salient features of the experimental observations.</t>
+          <t>Peace education in the context of intractable conflict involves conflicting collective historical narratives and underlying beliefs. Could it be that peace education is coping with transformation of different types of beliefs rooted in the collective narratives of the conflict? This study suggests differentiation between central and peripheral beliefs and their connection to the behavioral patterns toward the ‘‘other.’’ A total of 546 Jewish and 410 Palestinian 10th grade male and female youth (aged 15—16) from Israel participated in this study. The study identified and characterized the perception of central beliefs from the collective narrative of the ‘‘other’’ as well as more peripheral ones. In addition, it was found that the central beliefs are more connected to the readiness for social contact with the other side as compared to the peripheral ones. Implications for peace education in regions of intractable conflict are discussed.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W254866690</t>
+          <t>https://openalex.org/W2562809071</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/b978-0-08-100625-2.00011-8</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hsieh &amp; Gutiérrez (1998)</t>
+          <t>Miller et al. (2017)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Miscibility studies of coextruded polycarbonate/polymethyl methacrylate composites. Final report, October 1996--September 1997</t>
+          <t>Drug discovery</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Miscibility and molecular relaxation measurements have been carried out using dynamic mechanical analysis (DMA) on the coextruded polycarbonate (PC) /polymethyl methacrylate (PMMA) multilayers with various compositions. Three distinct transitions are observed; two of these are corresponding to the glass transition of the PC-rich phase and PMMA-rich phase. The glass transition temperatures, T(g), of both phases shift slightly toward each other, compared to the T(g) of pure PC and pure PMMA, indicating limited miscibility. A third relaxation, which was not observed with differential scanning calorimetry (DSC), is present at a temperature between the T(g) of PC-rich and PMMA-rich phases. The transition temperature of this intermediate relaxation increases as the PC composition increases, and it also shifts to a higher temperature with an increase in the molecular weight of PMMA. The origin of the intermediate transition is attributed to the molecular relaxation response of an interphase resulted from interdiffusion between the PC and PMMA. In addition, this intermediate relaxation is more sensitive to the change in frequency compared to the response of glass transition of either pure component. As a result, the apparent activation energy values determined for the corresponding third relaxation are consistently smaller than those measured for the glass transitionmore » of pure PC and pure PMMA. The former values, however, remain relatively constant with respect to the variation in composition and molecular weight for all the PC/PMMA multilayers.« less</t>
+          <t>We sit here today perched atop the shoulders of giants. Giants of medicinal chemistry and pharmacology who toiled hard, making and testing one compound each week, a very well-developed process when drug design utilizing computer graphics first came on the scene in the late 1970s. Preclinical development disciplines, including pharmacokinetics, drug metabolism, and toxicology, were also well in place by then. But soon a series of technological advances would rock the drug discovery world, with quantum leaps in the state-of-the-art, changing the face of drug discovery forever. This revolution included the preparation and high-throughput screening of larger and larger drug libraries, large-molecule biologics to compete with small-molecule drugs, and genomics and proteomics, thereby dramatically increasing the information available to drug hunters. But revolutions take time to settle in. As “Drug Discovery 2001: A Molecular Space Odyssey” dawned, pundits thought genomics would solve major healthcare problems overnight, relegating traditional pharmaceutical R&amp;D methods to the waste bin. Reality prevailed and decades of iteration remain before genomics’ economic and social impact will change behavior fundamentally, nationally and internationally. Meanwhile, immuno-oncology moved cancer beyond “dying from” or “living with” to outright “cures” in selected cases. Resulting biotech financings and deals generated huge funds for R&amp;D, employees, and investors, and importantly made possible new medical products for patients and caregivers, greatly improving the standard of care. Though today’s grand progress provides novel therapies to those in need, we still require the tools of neo-classical chemical biology—structure-based design, combinatorial synthesis, and high-throughput screening—along with the old-fashioned, laborious, one-drug-at-a-time art of science circa 1990. Biologics have made big headway into medical practice, saving countless lives and contributing greatly to industry profits, but small-molecule drugs still dominate scrips. Sadly, diminishing numbers of students will work the long, hard hours essential to mastering chemistry or pharmacology. Too many seek quick wins. For some it is about money. For others it is about achievement, adventure, and intellectual challenge. Finally, and most importantly, it is about helping others. Nothing feels better than “doing well by doing good.” Brilliant, dedicated scientists, please, make good health and longevity the norm. Pity the societies that don’t get this right!</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2333727462</t>
+          <t>https://openalex.org/W2069889664</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1046/j.1523-1747.2002.19634.x</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Layton (2015)</t>
+          <t>Eckert et al. (2002)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Scrum For Dummies</t>
+          <t>Keratinocyte Survival, Differentiation, and Death: Many Roads Lead to Mitogen-Activated Protein Kinase</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Practice an agile form of management to stop wasting time and money Scrum For Dummies is an easy to use guide to managing the tricky transition from a traditional project management methodology to the new and most popular agile framework. As the most efficient, successful methodology for team project management, Scrum relies on transparency, flexibility, and fluidity to deliver a final product that fulfills the needs of all stakeholders. Written in easy-to-read Dummies style, this book walks you through the core principles of Scrum and provides a roadmap for tangible implementation. The vast majority of projects go over budget, and billions of dollars are wasted every year on overruns. Put a stop to this wasteful leakage by switching to a management style that keeps all participants informed, up-to-date, and accountable. Authored by a Certified Scrum Trainer, Mark Layton, Scrum For Dummies covers the key ideas and processes behind Scrum methodologies, and presents the inner workings of the plan in an engaging and accessible format. Topics include: * The Scrum values, roles, artifacts, and activities that make up the principle of this methodology * When and how best to use Scrum * The differences between Scrum and other agile methodologies * Using Scrum for IT, finance, construction, health care, and more The book also delves into the everyday use of Scrum, and how it can help you achieve your own personal goals outside of work. There's a reason why scrum is quickly becoming the standard approach to project management it works! If you want to stop wasting time and start producing more effectively, Scrum For Dummies is the guide that will get you there.</t>
+          <t>The epidermis is a dynamic and continually renewing surface that provides and maintains a life-sustaining interface with the environment. The epidermal keratinocyte, the major cell type of the epidermis, undergoes a complex and carefully choreographed program of differentiation. This process requires a balance between keratinocyte proliferation, differentiation, and apoptosis. This overview will concentrate on cascades that regulate the balance between keratinocyte cell proliferation and survival, and apoptosis and cell differentiation, with a particular emphasis on the role of the mitogen-activated protein kinase cascades. A summary of the literature suggests that extracellular regulated kinases function to promote keratinocyte proliferation and survival, whereas p38 mitogen-activated protein kinase functions to promote differentiation and apoptosis. The epidermis is a dynamic and continually renewing surface that provides and maintains a life-sustaining interface with the environment. The epidermal keratinocyte, the major cell type of the epidermis, undergoes a complex and carefully choreographed program of differentiation. This process requires a balance between keratinocyte proliferation, differentiation, and apoptosis. This overview will concentrate on cascades that regulate the balance between keratinocyte cell proliferation and survival, and apoptosis and cell differentiation, with a particular emphasis on the role of the mitogen-activated protein kinase cascades. A summary of the literature suggests that extracellular regulated kinases function to promote keratinocyte proliferation and survival, whereas p38 mitogen-activated protein kinase functions to promote differentiation and apoptosis. In recent decades study of keratinocyte differentiation has yielded substantial new insights. Early efforts identified and cataloged many of the morphologic properties of keratinocytes. Progress was limited, however, by the lack of a suitable in vitro system for the study of keratinocyte differentiation. The 1970s heralded the arrival of various cell culture models that permitted keratinocytes to be grown in mass culture (Rheinwald and Green, 1975Rheinwald J.G. Green H. Serial cultivation of strains of human epidermal keratinocytes: the formation of keratinizing colonies from single cells.Cell. 1975; 6: 331-343Abstract Full Text PDF PubMed Scopus (3902) Google Scholar;Elgjo et al., 1976Elgjo K. Hennings H. Michael D. Yuspa S.H. Natural synchrony of newborn mouse epidermal cells in vitro.J Invest Dermatol. 1976; 66: 292-296Crossref PubMed Scopus (26) Google Scholar;Bettger et al., 1981Bettger W.J. Boyce S.T. Walthall B.J. Ham R.G. Rapid clonal growth and serial passage of human diploid fibroblasts in a lipid-enriched synthetic medium supplemented with epidermal growth factor, insulin, and dexamethasone.Proc Natl Acad Sci USA. 1981; 78: 5588-5592Crossref PubMed Scopus (105) Google Scholar;Boyce and Ham, 1983Boyce S.T. Ham R.G. Calcium-regulated differentiation of normal human epidermal keratinocytes in chemically defined clonal culture and serum-free serial culture.J Invest Dermatol. 1983; 81: 33s-40sCrossref PubMed Scopus (958) Google Scholar). This, in turn, accelerated progress in identifying major structural proteins that participate in formation of differentiated structures. The evolution of culture technology coupled with the revolution in gene analysis technologies led to the identification of a host of proteins that form differentiated structures in keratinocytes (Green, 1980Green H. The keratinocyte as differentiated cell type.The Harvey Lectures. 1980; 74: 101-139PubMed Google Scholar;Fuchs and Byrne, 1994Fuchs E. Byrne C. The epidermis: rising to the surface.Curr Opin Genet Dev. 1994; 4: 725-736Crossref PubMed Scopus (222) Google Scholar;Eckert et al., 1997Eckert R.L. Crish J.F. Robinson N.A. The epidermal keratinocyte as a model for the study of gene regulation and cell differentiation.Physiol Rev. 1997; 77: 397-424Crossref PubMed Scopus (343) Google Scholar). The ability to isolate the genes encoding these proteins subsequently identified DNA sequences that regulate gene expression. In recent years, the knowledge built during the 1970s and 1980s has led to a substantial interest in understanding how keratinocyte differentiation is regulated and in elucidating the signaling mechanisms that control gene expression. Keratinocytes begin as proliferation-competent basal layer cells that are characterized by expression of specific basal-cell-associated marker proteins. These cells, in turn, give rise to daughter cells that terminally differentiate. Cell differentiation results in the stacking of multiple keratinocyte layers above the basal zone, forming the spinous, granular, and cornified layers (Eckert et al., 1997Eckert R.L. Crish J.F. Robinson N.A. The epidermal keratinocyte as a model for the study of gene regulation and cell differentiation.Physiol Rev. 1997; 77: 397-424Crossref PubMed Scopus (343) Goo</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2321749755</t>
+          <t>https://openalex.org/W135984254</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.aoa.0000414117.34913.94</t>
+          <t>https://doi.org/10.3233/978-1-60750-073-5-55</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Andı́a et al. (2012)</t>
+          <t>D’Hollander &amp; Beyls (2009)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Pregnancy Outcome in Patients Treated With Cervical Conization for Cervical Intraepithelial Neoplasia</t>
+          <t>High performance computing with FPGAs</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Log in Your account has been temporarily locked Your account has been temporarily locked due to incorrect sign in attempts and will be automatically unlocked in 30 mins. For immediate assistance, contact Customer Service: 800-638-3030 (within USA), 301-223-2300 (international) [email protected] Invalid username or password. Try again or register an account. default message Login No user account? Register for free. Register for free. Lippincott Journals Subscribers, use your username or email along with your password to log in. Forgot Password? or Register Register for a free account Existing User Log In Existing User Log In Registered users can save articles, searches, and manage email alerts. All registration fields are required. What's your profession? Academic Medicine Acute Care Nursing Addiction Medicine Administration Advanced Practice Nursing Allergy &amp; Immunology Allied Health Alternative &amp; Complementary Medicine Anesthesiology Anesthesiology Nursing Audiology &amp; Ear and Hearing Basic Science Cardiology Cardiothoracic Surgery Cardiovascular Nursing Cardiovascular Surgery Child Neurology Child Psychiatry Chiropractics Clinical Sciences Colorectal Surgery Community Health Critical Care Critical Care Nursing Dentistry Dermatology Emergency Medicine Emergency Nursing Endocrinology Endoncrinology Forensic Medicine Gastroenterology General Surgery Genetics Geriatrics Gynecologic Oncology Hand Surgery Head &amp; Neck Surgery Hematology/Oncology Hospice &amp; Palliative Care Hospital Medicine Infectious Disease Infusion Nursing Internal/General Medicine Internal/General Medicine Residency Library Sciences Maternal Child Nursing Medical Oncology Medical Research Neonatal/Perinatal Neonatal/Perinatal Nursing Nephrology Neurology Neurosurgery Nursing-administrative Nursing-all Specialties Nursing-education Nutrition &amp; Dietetics Obstetrics &amp; Gynecology Obstetrics &amp; Gynecology Nursing Occupational &amp; Environmental Medicine Oncology Nursing Oncology Surgery Ophthalmology/Optometry Oral &amp; Maxillofacial Surgery Orthopedic Nursing Orthopedics/Spine/Sports Medicine Surgery Otolaryngology Pain Medicine Pathology Pediatric Surgery Pediatrics Pharmacology Pharmacy Physical Medicine &amp; Rehabilitation Physical Therapy &amp; Womens Health Physical Therapy Plastic Surgery Podiatary-general Podiatry-general Primary Care/Family Medicine/General Practice Psychiatric Nursing Psychiatry Psychology Public Health Pulmonology Radiation Oncology/Therapy Radiology Rheumatology Skills &amp; Procedures Sleep Medicine Sport &amp; Exercise/Training/Fitness Sports Medicine Surgical Nursing Transitional Care Transplant Surgery Trauma Nursing Trauma Surgery Urology Womens Health Wound Care Other What's your speciality? Addiction Medicine Allergy &amp; Clinical Immunology Anesthesiology Audiology &amp; Speech-Language Pathology Cardiology Cardiothoracic Surgery Critical Care Medicine Dentistry, Oral Surgery &amp; Medicine Dermatology Dermatologic Surgery Emergency Medicine Endocrinology &amp; Metabolism Family or General Practice Gastroenterology &amp; Hepatology Genetic Medicine Geriatrics &amp; Gerontology Hematology Hospitalist Immunology Infectious Diseases Internal Medicine Legal/Forensic Medicine Nephrology Neurology Neurosurgery Nursing Nutrition &amp; Dietetics Obstetrics &amp; Gynecology Oncology Ophthalmology Orthopedics Otorhinolaryngology Pain Management Pathology Pediatrics Plastic/ Reconstructive Sugery Pharmacology &amp; Pharmacy Physiology Psychiatry Psychology Public, Environmental &amp; Occupational Health Radiology, Nuclear Medicine &amp; Medical Imaging Physical Medicine and Rehabilitation Respiratory/Pulmonary Medicine Rheumatology Sport Medicine/Science Surgery (General) Trauma Surgery Toxicology Transplantation Surgery Urology Vascular Surgery Virology I don't have a medical specialty What's your work setting? Hospital Under 250 Beds Hospital Over 250 Beds Eldercare or Hospice Facility Psychiatric or Rehabilitative Facility Private Practice Group Practice Corporation (Pharmaceutical, Biotechnology, Engineering, etc.) Doctoral University or Medical School Masters or 4-Year Academic University Community College Government Other I have read &amp; acknowledge the End User License Agreement. I have read &amp; accept the terms of the Privacy Policy. Subscribe to journalSubscribe Get new issue alertsGet alerts Enter your Email address: Wolters Kluwer Health may email you for journal alerts and information, but is committed to maintaining your privacy and will not share your personal information without your express consent. For more information, please refer to our Privacy Policy. Subscribe to eTOC Secondary Logo Journal Logo All Articles Images Videos Podcasts Blogs Advanced Search Toggle navigation Subscribe Register Login Articles &amp; Issues Current IssuePrevious Issues Collections Obstetric Airway ManagementMaternal EmbolismRegional Anesthesia for Cesarean SectionGeneral Anesthesia for Cesarean SectionAnalgesia for LaborObstetric HemorrhagePre-Eclampsia/EclampsiaPharmacologyTraumaInfection and Seps</t>
+          <t>Field-programmable gate arrays represent an army of logical units which can be organized in a highly parallel or pipelined fashion to implement an algorithm in hardware. The flexibility of this new medium creates new challenges to find the right processing paradigm which takes into account of the natural constraints of FPGAs: clock frequency, memory footprint and communication bandwidth. In this paper first use of FPGAs as a multiprocessor on a chip or its use as a highly functional coprocessor are compared, and the programming tools for hardware/software codesign are discussed. Next a number of techniques are presented to maximize the parallelism and optimize the data locality in nested loops. This includes unimodular transformations, data locality improving loop transformations and use of smart buffers. Finally, the use of these techniques on a number of examples is demonstrated._x000D_
+The results in the paper and in the literature show that, with the proper programming tool set, FPGAs can speedup computation kernels significantly with respect to traditional processors.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3145136976</t>
+          <t>https://openalex.org/W2110493470</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.13110/criticism.62.2.0307</t>
+          <t>https://doi.org/10.1176/appi.ajp.2008.08030398</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Behluli (2020)</t>
+          <t>Campanella (2008)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Constellating a Work of Abundance</t>
+          <t>The Green Bike</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Reviewed by: Constellating a Work of Abundance by Ronald Schleifer Sofie Behluli (bio) A Political Economy of Modernism: Literature, Post-Classical Economics, and the Lower Middle-Class by Ronald Schleifer. Cambridge: Cambridge University Press, 2018. 339 pp. Hardcover £75.00. In his seminal essay on "The Work of Art in the Age of Mechanical Reproduction" (1935), Walter Benjamin argues that the late nineteenth- and early twentieth-century changes in the artistic process of production and re-production have not only altered the ontological basis of art—by threatening its so-called "aura" in particular—but also the aesthetic experience of art itself. Processes of modernization around the turn of the twentieth century, in other words, have permanently changed the way humans produce, distribute, and consume art. In the two sections that bracket this essay, Benjamin politicizes his argument by embedding it in the context of fascism and presents the larger socio-political implications of modernization.1 More than 80 years later, Ronald Schleifer follows in Benjamin's footsteps by articulating an equally ambitious constellation of the institutional history of modernism, the changing sensual and aesthetic experience, and the social organization of the time in his latest book, A Political Economy of Modernism (2018). This comparison to Walter Benjamin seems appropriate as the author begins his impressive study with a methodological chapter in which he elaborates on Benjamin's claim that "[i]deas are to objects as constellations are to stars" (qtd. in Schleifer, 7). The methodology derived from this notion of homologically constellated ideas, [End Page 307] in which the individual parts arrange themselves into a centerless whole, is mirrored by the structure of Schleifer's monograph. The complexity that results from such a nonlinear approach that puts phenomena of various sizes and from various disciplines side by side, rather than in a causal chain or hierarchy, is what makes A Political Economy of Modernism a challenging but ultimately satisfying analysis. One of the harder aspects to parse is Schleifer's use of the notion of "political economy," by which he means the modernist institution and its constellation of "experience, wealth and, social life" (5). Schleifer's dense analysis of this triad encompasses more specifically the scrutiny of modernist literature and the arts and how they are connected to the Second Industrial Revolution, the transition from entrepreneurial to corporate capitalism and from the dominance of life-enhancing commodities to life-sustaining commodities, which goes hand in hand with the replacement of necessity by desire, the emergence of the lower middle class, and the resulting shift in aesthetic experience. Schleifer's interdisciplinary analysis, which aims at further defining the "culture of modernism" (ix) that he also discusses in his two previous monographs Modernism and Time (2000)2 and Modernism and Popular Music (2011),3 builds on Benjamin's notion of "constellation" and William Brian Arthur's notion of "complexity" and boils down to the book's global argument that the complex unity of the phenomenon of cultural modernism is best understood as relational, historical, and real in its feedback effects on other institutions at a particular moment in cultural history. These other institutions include institutions of experience, knowledge, and social relationships: the literary aesthetics, the intellectual analyses of post-classical economics, and the lower middle class of [the] title. (39) By focusing on interrelationships rather than hierarchies, horizontally established (economic, semiotic, and cultural) value rather than vertically defined conditions, and social "habits of thought"4 rather than individual events, Schleifer's monograph offers a refined contribution to modernist studies at large. In his endeavor to prove "that such complexity of arrangements also governs, in the time of modernism, that larger phenomenon, the political economy of culture" (7), Schleifer subdivides his study into seven chapters, an interlude on the relationship between semiotics and economics, and a conclusion on cosmopolitan modernism, which are [End Page 308] distributed into three main parts: Part I, Economics in the Context of Cultural Modernism; Part II, Intangible Assets: Modernist Economics; and Part III, Intangible Liabilities: Class and Value in the Time of Modernism. This structural trajectory from cultural modernism to modernist economics and finally to social class shows how fluidly Schleifer moves between disciplinary spheres and institutions...</t>
+          <t>Back to table of contents Previous article Next article IntrospectionsFull AccessThe Green BikeKarla Campanella M.D., M.A.Karla Campanella M.D., M.A.Search for more papers by this authorPublished Online:1 Sep 2008https://doi.org/10.1176/appi.ajp.2008.08030398AboutSectionsPDF/EPUB ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InEmail I was in the middle of a hectic night on call in the ED. I had a long list of patients to see—all with suicidal ideation of one form or another.I begin evaluating the next patient. Stifling a yawn, I smoothly transition from HPI to ROS. How’s your sleep, appetite, energy? I am on a roll. Past Psychiatric History and Family History pass by like signposts on a late-night road trip. Turning the corner onto Social History, I am moments away from being able to check the patient off my list and that much closer to a few stolen moments of sleep.“Have you ever been abused?” With that question, the momentum is broken. The patient, an older African American female, gets a faraway look in her eyes.“Back then,” she finally says, “They could not get black teachers for the school in my neighborhood. So I had a white fourth grade teacher.” The patient reflected on how honored she felt that he singled her out and gave her special jobs to do. “I had never been shown attention from a white man before.” But then one day he took her into the broom closet and molested her.Mesmerized, I listened as the patient shared how more and more men from the neighborhood sexually abused her—shopkeepers, neighbors, cousins, brothers. When she challenged her brothers, they said, “That is just the way it is supposed to be.” The men would call to her from their houses as she walked down the street. “Hey, do you want a quarter?” The patient confided that she loved to swim and a day’s admission to the pool cost a quarter. “I swam every day.”Quietly, the patient told me how much she hated it. How she would constantly change her walking route to avoid the calling men. But still they would find her. She had no one to go to for help. Her family was poor, and her mother was always working. Her father was an alcoholic.But a neighbor lady seemed to know what was happening. One day, she gave the patient her daughter’s old green bike. Now the men would call, but the patient could pedal fast and get away. “Yes, I loved that green bike,” the patient smiled, “I took such good care of it.”Deeply touched, I gazed upon this former medical record number on a checklist and said, “You are a strong woman.” She looked at me and said, “That is the way with African American women. We have to be strong no matter what. We are just supposed to take whatever life gives us. We are not supposed to ask for help.”Silently, I thanked her for derailing my goal-directed history evaluation, and for taking me on a cross-cultural detour through the pain of poverty, racial tension, and sexual aggression. Her story of the power of a neighbor’s kindness in the midst of a neighborhood’s inhumanity touched my soul, and forever I will carry the image of that old green bike along with the determined little girl for whom it was a link to sanity.Address correspondence and reprint requests to Dr. Campanella, University of Pennsylvania Health System, 2nd Floor, 3535 Market St., Philadelphia, PA 19104; [email protected] (e-mail). Introspection accepted for publication April 2008 (doi: 10.1176/appi.ajp.2008.08030398). FiguresReferencesCited byDetailsCited ByNone Volume 165Issue 9 September, 2008Pages 1110-1110THE AMERICAN JOURNAL OF PSYCHIATRY September 2008 Volume 165 Number 9 Metrics PDF download History Published online 1 September 2008 Published in print 1 September 2008</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3203786532</t>
+          <t>https://openalex.org/W2058832548</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.19181/1561-7785-2019-00014</t>
+          <t>https://doi.org/10.1002/pdi.544</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sharin &amp; Kulkova (2019)</t>
+          <t>Wroe (2003)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Impact of the older generation’s support on fertility in Russia</t>
+          <t>‘Three years is not a long time in which there can be substantial changes’</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>The problem of fertility remains urgent for the Russian society that negatively affects the demographic situation in the country. Fertility is influenced by many economic and social factors, including the support of senior parents. Scientists give ambiguous assessment of the role of this support. The article is aimed at analyzing the impact of family support on fertility. On the basis of the study of the role of senior parents as subjects of family support there are identified the factors influencing the character of support and reproductive attitudes of younger generations. The study used methods of system analysis, general scientific methods. It is concluded that against the background of the transition to the European model of the family, the emotional and material support of senior parents has not lost its relevance and remains one of the significant factors when making decisions about childbirth. Meanwhile, there is a transformation of the role of older generation, change in the dominant forms of support for child care and upbringing. In this aspect, the authors propose a typology of families with children under 14 by the degree of senior parents’ support for child care. In Russia, there has been an increase in the retirement age, which gives reason to consider the impact of this factor on the help of older parents. The paper presents a reasonable forecast of possible changes in the reproductive attitudes of young families due to the increase in the retirement age. The obtained results can be used to improve the state demographic policy, in the development of measures to raise the fertility.</t>
+          <t>In an interview with Practical Diabetes International, the incoming President of the International Diabetes Federation (IDF) and Emeritus Professor of Medicine at the University of Liege, Pierre Lefèbvre, discusses the challenges which lie ahead. I have been working for the IDF for a long time. I had two terms as Vice President and, over the last three years as President-Elect, I have been working very closely and have had a very good relationship with Sir George Alberti, the outgoing President. This kind of relationship is very important in order to ensure a smooth transition. As I take over as President, I have been asked to make a few comments as to how I see the world of diabetes developing over the next three years. At the moment the situation is far from optimistic and three years is not a long time in which there can be substantial changes. There are already so many people in the world with diabetes and, as we know, the numbers are going to increase at a fast rate. Furthermore, as has been reported at this year's IDF Congress, there are a similar number of people with impaired glucose tolerance, many of whom will go on to become diabetic – and the number of these also is likely to increase. Worldwide, many of those in these two groups are already poorly treated or cannot afford their treatment and I am seriously concerned that, as their numbers increase at a much faster rate than money becomes available, they may well have even poorer prospects of treatment in the coming years. However, in many respects, the forthcoming challenges for type 1 and type 2 people with diabetes differ and thus the ways in which we will try to meet these challenges will differ also. For type 1, we have to find out what is inducing the condition. We know that for most people it is autoimmune – the destruction of the beta-cells. However, whilst we know some of the mechanisms involved, we do not know what is the trigger that starts the process. We know that there are genes involved and that the condition starts years before it becomes apparent. What I would hope to see is some method of identifying those at risk and then the implementation of preventive measures. However, so far most of the preventive measures have failed. Perhaps one hope lies in the identification of an effective vaccination? Certainly transplantation techniques are making progress and may offer some hope. In the developed world, the incidence of type 2 diabetes has grown during the last 25 years of prosperity and this has beeen exacerbated by the rise of the food and automobile industries. Worldwide, increasingly sedentary lifestyles (both in terms of the kind of lives we live now but also in the way we are bringing up our young to spend most of their time looking at computers instead of playing outside sports) are contributing to the growth in the incidence of type 2 diabetes. One of the problems is going to be getting people to modify their behaviour. When you have middle-aged people who have done no exercise and who are obese, it is extremely difficult to get them to change their habits and lifestyles. With such people we may have to consider surgery or the use of drugs which, to date, are far from perfect. There will undoubtedly be new drugs but these are likely to be extremely expensive and thus unavailable to many people. Therefore, I think we have to start with the younger generation and we have to influence their parents, their schools and their teachers. But this is going to be an extremely long process and we are only at the beginning of trying to do something about it. The IDF can only do so much. We can identify the problems and provide some of the educational tools. However, the implementation is outside our hands. This has to be done locally and it varies from country to country and upon the local associations. Finally – and this will be particularly appropriate to readers of Practical Diabetes International – I would stress the importance of health care teams in helping to educate patients, parents and the public. Doctors alone are unable to cope with the increased numbers and health care teams are going to play increasingly crucial roles not only in education but also in the management and implementation of lifestyle changes. Interview by Charles D Wroe, medical correspondent</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388044494</t>
+          <t>https://openalex.org/W2066296828</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.10.30.564746</t>
+          <t>https://doi.org/10.1207/s15544818ped0101_2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Herneisen et al. (2023)</t>
+          <t>Kalantzis (2006)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SPARK regulates AGC kinases central to the&lt;i&gt;Toxoplasma gondii&lt;/i&gt;asexual cycle</t>
+          <t>Changing Subjectivities, New Learning</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Apicomplexan parasites balance proliferation, persistence, and spread in their metazoan hosts. AGC kinases, such as PKG, PKA, and the PDK1 ortholog SPARK, integrate environmental signals to toggle parasites between replicative and motile life stages. Recent studies have cataloged pathways downstream of apicomplexan PKG and PKA; however, less is known about the global integration of AGC kinase signaling cascades. Here, conditional genetics coupled to unbiased proteomics demonstrates that SPARK complexes with an elongin-like protein to regulate the stability of PKA and PKG in the model apicomplexan Toxoplasma gondii. Defects attributed to SPARK depletion develop after PKG and PKA are down-regulated. Parasites lacking SPARK differentiate into the chronic form of infection, which may arise from reduced activity of a coccidian-specific PKA ortholog. This work delineates the signaling topology of AGC kinases that together control transitions within the asexual cycle of this important family of parasites.</t>
+          <t>In this article I argue that today's social transformations are of such depth and significance that they demand a fundamental rethinking of the nature of pedagogy. I address 3 closely interwoven facets of change: the nature of subjectivity, where as citizens, workers, and cultural beings, we are more and more required to be users and players rather than spectators or delegates; the growing intensity and significance of lifeworld diversity in which the local is more multifarious and the global more proximate; and the changing means of production of meaning where the semantic web is increasingly ubiquitous and its meanings multimodal. The response of a New Learning must be multifaceted and holistic. More than reactive, the New Learning must be creative, itself an agent of change rather than merely reflective of change. The transformations wrought by the New Learning must be systemic, rhetorical, and evident in the everyday practices of teaching and learning. In the article I highlight just one of a number of possible pathways, and that is the shift from a psychological/cognitivist view of learning to an epistemological one.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4255517653</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.31219/osf.io/s4fa6</t>
+          <t>https://openalex.org/W2790881213</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mamoor (2021)</t>
+          <t>Noe et al. (2011)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Differential expression of ANK2 in cancer of the vulva.</t>
+          <t>Emergence of giant superfluorescent pulses from semiconductor quantum wells in a strong magnetic field</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>In these brief notes we document work using published microarray data (1, 2) to pioneer integrative transcriptome analysis comparing vulvar carcinoma to its tissue of origin, the vulva. We report the differential expression of ankyrin 2, neuronal, encoded by ANK2, in cancer of the vulva. ANK2 may be of pertinence to understanding transformation and disease progression in vulvar cancer (3).</t>
+          <t>Currently, considerable resurgent interest exists in the concept of superradiance (SR), i.e., accelerated relaxation of excited dipoles due to cooperative spontaneous emission, first proposed by Dicke in 1954. Recent authors have discussed SR in diverse contexts, including cavity quantum electrodynamics, quantum phase transitions, and plasmonics. At the heart of these various experiments lies the coherent coupling of constituent particles to each other via their radiation field that cooperatively governs the dynamics of the whole system. In the most exciting form of SR, called superfluorescence (SF), macroscopic coherence spontaneously builds up out of an initially incoherent ensemble of excited dipoles and then decays abruptly. Here, we demonstrate the emergence of this photon-mediated, cooperative, many-body state in a very unlikely system: an ultradense electron-hole plasma in a semiconductor. We observe intense, delayed pulses, or bursts, of coherent radiation from highly photo-excited semiconductor quantum wells with a concomitant sudden decrease in population from total inversion to zero. Unlike previously reported SF in atomic and molecular systems that occur on nanosecond time scales, these intense SF bursts have picosecond pulse-widths and are delayed in time by tens of picoseconds with respect to the excitation pulse. They appear only at sufficiently high excitation powers and magnetic fields and sufficiently low temperatures - where various interactions causing decoherence are suppressed. We present theoretical simulations based on the relaxation and recombination dynamics of ultrahigh-density electron-hole pairs in a quantizing magnetic field, which successfully capture the salient features of the experimental observations.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2925476429</t>
+          <t>https://openalex.org/W3109180265</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/cch.2019.0013</t>
+          <t>https://doi.org/10.31355/58</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Brannan (2019)</t>
+          <t>Saadé (2020)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>The Apocalypse of Settler Colonialism: The roots of slavery, White supremacy, and capitalism in seventeenth-century North America and the Caribbean by Gerald Horne</t>
+          <t>Digital Innovation &amp;amp; Transformation Opportunities for Researchers &amp;amp; Practitioners – A Structured Literature Review &amp;amp; Proposed Model</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Reviewed by: The Apocalypse of Settler Colonialism: The roots of slavery, White supremacy, and capitalism in seventeenth-century North America and the Caribbean by Gerald Horne Laura Brannan The Apocalypse of Settler Colonialism: The roots of slavery, White supremacy, and capitalism in seventeenth-century North America and the Caribbean By Gerald Horne. New York: Monthly Review Press. 2018. In The Apocalypse of Settler Colonialism, Gerald Horne weaves together a century of events and processes to demonstrate the depth to which colonial systems of slavery and settler colonialism, which significantly accelerated in the seventeenth century, influenced the foundation of the United States. In his introduction, Horne states he is attempting to persuade readers that "any explanation [of how the US is a global dominant power] that elides slavery, colonialism, and the shards of an emerging capitalism… is deficient in explanatory power" (7). He successfully accomplishes this argument through framing the rise of slavery and its direct connection to capitalism through cross-class alliances, which congealed pan-Europeanism and the dominative identity of whiteness that has endured to the present day. These events, atop land that was violently seized from groups indigenous to North America and built upon the backs of people enslaved in the Caribbean and the mainland, were all veiled under the quest for democracy and religious freedom, which fundamentally set the stage for the revolution of 1776. Organizing The Apocalypse chronologically is a logical choice, as Horne is a historian and is synthesizing archival documents, primary sources and a whole host of scholars' analysis on subjects pertaining to the history of slavery in the Caribbean and the mainland of what is the modern-day US. These sources were integral to viewing his object of study and were utilized to bolster his claim that it is inadequate to consider the US as a self-made world power without grasping the historical events of slavery, capitalism and White supremacy in the seventeenth century. However, employing an extensive scope of sources to serve as supporting evidence results in quite a detail-driven narrative. Encompassing the wide breadth of multiple European empires and multifaceted processes like slavery and settler colonialism over the course of a century in less than two hundred pages is an ambitious task that might overwhelm introductory students. But these details help Horne succeed in both relaying these events and explicitly offering opportunity to apply these histories to the current US landscape; thus, the meticulous details throughout the book should not overshadow what this monograph achieves. In fact, Horne integrates his themes of how "enslaving colonialism forged 'whiteness'" (22) and how this process increased early migration to the US quite clearly throughout the nine chapters of The Apocalypse. The study of whiteness has captured the attention of scholars since W.E.B. Du Bois, but Horne provides a fresh analysis as he contextualizes whiteness as an emerging pan-Europeanism that resulted from intensified African labor during the seventeenth century. Throughout each chapter, Horne integrates this sub-theme of how the political identity of whiteness formed through the colonizing events of those in power—European nations—pawning off, placing and implementing differently marked bodies to different locations and for different labor for the profits of capitalism. Horne intertwines slavery, capitalism and White supremacy most clearly in Chapters Four, Five and Six. These chapters outline pivotal moments on the world stage and events thereafter that altered the construction of the US—the disintegration of both the Spanish and Dutch empires and the formation of the Royal African Company. Horne effectively weaves together how these events contributed to the rise of England's imperial dominance and the tightening of their grasp on slavery. Factors in conjunction with one another like London's stake in the Royal African Company, rising capitalist demands for increased labor, the sugar boom and intensified fear of additional slave revolts caused more enslaved Africans to be forced into labor, inversely decreasing poor indentured European labor. This all began to constitute the soon to be pervasive identity politics of whiteness cemented into the foundation of the US. While the project of deconstructing American exceptionalism has been undertaken before by scholars in fields such as African American studies, Slavery studies, American...</t>
+          <t>Aim/Purpose Although the latest review on digital innovation was made in 2018 (included articles up to 2017), the purpose of this study is to explore and examine opportunities for research in digital innovation and transformation for both researchers (including graduate students) and practitioners. A conceptual model is proposed. Background Digital innovation is omnipresent today, as it has penetrated deep into the structure and psyche of individuals, communities, organizations, institutions and governments. We find ourselves in a quagmire of opportunities risks and uncertainties, where ubiquitous technological interconnectedness form a new paradigm enabling industry to innovate and grow. All humanity is faced with these disruptive digital pressures. Yet, relatively there is little research done. Unfortunately, a coordinated effort for such a seriously important phenome-non does not exist. Methodology A structured literature review approach was conducted, the results of which were used for a qualitative approach, using nVivo, to extract insights and understanding. Findings This study identifies the extent of research done in the different areas of digital innovation and transformation and puts the results into perspective. Scholarly research is scarce, dispersed and diverse, lacking any direction or cohesion. Research on transformation is more than innovation and in both cases those that study their relationships with human or society are a handful. A conceptual model is proposed by integrating knowledge gained from the literature, the integral theory and the concept of impact assessment. Impact on Society This study shows that the integration of human agency digital innovation research and practice is primary. Researchers and practitioners can use the conceptual model to help them expand and extend their work.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2386189783</t>
+          <t>https://openalex.org/W4393345454</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/ser/mwae018</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Zhao (2009)</t>
+          <t>Kalanta (2024)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Research and Implementation of Military Simulation Data Aggregation Framework</t>
+          <t>Growth model change in emerging economies: sectorial loci of growth and politics</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Aggregation and integration of the military simulation data is an important part of the military data engineering project.According to the technology of ETL and Message Oriented Middleware(MOM),a military simulation data aggregation framework of the extraction,transformation,transportation and loading(ETTL) based on MOM is devised.The system structure,along with the relationship between each model is analized,and a feasible data aggregation solution is presented accordingly.Design and implementation of a distributed data aggregation system is introduced,and then,combined with an instance of data aggregation,the application of the system on war game is illustrated.</t>
+          <t>Abstract The article contributes to an ongoing debate in comparative political economy on the integration of the demand and supply sides in growth model (GM) analysis. In particular, the article focuses on the characteristics of export-led GMs in emerging economies and addresses questions of GM change. The article makes two contributions. First, for capturing differences between countries that adopt export-led growth, the article introduces the concept of a sectoral locus of growth. Second, the article links GM change to the interaction of politics and sectoral transformations that a country accumulated during the preceding GM. The article presents empirical support for its arguments from the cases of Estonia and Lithuania, which both recovered from the Global Financial Crisis by shifting from debt-led to export-led growth based, however, on different sectoral loci of growth: exports of low-quality manufacturing and services in Lithuania and exports of dynamic services in Estonia.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1496498685</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/isaf.1992.300658</t>
+          <t>https://openalex.org/W254866690</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Roseman et al. (2003)</t>
+          <t>Hsieh &amp; Gutiérrez (1998)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PTC behavior in yttria doped BaTiO/sub 3/ as related to grain boundary structure</t>
+          <t>Miscibility studies of coextruded polycarbonate/polymethyl methacrylate composites. Final report, October 1996--September 1997</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Lattice structure and phase distribution along the grain boundaries in Y/sub 2/O/sub 3/-doped BaTiO/sub 3/, with Zr/sup 4+/ as a counterdopant were investigated with respect to their impact on PTC (positive-temperature-coefficient) behavior. This doping, related to A and B-site occupancy, creates ionic defect states which segregate during annealing to different morphological regions along the grain boundaries, identified as nondomain and domain regions. TEM (transmission electron microscope) high-resolution imaging, and HOLZ pattern and EDS (electron diffraction spectroscopy) analysis of these regions showed differences in composition, lattice parameters, and lattice plane coherency across the grain boundaries. Optimum doping in light of these structural changes resulted in lower resistivity and enhanced PTC effects, the stress release being the driving force for sharp PCT transitions.&lt; &lt;ETX xmlns:mml="http://www.w3.org/1998/Math/MathML" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;&amp;gt;&lt;/ETX&gt;</t>
+          <t>Miscibility and molecular relaxation measurements have been carried out using dynamic mechanical analysis (DMA) on the coextruded polycarbonate (PC) /polymethyl methacrylate (PMMA) multilayers with various compositions. Three distinct transitions are observed; two of these are corresponding to the glass transition of the PC-rich phase and PMMA-rich phase. The glass transition temperatures, T(g), of both phases shift slightly toward each other, compared to the T(g) of pure PC and pure PMMA, indicating limited miscibility. A third relaxation, which was not observed with differential scanning calorimetry (DSC), is present at a temperature between the T(g) of PC-rich and PMMA-rich phases. The transition temperature of this intermediate relaxation increases as the PC composition increases, and it also shifts to a higher temperature with an increase in the molecular weight of PMMA. The origin of the intermediate transition is attributed to the molecular relaxation response of an interphase resulted from interdiffusion between the PC and PMMA. In addition, this intermediate relaxation is more sensitive to the change in frequency compared to the response of glass transition of either pure component. As a result, the apparent activation energy values determined for the corresponding third relaxation are consistently smaller than those measured for the glass transitionmore » of pure PC and pure PMMA. The former values, however, remain relatively constant with respect to the variation in composition and molecular weight for all the PC/PMMA multilayers.« less</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1702942123</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.26608/from_koine_to_romanitas</t>
+          <t>https://openalex.org/W2333727462</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Paunov (2017)</t>
+          <t>Layton (2015)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>From Koine to Romanitas: The numismatic evidence for Roman expansion and settlement in Bulgaria in antiquity (Moesia and Thrace, ca. 146 BC–AD 98/117)</t>
+          <t>Scrum For Dummies</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>The primary goal of this thesis is to collect, record and interpret the available coin_x000D_
-evidence from the territory of modern Bulgaria during the late Hellenistic and early_x000D_
-Roman Imperial period, from an archaeological, historical and numismatic_x000D_
-perspective. In so doing the work documents the transition and integration of the_x000D_
-monetary system of ancient Thrace to that of the Roman world. The evidence_x000D_
-examined covers over 250 years, from the establishment of the province of_x000D_
-Macedonia in 146 BC down to the reign of Trajan (AD 98-117)._x000D_
-Of foremost importance in this process are the introduction, distribution and use_x000D_
-of the denarius in the local coin market._x000D_
-The evidence under study was collected from the area of ancient Moesia and_x000D_
-Thrace, an area recognized as a frontier zone in the early Roman Empire. Previously_x000D_
-Thrace was never the subject of a comprehensive numismatic study that integrated_x000D_
-the existing archeological and historical record for such a critical period of time. The_x000D_
-purposely studied coin finds (both hoards and single coins, over 48,000 pieces)_x000D_
-allowed for the application of statistical analysis to the coin data, revealing important_x000D_
-military, economic and fiscal tendencies. The results document a culture well_x000D_
-accustomed to the use of coins as means of payment long before the arrival of the_x000D_
-Roman currency. Given these circumstances, it is no surprise that as denarii were_x000D_
-introduced during the 1st century BC, the market quickly adjusted to new economic_x000D_
-relations. Tracing the regional use and distribution of coins, the study bears witness_x000D_
-to how local communities benefited from their strategic location and native resources._x000D_
-The main contribution of this work lies in the systematic comparison between_x000D_
-the Late Hellenistic, Thracian, Celtic and Roman coinages that circulated together in_x000D_
-a region that was of great strategic importance to the Roman Empire. Mechanisms of_x000D_
-introduction and acceptance of Roman coins as financial tools have been_x000D_
-documented and interpreted both from a chronological and geographical standpoint._x000D_
-Based on comprehensive analyses, this thesis concludes that the nature of the_x000D_
-Thracian and Moesian society and economy, as well as the supply of coins, followed_x000D_
-the Imperial and interregional trends as an integral part of the Roman Empire.</t>
+          <t>Practice an agile form of management to stop wasting time and money Scrum For Dummies is an easy to use guide to managing the tricky transition from a traditional project management methodology to the new and most popular agile framework. As the most efficient, successful methodology for team project management, Scrum relies on transparency, flexibility, and fluidity to deliver a final product that fulfills the needs of all stakeholders. Written in easy-to-read Dummies style, this book walks you through the core principles of Scrum and provides a roadmap for tangible implementation. The vast majority of projects go over budget, and billions of dollars are wasted every year on overruns. Put a stop to this wasteful leakage by switching to a management style that keeps all participants informed, up-to-date, and accountable. Authored by a Certified Scrum Trainer, Mark Layton, Scrum For Dummies covers the key ideas and processes behind Scrum methodologies, and presents the inner workings of the plan in an engaging and accessible format. Topics include: * The Scrum values, roles, artifacts, and activities that make up the principle of this methodology * When and how best to use Scrum * The differences between Scrum and other agile methodologies * Using Scrum for IT, finance, construction, health care, and more The book also delves into the everyday use of Scrum, and how it can help you achieve your own personal goals outside of work. There's a reason why scrum is quickly becoming the standard approach to project management it works! If you want to stop wasting time and start producing more effectively, Scrum For Dummies is the guide that will get you there.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2772891606</t>
+          <t>https://openalex.org/W3203786532</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4102/satnt.v28i4.73</t>
+          <t>https://doi.org/10.19181/1561-7785-2019-00014</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Walt (2009)</t>
+          <t>Sharin &amp; Kulkova (2019)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Study orientation and knowledge of basic vocabulary in Mathematics in the primary school</t>
+          <t>Impact of the older generation’s support on fertility in Russia</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Whatever the reason, underachievement in mathematics in South Africa is endemic and tantamount to a national disaster. Despite the transformation of education in South Africa, failure rates in mathematics at school and university remain unacceptably high, and the number of learners who leave Grade 12 with a pass mark in both mathematics and physical science is unacceptably low. Relatively little has been written about inadequate performance of Grade 4 to 7 learners in mathematics in South Africa, and even less about possible solutions to the problem. South African primary school learners’ lack of basic mathematics and vocabulary skills in particular is a source of major concern. In the ﬁrst national systemic evaluation of learners’ skills in English, mathematics and science in 2001 Grade 3 learners achieved an average of 30% in mathematics. In the follow-up studies, Grade 6 learners achieved a national average of 27% in mathematices, in 2004, while nationally eighty percent of Grade 3 and 6 learners achieved less than 50 percent for mathematics and Languages in 2008. The ﬁnding that so many primary school learners today are not numerate or literate has a direct inﬂuence both on the teaching and the learning of mathematics. Everything possible needs to be done to change this situation. During the past 15 years, the research focus in mathematics has shifted to an examination of the inﬂuence of social, cognitive and metacognitive, conative and affective factors on achievement in mathematics. In this regard, it is of particular importance that an ongoing investigation into “other” aspects that impact on achievement in mathematics is launched, rather than to restrict the investigation to mere assessment of objectives that are aimed at continually evaluating cognitive progress in mathematics. There is sufﬁcient empirical evidence that an adequate orientation to the study of mathematics correlates positively with high achievement in mathematics on secondary and tertiary levels. The aim of this research was to investigate the extent to which the performance in study orientation (Study Orientation questionnaire in Mathematics (Primary)) and knowledge of basic vocabulary/terminology in mathematics (Mathematics Vocabulary (Primary)) (vocabulary as one aspect of language in Mathematics) of Grade 4 to 7 learners predict performance in mathematics (Basic Mathematics (Primary)). Three standardised questionnaires were administered, namely the Study Orientation questionnaire in Mathematics (Primary), or SOM(P), Mathematics Vocabulary (Primary) or (MV(P), and Basic Mathematics (Primary) or BM(P). The participants consisted of learners in Grade 4 to 7 (n = 1 103) in North-West Province with respectively Afrikaans, English and Tswana as their home language. Results from the data, by calculating intercorrelations and stepwise regression, conﬁrmed that learners’ performance in mathematics (BM(P)) can be predicted through their performance in the knowledge of basic vocabulary in mathematics (MV(P)), their “maths” anxiety, study attitude towards and study habits in mathematics (SOM(P)). The results can be implemented to improve learners’ performance in mathematics when teachers identify inadequate knowledge of basic vocabulary in mathematics as well as study orientation (for example, “maths” anxiety, study attitude towards and study habits in mathematics) in the early years of schooling. Learners’ scores can be checked to identify those requiring aid, support, remediation and/or counselling. An analysis of individual answers (particularly those where learner’s replies differ signiﬁcantly in respect of the answers usually given by good achievers in mathematics) could be extremely useful. Enculturing learners to the vocabulary of mathematical language is an aspect of instruction that needs speciﬁc attention. The three questionnaires, which are administered in this research, provide mathematics teachers with standardised tools with which to make a simple systematic analysis of a number of important background particulars, feelings, attitudes, habits and customs with regard to the learner’s academic orientation in mathematics, as well as to their knowledge of basic vocabulary in mathematics that could be remedied when inadequate.</t>
+          <t>The problem of fertility remains urgent for the Russian society that negatively affects the demographic situation in the country. Fertility is influenced by many economic and social factors, including the support of senior parents. Scientists give ambiguous assessment of the role of this support. The article is aimed at analyzing the impact of family support on fertility. On the basis of the study of the role of senior parents as subjects of family support there are identified the factors influencing the character of support and reproductive attitudes of younger generations. The study used methods of system analysis, general scientific methods. It is concluded that against the background of the transition to the European model of the family, the emotional and material support of senior parents has not lost its relevance and remains one of the significant factors when making decisions about childbirth. Meanwhile, there is a transformation of the role of older generation, change in the dominant forms of support for child care and upbringing. In this aspect, the authors propose a typology of families with children under 14 by the degree of senior parents’ support for child care. In Russia, there has been an increase in the retirement age, which gives reason to consider the impact of this factor on the help of older parents. The paper presents a reasonable forecast of possible changes in the reproductive attitudes of young families due to the increase in the retirement age. The obtained results can be used to improve the state demographic policy, in the development of measures to raise the fertility.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3113120568</t>
+          <t>https://openalex.org/W4255517653</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/acm.0000000000003868</t>
+          <t>https://doi.org/10.31219/osf.io/s4fa6</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Huppert et al. (2020)</t>
+          <t>Mamoor (2021)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Virtual Interviews at Graduate Medical Education Training Programs: Determining Evidence-Based Best Practices</t>
+          <t>Differential expression of ANK2 in cancer of the vulva.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>The COVID-19 pandemic has had a profound impact on the nation's health care system, including on graduate medical education (GME) training programs. Traditionally, residency and fellowship training program applications involve in-person interviews conducted on-site, with only a minority of programs offering interviews remotely via a virtual platform. However, in light of the COVID-19 pandemic, it is anticipated that most interviews will be conducted virtually for the 2021 application cycle and possibly beyond. Therefore, GME training programs need to prepare for the transition to virtual interviews using evidence-based practices. At the University of California, San Francisco, a multidisciplinary task force was convened to review existing literature about virtual interviews and determine best practices. This article summarizes these findings, first discussing the advantages and disadvantages of the virtual interview format and then providing evidence-based best practices for GME training programs. Specifically, the authors make the following recommendations: develop a detailed plan for the interview process, consider using standardized interview questions, recognize and respond to potential biases that may be amplified with the virtual interview format, prepare your own trainees for virtual interviews, develop electronic materials and virtual social events to approximate the interview day, and collect data about virtual interviews at your own institution. With adequate preparation, the virtual interview experience can be high yield, positive, and equitable for both applicants and GME training programs.</t>
+          <t>In these brief notes we document work using published microarray data (1, 2) to pioneer integrative transcriptome analysis comparing vulvar carcinoma to its tissue of origin, the vulva. We report the differential expression of ankyrin 2, neuronal, encoded by ANK2, in cancer of the vulva. ANK2 may be of pertinence to understanding transformation and disease progression in vulvar cancer (3).</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4308465362</t>
+          <t>https://openalex.org/W3044415895</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4018/978-1-6684-5284-4.ch001</t>
+          <t>https://doi.org/10.17116/stomat20209904157</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Zeerak et al. (2022)</t>
+          <t>Aa et al. (2020)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Digital Transformations in Business and FinTech</t>
+          <t>Regulatory framework of the new system of wage payment in research institutions</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>The ever-growing technological innovations and inventions are reshaping businesses at external and internal levels. Digital transformation is the process that integrates technologies in business processes and strategies. This transformation is mostly dependent on data and is driven by evolving technologies, rapid growth in competition, and shift in consumer behavior. It enables a business to be more agile and productive and to provide a better customer experience. This chapter discusses the impact of digital transformation in business and the fintech industry by highlighting the modern technologies used in transformation, the effect on business, the fintech industry, and their current trends. Furthermore, it elaborates on how digital transformation affects businesses at different levels. Lastly, it discusses the challenges faced by businesses in the process of digital transformation and recommends solutions for them.</t>
+          <t>Changes in the legislation, the development of the regulatory and legal framework governing relations in the sphere of wage payment for health care workers has caused the transition of medical organizations to the new system of salaries payments (NSWP). This system has given executives and economists significant freedom when determining the size of payments to the employee per hour worked, including stimulating and compensation payments, bonuses and other regular pension benefits. However, given situation has also resulted in the need for studies intended on the formulation of the criteria's for medical workers of different specialties actions evaluation and the quality of medical services that they have provided, as well as on the efficiency of the health care organizations in general.Изменения в законодательстве, в частности, разработка нормативной правовой базы, регулирующей правоотношения в сфере оплаты труда медицинских работников, обусловили переход медицинских организаций и институтов на новую систему оплаты труда. Эта система предоставила руководителям и экономистам значительную свободу в определении размера выплат, причитающихся работнику за отработанное время, включая стимулирующие и компенсационные выплаты, премии, а также иные регулярные выплаты. Однако данная ситуация также привела к необходимости проведения исследований, направленных на разработку критериев оценки деятельности научных и медицинских работников различных специальностей и влияние этих критериев на качество оказанных медицинских услуг, а также на эффективность функционирования медицинских организаций и институтов в целом.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2069989322</t>
+          <t>https://openalex.org/W2925476429</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5840/philtoday201155342</t>
+          <t>https://doi.org/10.1353/cch.2019.0013</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fried (2011)</t>
+          <t>Brannan (2019)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>A Letter to Emmanuel Faye</t>
+          <t>The Apocalypse of Settler Colonialism: The roots of slavery, White supremacy, and capitalism in seventeenth-century North America and the Caribbean by Gerald Horne</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>(ProQuest: ... denotes non-USASCII text omitted.) Dear Professor Faye, Let me begin by thanking you for taking initiative to send me your book, Heidegger: Introduction of Nazism into Philosophy. contacted me because I had contributed to the line debate in the commentary to Romano's review of your book in The of Higher Education.1 I owe you an apology. When I upon that review, your book was not yet in English except to reviewers, and so I was ing not so much to your work as to what I took be the intellectual glibness and laziness of the view, which struck me as inappropriate to the scope and the seriousness of the philosophical, ethical, and political questions at stake.2 ter having read your book with care, I must now acknowledge that some of what I wrote then would no longer write today. In my first post the discussion, I claimed, To a very large extent, [the furor surrounding your book and review] is simply a repeat of the scandal erupted 22 years ago when the work of Farias and Hugo Ott was published. There nothing really new here, except perhaps an increase of the 'data' of Heidegger's loathsomeness as a human being.3 1 also wrote: We have known that [Heidegger was a dedicated National Socialist] for a long time now. But the devil is in the details. It has long been well known that Heidegger was opposed to biological racism and opposed to global imperialism. He was what we might now call a mulitculturalist, but between nations, not within them. He thought Nazism would allow national cultures and historical traditions to maintain themselves in their own bounds. But note, in my view this still leaves room for what might be called a metaphysical or ontologica! racism (see the work of Berel Lang or Robert Bernasconi for a responsible treatment of this point), and I believe Heidegger was guilty of that. But it was by no means orthodox Nazism. After reading your book, I would no longer say all of this. Indeed, this is one of your most important contributions: to set out in great detail the intricacies of the developments and the battles between strands of Nazism about precisely what should and would count for orthodoxy. I wrote: [Romano's] article wants to paint Heidegger as a hack, who dressed up his Nazism in philosophical clothing. That is a crude dodge that avoids what is seriously at issue for real thought. Heidegger was never an orthodox Nazi and the orthodox soon came to suspect him of deviationism. It is absurd to claim that Heidegger somehow was an architect of Nazi ideology, in the way, say, that Lenin or Marx were of Communism, or that Locke or Jefferson were of liberalism.... Yes, Heidegger lent his respected name to the movement, but little to its content or direction.5 Having read your book, I now believe much of this to be false: he was orthodox (to the extent that there was an orthodox Nazism), and he did have a significant impact. The verdict is clear: never again can anyone say that Heidegger, who played a passionate role in the debates over the core meaning and direction of the movement, who subscribed to a form of non-biologistic racism that was in fact by no means alien to National Socialism, who lent his voice and his weight as a thinker, as an administrator, and as an educator to the consolidation Gleichschaltung) of Hitler's dictatorship, was not fully in the ambit of orthodox Nazism, because Nazism contained many strands, especially in the first years after the revolution, and Heidegger fit within the scope of this diversity. While some of the elements of this picture have been know since Farias and Ott, this issue is too important to be digested piecemeal, with a biographical detail leaking out here, a new text there, as they do over the years. While you also contribute some decisive new information, I find that it is the totality of what you assemble that is impossible to ignore: it conveys the portrait of a man entirely dedicated to the cause of Nazism, and not just in a fit of temporary madness or enthusiasm, but as an enduring mission. …</t>
+          <t>Reviewed by: The Apocalypse of Settler Colonialism: The roots of slavery, White supremacy, and capitalism in seventeenth-century North America and the Caribbean by Gerald Horne Laura Brannan The Apocalypse of Settler Colonialism: The roots of slavery, White supremacy, and capitalism in seventeenth-century North America and the Caribbean By Gerald Horne. New York: Monthly Review Press. 2018. In The Apocalypse of Settler Colonialism, Gerald Horne weaves together a century of events and processes to demonstrate the depth to which colonial systems of slavery and settler colonialism, which significantly accelerated in the seventeenth century, influenced the foundation of the United States. In his introduction, Horne states he is attempting to persuade readers that "any explanation [of how the US is a global dominant power] that elides slavery, colonialism, and the shards of an emerging capitalism… is deficient in explanatory power" (7). He successfully accomplishes this argument through framing the rise of slavery and its direct connection to capitalism through cross-class alliances, which congealed pan-Europeanism and the dominative identity of whiteness that has endured to the present day. These events, atop land that was violently seized from groups indigenous to North America and built upon the backs of people enslaved in the Caribbean and the mainland, were all veiled under the quest for democracy and religious freedom, which fundamentally set the stage for the revolution of 1776. Organizing The Apocalypse chronologically is a logical choice, as Horne is a historian and is synthesizing archival documents, primary sources and a whole host of scholars' analysis on subjects pertaining to the history of slavery in the Caribbean and the mainland of what is the modern-day US. These sources were integral to viewing his object of study and were utilized to bolster his claim that it is inadequate to consider the US as a self-made world power without grasping the historical events of slavery, capitalism and White supremacy in the seventeenth century. However, employing an extensive scope of sources to serve as supporting evidence results in quite a detail-driven narrative. Encompassing the wide breadth of multiple European empires and multifaceted processes like slavery and settler colonialism over the course of a century in less than two hundred pages is an ambitious task that might overwhelm introductory students. But these details help Horne succeed in both relaying these events and explicitly offering opportunity to apply these histories to the current US landscape; thus, the meticulous details throughout the book should not overshadow what this monograph achieves. In fact, Horne integrates his themes of how "enslaving colonialism forged 'whiteness'" (22) and how this process increased early migration to the US quite clearly throughout the nine chapters of The Apocalypse. The study of whiteness has captured the attention of scholars since W.E.B. Du Bois, but Horne provides a fresh analysis as he contextualizes whiteness as an emerging pan-Europeanism that resulted from intensified African labor during the seventeenth century. Throughout each chapter, Horne integrates this sub-theme of how the political identity of whiteness formed through the colonizing events of those in power—European nations—pawning off, placing and implementing differently marked bodies to different locations and for different labor for the profits of capitalism. Horne intertwines slavery, capitalism and White supremacy most clearly in Chapters Four, Five and Six. These chapters outline pivotal moments on the world stage and events thereafter that altered the construction of the US—the disintegration of both the Spanish and Dutch empires and the formation of the Royal African Company. Horne effectively weaves together how these events contributed to the rise of England's imperial dominance and the tightening of their grasp on slavery. Factors in conjunction with one another like London's stake in the Royal African Company, rising capitalist demands for increased labor, the sugar boom and intensified fear of additional slave revolts caused more enslaved Africans to be forced into labor, inversely decreasing poor indentured European labor. This all began to constitute the soon to be pervasive identity politics of whiteness cemented into the foundation of the US. While the project of deconstructing American exceptionalism has been undertaken before by scholars in fields such as African American studies, Slavery studies, American...</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1509260842</t>
+          <t>https://openalex.org/W1496498685</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/isaf.1992.300658</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Lorenzetti &amp; Schumacher (2005)</t>
+          <t>Roseman et al. (2003)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>L'endogamie matrimoniale dans les villes suisses, 1880-1930</t>
+          <t>PTC behavior in yttria doped BaTiO/sub 3/ as related to grain boundary structure</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>L'etude analyse les caracteristiques de l'endogamie matrimoniale dans quatre villes suisses a la fin du xixe siecle et au debut du xxe siecle. En dissociant les contraintes structurelles – definies par les equilibres numeriques sur les marches matrimoniaux – des preferences individuelles – integrant les choix individuels et le respect des normes sociales et communautaires –, l'etude met en evidence notamment les specificites de l'endogamie par rapport au profil socio-economique des villes observees. En outre, elle essaye de verifier dans quelle mesure les transformations du choix du conjoint refletent l'emergence (ou, dans certains cas, la consolidation), apres le premier conflit mondial, d'une nouvelle sociabilite urbaine, basee sur de nouveaux rapports a la ville et a son economie et facilitant les processus d'integration.</t>
+          <t>Lattice structure and phase distribution along the grain boundaries in Y/sub 2/O/sub 3/-doped BaTiO/sub 3/, with Zr/sup 4+/ as a counterdopant were investigated with respect to their impact on PTC (positive-temperature-coefficient) behavior. This doping, related to A and B-site occupancy, creates ionic defect states which segregate during annealing to different morphological regions along the grain boundaries, identified as nondomain and domain regions. TEM (transmission electron microscope) high-resolution imaging, and HOLZ pattern and EDS (electron diffraction spectroscopy) analysis of these regions showed differences in composition, lattice parameters, and lattice plane coherency across the grain boundaries. Optimum doping in light of these structural changes resulted in lower resistivity and enhanced PTC effects, the stress release being the driving force for sharp PCT transitions.&lt; &lt;ETX xmlns:mml="http://www.w3.org/1998/Math/MathML" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;&amp;gt;&lt;/ETX&gt;</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1443769296</t>
+          <t>https://openalex.org/W2772891606</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15678/zp.2015.31.1.05</t>
+          <t>https://doi.org/10.4102/satnt.v28i4.73</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Majone (2015)</t>
+          <t>Walt (2009)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Od państwa pozytywnego do państwa regulacyjnego: przyczyny i skutki zmian sposobu rządzenia</t>
+          <t>Study orientation and knowledge of basic vocabulary in Mathematics in the primary school</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Since the late 1970s European governments have been forced to change their traditional modes of governance in response to such trends as increasing international competition and deepening economic and monetary integration within the European Union. Strategic adaptation to the new realities has resulted in a reduced role for the positive, interventionist state and a corresponding increase in the role of the regulatory state: rule making is replacing taxing and spending. The paper’s first part identifies three sets of strategies leading to the growth of the regulatory state as external or market regulator, and as internal regulator of decentralised administration. The second part examines major structural changes induced by changes in regulatory strategies. The institutional and intellectual legacy of the interventionist state is a major impediment to the speedy adjustment of governance structures to new strategies. It would be unwise to underestimate the difficulties of the transition from the positive to the regulatory state, but it is important to realise that international competition takes place not only among producers of goods and services but also, increasingly, among regulatory regimes. Regulatory competition will reward regimes in which institutional innovations do not lag far behind the new strategic choices.</t>
+          <t>Whatever the reason, underachievement in mathematics in South Africa is endemic and tantamount to a national disaster. Despite the transformation of education in South Africa, failure rates in mathematics at school and university remain unacceptably high, and the number of learners who leave Grade 12 with a pass mark in both mathematics and physical science is unacceptably low. Relatively little has been written about inadequate performance of Grade 4 to 7 learners in mathematics in South Africa, and even less about possible solutions to the problem. South African primary school learners’ lack of basic mathematics and vocabulary skills in particular is a source of major concern. In the ﬁrst national systemic evaluation of learners’ skills in English, mathematics and science in 2001 Grade 3 learners achieved an average of 30% in mathematics. In the follow-up studies, Grade 6 learners achieved a national average of 27% in mathematices, in 2004, while nationally eighty percent of Grade 3 and 6 learners achieved less than 50 percent for mathematics and Languages in 2008. The ﬁnding that so many primary school learners today are not numerate or literate has a direct inﬂuence both on the teaching and the learning of mathematics. Everything possible needs to be done to change this situation. During the past 15 years, the research focus in mathematics has shifted to an examination of the inﬂuence of social, cognitive and metacognitive, conative and affective factors on achievement in mathematics. In this regard, it is of particular importance that an ongoing investigation into “other” aspects that impact on achievement in mathematics is launched, rather than to restrict the investigation to mere assessment of objectives that are aimed at continually evaluating cognitive progress in mathematics. There is sufﬁcient empirical evidence that an adequate orientation to the study of mathematics correlates positively with high achievement in mathematics on secondary and tertiary levels. The aim of this research was to investigate the extent to which the performance in study orientation (Study Orientation questionnaire in Mathematics (Primary)) and knowledge of basic vocabulary/terminology in mathematics (Mathematics Vocabulary (Primary)) (vocabulary as one aspect of language in Mathematics) of Grade 4 to 7 learners predict performance in mathematics (Basic Mathematics (Primary)). Three standardised questionnaires were administered, namely the Study Orientation questionnaire in Mathematics (Primary), or SOM(P), Mathematics Vocabulary (Primary) or (MV(P), and Basic Mathematics (Primary) or BM(P). The participants consisted of learners in Grade 4 to 7 (n = 1 103) in North-West Province with respectively Afrikaans, English and Tswana as their home language. Results from the data, by calculating intercorrelations and stepwise regression, conﬁrmed that learners’ performance in mathematics (BM(P)) can be predicted through their performance in the knowledge of basic vocabulary in mathematics (MV(P)), their “maths” anxiety, study attitude towards and study habits in mathematics (SOM(P)). The results can be implemented to improve learners’ performance in mathematics when teachers identify inadequate knowledge of basic vocabulary in mathematics as well as study orientation (for example, “maths” anxiety, study attitude towards and study habits in mathematics) in the early years of schooling. Learners’ scores can be checked to identify those requiring aid, support, remediation and/or counselling. An analysis of individual answers (particularly those where learner’s replies differ signiﬁcantly in respect of the answers usually given by good achievers in mathematics) could be extremely useful. Enculturing learners to the vocabulary of mathematical language is an aspect of instruction that needs speciﬁc attention. The three questionnaires, which are administered in this research, provide mathematics teachers with standardised tools with which to make a simple systematic analysis of a number of important background particulars, feelings, attitudes, habits and customs with regard to the learner’s academic orientation in mathematics, as well as to their knowledge of basic vocabulary in mathematics that could be remedied when inadequate.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2316052652</t>
+          <t>https://openalex.org/W3113120568</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/cm501216c</t>
+          <t>https://doi.org/10.1097/acm.0000000000003868</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Poyraz et al. (2014)</t>
+          <t>Huppert et al. (2020)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tungsten-Promoted Mesoporous Group 4 (Ti, Zr, and Hf) Transition-Metal Oxides for Room-Temperature Solvent-Free Acetalization and Ketalization Reactions</t>
+          <t>Virtual Interviews at Graduate Medical Education Training Programs: Determining Evidence-Based Best Practices</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Tungsten (0–30%)-promoted University of Connecticut mesoporous materials (UCT-X, X = 55 (Ti), 50 (Zr), and 56 (Hf)) were synthesized in one step using a recently discovered approach. The approach relies on inverse micelle formation and unique NOx chemistry to control the sol–gel chemistry of inorganic components. The tungsten-promoted mesoporous transition-metal (TM) oxides consist of monodispersed nanocrystalline particle aggregates with a particle size of ∼12 nm. The mesopores are formed by connected intraparticle voids of these aggregates, and the pore sizes vary between 3.8 and 6.1 nm, depending on the tungsten loading and TM oxide support. The materials were closely examined using PXRD, HRTEM, XPS, FTIR, Raman, and N2 sorption. The tungsten exist as very small (&lt;1 nm) nano-WOx clusters that are well-dispersed on the TM support. Nano-WOx clusters were found to promote the formation of Brønsted acid sites. Catalytic activity was tested for solvent-free room-temperature acetalization and ketalization reactions. A 20% tungsten loading was found to be the optimum loading for the reactions. The catalyst can convert benzaldehyde with a conversion of 99% and yield of 93% to the corresponding acetal and can convert cyclohexanone with a conversion of 96% and yield of 94% to the corresponding ketal. The strong adsorption of products and intermediates on the mesopores was found to be the reason for the moderate performance in the conversion of other substrates.</t>
+          <t>The COVID-19 pandemic has had a profound impact on the nation's health care system, including on graduate medical education (GME) training programs. Traditionally, residency and fellowship training program applications involve in-person interviews conducted on-site, with only a minority of programs offering interviews remotely via a virtual platform. However, in light of the COVID-19 pandemic, it is anticipated that most interviews will be conducted virtually for the 2021 application cycle and possibly beyond. Therefore, GME training programs need to prepare for the transition to virtual interviews using evidence-based practices. At the University of California, San Francisco, a multidisciplinary task force was convened to review existing literature about virtual interviews and determine best practices. This article summarizes these findings, first discussing the advantages and disadvantages of the virtual interview format and then providing evidence-based best practices for GME training programs. Specifically, the authors make the following recommendations: develop a detailed plan for the interview process, consider using standardized interview questions, recognize and respond to potential biases that may be amplified with the virtual interview format, prepare your own trainees for virtual interviews, develop electronic materials and virtual social events to approximate the interview day, and collect data about virtual interviews at your own institution. With adequate preparation, the virtual interview experience can be high yield, positive, and equitable for both applicants and GME training programs.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2020479112</t>
+          <t>https://openalex.org/W4308465362</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0044-328x(79)80126-9</t>
+          <t>https://doi.org/10.4018/978-1-6684-5284-4.ch001</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Melkonian (1979)</t>
+          <t>Zeerak et al. (2022)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Release of Dissolved Organic Substances by the Green Alga Fritschiella tuberosaIyeng. (Chaetophorineae) During Different Growth Phases</t>
+          <t>Digital Transformations in Business and FinTech</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Summary Release of dissolved organic substances (dissolved organic carbon = DOC, proteins, carbohydrates, phenolic substances, organic acids, amino acids) in static liquid cultures of Fritschiella tuberosa with respect to different growth phases has been studied. During lag and stationary growth phase release of DOC was higher (10–20 % of dry weight) than during log phase growth (1 % of dry weight). The concentration of DOC dropped by 50 % during transition from lag to log phase of growth. Free amino acids were present during all growth stages, relative proportions of individual amino acids were different according to the growth phase. Proteins and carbohydrates started to accumulate at the transition from log to linear phase of growth, while organic acids and phenolic substances were only recorded during the stationary growth phase. It is suggested that the observed differences in amount and nature of dissolved organic substances were related to different metabolic pathways which were involved in the transition of several cell types during growth of this highly differentiated alga.</t>
+          <t>The ever-growing technological innovations and inventions are reshaping businesses at external and internal levels. Digital transformation is the process that integrates technologies in business processes and strategies. This transformation is mostly dependent on data and is driven by evolving technologies, rapid growth in competition, and shift in consumer behavior. It enables a business to be more agile and productive and to provide a better customer experience. This chapter discusses the impact of digital transformation in business and the fintech industry by highlighting the modern technologies used in transformation, the effect on business, the fintech industry, and their current trends. Furthermore, it elaborates on how digital transformation affects businesses at different levels. Lastly, it discusses the challenges faced by businesses in the process of digital transformation and recommends solutions for them.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2057610770</t>
+          <t>https://openalex.org/W2069989322</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/tea.20314</t>
+          <t>https://doi.org/10.5840/philtoday201155342</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Mohan et al. (2009)</t>
+          <t>Fried (2011)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Developing a multi‐year learning progression for carbon cycling in socio‐ecological systems</t>
+          <t>A Letter to Emmanuel Faye</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Abstract This study reports on our steps toward achieving a conceptually coherent and empirically validated learning progression for carbon cycling in socio‐ecological systems. It describes an iterative process of designing and analyzing assessment and interview data from students in upper elementary through high school. The product of our development process—the learning progression itself—is a story about how learners from upper elementary grades through high school develop understanding in an important and complex domain: biogeochemical processes that transform carbon in socio‐ecological systems at multiple scales. These processes: (a) generate organic carbon (photosynthesis), (b) transform organic carbon (biosynthesis, digestion, food webs, carbon sequestration), and (c) oxidize organic carbon (cellular respiration, combustion). The primary cause of global climate change is the current worldwide imbalance among these processes. We identified Levels of Achievement, which described patterns in the way students made progress toward more sophisticated reasoning about these processes. Younger learners perceived a world where events occurred at a macroscopic scale and carbon sources, such as foods and fuels, were treated as enablers of life processes and combustion rather than sources of matter transformed by those processes. Students at the transitional levels—levels 2 and 3—traced matter in terms of materials changed by hidden mechanisms (level 2) or changed by chemical processes (level 3). More advanced students (level 4) used chemical models to trace matter through hierarchically organized systems that connected organisms and inanimate matter. Although level 4 reasoning is consistent with current national standards, few high school students reasoned this way consistently. We discuss further plans for conceptual and empirical validation of the learning progression. © 2009 Wiley Periodicals, Inc. J Res Sci Teach 46: 675–698, 2009</t>
+          <t>(ProQuest: ... denotes non-USASCII text omitted.) Dear Professor Faye, Let me begin by thanking you for taking initiative to send me your book, Heidegger: Introduction of Nazism into Philosophy. contacted me because I had contributed to the line debate in the commentary to Romano's review of your book in The of Higher Education.1 I owe you an apology. When I upon that review, your book was not yet in English except to reviewers, and so I was ing not so much to your work as to what I took be the intellectual glibness and laziness of the view, which struck me as inappropriate to the scope and the seriousness of the philosophical, ethical, and political questions at stake.2 ter having read your book with care, I must now acknowledge that some of what I wrote then would no longer write today. In my first post the discussion, I claimed, To a very large extent, [the furor surrounding your book and review] is simply a repeat of the scandal erupted 22 years ago when the work of Farias and Hugo Ott was published. There nothing really new here, except perhaps an increase of the 'data' of Heidegger's loathsomeness as a human being.3 1 also wrote: We have known that [Heidegger was a dedicated National Socialist] for a long time now. But the devil is in the details. It has long been well known that Heidegger was opposed to biological racism and opposed to global imperialism. He was what we might now call a mulitculturalist, but between nations, not within them. He thought Nazism would allow national cultures and historical traditions to maintain themselves in their own bounds. But note, in my view this still leaves room for what might be called a metaphysical or ontologica! racism (see the work of Berel Lang or Robert Bernasconi for a responsible treatment of this point), and I believe Heidegger was guilty of that. But it was by no means orthodox Nazism. After reading your book, I would no longer say all of this. Indeed, this is one of your most important contributions: to set out in great detail the intricacies of the developments and the battles between strands of Nazism about precisely what should and would count for orthodoxy. I wrote: [Romano's] article wants to paint Heidegger as a hack, who dressed up his Nazism in philosophical clothing. That is a crude dodge that avoids what is seriously at issue for real thought. Heidegger was never an orthodox Nazi and the orthodox soon came to suspect him of deviationism. It is absurd to claim that Heidegger somehow was an architect of Nazi ideology, in the way, say, that Lenin or Marx were of Communism, or that Locke or Jefferson were of liberalism.... Yes, Heidegger lent his respected name to the movement, but little to its content or direction.5 Having read your book, I now believe much of this to be false: he was orthodox (to the extent that there was an orthodox Nazism), and he did have a significant impact. The verdict is clear: never again can anyone say that Heidegger, who played a passionate role in the debates over the core meaning and direction of the movement, who subscribed to a form of non-biologistic racism that was in fact by no means alien to National Socialism, who lent his voice and his weight as a thinker, as an administrator, and as an educator to the consolidation Gleichschaltung) of Hitler's dictatorship, was not fully in the ambit of orthodox Nazism, because Nazism contained many strands, especially in the first years after the revolution, and Heidegger fit within the scope of this diversity. While some of the elements of this picture have been know since Farias and Ott, this issue is too important to be digested piecemeal, with a biographical detail leaking out here, a new text there, as they do over the years. While you also contribute some decisive new information, I find that it is the totality of what you assemble that is impossible to ignore: it conveys the portrait of a man entirely dedicated to the cause of Nazism, and not just in a fit of temporary madness or enthusiasm, but as an enduring mission. …</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4310613103</t>
+          <t>https://openalex.org/W2028374171</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-91159-7.00018-7</t>
+          <t>https://doi.org/10.1097/00005176-200406001-01296</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Bazyar (2023)</t>
+          <t>Mičetić‐Turk et al. (2004)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Impacts of progressive biofuels on environmental sustainability</t>
+          <t>P1172 NUTRITIONAL STATUS IN HOSPITALISED PAEDIATRIC PATIENTS IN NORTH-EAST SLOVENIA DURING A 12 YEAR PERIOD (1989???2001)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Biofuels are one of the most promising approaches for reducing CO2 emissions in the transportation industry. However, due to numerous fundamental restrictions, such as a lack of raw materials, a low CO2 mitigation effect, a blending wall, and poor cost competitiveness, traditional plant-based biofuels (e.g., biodiesel, bioethanol) had a relatively low fraction of total transportation-fuel usage in 2016, under 4%. Advanced biofuels, such as drop-in, microalgal, and electro biofuels, especially those derived from inedible biomass, are seen as a possible answer to the problem of meeting rising biofuel demand. Recent advances in oxy-free hydrocarbon conversion via catalytic deoxygenation processes, oleaginous microalgae selection and lipid content increase, electrochemical biofuel conversion, and the diversification of useful products from biomass and intermediates are discussed in this study. Although the United States and the EU have different financial and approach motivating forces for biofuel production, markers of environmental sustainability have evolved from the updated research across the boundaries of politics. We categorized mentioned markers into six already set up characteristics of natural supportability, advertising depictions for each and connecting them to proposed universal guidelines for progressed biofuels. If ideal feedstock choice, administration, generation, and fuel transformation criteria are particularly sought after, progressed biofuel improvement can be a step toward naturally economic vitality. Even though devices for surveying natural supportability exist, they have not however been connected to progressed biofuels in a standardized way.</t>
+          <t>Introduction: Accurate assessment of child’s nutritional status is an important medical, sociological, economic and public health element of paediatric care. Its goals are to determine if a child is or may imminently become malnourished, to ascertain the risk of nutrition related complications and to provide guidelines for short and long term therapy. Methods: The aim of our study was to determine the nutritional status of children hospitalised at the Paediatric Department, Maribor Teaching Hospital, NE Slovenia during the 12-year period (1989–2001), and to establish if the nutritional status was affected by the new social and economic situation. (In the year 1989 Slovenia was a part of the former socialistic Yugoslavia, and became an independent democratic republic in 1991). The study was retrospective. We analysed anthropometric, laboratory and clinical data for all in-patients (0–18 years of age) in a 1-day cross-sectional survey conducted on 1st December 1989 (109 patients), 1st December 1995 (100 patients) and 1st December 2001 (89 patients). All obtained data were statistically analysed. Results: Our results clearly show that the number of hospitalised children has been decreasing constantly. However, we observed a sharp increase in the number of patients hospitalised due to chronic diseases and disorders in respect to the acute illnesses. The analysis of anthropometric data shows that the proportion of normally nourished children in the period of the study has not changed significantly (70–77%), and that the prevalence of obesity in the studied population was much higher than the prevalence of malnourished children. Obese children (as determined by the weight: age ratio, weight: height ratio as well as height: age and BMI ratio) represented 18% of hospitalised population in each study year, whereas the proportion of mal-nourished children has increased from 7% in the year 1989 to 13% in the year 1995, and declined again to 5% in the year 2001. The analysis of available laboratory data (albumin, haemoglobin, lymphocytes, Ca, alkaline phosphatase) did not show any statistically significant differences (p&gt;0.05). Conclusion: We conclude, that the level of public health, as well as the quality of nutrition in the studied period (period of transition in Slovenia), remained as good as it was in the period when all social and public health opportunities were available to population as a whole, since we have not found any significant changes in the nutritional status of hospitalised children during this period.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322737768</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/2041-210x.14070</t>
+          <t>https://openalex.org/W1509260842</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Record et al. (2023)</t>
+          <t>Lorenzetti &amp; Schumacher (2005)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Synthesizing forecasts to inform decision‐making and advance ecological theory</t>
+          <t>L'endogamie matrimoniale dans les villes suisses, 1880-1930</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Methods in Ecology and EvolutionVolume 14, Issue 3 p. 728-731 EDITORIALOpen Access Synthesizing forecasts to inform decision-making and advance ecological theory Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author First published: 01 March 2023 https://doi.org/10.1111/2041-210X.14070 [Corrections added on 28 February 2023, after first online publication: The copyright line has been changed.] AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Since the inception of the Intergovernmental Panel on Climate Change in 1988, there has been growing scientific consensus that humans have modified the Earth's environment and that human decisions have the potential to mitigate or exacerbate the effects of future global change (Intergovernmental Panel on Climate Change, 2022). In the face of widespread environmental change, society needs information to make sound decisions. Ecological forecasts provide such information about how ecosystems and their services may respond to different environmental conditions before they happen and considering alternative management scenarios. Following the publication of the first IPCC report in 1990 that called for a better understanding of the future effects of climatic change, the number of ecological publications focused on forecasting increased exponentially (Figure 1). FIGURE 1Open in figure viewerPowerPoint To illustrate a growing interest in ecological forecasting since the publication of the first Intergovernmental Panel on Climate Change report in 1990, we show the number of publications per year for articles that have 'ecology' and 'forecast' in their keywords ( source: Web of Science, search criteria used: Topic = 'ecology' and forecast*'; Timespan = All Years). This includes all publications since 1900 with the exception of Hodgson (1932). The notion of forecasting ecosystem change in ecology is not new (e.g. Clark et al., 2001; Hodgson, 1932). However, as the number of ecological papers focused on forecasting grew in the context of climatic change, ecologists from across sub-disciplines became increasingly concerned with various aspects of forecasting. Paleoecologists acknowledged the limits of our ability to forecast into non-analog climatic conditions when using forecast horizons suggested by the IPCC (e.g. anticipating conditions 60–80 years into the future; Williams &amp; Jackson, 2007). Applied and theoretical ecologists questioned the utility of long-term forecasts for advancing decision-making and ecological theory, respectively (Houlahan et al., 2017; Mouquet et al., 2015). At the same time as these concerns, ecologists recognized the transformative potential of near-term, iterative forecasting for making ecological forecasts more relevant to decision makers and spurring innovations in ecological theory if key technical and conceptual advances could be made (Dietze et al., 2018). In 2018, the Ecological Forecasting Initiative (EFI; https://ecoforecast.org/) launched with an emphasis on creating near-term, iterative forecasts with the hopes of using outputs to inform theory and to better align forecasts with management timeframes. EFI is a grassroots effort funded as a research coordination network through the US National Science Foundation aimed at building and supporting an interdiscipl</t>
+          <t>L'etude analyse les caracteristiques de l'endogamie matrimoniale dans quatre villes suisses a la fin du xixe siecle et au debut du xxe siecle. En dissociant les contraintes structurelles – definies par les equilibres numeriques sur les marches matrimoniaux – des preferences individuelles – integrant les choix individuels et le respect des normes sociales et communautaires –, l'etude met en evidence notamment les specificites de l'endogamie par rapport au profil socio-economique des villes observees. En outre, elle essaye de verifier dans quelle mesure les transformations du choix du conjoint refletent l'emergence (ou, dans certains cas, la consolidation), apres le premier conflit mondial, d'une nouvelle sociabilite urbaine, basee sur de nouveaux rapports a la ville et a son economie et facilitant les processus d'integration.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1959925334</t>
+          <t>https://openalex.org/W2063126359</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1524-4741.2010.01056.x</t>
+          <t>https://doi.org/10.1037//0096-1523.10.5.683</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Byler &amp; Gil (2011)</t>
+          <t>Warren (1984)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Responsibility for Long-Term Care of Breast Cancer Survivors</t>
+          <t>Perceiving affordances: Visual guidance of stair climbing.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>The Breast JournalVolume 17, Issue 2 p. 216-217 LETTER TO THE EDITOR Responsibility for Long-Term Care of Breast Cancer Survivors Jamie M. Byler MD, Jamie M. Byler MD Department of Obstetrics and Gynecology, Akron General Medical Center, Akron, OhioSearch for more papers by this authorKaren M. Gil PhD, Karen M. Gil PhD Department of Obstetrics and Gynecology, Akron General Medical Center, Akron, OhioSearch for more papers by this author Jamie M. Byler MD, Jamie M. Byler MD Department of Obstetrics and Gynecology, Akron General Medical Center, Akron, OhioSearch for more papers by this authorKaren M. Gil PhD, Karen M. Gil PhD Department of Obstetrics and Gynecology, Akron General Medical Center, Akron, OhioSearch for more papers by this author First published: 07 February 2011 https://doi.org/10.1111/j.1524-4741.2010.01056.xCitations: 2 Address correspondence and reprints request to: Karen M. Gil, PhD, Research Director, Department of Obstetrics and Gynecology, AGMC, 224 W. Exchange St., #120, Akron OH 44302, USA, or e-mail: [email protected]. Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL No abstract is available for this article. References 1 Aziz NM. Cancer survivorship research: state of knowledge, challenges and opportunities. Acta Oncol 2007; 46: 417– 32. 2 Khan NF, Ward A, Watson E, Austoker J, Rose PW. Long-term survivors of adult cancers and uptake of primary health services: a systematic review. Eur J Cancer 2008; 44: 195– 204. 3 Ganz PA, Hahn EE. Implementing a survivorship care plan for patients with breast cancer. J Clin Oncol 2008; 26: 759– 67. 4 http://seer.cancer.gov/csr/1975_2007/results_merged/topic_prevalence.pdf (accessed December 30, 2010). 5 Committee on Cancer Survivorship: Improving Care and Quality of Life. National Cancer Policy Board, Institute of Medicine and National Research Council. M Hewitt, S Greenfield, E Stovall, eds. From Cancer Patient to Cancer Survivor: Lost in Transition. Washington DC: The National Academies Press, 2006. 6 Nissen MJ, Beran MS, Lee MW, Mehta SR, Pine DA, Swenson KK. Views of primary care providers on follow-up care of cancer patients. Fam Med 2007; 39: 477– 82. 7 Erikson C, Salsberg E, Forte G, Bruinooge S, Goldstein M. Future supply and demand for oncologists: Challenges to assuring access to oncology services. J Oncol Pract 2007; 3: 79– 86. Citing Literature Volume17, Issue2March/April 2011Pages 216-217 ReferencesRelatedInformation</t>
+          <t>How do animals visually guide their activities in a cluttered environment? Gibson (1979) proposed that they perceive what environmental objects offer or afford for action. An analysis of affordances in terms of the dynamics of an animal-environment system is presented. Critical points, corresponding to phase transitions in behavior, and optimal points, corresponding to stable, preferred regions of minimum energy expenditure, emerge from variation in the animal-environment fit. It is hypothesized that these points are constants across physically similar systems and that they provide a natural basis for perceptual categories and preferences. In three experiments these hypotheses are examined for the activity of human stair climbing, by varying riser height with respect to leg length. The perceptual category boundary between "climbable" and "unclimbable" stairs is predicted by a biomechanical model, and visually preferred riser height is predicted from measurements of minimum energy expenditure during climbing. It is concluded that perception for the control of action reflects the underlying dynamics of the animal-environment system.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2809237032</t>
+          <t>https://openalex.org/W1443769296</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acsenergylett.8b00938</t>
+          <t>https://doi.org/10.15678/zp.2015.31.1.05</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Wiktor et al. (2018)</t>
+          <t>Majone (2015)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Role of Polarons in Water Splitting: The Case of BiVO&lt;sub&gt;4&lt;/sub&gt;</t>
+          <t>Od państwa pozytywnego do państwa regulacyjnego: przyczyny i skutki zmian sposobu rządzenia</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>We study hole and electron polarons in BiVO4 at finite temperature through hybrid functional molecular dynamics simulations. Through the thermodynamic integration method, we obtain the transition levels corresponding to the localized charges at 300 K. We observe that the polaron levels achieved in this way lie significantly closer to each other than those at 0 K. We find both hole and electron levels to lie within the band gap, with binding energies of 0.11 and 0.88 eV, respectively. Our calculations show that polaron localization significantly affects the alignment at the solid/liquid interface and that electron–hole recombination through polaronic states competes with the evolution of the water-splitting reaction in BiVO4.</t>
+          <t>Since the late 1970s European governments have been forced to change their traditional modes of governance in response to such trends as increasing international competition and deepening economic and monetary integration within the European Union. Strategic adaptation to the new realities has resulted in a reduced role for the positive, interventionist state and a corresponding increase in the role of the regulatory state: rule making is replacing taxing and spending. The paper’s first part identifies three sets of strategies leading to the growth of the regulatory state as external or market regulator, and as internal regulator of decentralised administration. The second part examines major structural changes induced by changes in regulatory strategies. The institutional and intellectual legacy of the interventionist state is a major impediment to the speedy adjustment of governance structures to new strategies. It would be unwise to underestimate the difficulties of the transition from the positive to the regulatory state, but it is important to realise that international competition takes place not only among producers of goods and services but also, increasingly, among regulatory regimes. Regulatory competition will reward regimes in which institutional innovations do not lag far behind the new strategic choices.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2034004974</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.gca.2008.10.017</t>
+          <t>https://openalex.org/W2276597461</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Welch et al. (2009)</t>
+          <t>Lásźló (2005)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mineralogical control of rare earth elements in acid sulfate soils</t>
+          <t>The Emergence of Transdisciplinary Unified Theory</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Major, trace and rare earth element concentrations were measured in porewater, surface water and sediments at an acid sulfate soil site. The concentrations of La and Ce in porewater are up to 1–3 ppm. There is a strong correlation between REE concentration and acidity, except that the maximum concentrations were consistently found below the horizon of maximum acidity, associated with an increase in pH (to ca. 4) and change in mineralogy from jarosite-dominated to goethite-dominated mottles. Jarosite replacement by goethite is as expected with the rise in pH, which in turn is due to the occurrence of a fossil shell bed just below. The rare earth element patterns in the porewaters are enriched in the MREE with respect to Post-Archaean Australian Shale (PAAS). Measurements and calculations show that this is in accord with experiments on low-degree partial dissolution of jarosite, even when the jarosite itself is highly enriched in LREE. There is a clear fractionation in the patterns between the clay-rich soil matrix, which is slightly depleted in the LREE when normalized to PAAS (La/YbPAAS ∼0.5), and the secondary mineral phase jarosite, which is enriched in the LREE (La/YbPAAS = 15–50). The REE pattern in the porewater changes with the transition from jarosite- to goethite-rich mottles, becoming relatively more enriched in the LREE compared to the HREE, which is consistent with the incongruent dissolution of jarosite to form goethite and the release of greater amounts of jarosite REE to solution, including proportionately more of the jarosite-compatible LREE. Maximum surface water REE concentrations in acidic water were 100–200 ppb La and Ce. REE patterns in surface water were very similar to the porewater transition zone, enriched in the MREE, but asymmetric, relatively enriched in the LREE compared to the HREE.</t>
+          <t>Paradigm-shifts, termed scientific revolutions, occur periodically in the course of sciences development. The twentieth century witnessed o number of revolutions, first by Albert Einstein and then by Niels Bohr in physics, and subsequently in biology, cosmology and, trough the pioneering work of Pierre Teilhard de Chardin, in the transdisciplinary area that includes human mind and consciousness. But scientific development did not come to a standstill: while the spirit of Einstein and Teilhard is as present as ever their specific theories are object to the dynamic of theory development troughs periods of normal and revolutionary science. Today another revolution lo about to occur, bringing science to the threshold of a more comprehensive and integrated account of the observed phenomenon. The currently emerging transdisciplinary unified theory is consistent whit the goals and vision of both Albert Einstein and Teilhard de Chardin. It penetrates deeper into the domains of reality than the 2Otis century's mainstream physical, biological and psychological theories did - below the level of the quanta that populate space-time, to the quantum vacuum, better termed cosmic plenum, that generates the quanta and interconnects them throughout space and time. In the twentieth century Einstein 's general relativity gave us the relativistically interlinked universe, where all things are connected by signals propagating across the geometric structure of space-time, and Teilhard de Chardin laid the foundations of a unified theory where life and mind emerge consistently out of the physical world. In the twenty-first century transdisciplinary unified theory will extend these conceptions and give us the coherent universe, where all things are intrinsically connected by a fundamental information and virtual-energy field at a fundamental level of physical reality.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4206524805</t>
+          <t>https://openalex.org/W4231662464</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/mame.202100778</t>
+          <t>https://doi.org/10.21203/rs.3.rs-214048/v1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Wang et al. (2022)</t>
+          <t>Eni et al. (2021)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Smart Shape Memory Polyurethane with Photochromism and Mechanochromism Properties</t>
+          <t>Decolonizing Health in Canada: A Manitoba First Nation Perspective</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Abstract The combination of shape memory effects and multi‐functionalities in smart materials is becoming one of the hottest research directions in the field of actuators and robotics. In this study, N ‐hydroxyethyl‐3,3‐dimethyl‐6‐nitroindoline spiropyran (SP) is chemically grafted into a polyurethane matrix to prepare ultraviolet light‐actuated shape memory thermoplastic polyurethane, which first integrates three unique properties including shape memory, photochromism, and mechanochromism. The FTIR, WAXD, SAXS, DSC, TGA, and shape memory tests reveal that the shape memory transformation temperature of 4.6 wt% SP‐based shape memory polyurethane is 41.2 °C, and it has the highest shape memory performance, as indicated by shape fixation and shape recovery ratios of 97.4% and 93.7%, respectively. Furthermore, “bionic fingers” with diversely selective actuation properties are fabricated, which exhibit a series of programmable multi‐segment motions to meet potential applications in the field of soft actuators.</t>
+          <t>Abstract Background This paper focuses on a longitudinal research program in Manitoba, Canada, by the Innovation Supporting Transformation in Community-Based Research Project (iPHIT) to learn from First Nations across the province that have developed effective community-based primary healthcare models. The research is relevant and timely as First Nations across the country, and Indigenous populations globally, work towards improvements in population health and health equity via critical analysis and restructuring of health services. The purpose of the paper is to deepen an understanding of decolonization as it is defined within the communities, as a central aspect of health restructuring. Methods The study is a qualitative, grounded theory analysis, which is a constructivist approach to social research that allows for generation of theory in praxis, through interactions and conversations between researchers and research participants. Findings are based on 183 in-depth interviews and eight focus group discussions with participants from 8 Manitoba First Nation communities. The study was designed to understand strengths, limitations and priorities of primary healthcare strategies and frameworks of the communities. The iPHIT team was an active collaborative partnership between the First Nation communities, First Nation Health and Social Secretariat of Manitoba, and the University of Manitoba. The First Nation partners led in all aspects of the research, from development to implementation, data collection, analyses, and dissemination. Respected Elders from the communities also guided in appropriate research and engagement protocols. Results Data was coded and then grouped into 4 interconnecting themes. These are: (1) First Nation control of healthcare, (2) traditional medicine and healing activities, (3) full community participation, and (4) moving out of colonization involves cleaning up and moving beyond the mess that colonization has inflicted. Conclusion Decolonizing health involves a taking back of Indigenous wisdom and traditional activities; connections to the land, resources; intra- and inter-community relationships. Participants emphasized the value of full community engagement with respect to inclusion of different interpretations of and experiences in the world, highlighting creation of a shared vision. The study focused on First Nation community experiences and interests in Manitoba specifically, though the data may be applicable to national and global decolonization efforts.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383649839</t>
+          <t>https://openalex.org/W1964865610</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-031-36004-6_37</t>
+          <t>https://doi.org/10.1136/bmj.314.7092.1428</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Oliveira et al. (2023)</t>
+          <t>Wilkins (1997)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Study of Different Methods to Design and Animate Realistic Objects for Virtual Environments on Modern HMDs</t>
+          <t>Valvular heart disease: putting guidelines into practice</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Head-mounted displays (HMDs) are making virtual environments increasingly viable and real. As of the year 2021, some of the latest HMDs manufactured have incorporated cameras and/or sensors for the recognition and tracking of hands and facial expressions. These new devices include HTC-Vive-Focus-3 manufactured by HTC, HP-Reverb-G2-Omnicept-Edition manufactured by HP, Meta-Quest-Pro, manufactured by Meta, and Pico-4-Pro manufactured by Pico. A human's facial expressions convey emotional and non-verbal information. Transferring these expressions to build more realistic designs is a long-standing problem in computer animation. Recently, the development of facial reconstructions (2D and 3D) has achieved high performance, adjusting to being treatable in real time. There are different types of models for design and animation, more human and realistic models, unrealistic cartoon character models, and non-human models with different facial structures. Regardless of the design, there must be guarantees of a smooth transition between expressions so that the facial animation does not look choppy. This work aims to carry out a study of the main models for the design and animation of objects, which can reflect and support various types of human facial expressions obtained from the complete facial data provided by HMDs that incorporate cameras and/or sensors for face recognition and tracking.</t>
+          <t>Like many areas of medical care, the management of valvular heart disease has undergone a revolution within the practising lifetime of many doctors. As improved interventions have become available, so has the need to investigate correctly and identify better those who could benefit from such interventions. Recommendations for investigating and managing valvular heart disease have recently been published by Britain's Royal College of Physicians.1
+Much of what we know about the natural course of valvular heart disease comes from an era before surgical intervention, when patients presenting with symptomatic disease were unlikely to survive more than five to 10 years.2 3 Few investigative tools were available and management decisions were based on the patient's symptoms. It has now become clear that symptoms alone are not an adequate guide, since the lack of symptoms does not predict an …</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2120493161</t>
+          <t>https://openalex.org/W4295899644</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1542/peds.2012-3786f</t>
+          <t>https://doi.org/10.1111/dth.15828</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Billett et al. (2013)</t>
+          <t>Mahé et al. (2022)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Exemplar Pediatric Collaborative Improvement Networks: Achieving Results</t>
+          <t>Biologics combined with conventional systemic agents for the treatment of children with severe psoriasis. Real‐life data from the BiPe cohorts and a practice survey among French and Italian pediatric dermatologists</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>A number of pediatric collaborative improvement networks have demonstrated improved care and outcomes for children. Regionally, Cincinnati Children's Hospital Medical Center Physician Hospital Organization has sustained key asthma processes, substantially increased the percentage of their asthma population receiving "perfect care," and implemented an innovative pay-for-performance program with a large commercial payor based on asthma performance measures. The California Perinatal Quality Care Collaborative uses its outcomes database to improve care for infants in California NICUs. It has achieved reductions in central line-associated blood stream infections (CLABSI), increased breast-milk feeding rates at hospital discharge, and is now working to improve delivery room management. Solutions for Patient Safety (SPS) has achieved significant improvements in adverse drug events and surgical site infections across all 8 Ohio children's hospitals, with 7700 fewer children harmed and &gt;$11.8 million in avoided costs. SPS is now expanding nationally, aiming to eliminate all events of serious harm at children's hospitals. National collaborative networks include ImproveCareNow, which aims to improve care and outcomes for children with inflammatory bowel disease. Reliable adherence to Model Care Guidelines has produced improved remission rates without using new medications and a significant increase in the proportion of Crohn disease patients not taking prednisone. Data-driven collaboratives of the Children's Hospital Association Quality Transformation Network initially focused on CLABSI in PICUs. By September 2011, they had prevented an estimated 2964 CLABSI, saving 355 lives and $103,722,423. Subsequent improvement efforts include CLABSI reductions in additional settings and populations.</t>
+          <t>Dermatologic TherapyVolume 35, Issue 11 e15828 ORIGINAL ARTICLE Biologics combined with conventional systemic agents for the treatment of children with severe psoriasis. Real-life data from the BiPe cohorts and a practice survey among French and Italian pediatric dermatologists Emmanuel Mahé, Corresponding Author Emmanuel Mahé [email protected] orcid.org/0000-0001-5780-1827 Dermatology Department, Hôpital Victor Dupouy, Argenteuil, France Correspondence Emmanuel Mahé, Dermatology Department, Hôpital Victor Dupouy, 69 rue du Lieutenant-Colonel Prud'hon, Argenteuil 95100, France. Email: [email protected]Search for more papers by this authorAlain Beauchet, Alain Beauchet Public Health Department, Centre Hospitalier Universitaire Ambroise Paré, Boulogne-Billancourt, FranceSearch for more papers by this authorSmaïl Hadj-Rabia, Smaïl Hadj-Rabia Dermatology Department, INSERM U1163 &amp; Institut Imagine, Centre Hospitalier Universitaire Necker-Enfants Malades, Assistance Publique-Hôpitaux de Paris, Université Paris Descartes – Sorbonne, Paris, FranceSearch for more papers by this authorJuliette Mazereeuw-Hautier, Juliette Mazereeuw-Hautier Dermatology Department, Centre de Référence des Maladies Rares de la Peau et des Muqueuses, Hôpital Larrey, Toulouse, FranceSearch for more papers by this authorStéphanie Mallet, Stéphanie Mallet Dermatology Department, Hôpital de la Timone, Assistance-Publique-Hôpitaux de Marseille, Marseille, FranceSearch for more papers by this authorAlice Phan, Alice Phan Paediatric Department, Hôpital Femme-Mère-Enfant, Hospices Civils de Lyon, Bron, FranceSearch for more papers by this authorMaëlle Severino-Freire, Maëlle Severino-Freire Dermatology Department, Centre de Référence des Maladies Rares de la Peau et des Muqueuses, Hôpital Larrey, Toulouse, FranceSearch for more papers by this authorFranck Boralevi, Franck Boralevi Department of Paediatric Dermatology, Hôpital Pellegrin, CHU de Bordeaux, Bordeaux, FranceSearch for more papers by this authorHélène Aubert, Hélène Aubert Dermatology Department, Centre Hospitalier Universitaire de Nantes, Nantes, FranceSearch for more papers by this authorHugue Barthélémy, Hugue Barthélémy Dermatology Department, Centre Hospitalier d'Auxerre, Auxerre, FranceSearch for more papers by this authorCéline Girard, Céline Girard Dermatology Department, Centre Hospitalier Universitaire de Montpellier, Montpellier, FranceSearch for more papers by this authorLudovic Martin, Ludovic Martin Dermatology Department, Centre Hospitalier Universitaire d'Angers, Angers, FranceSearch for more papers by this authorMaryam Piram, Maryam Piram Service de Rhumatologie Pédiatrique, Centre Hospitalier Universitaire Bicêtre, Université Paris Sud-Saclay, UVSQ, Assistance Publique-Hôpitaux de Paris HP, Le Kremlin Bicêtre, FranceSearch for more papers by this authorSébastien Barbarot, Sébastien Barbarot Dermatology Department, Centre Hospitalier Universitaire de Nantes, Nantes, FranceSearch for more papers by this authorXavier Balguerie, Xavier Balguerie Dermatology Department, Centre Hospitalier Universitaire Charles-Nicolle, Rouen, FranceSearch for more papers by this authorJinane Zitouni, Jinane Zitouni Dermatology Department, Hôpital Victor Dupouy, Argenteuil, FranceSearch for more papers by this authorCéline Phan, Céline Phan Dermatology Department, Hôpital Victor Dupouy, Argenteuil, FranceSearch for more papers by this authorVito Di Lernia, Vito Di Lernia Dermatology Unit, Arcispedale S. Maria Nuova IRCCS, Reggio Emilia, ItalySearch for more papers by this authorGroupe de Recherche sur le Psoriasis (GrPso) of the Société Française de Dermatologie (SFD), Groupe de Recherche de la Société Française de Dermatologie Pédiatrique (GR SFDP), and Società Italiana di Dermatologia Pediatrica (S.I.Der.P.), Groupe de Recherche sur le Psoriasis (GrPso) of the Société Française de Dermatologie (SFD), Groupe de Recherche de la Société Française de Dermatologie Pédiatrique (GR SFDP), and Società Italiana di Dermatologia Pediatrica (S.I.Der.P.)Search for more papers by this author Emmanuel Mahé, Corresponding Author Emmanuel Mahé [email protected] orcid.org/0000-0001-5780-1827 Dermatology Department, Hôpital Victor Dupouy, Argenteuil, France Correspondence Emmanuel Mahé, Dermatology Department, Hôpital Victor Dupouy, 69 rue du Lieutenant-Colonel Prud'hon, Argenteuil 95100, France. Email: [email protected]Search for more papers by this authorAlain Beauchet, Alain Beauchet Public Health Department, Centre Hospitalier Universitaire Ambroise Paré, Boulogne-Billancourt, FranceSearch for more papers by this authorSmaïl Hadj-Rabia, Smaïl Hadj-Rabia Dermatology Department, INSERM U1163 &amp; Institut Imagine, Centre Hospitalier Universitaire Necker-Enfants Malades, Assistance Publique-Hôpitaux de Paris, Université Paris Descartes – Sorbonne, Paris, FranceSearch for more papers by this authorJuliette Mazereeuw-Hautier, Juliette Mazereeuw-Hautier Dermatology Department, Centre de Référence des Maladies R</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3164395695</t>
+          <t>https://openalex.org/W4310613103</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31124/advance.14471751.v1</t>
+          <t>https://doi.org/10.1016/b978-0-323-91159-7.00018-7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Solis-Mullen (2021)</t>
+          <t>Bazyar (2023)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Strategies of Brazilian Elite Domination</t>
+          <t>Impacts of progressive biofuels on environmental sustainability</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>In order to maintain their dominant socio-economic and political positions, Brazilian elites developed and employed a range of strategies in order to maintain the basic inequality regime established during the colonial period. Still among the most unequal countries in the world by Gini Coefficient, this paper seeks to show how Brazilian elites maintained their position of relative dominance through superstructural and material transformations in Brazilian society in terms of their collectively finding solutions to four problems: the Ideology of Creole Revolution, Unmanaged Elite Competition, Race Relations, and Democracy. As the latter three remain serious problems for Brazilian elites, the way previous elites navigated these threats to their position and maintained the basic nature of the inequality regime through transformations in the material base and superstructure provide insights into how Bolsonaro and contemporary conservative elites may attempt to manage the social democratic forces of the PT.</t>
+          <t>Biofuels are one of the most promising approaches for reducing CO2 emissions in the transportation industry. However, due to numerous fundamental restrictions, such as a lack of raw materials, a low CO2 mitigation effect, a blending wall, and poor cost competitiveness, traditional plant-based biofuels (e.g., biodiesel, bioethanol) had a relatively low fraction of total transportation-fuel usage in 2016, under 4%. Advanced biofuels, such as drop-in, microalgal, and electro biofuels, especially those derived from inedible biomass, are seen as a possible answer to the problem of meeting rising biofuel demand. Recent advances in oxy-free hydrocarbon conversion via catalytic deoxygenation processes, oleaginous microalgae selection and lipid content increase, electrochemical biofuel conversion, and the diversification of useful products from biomass and intermediates are discussed in this study. Although the United States and the EU have different financial and approach motivating forces for biofuel production, markers of environmental sustainability have evolved from the updated research across the boundaries of politics. We categorized mentioned markers into six already set up characteristics of natural supportability, advertising depictions for each and connecting them to proposed universal guidelines for progressed biofuels. If ideal feedstock choice, administration, generation, and fuel transformation criteria are particularly sought after, progressed biofuel improvement can be a step toward naturally economic vitality. Even though devices for surveying natural supportability exist, they have not however been connected to progressed biofuels in a standardized way.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2601389783</t>
+          <t>https://openalex.org/W4322737768</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/2041-210x.14070</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Lam (2006)</t>
+          <t>Record et al. (2023)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Contradictions between Traditional Chinese Values and the Actual Performance: A Study of the Caregiving Roles of the Modern Sandwich Generation in Hong Kong*</t>
+          <t>Synthesizing forecasts to inform decision‐making and advance ecological theory</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>INTRODUCTIONAn aging population is a worldwide phenomenon primarily caused by declining birth rates and longer life expectancy. In 1975, 5.7% of the Hong Kong population was aged 65 and above. The percentage has been increasing at an alarming rate, up to 6.46% in 1980, 8.51 % in 1990, 10.03% in 1996, and 12% in 2001 respectively (Hong Kong Census &amp; Statistics Department, 2002). In absolute terms the number of people aged 65 and above is forecast to increase from about 747,000 in 2001 to about 1,092,000 in 2016-an increase of 46% (HKCSS, 1999). The rapid increase in the aged population has been having a tremendous impact on the labor market and the distribution of social resources, including social security, pensions, health care and housing. This phenomenon has aroused concern and a review of the issues related to its impact, especially the caregiving to the elderly (Bengtson &amp; Putney, 2000; Chi, 1999; Liu Cheng &amp; McGhee, 2001 ; Mok, 1994).In traditional Chinese society, the values of Confucian filial piety provide the basis to culturally define the inter-generational relationships. These values surpass all other ethics (Ho, 1996). Filial piety as a core ethic has been continuously practised, taught and appreciated in behavior, attitude, and belief throughout China (Tu, 1997: 172). The Confucian values have assumed that the care for the elderly is the responsibility of adult children, and therefore, basically the family's responsibility (Bengtson &amp; Putney, 2000; Chow, 2001; Pak, 1996). Research has assumed filial piety to be a moral impulse in governing the inter-generational behavior (Chow, 2001: 127-128; Ganong, et al., 1998; Kwan, 2003; Kwok, 1996;Kosberg, 1992; Merrill, 1997; Montgomery, 2000). However, these values have undergone substantial modification with industrialization. 'In pre-industrial economics both land and businesses, which served as the family's source of sustenance, were owned by the oldest generation and passed down to the younger generation only at death. Hence, it was not the oldest generation that was dependent upon the younger generation, but rather the younger generation that was dependent on the older generation for housing and income. What care may have been provided to parents was, therefore, not necessarily based on a sense of moral obligation but instead stemmed from economic necessity' (Montgomery, 2000: 1019). However, the introduction of an industrial economy has changed substantially both the economic necessity and the moral obligation. First, when the traditional extended and interdependent family moves to the city, the adult children begin working for other employers, rather than having their father as their employer. The economic independent and financial power of the sons frequently enables them to achieve a dominant position in the family. Consequently, the adult children will usually move out to form their own nuclear families. Thus, the economic independence and formation of nuclear families has affected how the new generation perceives and performs filial piety.Second, the functions of the family are diminishing in modern society; the family no longer functions as the provider of education, health care, and vocational training for its members. These functions have now largely been taken over by government and other institutions. Moreover, the family is no longer the only source of moral training. More and more schools, nurseries, clubs, and the state are molding the worldview of the Chinese. Modern education tends to produce a generation which values achievement and the making of decisions on rational grounds. In addition, economic independence has also fostered rational and independent thinking and behavior (Ng, 1991: 178-181). Consequently, the new generation has substantially modified or changed how they perceive and perform the values of Confucian filial piety. Research has indicated that traditional filial piety is on the decline or under transformation (Chow, 2001; Ho, 1996; Kwan, 2003; Lui, et al, 1997;Ng, 1991). …</t>
+          <t>Methods in Ecology and EvolutionVolume 14, Issue 3 p. 728-731 EDITORIALOpen Access Synthesizing forecasts to inform decision-making and advance ecological theory Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author First published: 01 March 2023 https://doi.org/10.1111/2041-210X.14070 [Corrections added on 28 February 2023, after first online publication: The copyright line has been changed.] AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Since the inception of the Intergovernmental Panel on Climate Change in 1988, there has been growing scientific consensus that humans have modified the Earth's environment and that human decisions have the potential to mitigate or exacerbate the effects of future global change (Intergovernmental Panel on Climate Change, 2022). In the face of widespread environmental change, society needs information to make sound decisions. Ecological forecasts provide such information about how ecosystems and their services may respond to different environmental conditions before they happen and considering alternative management scenarios. Following the publication of the first IPCC report in 1990 that called for a better understanding of the future effects of climatic change, the number of ecological publications focused on forecasting increased exponentially (Figure 1). FIGURE 1Open in figure viewerPowerPoint To illustrate a growing interest in ecological forecasting since the publication of the first Intergovernmental Panel on Climate Change report in 1990, we show the number of publications per year for articles that have 'ecology' and 'forecast' in their keywords ( source: Web of Science, search criteria used: Topic = 'ecology' and forecast*'; Timespan = All Years). This includes all publications since 1900 with the exception of Hodgson (1932). The notion of forecasting ecosystem change in ecology is not new (e.g. Clark et al., 2001; Hodgson, 1932). However, as the number of ecological papers focused on forecasting grew in the context of climatic change, ecologists from across sub-disciplines became increasingly concerned with various aspects of forecasting. Paleoecologists acknowledged the limits of our ability to forecast into non-analog climatic conditions when using forecast horizons suggested by the IPCC (e.g. anticipating conditions 60–80 years into the future; Williams &amp; Jackson, 2007). Applied and theoretical ecologists questioned the utility of long-term forecasts for advancing decision-making and ecological theory, respectively (Houlahan et al., 2017; Mouquet et al., 2015). At the same time as these concerns, ecologists recognized the transformative potential of near-term, iterative forecasting for making ecological forecasts more relevant to decision makers and spurring innovations in ecological theory if key technical and conceptual advances could be made (Dietze et al., 2018). In 2018, the Ecological Forecasting Initiative (EFI; https://ecoforecast.org/) launched with an emphasis on creating near-term, iterative forecasts with the hopes of using outputs to inform theory and to better align forecasts with management timeframes. EFI is a grassroots effort funded as a research coordination network through the US National Science Foundation aimed at building and supporting an interdiscipl</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1963898533</t>
+          <t>https://openalex.org/W1959925334</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/wal.0.0122</t>
+          <t>https://doi.org/10.1111/j.1524-4741.2010.01056.x</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Rice (2010)</t>
+          <t>Byler &amp; Gil (2011)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Contesting Knowledge: Museums and Indigenous Perspectives&lt;/i&gt; (review)</t>
+          <t>Responsibility for Long-Term Care of Breast Cancer Survivors</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Reviewed by: Contesting Knowledge: Museums and Indigenous Perspectives Kym S. Rice Contesting Knowledge: Museums and Indigenous Perspectives. Edited by Susan Sleeper-Smith. Lincoln: University of Nebraska Press, 2009. 374 pages, $35.00. In his influential 1997 essay "Museums as Contact Zones," anthropologist James Clifford raised troubling questions about the unequal power relationships that existed between majority (read, white-run) museums and Native Americans inspired by an encounter he witnessed between tribal elders and staff at the Portland Art Museum. Among other things, Clifford argued for museums to adopt new strategies of representation that would accord greater recognition and respect to the meaning of sacred objects, as conveyed through living indigenous memory and perspective. Published more than a decade later, based on conference papers originally presented at the Newberry Library's D'Arcy McNickle Center for American Indian History, Contesting Knowledge features essays by scholars who study indigenous museums and material culture. The very readable volume, edited by Susan Sleeper-Smith of Michigan State University, speaks to the transformations as well as the complications that have occurred in the field since Clifford's piece originally appeared—precipitated, in part, by the continuing expansion of tribal museums, some with elaborate exhibition programs fueled by casino development. Although the book asserts a global perspective through its inclusion of essays by Hal Langfur on Brazil and Ciraj Rassool on the District Six Museum in Cape Town, South Africa, it focuses chiefly on North America. As one might expect, multiple essays critique the Smithsonian Institution's controversial National Museum of the American Indian (NMAI), which opened its Washington, DC, facility in 2004. Miranda J. Brady, in "A Dialogic Response to the Problematicized Past," interrogates NMAI's placement within the Smithsonian Empire, which Brady finds not only obscures its efforts to construct a national indigenous identity within the museum but is further complicated by what she perceives as a lack of transparency in its relationships with political and corporate America. Of additional interest with respect to NMAI are Jennifer Shannon's "The Construction of Native Voice at the National Museum of the American Indian," which addresses the difficult issues related to community authority and representation, and Ann McMullen's sweeping "Reinventing George Heye: Nationalizing the Museum of the American Indian and Its Collections," which reconsiders the museum's vast 800,000-plus object [End Page 213] collection through a new scrutiny of Heye, the individual who collected them earlier in the twentieth century. Other essays analyze the role of tribal museums in revitalizing their communities, particularly through community-focused exhibition practices. Amy Lonetree's thoughtful "Museums as Sites of Decolonization: Truth Telling in National and Tribal Museums" concludes the volume. Lonetree has in the past criticized NMAI's lack of historical context, particularly with respect to colonization and genocide, while generally offering praise for the museum's efforts to effect close collaboration with Native communities. Here she evaluates the Saginaw Chippewa's Ziibiwing Center of Anishinabe Culture and Lifeways as an exemplar of what Lonetree terms the "decolonized" museum—standing in sharp contrast to NMAI. Her study calls our attention to the powerful, creative, and quite different new models for exhibition making now emerging from some indigenous museums. Regardless of one's ethnicity, affiliation or experience, museum professionals and public historians alike, especially those with little or no experience working with indigenous communities or other stakeholder audiences, will find this volume concerning an emerging aspect of museum practice valuable and worth exploring. Kym S. Rice George Washington University, Washington, DC Copyright © 2010 The Western Literature Association</t>
+          <t>The Breast JournalVolume 17, Issue 2 p. 216-217 LETTER TO THE EDITOR Responsibility for Long-Term Care of Breast Cancer Survivors Jamie M. Byler MD, Jamie M. Byler MD Department of Obstetrics and Gynecology, Akron General Medical Center, Akron, OhioSearch for more papers by this authorKaren M. Gil PhD, Karen M. Gil PhD Department of Obstetrics and Gynecology, Akron General Medical Center, Akron, OhioSearch for more papers by this author Jamie M. Byler MD, Jamie M. Byler MD Department of Obstetrics and Gynecology, Akron General Medical Center, Akron, OhioSearch for more papers by this authorKaren M. Gil PhD, Karen M. Gil PhD Department of Obstetrics and Gynecology, Akron General Medical Center, Akron, OhioSearch for more papers by this author First published: 07 February 2011 https://doi.org/10.1111/j.1524-4741.2010.01056.xCitations: 2 Address correspondence and reprints request to: Karen M. Gil, PhD, Research Director, Department of Obstetrics and Gynecology, AGMC, 224 W. Exchange St., #120, Akron OH 44302, USA, or e-mail: [email protected]. Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL No abstract is available for this article. References 1 Aziz NM. Cancer survivorship research: state of knowledge, challenges and opportunities. Acta Oncol 2007; 46: 417– 32. 2 Khan NF, Ward A, Watson E, Austoker J, Rose PW. Long-term survivors of adult cancers and uptake of primary health services: a systematic review. Eur J Cancer 2008; 44: 195– 204. 3 Ganz PA, Hahn EE. Implementing a survivorship care plan for patients with breast cancer. J Clin Oncol 2008; 26: 759– 67. 4 http://seer.cancer.gov/csr/1975_2007/results_merged/topic_prevalence.pdf (accessed December 30, 2010). 5 Committee on Cancer Survivorship: Improving Care and Quality of Life. National Cancer Policy Board, Institute of Medicine and National Research Council. M Hewitt, S Greenfield, E Stovall, eds. From Cancer Patient to Cancer Survivor: Lost in Transition. Washington DC: The National Academies Press, 2006. 6 Nissen MJ, Beran MS, Lee MW, Mehta SR, Pine DA, Swenson KK. Views of primary care providers on follow-up care of cancer patients. Fam Med 2007; 39: 477– 82. 7 Erikson C, Salsberg E, Forte G, Bruinooge S, Goldstein M. Future supply and demand for oncologists: Challenges to assuring access to oncology services. J Oncol Pract 2007; 3: 79– 86. Citing Literature Volume17, Issue2March/April 2011Pages 216-217 ReferencesRelatedInformation</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3162495630</t>
+          <t>https://openalex.org/W4366463390</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/su13105354</t>
+          <t>https://doi.org/10.1111/hex.13772</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Pichlak (2021)</t>
+          <t>Hughes et al. (2023)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>The Drivers of Technological Eco-Innovation—Dynamic Capabilities and Leadership</t>
+          <t>The role of identity in the experiences of dementia care workers from a minority ethnic background during the COVID‐19 pandemic: A qualitative study</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>In the paper, a theoretical framework that combines the multidimensional conceptualization of dynamic capabilities (sensing, seizing, and reconfiguring) with two leadership styles (transactional and transformational) and two types of eco-innovation (incremental and radical) was developed and empirically tested. The purpose of this study is to answer the key question: how different leadership styles influence the potential of dynamic capabilities to generate ecological changes. The research examining the theoretical framework was quantitative and was based on a deliberately selection of the sample, which included 54 of the most evo-innovative Polish companies. The results indicate that transformational leadership moderates the positive relationship between seizing capability and both incremental and radical technological eco-innovation, whereas transactional leadership moderates the positive relationship between reconfiguring capability and both types of analyzed changes. This paper contributes to the development of the literature by integrating three theoretical concepts, showing the importance of a given leadership style as a factor enhancing the potential of dynamic capabilities for the development of technological eco-innovation. Moreover, the study may be a contribution to a broader discussion on the specifics of eco-innovative activity and its behavioral conditions.</t>
+          <t>Care home staff working during the COVID-19 pandemic experienced higher levels of stress and increased workloads. People from diverse ethnic backgrounds were disproportionately affected by the COVID-19 pandemic. This study explored the identity experiences of care home staff from diverse ethnic backgrounds in the context of working during the COVID-19 pandemic.Fourteen semistructured interviews were conducted between May 2021 and April 2022 with ethnic minority care home staff in England, who worked during the pandemic. Participants were recruited using convenience and theoretical sampling. Interviews were conducted via telephone or online platforms. A social constructivist grounded theory methodology was utilised in analysing the data.Participants described five key processes which facilitated or hindered the impact that their experiences had on their identity: dealing with uncertainty and transitioning into a COVID-19 world; difficult emotions; experiences of discrimination and racism; the response from the care home and societal systems; and the personal vs collective responsibility. When participants' physical and psychological needs went unmet by support structures within the care home and/or society, they experienced a sense of injustice, lack of control and being unvalued or discriminated against by others.This study highlights the importance of recognising the unique needs of staff from diverse ethnic backgrounds working in care homes and adapting working practices to improve impact on identity, job satisfaction and staff retention.One care home worker was involved in developing the topic guide and helping to interpret the findings.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1590765017</t>
+          <t>https://openalex.org/W2903193854</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.outlook.2018.08.006</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Astrov &amp; Havlík (2008)</t>
+          <t>Hein et al. (2018)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Economic Developments in the Wider Black Sea Region</t>
+          <t>Policy brief: Protecting vulnerable LGBTQ youth and advocating for ethical health care</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>The Black Sea region comprises a heterogeneous group of countries Bulgaria, Romania, Ukraine, Russia, Georgia, Armenia, Azerbaijan, and Turkey. Their economies differ in their size, institutional characteristics and integration perspectives, are facing vastly different problems, and find themselves at different levels of development. The economic performance of the region during the 1990s was highly unstable, and even the countries which were spared from internal conflicts did not fare much better than the rest. However, more recently, the region has enjoyed a fairly rapid economic recovery accompanied by welcome structural changes, although the labour market situation and social conditions in general are still very difficult. Both the economic heterogeneity of the Black Sea countries and political issues are crucial factors behind the presently rather low level of their regional integration the latter generally proceeds only to the extent to which it is compatible with the (very unequal) format of these countries' relations with the EU. At the same time, multilateral integration under the auspices of Russia, which, given its economic size, could potentially serve as an alternative 'gravity centre', appears to be for a number of reasons equally problematic. In fact, the geographic trade patterns of the countries involved do not give an impression of the Black Sea region being a distinct trading block per se, and in those cases where important regional trade links do exist (Russia, Ukraine and Turkey), this seems to be explained first of all by these countries' size rather than by the fact that they are part of the Black Sea region. The outlook for the Black Sea countries is largely positive, with annual GDP growth in excess of 5% in the medium and long run being feasible. Apart from sound economic policies, it is especially the fostering of institutional reforms and the related improvements of the investment climate which will be indispensable for a lasting and sustainable economic development. More decisive steps towards regional and EU economic integration would undoubtedly be beneficial; however, such integration would require significant changes in the stance of regional (and EU) policymakers, a higher level of mutual trust, a solution of 'frozen conflicts', and - last but not least - ultimately hinges on cooperation prospects between Russia and the EU.</t>
+          <t>Lesbian, Gay, Bisexual, Transgender and Queer/Questioning (LGBTQ) youth are at heightened risk for bullying, victimization, homelessness, and being subjected to harmful therapies and associated physical and mental health issues. Health disparities in these populations are strongly associated with increased vulnerability based on stigma and discrimination due to their sexual orientation, gender identity, and gender expression (United Nations 2017United NationsThe Yogyakarta principles plus 10. United Nations, Geneva, Switzerland2017http://yogyakartaprinciples.org/wp-content/uploads/2017/11/A5_yogyakartaWEB-2.pdfGoogle Scholar). Additional threats to the health of LGBTQ youth include: expanded religious freedom exemptions of providers, permitting legal refusal to provide health care or other services to this population; a halt to Title IX enforcement for transgender persons by the Department of Education; and regular threats to repeal Section 1557 of the Affordable Care Act (ACA), thereby excluding coverage for transgender-related care and eliminating coverage for pre-existing conditions (U.S. Department of Health and Human Services). The American Academy of Nursing supports the rights of LGBTQ youth to be safe at school, at home, in places of worship, in the community and while seeking and obtaining access to health care. We oppose discrimination towards young people based on sexual orientation or gender identity and expression. We oppose transgender-specific exclusion from health care coverage or exclusion from sexual orientation and gender-based legal protections, and call for the provision of inclusive, safe, competent health care. LGBTQ youth are at elevated risk for violent victimization (O'Malley Olsen et al., 2014O'Malley Olsen E. Kann L. Vivolo-Kantor A. Kinchen S. McManus T. School violence and bullying among sexual minority high school students, 2009-2011.Journal of Adolescent Health. 2014; 55: 432-438https://doi.org/10.1016/j.jadohealth.2014.03.002Abstract Full Text Full Text PDF PubMed Scopus (71) Google Scholar), harmful therapies (American Academy of Nursing 2015American Academy of NursingAmerican Academy of Nursing position statement on reparative therapy.Nursing Outlook. 2015; 63: 368-369https://doi.org/10.1016/j.outlook.2015.03.003Abstract Full Text Full Text PDF Google Scholar, SAMHSA 2015SAMHSAEnding conversion therapy: Supporting and affirming LGBTQ youth.2015http://store.samhsa.gov/shin/content//SMA15-4928/SMA15-4928.pdfGoogle Scholar) and related physical and mental health issues (Sedlak and Boyd, 2016Sedlak C.A. Boyd C.J. Health care services for transgender individuals: Position statement.Nursing Outlook. 2016; 64: 510-512http://dx.doi.org/10.1016/j.outlook.2016.07.002Abstract Full Text Full Text PDF Google Scholar). This vulnerability is principally due to exclusion, pathologization, and victimization because of prejudice and discrimination toward sexual orientation, gender identity and gender expression. Approximately 3.4% of youth in the U.S., ages 10-19, identify as LGBTQ, suggesting that potentially over a million youth could be excluded from health care based on misguided interpretations of the conscience clause (Gates and Newport, 2012Gates G. Newport F. Special report: 3.4% of U.S. adults identify as LGBT.http://www.gallup.com/poll/158066/special-report-adults-identify-lgbt.aspx?utm_source=email-a-friend&amp;utm_medium=email&amp;utm_campaign=sharing&amp;utm_content=morelinkDate: 2012Google Scholar). Family support can be protective for these youth but is not always present (Eisenberg et al., 2017Eisenberg M.E. Gower A.L. McMorris B.J. Rider G.N. Shea G. Coleman E. Risk and protective factors in the lives of transgender/gender nonconforming adolescents.Journal of Adolescent Health. 2017; 61: 521-526https://doi.org/10.1016/j.jadohealth.2017.04.014Abstract Full Text Full Text PDF PubMed Scopus (210) Google Scholar; Ryan, 2014Ryan C. Generating a revolution in prevention, wellness and care for LGBT children and youth.Temple Political and Civil Rights Law Review. 2014; 23: 331-344Google Scholar). Unlike other minority groups, LGBTQ youth are not raised within the potential resilience-fostering context of similarly marginalized families. LGBTQ minority status is rarely shared by family members, who therefore may lack experience in navigating LGBTQ marginalization. Parents may feel ill-equipped to supportively respond to an LGBTQ child, and need support themselves (Ryan, 2010Ryan C. Engaging families to support lesbian, gay, bisexual, and transgender youth: The family acceptance project.Prevention Researcher. 2010; 17: 11-13Google Scholar). Health care can be a venue for support and healing but also intolerance and abusive therapies (Hein and Matthews, 2010Hein L.C. Matthews A.K. Reparative therapy: The adolescent, the psych nurse and the issues.Journal of Child and Adolescent Psychiatric Nursing. 2010; 23: 29-35https://doi.org/10.1111/j.1744-6171.2009.00214.xCrossref Scopus (14) Google Scholar,</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2135076993</t>
+          <t>https://openalex.org/W2809237032</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/pssb.200301818</t>
+          <t>https://doi.org/10.1021/acsenergylett.8b00938</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Kashirina et al. (2003)</t>
+          <t>Wiktor et al. (2018)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Correlation effects and Pekar bipolaron (arbitrary electron–phonon interaction)</t>
+          <t>Role of Polarons in Water Splitting: The Case of BiVO&lt;sub&gt;4&lt;/sub&gt;</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Abstract The Buimistrov–Pekar method of canonical transformation was used to calculate the energies of the lowest singlet and triplet terms of bipolarons in crystals with ionic binding. An arbitrary electron–phonon interaction described by the Fröhlich Hamiltonian was considered. It was shown that, in the whole parametric range of electron–phonon interaction, the value of the free bipolaron ground state energy obtained by the Buimistrov–Pekar method is lower than all those found by Adamowski and Bednarek in the framework of direct variational approaches, and only slightly exceeds (relative error &amp;lt;0.3%) those obtained by Verbist, Peeters, and Devreese by integration over trajectories for α ≤ 7. The calculations have shown that any metastable triplet states corresponding to the lowest triplet term of a bipolaron are absent for all the parameters of the electron–phonon interaction, the results being in complete analogy with Hill's theorem about the absence of any bound excited states for an H − ion. Study of a wave function of more general form has demonstrated that a two‐center bipolaron is energetically less advantageous than a one‐center one for all the parameters of the electron–phonon interaction. Control calculations performed with the system of functions used in this paper have yielded 1.173 a.u. for the hydrogen molecule energy, which is in good agreement with the experimental value.</t>
+          <t>We study hole and electron polarons in BiVO4 at finite temperature through hybrid functional molecular dynamics simulations. Through the thermodynamic integration method, we obtain the transition levels corresponding to the localized charges at 300 K. We observe that the polaron levels achieved in this way lie significantly closer to each other than those at 0 K. We find both hole and electron levels to lie within the band gap, with binding energies of 0.11 and 0.88 eV, respectively. Our calculations show that polaron localization significantly affects the alignment at the solid/liquid interface and that electron–hole recombination through polaronic states competes with the evolution of the water-splitting reaction in BiVO4.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2074300212</t>
+          <t>https://openalex.org/W3087636632</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0017-9310(96)00081-6</t>
+          <t>https://doi.org/10.1074/jbc.ra119.012102</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Tambour (1997)</t>
+          <t>Maunders et al. (2020)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Theory of transient multicomponent transport coupling in three-dimensional stagnation flows</t>
+          <t>Global reprogramming of virulence and antibiotic resistance in Pseudomonas aeruginosa by a single nucleotide polymorphism in elongation factor, fusA1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A general field transformation for transient three-dimensional multicomponent energy and species equations is presented. Employing this transformation, transient multicomponent transport coupling effects in three-dimensional flows with surface injection cooling are studied. A new multicomponent transport coupling parameter is introduced and new results for the surface heat flux for various values (between 0 and 1) of this parameter are given. These values of the transport coupling parameter represent a wide range of transport properties of multicomponent mixtures. The present results demonstrate how a given final surface cooling efficiency can be obtained by choosing a variety of combinations of various values of the transport coupling parameter and injection rates. The present study also reveals an interesting behavior of local overshoot values in the transient relative contribution of the transport coupling effects to the surface heat flux. This behavior is explained here in terms of fluctuations in a multicomponent 'Transport-coupling Activity' number, which is sensitive to the differences in the characteristic rate of change of the local concentration gradients with respect to the local temperature gradient.</t>
+          <t>Clinical isolates of the opportunistic pathogen Pseudomonas aeruginosa from patients with cystic fibrosis (CF) frequently contain mutations in the gene encoding an elongation factor, FusA1. Recent work has shown that fusA1 mutants often display elevated aminoglycoside resistance due to increased expression of the efflux pump, MexXY. However, we wondered whether these mutants might also be affected in other virulence-associated phenotypes. Here, we isolated a spontaneous gentamicin-resistant fusA1 mutant (FusA1P443L) in which mexXY expression was increased. Proteomic and transcriptomic analyses revealed that the fusA1 mutant also exhibited discrete changes in the expression of key pathogenicity-associated genes. Most notably, the fusA1 mutant displayed greatly increased expression of the Type III secretion system (T3SS), widely considered to be the most potent virulence factor in the P. aeruginosa arsenal, and also elevated expression of the Type VI (T6) secretion machinery. This was unexpected because expression of the T3SS is usually reciprocally coordinated with T6 secretion system expression. The fusA1 mutant also displayed elevated exopolysaccharide production, dysregulated siderophore production, elevated ribosome synthesis, and transcriptomic signatures indicative of translational stress. Each of these phenotypes (and almost all of the transcriptomic and proteomic changes associated with the fusA1 mutation) were restored to levels comparable with that in the progenitor strain by expression of the WT fusA1 gene in trans, indicating that the mutant gene is recessive. Our data show that in addition to elevating antibiotic resistance through mexXY expression (and also additional contributory resistance mechanisms), mutations in fusA1 can lead to highly selective dysregulation of virulence gene expression. Clinical isolates of the opportunistic pathogen Pseudomonas aeruginosa from patients with cystic fibrosis (CF) frequently contain mutations in the gene encoding an elongation factor, FusA1. Recent work has shown that fusA1 mutants often display elevated aminoglycoside resistance due to increased expression of the efflux pump, MexXY. However, we wondered whether these mutants might also be affected in other virulence-associated phenotypes. Here, we isolated a spontaneous gentamicin-resistant fusA1 mutant (FusA1P443L) in which mexXY expression was increased. Proteomic and transcriptomic analyses revealed that the fusA1 mutant also exhibited discrete changes in the expression of key pathogenicity-associated genes. Most notably, the fusA1 mutant displayed greatly increased expression of the Type III secretion system (T3SS), widely considered to be the most potent virulence factor in the P. aeruginosa arsenal, and also elevated expression of the Type VI (T6) secretion machinery. This was unexpected because expression of the T3SS is usually reciprocally coordinated with T6 secretion system expression. The fusA1 mutant also displayed elevated exopolysaccharide production, dysregulated siderophore production, elevated ribosome synthesis, and transcriptomic signatures indicative of translational stress. Each of these phenotypes (and almost all of the transcriptomic and proteomic changes associated with the fusA1 mutation) were restored to levels comparable with that in the progenitor strain by expression of the WT fusA1 gene in trans, indicating that the mutant gene is recessive. Our data show that in addition to elevating antibiotic resistance through mexXY expression (and also additional contributory resistance mechanisms), mutations in fusA1 can lead to highly selective dysregulation of virulence gene expression. Due to its high intrinsic resistance to antibiotics and aggressive virulence, Pseudomonas aeruginosa holds the dubious accolade of consistently occupying a “top ten” slot on lists of clinical threats across the globe. Indeed, the World Health Organization recently classified it as a top priority pathogen for which the development of new antimicrobial interventions is critical. This opportunistic, Gram-negative bacterium is ubiquitous and exhibits a particular predilection for the built environment, making encounters with the human populace commonplace. P. aeruginosa is frequently isolated from burn wounds, the respiratory tract, and the urinary tract and is the leading cause of morbidity and mortality in people with cystic fibrosis (CF) (1McCarthy R.R. Mooij M.J. Reen F.J. Lesouhaitier O. O'Gara F. A new regulator of pathogenicity (bvlR) is required for full virulence and tight microcolony formation in Pseudomonas aeruginosa.Microbiology. 2014; 160 (24829363): 1488-150010.1099/mic.0.075291-0Crossref PubMed Scopus (17) Google Scholar, 2Pereira S.G. Rosa A.C. Ferreira A.S. Moreira L.M. Proença D.N. Morais P.V. Cardoso O. Virulence factors and infection ability of Pseudomonas aeruginosa isolates from a hydropathic facility and respiratory infections.J. Appl. Microbiol. 2014; 116 (24484457): 1359-136810.1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2958430348</t>
+          <t>https://openalex.org/W2120493161</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/1468-0424.12437</t>
+          <t>https://doi.org/10.1542/peds.2012-3786f</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Fisher &amp; Funke (2019)</t>
+          <t>Billett et al. (2013)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>The Age of Attraction: Age, Gender and the History of Modern Male Homosexuality</t>
+          <t>Exemplar Pediatric Collaborative Improvement Networks: Achieving Results</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">In 1902, founder of the Berlin Institute for Sexual Science, Magnus Hirschfeld, developed a ‘psychobiological questionnaire’ to investigate human sexuality.1 The section labelled ‘sexual instinct’ [Geschlechtstrieb] asked: ‘What approximately are the highest and lowest limits in age of the people to whom you feel drawn, or is age of no importance to you?’2 Hirschfeld's interest in age as a driver of sexual attraction reflects broader sexual scientific attempts to map an erotics of age.3 This article explores how and why the relative age of sexual subjects was theorised by British and German sexual scientists in the late nineteenth and early twentieth centuries. It demonstrates that questions around age preoccupied sexual science and argues, more specifically, that constructions of male homosexuality were driven by anxieties about interactions between children or adolescents and older men.4 In so doing, the article reveals the interrelationship between sexological debates about homosexuality and scientific explorations of childhood sexuality and adolescent development. It shows that age needs to be acknowledged as a crucial category shaping sexual scientific debate and structuring understandings of modern homosexuality.5 As is well known, the erotic charge provided by age difference was central to many culturally prominent eighteenth- and nineteenth-century understandings of same-sex desire.6 European and American elites interpreted classical (predominately Ancient Greek) cultures as providing affirmative models of youthful male beauty and intimate attachment between older and younger men or boys.7 While precise differences in age were rarely specified, partners were separated on the basis of maturity into active (the erastes) and passive roles (the eromenos). Moreover, attraction to younger same-sex partners was not seen to exclude opposite-sex relationships: men who desired male youths could also be married to women. The influence of this material on individual identities can be found, for example, in sexological case studies or letters received by prominent Hellenic writers.8 At the same time, this idealisation of age-differentiated erotics reinforced existing associations between same-sex activity and the sexual misuse of younger people by older men.9 In response, some sexual scientists sought to tease apart age-structured and same-sex relationships. These authors defined the male homosexual through his exclusive inborn attraction to other consenting adults. This article shows that this influential construction of the modern homosexual as a discrete congenital type emerged in direct response to considerations around age.10 It also demonstrates that, notwithstanding the emergence of this model, questions about the impact of sexual encounters with older men on a younger person's sexual development continued to be debated within sexual science, creating dialogue between theorisations of homosexuality and concurrent studies of childhood sexuality.11 As such, investigations of male homosexuality continued to revolve around urgent questions about how and when same-sex desire emerged and what impact sexual experiences in youth had on later desires. These debates remained at the centre of early twentieth-century sexual science in Britain and Germany, complicating the inborn model and securing the centrality of age as a key category in modern articulations of sexuality. Throughout the nineteenth century, male same-sex acts were frequently associated with the sexual coercion of young people in news media and forensic, legal and literary writings. The assumption that same-sex relations were violations of youth fundamentally shaped sexual scientific investigations of same-sex desire and informed intersecting explorations of childhood and adolescent sexual development.12 Later nineteenth-century constructions of homosexuality were inextricably linked to concerns about childhood and adolescent sexuality in ways that scholars have not yet fully explored. There are two main reasons for this oversight: first, research on child sexual abuse has frequently side-lined male-male same-sex behaviour, concentrating on sexual violence involving girls.13 Second, histories of male homosexuality have often downplayed the prominence of young people in representations of male same-sex behaviour.14 From the mid-nineteenth century, sexual science, alongside other scientific, legal and literary discussions of childhood, constructed children as at risk of physical and moral molestation.15 Although there was no clearly defined concept of child sex abuse before the twentieth century, minors were increasingly seen as victims of defilement rather than as sexually precocious agents.16 Age of consent and sexual assault laws as well as child marriage legislation in Europe and European colonies were often focused on the vulnerabilities of girls.17 Yet, boys were also seen as requiring protection from (often male) predators.18 Age of consent and </t>
+          <t>A number of pediatric collaborative improvement networks have demonstrated improved care and outcomes for children. Regionally, Cincinnati Children's Hospital Medical Center Physician Hospital Organization has sustained key asthma processes, substantially increased the percentage of their asthma population receiving "perfect care," and implemented an innovative pay-for-performance program with a large commercial payor based on asthma performance measures. The California Perinatal Quality Care Collaborative uses its outcomes database to improve care for infants in California NICUs. It has achieved reductions in central line-associated blood stream infections (CLABSI), increased breast-milk feeding rates at hospital discharge, and is now working to improve delivery room management. Solutions for Patient Safety (SPS) has achieved significant improvements in adverse drug events and surgical site infections across all 8 Ohio children's hospitals, with 7700 fewer children harmed and &gt;$11.8 million in avoided costs. SPS is now expanding nationally, aiming to eliminate all events of serious harm at children's hospitals. National collaborative networks include ImproveCareNow, which aims to improve care and outcomes for children with inflammatory bowel disease. Reliable adherence to Model Care Guidelines has produced improved remission rates without using new medications and a significant increase in the proportion of Crohn disease patients not taking prednisone. Data-driven collaboratives of the Children's Hospital Association Quality Transformation Network initially focused on CLABSI in PICUs. By September 2011, they had prevented an estimated 2964 CLABSI, saving 355 lives and $103,722,423. Subsequent improvement efforts include CLABSI reductions in additional settings and populations.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3165612848</t>
+          <t>https://openalex.org/W3164395695</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://doi.org/10.23951/1609-624x-2021-3-102-109</t>
+          <t>https://doi.org/10.31124/advance.14471751.v1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Бутенко (2021)</t>
+          <t>Solis-Mullen (2021)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PAREMIOLOGICAL TRANSFORMATIONS IN FILM TRANSLATION (BASED ON THE RUSSIAN AND ENGLISH LANGUAGES)</t>
+          <t>Strategies of Brazilian Elite Domination</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Введение. Проведено лингвостилистическое исследование паремиологических трансформаций в кинотексте и рассмотрены возможности эквивалентной передачи трансформа в языке перевода. Актуальность исследования обусловлена широкой употребительностью пословичных единиц в художественном языке, в частности в кинодискурсе. Встраиваясь в матрицу кинодиалога, они становятся основой для последующих преобразований в высказываниях персонажей, создавая своей окказиональностью значительный экспрессивный потенциал. Цель. Поскольку свидетельством эффективной трансформации является узнаваемость исходной пословицы в трансформе, целью исследования стало выявление лингвостилистических средств, способствующих узнаванию, декодированию и адекватному зрительскому восприятию трансформа в языке принимающей культуры. Материал и методы. Материалом исследования послужили пословичные трансформы в высказываниях персонажей анимационного фильма “The Lion King. Hakuna Matata” («Король Лев. Акуна Матата»). Проводимое исследование имело теоретико-эмпирический характер, при котором анализ материала осуществлялся посредством структурного и описательного методов, позволяющих установить определенные лингвистические закономерности паремиологических трансформаций. Результаты и обсуждение. Анализируемый авторский трансформ является по сути сентенцией, афористическим, то есть лаконичным и поучительным, изречением. Сентенция воспроизводит типические черты народной пословицы: дидактичность, переосмысленность, имплицитность. Оживляя традиционную форму паремиологической единицы, она сохраняет семантико-стилистическое тождество с прецедентным текстом. Наряду со смысловой тождественностью с исходной пословицей, трансформ-сентенция демонстрирует и синтаксическую схожесть, при этом бесшовно включаясь в контекст диалога. Констатируемые проявления трансформационного процесса закономерны, так как трансформ создается по пословичным алгоритмам, что обеспечивает его соотносимость с исходной пословицей. Их имплицитная общность предопределяет и в некоторой степени ограничивает вариативность лексического содержания, а также синтаксической структуры трансформа. Это дедуктивное положение может стать небольшим научным вкладом в лингвостилистические исследования в области паремиологической трансформации. Оно эффективно работает в художественном языке, где обеспечивающая адекватное восприятие логическая структура традиционной пословицы способна производить дериваты, выделяющиеся своеобразием формы. Проводимым лингвостилистическим исследованием изучаются людические (игровые) ресурсы полисемии, применяемые в трансформе, и анализируются изыскиваемые возможности перевода каламбурных речений. Внесение модифицированной пословичной единицы – сентенции – в структуру кинодиалога рассматривается как прием стилистической цитации, функциональная ценность которой подтверждается уместностью употребления в определенной ситуации общения. Статус интертекстуального знака, приобретаемый сентенцией в высказывании персонажа, наделяет ее особой значимостью и способствует возникновению направленных ассоциаций, служит средством усиления аргументации и выражения оценки. Заключение. Трансформация паремиологических единиц – это результат художественно-обработанного прецедентного текста, где структурно-семантическая устойчивость обновляется окказиональным, но идентичным по содержанию выражением. Таким образом, модифицированные паремии не воспринимаются как безжизненные фольклорные штампы, они являются актуальными составляющими речевого узуса. Поскольку краткость входит одним из основных компонентов в понятие «пословица», ее семантико-стилистическому деривату также свойственны смысловая емкость и синтаксическая сжатость. Подобные формы способствуют созданию языковой компрессии, необходимой в субтитровании, наиболее востребованном виде киноперевода. Этот фактор подтверждает как практическую значимость исследования, так и его актуальность для киноиндустрии. Introduction. The linguistic research analyzes paremiological transformations in the film text and stud-ies the possibilities of their equivalent translation in the host culture. The relevance of the study is due to the wide use of proverbial units in the artistic language and namely in film discourse. Embedded in the matrix of the film dialogue, they become a basis for subsequent transformations in characters’ speech, creating a significant expressive potential because of their occasional character. Aim and objectives. Since the recognition of the original proverb in the modified version is the proof of an effective transformation, the aim of the study is to identify the linguistic means that contribute to recognition, decoding and adequate perception of the transform in the language of the host culture. Material and methods. The research is based on the proverbial transforms in the characters’ utterances of the animated film “The Lion King. Hakuna Matata”. Being of a theoretical-empirical nature, the lingua-stylistic study required the use of the struc</t>
+          <t>In order to maintain their dominant socio-economic and political positions, Brazilian elites developed and employed a range of strategies in order to maintain the basic inequality regime established during the colonial period. Still among the most unequal countries in the world by Gini Coefficient, this paper seeks to show how Brazilian elites maintained their position of relative dominance through superstructural and material transformations in Brazilian society in terms of their collectively finding solutions to four problems: the Ideology of Creole Revolution, Unmanaged Elite Competition, Race Relations, and Democracy. As the latter three remain serious problems for Brazilian elites, the way previous elites navigated these threats to their position and maintained the basic nature of the inequality regime through transformations in the material base and superstructure provide insights into how Bolsonaro and contemporary conservative elites may attempt to manage the social democratic forces of the PT.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W623916810</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5860/choice.37-5785</t>
+          <t>https://openalex.org/W2601389783</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>NA (2000)</t>
+          <t>Lam (2006)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>The Spanish economy in the new Europe</t>
+          <t>Contradictions between Traditional Chinese Values and the Actual Performance: A Study of the Caregiving Roles of the Modern Sandwich Generation in Hong Kong*</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>List of Tables and Figures Foreword by Luis Angel Rojo Preface List of Abbreviations Introduction: Changes in the International Economic Setting PART ONE: COMPARATIVE ANALYSIS Growth and Structural Changes Productivity and its Determinants Activity, Employment and Unemployment Costs, Prices and Competitiveness Public Finances and Fiscal Policy External Sector Nominal and Real Convergence PART TWO: EVALUATION OF THE INTEGRATION PROCESS Trade Relations Direct Investment Flows Migratory Flows The Community Budget and its Functions Unification of Monetary Policy in Europe Epilogue: Prospects and Economic Strategies for the Spain of the Euro Appendix I: Chronology of the European Integration Process Appendix II: Methodological Problems of International Comparisons Index</t>
+          <t>INTRODUCTIONAn aging population is a worldwide phenomenon primarily caused by declining birth rates and longer life expectancy. In 1975, 5.7% of the Hong Kong population was aged 65 and above. The percentage has been increasing at an alarming rate, up to 6.46% in 1980, 8.51 % in 1990, 10.03% in 1996, and 12% in 2001 respectively (Hong Kong Census &amp; Statistics Department, 2002). In absolute terms the number of people aged 65 and above is forecast to increase from about 747,000 in 2001 to about 1,092,000 in 2016-an increase of 46% (HKCSS, 1999). The rapid increase in the aged population has been having a tremendous impact on the labor market and the distribution of social resources, including social security, pensions, health care and housing. This phenomenon has aroused concern and a review of the issues related to its impact, especially the caregiving to the elderly (Bengtson &amp; Putney, 2000; Chi, 1999; Liu Cheng &amp; McGhee, 2001 ; Mok, 1994).In traditional Chinese society, the values of Confucian filial piety provide the basis to culturally define the inter-generational relationships. These values surpass all other ethics (Ho, 1996). Filial piety as a core ethic has been continuously practised, taught and appreciated in behavior, attitude, and belief throughout China (Tu, 1997: 172). The Confucian values have assumed that the care for the elderly is the responsibility of adult children, and therefore, basically the family's responsibility (Bengtson &amp; Putney, 2000; Chow, 2001; Pak, 1996). Research has assumed filial piety to be a moral impulse in governing the inter-generational behavior (Chow, 2001: 127-128; Ganong, et al., 1998; Kwan, 2003; Kwok, 1996;Kosberg, 1992; Merrill, 1997; Montgomery, 2000). However, these values have undergone substantial modification with industrialization. 'In pre-industrial economics both land and businesses, which served as the family's source of sustenance, were owned by the oldest generation and passed down to the younger generation only at death. Hence, it was not the oldest generation that was dependent upon the younger generation, but rather the younger generation that was dependent on the older generation for housing and income. What care may have been provided to parents was, therefore, not necessarily based on a sense of moral obligation but instead stemmed from economic necessity' (Montgomery, 2000: 1019). However, the introduction of an industrial economy has changed substantially both the economic necessity and the moral obligation. First, when the traditional extended and interdependent family moves to the city, the adult children begin working for other employers, rather than having their father as their employer. The economic independent and financial power of the sons frequently enables them to achieve a dominant position in the family. Consequently, the adult children will usually move out to form their own nuclear families. Thus, the economic independence and formation of nuclear families has affected how the new generation perceives and performs filial piety.Second, the functions of the family are diminishing in modern society; the family no longer functions as the provider of education, health care, and vocational training for its members. These functions have now largely been taken over by government and other institutions. Moreover, the family is no longer the only source of moral training. More and more schools, nurseries, clubs, and the state are molding the worldview of the Chinese. Modern education tends to produce a generation which values achievement and the making of decisions on rational grounds. In addition, economic independence has also fostered rational and independent thinking and behavior (Ng, 1991: 178-181). Consequently, the new generation has substantially modified or changed how they perceive and perform the values of Confucian filial piety. Research has indicated that traditional filial piety is on the decline or under transformation (Chow, 2001; Ho, 1996; Kwan, 2003; Lui, et al, 1997;Ng, 1991). …</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2059228813</t>
+          <t>https://openalex.org/W1963898533</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/016128498249222</t>
+          <t>https://doi.org/10.1353/wal.0.0122</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Doswell et al. (1998)</t>
+          <t>Rice (2010)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SELF-IMAGE AND SELF-ESTEEM IN AFRICAN-AMERICAN PRETEEN GIRLS: IMPLICATIONS FOR MENTAL HEALTH</t>
+          <t>&lt;i&gt;Contesting Knowledge: Museums and Indigenous Perspectives&lt;/i&gt; (review)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Current research suggests that pubertal development is occurring earlier in African-American preteen girls in response to familial contextual factors, which may make them vulnerable to low self-image and self-esteem dissatisfaction. This lowering in self-image and self-esteem may contribute to the early initiation of sexual behaviors, putting these girls at risk for pregnancy and sexually transmitted diseases. These potential risks place these girls in need of prepubertal health promotion, yet preadolescents are not frequently a focus of nursing care delivery except when summer camp and back-to-school physicals are performed. This article presents an in-depth overview of selected literature on self-esteem, discusses findings on self-image and self-esteem from a pilot study on pubertal influences on accelerated sexual behavior, and proposes health promotion strategies for pre-and peripubertal girls to promote positive mental health outcomes. More focused attention is needed on health promotion targeting the developmental transition health needs of prepubertal girls. Targeted health promotion activities may foster healthier pre-and peripubertal girls' perceptions of the meaning of their pubertal physical changes and stronger self-image and self-esteem. The goal of these health promotion activities should be to foster continuity of positive self-image and self-esteem among preteen girls, which is essential to prevent initiation of premature for-age risk of problem behavior, such as early coitus.</t>
+          <t>Reviewed by: Contesting Knowledge: Museums and Indigenous Perspectives Kym S. Rice Contesting Knowledge: Museums and Indigenous Perspectives. Edited by Susan Sleeper-Smith. Lincoln: University of Nebraska Press, 2009. 374 pages, $35.00. In his influential 1997 essay "Museums as Contact Zones," anthropologist James Clifford raised troubling questions about the unequal power relationships that existed between majority (read, white-run) museums and Native Americans inspired by an encounter he witnessed between tribal elders and staff at the Portland Art Museum. Among other things, Clifford argued for museums to adopt new strategies of representation that would accord greater recognition and respect to the meaning of sacred objects, as conveyed through living indigenous memory and perspective. Published more than a decade later, based on conference papers originally presented at the Newberry Library's D'Arcy McNickle Center for American Indian History, Contesting Knowledge features essays by scholars who study indigenous museums and material culture. The very readable volume, edited by Susan Sleeper-Smith of Michigan State University, speaks to the transformations as well as the complications that have occurred in the field since Clifford's piece originally appeared—precipitated, in part, by the continuing expansion of tribal museums, some with elaborate exhibition programs fueled by casino development. Although the book asserts a global perspective through its inclusion of essays by Hal Langfur on Brazil and Ciraj Rassool on the District Six Museum in Cape Town, South Africa, it focuses chiefly on North America. As one might expect, multiple essays critique the Smithsonian Institution's controversial National Museum of the American Indian (NMAI), which opened its Washington, DC, facility in 2004. Miranda J. Brady, in "A Dialogic Response to the Problematicized Past," interrogates NMAI's placement within the Smithsonian Empire, which Brady finds not only obscures its efforts to construct a national indigenous identity within the museum but is further complicated by what she perceives as a lack of transparency in its relationships with political and corporate America. Of additional interest with respect to NMAI are Jennifer Shannon's "The Construction of Native Voice at the National Museum of the American Indian," which addresses the difficult issues related to community authority and representation, and Ann McMullen's sweeping "Reinventing George Heye: Nationalizing the Museum of the American Indian and Its Collections," which reconsiders the museum's vast 800,000-plus object [End Page 213] collection through a new scrutiny of Heye, the individual who collected them earlier in the twentieth century. Other essays analyze the role of tribal museums in revitalizing their communities, particularly through community-focused exhibition practices. Amy Lonetree's thoughtful "Museums as Sites of Decolonization: Truth Telling in National and Tribal Museums" concludes the volume. Lonetree has in the past criticized NMAI's lack of historical context, particularly with respect to colonization and genocide, while generally offering praise for the museum's efforts to effect close collaboration with Native communities. Here she evaluates the Saginaw Chippewa's Ziibiwing Center of Anishinabe Culture and Lifeways as an exemplar of what Lonetree terms the "decolonized" museum—standing in sharp contrast to NMAI. Her study calls our attention to the powerful, creative, and quite different new models for exhibition making now emerging from some indigenous museums. Regardless of one's ethnicity, affiliation or experience, museum professionals and public historians alike, especially those with little or no experience working with indigenous communities or other stakeholder audiences, will find this volume concerning an emerging aspect of museum practice valuable and worth exploring. Kym S. Rice George Washington University, Washington, DC Copyright © 2010 The Western Literature Association</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317941081</t>
+          <t>https://openalex.org/W3162495630</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.35774/visnyk2022.04.028</t>
+          <t>https://doi.org/10.3390/su13105354</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Melnyk &amp; Zhukevych (2023)</t>
+          <t>Pichlak (2021)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Economic and analytical diagnostics in the financial activity management system of a modern health care institution</t>
+          <t>The Drivers of Technological Eco-Innovation—Dynamic Capabilities and Leadership</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Introduction. The concept of the development of the system of financial support in the field of health care outlines the need to introduce a new financial mechanism, which provides for the provision of a sufficient level of managerial and financial autonomy to medical institutions.The change in the nature of financial relations imposes new requirements on the management of financial activities in health care institutions. The functional component of managerial activity is economic and analytical diagnostics, the application of which will ensure the adaptability of financial management methods and models to modern realities and the integration of the finances of health care institutions into the system of competitive market relations.Purpose. The purpose of the study is the development of theoretical provisions of economic-analytical diagnostics and the development of methodological approaches for its application in the management of financial activities of health care institutions in the conditions of transformational changes.Methods. Achieving the set goal is achieved by using general scientific, special and empirical methods of learning processes and phenomena. The methods of analysis and synthesis, comparison, and generalization are used to understand economic and analytical diagnostics in the management system; scientific abstraction, structural-logical and tabular methods for determining the methodology of economic-analytical diagnostics in modern health care institutions.Results. It has been proven that the mechanism of management activity of state institutions with elements of entrepreneurial structures, which are currently medical institutions, requires the use of modern economic and analytical methods and diagnostic models and their adaptation to the specifics of the activities of health care institutions. The analysis of the main approaches of scientists to the definition and understanding of economic-analytical diagnostics as a functional component of managing the financial activities of a health care institution was carried out, and it was determined that the essence of economic-analytical diagnostics of health care institutions should be the system of management activities regarding decision-making on the investment of financial and other resources to provide quality services that will ensure the efficiency and competitiveness of the health care institution.At the same time, the main tasks are defined: analysis of the financial activity of medical institutions, assessment of production capacities and resource base and means of their improvement, which will ensure the financial and economic stability and stability of medical institutions with the approval of market positions and/or exit from the crisis state.It is substantiated that the indicators of the efficiency and stability of the functioning of the health care institution should form an optimal management model of an expedient and justified system of financing and provision of financial resources and the efficiency of their spending.The use of integral methods and models that combine internal and external factors of the functioning of economic entities is proposed to carry out economic and analytical diagnostics and determine the capabilities of health care institutions. The main approaches to the SWOT analysis methodology with the possibility of its adaptation and application in the management of health care institutions were studied.Discussion. In order to carry out economic and analytical diagnostics regarding the determination of the capabilities of health care institutions, including financial ones, in addition to SWOT analysis, it is advisable to use other integral methods and models that combine internal and external factors of the functioning of economic entities in the field of medicine, which may be the subject of further research.</t>
+          <t>In the paper, a theoretical framework that combines the multidimensional conceptualization of dynamic capabilities (sensing, seizing, and reconfiguring) with two leadership styles (transactional and transformational) and two types of eco-innovation (incremental and radical) was developed and empirically tested. The purpose of this study is to answer the key question: how different leadership styles influence the potential of dynamic capabilities to generate ecological changes. The research examining the theoretical framework was quantitative and was based on a deliberately selection of the sample, which included 54 of the most evo-innovative Polish companies. The results indicate that transformational leadership moderates the positive relationship between seizing capability and both incremental and radical technological eco-innovation, whereas transactional leadership moderates the positive relationship between reconfiguring capability and both types of analyzed changes. This paper contributes to the development of the literature by integrating three theoretical concepts, showing the importance of a given leadership style as a factor enhancing the potential of dynamic capabilities for the development of technological eco-innovation. Moreover, the study may be a contribution to a broader discussion on the specifics of eco-innovative activity and its behavioral conditions.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4302029183</t>
+          <t>https://openalex.org/W2135076993</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1922/cdh_00110niciomhair06</t>
+          <t>https://doi.org/10.1002/pssb.200301818</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Iomhair et al. (2022)</t>
+          <t>Kashirina et al. (2003)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>The Greater Manchester Child Friendly Dental Practice Scheme: Using a Transformational Commissioning Approach to Align Paediatric Dental Service Provision with Childhood Oral Health Needs in Greater Manchester.</t>
+          <t>Correlation effects and Pekar bipolaron (arbitrary electron–phonon interaction)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>In response to the impact of the COVID-19 pandemic on access to already oversubscribed specialist paediatric dental services, a pilot of an enhanced primary care paediatric dental pathway, known as the Child Friendly Dental Practice (CFDP) scheme, was commissioned by the Greater Manchester Health and Social Care Partnership. Supported by a transformational commissioning approach, the ambition of the CFDP pilot was to manage or stabilise the oral health of high-need paediatric patients who had been referred to specialist dental services within Community or Hospital Dental Service settings, through timely access to primary care clinicians who were confident and experienced in treating children. The theory of change of the CFDP pilot proposed that rapid access to enhanced primary dental care would reduce the need for onward referral to specialist paediatric dental services, whilst also stabilising the oral health of children who require more complex management in specialist services. A formative evaluation of the phase one pilot implementation of the CFDP Scheme has demonstrated the potential of the CFDP Scheme to improve access to dental services for paediatric patients referred from their General Dental Practitioner. Comparison of waiting times between the CFDP pathway and the standard paediatric dental referral pathway have revealed substantially reduced waiting times to access care along the CFDP pathway, while less than 30% of those who attended CFDPs required onward referral to specialist paediatric dental services. Encouragingly, similar attendance and treatment completion rates were noted among patients from all levels of socio-economic deprivation, reducing concerns regarding the potential for service-based interventions to increase oral health inequalities. Following successful completion of the phase one pilot implementation and evaluation, the CFDP Scheme has now been rolled out across all localities in Greater Manchester as part of a second phase pilot implementation. Public Health Competencies; Equitable healthcare provision, Partnership working, Evidence-based public health, Systems thinking, Transformational commissioning, Healthcare evaluation.</t>
+          <t>Abstract The Buimistrov–Pekar method of canonical transformation was used to calculate the energies of the lowest singlet and triplet terms of bipolarons in crystals with ionic binding. An arbitrary electron–phonon interaction described by the Fröhlich Hamiltonian was considered. It was shown that, in the whole parametric range of electron–phonon interaction, the value of the free bipolaron ground state energy obtained by the Buimistrov–Pekar method is lower than all those found by Adamowski and Bednarek in the framework of direct variational approaches, and only slightly exceeds (relative error &amp;lt;0.3%) those obtained by Verbist, Peeters, and Devreese by integration over trajectories for α ≤ 7. The calculations have shown that any metastable triplet states corresponding to the lowest triplet term of a bipolaron are absent for all the parameters of the electron–phonon interaction, the results being in complete analogy with Hill's theorem about the absence of any bound excited states for an H − ion. Study of a wave function of more general form has demonstrated that a two‐center bipolaron is energetically less advantageous than a one‐center one for all the parameters of the electron–phonon interaction. Control calculations performed with the system of functions used in this paper have yielded 1.173 a.u. for the hydrogen molecule energy, which is in good agreement with the experimental value.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386001988</t>
+          <t>https://openalex.org/W2074300212</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.37535/101010120231</t>
+          <t>https://doi.org/10.1016/0017-9310(96)00081-6</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sukmana &amp; Komalawati (2023)</t>
+          <t>Tambour (1997)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Organizational Culture Transformation Work From Home (WFH) in Cross-View Generation</t>
+          <t>Theory of transient multicomponent transport coupling in three-dimensional stagnation flows</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>The COVID-19 pandemic that occurred in Indonesia from 2019 to 2022 gave birth to a new organizational culture in the form of work-from-home (WFH) activities to reduce public mobility and reduce the risk of transmission of the COVID-19 virus. After the COVID-19 pandemic, the WFH work culture is still applied in several institutions. This research aims to describe cross-generational views, namely those of the Baby Boomer Generation, Generation X, and Generations Y and Z, regarding the implementation of WFH work culture in the post-pandemic COVID-19 era associated with organizational culture transformation. This research uses a descriptive-qualitative approach through data collection methods such as interviews, observations, and literature studies. The results illustrate that generations have different views on the implementation of work-from-home culture in the post-pandemic COVID-19 era as seen from organizational communication through informative, regulative, persuasive, and integrative functions. The Baby Boomer Generation views the implementation of WFH in the post-pandemic era as an obstacle to organizational communication. Meanwhile, Generation X sees the implementation of WFH as a necessity that cannot be avoided. Although, in some ways, Generation X also still sees the need for face-to-face meetings, Generations Y and Z are the antithesis of the Baby Boomer Generation. Generations Y and Z see the implementation of WFH as not an obstacle to organizational communication.</t>
+          <t>A general field transformation for transient three-dimensional multicomponent energy and species equations is presented. Employing this transformation, transient multicomponent transport coupling effects in three-dimensional flows with surface injection cooling are studied. A new multicomponent transport coupling parameter is introduced and new results for the surface heat flux for various values (between 0 and 1) of this parameter are given. These values of the transport coupling parameter represent a wide range of transport properties of multicomponent mixtures. The present results demonstrate how a given final surface cooling efficiency can be obtained by choosing a variety of combinations of various values of the transport coupling parameter and injection rates. The present study also reveals an interesting behavior of local overshoot values in the transient relative contribution of the transport coupling effects to the surface heat flux. This behavior is explained here in terms of fluctuations in a multicomponent 'Transport-coupling Activity' number, which is sensitive to the differences in the characteristic rate of change of the local concentration gradients with respect to the local temperature gradient.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3093889870</t>
+          <t>https://openalex.org/W2958430348</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fbuil.2020.560116</t>
+          <t>https://doi.org/10.1111/1468-0424.12437</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Seilabi et al. (2020)</t>
+          <t>Fisher &amp; Funke (2019)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Promoting Autonomous Vehicles Using Travel Demand and Lane Management Strategies</t>
+          <t>The Age of Attraction: Age, Gender and the History of Modern Male Homosexuality</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A key challenge facing cities of today is the persistent and growing urban congestion that has significant adverse effects on economic productivity, emissions, driver frustration, and quality of life. The concept of smart cities, which can revolutionize the management of metropolitan transportation operations and infrastructure, shows great promise in mitigating this problem. Specifically, the automation and connectedness (A&amp;C) of smart city entities such as its infrastructure, services, and vehicles, can be helpful. In this regard, this paper focuses on the potential of autonomous vehicles (AVs) and AV infrastructure, particularly during prospective transition era where there will be mixed streams of AVs and human driven vehicles (HDVs). The paper considers two aspects of this potential: connectivity-enabled travel demand management and travel infrastructure supply through lane management. To demonstrate the opportunity associated with this potential, this paper first presents an AV-enabled tradable credit scheme (TCS) to manage travel demand. Here, the transportation authority distributes travel credits to travelers directly and instantaneously using the AV's A&amp;C features. Then, travelers use their A&amp;C features to pay these credits for travel at specific locations or times-of-day according to their choices of lane types and links. With regard to supply, the paper considers that the road network consists of two lane types: AV-dedicated, and mixed traffic lanes, and develops a scheme for Travel Demand and Lane Management Strategies in AV transition era (TLMAV). First, the paper models the expected travel choices based on the user equilibrium concepts, at different levels of AV market penetration. Then, the existence of the optimal solution in terms of link flows and the prevailing travel credit price is demonstrated. Then, the paper establishes the optimal TLMAV that minimize total travel time subject to user equity constraints. The results demonstrate the extent to which HDV users suffer increase in travel cost if equity is not considered in the model. The results also show how the transportation agency can use TLMAV to keep HDV travel costs to acceptable levels, particularly during early periods of the AV transition period.</t>
+          <t xml:space="preserve">In 1902, founder of the Berlin Institute for Sexual Science, Magnus Hirschfeld, developed a ‘psychobiological questionnaire’ to investigate human sexuality.1 The section labelled ‘sexual instinct’ [Geschlechtstrieb] asked: ‘What approximately are the highest and lowest limits in age of the people to whom you feel drawn, or is age of no importance to you?’2 Hirschfeld's interest in age as a driver of sexual attraction reflects broader sexual scientific attempts to map an erotics of age.3 This article explores how and why the relative age of sexual subjects was theorised by British and German sexual scientists in the late nineteenth and early twentieth centuries. It demonstrates that questions around age preoccupied sexual science and argues, more specifically, that constructions of male homosexuality were driven by anxieties about interactions between children or adolescents and older men.4 In so doing, the article reveals the interrelationship between sexological debates about homosexuality and scientific explorations of childhood sexuality and adolescent development. It shows that age needs to be acknowledged as a crucial category shaping sexual scientific debate and structuring understandings of modern homosexuality.5 As is well known, the erotic charge provided by age difference was central to many culturally prominent eighteenth- and nineteenth-century understandings of same-sex desire.6 European and American elites interpreted classical (predominately Ancient Greek) cultures as providing affirmative models of youthful male beauty and intimate attachment between older and younger men or boys.7 While precise differences in age were rarely specified, partners were separated on the basis of maturity into active (the erastes) and passive roles (the eromenos). Moreover, attraction to younger same-sex partners was not seen to exclude opposite-sex relationships: men who desired male youths could also be married to women. The influence of this material on individual identities can be found, for example, in sexological case studies or letters received by prominent Hellenic writers.8 At the same time, this idealisation of age-differentiated erotics reinforced existing associations between same-sex activity and the sexual misuse of younger people by older men.9 In response, some sexual scientists sought to tease apart age-structured and same-sex relationships. These authors defined the male homosexual through his exclusive inborn attraction to other consenting adults. This article shows that this influential construction of the modern homosexual as a discrete congenital type emerged in direct response to considerations around age.10 It also demonstrates that, notwithstanding the emergence of this model, questions about the impact of sexual encounters with older men on a younger person's sexual development continued to be debated within sexual science, creating dialogue between theorisations of homosexuality and concurrent studies of childhood sexuality.11 As such, investigations of male homosexuality continued to revolve around urgent questions about how and when same-sex desire emerged and what impact sexual experiences in youth had on later desires. These debates remained at the centre of early twentieth-century sexual science in Britain and Germany, complicating the inborn model and securing the centrality of age as a key category in modern articulations of sexuality. Throughout the nineteenth century, male same-sex acts were frequently associated with the sexual coercion of young people in news media and forensic, legal and literary writings. The assumption that same-sex relations were violations of youth fundamentally shaped sexual scientific investigations of same-sex desire and informed intersecting explorations of childhood and adolescent sexual development.12 Later nineteenth-century constructions of homosexuality were inextricably linked to concerns about childhood and adolescent sexuality in ways that scholars have not yet fully explored. There are two main reasons for this oversight: first, research on child sexual abuse has frequently side-lined male-male same-sex behaviour, concentrating on sexual violence involving girls.13 Second, histories of male homosexuality have often downplayed the prominence of young people in representations of male same-sex behaviour.14 From the mid-nineteenth century, sexual science, alongside other scientific, legal and literary discussions of childhood, constructed children as at risk of physical and moral molestation.15 Although there was no clearly defined concept of child sex abuse before the twentieth century, minors were increasingly seen as victims of defilement rather than as sexually precocious agents.16 Age of consent and sexual assault laws as well as child marriage legislation in Europe and European colonies were often focused on the vulnerabilities of girls.17 Yet, boys were also seen as requiring protection from (often male) predators.18 Age of consent and </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2040919102</t>
+          <t>https://openalex.org/W3165612848</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m403212200</t>
+          <t>https://doi.org/10.23951/1609-624x-2021-3-102-109</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Pangas et al. (2004)</t>
+          <t>Бутенко (2021)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Growth Differentiation Factor 9 Regulates Expression of the Bone Morphogenetic Protein Antagonist Gremlin</t>
+          <t>PAREMIOLOGICAL TRANSFORMATIONS IN FILM TRANSLATION (BASED ON THE RUSSIAN AND ENGLISH LANGUAGES)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. The bone morphogenetic proteins (BMPs) 1The abbreviations used are: BMP, bone morphogenetic protein; GDF, growth differentiation factor; TFG-β, transforming growth factor β; MOPS, 4-morpholinepropanesulfonic acid-formaldehyde; PGE2, prostaglandin E2; PMSG, pregnant mare serum gonadotropin; FBS, fetal bovine serum; RT, reverse transcription; hCG, human chorionic gonadotropin. and growth differentiation factors (GDFs) constitute the largest subgroup of the TGF-β superfamily of secreted growth factors (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar). Many of the ligands are expressed throughout embryogenesis as well as in adult tissues, reflecting the diversity of their biological activities. BMPs were first characterized as growth factors that cause de novo bone synthesis in non-skeletal sites (2Urist M.R. Science. 1965; 150: 893-899Google Scholar, 3Wozney J.M. Eur. J. Oral Sci. 1998; 106: 160-166Google Scholar). Subsequent work has demonstrated that they are multifunctional proteins involved in mesoderm formation, limb development, branching morphogenesis, germ cell development, cardiac development, and female fertility, among other functions (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar, 4Hogan B.L. Genes Dev. 1996; 10: 1580-1594Google Scholar). BMPs are secreted dimeric proteins that bind to membrane-bound receptor serine-threonine kinases (5Shi Y. Massague J. Cell. 2003; 113: 685-700Google Scholar). The type I and type II receptors, in turn, phosphorylate cytoplasmic SMAD proteins that act as transcription factors to regulated down-stream target genes (6Attisano L. Wrana J.L. Curr. Opin. Cell Biol. 2000; 12: 235-243Google Scholar). GDF9 is a TGF-β-related protein necessary for female fertility (7Dong J. Albertini D.F. Nishimori K. Kumar T.R. Lu N. Matzuk M.M. Nature. 1996; 383: 531-535Google Scholar, 8Elvin J.A. Yan C. Wang P. Nishimori K. Matzuk M.M. Mol. Endocrinol. 1999; 13: 1018-1034Google Scholar). Although Gdf9 knock-out mice arrest at the primary follicle stage, in vitro studies have shown that GDF9 signaling is also critical during ovulation. During ovulation, GDF9 induces cumulus cell expansion, an inflammation-like process that involves the mucification of the cells surrounding the oocyte. This process bind</t>
+          <t>Введение. Проведено лингвостилистическое исследование паремиологических трансформаций в кинотексте и рассмотрены возможности эквивалентной передачи трансформа в языке перевода. Актуальность исследования обусловлена широкой употребительностью пословичных единиц в художественном языке, в частности в кинодискурсе. Встраиваясь в матрицу кинодиалога, они становятся основой для последующих преобразований в высказываниях персонажей, создавая своей окказиональностью значительный экспрессивный потенциал. Цель. Поскольку свидетельством эффективной трансформации является узнаваемость исходной пословицы в трансформе, целью исследования стало выявление лингвостилистических средств, способствующих узнаванию, декодированию и адекватному зрительскому восприятию трансформа в языке принимающей культуры. Материал и методы. Материалом исследования послужили пословичные трансформы в высказываниях персонажей анимационного фильма “The Lion King. Hakuna Matata” («Король Лев. Акуна Матата»). Проводимое исследование имело теоретико-эмпирический характер, при котором анализ материала осуществлялся посредством структурного и описательного методов, позволяющих установить определенные лингвистические закономерности паремиологических трансформаций. Результаты и обсуждение. Анализируемый авторский трансформ является по сути сентенцией, афористическим, то есть лаконичным и поучительным, изречением. Сентенция воспроизводит типические черты народной пословицы: дидактичность, переосмысленность, имплицитность. Оживляя традиционную форму паремиологической единицы, она сохраняет семантико-стилистическое тождество с прецедентным текстом. Наряду со смысловой тождественностью с исходной пословицей, трансформ-сентенция демонстрирует и синтаксическую схожесть, при этом бесшовно включаясь в контекст диалога. Констатируемые проявления трансформационного процесса закономерны, так как трансформ создается по пословичным алгоритмам, что обеспечивает его соотносимость с исходной пословицей. Их имплицитная общность предопределяет и в некоторой степени ограничивает вариативность лексического содержания, а также синтаксической структуры трансформа. Это дедуктивное положение может стать небольшим научным вкладом в лингвостилистические исследования в области паремиологической трансформации. Оно эффективно работает в художественном языке, где обеспечивающая адекватное восприятие логическая структура традиционной пословицы способна производить дериваты, выделяющиеся своеобразием формы. Проводимым лингвостилистическим исследованием изучаются людические (игровые) ресурсы полисемии, применяемые в трансформе, и анализируются изыскиваемые возможности перевода каламбурных речений. Внесение модифицированной пословичной единицы – сентенции – в структуру кинодиалога рассматривается как прием стилистической цитации, функциональная ценность которой подтверждается уместностью употребления в определенной ситуации общения. Статус интертекстуального знака, приобретаемый сентенцией в высказывании персонажа, наделяет ее особой значимостью и способствует возникновению направленных ассоциаций, служит средством усиления аргументации и выражения оценки. Заключение. Трансформация паремиологических единиц – это результат художественно-обработанного прецедентного текста, где структурно-семантическая устойчивость обновляется окказиональным, но идентичным по содержанию выражением. Таким образом, модифицированные паремии не воспринимаются как безжизненные фольклорные штампы, они являются актуальными составляющими речевого узуса. Поскольку краткость входит одним из основных компонентов в понятие «пословица», ее семантико-стилистическому деривату также свойственны смысловая емкость и синтаксическая сжатость. Подобные формы способствуют созданию языковой компрессии, необходимой в субтитровании, наиболее востребованном виде киноперевода. Этот фактор подтверждает как практическую значимость исследования, так и его актуальность для киноиндустрии. Introduction. The linguistic research analyzes paremiological transformations in the film text and stud-ies the possibilities of their equivalent translation in the host culture. The relevance of the study is due to the wide use of proverbial units in the artistic language and namely in film discourse. Embedded in the matrix of the film dialogue, they become a basis for subsequent transformations in characters’ speech, creating a significant expressive potential because of their occasional character. Aim and objectives. Since the recognition of the original proverb in the modified version is the proof of an effective transformation, the aim of the study is to identify the linguistic means that contribute to recognition, decoding and adequate perception of the transform in the language of the host culture. Material and methods. The research is based on the proverbial transforms in the characters’ utterances of the animated film “The Lion King. Hakuna Matata”. Being of a theoretical-empirical nature, the lingua-stylistic study required the use of the struc</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3007907811</t>
+          <t>https://openalex.org/W623916810</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/access.2020.2976767</t>
+          <t>https://doi.org/10.5860/choice.37-5785</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Min et al. (2020)</t>
+          <t>NA (2000)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Non-Rigid Registration for Infrared and Visible Images via Gaussian Weighted Shape Context and Enhanced Affine Transformation</t>
+          <t>The Spanish economy in the new Europe</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Image registration is a prerequisite for image fusion from multiple modalities, such as infrared (IR) and visible (VIS) images. Although there have been many various methods of image registration, non-rigid registration for IR and VIS images is still challenging due to large differences between IR and VIS images. In this work, a point feature-based method is proposed to improve the performance on non-rigid IR and VIS image registration. Firstly, a feature descriptor - Gaussian weighted shape context (GWSC) - is improved from shape context (SC) to fast extract matching point pairs from edge maps in IR and VIS images. With the set of matching point pairs, a Gaussian-field-based objective function is established to measure the distance between IR and VIS images. Then, the enhanced affine transformation (EAT) model is proposed to generalize affine model from linear to non-linear case and describe the regularity of global deformation between IR and VIS images. At last, the derivative of the distance measure is expressed with respect to the EAT model and thus, the optimal parameters are estimated by using the quasi-Newton method. The qualitative and quantitative comparisons demonstrate that the proposed method (GWSC-EAT) can be successfully applied to non-rigid registration of IR and VIS images and moreover, it is superior to the state-of-the-art methods on the accuracy and speed of non-rigid registration.</t>
+          <t>List of Tables and Figures Foreword by Luis Angel Rojo Preface List of Abbreviations Introduction: Changes in the International Economic Setting PART ONE: COMPARATIVE ANALYSIS Growth and Structural Changes Productivity and its Determinants Activity, Employment and Unemployment Costs, Prices and Competitiveness Public Finances and Fiscal Policy External Sector Nominal and Real Convergence PART TWO: EVALUATION OF THE INTEGRATION PROCESS Trade Relations Direct Investment Flows Migratory Flows The Community Budget and its Functions Unification of Monetary Policy in Europe Epilogue: Prospects and Economic Strategies for the Spain of the Euro Appendix I: Chronology of the European Integration Process Appendix II: Methodological Problems of International Comparisons Index</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2792728668</t>
+          <t>https://openalex.org/W2059228813</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/14780887.2018.1456588</t>
+          <t>https://doi.org/10.1080/016128498249222</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Sadlier (2018)</t>
+          <t>Doswell et al. (1998)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Dancing to a resistant imaginary: reconfiguring female (a)sexualities through Zorbitality</t>
+          <t>SELF-IMAGE AND SELF-ESTEEM IN AFRICAN-AMERICAN PRETEEN GIRLS: IMPLICATIONS FOR MENTAL HEALTH</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>In the twenty-first century, asexuality has become synonymous with sexual orientation, being described as a 'lack' of sexual attraction.At this juncture, a study of female (a)sexualities is long overdue.Firstly, very little has been written on the topic.Secondly, with the rise of a postfeminist culture, women are often represented as desiring their own objectification, whilst the narratives of asexual-identified women are reduced to static narratives of frigidity or spiritual devotion.In response, this paper develops the concept of Zorbitality.Zorbitality is a resistant imaginary, which seeks to reconfigure female (a)sexualities through collective ecstatic motion.It harnesses the historical transformation and cultural hybridity of Afro-diasporic rhythms, to interrogate the Western thought systems that constrain women's ecstatic movement.The paper draws on two methodologies: Deleuzian feminist cartographies and collective biography.These methodologies together speak to a posthuman concern with reaching an enhanced sense of the collective, through a focus on the affective intensity of each moment.Two dance narratives will frame the analysis: Stravinsky's (1913) ballet, The Rite of Spring, where a sacrificial 'virgin' dances herself to death, and West African Yoruba dance, characterised by solo dance within a collective.These narratives will interweave in the memory of a woman called Martha, in which her solo dance within a collective evokes the uncreolised African body and enables her to experience an ethical opening to human and non-human others.</t>
+          <t>Current research suggests that pubertal development is occurring earlier in African-American preteen girls in response to familial contextual factors, which may make them vulnerable to low self-image and self-esteem dissatisfaction. This lowering in self-image and self-esteem may contribute to the early initiation of sexual behaviors, putting these girls at risk for pregnancy and sexually transmitted diseases. These potential risks place these girls in need of prepubertal health promotion, yet preadolescents are not frequently a focus of nursing care delivery except when summer camp and back-to-school physicals are performed. This article presents an in-depth overview of selected literature on self-esteem, discusses findings on self-image and self-esteem from a pilot study on pubertal influences on accelerated sexual behavior, and proposes health promotion strategies for pre-and peripubertal girls to promote positive mental health outcomes. More focused attention is needed on health promotion targeting the developmental transition health needs of prepubertal girls. Targeted health promotion activities may foster healthier pre-and peripubertal girls' perceptions of the meaning of their pubertal physical changes and stronger self-image and self-esteem. The goal of these health promotion activities should be to foster continuity of positive self-image and self-esteem among preteen girls, which is essential to prevent initiation of premature for-age risk of problem behavior, such as early coitus.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4229850158</t>
+          <t>https://openalex.org/W4317941081</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1287/opre.1120.1145</t>
+          <t>https://doi.org/10.35774/visnyk2022.04.028</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>NA (2012)</t>
+          <t>Melnyk &amp; Zhukevych (2023)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>In This Issue</t>
+          <t>Economic and analytical diagnostics in the financial activity management system of a modern health care institution</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Chapter 13 of the Old Testament's Book of Numbers begins, “And the Lord spoke unto Moses, saying: ‘Send thou men, that they may spy out the land of Canaan.’” Although intelligence operations have become more sophisticated since Moses' time, the basic steps remain the same: collect information and analyze it with the goal of providing reasoned assessments that reduce uncertainty and help political or military leaders make better decisions. The topic of intelligence is potentially of special interest to operations researchers for two reasons. First, intelligence is a product resulting from several distinct operations, and as with all products, there are better and worse ways to produce it, which leads to a natural focus on research. Second, there are several opportunities for the application of tools from the broad sweep of operations research methods to specific intelligence questions; this set of problems can be construed as intelligence operations research. “Intelligence Operations Research” is the archival record of Kaplan's Philip McCord Morse Lecture on this topic. Consumer tax preparation applications comprise a profitable niche in software development. Internal Revenue Service efforts to achieve an 80% electronic filing rate for major returns by 2013 has bolstered the growth in tax preparation software. Companies producing tax preparation software must process thousands of state and federal tax forms and release their product on time to protect their market share. “A Hierarchical Framework for Organizing a Software Development Process,” by F. Iravani, S. Dasu, and R. Ahmadi proposes hierarchical optimization models for organizing a complex tax software development process at a leading U.S. software company. The models assign tax forms to groups to control the process more effectively and staff the groups such that they complete processing the assigned tax forms by the release deadline. Implementing the hierarchical models helped the company reduce overtime hours by 31%, reduce total workforce cost by 13%, and release the tax software on time. When a new, more critical patient arrives in a hospital's intensive care unit (ICU) and no bed is available, physicians must discharge a current patient. The discharged patient may require readmission to the ICU, thus straining the already congested resources. Currently, no objective (severity-based using strict physiologic criteria) standards for ICU admission and discharge exist. In “Optimizing Intensive Care Unit Discharge Decisions with Patient Readmissions,” C. W. Chan, V. F. Farias, N. Bambos, and G. J. Escobar provide a systematic and evidence-based discharge strategy for ICU patients when incoming demand necessitates the discharge of a current patient. This work establishes a methodological framework to examine the performance of an index policy that accounts for patient readmissions when making ICU discharge decisions. The major implication of this work is that, in the future, discharge strategies could be linked to objective physiologic criteria to improve patient outcomes and increase efficiency. Flooding can cause significant loss of life and economic damage. The 1953 floods in the southwestern parts of the Netherlands demonstrated the flooding risks to that country. Soon after 1953, Van Dantzig started the cost-benefit analysis of the dike height optimization problem, which looks for the optimal balance between investing in dikes (costs) and reducing flood risk (benefits). In “Safe Dike Heights at Minimal Costs: The Nonhomogeneous Case,” R. Brekelmans, D. den Hertog, K. Roos, and C. Eijgenraam extend Van Dantzig's model and address the fundamental questions of when and how much to invest where. The authors formulate this problem as a mixed-integer nonlinear programming (MINLP) model and combine state-of-the-art solvers with techniques that exploit the problem structure. Dutch government agencies use the model to analyze the main dike rings in the Netherlands and to propose new safety standards to incorporate into the Dutch Water Act. Probabilistically constrained optimization problems with discretely distributed random variables are computationally challenging. In “Pattern-Based Modeling and Solution of Probabilistically Constrained Optimization Problems,” M. Lejeune develops a combinatorial pattern-based framework to model such problems. The method scales remarkably well and solves exactly and very fast stochastic problems where uncertainty is represented by an extremely large (up to 50,000) number of scenarios. This is a key and distinctive feature of the method. It permits reformulating the stochastic problems as mixed-integer ones in which the number of binary variables is not an increasing function of the number of scenarios used to characterize the uncertainty. In the current financial crisis, central banks worldwide have saved major banks from going into default. Companies and banks are closely linked in today's global economy, and negative ev</t>
+          <t>Introduction. The concept of the development of the system of financial support in the field of health care outlines the need to introduce a new financial mechanism, which provides for the provision of a sufficient level of managerial and financial autonomy to medical institutions.The change in the nature of financial relations imposes new requirements on the management of financial activities in health care institutions. The functional component of managerial activity is economic and analytical diagnostics, the application of which will ensure the adaptability of financial management methods and models to modern realities and the integration of the finances of health care institutions into the system of competitive market relations.Purpose. The purpose of the study is the development of theoretical provisions of economic-analytical diagnostics and the development of methodological approaches for its application in the management of financial activities of health care institutions in the conditions of transformational changes.Methods. Achieving the set goal is achieved by using general scientific, special and empirical methods of learning processes and phenomena. The methods of analysis and synthesis, comparison, and generalization are used to understand economic and analytical diagnostics in the management system; scientific abstraction, structural-logical and tabular methods for determining the methodology of economic-analytical diagnostics in modern health care institutions.Results. It has been proven that the mechanism of management activity of state institutions with elements of entrepreneurial structures, which are currently medical institutions, requires the use of modern economic and analytical methods and diagnostic models and their adaptation to the specifics of the activities of health care institutions. The analysis of the main approaches of scientists to the definition and understanding of economic-analytical diagnostics as a functional component of managing the financial activities of a health care institution was carried out, and it was determined that the essence of economic-analytical diagnostics of health care institutions should be the system of management activities regarding decision-making on the investment of financial and other resources to provide quality services that will ensure the efficiency and competitiveness of the health care institution.At the same time, the main tasks are defined: analysis of the financial activity of medical institutions, assessment of production capacities and resource base and means of their improvement, which will ensure the financial and economic stability and stability of medical institutions with the approval of market positions and/or exit from the crisis state.It is substantiated that the indicators of the efficiency and stability of the functioning of the health care institution should form an optimal management model of an expedient and justified system of financing and provision of financial resources and the efficiency of their spending.The use of integral methods and models that combine internal and external factors of the functioning of economic entities is proposed to carry out economic and analytical diagnostics and determine the capabilities of health care institutions. The main approaches to the SWOT analysis methodology with the possibility of its adaptation and application in the management of health care institutions were studied.Discussion. In order to carry out economic and analytical diagnostics regarding the determination of the capabilities of health care institutions, including financial ones, in addition to SWOT analysis, it is advisable to use other integral methods and models that combine internal and external factors of the functioning of economic entities in the field of medicine, which may be the subject of further research.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2045459554</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0147-619x(85)90054-x</t>
+          <t>https://openalex.org/W2795546746</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cohen et al. (1985)</t>
+          <t>Lacroix &amp; Tamtchouong (2018)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>The integrated and free states of Streptomyces griseus plasmid pSG1</t>
+          <t>Dynamic Causal Effects of Post-Migration Schooling on Labour Market Transitions</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A 16.6-kb plasmid—pSG1—was isolated from Streptomyces griseus following transformation of protoplasts with unrelated plasmids. Southern hybridization experiments with radioactive probes prepared from pSG1 fragments and immobilized S. griseus DNA fragments indicated that the plasmid was present in the progenitor strain, in an integrated state. In the pSG1+ isolates plasmid sequences existed both as integrated sequences and as free plasmids. The integrated state of maintenance persisted in strains which have been cured of the free plasmid. The junction site on the plasmid was located on a 0.5-kb EcoRI-SalI fragment. The chromosomal integration site was demonstrated to be the same in all strains derived from S. griseus NRRL3851. The occurrence of both states of plasmid maintenance in the same clones indicates that an integrated pSG1 sequence does not interfere with free plasmid replication and partition. It suggests that the establishment of the free state may involve a replicative excision of pSG1 from the S. griseus chromosome.</t>
+          <t>Immigrants often experience difficulties integrating the local labor market. In Canada, the government of Quebec implemented a program back in 1996 that explicitly selected highly qualified workers (Bachelors', Masters' or PhD's). This paper investigates the extent to which the return to foreign-acquired human capital is different from the education acquired in Quebec. Specifically, we seek to estimate the benefits of post-migration education over foreign-education on the transitions between qualified and unqualified jobs and unemployment by means of a multiple-spells and multiple-states model. Our results indicate that immigrants originating from well-off countries have no need to further invest in domestic education. On the other hand, immigrants from poorer countries, despite being highly qualified, benefit greatly from such training in the long run as it eases their transitions into qualified and unqualified jobs and out of unemployment. Our results also indicate that selection into domestic education needs to be accounted for to avoid significant selection problems.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2601717714</t>
+          <t>https://openalex.org/W4302029183</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/21598282.2017.1287584</t>
+          <t>https://doi.org/10.1922/cdh_00110niciomhair06</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Jefferies (2017)</t>
+          <t>Iomhair et al. (2022)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>China’s Challenge to the West: Possibility and Reality</t>
+          <t>The Greater Manchester Child Friendly Dental Practice Scheme: Using a Transformational Commissioning Approach to Align Paediatric Dental Service Provision with Childhood Oral Health Needs in Greater Manchester.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Leo Panitch and Sam Gindin’s article “The Integration of China into Global Capitalism” argues that China will follow the pattern of post-war Japan to become a supplemental, junior partner in supporting US hegemony. They claim that due to the close trade and financial ties between the United States and China, there is no question of China challenging America’s dominance of the global system (Panitch and Gindin 2013). This article will critically examine the premises of this claim, taking account of the post-war history of Japan; the measure of transition to market forms in China’s economy; the role of trade; China’s overall level of development; and the growth of the country’s domestic corporations. The article focuses particularly on the level of China’s domestic technology measured through Patents in Force (PiFs). It argues against Panitch and Gindin that China is poised to challenge Western dominance of the world economy.</t>
+          <t>In response to the impact of the COVID-19 pandemic on access to already oversubscribed specialist paediatric dental services, a pilot of an enhanced primary care paediatric dental pathway, known as the Child Friendly Dental Practice (CFDP) scheme, was commissioned by the Greater Manchester Health and Social Care Partnership. Supported by a transformational commissioning approach, the ambition of the CFDP pilot was to manage or stabilise the oral health of high-need paediatric patients who had been referred to specialist dental services within Community or Hospital Dental Service settings, through timely access to primary care clinicians who were confident and experienced in treating children. The theory of change of the CFDP pilot proposed that rapid access to enhanced primary dental care would reduce the need for onward referral to specialist paediatric dental services, whilst also stabilising the oral health of children who require more complex management in specialist services. A formative evaluation of the phase one pilot implementation of the CFDP Scheme has demonstrated the potential of the CFDP Scheme to improve access to dental services for paediatric patients referred from their General Dental Practitioner. Comparison of waiting times between the CFDP pathway and the standard paediatric dental referral pathway have revealed substantially reduced waiting times to access care along the CFDP pathway, while less than 30% of those who attended CFDPs required onward referral to specialist paediatric dental services. Encouragingly, similar attendance and treatment completion rates were noted among patients from all levels of socio-economic deprivation, reducing concerns regarding the potential for service-based interventions to increase oral health inequalities. Following successful completion of the phase one pilot implementation and evaluation, the CFDP Scheme has now been rolled out across all localities in Greater Manchester as part of a second phase pilot implementation. Public Health Competencies; Equitable healthcare provision, Partnership working, Evidence-based public health, Systems thinking, Transformational commissioning, Healthcare evaluation.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387302972</t>
+          <t>https://openalex.org/W1878173133</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://doi.org/10.24833/2541-8831-2023-3-27-104-123</t>
+          <t>https://doi.org/10.48550/arxiv.0812.3778</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Romanin (2023)</t>
+          <t>De et al. (2008)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Hic Sunt Dracones: Foreign Space in the English and Russian Worldview as Reflected by the Pejorative Toponymy of the English and Russian Languages</t>
+          <t>Transition from mode-locked periodic orbit to chaos in a 2D piecewise smooth non-invertible map</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>The article examines the perception of the foreign space in the English and Russian native speakers’ worldviews based on the pejorative names of foreign countries and cities. Englishlanguage and Russian-language Internet sites were used as the source of data for the research, since this environment is especially favorable for the existence and collection of language material of this kind due to the online disinhibition effect. Based on the analysis of the inner form of the word and the stadial model of the Us—Them dichotomy with a gradual transition from the biological to the cultural, proposed by V. G. Lysenko, an attempt is made to derive the main patterns of making derogatory toponyms, and then to compare the characteristics that foreign lands receive within the English and Russian xenophobic discourse, and, as far as possible, to build a holistic image of the concept of foreign space in the English and Russian collective worldview. As a result of the study, a large number of negatively marked toponyms were found in the English and Russian languages. They show clearly similar features both in the formal peculiarities of word formation and in semantics, however, some specificities are also found, which makes it possible to deduce similarities and differences in the English and Russian perception of the concept of foreign space. In general, a significant similarity between English and Russian pejorative names of places is revealed: in both worldviews, different topoi appear as an ugly, unpleasant place inhabited by people (and sometimes not quite people) demonstrating weird, abnormal eating habits and perverted sexual preferences, where the space itself is distorted and defective.</t>
+          <t>In this work we report a new route to chaos from a resonance torus in a piecewise smooth non-invertible map of the plane into itself. The closed invariant curve defining the resonance torus is formed by the union of unstable manifolds of saddle cycle and the points of stable cycle and saddle cycle. We have found that a cusp torus cannot develop before the onset of chaos, though the loop torus appears. The destruction of the two-dimensional torus occurs through homoclinic bifurcation in the presence of an infinite number of loops on the invariant curve. We show that owing to the non-invertible nature of the map, the structure of the basin of attraction changes from simply connected to a nonconnected one. We also describe how the mechanism of transition to chaos differs from the scenario of appearance of chaos in invertible maps as well as in smooth non-invertible maps.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3172847412</t>
+          <t>https://openalex.org/W2101569644</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/j.1567-1364.2007.00280.x</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Olazabal (2020)</t>
+          <t>Steinborn et al. (2007)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>El reto climático en las ciudades</t>
+          <t>A novel vector element providing multicopy vector integration in&lt;i&gt;Arxula adeninivorans&lt;/i&gt;</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>espanolEl reto climatico es especialmente importante en las ciudades y asi lo trasladan la Nueva Agenda Urbana y los objetivos de desarrollo sostenible. En este capitulo se discuten las claves locales del reto climatico con una doble perspectiva: las ciudades como parte del problema y como sistemas altamente vulnerables al cambio climatico. Se describen estos retos a traves de un repaso de las tendencias urbanas y sus consecuencias en terminos de emisiones y riesgos climaticos. Con el objetivo de establecer las pautas para una transformacion urbana justa, sostenible y resiliente, se discuten los principales tipos de medidas climaticas, los condicionantes intrinsecos urbanos que explican la necesidad de pensar desde lo local, y los principios clave de la accion climatica: flexibilidad, integracion y transdisciplinariedad. El capitulo termina con un repaso al progreso de la accion climatica local y concluye aludiendo a la co-responsabilidad de los gobiernos locales, de las empresas, ciudadanos y usuarios de las urbes, en el transito hacia modelos urbanos bajos en carbono y resilientes al cambio climatico. EnglishThe climate challenge is especially important in cities as reflected in the New Urban Agenda and the Sustainable Development Goals. This chapter discusses the key aspects of the urban climate challenge with a double perspective: cities as the source of the problem and as systems highly vulnerable to climate change. These challenges are described through a review of urban trends and their consequences in terms of emissions and climate risks. In order to establish guidelines for a just, sustainable and resilient urban transformation, the chapter discusses the main types of climate action, the inherent urban conditioning factors that explain the need to think locally, and, eventually, the key principles of climate action: flexibility, integration and transdisciplinarity. The chapter ends with a review of the progress of local climate action globally and concludes by calling to the co-responsibility of local governments, companies, citizens and users of cities, in the transition towards low-carbon urban models which are resilient to climate change.</t>
+          <t>An Arxula adeninivorans vector element has been identified that provides multicopy integration in an atrp1 host strain. The element consists of the ATRP1 selection marker fused to a newly generated truncated ALEU2 promoter of 53 bp. In the described example eight copies of an amyA expression vector encoding heterologous alpha-amylase from Bacillus amyloliquefaciens are integrated in the genome of the recombinant strain instead of a single copy observed when using the ATRP1 element with the complete promoter. The high copy number results in strains of superior productivity for a secreted recombinant alpha-amylase. The vector design enables the integration of a small vector fragment that consists of yeast DNA only providing high transformation frequencies and a high mitotic stability.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2117264800</t>
+          <t>https://openalex.org/W3093889870</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00032719408006370</t>
+          <t>https://doi.org/10.3389/fbuil.2020.560116</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Iskander et al. (1994)</t>
+          <t>Seilabi et al. (2020)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Kinetics and Determination of Some Transition Metals with Peri-Dihydroxynaphthindenone</t>
+          <t>Promoting Autonomous Vehicles Using Travel Demand and Lane Management Strategies</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Abstract A simple sensitive and selective spectrophotometric method has been developed for determination of some transition metal ions. It is based on the reaction of the metal ions with excess peri-dihydroxynaphthindenone in 80% v/v ethyl alcohol-water mixture at 30°C. The colored products obtained display maximum absorption band at 560–590 nm depending upon the type of transition metal ion used, and E1 cm 1% in the range 70–480. Under the optimum conditions results with an average recovery of 96%, (mean standard deviation ±3% are obtained for 6 different transition metal ions without any significant interference from Li+, Na+, K+, Cs+, Rb+, Ba2+, Sr2+, Ni2+, Bi3+, Co2+, Mn+2, Cd+2 and Al+3. Kinetic data reveal that the reaction proceeds via a second order route (first order with respect to either the metal cation or ligand). The activation parameters and a suggested mechanism have been presented, and the nature of bonding in the solid chelate products has been verified.</t>
+          <t>A key challenge facing cities of today is the persistent and growing urban congestion that has significant adverse effects on economic productivity, emissions, driver frustration, and quality of life. The concept of smart cities, which can revolutionize the management of metropolitan transportation operations and infrastructure, shows great promise in mitigating this problem. Specifically, the automation and connectedness (A&amp;C) of smart city entities such as its infrastructure, services, and vehicles, can be helpful. In this regard, this paper focuses on the potential of autonomous vehicles (AVs) and AV infrastructure, particularly during prospective transition era where there will be mixed streams of AVs and human driven vehicles (HDVs). The paper considers two aspects of this potential: connectivity-enabled travel demand management and travel infrastructure supply through lane management. To demonstrate the opportunity associated with this potential, this paper first presents an AV-enabled tradable credit scheme (TCS) to manage travel demand. Here, the transportation authority distributes travel credits to travelers directly and instantaneously using the AV's A&amp;C features. Then, travelers use their A&amp;C features to pay these credits for travel at specific locations or times-of-day according to their choices of lane types and links. With regard to supply, the paper considers that the road network consists of two lane types: AV-dedicated, and mixed traffic lanes, and develops a scheme for Travel Demand and Lane Management Strategies in AV transition era (TLMAV). First, the paper models the expected travel choices based on the user equilibrium concepts, at different levels of AV market penetration. Then, the existence of the optimal solution in terms of link flows and the prevailing travel credit price is demonstrated. Then, the paper establishes the optimal TLMAV that minimize total travel time subject to user equity constraints. The results demonstrate the extent to which HDV users suffer increase in travel cost if equity is not considered in the model. The results also show how the transportation agency can use TLMAV to keep HDV travel costs to acceptable levels, particularly during early periods of the AV transition period.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2033762435</t>
+          <t>https://openalex.org/W2040919102</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/tc.1986.1676737</t>
+          <t>https://doi.org/10.1074/jbc.m403212200</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Reischer &amp; Simovici (1986)</t>
+          <t>Pangas et al. (2004)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Iteration Properties of Multivalued Switching Functions</t>
+          <t>Growth Differentiation Factor 9 Regulates Expression of the Bone Morphogenetic Protein Antagonist Gremlin</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>The purpose of this correspondence is to survey the literature concerning the iterative properties of multivalued switching functions. These properties are important for the synthesis of switching circuits by cascades of simpler elements. Our presentation evolves around the graphs of transformations of finite sets. We discuss such topics as limitations of the computational capabilities of cascades, the existence of roots of given functions with respect to iteration powers, etc.</t>
+          <t>Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. The bone morphogenetic proteins (BMPs) 1The abbreviations used are: BMP, bone morphogenetic protein; GDF, growth differentiation factor; TFG-β, transforming growth factor β; MOPS, 4-morpholinepropanesulfonic acid-formaldehyde; PGE2, prostaglandin E2; PMSG, pregnant mare serum gonadotropin; FBS, fetal bovine serum; RT, reverse transcription; hCG, human chorionic gonadotropin. and growth differentiation factors (GDFs) constitute the largest subgroup of the TGF-β superfamily of secreted growth factors (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar). Many of the ligands are expressed throughout embryogenesis as well as in adult tissues, reflecting the diversity of their biological activities. BMPs were first characterized as growth factors that cause de novo bone synthesis in non-skeletal sites (2Urist M.R. Science. 1965; 150: 893-899Google Scholar, 3Wozney J.M. Eur. J. Oral Sci. 1998; 106: 160-166Google Scholar). Subsequent work has demonstrated that they are multifunctional proteins involved in mesoderm formation, limb development, branching morphogenesis, germ cell development, cardiac development, and female fertility, among other functions (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar, 4Hogan B.L. Genes Dev. 1996; 10: 1580-1594Google Scholar). BMPs are secreted dimeric proteins that bind to membrane-bound receptor serine-threonine kinases (5Shi Y. Massague J. Cell. 2003; 113: 685-700Google Scholar). The type I and type II receptors, in turn, phosphorylate cytoplasmic SMAD proteins that act as transcription factors to regulated down-stream target genes (6Attisano L. Wrana J.L. Curr. Opin. Cell Biol. 2000; 12: 235-243Google Scholar). GDF9 is a TGF-β-related protein necessary for female fertility (7Dong J. Albertini D.F. Nishimori K. Kumar T.R. Lu N. Matzuk M.M. Nature. 1996; 383: 531-535Google Scholar, 8Elvin J.A. Yan C. Wang P. Nishimori K. Matzuk M.M. Mol. Endocrinol. 1999; 13: 1018-1034Google Scholar). Although Gdf9 knock-out mice arrest at the primary follicle stage, in vitro studies have shown that GDF9 signaling is also critical during ovulation. During ovulation, GDF9 induces cumulus cell expansion, an inflammation-like process that involves the mucification of the cells surrounding the oocyte. This process bind</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4235671025</t>
+          <t>https://openalex.org/W2792728668</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1149/ma2016-01/37/1874</t>
+          <t>https://doi.org/10.1080/14780887.2018.1456588</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Liu &amp; Paddison (2016)</t>
+          <t>Sadlier (2018)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Quantitative Comparison of Atomistic Molecular Dynamics Simulations and X-Ray Scattering of Polymerized Ionic Liquids</t>
+          <t>Dancing to a resistant imaginary: reconfiguring female (a)sexualities through Zorbitality</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Polymerized ionic liquids (polyILs) are touted as the ideal solid-state electrolyte materials for electrochemical devices due to enhanced mechanical characteristics of polymer nature and unique physico-chemical properties inherent from ionic liquids. PolyILs offer great flexibility in designing the task specific media through judicious choosing component cations, anions and polymer structures for a wide range of energy conversion and storage applications, such as dye-sensitized solar cells, lithium ion rechargeable batteries, and alkaline fuel cells. While polyILs enjoy many favorable properties such as low flammability, high thermal/chemical/electrochemical stability, and mechanical strength, they inevitably suffer from the retarded ionic conductivity, one of the detrimental shortcomings in electrochemical applications. PolyILs usually have elevated glass transition temperature Tg and subsequently several orders of magnitude decrease in ionic conductivity with respect to their molecular IL counterparts. Most of previous research involve in finding the optimal polyILs to achieve the maximum accessible ionic conductivity. It is generally accepted that ionic conductivity of polyILs depends on the complex correlations between chemical nature of polymer backbone and counter-ions, glass transition temperature, mesophase morphology, temperature and pressure. Therefore, a molecular-level understanding of the relationship between chemical structure, morphology and ion transport will promote the rational design of polyILs for electrochemical applications. In present work, we use atomistic molecular dynamics simulations to investigate structural properties of model system poly(1-n-alkyl-3vinylimidzolium bistrifluoromethylsulfonylimide) poly(nVim Tf2N) . X-ray scattering measurement on structural properties of polyILs is elusive. The detailed simulations provide a direct quantitative picture for understanding the structure/morphology of polyILs on the atomic scale. In particular, we present the first direct comparison of structure factors obtained from X-ray scattering and simulations for various alkyl chain length of poly(nVim Tf2N). Excellent agreement is found between the experimental and simulated scattering profiles in terms of peak position and shape, which provides proper validation of our simulation methods. All characteristic distances (backbone-to-backbone, anion-to-anion and pendant-to-pendant) are well reproduced. As the alkyl chain length increases, the backbone-to-backbone peak becomes stronger, moving to larger distance, the anion-to-anion separation slightly increases with vanishing intensity, and the pendant-to-pendant peak hardly changes. This quantitative comparison of X-ray scattering and atomistic simulations is expected to lead to a molecular-level predictive understanding in structure and morphology of polyILs and paves a substantive step towards the rational design of future polyILs for electrochemical devices.</t>
+          <t>In the twenty-first century, asexuality has become synonymous with sexual orientation, being described as a 'lack' of sexual attraction.At this juncture, a study of female (a)sexualities is long overdue.Firstly, very little has been written on the topic.Secondly, with the rise of a postfeminist culture, women are often represented as desiring their own objectification, whilst the narratives of asexual-identified women are reduced to static narratives of frigidity or spiritual devotion.In response, this paper develops the concept of Zorbitality.Zorbitality is a resistant imaginary, which seeks to reconfigure female (a)sexualities through collective ecstatic motion.It harnesses the historical transformation and cultural hybridity of Afro-diasporic rhythms, to interrogate the Western thought systems that constrain women's ecstatic movement.The paper draws on two methodologies: Deleuzian feminist cartographies and collective biography.These methodologies together speak to a posthuman concern with reaching an enhanced sense of the collective, through a focus on the affective intensity of each moment.Two dance narratives will frame the analysis: Stravinsky's (1913) ballet, The Rite of Spring, where a sacrificial 'virgin' dances herself to death, and West African Yoruba dance, characterised by solo dance within a collective.These narratives will interweave in the memory of a woman called Martha, in which her solo dance within a collective evokes the uncreolised African body and enables her to experience an ethical opening to human and non-human others.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1587591531</t>
+          <t>https://openalex.org/W4229850158</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-642-23851-2_36</t>
+          <t>https://doi.org/10.1287/opre.1120.1145</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Bardis et al. (2011)</t>
+          <t>NA (2012)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>A Formal Framework for Declarative Scene Description Transformation into Geometric Constraints</t>
+          <t>In This Issue</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>The disambiguation of a declarative visual model is a crucial step towards the generation of its geometric equivalents. Any abstract description has to be ultimately translated into a concrete set of values or relevant constraints, solely relying on quantifiable model characteristics. To this day, there is no general consensus with respect to a unified, formally defined model for this disambiguation process or the desired quantified outcome. The current work sets the basis for a uniform transformation process and the corresponding formal constraint model, inclusive of a number of already existing approaches for declarative modelling. The applicability of the proposed framework is exhibited in an existing declarative modelling environment, explicitly demonstrating its implementation in the specific context.</t>
+          <t>Chapter 13 of the Old Testament's Book of Numbers begins, “And the Lord spoke unto Moses, saying: ‘Send thou men, that they may spy out the land of Canaan.’” Although intelligence operations have become more sophisticated since Moses' time, the basic steps remain the same: collect information and analyze it with the goal of providing reasoned assessments that reduce uncertainty and help political or military leaders make better decisions. The topic of intelligence is potentially of special interest to operations researchers for two reasons. First, intelligence is a product resulting from several distinct operations, and as with all products, there are better and worse ways to produce it, which leads to a natural focus on research. Second, there are several opportunities for the application of tools from the broad sweep of operations research methods to specific intelligence questions; this set of problems can be construed as intelligence operations research. “Intelligence Operations Research” is the archival record of Kaplan's Philip McCord Morse Lecture on this topic. Consumer tax preparation applications comprise a profitable niche in software development. Internal Revenue Service efforts to achieve an 80% electronic filing rate for major returns by 2013 has bolstered the growth in tax preparation software. Companies producing tax preparation software must process thousands of state and federal tax forms and release their product on time to protect their market share. “A Hierarchical Framework for Organizing a Software Development Process,” by F. Iravani, S. Dasu, and R. Ahmadi proposes hierarchical optimization models for organizing a complex tax software development process at a leading U.S. software company. The models assign tax forms to groups to control the process more effectively and staff the groups such that they complete processing the assigned tax forms by the release deadline. Implementing the hierarchical models helped the company reduce overtime hours by 31%, reduce total workforce cost by 13%, and release the tax software on time. When a new, more critical patient arrives in a hospital's intensive care unit (ICU) and no bed is available, physicians must discharge a current patient. The discharged patient may require readmission to the ICU, thus straining the already congested resources. Currently, no objective (severity-based using strict physiologic criteria) standards for ICU admission and discharge exist. In “Optimizing Intensive Care Unit Discharge Decisions with Patient Readmissions,” C. W. Chan, V. F. Farias, N. Bambos, and G. J. Escobar provide a systematic and evidence-based discharge strategy for ICU patients when incoming demand necessitates the discharge of a current patient. This work establishes a methodological framework to examine the performance of an index policy that accounts for patient readmissions when making ICU discharge decisions. The major implication of this work is that, in the future, discharge strategies could be linked to objective physiologic criteria to improve patient outcomes and increase efficiency. Flooding can cause significant loss of life and economic damage. The 1953 floods in the southwestern parts of the Netherlands demonstrated the flooding risks to that country. Soon after 1953, Van Dantzig started the cost-benefit analysis of the dike height optimization problem, which looks for the optimal balance between investing in dikes (costs) and reducing flood risk (benefits). In “Safe Dike Heights at Minimal Costs: The Nonhomogeneous Case,” R. Brekelmans, D. den Hertog, K. Roos, and C. Eijgenraam extend Van Dantzig's model and address the fundamental questions of when and how much to invest where. The authors formulate this problem as a mixed-integer nonlinear programming (MINLP) model and combine state-of-the-art solvers with techniques that exploit the problem structure. Dutch government agencies use the model to analyze the main dike rings in the Netherlands and to propose new safety standards to incorporate into the Dutch Water Act. Probabilistically constrained optimization problems with discretely distributed random variables are computationally challenging. In “Pattern-Based Modeling and Solution of Probabilistically Constrained Optimization Problems,” M. Lejeune develops a combinatorial pattern-based framework to model such problems. The method scales remarkably well and solves exactly and very fast stochastic problems where uncertainty is represented by an extremely large (up to 50,000) number of scenarios. This is a key and distinctive feature of the method. It permits reformulating the stochastic problems as mixed-integer ones in which the number of binary variables is not an increasing function of the number of scenarios used to characterize the uncertainty. In the current financial crisis, central banks worldwide have saved major banks from going into default. Companies and banks are closely linked in today's global economy, and negative ev</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4213028338</t>
+          <t>https://openalex.org/W2045459554</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.gerinurse.2022.01.017</t>
+          <t>https://doi.org/10.1016/0147-619x(85)90054-x</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Groenendaal et al. (2022)</t>
+          <t>Cohen et al. (1985)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Maintaining meaningful activities for persons with dementia during transitions of care: A systematic review</t>
+          <t>The integrated and free states of Streptomyces griseus plasmid pSG1</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>This systematic review summarizes the experiences with maintaining meaningful activities for persons with dementia during transitions of care, including related barriers and facilitators, and interventions and strategies. A systematic search was performed in eight databases. The methodological quality was assessed with the Mixed Methods Appraisal Tool. Four articles were included; one describing the transition from home to hospital and vice versa, and three describing the transition from home to nursing home. The narrative synthesis revealed a decrease of meaningful activities after transition. Facilitators of and barriers to maintaining meaningful activities during transitions were related to the person with dementia, informal caregivers, healthcare professionals and organization of care, as well as the environment. Interventions and strategies focused on continuously adjusting meaningful activities to the person. To conclude, maintaining meaningful activities during transitions is an under-researched area. Several recommendations are provided for healthcare professionals and organizations.</t>
+          <t>A 16.6-kb plasmid—pSG1—was isolated from Streptomyces griseus following transformation of protoplasts with unrelated plasmids. Southern hybridization experiments with radioactive probes prepared from pSG1 fragments and immobilized S. griseus DNA fragments indicated that the plasmid was present in the progenitor strain, in an integrated state. In the pSG1+ isolates plasmid sequences existed both as integrated sequences and as free plasmids. The integrated state of maintenance persisted in strains which have been cured of the free plasmid. The junction site on the plasmid was located on a 0.5-kb EcoRI-SalI fragment. The chromosomal integration site was demonstrated to be the same in all strains derived from S. griseus NRRL3851. The occurrence of both states of plasmid maintenance in the same clones indicates that an integrated pSG1 sequence does not interfere with free plasmid replication and partition. It suggests that the establishment of the free state may involve a replicative excision of pSG1 from the S. griseus chromosome.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1511297714</t>
+          <t>https://openalex.org/W2791768532</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1128/jb.123.1.47-55.1975</t>
+          <t>https://doi.org/10.1016/j.envint.2018.03.006</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Read &amp; McElhaney (1975)</t>
+          <t>Wei et al. (2018)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Glucose transport in Acholeplasma laidlawii B: dependence on the fluidity and physical state of membrane lipids</t>
+          <t>Neglected environmental health impacts of China's supply-side structural reform</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>The uptake of D-glucose by Acholeplasma laidlawii B occurs via a mediated transport process, as shown by the following observations: (i) glucose permeates A. laidlawii B cells at a rate at least 100 times greater than would be expected if its entry occurred only by simple passive diffusion; (ii) the apparent activation energy for glucose uptake in A. laidlawii is significantly lower than that expected and observed for the passive permeation of this sugar; (iii) glucose uptake appears to be a saturable process; (iv) glucose uptake can be completely inhibited by low concentrations of phloretin and phlorizin; and (v) glucose uptake is markedly inhibited at temperatures above 45 C, whereas the passive entry of erythritol continues to increase logarithmically until at least 60 C. The metabolism of D-glucose by this organism is rapid and, at low glucose concentrations, the intracellular radioactivity derived from D-[14-C]glucose is at any given time a reflection of the net effect of glucose transport, glucose metabolism, and loss from the cell of radioactive metabolic products. Care must thus be taken when attempting to determine the rate of glucose transport by measuring the accumulation by the cells of the total radioactivity derived from D-[14-C]glucose. The rate of uptake of D-glucose by A. laidlawii B cells is markedly dependent on the fatty acid composition and cholesterol content of the plasma membrane and exhibits a direct dependence on the fluidity of the membrane lipids as measured by their reversible, thermotropic gel to liquie-crystalline phase transition temperatures. In contrast to the transport rates, the apparent activation energy for glucose uptake above the phase transition temperature is not dependent on membrane lipid composition. At the temperature range within the membrane lipid phase transition region, the apparent activation energy of glucose uptake is different from the activation energy observed at temperatures above the phase transition. This may reflect the superimposed operation within the phase transition region of more than one temperature-dependent process.</t>
+          <t>“Supply-side structural reform” (SSSR) has been the most important ongoing economic reform in China since 2015, but its important environmental health effects have not been properly assessed. The present study addresses that gap by focusing on reduction of overcapacity in the coal, steel, and iron sectors, combined with reduction of emissions of sulfur dioxide (SO2), nitrogen oxide (NOx), and fine particulate matter (PM2.5), and projecting resultant effects on air quality and public health across cities and regions in China. Modeling results indicate that effects on air quality and public health are visible and distributed unevenly across the country. This assessment provides quantitative evidence supporting projections of the transregional distribution of such effects. Such uneven transregional distribution complicates management of air quality and health risks in China. The results challenge approaches that rely solely on cities to improve air quality. The article concludes with suggestions on how to integrate SSSR measures with cities' air quality improvement attainment planning and management performance evaluation.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2121673844</t>
+          <t>https://openalex.org/W3183300235</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/13563460903586202</t>
+          <t>https://doi.org/10.1007/s10649-021-10077-6</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Caney (2010)</t>
+          <t>Gosztonyi (2021)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Markets, Morality and Climate Change: What, if Anything, is Wrong with Emissions Trading?</t>
+          <t>How history of mathematics can help to face a crisis situation: the case of the polemic between Bernoulli and d’Alembert about the smallpox epidemic</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Abstract This article explores whether emissions trading is morally defensible To do so it examines three different kinds of moral consideration Which might be used to judge emissions trading. The first kind makes what I term an 'ethical' objection, and holds that utilising market instruments to combat climate change is inherently objectionable. I examine three versions if this 'ethical' argument but find none persuasive. The remainder of the article considers two additional moral considerations, both of which appeal to principles of justice. Drawing on these it argues that emissions trading can be morally defensible but only it it meets these two demanding moral criteria. First, the costs of emissions trading should be shared equitably. The paper examines what this might mean and criticises the leading account of what constitutes a just distribution of emissions Second, emissions trading must make an appropriate contribution to climate mitigation. A number of ways in which current emissions trading schemes signally fail to meet this second criterion are then noted. The article concludes that emissions trading schemes could in principle be morally defensible but only if new schemes are introduced or existing schemes are radically redesigned in line with the principles outlined in the article. Keywords: emissions tradingethicsjusticeclimate change Notes An earlier version of this paper was presented at the 'Commodifying Carbon' Conference (University of Oxford, 16 July 2007). I am grateful to the two respondents on my paper, Timmons Roberts and Henry Shue, for their instructive comments. A much later version was presented at the workshop on 'Global Emissions Trading: Ethics, Policy and Politics' (University of Warwick, 8 July 2009). I am grateful to the participants for their suggestions. I am especially indebted to Ed Page for a number of very illuminating discussions of the themes examined in this paper and to the anonymous referee for this journal for their extremely helpful comments. The paper was completed during my tenure of an ESRC Climate Change Leadership Fellowship (2008–11) and I am grateful to the ESRC for its support. Note that emissions trading schemes are not the only market instrument being employed to mitigate climate change. Another potentially important market instrument is the United Nations' programme on Reducing Emissions from Deforestation and Forest Degradation in Developing Countries (UN-REDD). See on this http://www.undp.org/mdtf/un-redd/overview.shtml [last accessed 11 December 2009]. REDD is one specific version of what is known as 'payment for environmental services' (PES). For an overview of PES see Engel et al. Citation(2008). My focus in this article is on emissions trading but some of the issues raised are also relevant for an appraisal of REDD and other schemes which involve paying for environmental services. I am grateful to an anonymous referee for pressing me on this point. This sentence needs to be heavily qualified for the impoverished may be unfree not to sell emissions. That is, their economic disadvantage may compel them to sell their emissions. I have argued elsewhere that there is a duty of justice to eradicate global poverty (Caney Citation2005) and if this were honoured then this concern would be met. One might also address this concern either by allocating large numbers of emissions permits to the disadvantaged or by auctioning the permits and distributing the revenues to the disadvantaged (Beckerman and Pasek Citation2001: 183–4). These issues are examined in section IV. Simmel (Citation1990 [1907]: 286) illustrates his argument through an historical analysis of different systems of payment, such as feudalism. He points out that an economy where persons are required to transfer a certain specific good (such as 'a quantity of beer or poultry or honey') 'thereby determines the activity of the … [duty-bearer] in a certain direction' and, as such, limits their liberty more than one where one can discharge one's debts though payment of money. A second, quite different reason for analysing emissions trading in the light of other policies is that it is often the case that one policy, whilst successful on its own, may undercut the efficacy of a second policy. They may work well separately but undermine each when adopted together. See Carbon Disclosure Project (http://www.cdproject.net/) and Carbon Monitoring for Action (http://carma.org/) [both last accessed on 26 June 2009]. See also the interesting discussion by Thaler and Sunstein in Nudge (Citation2008: 188–92). For the claim that they should be inalienable see Shue (Citation1993: 58). For instructive comparisons of different schemes see Roberts and Thumim (Citation2006: section 2) and Bottrill Citation(2006). For informative overviews see House of Commons Environmental Audit Committee Citation(2008) and DEFRA's analysis of individual carbon permit schemes (now available at the website of the Department for Energy </t>
+          <t>Abstract In this article, I present the eighteenth century’s polemic of Bernoulli and d’Alembert concerning the smallpox epidemic and a prevention method called inoculation. Through an analysis of the polemic and the related resources, I show that this historical debate has various interests for mathematics education; and more specifically it can help teachers to confront dilemmas emerging with the COVID-19 pandemic (for example if a teacher should talk about it in class or not, how to help students to interpret the statistical data and the mathematical models connected to the pandemic and more generally, how to deal with the confusions and concerns emerging in connection to the pandemic). I describe the documents related to the historical polemic as transitional objects, having a potential to reveal the teachers’ own professional or personal experiences, reflections and questions, and to stimulate dialogue with them on these issues. I illustrate this proposition by the presentation of an online reading seminar realized with a French group of teachers in April 2020.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2075007701</t>
+          <t>https://openalex.org/W2601717714</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/00005373-199607000-00001</t>
+          <t>https://doi.org/10.1080/21598282.2017.1287584</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Hassett (1996)</t>
+          <t>Jefferies (2017)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Do It Right, Do the Right Thing</t>
+          <t>China’s Challenge to the West: Possibility and Reality</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen, members of EAST, and guests! In preparation for this address, I reviewed my predecessors presentations. Dr. Maull urged us to dispel fatalism in 1989. [1] Dr. Harris searched for values in our changing times. [2] Dr. Jacobs identified forces that shape trauma care. [3] Dr. Champion reflected on directions of trauma care. [4] Dr. Schwab identified the largest sociomedical problem of the turn of the century. [5] Dr. Rhodes gave practical guidelines for trauma care. [6] Dr. Boyd reported on the principles of action. [7] Each was a prescient view of the challenges to trauma care. I urge each member to review their comments. I will focus on a continuation of their theme and offer an action plan. I have decided to do so because we stand on the threshold of a new century. Each of us has come to this place in time with unique experiences of mentorship, academic preparation, and clinical experience. Our common thread is our dedication to the trauma patient. Each will be asked to address issues and challenges daily. How we do so and what we do will effect generations of future trauma patients. At the turn of the century we are facing questions like: Can we define life, liberty and the pursuit of happiness specifically? Can we reliably ensure access to health care for all? Our sense of mission and vision of the future are important components as we deal with the challenges and questions. My presidential address is a call to active advocacy. I implore you to "Do it right, do the right thing". Modern health care advocates autonomy not cohesiveness. It values patient choice but reduces patient options. It promotes the bottom line and not people. It sees outcome through economic glasses. It replaces a commitment to excellence with a mandate for equity. It does not ensure equal health care to the economically challenged. It is a bean counters plan concocted by people who don't know beans about health care. This is the result of society's failure to address basic issues of health care and economy. Largely, it is a failure of professional and political leadership. Professionally, many of our colleagues take more than they give. Politically, many of our leaders use health care and social systems for their own gain. Somehow, we have lost the vision of our mission and responsibility. Figure 1Figure 1Entrepreneurs found health care in the seventies. The medical market place was an open and largely unregulated area. It soon became dominated by technology that superseded the normally accepted "doctor skills". Hospitals became technological marvels. Public policy for Medicare and Medicaid created a funding source that could supply this market with sufficient funds to make entrepeneurial investment reasonable. Some define this entrepreneurship as an organized license to steal. Others see it as the natural order of life. In the initial phases, it provided resources and fulfilled the dream of universal health care, where every malady could be addressed directly. In the later phases, it created circumstances where health care devices have astronomical prices and minor problems have million dollar responses. Decisions are directed by the corporate bottom line and controlled by the fear of litigation. The process has made us all commodities to be managed and used. Health care is provided according to the number of covered lives per annum. Health care providers are seen in terms of the number of contact hours per day. We are part of a system of health care delivery that sets a priority on certain types of care. Delays in delivering care are economically driven. The bottom line is important. The question is whose bottom line is being valued in the decision process. Students are taught more about the cost per dose than the pharmacology of the drug given. They are indoctrinated to careers and training programs are modified according to the mantra of managed care. Residents are concerned with a "niche market," attractiveness of their skills to their eventual employer, and their benefits package. Attending staff are evaluated according to the length of stay of their patients or the number of resource days utilized. The natural result is a struggle for the control of health care. In many ways, health care providers and patients are in a "free fire zone" in a modern economic war. Neither controls the environment. Both are victims and victimize the system simultaneously. Today, the other side is winning. However, all is not lost. Groups of health care professionals are addressing issues aggressively. The Phoenix analogy that a better health care system may emerge from the ashes of the past health care system has become a popular concept in groups who accept the challenge of change. The major goals of these groups are intelligent organization, focus, and outcome-based service. None of the issues are new. Most of the issues, challenges, and responses have been with us for a long time. The history of the response to change in m</t>
+          <t>Leo Panitch and Sam Gindin’s article “The Integration of China into Global Capitalism” argues that China will follow the pattern of post-war Japan to become a supplemental, junior partner in supporting US hegemony. They claim that due to the close trade and financial ties between the United States and China, there is no question of China challenging America’s dominance of the global system (Panitch and Gindin 2013). This article will critically examine the premises of this claim, taking account of the post-war history of Japan; the measure of transition to market forms in China’s economy; the role of trade; China’s overall level of development; and the growth of the country’s domestic corporations. The article focuses particularly on the level of China’s domestic technology measured through Patents in Force (PiFs). It argues against Panitch and Gindin that China is poised to challenge Western dominance of the world economy.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380078132</t>
+          <t>https://openalex.org/W4387302972</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3033984/v1</t>
+          <t>https://doi.org/10.24833/2541-8831-2023-3-27-104-123</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Araya et al. (2023)</t>
+          <t>Romanin (2023)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Promoting climate-smart sustainable agroforestry to tackle social and environmental challenges: The case of Macadamia agroforestry in Malawi</t>
+          <t>Hic Sunt Dracones: Foreign Space in the English and Russian Worldview as Reflected by the Pejorative Toponymy of the English and Russian Languages</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Abstract Our current global food system is understood to require a fundamental transformation based on a holistic approach to maintain long-term fertility, healthy biodiverse agroecosystems, and climate-proof/secure livelihoods. Recently, there has been a growing recognition of smallholder farmers' contributions to addressing key global environmental and social development issues (i.e., SDGs), including poverty, food security, climate change, and sustainable development. One specific approach is agroforestry-based agriculture, in which edible food and commercially important trees are grown on cropland, thereby improving the biodiversity of farming systems, enhancing agricultural productivity, and adding benefits such as nutrition and financial stability, not least climate resilience. In this context, we present lessons learned from an agroforestry system in Malawi that involves smallholder farmer cooperatives interplanting macadamia nut trees with annual crops such as groundnuts, maize, and soybeans. We review holistic advantages such as yield improvement, farmer perceptions, and challenges. We provide insights into what works in designing (NMT, linkage with finance plan) and draw lessons that can be applied to other comparable programmes worldwide.</t>
+          <t>The article examines the perception of the foreign space in the English and Russian native speakers’ worldviews based on the pejorative names of foreign countries and cities. Englishlanguage and Russian-language Internet sites were used as the source of data for the research, since this environment is especially favorable for the existence and collection of language material of this kind due to the online disinhibition effect. Based on the analysis of the inner form of the word and the stadial model of the Us—Them dichotomy with a gradual transition from the biological to the cultural, proposed by V. G. Lysenko, an attempt is made to derive the main patterns of making derogatory toponyms, and then to compare the characteristics that foreign lands receive within the English and Russian xenophobic discourse, and, as far as possible, to build a holistic image of the concept of foreign space in the English and Russian collective worldview. As a result of the study, a large number of negatively marked toponyms were found in the English and Russian languages. They show clearly similar features both in the formal peculiarities of word formation and in semantics, however, some specificities are also found, which makes it possible to deduce similarities and differences in the English and Russian perception of the concept of foreign space. In general, a significant similarity between English and Russian pejorative names of places is revealed: in both worldviews, different topoi appear as an ugly, unpleasant place inhabited by people (and sometimes not quite people) demonstrating weird, abnormal eating habits and perverted sexual preferences, where the space itself is distorted and defective.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2587992426</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/icce-china.2016.7849739</t>
+          <t>https://openalex.org/W3172847412</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Peng &amp; Chang (2016)</t>
+          <t>Olazabal (2020)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>The design and implementation of Super Base Station side L1C system in TD-LTE pattern</t>
+          <t>El reto climático en las ciudades</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>The Super Base Station project was proposed by the Institute of Computing Technology, Chinese Academy of Sciences. The super base station of Centralized architecture can integrate multimode mobile communication system, save operator costs, reduce energy consumption, increase the transmission rate. The physical layer protocol has not explicitly stated the various states of physical layer as well as the interface with high-level in 3GPP LTE standard specification, so the physical layer control (L1C) solution was designed and implemented, mainly responsible for achieving high-level interactive information, data movement, and start physical channel. The physical layer baseband processing is based on TMS320TCI6618 multi-core DSP, where L1C system is located on core0, and core1, core2 are respectively used for processing uplink and downlink data signal. This article defines the three states of the physical layer, boot and other configuration scheduling process on the base station side is actualizes by state transition. When the subframe scheduling is going, through the multi-task scheduling and double buffering double pointer technology of the DSP, data storage and transfer is completed properly, and the startup and shutdown of different channels is completed according to different criteria. Stipulate the interface content with Protocol Stack, and communicate with it through the Ethernet port, multi-core DSP use IPC for the inner communication and regulate. Verification process is divided into two parts, numerical comparison and link level simulation. Data comparison is performed through a packet capture software omnipeek verify that no packet loss. After the deployment of the physical layer control use the manner of breakpoints debug and memory viewer to observe, data which has throughed the IPC also correct. The whole process of link is a Video transmission, through the software decoding, the base station side downstream transmission protocol stack, physical layer, and the physical layer of terminal receives, protocol stack. Finally through store, the Video can play out by original software. Entirety test correct, transfer content freedom from error, no conflict with other modules.</t>
+          <t>espanolEl reto climatico es especialmente importante en las ciudades y asi lo trasladan la Nueva Agenda Urbana y los objetivos de desarrollo sostenible. En este capitulo se discuten las claves locales del reto climatico con una doble perspectiva: las ciudades como parte del problema y como sistemas altamente vulnerables al cambio climatico. Se describen estos retos a traves de un repaso de las tendencias urbanas y sus consecuencias en terminos de emisiones y riesgos climaticos. Con el objetivo de establecer las pautas para una transformacion urbana justa, sostenible y resiliente, se discuten los principales tipos de medidas climaticas, los condicionantes intrinsecos urbanos que explican la necesidad de pensar desde lo local, y los principios clave de la accion climatica: flexibilidad, integracion y transdisciplinariedad. El capitulo termina con un repaso al progreso de la accion climatica local y concluye aludiendo a la co-responsabilidad de los gobiernos locales, de las empresas, ciudadanos y usuarios de las urbes, en el transito hacia modelos urbanos bajos en carbono y resilientes al cambio climatico. EnglishThe climate challenge is especially important in cities as reflected in the New Urban Agenda and the Sustainable Development Goals. This chapter discusses the key aspects of the urban climate challenge with a double perspective: cities as the source of the problem and as systems highly vulnerable to climate change. These challenges are described through a review of urban trends and their consequences in terms of emissions and climate risks. In order to establish guidelines for a just, sustainable and resilient urban transformation, the chapter discusses the main types of climate action, the inherent urban conditioning factors that explain the need to think locally, and, eventually, the key principles of climate action: flexibility, integration and transdisciplinarity. The chapter ends with a review of the progress of local climate action globally and concludes by calling to the co-responsibility of local governments, companies, citizens and users of cities, in the transition towards low-carbon urban models which are resilient to climate change.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://openalex.org/W43931580</t>
+          <t>https://openalex.org/W2117264800</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/00032719408006370</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Storey (1997)</t>
+          <t>Iskander et al. (1994)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>The Use of Natural Supports To Increase Integration in Supported Employment Settings for Youth in Transition. Final Report.</t>
+          <t>Kinetics and Determination of Some Transition Metals with Peri-Dihydroxynaphthindenone</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Abstract A simple sensitive and selective spectrophotometric method has been developed for determination of some transition metal ions. It is based on the reaction of the metal ions with excess peri-dihydroxynaphthindenone in 80% v/v ethyl alcohol-water mixture at 30°C. The colored products obtained display maximum absorption band at 560–590 nm depending upon the type of transition metal ion used, and E1 cm 1% in the range 70–480. Under the optimum conditions results with an average recovery of 96%, (mean standard deviation ±3% are obtained for 6 different transition metal ions without any significant interference from Li+, Na+, K+, Cs+, Rb+, Ba2+, Sr2+, Ni2+, Bi3+, Co2+, Mn+2, Cd+2 and Al+3. Kinetic data reveal that the reaction proceeds via a second order route (first order with respect to either the metal cation or ligand). The activation parameters and a suggested mechanism have been presented, and the nature of bonding in the solid chelate products has been verified.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2006443271</t>
+          <t>https://openalex.org/W3175941654</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/tme.0b013e3182080ef4</t>
+          <t>https://doi.org/10.1096/fasebj.25.1_supplement.946.3</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Polly &amp; Nicole (2011)</t>
+          <t>Kim et al. (2011)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Understanding the Transsexual Patient</t>
+          <t>E‐cadherin antagonizes TGFbeta1 gene induction in hepatic stellate cells by inhibiting RhoA‐dependent Smad3/2 phosphorylation</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transsexual individuals present to the emergency department for various reasons; yet, providers and nurses are often unaware of the unique needs of transsexual patients. This article provides an understanding of challenges faced by transsexual individuals in health care access and treatment. The authors explain commonly used terminology and provide an overview of the transition process including the Diagnostic and Statistical Manual, 4th edition criteria for diagnosis and the World Professional Association of Transgender Health's Standards of Care for treatment. The authors provide important details and specific recommendations for the culturally sensitive care of transsexual patients including using the correct name and pronoun, eliminating bias and discrimination, asking appropriate questions, implementing trans-inclusive policies and guidelines, and proper record keeping.</t>
+          <t>Cadherins mediate cell‐cell adhesion and catenin (ctn)‐related signaling pathways. Liver fibrosis is accompanied by the loss of E‐cadherin that promotes the process of epithelial mesenchymal transition. This study investigated whether E‐cadherin overexpression inhibits transforming growth factor‐beta1 (TGFbeta1) gene induction and, if so, what molecular basis. Forced expression of E‐cadherin decreased the level of mesenchymal markers, and the constitutive or inducible expression of the TGFbeta1 gene and its downstream genes. E‐cadherin overexpression decreased Smad3/2 phosphorylations, and consequent its transcriptional activity. The ability of E‐cadherin to inhibit TGFbeta1‐inducible Smad activity was reversed by RhoA activation. Molecular approaches revealed that the p120‐ctn binding domain of E‐cadherin was responsible for TGFbeta1 repression. E‐cadherin was capable of binding p120‐ctn, which recruited RhoA, preventing the ability of TGFbeta1 to increase RhoA‐mediated Smad3 phosphorylation. In the liver tissues of patients with liver fibrosis, E‐cadherin expression reciprocally correlated with the severity of fibrosis. In conclusion, E‐cadherin inhibits Smad3/2 phosphorylations by recruiting RhoA to p120‐ctn, supporting the notion that the loss of E‐cadherin due to cadherin switch promotes TGFbeta1 and target gene induction, and facilitates liver fibrosis.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4308056305</t>
+          <t>https://openalex.org/W2033762435</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acs.jpca.2c05897</t>
+          <t>https://doi.org/10.1109/tc.1986.1676737</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Recio et al. (2022)</t>
+          <t>Reischer &amp; Simovici (1986)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Imaging the Photodissociation Dynamics and Fragment Alignment of CH&lt;sub&gt;2&lt;/sub&gt;BrI at 193 nm</t>
+          <t>Iteration Properties of Multivalued Switching Functions</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>The photodissociation dynamics and photofragment alignment of bromoiodomethane (CH2BrI) have been studied at 193 nm using a double experimental and theoretical approach. In addition, the ultraviolet (UV)-vacuum ultraviolet (VUV) absorption spectrum of gas phase CH2BrI has been measured in the photon energy range of 5-11 eV using the VUV Fourier transform spectrometer (FTS) at the VUV beamline DESIRS of the synchrotron SOLEIL facility. The slice imaging technique in combination with resonance enhanced multiphoton ionization (REMPI) detection of the Br(2PJ) and I(2PJ) (with J = 3/2 and 1/2 for Br/I and Br*/I*, respectively) atomic photofragments have been used to produce experimental translational energy and angular distributions, which were analyzed to deliver, on one hand, the partitioning of the available energy among the different degrees-of-freedom of the photofragments and, on the other, the photofragment polarization in terms of aqk(p) alignment parameters. The experimental measurements were rationalized in terms of high-level ab initio calculations of vertical excitation energies, transition dipole moments and potential energy curves (PECs) along different reaction coordinates to provide a complete picture of the photodissociation dynamics. The results indicate that for excitation at 193 nm, prompt C-X cleavage (with X being either halogen atom, Br or I) competes with fast internal conversion and consequent stochastic dissociation in lower electronic states. In the case of the CH2Br + I(2P3/2)/I*(2P1/2) channels, the dynamics are greatly biased toward the stochastic dissociation process due to both the particular PECs landscape and the unfavored excitation of the CH2BrI ensemble with respect to the C-I molecular axis at this excitation energy. The ab initio PECs provide a tentative path for the fast dissociation process in either case. For the C-Br bond breakage, excitation to the 13A' electronic state and predissociation through the 11A'/11A″ or 12A'/12A″ states, leading to direct dissociation through the 10A'/9A″ states, appear as the most consistent dynamics. For the C-I channel, predissociation does not become a reliable possibility and a fast internal conversion may precede dissociation through the repulsive 6A'/6A″ and 4A'/4A″ states. The large content of rotational and vibrational excitation of the polyatomic cofragments is justified through the soft impulsive model and the geometrical changes produced along the dissociation pathway. Strikingly, the aqk(p) alignment parameters obtained for the Br(2P3/2) and I(2P3/2) photoproducts indicate that the rotational angular momentum of the CH2X (X = I or Br) cofragment appears highly constrained along the recoil direction. Finally, this work presents a highly plausible explanation for the branching ratio of secondary dissociation processes in the photodynamics of CH2BrI at 193 nm.</t>
+          <t>The purpose of this correspondence is to survey the literature concerning the iterative properties of multivalued switching functions. These properties are important for the synthesis of switching circuits by cascades of simpler elements. Our presentation evolves around the graphs of transformations of finite sets. We discuss such topics as limitations of the computational capabilities of cascades, the existence of roots of given functions with respect to iteration powers, etc.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3098999409</t>
+          <t>https://openalex.org/W1984028227</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0550-3213(98)00741-x</t>
+          <t>https://doi.org/10.4067/s0034-98872014000600006</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Maznytsia et al. (1999)</t>
+          <t>Bitrán et al. (2014)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Duality of self-dual actions</t>
+          <t>]]¿Cómo aprenden los estudiantes de medicina en la transición hacia el ciclo clínico?: Estudio cualitativo de las percepciones de estudiantes y docentes acerca del aprendizaje inicial de la clínica</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Using examples of a D = 2 chiral scalar and a duality-symmetric formulation of D = 4 Maxwell theory we study duality properties of actions for describing chiral bosons. In particular, in the D = 4 case, upon performing a duality transformation of an auxiliary scalar field, which ensures Lorentz covariance of the action, we arrive at a new covariant duality-symmetric Maxwell action, which contains a two-form potential as an auxiliary field. When the two-form field is gauge fixed this action reduces to a duality-symmetric action for Maxwell theory constructed by Zwanziger. We consider properties of this new covariant action and discuss its coupling to external dyonic sources. We also demonstrate that the formulations considered are self-dual with respect to a dualization of the field strengths of the chiral fields.</t>
+          <t>The transition to the clinical courses represents a major challenge for medical students who are expected to become experiential learners, able to integrate theory and practice in the context of patient care. There are questions about how students face this challenge.To understand and compare the perceptions of students and clinical tutors on how medical students learn during the transition to the clinical levels of the curriculum.We performed eight focus group discussions with 54 students enrolled in years three to seven and we interviewed eight clinical tutors. Both students' focus group discussions and tutors' interviews were audio recorded, transcribed and analyzed according to the Grounded Theory.Nine main themes emerged from the analysis of students' opinions and six from the tutors' views. The following themes were common to both students and educators: educational activities, actors, clinical settings, learning strategies, transition markers and tutor's role. Educators emphasized the importance of curricular courses' design and students, that of emotions, adaptation and self-care strategies, and threats to learning.There is a common core of students' and clinical tutors' perceptions about the relevance of practical activities, social interactions and context in the development of students' learning and adaptation strategies during the transition to the clinical levels of the curriculum. These results are related to social and cultural theories of learning. Thus we propose a model for early clinical learning that might help to stimulate the reflection of students and medical educators regarding clinical learning and contribute to the development of interventions that improve the clinical learning and teaching practices.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2361621631</t>
+          <t>https://openalex.org/W4235671025</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1149/ma2016-01/37/1874</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Wen-x (2014)</t>
+          <t>Liu &amp; Paddison (2016)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>A Reflection on the Critique and Illumination of Adorno's Theory of Cultural Industry</t>
+          <t>Quantitative Comparison of Atomistic Molecular Dynamics Simulations and X-Ray Scattering of Polymerized Ionic Liquids</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>As a principal school in western Marxism, the Frankfurt school,headed by Adorno,has laid the groundwork for mass cultural criticism, and is generally regarded as the pioneer incultural studies by the academic community.Although Adorno interprets on the whole the capitalist cultural industry under the control of the technological rationality from a negative perspective, his remarks on the relationships between culture and industry, art and technology, cultural industry and ideology and many other aspects, have definitely a positive significance and referential value in the current practice of Chinese cultural industry.We should quicken the transformation of the governmental role,putemphasison the integration of economic benefits and spiritual values, and pay attention to the dissemination of China's main stream culture in the process of cultural industry development,its reform and innovation.</t>
+          <t>Polymerized ionic liquids (polyILs) are touted as the ideal solid-state electrolyte materials for electrochemical devices due to enhanced mechanical characteristics of polymer nature and unique physico-chemical properties inherent from ionic liquids. PolyILs offer great flexibility in designing the task specific media through judicious choosing component cations, anions and polymer structures for a wide range of energy conversion and storage applications, such as dye-sensitized solar cells, lithium ion rechargeable batteries, and alkaline fuel cells. While polyILs enjoy many favorable properties such as low flammability, high thermal/chemical/electrochemical stability, and mechanical strength, they inevitably suffer from the retarded ionic conductivity, one of the detrimental shortcomings in electrochemical applications. PolyILs usually have elevated glass transition temperature Tg and subsequently several orders of magnitude decrease in ionic conductivity with respect to their molecular IL counterparts. Most of previous research involve in finding the optimal polyILs to achieve the maximum accessible ionic conductivity. It is generally accepted that ionic conductivity of polyILs depends on the complex correlations between chemical nature of polymer backbone and counter-ions, glass transition temperature, mesophase morphology, temperature and pressure. Therefore, a molecular-level understanding of the relationship between chemical structure, morphology and ion transport will promote the rational design of polyILs for electrochemical applications. In present work, we use atomistic molecular dynamics simulations to investigate structural properties of model system poly(1-n-alkyl-3vinylimidzolium bistrifluoromethylsulfonylimide) poly(nVim Tf2N) . X-ray scattering measurement on structural properties of polyILs is elusive. The detailed simulations provide a direct quantitative picture for understanding the structure/morphology of polyILs on the atomic scale. In particular, we present the first direct comparison of structure factors obtained from X-ray scattering and simulations for various alkyl chain length of poly(nVim Tf2N). Excellent agreement is found between the experimental and simulated scattering profiles in terms of peak position and shape, which provides proper validation of our simulation methods. All characteristic distances (backbone-to-backbone, anion-to-anion and pendant-to-pendant) are well reproduced. As the alkyl chain length increases, the backbone-to-backbone peak becomes stronger, moving to larger distance, the anion-to-anion separation slightly increases with vanishing intensity, and the pendant-to-pendant peak hardly changes. This quantitative comparison of X-ray scattering and atomistic simulations is expected to lead to a molecular-level predictive understanding in structure and morphology of polyILs and paves a substantive step towards the rational design of future polyILs for electrochemical devices.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3137430892</t>
+          <t>https://openalex.org/W2028044306</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/er.6628</t>
+          <t>https://doi.org/10.1364/oe.15.000809</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Zhang et al. (2021)</t>
+          <t>Xu et al. (2007)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Numerical simulation of solid oxide fuel cells comparing different electrochemical kinetics</t>
+          <t>Realization of optical perfect shuffle with microoptical array element</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve">International Journal of Energy ResearchVolume 45, Issue 9 p. 12980-12995 RESEARCH ARTICLEOpen Access Numerical simulation of solid oxide fuel cells comparing different electrochemical kinetics Xiaoqiang Zhang, Xiaoqiang Zhang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorLei Wang, Lei Wang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorMayken Espinoza, Mayken Espinoza orcid.org/0000-0001-7809-8659 Facultad de Ingeniería Mecánica y Ciencias de la Producción, Centro de Energías Renovables y Alternativas, Escuela Superior Politécnica del Litoral, ESPOL, Guayaquil, EcuadorSearch for more papers by this authorTingshuai Li, Tingshuai Li orcid.org/0000-0002-9332-9299 School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, ChinaSearch for more papers by this authorMartin Andersson, Corresponding Author Martin Andersson [email protected] orcid.org/0000-0001-5057-4908 Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, Sweden School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, China Correspondence Martin Andersson, Department of Energy Sciences, Faculty of Engineering, Lund University, P.O. Box 118, SE-221 00 Lund, Sweden. Email: [email protected]Search for more papers by this author Xiaoqiang Zhang, Xiaoqiang Zhang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorLei Wang, Lei Wang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorMayken Espinoza, Mayken Espinoza orcid.org/0000-0001-7809-8659 Facultad de Ingeniería Mecánica y Ciencias de la Producción, Centro de Energías Renovables y Alternativas, Escuela Superior Politécnica del Litoral, ESPOL, Guayaquil, EcuadorSearch for more papers by this authorTingshuai Li, Tingshuai Li orcid.org/0000-0002-9332-9299 School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, ChinaSearch for more papers by this authorMartin Andersson, Corresponding Author Martin Andersson [email protected] orcid.org/0000-0001-5057-4908 Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, Sweden School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, China Correspondence Martin Andersson, Department of Energy Sciences, Faculty of Engineering, Lund University, P.O. Box 118, SE-221 00 Lund, Sweden. Email: [email protected]Search for more papers by this author First published: 15 March 2021 https://doi.org/10.1002/er.6628Citations: 2 Funding information: Chinese Scholarship Council, Grant/Award Number: 201906070189; Stiftelsen aforsk, Grant/Award Number: 17-331 AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Summary Solid oxide fuel cells (SOFCs) produce electricity with high electrical efficiency and fuel flexibility without pollution, for example, CO2, NOx, SOx, and particles. Still, numerous issues hindered the large-scale commercialization of fuel cell at a large scale, such as fuel storage, mechanical failure, catalytic degradation, electrode poisoning from fuel and air, for example, lifetime in relation to cost. Computational fluid dynamics (CFD) couples various physical fields, which is vital to reduce the redundant workload required for SOFC development. Modeling of SOFCs includes the coupling of charge transfer, electrochemical reactions, fluid flow, energy transport, and species transport. The Butler-Volmer equation is frequently used to describe the coupling of electrochemical reactions with current density. The most frequently used is the activation- and diffusion-controlled Butler-Volmer equation. Three different electrode reaction models are examined in the study, which is named case 1, case 2, and case 3, respectively. Case 1 is activation controlled while cases 2 and 3 are diffusion-controlled which take the concentration of redox species into account. It is shown that case 1 gives the highest reaction rate, followed by case 2 and case 3. Case 3 gives the lowest reaction rate and thus has a much lower current density and temperature. The change of activation overpotential does not follow the change of current density and temperature at the interface of the anode and electrolyte and interface of cathode and electrolyte, which demonstrates the non-linearity of the model. </t>
+          <t>A new method to realize the optical perfect shuffle (PS) with a microoptical array element is presented in this paper. The whole process is simulated by computer, and parameters of the structure to fabricate the experimental component are given. The microoptical array element has been fabricated by introducing very large scale integration (VLSI), stepping photolithography and reactive iron etching (RIE), which can realize 8-channel PS transformation. Experiments, tests and analysis have been done using the array element. The experimental results show that the method proposed in this paper agrees well with theoretical expectation. This success of the experiment lays a good foundation for us to do further research on realization of optical switching and communication through cascade multilevel PS interconnection.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3125157074</t>
+          <t>https://openalex.org/W3134832133</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/smll.202007025</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Wagstaff (2009)</t>
+          <t>Wang et al. (2021)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Social health insurance vs. tax-financed health systems - evidence from the OECD</t>
+          <t>CO&lt;sub&gt;2&lt;/sub&gt; Footprint of Thermal Versus Photothermal CO&lt;sub&gt;2&lt;/sub&gt; Catalysis</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>This paper exploits the transitions between tax-financed health care and social health insurance in the OECD countries over the period 1960-2006 to assess the effects of adopting social health insurance over tax finance on per capita health spending, amenable mortality, and labor market outcomes. The paper uses regression-based generalizations of difference-in-differences and instrumental variables to address the possible endogeneity of a country's health system. It finds that adopting social health insurance in preference to tax financing increases per capita health spending by 3-4 percent, reduces the formal sector share of employment by 8-10 percent, and reduces total employment by as much as 6 percent. For the most part, social health insurance adoption has no significant impact on amenable mortality, but for one cause-breast cancer among women-social health insurance systems perform significantly worse, with 5-6 percent more potential years of life lost.</t>
+          <t>Transformation of CO2 into value-added products via photothermal catalysis has become an increasingly popular route to help ameliorate the energy and environmental crisis derived from the continuing use of fossil fuels, as it can integrate light into well-established thermocatalysis processes. The question however remains whether negative CO2 emission could be achieved through photothermal catalytic reactions performed in facilities driven by electricity mainly derived from fossil energy. Herein, we propose universal equations that describe net CO2 emissions generated from operating thermocatalysis and photothermal reverse water-gas shift (RWGS) and Sabatier processes for batch and flow reactors. With these reactions as archetype model systems, the factors that will determine the final amount of effluent CO2 can be determined. The results of this study could provide useful guidelines for the future development of photothermal catalytic systems for CO2 reduction.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2125678056</t>
+          <t>https://openalex.org/W1587591531</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s1478951509990484</t>
+          <t>https://doi.org/10.1007/978-3-642-23851-2_36</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Macpherson (2009)</t>
+          <t>Bardis et al. (2011)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Childhood abuse uncovered in a palliative care audit</t>
+          <t>A Formal Framework for Declarative Scene Description Transformation into Geometric Constraints</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>This article aims to highlight potentially high levels of childhood sexual abuse within Cancer and Palliative Care Service users.During a routine audit, data was collated to quantify a perceived high level of disclosure of pre-existing psychological trauma within the palliative care caseload of a Macmillan Children and Families Therapist. Families comprised adults (generally parents or step-parents), one of whom was terminally ill or recently deceased who had direct responsibility for children and young people aged under 20 years old. Each family had at least two members using the service for advice, emotional support or counselling.A childhood sexual abuse rate of 33% for women and 10% for men was revealed. Of 59 families, 49% had one or more members who had experienced childhood sexual abuse. In addition a further 9% of adults had experienced severe physical and emotional abuse in childhood. Many families had faced multiple trauma.Palliative care clinicians have access to detailed personal and family history during a highly vulnerable transition. While confidentiality is paramount it is essential to develop better data collection methods and raise the profile of childhood sexual abuse as a major contributing factor to morbidity. A whole family assessment is crucial to ensure child protection and emotional care for children facing the loss and subsequently bereaved of a parent or a carer. Clinicians must be able to offer a range of approaches which provide distressed patients with a history of childhood abuse some sense of emotional containment at the end of life, a challenge which cannot be overstated.</t>
+          <t>The disambiguation of a declarative visual model is a crucial step towards the generation of its geometric equivalents. Any abstract description has to be ultimately translated into a concrete set of values or relevant constraints, solely relying on quantifiable model characteristics. To this day, there is no general consensus with respect to a unified, formally defined model for this disambiguation process or the desired quantified outcome. The current work sets the basis for a uniform transformation process and the corresponding formal constraint model, inclusive of a number of already existing approaches for declarative modelling. The applicability of the proposed framework is exhibited in an existing declarative modelling environment, explicitly demonstrating its implementation in the specific context.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2487976005</t>
+          <t>https://openalex.org/W2085684455</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/ccol9780521867313.002</t>
+          <t>https://doi.org/10.2528/pier14022001</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Slauter (2009)</t>
+          <t>Gilardi &amp; Smit (2014)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>The Declaration of Independence and the new nation</t>
+          <t>GENERIC INP-BASED INTEGRATION TECHNOLOGY: PRESENT AND PROSPECTS (Invited Review)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>On July 2, 1776 the news that “the CONTINENTAL CONGRESS declared the UNITED COLONIES FREE and INDEPENDENT STATES” appeared in the Pennsylvania Evening Post beside a notice about a local man who had declared his own independence. Ishmael, “twenty-five years of age, above six feet high, strong made, his colour between a Mulatto and a Black,” ran away from his Philadelphia owner despite being “somewhat lame, occasioned by his having his thigh bone broke when a boy.” The newspapers and state papers of the American Revolution made impassioned declarations about liberty and property, setting the stage for a civil war in the language of rights acted out by and upon unfree individuals like Ishmael. Modern readers cannot miss the proximity of liberty to slavery in the new nation, but would contemporaries have connected a slave's escape with the resolution that Congress passed on July 2 or with the Declaration explaining that resolution approved on July 4, published in the same newspaper on July 5, and celebrated in Philadelphia and elsewhere on July 8? More importantly, would Ishmael? To ask such questions is to confront a powerful narrative about the changing meaning of the Declaration of Independence. Scholars once confidently equated the Declaration with the statements that “all Men are created equal, that they are endowed by their Creator with certain unalienable Rights, that among these are Life, Liberty, and the Pursuit of Happiness.” But since the 1960s, and with increasing persuasiveness in book-length studies by historians Pauline Maier and David Armitage, scholars have contended that the self-evident truths of the second paragraph, so familiar to modern readers, did not constitute the core of the Declaration to contemporaries.</t>
+          <t>The generic foundry approach will lead to a revolution in micro and nanophotonics, just as it did in microelectronics thirty years ago.Generic integration leads to a drastic reduction in the entry costs for developing Photonic Integrated Circuits.Integrated circuits using generic integration open up a whole new range of applications including data communications, fiber-to-the-home, fiber sensors, gas sensing, medical diagnostics, metrology and consumer photonics.Present status and prospects of InP-based photonic foundry technology are reviewed. INTRODUCTION: THE DEVELOPMENT OF PHOTONIC CHIP COMPLEXITYIn microelectronics there is a clear exponential development in the number of transistors per chip, which has been doubling every two years on average during the last four decades.This phenomenon is known as Moore's law [1,2].In Photonics we observe a similar development, albeit in an early stage.Figure 1 shows the complexity development of InP-based Photonic ICs (PICs), measured as the number of components integrated on a single chip.Early examples of complex InP-based PICs are a WDM source by Koren et al. (1989) [3], a gratingbased receiver by Cremer et al. (1991) [4], a switch array by Gustavsson et al. (1992) [5], and a heterodyne receiver by Kaiser (1994) [6].The highest complexities so far have been reported in AWG-based PICs.It started with the publication of the first AWG by Smit [7] in 1988, followed by Takahashi et al. (1990) [8] and Dragone (1991) [9].After the invention of the AWG a number of AWG-based devices with increasing circuit complexity was reported: WDM receivers with 5-10 components by Amersfoort et al. (1993) [10], Zirngibl et al. (1995) [11] and Steenbergen et al. (1996) [12]; WDM lasers with 10-20 components by Zirngibl et al. (1994Zirngibl et al. ( , 1996) [13, 14] ) [13, 14] and Staring et al. (1996) [15]; WDM channel selectors with 10-20 components by Zirngibl and Joyner (1994) [16], Ishii et al. (1998) [17], Menezo et al. (1999) [18], Mestric et al. (2000) [19] and Kikuchi et al. (2001) [20] and a crossconnect chip with 66 components by Herben et al. (1999) [21].A special device is the WDM-receiver with integrated pre-amplifiers by Chandrasekhar et al. (1995) [22] which counts 81 components, most of them electronic (transistors and resistors).The new century brought a significant increase in complexity: WDM receiver and transmitter chips with 44-51 components by Tolstikhin (2003) [23], ThreeFivePhotonics (2004) [24] and Infinera (2005) [25].Shortly after, in 2006, Infinera published a 40-channel WDM transmitter with 241 components [26].Recent devices with a very high complexity are an all-optical tunable 8 × 8 wavelength router with more than 175 components by Nicholes et al. [27] in 2009 and a 100-channel Arbitrary Waveform Generator with more than 300 components by Soares et al. [28] in 2010.The latter device also contains 400 phase shifters for reducing the high crosstalk level in the very large AWG which is used to separate 100 wavelength channels.Recently, Infinera reported a PM-DQPSK transmitter with more than 400</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2588851416</t>
+          <t>https://openalex.org/W4213028338</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/cisp-bmei.2016.7852874</t>
+          <t>https://doi.org/10.1016/j.gerinurse.2022.01.017</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Chen et al. (2016)</t>
+          <t>Groenendaal et al. (2022)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>A precise time-integration for analysis of time-domain response to lossy transmission lines</t>
+          <t>Maintaining meaningful activities for persons with dementia during transitions of care: A systematic review</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>The precise integration method is a semi analytical solution method of partial differential equation method. Based on the precise integration method, the lossy transmission line transient response analysis method is a time domain analysis method. The lossy transmission line transient response analysis method can easily deal with the transmission line problems, which is difficult for the nonzero initial value and nonlinear load frequency domain method to deal with, but it is still difficult to deal with the reactance load of transmission line. By separating and integrating the beginning and terminal conditions of the precise integration method, and introducing time domain adjoint model of the various kinds of load, this paper solves the problems of the load reactance of transmission line, also solves the transmission line problems of long time transition, short circuit and open circuit, which greatly improves the precise integration method for the analysis of the efficacy of transmission lines in time domain response. Finally, the correctness of the presented method is illustrated by the application examples, which provide a theoretical basis for the time domain analysis of the transient response of the transmission line.</t>
+          <t>This systematic review summarizes the experiences with maintaining meaningful activities for persons with dementia during transitions of care, including related barriers and facilitators, and interventions and strategies. A systematic search was performed in eight databases. The methodological quality was assessed with the Mixed Methods Appraisal Tool. Four articles were included; one describing the transition from home to hospital and vice versa, and three describing the transition from home to nursing home. The narrative synthesis revealed a decrease of meaningful activities after transition. Facilitators of and barriers to maintaining meaningful activities during transitions were related to the person with dementia, informal caregivers, healthcare professionals and organization of care, as well as the environment. Interventions and strategies focused on continuously adjusting meaningful activities to the person. To conclude, maintaining meaningful activities during transitions is an under-researched area. Several recommendations are provided for healthcare professionals and organizations.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2144469520</t>
+          <t>https://openalex.org/W2009498514</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/smll.201202322</t>
+          <t>https://doi.org/10.1183/09031936.03.00068503a</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Yu &amp; Stellacci (2012)</t>
+          <t>Witek &amp; Mahler (2003)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Response to “Stripy Nanoparticles Revisited”</t>
+          <t>Minimal important difference of the transition dyspnoea index in a multinational clinical trial</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SmallVolume 8, Issue 24 p. 3720-3726 CorrespondenceOpen Access Response to "Stripy Nanoparticles Revisited" Miao Yu, Miao Yu Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandSearch for more papers by this authorFrancesco Stellacci, Corresponding Author Francesco Stellacci [email protected] Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandInstitute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, Switzerland.Search for more papers by this author Miao Yu, Miao Yu Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandSearch for more papers by this authorFrancesco Stellacci, Corresponding Author Francesco Stellacci [email protected] Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandInstitute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, Switzerland.Search for more papers by this author First published: 23 November 2012 https://doi.org/10.1002/smll.201202322Citations: 30 The copyright line for this article was changed on 15 Aug 2017 after original online publication. AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Graphical Abstract In a paper entitled "Stripy Nanoparticles Revisited", Lévy and co-workers contest the interpretation of scanning tunneling microscopy images of monolayer protected gold nanoparticles that our group has presented. We show that the two arguments they use are based on flawed assumptions and contradict each other. We also show new evidence for the existence of stripe-like domains on mixed monolayer-coated gold nanoparticles. This Correspondence is written in response to the paper entitled "Stripy Nanoparticles Revisited", published in this same issue.1 In 2004 we found, using scanning tunneling microscopy (STM), that self-assembled monolayers composed of a binary mixture of immiscible ligand molecules spontaneously develop stripe-like domains when assembled onto nanoparticles.2 The STM evidence produced was backed up by: Trasmission electron microscopy (TEM) and X-ray diffraction (XRD) data2 Fourier transform infrared (FTIR) spectroscopy studies3 Atomic force microscopy (AFM) images in water4 computational studies5, 6 In the latter case, a remarkable agreement both in terms of domain spacing5 and in terms of the existence of a size regime where these stripes occur6 was found. It was also established that these particles have a non-monotonic dependence of their saturation concentration (solubility)7 and their interfacial energy4 on their ligand shell composition, in good agreement with molecular dynamics simulations. They exhibit protein-resistance properties,2, 8 can penetrate cell membranes,8 and posses two polar point defects that can be selectively functionalized with a place-exchange reaction9 that has been modeled so as to calculate the free energy of the reaction.10 In ref. 1, Lévy and co-workers present a series of arguments questioning the interpretation of our data as well as some of our results. It appears that some parts of our work might be misinterpreted and hence we are grateful for this opportunity to clarify these aspects. Our experiments are no doubt challenging. Through the years, we have dedicated a good amount of time to improving our experimental approaches and to derive a more reliable picture of our system, both through experiments and through simulations. We appreciate every effort to stimulate a constructive scientific debate and hope that this exchange will contribute to a better understanding of self-assembled monolayers (SAMs) on nanoparticles as well as their investigation with scanning probe microscopy. The central argument presented in ref. 1 has to do with the interpretation of our STM images of mixed ligand nanoparticles, which Lévy and co-workers claim to be incorrect. We will present here a rebuttal to all of the points raised in ref. 1. In most cases we will start by correcting the selected presentation of our results given in ref. 1, to properly represent our body of work. We will also present new data to testify to our continuing research toward a deeper and more accurate interpretation of our STM data. In ref. 1, there exists the suggestion that our work on cell memb</t>
+          <t>Dyspnoea is a primary symptom of chronic obstructive pulmonary disease (COPD). The baseline (BDI) and transition (TDI) dyspnoea indices are commonly used instruments to assess breathlessness and the impact of intervention. Its validity and pattern of response in multinational clinical trials has not been established. In a retrospective analysis of a cohort of 997 COPD patients who received tiotropium, salmeterol or placebo, in addition to usual care, the validity and pattern of response of the BDI and TDI were examined. The BDI was significantly correlated with the dyspnoea diary (DD) score and the symptom and activity components of the St. George9s respiratory questionnaire (SGRQ), establishing concurrent validity. Furthermore, the TDI was also correlated with the changes in DD, SGRQ symptom and activity scores. Construct validity was established by the association between baseline forced expiratory volume in one second (FEV&lt;sub&gt;1&lt;/sub&gt;) and BDI and ΔFEV&lt;sub&gt;1&lt;/sub&gt; with TDI. Physician9s global evaluation (PGE) was significantly associated with BDI as well as ΔPGE with TDI. Significant correlations have also been observed when the cohorts were classified according to native English and native non­English speaking countries. A change in PGE of 1 category (&lt;i&gt;i.e.&lt;/i&gt; 2 units on an 8‐point scale) was associated with a mean TDI of ∼1 unit (0.9–1.3 mean focal score), lending further support to the clinical significance of this change inherent in the instrument9s descriptors. TDI responders (&lt;i&gt;i.e.&lt;/i&gt; focal score ≥1 unit) used less supplemental salbutamol, had fewer exacerbations and had significantly improved health status as measured by impacts and total SGRQ scores compared with nonresponders. In conclusion, the transition dyspnoea index is a valid instrument when used in a multinational clinical trial and the patterns of response confirm a 1‐unit change in the transition dyspnoea index focal score as being clinically important.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2004832594</t>
+          <t>https://openalex.org/W1511297714</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/j.2168-0159.2014.tb00108.x</t>
+          <t>https://doi.org/10.1128/jb.123.1.47-55.1975</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Madigan et al. (2014)</t>
+          <t>Read &amp; McElhaney (1975)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>30.2: &lt;i&gt;Invited Paper&lt;/i&gt;: Advancements in Inkjet Printing for OLED Mass Production</t>
+          <t>Glucose transport in Acholeplasma laidlawii B: dependence on the fluidity and physical state of membrane lipids</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Abstract Continuous improvements in inkjet printing of organic light emitting diode (OLED) displays have resulted in a number of recent demonstrations of uniform, mura‐free TV‐sized panels. These improvements combined with steady progress in solution OLED material performance, have allowed inkjet to become a realistic near term enabler of cost‐effective mass production of large size OLED TVs. However, for inkjet to make the transition from R&amp;amp;D to mass production, a number of equipment challenges must be overcome, including achieving low particle contamination, maintaining the optimal process environment while preserving serviceability, and providing consistent, uniform, mura‐free results with a wide process window. In this paper, the methodology (with respect to algorithms and process control) used in Kateeva's YIELDjet platform are described that lead to the uniform deposition of ink across an OLED display using inkjet printing, resulting in a highly uniform OLED emission with a wide process window.</t>
+          <t>The uptake of D-glucose by Acholeplasma laidlawii B occurs via a mediated transport process, as shown by the following observations: (i) glucose permeates A. laidlawii B cells at a rate at least 100 times greater than would be expected if its entry occurred only by simple passive diffusion; (ii) the apparent activation energy for glucose uptake in A. laidlawii is significantly lower than that expected and observed for the passive permeation of this sugar; (iii) glucose uptake appears to be a saturable process; (iv) glucose uptake can be completely inhibited by low concentrations of phloretin and phlorizin; and (v) glucose uptake is markedly inhibited at temperatures above 45 C, whereas the passive entry of erythritol continues to increase logarithmically until at least 60 C. The metabolism of D-glucose by this organism is rapid and, at low glucose concentrations, the intracellular radioactivity derived from D-[14-C]glucose is at any given time a reflection of the net effect of glucose transport, glucose metabolism, and loss from the cell of radioactive metabolic products. Care must thus be taken when attempting to determine the rate of glucose transport by measuring the accumulation by the cells of the total radioactivity derived from D-[14-C]glucose. The rate of uptake of D-glucose by A. laidlawii B cells is markedly dependent on the fatty acid composition and cholesterol content of the plasma membrane and exhibits a direct dependence on the fluidity of the membrane lipids as measured by their reversible, thermotropic gel to liquie-crystalline phase transition temperatures. In contrast to the transport rates, the apparent activation energy for glucose uptake above the phase transition temperature is not dependent on membrane lipid composition. At the temperature range within the membrane lipid phase transition region, the apparent activation energy of glucose uptake is different from the activation energy observed at temperatures above the phase transition. This may reflect the superimposed operation within the phase transition region of more than one temperature-dependent process.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200094928</t>
+          <t>https://openalex.org/W2121673844</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/gco.0000000000000763</t>
+          <t>https://doi.org/10.1080/13563460903586202</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>NA (2022)</t>
+          <t>Caney (2010)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Editorial introductions</t>
+          <t>Markets, Morality and Climate Change: What, if Anything, is Wrong with Emissions Trading?</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Current Opinion in Obstetrics and Gynecology was launched in 1989. It is one of a successful series of review journals whose unique format is designed to provide a systematic and critical assessment of the literature as presented in the many primary journals. The field of obstetrics and gynecology is divided into ten sections that are reviewed once a year. Each section is assigned one or more Section Editors. They are the leading authorities in their area, who identify the most important topics at that time. Here we are pleased to introduce the Journal's Editor-in-Chief and Section Editor for this issue. EDITOR-IN-CHIEF Jonathan S. BerekJonathan S. BerekJonathan S. Berek, MD, MMSc, is the Laurie Kraus Lacob Professor at Stanford University, Stanford University School of Medicine; Director, the Stanford Women's Cancer Center; and Senior Advisor, Stanford Cancer Institute, USA. He is the Executive Director, Stanford Health Communication Initiative, Stanford Center for Health Education, Stanford University. He served as the Chair of the Stanford Department of Obstetrics and Gynecology from 2005–2017. Dr Berek is well known as a scholar, clinician, researcher and educator in the field. He is highly regarded for his research on the clinical management of gynecologic cancers and translational research related to these malignancies. He has published over 340 research papers, and several hundred contributed articles, book chapters and monographs. He is especially noted for two of the leading books in the field, Berek &amp; Hacker's Gynecologic Oncology, 7th edition, and Berek &amp; Novak's Gynecology, 16th edition. Dr Berek earned his undergraduate and graduate degrees from Brown University, USA, his Doctor of Medicine degree at Johns Hopkins University School of Medicine, USA, completed his residency at the Harvard Medical School, Brigham and Women's Hospital, USA, and his fellowship in Gynecologic Oncology at the UCLA School of Medicine, USA. For many years, he was a Professor and Vice Chair of Obstetrics and Gynecology at UCLA, where he was also the Chair of the College of Applied Anatomy. Dr Berek is the Group Chair and Principal Investigator for the Cooperative Gynecologic Oncology Investigators (COGI), a member of the Gynecologic Cancer InterGroup (GCIG). He served as Principal Investigator for the Gynecologic Oncology Group (GOG) for more than two decades. His primary research interest is in the immunology and immunotherapy of ovarian cancer, and through the development of experimental models and clinical trials, his initial studies encouraged the development of innovative biologic therapy strategies. Through collaborative work, his group focuses on the development of monoclonal antibodies and targeted immunotherapies for ovarian cancer. Dr Berek has had grant support from the National Institute of Health (NIH) and the Ovarian Cancer Research Foundation (OCRF). Dr Berek is the recipient of the prestigious Sherman Mellinkoff Award and the Excellence in Education Award by the David Geffen School of Medicine at UCLA, and the 2010 John C. Fremont Pathfinder Award. He is regularly listed among America's Best Doctors for Gynecology &amp; Gynecologic Oncology. In 2019, he was given an award by the American Cancer Society in recognition of his lifetime of achievement and for his many contributions to women's cancer care and research. He is board certified by the American Board of Obstetrics and Gynecology (ABOG), and the Division of Gynecologic Oncology. He is a Fellow in the American College of Obstetricians and Gynecologists (FACOG), the American College of Surgeons (FACS), and the American Society of Clinical Oncologists (FASCO). Dr Berek has served as an examiner for the American Board Obstetrics and Gynecology (ABOG) and for the Council on Resident Education in Obstetrics and Gynecology (CREOG). Dr Berek is Past-President of the Council of University Chairs of Obstetrics and Gynecology (CUCOG), and Past President of the International Gynecologic Cancer Society (IGCS). His many honors include receiving the President's Award from the Society of Gynecologic Oncologists (SGO), serving as its Vice President in 1996–1997, and presenting numerous distinguished lectureships. Dr Berek has served on many national committees for the National Institutes of Health (NIH), the National Cancer Institute (NCI), the American College of Surgeons (ACS), the Society of Gynecologic Oncologists (SGO), the American College of Obstetricians and Gynecologists (ACOG), and the American Society of Clinical Oncology (ASCO). He is a member of the Society of Gynecologic Investigation (SGI), and the Society of Pelvic Surgeons (SPS). He is the Editor-in-Chief of Current Problems in Obstetrics and Gynecology, Past Editor-in-Chief of ASCO Connections, and Senior Editor of the International Journal of Gynecologic Cancer. He has served as an Editor of Prolog and Précis for the American College of Obstetricians and Gynecologists, and on the editorial boards of </t>
+          <t xml:space="preserve">Abstract This article explores whether emissions trading is morally defensible To do so it examines three different kinds of moral consideration Which might be used to judge emissions trading. The first kind makes what I term an 'ethical' objection, and holds that utilising market instruments to combat climate change is inherently objectionable. I examine three versions if this 'ethical' argument but find none persuasive. The remainder of the article considers two additional moral considerations, both of which appeal to principles of justice. Drawing on these it argues that emissions trading can be morally defensible but only it it meets these two demanding moral criteria. First, the costs of emissions trading should be shared equitably. The paper examines what this might mean and criticises the leading account of what constitutes a just distribution of emissions Second, emissions trading must make an appropriate contribution to climate mitigation. A number of ways in which current emissions trading schemes signally fail to meet this second criterion are then noted. The article concludes that emissions trading schemes could in principle be morally defensible but only if new schemes are introduced or existing schemes are radically redesigned in line with the principles outlined in the article. Keywords: emissions tradingethicsjusticeclimate change Notes An earlier version of this paper was presented at the 'Commodifying Carbon' Conference (University of Oxford, 16 July 2007). I am grateful to the two respondents on my paper, Timmons Roberts and Henry Shue, for their instructive comments. A much later version was presented at the workshop on 'Global Emissions Trading: Ethics, Policy and Politics' (University of Warwick, 8 July 2009). I am grateful to the participants for their suggestions. I am especially indebted to Ed Page for a number of very illuminating discussions of the themes examined in this paper and to the anonymous referee for this journal for their extremely helpful comments. The paper was completed during my tenure of an ESRC Climate Change Leadership Fellowship (2008–11) and I am grateful to the ESRC for its support. Note that emissions trading schemes are not the only market instrument being employed to mitigate climate change. Another potentially important market instrument is the United Nations' programme on Reducing Emissions from Deforestation and Forest Degradation in Developing Countries (UN-REDD). See on this http://www.undp.org/mdtf/un-redd/overview.shtml [last accessed 11 December 2009]. REDD is one specific version of what is known as 'payment for environmental services' (PES). For an overview of PES see Engel et al. Citation(2008). My focus in this article is on emissions trading but some of the issues raised are also relevant for an appraisal of REDD and other schemes which involve paying for environmental services. I am grateful to an anonymous referee for pressing me on this point. This sentence needs to be heavily qualified for the impoverished may be unfree not to sell emissions. That is, their economic disadvantage may compel them to sell their emissions. I have argued elsewhere that there is a duty of justice to eradicate global poverty (Caney Citation2005) and if this were honoured then this concern would be met. One might also address this concern either by allocating large numbers of emissions permits to the disadvantaged or by auctioning the permits and distributing the revenues to the disadvantaged (Beckerman and Pasek Citation2001: 183–4). These issues are examined in section IV. Simmel (Citation1990 [1907]: 286) illustrates his argument through an historical analysis of different systems of payment, such as feudalism. He points out that an economy where persons are required to transfer a certain specific good (such as 'a quantity of beer or poultry or honey') 'thereby determines the activity of the … [duty-bearer] in a certain direction' and, as such, limits their liberty more than one where one can discharge one's debts though payment of money. A second, quite different reason for analysing emissions trading in the light of other policies is that it is often the case that one policy, whilst successful on its own, may undercut the efficacy of a second policy. They may work well separately but undermine each when adopted together. See Carbon Disclosure Project (http://www.cdproject.net/) and Carbon Monitoring for Action (http://carma.org/) [both last accessed on 26 June 2009]. See also the interesting discussion by Thaler and Sunstein in Nudge (Citation2008: 188–92). For the claim that they should be inalienable see Shue (Citation1993: 58). For instructive comparisons of different schemes see Roberts and Thumim (Citation2006: section 2) and Bottrill Citation(2006). For informative overviews see House of Commons Environmental Audit Committee Citation(2008) and DEFRA's analysis of individual carbon permit schemes (now available at the website of the Department for Energy </t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3164598236</t>
+          <t>https://openalex.org/W2117213785</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12875-021-01449-1</t>
+          <t>https://doi.org/10.1073/pnas.1202526109</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Tashkandi et al. (2021)</t>
+          <t>Carter et al. (2012)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Clinical laboratory services for primary healthcare centers in urban cities: a pilot ACO model of ten primary healthcare centers</t>
+          <t>Mechanism for Hypocretin-mediated sleep-to-wake transitions</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Abstract Background Primary healthcare centers (PHC) ensure that patients receive comprehensive care from promotion and prevention to treatment, rehabilitation, and palliative care in a familiar environment. It is designed to provide first-contact, continuous, comprehensive, and coordinated patient care that will help achieve equity in the specialty healthcare system. The healthcare in Saudi Arabia is undergoing transformation to Accountable Care Organizations (ACO) model. In order for the Kingdom of Saudi Arabia (KSA) to achieve its transformational goals in healthcare, the improvement of PHCs’ quality and utilization is crucial. An integral part of this service is the laboratory services. Methods This paper presents a pilot model for the laboratory services of PHC's in urban cities. The method was based on the FOCUS-PDCA quality improvement method focusing on the pre-analytical phase of the laboratory testing as well as the Saudi Central Board for Accreditation of Healthcare Institutes (CBAHI) gap analysis and readiness within the ten piloted primary healthcare centers. Results The Gap analysis, revealed in-consistency in the practice, lead to lower the quality of the service, which was seen in the low performance of the chosen key performance indicators (KPI's) (high rejection rates, lower turn-around times (TAT) for test results) and also in the competency of the staff. Following executing the interventions, and by using some of the ACO Laboratory strategies; the KPI rates were improved, and our results exceeded the targets that we have set to reach during the first year. Also introducing the electronic connectivity improved the TAT KPI and made many of the processes leaner. Conclusions Our results revealed that the centralization of PHC's laboratory service to an accredited reference laboratory and implementing the national accreditation standards improved the testing process and lowered the cost, for the mass majority of the routine laboratory testing. Moreover, the model shed the light on how crucial the pre-analytical phase for laboratory quality improvement process, its effect on cost reduction, and the importance of staff competency and utilization.</t>
+          <t>Current models of sleep/wake regulation posit that Hypocretin (Hcrt)-expressing neurons in the lateral hypothalamus promote and stabilize wakefulness by projecting to subcortical arousal centers. However, the critical downstream effectors of Hcrt neurons are unknown. Here we use optogenetic, pharmacological, and computational tools to investigate the functional connectivity between Hcrt neurons and downstream noradrenergic neurons in the locus coeruleus (LC) during nonrapid eye movement (NREM) sleep. We found that photoinhibiting LC neurons during Hcrt stimulation blocked Hcrt-mediated sleep-to-wake transitions. In contrast, when LC neurons were optically stimulated to increase membrane excitability, concomitant photostimulation of Hcrt neurons significantly increased the probability of sleep-to-wake transitions compared with Hcrt stimulation alone. We also built a conductance-based computational model of Hcrt-LC circuitry that recapitulates our behavioral results using LC neurons as the main effectors of Hcrt signaling. These results establish the Hcrt-LC connection as a critical integrator-effector circuit that regulates NREM sleep/wake behavior during the inactive period. This coupling of distinct neuronal systems can be generalized to other hypothalamic integrator nuclei with downstream effector/output populations in the brain.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4256469991</t>
+          <t>https://openalex.org/W2159766471</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-1-349-19407-0_7</t>
+          <t>https://doi.org/10.1061/(asce)co.1943-7862.0000213</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Armstrong (1988)</t>
+          <t>Hartmann et al. (2010)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Lenin Deconstructs</t>
+          <t>Closure to “Areas of Application for 3D and 4D Models on Construction Projects” by Timo Hartmann, Ju Gao, and Martin Fischer</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>The retrécissement of novel-space that took place at the end of the last chapter as Levin and Kitty bend over their sleeping child has more than psychological significance. When it is contrasted with, for example, the grand movement of dispersion that is the dramatic and didactic highlight of the last act of Chekhov’s Cherry Orchard (1902–3), it seems to bear the directly opposite political message. The sale of the orchard is a financial necessity; it may also be moral duty; but it is above all a collective release, enabling Trofimov to exclaim with exhilaration that now, ‘The whole of Russia is our cherry-orchard!’ With all the characters except Firs forced out into the world, many of them, like Gaev, to earn their living for the first time, one can easily say that the play is prophetic of the changes to come to the whole country. While Chekhov never specifically mentions revolution, Trofimov’s hailing of a glorious future can be allowably connected to that event, while some specific details that he envisages have been visibly realised. The modern Soviet Union has certainly provided crèches for its children, and Lenin’s aim of universal literacy has involved the construction of libraries in every town. All of which seems to form a strange contrast with the inward-looking preoccupations of the Count and Countess Levin.</t>
+          <t>The authors provide a good categorization framework for application areas for 3D and 4D models in construction practices. It will be helpful for the practitioners in finding the most beneficial applications of 3D and 4D models on their projects and also for the researchers in identifying the most promising areas of research. The authors have already explored different possible areas of applications and research; however, the objective of this discussion is to make some additional observations about a few issues related to future research areas for 3D and 4D models. The discusser feels that more points may be incorporated in future studies in order to help readers better understand the authors’ observations. Although 3D computer-aided drafting CAD models are strong visualization tools, they consist of points, lines, polygons, and solids with no topology and no link to a database. As mentioned in the paper, there is a major revolution of building information modeling BIM in the CAD world. BIM is a kind of 3D modeling that includes topology and may be linked with a database. It is a full building life cycle management tool from construction to day-to-day operations to ultimate demolition. The authors mentioned that 3D/4D models, as well as BIM, need to be researched to determine their future use in different applications areas. In the discusser’s opinion, it would have been better if the authors had specified that 3D CAD and 4D modeling should be researched for application in 3D topology, or the industry needs the integration of BIM with 4D tools, or researchers should study the application of 4D tools during the project life cycle as mentioned in the paper , or the 3D and 4D modeling capabilities of BIM should be enhanced. The 4D models require application-level integration to fulfill project requirements such as quantity takeoffs, cost estimation, energy simulations, etc. Hence, software from various disciplines is being used to fulfill such requirements. Architects, engineers, builders, owners, and operators face challenges because different information formats are used to represent the graphical and nongraphical information for a project and this data is difficult to consolidate Isikdag et al. 2008 . During the planning process when using 4D models, planners have to repeatedly reorganize, interpret, and combine the information collected from different software. This process is tedious and frequently produces errors. Therefore, lack of interoperability is a major obstacle to effectively combining information from different sources. BIM provides solutions for overcoming the interoperability problems that</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3203683278</t>
+          <t>https://openalex.org/W2075007701</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02513625.2021.1981008</t>
+          <t>https://doi.org/10.1097/00005373-199607000-00001</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Hillier (2021)</t>
+          <t>Hassett (1996)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>The “Flatness” of Deleuze and Guattari: Planning the City as a Tree or as a Rhizome?</t>
+          <t>Do It Right, Do the Right Thing</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Flat ontology has become an umbrella term for several theoretically based approaches, notably Delanda’s controversial reconstruction of DeleuzoGuattarian concepts. I highlight key divergences in Delanda’s “flat ontology” from that of Deleuze and Guattari’s “flattening” of multiplicities on a plane of immanence. The rhizome is arguably the concrete image of Deleuze and Guattari’s multiplicity, constituted by intensive relations, or becomngs, between heterogeneous singularities. A rhizomatic multiplicity contrasts markedly with the hierarchical dualism of the pseudomultiplicities of arborescent structures.Referencing Marston et al.’s “flat” site-ontology, I introduce sites as DeleuzoGuattarian eventspaces; emergent properties of entangled human and non-human relations and their capacities to affect and be affected. I select two spatial planning sites from urban fringe Australia, both of which involve significant transformation of (semi-)riparian habitat. One illustrates an arborescent system of thought and practice and the other a more rhizomatic approach which explores the situational potential of human/non-human encounters. I explore capacities of both sites to affect humans and non-humans and how the respective planning systems engage with them. I then question the possibility of rhizomatic planning practices, whether arborescence is inevitable, or whether a double-structure is possible, before concluding that a double-structure may afford glimpses of the bi-directionality or “flattening” of DeleuzoGuattarian multiplicity – “both/and” – an inclusive disjunctive synthesis of becoming.</t>
+          <t>Ladies and gentlemen, members of EAST, and guests! In preparation for this address, I reviewed my predecessors presentations. Dr. Maull urged us to dispel fatalism in 1989. [1] Dr. Harris searched for values in our changing times. [2] Dr. Jacobs identified forces that shape trauma care. [3] Dr. Champion reflected on directions of trauma care. [4] Dr. Schwab identified the largest sociomedical problem of the turn of the century. [5] Dr. Rhodes gave practical guidelines for trauma care. [6] Dr. Boyd reported on the principles of action. [7] Each was a prescient view of the challenges to trauma care. I urge each member to review their comments. I will focus on a continuation of their theme and offer an action plan. I have decided to do so because we stand on the threshold of a new century. Each of us has come to this place in time with unique experiences of mentorship, academic preparation, and clinical experience. Our common thread is our dedication to the trauma patient. Each will be asked to address issues and challenges daily. How we do so and what we do will effect generations of future trauma patients. At the turn of the century we are facing questions like: Can we define life, liberty and the pursuit of happiness specifically? Can we reliably ensure access to health care for all? Our sense of mission and vision of the future are important components as we deal with the challenges and questions. My presidential address is a call to active advocacy. I implore you to "Do it right, do the right thing". Modern health care advocates autonomy not cohesiveness. It values patient choice but reduces patient options. It promotes the bottom line and not people. It sees outcome through economic glasses. It replaces a commitment to excellence with a mandate for equity. It does not ensure equal health care to the economically challenged. It is a bean counters plan concocted by people who don't know beans about health care. This is the result of society's failure to address basic issues of health care and economy. Largely, it is a failure of professional and political leadership. Professionally, many of our colleagues take more than they give. Politically, many of our leaders use health care and social systems for their own gain. Somehow, we have lost the vision of our mission and responsibility. Figure 1Figure 1Entrepreneurs found health care in the seventies. The medical market place was an open and largely unregulated area. It soon became dominated by technology that superseded the normally accepted "doctor skills". Hospitals became technological marvels. Public policy for Medicare and Medicaid created a funding source that could supply this market with sufficient funds to make entrepeneurial investment reasonable. Some define this entrepreneurship as an organized license to steal. Others see it as the natural order of life. In the initial phases, it provided resources and fulfilled the dream of universal health care, where every malady could be addressed directly. In the later phases, it created circumstances where health care devices have astronomical prices and minor problems have million dollar responses. Decisions are directed by the corporate bottom line and controlled by the fear of litigation. The process has made us all commodities to be managed and used. Health care is provided according to the number of covered lives per annum. Health care providers are seen in terms of the number of contact hours per day. We are part of a system of health care delivery that sets a priority on certain types of care. Delays in delivering care are economically driven. The bottom line is important. The question is whose bottom line is being valued in the decision process. Students are taught more about the cost per dose than the pharmacology of the drug given. They are indoctrinated to careers and training programs are modified according to the mantra of managed care. Residents are concerned with a "niche market," attractiveness of their skills to their eventual employer, and their benefits package. Attending staff are evaluated according to the length of stay of their patients or the number of resource days utilized. The natural result is a struggle for the control of health care. In many ways, health care providers and patients are in a "free fire zone" in a modern economic war. Neither controls the environment. Both are victims and victimize the system simultaneously. Today, the other side is winning. However, all is not lost. Groups of health care professionals are addressing issues aggressively. The Phoenix analogy that a better health care system may emerge from the ashes of the past health care system has become a popular concept in groups who accept the challenge of change. The major goals of these groups are intelligent organization, focus, and outcome-based service. None of the issues are new. Most of the issues, challenges, and responses have been with us for a long time. The history of the response to change in m</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2162289027</t>
+          <t>https://openalex.org/W4380078132</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1061/(asce)1076-0342(2008)14:1(64)</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3033984/v1</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Park et al. (2008)</t>
+          <t>Araya et al. (2023)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Energy Harvesting for Structural Health Monitoring Sensor Networks</t>
+          <t>Promoting climate-smart sustainable agroforestry to tackle social and environmental challenges: The case of Macadamia agroforestry in Malawi</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>This paper reviews the development of energy harvesting for low-power embedded structural health monitoring (SHM) sensing systems. A statistical pattern recognition paradigm for SHM is first presented and the concept of energy harvesting for embedded sensing systems is addressed with respect to the data acquisition portion of this paradigm. Next, various existing and emerging sensing modalities used for SHM and their respective power requirements are summarized followed by a discussion of SHM sensor network paradigms, power requirements for these networks, and power optimization strategies. Various approaches to energy harvesting and energy storage are discussed and limitations associated with the current technology are addressed. The paper concludes by defining some future research directions that are aimed at transitioning the concept of energy harvesting for embedded SHM sensing systems from laboratory research to field-deployed engineering prototypes. Finally, it is noted that many of the technologies discussed herein are applicable to powering any type of low-power embedded sensing system regardless of the application.</t>
+          <t>Abstract Our current global food system is understood to require a fundamental transformation based on a holistic approach to maintain long-term fertility, healthy biodiverse agroecosystems, and climate-proof/secure livelihoods. Recently, there has been a growing recognition of smallholder farmers' contributions to addressing key global environmental and social development issues (i.e., SDGs), including poverty, food security, climate change, and sustainable development. One specific approach is agroforestry-based agriculture, in which edible food and commercially important trees are grown on cropland, thereby improving the biodiversity of farming systems, enhancing agricultural productivity, and adding benefits such as nutrition and financial stability, not least climate resilience. In this context, we present lessons learned from an agroforestry system in Malawi that involves smallholder farmer cooperatives interplanting macadamia nut trees with annual crops such as groundnuts, maize, and soybeans. We review holistic advantages such as yield improvement, farmer perceptions, and challenges. We provide insights into what works in designing (NMT, linkage with finance plan) and draw lessons that can be applied to other comparable programmes worldwide.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2140475113</t>
+          <t>https://openalex.org/W2274534862</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3109/01421590902842417</t>
+          <t>https://doi.org/10.1111/resp.12749</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Wijnen-Meijer et al. (2009)</t>
+          <t>Jo et al. (2016)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>The influence of a vertically integrated curriculum on the transition to postgraduate training</t>
+          <t>Year in review 2015: Interstitial lung disease, pulmonary vascular disease, pulmonary function, sleep and ventilation, cystic fibrosis and paediatric lung disease</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Recently, many medical curricula have been changed into vertically integrated programmes. One of the aims of vertical integration is to facilitate the transition from theoretical to clinical education and from medical school to postgraduate training.The aim of this study was to determine whether a vertically integrated curriculum affects the transition from medical school to postgraduate training.We carried out a survey study among graduates of two cohorts of the Utrecht Medical School, who followed either the traditional or the innovative, vertically integrated, curriculum. Topics of the questionnaire were: (a) activities since medical school, (b) required amount of time and number of applications to get admitted to residency, (c) the process of making career choices.Graduates from the vertically integrated curriculum had made their definite career choice earlier compared to those who followed a traditional programme. Graduates of the new curriculum also needed less time and fewer applications to obtain a residency position.A vertically integrated curriculum at medical school positively affects the transition to postgraduate training. Additional research, among a larger population, is required to determine which components of the curriculum cause this effect and to specify under which conditions these effect occurs.</t>
+          <t>The diagnosis and treatment of interstitial lung diseases (ILD) have undergone revolution in 2015, with the new antifibrotic treatments pirfenidone and nintedanib now incorporated into clinical practice guidelines for the treatment of idiopathic pulmonary fibrosis (IPF).1 This follows their pivotal phase III trials in 20142, 3 that showed, for the first time, slowing of disease progression in this devastatingly fatal disease. While pirfenidone had been licenced in Japan since 2008 and Europe since 2011, both drugs gained Federal Drug Administration (FDA) approval in the United States in 2014, heralding a new era in the management of IPF worldwide. This change in the paradigm of IPF management prompted a comprehensive and timely review series this year in Respirology, focusing on the idiopathic interstitial pneumonias (IIP),4-8 an important subset of ILD. In this series, Jacob et al.5 highlight the three cardinal features of classical usual interstitial pneumonia (UIP) on high-resolution computed tomography (HRCT) scan as honeycomb cysts, traction bronchiectasis and volume loss of the lung parenchyma. They also discuss the current conundrum of ‘possible UIP’: as clinicians, we are currently faced with guidelines that recommend a surgical lung biopsy for further characterization if the HRCT is not classical. However, in reality, only a minority of patients undergo this procedure. With Fell et al.9 showing in patients without definite honeycomb change, that an age greater than 70 years has a positive predictive value of 95% for UIP on lung biopsy; and sub-analysis from the INPULSIS trials showing that patients with possible UIP respond equally well to nintedanib, the clinical utility of the term ‘possible UIP’ comes into question. In a comprehensive review of the histopathology of IIP, Tabaj et al.7 also highlight the challenge posed on histopathology by the ‘certainty’ categories of UIP based on key features as stated in the 2011 IPF guidelines.10 In practice, while these categories provide a common lexicon for clinical trial enrolment, they may lead to confusion and/or oversimplification. These authors note the potential for transbronchial cyrobiopsy, a new diagnostic procedure for ILD patients, to obtain larger tissue fragments with little reported artefact than previously possible with conventional transbronchial biopsy. With promising results demonstrated in the diagnosis of ILD, this may become a feature of future ILD diagnostic algorithms.11 In a critical review of the revised IIP classification,12 Neurohr et al.6 emphasize the importance of a multidisciplinary approach to IIP diagnosis, integrating clinical, physiological, radiological and histopathological data. They also discuss the importance of the newly recognized category of ‘unclassifiable IIPs’ introduced in the 2013 IIP update, in which a disease behaviour classification has been proposed to allow a pragmatic management approach with suggested goals and monitoring strategies. With the rapid changes occurring in ILD diagnosis and management, this review series encapsulates the current standards and complexities involved in the care of ILD patients. The lack of standardized approach to IPF diagnosis and management is highlighted by Troy et al.13 who report a wide variation in diagnostic and therapeutic approach to IPF in 144 Australian and New Zealand respiratory physicians surveyed in 1999 and again in 2012–2013. In the latter survey, 34% of physicians responded that they would refer patients to subspecialist ILD clinics or multidisciplinary meetings and 33% would commence corticosteroids and/or azathioprine. While no antifibrotic therapies were available at the time of this survey, the results of the PANTHER-IPF trial14 showing increased harm with this immunosuppressive regime were available, and thus, they illustrate the fast pace at which IPF management is changing and delay with which recommendations are being translated to clinical practice. The authors argue that there is a need to standardize the approach to diagnosis and treatment of IPF patients. The need for novel tools to enhance our diagnosis of ILDs is apparent and was explored by Bhattachryya et al.15 who reported an algorithm to visually transform the breath sounds of patients with diffuse parenchymal lung disease compared with normal subjects. While this study showed 100% accuracy in differentiating the normal (n = 20) from the abnormal (n = 8), the accompanying editorial by Joshi16 concludes that this algorithm is unlikely to be of any additional value above traditional auscultation. Their transformation of sound to an interpretable visual image, however, shows ingenuity and promise for future medical and educational applications. Diagnostic challenges facing respiratory physicians extend to the granulomatous lung diseases (GLD) with a diverse range of aetiologies reported. In a single-centre retrospective study of 190 GLD patients with surgical lung biopsies, Nazarullah et al.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2349092249</t>
+          <t>https://openalex.org/W43931580</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Cheng-gang (2012)</t>
+          <t>Storey (1997)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Production Mode, Business Model and Financial Relation</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Production mode and business model are two different concepts connected to each other.The main distinctions are embodied in disciplinary attribute and characteristic of production factor and behavioral trait.Relationship between them in cludes two sides.One side is that business model belongs to generalized production mode.The other side is that enterprises’ production mode is the base and environmental premise of construction of business model.With the progress of science and tech nology and development of knowledge,both have been in dynamic transition.The persistent revolution of production mode and constant innovation of business model profoundly affect financial relations of enterprises.Therefore,financial relations present market-oriented trend,and social financial relations(or market-driven financial relations) between enterprises and market re spectively develop towards lineation and network.These changes of enterprises’ financial relations shift the investment of en terprises’ production factor capitals,so that enterprises generate the financial relations based on production factor capitals such as human capital financial relation and technology capital financial relation.</t>
+          <t>The Use of Natural Supports To Increase Integration in Supported Employment Settings for Youth in Transition. Final Report.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2092350897</t>
+          <t>https://openalex.org/W2026539446</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ijedudev.2005.08.005</t>
+          <t>https://doi.org/10.1074/jbc.273.21.12732</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Dora (2006)</t>
+          <t>Capranico et al. (1998)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Understanding the complexity of preschool teaching in Hong Kong: The way forward to professionalism</t>
+          <t>Mapping Drug Interactions at the Covalent Topoisomerase II-DNA Complex by Bisantrene/Amsacrine Congeners</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>In Hong Kong, preschool education has been viewed either as preparation for primary education or as custodial care to suit working mothers. These ambiguous images of preschool teachers and teaching are definitely a roadblock to professionalization. This paper critically analyzes the professionalization of preschool education in the local context. Arguing that quality of practice is the cornerstone for improving the status of preschools and their teachers, it examines the complexity of professional knowledge and practice from two aspects: building knowledge and using knowledge. The former concerns child development theory as the knowledge base for practice and the latter addresses the factors affecting transformation of knowledge to pedagogy in the classroom context. Finally, it suggests that action research may provide a better grounding for professionalization.</t>
+          <t xml:space="preserve">To identify structural determinants for the sequence-specific recognition of covalent topoisomerase II-DNA complexes by anti-cancer drugs, we investigated a number of bisantrene congeners, including a 10-azabioisoster, bearing one or two 4,5-dihydro-1H-imidazol-2-yl hydrazone side chains at positions 1, 4, or 9 of the anthracene ring system. The studied bisantrene/amsacrine (m-AMSA) hybrid and bisantrene isomers were able to poison DNA topoisomerase II with an intermediate activity between those of bisantrene and m-AMSA. Moving the side chain from the central to a lateral ring (from C-9 to C-1/C-4) only slightly modified the drug DNA affinity, whereas it dramatically affected local base preferences of poison-stimulated DNA cleavage. In contrast, switching the planar aromatic systems of bisantrene andm-AMSA did not substantially alter the sequence specificity of drug action. A computer-assisted steric and electrostatic alignment analysis of the test compounds was in agreement with the experimental data, since a common pharmacophore was shared by bisantrene,m-AMSA, and 9-substituted analogs, whereas the 1-substituted isomer showed a radically changed pharmacophoric structure. Thus, the relative space occupancy and electron distribution of putative DNA binding (aromatic rings) and enzyme binding (side chains) moieties are fundamental in directing the specific action of topoisomerase II poisons and in determining the poison pharmacophore. To identify structural determinants for the sequence-specific recognition of covalent topoisomerase II-DNA complexes by anti-cancer drugs, we investigated a number of bisantrene congeners, including a 10-azabioisoster, bearing one or two 4,5-dihydro-1H-imidazol-2-yl hydrazone side chains at positions 1, 4, or 9 of the anthracene ring system. The studied bisantrene/amsacrine (m-AMSA) hybrid and bisantrene isomers were able to poison DNA topoisomerase II with an intermediate activity between those of bisantrene and m-AMSA. Moving the side chain from the central to a lateral ring (from C-9 to C-1/C-4) only slightly modified the drug DNA affinity, whereas it dramatically affected local base preferences of poison-stimulated DNA cleavage. In contrast, switching the planar aromatic systems of bisantrene andm-AMSA did not substantially alter the sequence specificity of drug action. A computer-assisted steric and electrostatic alignment analysis of the test compounds was in agreement with the experimental data, since a common pharmacophore was shared by bisantrene,m-AMSA, and 9-substituted analogs, whereas the 1-substituted isomer showed a radically changed pharmacophoric structure. Thus, the relative space occupancy and electron distribution of putative DNA binding (aromatic rings) and enzyme binding (side chains) moieties are fundamental in directing the specific action of topoisomerase II poisons and in determining the poison pharmacophore. The elucidation of structural determinants of the sequence-specific recognition of DNA by small molecules is fundamental for a rational design of gene-specific DNA binders that are effective in the therapy of human diseases. Several DNA-interactive compounds are known that may bind to the double helix in a site-selective manner; however, the degree and mechanisms of the specificity are very different among them (1Palumbo M. Advances in DNA Sequence-specific Agents 3. Jai Press Inc., 1998Google Scholar, 2Capranico G. Binaschi M. Borgnetto M.E. Zunino F. Palumbo M. Trends Pharmacol. Sci. 1997; 18: 303-346PubMed Google Scholar, 3Baguley B.C. Anti-Cancer Drug Des. 1991; 6: 1-35PubMed Google Scholar, 4Bailly C. Denny W.A. Waring M.J. Anti-Cancer Drug Des. 1996; 11: 611-624PubMed Google Scholar). A wide variety of antitumor drugs, with and without the ability to bind to naked DNA, have been shown to poison DNA topoisomerases with a high sequence selectivity (2Capranico G. Binaschi M. Borgnetto M.E. Zunino F. Palumbo M. Trends Pharmacol. Sci. 1997; 18: 303-346PubMed Google Scholar, 5Pommier Y. Teicher B.A. Cancer Therapeutics: Experimental and Clinical Agents. Humana Press Inc., Totowa, NJ1997: 153-174Crossref Google Scholar, 6Liu L.F. Annu. Rev. Biochem. 1989; 58: 351-375Crossref PubMed Scopus (1913) Google Scholar, 7Froelich-Ammon S.J. Osheroff N. J. Biol. Chem. 1995; 270: 21429-21432Abstract Full Text Full Text PDF PubMed Scopus (504) Google Scholar). DNA topoisomerases are ubiquitous enzymes deputed to resolve topological problems that arise during various nuclear processes including transcription, recombination, and chromosome partitioning at cell division (8Wang J.C. Annu. Rev. Biochem. 1996; 65: 635-692Crossref PubMed Scopus (2060) Google Scholar, 9Watt P.M. Hickson I.D. Biochem. J. 1994; 303: 681-695Crossref PubMed Scopus (385) Google Scholar, 10Osheroff N. Zechiedrich E.L. Gale K.C. BioEssays. 1991; 13: 269-273Crossref PubMed Scopus (235) Google Scholar). Type II enzymes make transient double-stranded breaks into one segment of DNA and pass an </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3132900290</t>
+          <t>https://openalex.org/W4315432957</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3389/fevo.2022.1048752</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Collins et al. (1977)</t>
+          <t>Xue et al. (2023)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Charge transfer pumping of the helium nitrogen laser at atmospheric pressures in an electrical avalanche discharge</t>
+          <t>Supply-driven evolution: Mutation bias and trait-fitness distributions can drive macro-evolutionary dynamics</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>An atmospheric electrical avalanche (AEA) laser, stabilized by displacement current preionization, has been developed to support the study of the collisional pumping of the N+2, B→X, electronic transition by the kinetic step He+2+N2+He→N+2(B2Σu)+3He. With proper preionization, the AEA laser has been operated at a pulse repetition frequency (PRF) of 1–30 Hz in an avalanche mode at 100–200 A/cm2 and an E/p of 5 V/cm Torr. At pressures from 1 to 8 atm, an essentially uniform 30‐cm3 volume containing a high concentration of He+2 has been produced. Resulting laser output pumped by the charge transfer reaction has exceeded 1 MW peak power at 427.8 nm in a 4‐nsec pulse. Efficiency with respect to the instantaneous power conversion has exceeded 2%, and output pulse energies have exceeded 1% of the input pulse of energy dissipated in the laser tube.</t>
+          <t>Many well-documented macro-evolutionary phenomena still challenge current evolutionary theory. Examples include long-term evolutionary trends, major transitions in evolution, conservation of certain biological features such as hox genes, and the episodic creation of new taxa. Here, we present a framework that may explain these phenomena. We do so by introducing a probabilistic relationship between trait value and reproductive fitness. This integration allows mutation bias to become a robust driver of long-term evolutionary trends against environmental bias, in a way that is consistent with all current evolutionary theories. In cases where mutation bias is strong, such as when detrimental mutations are more common than beneficial mutations, a regime called “supply-driven” evolution can arise. This regime can explain the irreversible persistence of higher structural hierarchies, which happens in the major transitions in evolution. We further generalize this result in the long-term dynamics of phenotype spaces. We show how mutations that open new phenotype spaces can become frozen in time. At the same time, new possibilities may be observed as a burst in the creation of new taxa.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2082930573</t>
+          <t>https://openalex.org/W2006443271</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrev.109.741</t>
+          <t>https://doi.org/10.1097/tme.0b013e3182080ef4</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Nozières &amp; Pines (1958)</t>
+          <t>Polly &amp; Nicole (2011)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Electron Interaction in Solids. General Formulation</t>
+          <t>Understanding the Transsexual Patient</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>A general Hamiltonian formalism is developed to treat from first principles the motion of electrons in solids, including their mutual Coulomb interaction. By a series of canonical transformations it is shown that under suitable circumstances (which obtain in nearly all solids) plasmons (a quantized collective plasma oscillation of the electron gas) represent a well-defined elementary excitation of the solid. The "existence criterion" for plasmons is found to be a high electronic polarizability. Where plasmons exist, we are able to give a satisfactory description of their properties when the majority of the individual electron oscillator strengths correspond to transitions in which the energy change is large or small with respect to the plasmon energy, $\ensuremath{\hbar}{\ensuremath{\omega}}_{p}=\ensuremath{\hbar}{(\frac{4\ensuremath{\pi}N{e}^{2}}{m})}^{\frac{1}{2}}$. After the plasmon modes are separated out, the remaining electron interaction is found to be screened, with a range of the order of the interelectronic spacing. The usefulness of this effective Hamiltonian for the calculation of the electronic energy levels and cohesive energy in solids is discussed briefly.</t>
+          <t>Transsexual individuals present to the emergency department for various reasons; yet, providers and nurses are often unaware of the unique needs of transsexual patients. This article provides an understanding of challenges faced by transsexual individuals in health care access and treatment. The authors explain commonly used terminology and provide an overview of the transition process including the Diagnostic and Statistical Manual, 4th edition criteria for diagnosis and the World Professional Association of Transgender Health's Standards of Care for treatment. The authors provide important details and specific recommendations for the culturally sensitive care of transsexual patients including using the correct name and pronoun, eliminating bias and discrimination, asking appropriate questions, implementing trans-inclusive policies and guidelines, and proper record keeping.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2996299872</t>
+          <t>https://openalex.org/W3098999409</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ica.2019.119345</t>
+          <t>https://doi.org/10.1016/s0550-3213(98)00741-x</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Ishizaki et al. (2020)</t>
+          <t>Maznytsia et al. (1999)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Preparation of Co-Fe oxides immobilized on carbon paper using water-dispersible Prussian-blue analog nanoparticles and their oxygen evolution reaction (OER) catalytic activities</t>
+          <t>Duality of self-dual actions</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Carbon paper (CP) is one of the most promising metal-free gas-diffusion electrodes for fabricating sustainable energy-conversion devices such as metal-air secondary batteries using the oxygen reduction reaction (ORR) and CO2-reforming systems via the electrochemical CO2 reduction reaction (CO2RR). The common counterpart reaction for ORR and CO2RR is the oxygen evolution reaction (OER) from water. The low-overpotential OER catalyzed by nanoparticles (NPs) immobilized on CP has attracted attention for integration in energy-conversion devices. Earth-abundant and low-cost 3d transition metals have been intensively explored as OER catalysts. In this study, we have successfully prepared Fe-Co Prussian blue analog (PBA) NPs with the formulae of Fe1-xCox[Fe(CN)6]0.67·nH2O and Fe1-yCoy[Co(CN)6]0.67·mH2O, and the Fe-Co PBA NPs are dispersed into water by surface modification using [Fe(CN)6]4−. By a simple drop-coating method, the Fe-Co PBA NPs are immobilized on CP and thermally decomposed into Fe-Co oxides at 400 °C. The OER overpotentials of the Fe-Co oxides are gradually decreased by increasing the Co composition ratios, and the lowest overpotential is 0.46 V vs. RHE at 10 mA/cm2 in y = 0.6.</t>
+          <t>Using examples of a D = 2 chiral scalar and a duality-symmetric formulation of D = 4 Maxwell theory we study duality properties of actions for describing chiral bosons. In particular, in the D = 4 case, upon performing a duality transformation of an auxiliary scalar field, which ensures Lorentz covariance of the action, we arrive at a new covariant duality-symmetric Maxwell action, which contains a two-form potential as an auxiliary field. When the two-form field is gauge fixed this action reduces to a duality-symmetric action for Maxwell theory constructed by Zwanziger. We consider properties of this new covariant action and discuss its coupling to external dyonic sources. We also demonstrate that the formulations considered are self-dual with respect to a dualization of the field strengths of the chiral fields.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2390391878</t>
+          <t>https://openalex.org/W2361621631</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Xiu-feng (2011)</t>
+          <t>Wen-x (2014)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Predicament and Countermeasures for College Students' Psychological Health Education</t>
+          <t>A Reflection on the Critique and Illumination of Adorno's Theory of Cultural Industry</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>China is now in the omnidirectional social transformation period,concerning college students' psychological health is really necessary.Influencing factors on college students' psychological health include psychological imbalance,lack of belief,employment anxiety,addicting to the net and poor psychology.The predicaments on college students' psychological health education are as follows: imbalance on carrying out,the courses and activities of education are not normal,the teachers can not satisfy the needs of work,theory research is relatively backward,psychological education is not high.Enhancing and improving college students' psychological health education must insist on people first,pay attention to humanistic care and psychological guide,adapt the needs of times' development,social progress and college population change.</t>
+          <t>As a principal school in western Marxism, the Frankfurt school,headed by Adorno,has laid the groundwork for mass cultural criticism, and is generally regarded as the pioneer incultural studies by the academic community.Although Adorno interprets on the whole the capitalist cultural industry under the control of the technological rationality from a negative perspective, his remarks on the relationships between culture and industry, art and technology, cultural industry and ideology and many other aspects, have definitely a positive significance and referential value in the current practice of Chinese cultural industry.We should quicken the transformation of the governmental role,putemphasison the integration of economic benefits and spiritual values, and pay attention to the dissemination of China's main stream culture in the process of cultural industry development,its reform and innovation.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2016629178</t>
+          <t>https://openalex.org/W4387254144</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/nml.108</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.1493</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Hoye (2006)</t>
+          <t>Santana et al. (2023)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Leadership within Australian voluntary sport organization boards</t>
+          <t>HEPATIC ENCEPHALOPATHY IN A PATIENT WITH CIRRHOSIS SUCCESSFULLY REVERTED WITH CONTINUOUS RENAL REPLACEMENT THERAPY (CRRT)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nonprofit Management and LeadershipVolume 16, Issue 3 p. 297-313 Research Article Leadership within Australian voluntary sport organization boards Russell Hoye, Russell Hoye La Trobe University, Melbourne, AustraliaSearch for more papers by this author Russell Hoye, Russell Hoye La Trobe University, Melbourne, AustraliaSearch for more papers by this author First published: 24 March 2006 https://doi.org/10.1002/nml.108Citations: 64AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat Abstract This article applies leader-member exchange theory to the study of dyadic relationships between leaders (board chairs and paid executives) and members (volunteer board members) within the boards of Australian voluntary sport organizations. The article specifically examines leader-member exchanges within a sample of six Queensland State sport organizations and their relationship with board performance. It was found that leadership within voluntary sport organization boards emanates from either board chairs or executives and that when the individuals fulfilling these roles are able to develop a mature working relationship, the board's ability to perform is enhanced. These findings extend our understanding of the importance of leadership roles held by volunteers and paid professionals for the achievement of organizational outcomes. References Auld, C. "Professionalisation of Australian Sport: The Effects on Organizational Decision-Making." European Journal for Sport Management, 1997, 4 (2), 17–39. Google Scholar Auld, C., and Godbey, G. "Influence in Canadian National Sport Organizations: Perceptions of Professionals and Volunteers." Journal of Sport Management, 1998, 12, 20–38. 10.1123/jsm.12.1.20 Web of Science®Google Scholar Berger, P., and Luckmann, T. The Social Construction of Reality: A Treatise on the Sociology of Knowledge. London: Penguin, 1967. Google Scholar Bradshaw, P., Murray, V., and Wolpin, J. "Do Nonprofit Boards Make a Difference? An Exploration of the Relationships Among Board Structure, Process, and Effectiveness." Nonprofit and Voluntary Sector Quarterly, 1992, 21, 227–249. 10.1177/089976409202100304 Google Scholar Dansereau, F., Graen, G., and Haga, B. A. "A Vertical-Dyad Linkage Approach to Leadership Within Formal Organizations: A Longitudinal Investigation of the Role Making Process." Organizational Behavior and Human Performance, 1975, 13, 46–78. 10.1016/0030-5073(75)90005-7 Web of Science®Google Scholar Danylchuk, K. E., and Chelladurai, P. "The Nature of Work in Canadian Intercollegiate Athletics." Journal of Sport Management, 1999, 13, 148–166. Web of Science®Google Scholar Dockery, T. M., and Steiner, D. D. "The Role of the Initial Interaction in Leader-Member Exchange." Group and Organization Studies, 1990, 15, 395–413. 10.1177/105960119001500405 Web of Science®Google Scholar Doherty, A. J., and Danylchuk, K. E. "Transformational and Transactional Leadership in Interuniversity Athletics Management." Journal of Sport Management, 1996, 10, 292–309. Web of Science®Google Scholar Duchon, D., Green, S., and Taber, T. "Vertical Dyad Linkage: A Longitudinal Assessment of Antecedents, Measures and Consequences." Journal of Applied Psychology, 1986, 71, 56–60. 10.1037/0021-9010.71.1.56 Web of Science®Google Scholar Eisenhardt, K. M. "Building Theories from Case Study Research." Academy of Management Review, 1989, 14, 532–550. 10.2307/258557 Web of Science®Google Scholar Fletcher, K. "Effective Boards: How Executive Directors Define and Develop Them." Nonprofit Management and Leadership, 1992, 2, 283–293. 10.1002/nml.4130020307 CASPubMedGoogle Scholar Gomez, C., and Rosen, B. "The Leader-Member Exchange as a Link Between Managerial Trust and Employee Empowerment." Group and Organization Management, 2001, 26 (1), 53–69. 10.1177/1059601101261004 Web of Science®Google Scholar Graen, G. B., and Uhl-Bien, M. "Relationship-Based Approach to Leadership: Development of Leader-Member Exchange (LMX) Theory of Leadership over Twenty-Five Years: Applying a Multi-Level Multi-Domain Perspective." Leadership Quarterly, 1995, 6 (2), 219–247. 10.1016/1048-9843(95)90036-5 Web of Science®Google Scholar Heimovics, R. D., and Herman, R. D. "Responsibility for Critical Events in Nonprofit Organizations." Nonprofit and Voluntary Sector Quarterly, 1990, 19, 59–72. 10.1177/089976409001900107 Google Scholar Heimovics, R. D., Herman, R. D., and Jurkiewicz, C. L. "The Political Dimension of Effective Nonprofit Executive Leadership." Nonprofit Management and Leadership, 1995, </t>
+          <t>SESSION TITLE: Critical Care Case Report Posters 57 SESSION TYPE: Case Report Posters PRESENTED ON: 10/11/2023 12:00 pm - 12:45 pm INTRODUCTION: Hepatic encephalopathy is a common complication of cirrhosis that increases morbidity and mortality due to hyperammonemia causing cerebral edema leading to herniation and death. Traditionally, hepatic encephalopathy in patients with cirrhosis treatment aims to reduce ammonia production and absorption, continuous renal replacement therapy (CRRT) has been used to treat hyperammonemia in patients with acute liver failure with positive results but its utility in patients with cirrhosis is not well studied. We present the case of a patient with cirrhosis complicated by hepatic encephalopathy who was treated with CRRT with significant improvement in mental and clinical status (1,2). CASE PRESENTATION: 51 y.o. female with history of decompensated alcoholic cirrhosis with ascites, Child Pugh B, portal hypertensive gastropathy, prior hospitalizations for hepatic encephalopathy was found to have altered mental status, unresponsiveness to painful stimuli, with increased tonicity of upper and lower limbs, absent clonus, found to have an ammonia level of 470 umol/L, creatinine 1.5 mg/dl, Bun 45 mg/dl, Alt 23 U/L, AST 45 U/L, PLT 70/NL, INR 1.4 ratio, MELD-Na score 17. A non-contrast CT scan of the head revealed no acute intracranial findings. Patient was intubated for airway protection, started on lactulose 10 g thrice daily and rifaximin 550 mg every 12 hours. The patient was initiated on CRRT in the context of elevated ammonia with acute change in mental status. Subsequently, the ammonia levels declined appropriate to 47 umol/L after 14 hours of CRRT at which time the modality was terminated. Sixteen hours after admission, the patient became more responsive and opened her eyes spontaneously and moved all of her four extremities while following commands. The patient was then transitioned to a regimen of oral lactulose and rifaximin, however, her ammonia level started to rise again to 98 umol/L for which was restarted on CRRT for 2 days. The patient was successfully extubated and CRRT discontinued completely on day 3 of admission, afterwards Ammonia level continued to be in normal range (33 umol/L), patient next day was discharged on lactulose and rifaximin. DISCUSSION: Lactulose improves mental status in 70-80% patients with hepatic encephalopathy with no change in mortality, while the combination of oral antibiotics such as rifaximin with lactulose has been found to be more effective reverting the encephalopathy while also lowering mortality (23.8% vs. 49.1% respectively, P&lt;0.05). CRRT has shown to decrease ammonia level and correct encephalopathy in patients with acute liver failure but its utility in patients with cirrhosis has not been widely studied. Our patient had a favorable outcome in the short interim to reverse her hepatic encephalopathy so that she was able to be discharged home (3). CONCLUSIONS: In patients with non-end-stage cirrhosis who develop severe hepatic encephalopathy, CRRT should be considered as a temporary option to improve ammonia levels until conventional treatments like lactulose and rifaximin start to be effective. REFERENCE #1: Clemmesen JO, Larsen FS, Kondrup J, Hansen BA, Ott P. Cerebral herniation in patients with acute liver failure is correlated with arterial ammonia concentration. Hepatology. 1999; 29(3):648–653. [PubMed: 10051463] REFERENCE #2: Filipe S. Cardoso et al. Continuous renal replacement therapy is associated with reduced serum ammonia levels and mortality in acute liver failure. Hepatology. 2018 February; 67(2): 711–720. doi:10.1002/hep.29488. REFERENCE #3: Sharma BC, et al. A randomized, double-blind, controlled trial comparing rifaximin plus lactulose with lactulose alone in treatment of overt hepatic encephalopathy. The American Journal of Gastroenterology. 2013. 108(9):1458-1463. DISCLOSURES: No relevant relationships by Vishal Reddy Bejugam No relevant relationships by Damion Hunter No relevant relationships by Belinda jim No relevant relationships by Mallika Pradhan No relevant relationships by Rosalba Santana</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2625811892</t>
+          <t>https://openalex.org/W3125157074</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Kessler (2001)</t>
+          <t>Wagstaff (2009)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>The Firm and the Choice between Transparency and Secrecy</t>
+          <t>Social health insurance vs. tax-financed health systems - evidence from the OECD</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Openness has gradually become the rule in the business world, under the influence of the communication technologies revolution, the evolution of the internal organization of firms, the transition from a debt economy to a self-financing economy, the demands of markets and institutional investors, as well as the evolution of corporate law. Openness and information are essential to the good operation of the economy, and their development corresponds to the necessary conditions of a « pure and perfect » competition. However, the demand for an absolute openness of firms, notably under the pressure of consumerism and the fight against frauds and illicit pratices, must respect the rules of industrial property, as well as a certain degree of confidentiality necessary for efficient management.</t>
+          <t>This paper exploits the transitions between tax-financed health care and social health insurance in the OECD countries over the period 1960-2006 to assess the effects of adopting social health insurance over tax finance on per capita health spending, amenable mortality, and labor market outcomes. The paper uses regression-based generalizations of difference-in-differences and instrumental variables to address the possible endogeneity of a country's health system. It finds that adopting social health insurance in preference to tax financing increases per capita health spending by 3-4 percent, reduces the formal sector share of employment by 8-10 percent, and reduces total employment by as much as 6 percent. For the most part, social health insurance adoption has no significant impact on amenable mortality, but for one cause-breast cancer among women-social health insurance systems perform significantly worse, with 5-6 percent more potential years of life lost.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1485230015</t>
+          <t>https://openalex.org/W2125678056</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1017/s1478951509990484</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Szebehely (1982)</t>
+          <t>Macpherson (2009)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Applications of modern dynamics to celestial mechanics and astrodynamics : proceedings of the NATO Advanced Study Institute held at Cortina d'Ampezzo, Italy, August 2-14, 1981</t>
+          <t>Childhood abuse uncovered in a palliative care audit</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>I: Stars, Planets, Satellites, Asteroids and Rings.- The Dynamics of Close Planetary Satellites and Rings.- The Motion of Saturn's Co-Orbiting Satellites 1980S1 and 1980S3.- A Qualitative Study of Stabilizing and Destabilizing Factors in Planetary and Asteroidal Orbits.- Perturbations in Stellar Paths.- Modern Lunar Theory.- Some Aspects of Motion in the General Planar Problem of Three Bodies In Particular in the Vicinity of Periodic Solutions Associated with Near Small-Integer Commensurabilities of Orbital Period.- The Stability of N-Body Hierarchical Dynamical Systems.- Reference Systems for Earth Dynamics.- II: Resonance.- Recent Progress in the Theory of the Trojan Asteroids.- The Adiabatic Invariants: Its Use in Celestial Mechanics.- III: Connection with Statistical Mechanics.- Modern and Old Views in the Dynamical Foundations of Classical Statistical Mechanics.- The KAM Invariant and Poincare's Theorem.- IV: Regularization and Geodesics.- Regularization of the Singularities of the N-Body Problem.- Les Geodesiques de l'Ellipsoide a Trois Axes Inegaux, d'Apres Jacobi, Whittaker, Arnold.- Coordonnees Symetriques sur la Variete de Collision Triple du Probleme Plan des Trois Corps.- V: Non-Linearity, Determinancy and Manifolds.- Ergodic Theory and Area Preserving Mappings.- Exploding Dynamical Systems.- On Some Invariant Manifold Results and Their Applications.- Is Celestial Mechanics Deterministic?.- VI: Abstracts of Seminar Contributions.- On a Family of Continuous Maps of the Circle into Itself Related to the Van der Pol Equation.- Review on Semiconvergent Series, Periodic Solutions and the Vanishing Hessian in Celestial Mechanics.- Perturbative Effects of Solar Radiation Pressure on the Orbital Motion of High Earth Satellites.- Quasi-Random Motions in a Perturbed Pendulum.- Small Bodies Captured by a Thin Annular Disk Orbiting Around a Primary Body.- Lie-Algebraic Methods in Dynamics and Celestial Mechanics.- Parabolic Escape and Capture in the Restricted Three-Body Problem for Larger Values of the Jacobi Constant.- Compatability Conditions for a Non-Quadratic Integral of Motion.- Contact Systems and Celestial Mechanics.- Dimensions of the Invariant Manifolds Associated with Equilibrium Points in the N-Body Problem.- On the Development of an Artificial Satellite Theory.- Motion at the Second Order Resonances, 3:1 and 5:3.- On the Applicability of the Transition Chains Mechanism.- Small Divisors in the Derivatives of Hansen's Coefficients.- Periodic Solutions of the Restricted Problem of Three Bodies with Small Values of the Mass Parameter.- Non-Universality for a Class of Bifurcations.- Application of Lie-Series to Numerical Integration in Celestial Mechanics.- Applications of Hamilton's Law of Varying Action.- Some Current Astrodynamics Developments at the North American Aerospace Defense Command (NORAD).- About the Triple Collision Manifold in the Planar Three-Body Problem.- Periodic Orbits Near Homoclinic Orbits.- Some Numerical Results of a Semi-Analytic Orbit Theory Using Observed Data.- Orbital Behaviour in the Vicinity of Unstable Periodic Orbits in Dynamical Systems with Three Degrees of Freedom.- On the Convergence of Formal Integrals in Finite Time.- A Numerical Study of the Asymptotic Solutions to the Family (C) of Periodic Orbits in the Restricted Problem of Three Bodies.- The Equivalence of the Generators of Deprit's and Giorgelli-Galgani's Change of Variables in Differential Systems.- Stabilization of Spiral Density Waves in Flat Galaxies for a Hydrodynamical Model.- Stability of Periodic Orbits Near a Homoclinic Orbit for Analytical Hamiltonians with Two Degrees of Freedom.- A Method for the Investigation of the Integrability of Dynamical Systems.- Reappearance of Ordered Motion in Classical Non-Integrable Hamiltonian Systems.- Hopf-Bifurcation in a Nearly Hamiltonian System.- A Realization of Dynamical Systems in Boolean Algebras.- Relativistic Astrodynamics: Problems in Interstellar Flight.- The Origin of the Kirkwood Gaps: A Mapping for Asteroidal Motion Near the 3/1 Commensurability.- Completely Integrable Systems and Singularity in the Complex t-Plane.- Index of Names.- Index of Subjects.</t>
+          <t>This article aims to highlight potentially high levels of childhood sexual abuse within Cancer and Palliative Care Service users.During a routine audit, data was collated to quantify a perceived high level of disclosure of pre-existing psychological trauma within the palliative care caseload of a Macmillan Children and Families Therapist. Families comprised adults (generally parents or step-parents), one of whom was terminally ill or recently deceased who had direct responsibility for children and young people aged under 20 years old. Each family had at least two members using the service for advice, emotional support or counselling.A childhood sexual abuse rate of 33% for women and 10% for men was revealed. Of 59 families, 49% had one or more members who had experienced childhood sexual abuse. In addition a further 9% of adults had experienced severe physical and emotional abuse in childhood. Many families had faced multiple trauma.Palliative care clinicians have access to detailed personal and family history during a highly vulnerable transition. While confidentiality is paramount it is essential to develop better data collection methods and raise the profile of childhood sexual abuse as a major contributing factor to morbidity. A whole family assessment is crucial to ensure child protection and emotional care for children facing the loss and subsequently bereaved of a parent or a carer. Clinicians must be able to offer a range of approaches which provide distressed patients with a history of childhood abuse some sense of emotional containment at the end of life, a challenge which cannot be overstated.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://openalex.org/W174020264</t>
+          <t>https://openalex.org/W4323777619</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.52388/1811-0770.2022.1(247).07</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Bloom (2002)</t>
+          <t>Erhan (2023)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Professionalism in the practice of medicine.</t>
+          <t>Protection of human rights and freedoms by the police</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Although medicine is universally recognized as the archetype of the professions, it can only be understood as part of the modern medical center, a dynamic social system consisting of the university, the hospital, the medical center and, most recently, corporate managed care. Such a view results in a portrait of medicine as a profession transformed, driven by huge and growing health care markets, its fate tied not only to state bureaucracies, but also to the dynamics of both health and non-health care businesses. The question asked here is how does such a radical change in medical practice affect medical education. Using methods of historical analysis, it appears that medical educators operate as though the educational process itself determines the values, and therefore the present and future behavior of their students. In other words, at the end of their formal education, doctors are fully formed professionals. However, from the analysis of this paper it can be concluded that the physician as an individual cannot function independently of the structure of the society and its general conception of the world. In the structure of medicine s present situation, the ethical standards of professionalism, as they are classically defined, cannot survive. Instead, modern medical graduates, much like their teachers and professional mentors, will be forced to adapt to a situation that is contradictory to the best traditions of medicine. How to stop this process is the urgent question. Three answers are presented.</t>
+          <t>The police is the first line of defense of human rights and the policemen are the guardians of the law, including human rights regulations. Everyone wants a well-trained, responsible, transparent and professional police force, but this can be achieved primarily through those transformations and investments in organizational and functional capacities and capabilities related to respect for and protection of human rights. Having an efficient and professional system of activity where the protection of human rights is the basic principle, together with those institutional reforms that take place within the police, it can contribute to its transformation into a modern institution with professional employees. Today the police such as establish several mechanisms regarding the respect and protection of human rights: implementation of international provisions and standards, elaboration and application of codes of ethics and deontology, determination of responsibilities, development of a police culture relevant to existing social realities, professional training and implementation of standard operating procedures.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2298370954</t>
+          <t>https://openalex.org/W4387105368</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7596/taksad.v1i3.51</t>
+          <t>https://doi.org/10.17803/2311-5998.2023.106.6.124-131</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Yılmaz (2012)</t>
+          <t>Markina &amp; Посулихина (2023)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Eğitim Seviyesindeki Yükselmenin Geleneksel Aile Anlayışının Değişimine Etkisi: Karabük Üniversitesi Örneği</t>
+          <t>A brief outline of the digitalization of medicine</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eğitim Seviyesindeki Yükselmenin Geleneksel Aile Anlayışının Değişimine Etkisi: Karabük Üniversitesi Örneği ÖzetGünümüzde aile ile ilgili yeni yaklaşımlar ortaya çıkmış ve geleneksel aile anlayışları değişmeye başlamıştır. Evlilik yaşının yükselmesi, boşanmaların artması, nikâhsız birlikte yaşama anlayışının yaygınlaşmaya başlaması, hanehalkı sayısının küçülmesi, çocuk sayısının azalması vb. yeni yaklaşım ve anlayışlar, sıradan bir insanın bile gözlemleyebileceği ölçüde yaygınlaşmıştır. Aile ile ilgili yeni anlayışların ortaya çıkmasını tetikleyen elbette pek çok neden vardır. Bu araştırmada, aile ile ilgili bu yeni anlayışların ortaya çıkmasında eğitimin rolünün ne olduğu araştırılmaktadır.Araştırmada, aile anlayışında meydana gelen değişmelerle ilgili olarak TÜİK verilerinden yararlanıldığı gibi üniversite öğrencileri üzerinde yapmış olduğumuz bir araştırmanın sonuçlarına da yer verilmiştir. İstatistiksel veriler eğitim seviyesinin düşük olduğu dönemlerle karşılaştırılmış, böylece eğitim seviyesindeki yükselmenin nasıl bir değişim ve dönüşüme neden olduğu tespit edilmeye çalışılmıştır. Özellikle ikinci dünya savaşı sonrasında aile ile ilgili olarak Avrupa ve Amerika’da yaşanan gelişmeler de incelenmiş ve Türk ailesindeki gelişmelerle karşılaştırılarak benzer dönüşümlerin yaşanıp yaşanmayacağı tartışılmıştır. The Effect of Increasing Education Level on Changes in Traditional Family Patterns: The Case of Karabuk University Abstract Today, new approaches about the family have emerged, and traditional family patterns have started to change. The increase of marriage age, the increase in the number of divorces, the tendency for cohabitation, the decrease in the number of family members and the decline in the number of offspring have become so wide-spread that these changes could be easily observed even by ordinary people. There are, of course, a lot of reasons that stimulate these new approaches about the family, yet this study focuses upon the role of education concerning the emergence of these new concepts about the family. In the study, the data taken from TUIK, as well as the results of a survey about the changes in the family patterns carried out on the university students are used. The statistical data are compared with the data of the previous periods in which the level of education was low. Additionally, the study examines how the increase in the level of education has brought about transformation in the traditional family patterns. Moreover, the transformations of family patterns in Europe and America, particularly after the Second World War, are studied, and these transformations are compared with the similar changes in the Turkish family patterns. The study also discusses whether the same transformations could be seen in Turkish family. Effet de l’élévation du niveau/grade d’études au changement de la conception de la famille traditionnelle : Le Cas de l’Université de Karabük RésuméAujourd’hui, de nouvelles approches ont vu le jour sur la famille et les conceptions de la famille traditionnelle ont commencé à changer. L’augmentation de l’âge du mariage, le nombre croissant de divorces, de personnes vivant en couple sans contrat de mariage, la diminution du nombre d’habitants au sein d’un ménage, la réduction du nombre d’enfants etc… sont des événements que l’on peut observer de plus en plus. Il existe bien sûr de nombreuses raisons qui déclenchent l’émergence de ces nouvelles conceptions au sujet de la famille. Dans cette étude, nous avons étudié le rôle de l’éducation dans l’émergence de ces nouvelles conceptions de la famille moderne.Dans cette étude, en ce qui concerne les changements relatifs à la conception familiale nous avons utilisé les données de TÜİK et aussi celles de notre recherche portant sur les étudiants universitaires. Les données statistiques sont comparées avec les données où le niveau d’éducation est bas dans le but de déterminer comment l’élévation du niveau d’études suscite un changement et une transformation en ce qui concerne la famille. Plus particulièrement, nous avons aussi examiné l' évolutions de la famille en Europe et aux Etats-Unis après la deuxième guerre mondiale et nous avons fait des comparaisons avec l’évolution de la famille Turque pour voir s’il existe des changements et transformations similaires. تأثير ارتفاع المستوى التعليمي على تغيّر "مفهوم الأسرة التقليدية" : نموذج جامعة كارابوكالملخص:في يومنا الحاضر ظهرت أساليب جديدة حول الأسرة و بدأت مفاهيم "الأسرة التقليدية" تتغير. ارتفاع سن الزواج وزيادة الطلاق، وانتشار مفهوم الاختلاط بين الشباب والشابات بدون نكاح، وتقليل عدد أفراد الأسرة، وتقليل عدد الأطفال في الأسرة، وغير ذلك من المفاهيم الجديدة؛ قد شاعت في المجتمع بقدر حتى يترصدها أي إنسان عادي. لا شك أن هناك أسباب عديدة في تحريك ظهور مفاهيم جديدة تتعلق بالأسرة. في هذه الدراسة، تم البحث عن مدى دور التعليم في ظهور هذه المفاهيم الجديدة المتعلقة بالأسرة...في الدراسة؛ كما تمت الاستفادة من معطيات مؤسسة إحصائيات تركيا، تترق إليه الباحث إلى نتائج البحث الذي قمنا بتطبيقه على </t>
+          <t>The article proposes an analysis of modern digital tools in the field of public health. The expediency of improving the experimental legal regime in the field of digital innovations is substantiated. The main reasons for the technological breakthrough in the field of digital innovations in medicine are investigated. An assessment is given of possible options for further technological development of the healthcare sector in the direction of “artificial intelligence”. At the same time, specific mechanisms for the legal regulation of technological solutions introduced into practice are proposed. A special place is given to strategic planning documents that determine and justify, from the point of view of law, the course towards the digital transformation of the healthcare sector. Particular attention is paid to the issue of transition to a new proactive model of medical care using artificial intelligence systems. At the same time, the lack of legal regulation of issues of legal liability in the case of the use of artificial intelligence systems and robotics is taken into account.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3215260903</t>
+          <t>https://openalex.org/W2004832594</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://doi.org/10.47116/apjcri.2021.11.02</t>
+          <t>https://doi.org/10.1002/j.2168-0159.2014.tb00108.x</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Lee et al. (2021)</t>
+          <t>Madigan et al. (2014)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Quality Improvement by Preliminary Action through the Semiconductor Wire Bonding Process TRIZ</t>
+          <t>30.2: &lt;i&gt;Invited Paper&lt;/i&gt;: Advancements in Inkjet Printing for OLED Mass Production</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Since the 4th industrial revolution has progressed, all technologies in the world have continued to develop.Among them, the semiconductor industry is an ultra-high-density technology, and technology development is underway to increase the degree of integration in order to produce fine, highquality products.In this paper, a method for increasing the degree of integration of wire bonding in the packaging process and improving the quality was studied.By introducing TRIZ specialized in problemsolving method, the problem of the 2nd bond was confirmed.analysis was carried out.As an analysis technique, a preliminary action was applied using micro-level microanalysis and internal resources to resolve the contradiction in which two situations conflict by using the contradiction resolution and the small person model.The reduction of defects and improvement of bonding strength through the first preliminary action attempted in the wire bonding process can be confirmed through this paper.</t>
+          <t>Abstract Continuous improvements in inkjet printing of organic light emitting diode (OLED) displays have resulted in a number of recent demonstrations of uniform, mura‐free TV‐sized panels. These improvements combined with steady progress in solution OLED material performance, have allowed inkjet to become a realistic near term enabler of cost‐effective mass production of large size OLED TVs. However, for inkjet to make the transition from R&amp;amp;D to mass production, a number of equipment challenges must be overcome, including achieving low particle contamination, maintaining the optimal process environment while preserving serviceability, and providing consistent, uniform, mura‐free results with a wide process window. In this paper, the methodology (with respect to algorithms and process control) used in Kateeva's YIELDjet platform are described that lead to the uniform deposition of ink across an OLED display using inkjet printing, resulting in a highly uniform OLED emission with a wide process window.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2978587592</t>
+          <t>https://openalex.org/W4200094928</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/gco.0000000000000763</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Zhi-cheng (2008)</t>
+          <t>NA (2022)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>On the Content System of the Political Party Culture of the Communist Party of China</t>
+          <t>Editorial introductions</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>The political party culture of the Communist Party of China is connected with the traditional Chinese culture,the glorious tradition of the Chinese revolution and the cultural spirit of the times.The content system of the political party culture of the Communist Party of China is confirmed clearly and scientificly,which is conducive to serious adherence to the comprehensive construction.</t>
+          <t xml:space="preserve">Current Opinion in Obstetrics and Gynecology was launched in 1989. It is one of a successful series of review journals whose unique format is designed to provide a systematic and critical assessment of the literature as presented in the many primary journals. The field of obstetrics and gynecology is divided into ten sections that are reviewed once a year. Each section is assigned one or more Section Editors. They are the leading authorities in their area, who identify the most important topics at that time. Here we are pleased to introduce the Journal's Editor-in-Chief and Section Editor for this issue. EDITOR-IN-CHIEF Jonathan S. BerekJonathan S. BerekJonathan S. Berek, MD, MMSc, is the Laurie Kraus Lacob Professor at Stanford University, Stanford University School of Medicine; Director, the Stanford Women's Cancer Center; and Senior Advisor, Stanford Cancer Institute, USA. He is the Executive Director, Stanford Health Communication Initiative, Stanford Center for Health Education, Stanford University. He served as the Chair of the Stanford Department of Obstetrics and Gynecology from 2005–2017. Dr Berek is well known as a scholar, clinician, researcher and educator in the field. He is highly regarded for his research on the clinical management of gynecologic cancers and translational research related to these malignancies. He has published over 340 research papers, and several hundred contributed articles, book chapters and monographs. He is especially noted for two of the leading books in the field, Berek &amp; Hacker's Gynecologic Oncology, 7th edition, and Berek &amp; Novak's Gynecology, 16th edition. Dr Berek earned his undergraduate and graduate degrees from Brown University, USA, his Doctor of Medicine degree at Johns Hopkins University School of Medicine, USA, completed his residency at the Harvard Medical School, Brigham and Women's Hospital, USA, and his fellowship in Gynecologic Oncology at the UCLA School of Medicine, USA. For many years, he was a Professor and Vice Chair of Obstetrics and Gynecology at UCLA, where he was also the Chair of the College of Applied Anatomy. Dr Berek is the Group Chair and Principal Investigator for the Cooperative Gynecologic Oncology Investigators (COGI), a member of the Gynecologic Cancer InterGroup (GCIG). He served as Principal Investigator for the Gynecologic Oncology Group (GOG) for more than two decades. His primary research interest is in the immunology and immunotherapy of ovarian cancer, and through the development of experimental models and clinical trials, his initial studies encouraged the development of innovative biologic therapy strategies. Through collaborative work, his group focuses on the development of monoclonal antibodies and targeted immunotherapies for ovarian cancer. Dr Berek has had grant support from the National Institute of Health (NIH) and the Ovarian Cancer Research Foundation (OCRF). Dr Berek is the recipient of the prestigious Sherman Mellinkoff Award and the Excellence in Education Award by the David Geffen School of Medicine at UCLA, and the 2010 John C. Fremont Pathfinder Award. He is regularly listed among America's Best Doctors for Gynecology &amp; Gynecologic Oncology. In 2019, he was given an award by the American Cancer Society in recognition of his lifetime of achievement and for his many contributions to women's cancer care and research. He is board certified by the American Board of Obstetrics and Gynecology (ABOG), and the Division of Gynecologic Oncology. He is a Fellow in the American College of Obstetricians and Gynecologists (FACOG), the American College of Surgeons (FACS), and the American Society of Clinical Oncologists (FASCO). Dr Berek has served as an examiner for the American Board Obstetrics and Gynecology (ABOG) and for the Council on Resident Education in Obstetrics and Gynecology (CREOG). Dr Berek is Past-President of the Council of University Chairs of Obstetrics and Gynecology (CUCOG), and Past President of the International Gynecologic Cancer Society (IGCS). His many honors include receiving the President's Award from the Society of Gynecologic Oncologists (SGO), serving as its Vice President in 1996–1997, and presenting numerous distinguished lectureships. Dr Berek has served on many national committees for the National Institutes of Health (NIH), the National Cancer Institute (NCI), the American College of Surgeons (ACS), the Society of Gynecologic Oncologists (SGO), the American College of Obstetricians and Gynecologists (ACOG), and the American Society of Clinical Oncology (ASCO). He is a member of the Society of Gynecologic Investigation (SGI), and the Society of Pelvic Surgeons (SPS). He is the Editor-in-Chief of Current Problems in Obstetrics and Gynecology, Past Editor-in-Chief of ASCO Connections, and Senior Editor of the International Journal of Gynecologic Cancer. He has served as an Editor of Prolog and Précis for the American College of Obstetricians and Gynecologists, and on the editorial boards of </t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2007275367</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1074/jbc.m414016200</t>
+          <t>https://openalex.org/W2367313130</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Lisenbee et al. (2005)</t>
+          <t>Jianqian (2009)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Paired Cysteine Mutagenesis to Establish the Pattern of Disulfide Bonds in the Functional Intact Secretin Receptor</t>
+          <t>TOWARDS AN EFFECTIVE AND HOLISTIC PLANNING REGULATION:INSTITUTIONAL REFORM OF REGULATORY DETAILED PLAN IN TRANSITIONAL PERIOD</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. G protein-coupled receptors (GPCRs) 1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid.1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid. are important pharmaceutical targets for rational drug design, and thus have justified a great deal of research aimed at determining the structural aspects of their biological functions. Class B GPCRs are distinguished from the larger group of class A rhodopsin-like receptors in several ways, the most significant of which is the inclusion of an extended amino-terminal domain that plays critical roles in ligand binding and receptor activation (1.Fredriksson R. Lagerström M.C. Lundin L.-G. Schiöth H.B. Mol. Pharmacol. 2003; 63: 1256-1272Crossref PubMed Scopus (2086) Google Scholar, 2.Kristiansen K. Pharmacol. Ther. 2004; 103: 21-80Crossref PubMed Scopus (469) Google Scholar). Comparisons of the primary amino acid sequences of class B receptors have shown that this extracellular amino-terminal domain possesses six conserved cysteine residues that have been</t>
+          <t>By analyzing the absence of integration in the regulatory detailed planning,this paper explores the idea and method of comprehensive regulation over the plan. It suggests reforming the existing regulatory detailed plan formulation system and constructing a hierarchical system which includes three levels:i.e. city holistic regulation,unit regulation,and block plot regulation,and two stages:i.e. regulatory detailed plan outline and unit regulatory plan. It argues that the regulatory detailed plan outline would be helpful to regulate the general construction of a city and guide the plot regulation,therefore better guide the urban development.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2060337978</t>
+          <t>https://openalex.org/W4256469991</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m106659200</t>
+          <t>https://doi.org/10.1007/978-1-349-19407-0_7</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Khadilkar et al. (2001)</t>
+          <t>Armstrong (1988)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Identification of Sites in the Second Exomembrane Loop and Ninth Transmembrane Helix of the Mammalian Na+/H+ Exchanger Important for Drug Recognition and Cation Translocation</t>
+          <t>Lenin Deconstructs</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Mammalian Na+/H+exchanger (NHE) isoforms are differentially sensitive to inhibition by several distinct classes of pharmacological agents, including amiloride- and benzoyl guanidinium-based derivatives. The determinants of drug sensitivity, however, are only partially understood. Earlier studies of the drug-sensitive NHE1 isoform have shown that residues within the fourth membrane-spanning helix (M4) (Phe165, Phe166, Leu167, and Gly178) and a 66-amino acid segment encompassing M9 contribute significantly to drug recognition. In this report, we have identified two residues within M9, one highly conserved (Glu350) and the other non-conserved (Gly356), that are major determinants of drug sensitivity. In addition, residues in the second exomembrane loop between M3 and M4 (Gly152, Phe157, and Pro158) were also found to modestly influence drug sensitivity. A double substitution of crucial sites within M4 and M9 of NHE1 with the corresponding residues present in the drug-resistant NHE3 isoform (i.e. L167F/G356A) greatly reduced drug sensitivity in a cooperative manner to levels nearing that of wild type NHE3. The above mutations did not appreciably affect Nao+ affinity but did markedly decrease the catalytic turnover of the transporter. These data suggest that specific sites encompassing M4 and M9 are critical determinants of both drug recognition and cation translocation. Mammalian Na+/H+exchanger (NHE) isoforms are differentially sensitive to inhibition by several distinct classes of pharmacological agents, including amiloride- and benzoyl guanidinium-based derivatives. The determinants of drug sensitivity, however, are only partially understood. Earlier studies of the drug-sensitive NHE1 isoform have shown that residues within the fourth membrane-spanning helix (M4) (Phe165, Phe166, Leu167, and Gly178) and a 66-amino acid segment encompassing M9 contribute significantly to drug recognition. In this report, we have identified two residues within M9, one highly conserved (Glu350) and the other non-conserved (Gly356), that are major determinants of drug sensitivity. In addition, residues in the second exomembrane loop between M3 and M4 (Gly152, Phe157, and Pro158) were also found to modestly influence drug sensitivity. A double substitution of crucial sites within M4 and M9 of NHE1 with the corresponding residues present in the drug-resistant NHE3 isoform (i.e. L167F/G356A) greatly reduced drug sensitivity in a cooperative manner to levels nearing that of wild type NHE3. The above mutations did not appreciably affect Nao+ affinity but did markedly decrease the catalytic turnover of the transporter. These data suggest that specific sites encompassing M4 and M9 are critical determinants of both drug recognition and cation translocation. Na+/H+ exchanger 5- (N-ethyl-N-isopropyl) amiloride Na+/H+ exchangers (NHE)1 are present at the cell surface and various organellar compartments of mammalian cells and mediate the electroneutral exchange of Na+ for H+, a process driven by the relative concentration gradients of the respective cations. To date seven distinct isoforms (NHE1 to NHE7) have been isolated that share ∼20–70% amino acid identity (calculated Mr ranging from ∼74,000 to 93,000) and exhibit similar membrane topologies, with 12 predicted N-terminal membrane-spanning (M) α-helices and a large C-terminal cytoplasmic region (1Orlowski J. Grinstein S. J. Biol. Chem. 1997; 272: 22373-22376Abstract Full Text Full Text PDF PubMed Scopus (521) Google Scholar, 2Wakabayashi S. Shigekawa M. Pouysségur J. Physiol. Rev. 1997; 77: 51-74Crossref PubMed Scopus (563) Google Scholar, 3Yun C.H.C. Tse C.-M. Nath S.K. Levine S.A. Brant S.R. Donowitz M. Am. J. Physiol. 1995; 269: G1-G11Crossref PubMed Scopus (38) Google Scholar, 4Numata M. Petrecca K. Lake N. Orlowski J. J. Biol. Chem. 1998; 273: 6951-6959Abstract Full Text Full Text PDF PubMed Scopus (234) Google Scholar, 5Numata M. Orlowski J. J. Biol. Chem. 2001; 276: 17387-17394Abstract Full Text Full Text PDF PubMed Scopus (215) Google Scholar). They show considerable differences in their patterns of tissue expression, membrane localization, kinetic properties, sensitivity to pharmacological antagonists, and responsiveness to various signaling pathways. Consistent with their molecular diversity, the exchangers participate in a broad spectrum of physiological processes, including the regulation of intracellular pH (pHi), maintenance of cell volume, and transepithelial transport of electrolytes. In addition, activation of certain exchangers appear to facilitate cellular growth and proliferation in response to numerous growth factors and other mitogens and are associated with events leading to apoptosis (6Shrode L.D. Tapper H. Grinstein S. J. Bioenerg. Biomembr. 1997; 29: 393-399Crossref PubMed Scopus (179) Google Scholar, 7Li J. Eastman A. J. Biol. Chem. 1995; 270: 3203-3211Abstract Full Text Full Text PDF PubMed Scopus (223) Google Scholar, 8Zhu W.H. Loh T.T. Biochim. Biophys. Ac</t>
+          <t>The retrécissement of novel-space that took place at the end of the last chapter as Levin and Kitty bend over their sleeping child has more than psychological significance. When it is contrasted with, for example, the grand movement of dispersion that is the dramatic and didactic highlight of the last act of Chekhov’s Cherry Orchard (1902–3), it seems to bear the directly opposite political message. The sale of the orchard is a financial necessity; it may also be moral duty; but it is above all a collective release, enabling Trofimov to exclaim with exhilaration that now, ‘The whole of Russia is our cherry-orchard!’ With all the characters except Firs forced out into the world, many of them, like Gaev, to earn their living for the first time, one can easily say that the play is prophetic of the changes to come to the whole country. While Chekhov never specifically mentions revolution, Trofimov’s hailing of a glorious future can be allowably connected to that event, while some specific details that he envisages have been visibly realised. The modern Soviet Union has certainly provided crèches for its children, and Lenin’s aim of universal literacy has involved the construction of libraries in every town. All of which seems to form a strange contrast with the inward-looking preoccupations of the Count and Countess Levin.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2946172073</t>
+          <t>https://openalex.org/W3203683278</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1590/s1980-220x2017038503376</t>
+          <t>https://doi.org/10.1080/02513625.2021.1981008</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Collet et al. (2018)</t>
+          <t>Hillier (2021)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Self-care support for the management of type 1 diabetes during the transition from childhood to adolescence</t>
+          <t>The “Flatness” of Deleuze and Guattari: Planning the City as a Tree or as a Rhizome?</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>To analyze the needs of pre-adolescents with type 1 diabetes regarding self-care support for disease management.Qualitative study conducted between October and December 2016 with pre-adolescents seen at a hospital outpatient clinic and at Family Health Units; semi-structured interviews were used. Data were analyzed using a thematic analysis based on the theoretical basis of self-care support.Nine pre-adolescents participated in the study. It was identified that in order to build self-efficacy, pre-adolescents need to overcome the disease denial phase, know how to handle feelings triggered by the need for lifestyle changes, receive support from their families and social networks, and have the self-awareness and self-perception needed to feel secure in managing their diabetes.The intrinsic challenges of adolescence and the way pre-adolescents with diabetes handle the disease have an influence on diabetes management and create needs that must be appreciated by health care professionals in order to provide self-care support.</t>
+          <t>Flat ontology has become an umbrella term for several theoretically based approaches, notably Delanda’s controversial reconstruction of DeleuzoGuattarian concepts. I highlight key divergences in Delanda’s “flat ontology” from that of Deleuze and Guattari’s “flattening” of multiplicities on a plane of immanence. The rhizome is arguably the concrete image of Deleuze and Guattari’s multiplicity, constituted by intensive relations, or becomngs, between heterogeneous singularities. A rhizomatic multiplicity contrasts markedly with the hierarchical dualism of the pseudomultiplicities of arborescent structures.Referencing Marston et al.’s “flat” site-ontology, I introduce sites as DeleuzoGuattarian eventspaces; emergent properties of entangled human and non-human relations and their capacities to affect and be affected. I select two spatial planning sites from urban fringe Australia, both of which involve significant transformation of (semi-)riparian habitat. One illustrates an arborescent system of thought and practice and the other a more rhizomatic approach which explores the situational potential of human/non-human encounters. I explore capacities of both sites to affect humans and non-humans and how the respective planning systems engage with them. I then question the possibility of rhizomatic planning practices, whether arborescence is inevitable, or whether a double-structure is possible, before concluding that a double-structure may afford glimpses of the bi-directionality or “flattening” of DeleuzoGuattarian multiplicity – “both/and” – an inclusive disjunctive synthesis of becoming.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2014025731</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1366/000370265789619935</t>
+          <t>https://openalex.org/W2349092249</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Eardley &amp; Clarke (1965)</t>
+          <t>Cheng-gang (2012)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Some Factors Affecting the Precision of Solution Analysis by the Rotrode Technique</t>
+          <t>Production Mode, Business Model and Financial Relation</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Some of the factors affecting the precision of analysis of aqueous solutions by the rotrodc technique are described. These include speed of revolution, depth of solution, electrode material, pre-spark time, and variations in integration time which is automatically controlled by the internal standard intensity. Suggestions are made to minimize these effects to give the best precision</t>
+          <t>Production mode and business model are two different concepts connected to each other.The main distinctions are embodied in disciplinary attribute and characteristic of production factor and behavioral trait.Relationship between them in cludes two sides.One side is that business model belongs to generalized production mode.The other side is that enterprises’ production mode is the base and environmental premise of construction of business model.With the progress of science and tech nology and development of knowledge,both have been in dynamic transition.The persistent revolution of production mode and constant innovation of business model profoundly affect financial relations of enterprises.Therefore,financial relations present market-oriented trend,and social financial relations(or market-driven financial relations) between enterprises and market re spectively develop towards lineation and network.These changes of enterprises’ financial relations shift the investment of en terprises’ production factor capitals,so that enterprises generate the financial relations based on production factor capitals such as human capital financial relation and technology capital financial relation.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4299285335</t>
+          <t>https://openalex.org/W2092350897</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.polymer.2022.125363</t>
+          <t>https://doi.org/10.1016/j.ijedudev.2005.08.005</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Lu et al. (2022)</t>
+          <t>Dora (2006)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Supramolecular hierarchical polyurethane elastomers for thermal and mechanical property optimization</t>
+          <t>Understanding the complexity of preschool teaching in Hong Kong: The way forward to professionalism</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Supramolecular chemical designs that integrate complementary hydrogen bond donor and acceptor complexes in hierarchical polyurethane elastomers are reported. N 2 , N 6 -bis(2-hydroxyethyl)pyridine-2,6-dicarboxamide (PDA) and 5,5-bis(3-hydroxypropyl)barbituric acid (BBA) react with 4,4′-methylenediphenyl diisocyanate (MDI) to produce hard segments capable of multiple intermolecular hydrogen bonds in MDI-PDA/BBA-poly(tetramethylene oxide) (PTMO) polyurethanes. The addition of PDA facilitates the formation of a supramolecular complex, and BBA affords greater intersegmental mixing. As a result, these polyurethanes exhibit higher glass transition temperatures ( T g ) and greater strain hardening/strengthening under tensile deformation than a microphase-separated MDI-butanediol (BDO)-PTMO analog. Additionally, increased PDA and BBA contents results in up to a 60 °C increase of T g determined at 1 Hz via DMA relative to those determined by calorimetric measurements via DSC, which is considerably higher than the 15 °C T g increase observed in the MDI-BDO-PTMO analog. These results highlight a significant interplay between intersegmental mixing and supramolecular hydrogen bond interactions for the design of robust hierarchical elastomers. • Supramolecular designs of robust PDA/BBA polyurethanes with multi-functionality. • Synergy between segmental mixing and supramolecular hydrogen bond interactions. • High cohesive energy densities result in high T g s , high strength and toughness.</t>
+          <t>In Hong Kong, preschool education has been viewed either as preparation for primary education or as custodial care to suit working mothers. These ambiguous images of preschool teachers and teaching are definitely a roadblock to professionalization. This paper critically analyzes the professionalization of preschool education in the local context. Arguing that quality of practice is the cornerstone for improving the status of preschools and their teachers, it examines the complexity of professional knowledge and practice from two aspects: building knowledge and using knowledge. The former concerns child development theory as the knowledge base for practice and the latter addresses the factors affecting transformation of knowledge to pedagogy in the classroom context. Finally, it suggests that action research may provide a better grounding for professionalization.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2555589681</t>
+          <t>https://openalex.org/W2183152242</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/annrheumdis-2016-eular.2862</t>
+          <t>https://doi.org/10.15224/978-1-63248-042-2-142</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Stöcker et al. (2016)</t>
+          <t>Samer et al. (2015)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>AB1112-HPR Systemic Sclerosis Treatment: An Occupational Therapists' View</t>
+          <t>Comparison between Fuzzy Risk Assessment Methods</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;Background&lt;/h3&gt; SSc has a great impact on daily functioning [1]. People with SSc make regular use of allied health care, mainly physiotherapy and occupational therapy (OT), for guidance in coping with the many consequences of the disease. Little is known about the current practice of occupational therapy for people with SSc [2]. &lt;h3&gt;Objectives&lt;/h3&gt; The purpose of this qualitative pilot study was to map the experience of Dutch occupational therapists about their daily practice and vision on optimal SSc care through OTs. &lt;h3&gt;Methods&lt;/h3&gt; Five female OTs, median age 38.6 years (range 25–46 years) from different work settings and regions with an average work experience of 8.6 years in SSc care, were recruited through the Dutch organisation of Health Professionals in rheumatology. A semi-structured interview was conducted with each participant and transcribed verbatim. Data were analysed by the three-step method of Boeije [3]. &lt;h3&gt;Results&lt;/h3&gt; OTs describe that in CURRENT PRACTICE patients report problems on a functional, activity and participation level, while the treatment is mostly aiming at functional level (including aids and compensations). They experience that their work is experience-based due to the lack of available evidence. The nature of interventions is significantly dependent on the phase of disease in which patients are. They experience a low number of referrals in a late state of the disease and suggest that this might be due to the lack of knowledge about occupational therapy. In an OPTIMAL SITUATION OTs are involved earlier in the disease process and focus on training and patient needs. They would want to focus on prevention and education including the social environment of the patient. In order to offer optimal treatment they would want to work guideline-based and establish sustained treatment relationships. Earlier referral in the disease process would enable meaningful treatment. They express their need for a clear OT profile to be known by rheumatologists, to facilitate timely and appropriate referrals to OTs. &lt;h3&gt;Conclusions&lt;/h3&gt; We found a distinct difference between current and ideal OT practice. The newly gained knowledge of this study can be used by OTs for a transition from treatment addressing compensation to a treatment targeting activity and participation. More attention should be paid to timely referrals with a transparent indication. &lt;h3&gt;References&lt;/h3&gt; Stamm, T., et al. (2011). Concepts of functioning and health important to people with systemic sclerosis: a qualitative study in four European countries. Ann Rheum Dis, 70(6), 1074–1079. Willems, L., et al. (2013). Health care use and patients9 perceptions on quality of care in systemic sclerosis. Clin Exp Rheum, 64. Boeije, H. R. (2014). Analyseren in kwalitatief onderzoek: denken en doen. Den Haag: Boom Lemma. &lt;h3&gt;Disclosure of Interest&lt;/h3&gt; None declared</t>
+          <t>Contracting for construction services is an inherently risky venture for the owner, design agent and contractor. All of these parties are exposed to unanticipated risks, exposure to economic loss and unforeseen contract liability while performing under the contract. Project risk management, therefore, has been recognised critical for the construction industry to improve their performance and secure the success of projects. Risk assessment is the most important step in risk management. Classical methods for risk assessment are no longer accurate and effective, therefore, many papers introduced fuzzy logic as a more accurate and effective technique in risk assessment. In this paper, a comparison between two fuzzy risk assessment methods; Nieto-Morote and Ruz-Vila (1) and Kuo and Lu (2) is done using the same input parameters which are risk probability (RP), risk impact (RI) and risk discrimination (RD) to determine if these methods give the same risk ranking or not. Actually, the comparison results in different risk ranking, because the Nieto-Morote and Ruz-Vila (1) method depends on minimization error tool to minimize inconsistency in results, and this tool always doesn't give optimum results, while, we can consider Kuo and Lu (2) method more accurate because it depends on eliminating the inconsistency in results using a transformation process step to remain the decision matrix with reciprocity and additive consistency.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2765205180</t>
+          <t>https://openalex.org/W4392974446</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://doi.org/10.19080/artoaj.2017.08.555726</t>
+          <t>https://doi.org/10.1016/j.bdr.2024.100448</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Bb (2017)</t>
+          <t>Peng et al. (2024)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Chemical Weathering of Basement Basalt Causing Massive Landslide in Malin Village of Pune District in Maharastra, India: Lesson from Ethiopia</t>
+          <t>Crop Monitoring using remote sensing land use and land change data: Comparative analysis of deep learning methods using pre-trained CNN models</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Massive landslide in Malin village of Pune (India) on 14 th July 2014 was probably due to chemical weathering (reduction) of underground (basement) basalt at its bottom forming non-sticky mud under continued wetting environment with stored water through vertical cracks in rocks.Basalt at basement undergoes chemical reduction and probably microbial transformation with lapses of time under wet environment.This disastrous incidence of Malin, which is situated on basalt landscape, is a strong message to other parts of the world too for suitable preventive measures.Mumbai in India may fall in such risk zone.Ethiopia in this respect also seems to be sensitive with other African countries.Detailed investigation is desired to validate the truth in order to develop a strategic planning.This exploratory research is effective in laying the ground work that will lead to form the basis of systematic conclusive research.Even the farmer's suicidal case could be examined, if it relates to early drying of their soils possessing vertic properties.</t>
+          <t>In the context of the rapidly evolving climate dynamics of the early twenty-first century, the interplay between climate change and biospheric integrity is becoming increasingly critical. The pervasive impact of climate change on ecosystems is manifested not only through alterations in average environmental conditions and their variability but also through ancillary shifts such as escalated oceanic acidification and heightened atmospheric CO2 levels. These climatic transformations are further compounded by concurrent ecological stressors, including habitat degradation, defaunation, and fragmentation. Against this backdrop, this study delves into the efficacy of advanced deep learning methodologies for the classification of land cover from satellite imagery, with a particular emphasis on agricultural crop monitoring. The study leverages state-of-the-art pre-trained Convolutional Neural Network (CNN) architectures, namely VGG16, MobileNetV2, DenseNet121, and ResNet50, selected for their architectural sophistication and proven competence in image recognition domains. The research framework encompasses a comprehensive data preparation phase incorporating augmentation techniques, a thorough exploratory data analysis to pinpoint and address class imbalances through the computation of class weights, and the strategic fine-tuning of CNN architectures with tailored classification layers to suit the specificities of land cover classification challenges. The models' performance was rigorously evaluated against benchmarks of accuracy and loss, both during the training phase and on validation datasets, with preventative strategies against overfitting, such as early stopping and adaptive learning rate modifications, being integral to the methodology. The findings illuminate the considerable potential of leveraging pre-trained deep learning models for remote sensing in agriculture, demonstrating that advanced CNN architectures, particularly DenseNet121 and ResNet50, are notably effective in enhancing crop type classification accuracy from satellite imagery. This study contributes valuable insights to the field of precision agriculture, advocating for the integration of sophisticated image recognition technologies to bolster crop monitoring efficacy, thereby enabling more nuanced agricultural decision-making and resource allocation.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3109445883</t>
+          <t>https://openalex.org/W3132900290</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Williams et al. (2019)</t>
+          <t>Collins et al. (1977)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Health Care Transition and Longitudinal Care for Adolescents and Young Adults with Hydrocephalus</t>
+          <t>Charge transfer pumping of the helium nitrogen laser at atmospheric pressures in an electrical avalanche discharge</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>An atmospheric electrical avalanche (AEA) laser, stabilized by displacement current preionization, has been developed to support the study of the collisional pumping of the N+2, B→X, electronic transition by the kinetic step He+2+N2+He→N+2(B2Σu)+3He. With proper preionization, the AEA laser has been operated at a pulse repetition frequency (PRF) of 1–30 Hz in an avalanche mode at 100–200 A/cm2 and an E/p of 5 V/cm Torr. At pressures from 1 to 8 atm, an essentially uniform 30‐cm3 volume containing a high concentration of He+2 has been produced. Resulting laser output pumped by the charge transfer reaction has exceeded 1 MW peak power at 427.8 nm in a 4‐nsec pulse. Efficiency with respect to the instantaneous power conversion has exceeded 2%, and output pulse energies have exceeded 1% of the input pulse of energy dissipated in the laser tube.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1535622131</t>
+          <t>https://openalex.org/W2996299872</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/vts.2015.7116267</t>
+          <t>https://doi.org/10.1016/j.ica.2019.119345</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Chang &amp; Liang (2015)</t>
+          <t>Ishizaki et al. (2020)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Pulse shrinkage based pre-bond through silicon vias test in 3D IC</t>
+          <t>Preparation of Co-Fe oxides immobilized on carbon paper using water-dispersible Prussian-blue analog nanoparticles and their oxygen evolution reaction (OER) catalytic activities</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Defects in TSV not only lead to variation in the propagation delay but also in the transition delay of the net connected to the TSV. A non-invasive approach for pre-bond TSV test based on pulse shrinkage is proposed to detect resistive open and leakage fault. TSVs are used as capacitive loads of their driving gates, then the pulse visiting the cyclic shrinkage cells will be shrunk until it vanishes completely. The shrinkage amount is digitized into a digital code to compare with an expected value of fault free. Experiments on fault detection are presented through HSPICE simulations using realistic models for a 45 nm CMOS technology. The results show the effectiveness in the detection of resistive open defects 0.2kΩ above and equivalent leakage resistance less than 40MΩ. The estimated design for testability area cost of our method is negligible for realistic dies.</t>
+          <t>Carbon paper (CP) is one of the most promising metal-free gas-diffusion electrodes for fabricating sustainable energy-conversion devices such as metal-air secondary batteries using the oxygen reduction reaction (ORR) and CO2-reforming systems via the electrochemical CO2 reduction reaction (CO2RR). The common counterpart reaction for ORR and CO2RR is the oxygen evolution reaction (OER) from water. The low-overpotential OER catalyzed by nanoparticles (NPs) immobilized on CP has attracted attention for integration in energy-conversion devices. Earth-abundant and low-cost 3d transition metals have been intensively explored as OER catalysts. In this study, we have successfully prepared Fe-Co Prussian blue analog (PBA) NPs with the formulae of Fe1-xCox[Fe(CN)6]0.67·nH2O and Fe1-yCoy[Co(CN)6]0.67·mH2O, and the Fe-Co PBA NPs are dispersed into water by surface modification using [Fe(CN)6]4−. By a simple drop-coating method, the Fe-Co PBA NPs are immobilized on CP and thermally decomposed into Fe-Co oxides at 400 °C. The OER overpotentials of the Fe-Co oxides are gradually decreased by increasing the Co composition ratios, and the lowest overpotential is 0.46 V vs. RHE at 10 mA/cm2 in y = 0.6.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2021656551</t>
+          <t>https://openalex.org/W3201447495</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.amp.2012.10.013</t>
+          <t>https://doi.org/10.1093/oxfordhb/9780198735410.013.10</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Marchais &amp; Cardon (2013)</t>
+          <t>Menary (2018)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Des attracteurs et régulateurs en pathologie mentale. Approche théorique, informatique, et clinique</t>
+          <t>Cognitive Integration</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Les troubles mentaux peuvent être conçus à partir d’une représentation énergétique d’ensemble du système psychique. À ce titre, une perspective théorique incite à évoquer un ensemble de réseaux de flux psychiques, leurs variations énergétiques sous l’effet d’attracteurs affaiblissant les régulations du système, ainsi que les flux neuronaux et interneuronaux qui participent à ces variations. Les concepts d’attracteurs et de régulateurs sont précisés en conscience artificielle par une informatique constructiviste. Leur action est évoquée en clinique pour les principaux états névrotiques et psychotiques. L’action unitaire et polymorphe de ces attracteurs et régulateurs est ensuite envisagée suivant leurs liens avec les divers niveaux d’organisation, leur retentissement sur l’intégration de ces formations, et leurs effets sur les composants des flux psychiques. Une conclusion souligne enfin le rapprochement entre la clinique et l’informatique à ce sujet, ainsi que la possibilité de modélisations qui en résulte. We can understand the mental disorders as bifurcations in the representations generated by the psychic system, using an informational and morphological notion of energy. In this way, the clinician should use an interdisciplinary perspective that encourages studying their internal dynamics in a fine reconciliation with the informatics concepts lighting on the automatisms of the thought. To this effect, a theoretical perspective leads to evoke a set of psychic flow networks, the changes of energy into these flow, and the role of neuronal and interneuron flows that are theirs retaining. These networks will form dynamic elements evolving and multiplying themselves and forming various integrated levels. The whole form a very complex and dynamic organization. These networks are subject to tensions that will sound on the regulation of the system and contribute to create bifurcations in management of general energy leading to mental disorders. Constructivist informatics defines the attractors as controllers of the networks of relations that can become autonomous and alter the morphology and behavior of the structure of the basic elements of the system, as well as their aggregates. They contribute to form the morphological and semantic characters into the system. They are related to regulators, which are themselves coactive networks that manage and control the basic elements and structures of the system allowing the real behavior. These attractors and regulators intervene at each level of the organization and contribute to form a systemic loop that controls the energy flow in multi-scale actions on the basic elements. Their effects combine themselves, leading to the creation of zones of bifurcations of energy that break the equilibrium of the system. Without a priori pretend to put an identity between the phenomena studied in clinic and the attractors and regulators specified into informatics, one could see a very possible reconciliation. Indeed, on can found the action of attractors and regulators in various states of disease. Their actions are mentioned in the superficial dysfunctions of the system that constitute the neurosis: anguish, anxiety, somatic conversions, phobias, obsessions… It is also proposed in the deeper problems that reach the general loop regulating the psychic system and the functional structures, changing their modes of development and their integrations, forming the psychosis: Processes of excitement, of unstructured depressions, delusions, hallucinations. A confrontation of these different concepts allows to well understand the both unitary and polymorphic action of the attractors and regulators in the formation of mental disorders. The clinic shows that the limits of the pathological functional structures are not frozen and that their areas of neighborhoods are pertinent in specific topologies, somewhat fuzzy, in report with the various underlying neurological formations. Their integration since interneuron spaces with modulators neurons until their effects onto the components of psychopathological formations, finally allow to better understand the general dynamics of the disorders, their associations, their movements and their possible transformations. To draw a conclusion, we set the clinic and informatics must join themselves in the field of the automatism in the thought where we consider the concepts of attractors and regulators. These two kinds of controllers concern both the levels of organization and the general regulation of their integration, and they are responsible of all the bifurcations that lead to the mental disorders. For that, it is possible and important to increase and develop the model allowing clarifying the inner laws of the normal and pathological psychic functioning.</t>
+          <t>If cognition is fundamentally interactive how did it come to be so? The cognitive integration framework provides an answer: phylogenetically early forms of cognition, in humans, involve sensorimotor interactions with the environment; these are built upon by more recent cultural innovations, which are a product of cultural evolution and niche construction. The key cultural innovations are symbolic representations and the normative cognitive practices that govern their manipulation. These representational systems and cognitive practices are preserved across generations by cultural inheritance. Phylogenetically early sensorimotor capacities for making and manipulating tools can be reused to create and manipulate representations when completing cognitive tasks. Reuse depends upon neural plasticity and social learning, which results in the transformation of our cognitive capacities. The chapter also provides a dimensional analysis of integrated cognitive systems and provides responses to recent criticisms.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2362925184</t>
+          <t>https://openalex.org/W4298147432</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2022.40.28_suppl.062</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Guo-pin (2014)</t>
+          <t>Ozcan et al. (2022)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Research of Cultural Industry Relevance——Based on Big-Data of Alibaba-Cloud-data Platform</t>
+          <t>Home-based geriatric oncology care: A feasibility study.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Industry relevance is the mainstay for the research of the industrial integration policy,Cultural industry has been run throughout in the economic and social fields present a multidirectional interactive integration trend.Cultural industry relevance not only has the intrinsic relation between supply chain management,vertical integration strategy and strategic alliances in cultural industry companies,but also,has the intrinsic relation between upgrading of an industrial structure,industrial agglomeration and competitive advantage in regional economic development.This paper use the big-data of the manufacturers of cultural products on the Alibaba-Cloud-data platform(The biggest B2B platform of New Economic in China),establishes the culture industry complex network(ICN) in terms of the most reliable maximum flow arithmetic(MRMF) on uncertain graph,which shows the industry relevance of cultural industry by visualizing various data.The request of enterprise' s development strategy is to design the optimum route in cultural industry companies' industrial chain,and the policy of integration is to configure the management of industrial chain,all of these problems can be viewed as the MRMF in graph theory.Furthermore,measure the industry forward and backward relevance index between culture industries and other industries.The measurement of industry forward and backward relevance index of ICN is a complicated project related to many details,especially having excessive uncertainty and involving extensive domains.As to the identity of cultural industry,the industry relevance effect is widely different.The industry relevance effect could be decomposed into the positive effect lead to impetus and negative effect lead to crowding-out.These sectors with positive effect are listed as follows;business services;processing;electrician electrical;decoration,building materials;textiles,leather;beauty makeup cosmetic;fine chemicals;rubber and general merchandise;and sectors of agriculture;food and beverage;underwear;hardware,tools;transportation;chemicals;environmental protection;appliances;machinery and equipment industry;energy;clothing accessories,jewelry;shoes and clothing could be negative effect when integrate with cultural industry,according to the study of industry relevance.As to find the inner structure and mutual affections between culture industry and out industries,empirical research are used to calculate the contribution to the whole national economy by change 1% of investment of culture industry;the total influence over 2115 hundred million Yuan,25.7% of cultural industrial added value,which equal to 0.79% of non- cultural industrial added value.It shows that pre-unit input of cultural industry and drive 8.13 unit output of national economy,at 1% transformation of cultural industry.Optimize the industry relevance is very important to enterprise management and macroeconomic regulation,and the requirement of economy works well.In consideration of positive effect of industry relevance,cultural industry preferred to integrate with frequently occurring industries in the most reliable maximum flow,like tertiary industry.The model of ICN has a certain probability properties.This paper,has improved the MRMF by recommending the scaling factor of trade share,which endow the different economical connotations in ICN.With the development of Big-Data platform and algorithm optimization of Data Mining,digital characteristics of treatments in real world can make sense to this probability,and this is also the direction of future research to deepen.</t>
+          <t>62 Background: The Comprehensive Geriatric Assessment (CGA) improves the outcomes of older patients with cancer, and by identifying of geriatric impairments the CGA can guide the development of supportive interventions. However, the implementation of these interventions in a real-world setting can be burdensome for patients, particularly when additional visits are required in an often frail population. Therefore, our team developed a collaborative model for home-based delivery of CGA-guided interventions. Methods: We performed a retrospective review of community-dwelling patients aged ≥ 70 years with an active cancer diagnosis who were deemed to be frail by a CGA and who received home-based CGA-guided supportive interventions under a collaborative care model established by the geriatric oncology and the palliative home care teams at Hartford HealthCare Cancer Institute between October 2020 and April 2022. The collaboration is based on multidisciplinary discussion of the CGA results / interventions and weekly rounds to discuss patient’s progress and emerging needs. Results: A total of 182 patients received a CGA during the study period, 54% (n = 99) were determined to be frail based on impairment in ≥ 7 geriatric domains. Among all eligible patients, 19 patients (19%) were included in the collaborative model. The median age of enrolled patients was 84 years (74-90), 12/19 (63%) had metastatic cancer, 7/19 (37%) received systemic treatment, and 8/19 (42%) received radiation. The average number of geriatric impairments per patients was 9.5 (7-12). Geriatric impairments addressed at home were skilled nursing (19/19), physical therapy (18/19), occupational therapy (12/19), speech-language-pathology (2/19), nutrition (5/19), or social worker (11/19) support at home. The average number of unplanned hospitalizations was 1.16 per patient (range 0-4), and the average unplanned emergency room visit was 0.89 per person (range 0-4) during study time. Transition to hospice occurred in 8/19 patients (42%), the median time to transition to hospice was 33.5 days (15-167). Conclusions: This study demonstrates the feasibility of a collaborative model for home-based geriatric oncology care in a real-world setting to help reduce the burden of care on patients and ensure patient-centered delivery of CGA-guided interventions. Findings underscore the need for future work to evaluate the impact of this novel geriatric oncology care model on patient outcomes.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4233671968</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5465/19416520.2012.678697</t>
+          <t>https://openalex.org/W2390391878</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Day et al. (2012)</t>
+          <t>Xiu-feng (2011)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>The Sporting Life: Exploring Organizations through the Lens of Sport</t>
+          <t>Predicament and Countermeasures for College Students' Psychological Health Education</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>We selectively review the literature from the fields of organizational behavior and sport science with the overarching purpose of identifying and summarizing key themes and contributions. The literature is used to provide insights into the fundamental issues of competition (getting ahead) and cooperation (getting along) in organizations. Studies from the organization sciences that have incorporated individual and team data from the various fields of sport are reviewed and organized by topic into succession effects, motivation and performance, and studies of individual and team performance changes over time. In addition, selected studies from the sport science literature are reviewed from the topic areas of the “hot-hand” effect, choking under pressure, passion for life activities, and difficult career transitions. The evidence presents a clear argument that greater integration across the fields of organization and sport science is needed. Areas of future research consideration with regard to embodied cognition and emotions as well as networked approaches to team processes are proposed.</t>
+          <t>China is now in the omnidirectional social transformation period,concerning college students' psychological health is really necessary.Influencing factors on college students' psychological health include psychological imbalance,lack of belief,employment anxiety,addicting to the net and poor psychology.The predicaments on college students' psychological health education are as follows: imbalance on carrying out,the courses and activities of education are not normal,the teachers can not satisfy the needs of work,theory research is relatively backward,psychological education is not high.Enhancing and improving college students' psychological health education must insist on people first,pay attention to humanistic care and psychological guide,adapt the needs of times' development,social progress and college population change.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2554904237</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/apa.13614</t>
+          <t>https://openalex.org/W1529456615</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Belgrave &amp; Čustović (2016)</t>
+          <t>Sleezer et al. (2004)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>The importance of being earnest in epidemiology</t>
+          <t>Formative Evaluation of a CSCLIP Lesson</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Big data sets and novel analytical methods present us with an opportunity and a challenge to push the boundaries of medical research to move towards more targeted, personalised management strategies 1. The concept of ‘big data’ and the promises made concerning the potential of big data to generate novel hypotheses and provide most of the solutions in health care is becoming everyday parlance, with increasing belief that the data must and will speak for themselves. In childhood allergic diseases, discovering latent structure and patterns within large data sets using unbiased machine learning techniques has been used to identify distinct subgroups (classes or clusters) under the umbrella diagnoses of asthma, eczema and rhinitis 2, 3. The study by Goksör et al. 4 in the current issue of the journal is a timely reminder that in addition to disaggregating the structure in the big data sets using ‘unbiased’ analytical techniques, we need to look at the detailed associations of the temporality and comorbidity of symptoms via more traditional epidemiological approaches to fully understand the development of allergic diseases. This study from the Swedish longitudinal cohort presents a valuable epidemiological analysis which may contribute to a better understanding of the development of allergic symptoms during childhood. With the advent of the computational revolution combined with the amplified scale of biological, genetic and phenotypic healthcare data which has become available, the horizons of a data-driven hypothesis-generating approach to understanding disease have somewhat overshadowed the more traditional epidemiological hypotheses-testing approach based on carefully constructed scientific questions and observations. The ever-increasing quantity of data which is generated has made it impossible at times to know what we are looking for, and what questions need to be asked. One way of tackling this has been by taking an agnostic approach towards understanding the structure of the data by using unsupervised machine learning algorithms. Machine learning searches through data to look for patterns, combining mathematical modelling for analysing high-dimensional data and computational statistics to identify model-based patterns or structure within the data. However, nothing replaces and indeed nothing can replace carefully constructed epidemiological studies which ask specific questions and interrogate data sets to test specific hypotheses based on scientific intuition and prior clinical knowledge, and which act as a sanity check to validate the findings of hypothesis-generating studies. In his classical textbook, Rothman describes epidemiology as the study of the distribution and determinants of disease, as well as its frequency and occurrence 5. Epidemiology is concerned with understanding associations and risk factors of diseases, by using carefully constructed frameworks to understand disease causality 5. These concepts, which seem so simple on the surface, are fundamental if we are to extract meaningful clinical interpretations of the vast amount of medical data with which we are constantly presented. Goksör et al. 4 use this epidemiological approach, presenting a carefully structured question to investigate whether allergic manifestations in early life are associated with an increased risk in allergic manifestations in later life. The way in which they go about answering this question is likewise carefully constructed, looking at a range of symptoms and definitions of eczema, asthma, allergic rhinitis and food allergy. This study takes us back to the fundamental principles of epidemiology, which is understanding causality in order to influence policy. This was the aim of the ‘first epidemiologist’, Sir John Snow, who established the cause of the 1854 cholera epidemic in London was contaminated water, rather than bacteria from the surrounding area, which led to the closing down of the water pumps in Soho. We need to go back to the basics of epidemiology so that we do not miss the opportunity to capitalise on what epidemiology is all about: understanding causality and distinguishing causality from confounding. Confounding, an important albeit too often overlooked concept in epidemiology, is the study of effects which may explain away apparently causal associations observed in a statistical model. Confounding is a complex scenario and the existence of latent or unobserved confounders is an area which is acknowledged, but in which much development needs to be encouraged on the more practical level 6. The thorough analysis by Goksör et al. 4 has made an attempt to disaggregate all possible explanations of the development of, and the relationship between allergic manifestations during childhood, through carefully addressing confounding. The results challenge the view that development of allergic manifestations in childhood is a progressive development of one disease. Traditionally, the term ‘atopic march’ has been </t>
+          <t>Abstract Laboratory instruction at a distance using synchronous, remote group settings is the next generation of online learning. Computer-supported, collaborative learning requiring immersive presence (CSCLIP) relies on synchronous web-based instruction and computer-controlled or simulated activities to teach the psychomotor, cognitive, and affective skills that are required in hands-on laboratory instruction. This case study describes the formative evaluation of one CSCLIP lesson. The evaluation identified eight variables that impact such learning. The evaluation resulted in the team sharing ideas on all aspects of the course, brainstorming improvements, and planning activities for their implementation. Introduction The noteworthy growth of online learning in higher education will likely continue (Singh &amp; Pan, 2004). Most distance instruction has concentrated on asynchronous learning and computer-based training. The next generation of online learning involves learning at a distance using synchronous, remote group settings. Indeed, telepresence systems can now immerse remote learners in an environment captured by video cameras and permit them to operate and control devices and processes while working at a distance (Ausburn &amp; Ausburn, in press). This manuscript focuses on a specific instructional approach that includes content delivered via telepresence, CSCLIP (computer-supported, collaborative learning requiring immersive presence). CSCLIP integrates synchronous, collaborative e-learning and computer-controlled or simulated activities to teach the psychomotor, cognitive, and affective skills that are required in hands-on laboratory instruction. Immersive presence is characterized by same time, different place interactions among students and instructors, and by the students' physical control over elements that are typical in laboratory and other situated environments. For example, Juanita participates in a university web-based CSCLIP course while seated at her office desk. She interacts virtually during pre-specified times with equipment, local students, other remote students, and the instructors. She engages in group work, completes laboratory exercises, manipulates equipment and materials, and receives feedback on her learning. Juanita engages in the active, real-time learning of laboratory skills without physically entering the laboratory. She visits all the lab corridors, rooms, etc. virtually, and, she operates and configures many real devices as if she were physically in the lab. She also interacts with other students and instructors in a live mode. Thus the CSCLIP lab experience is a hybrid of real and virtual interaction. CSCLIP offers increased instructor capabilities. The instructor controls the instructional content, the technology that delivers the content, and CSCLIP's increased interaction capabilities that allow all students to interact with remote students, students in the physical laboratory, the instructor, and the laboratory equipment and materials. The instructor limits interaction as appropriate for the lesson. Consequently, the instructor simultaneously manages more phenomena-of-interest than are required by traditional instructional methods. The increased capabilities afforded by CSCLIP instruction call for evaluation research that informs educators about how they can shape it to maximize learning. In this manuscript, we provide as a case study the formative evaluation of one CSCLIP lesson. We first describe the CSCLIP instruction and then we provide the research methodology, results, and discussion. The CSCLIP Instruction CSCLIP was developed by a cross-disciplinary research team with faculty members from engineering, management, and telecommunications. A theoretical foundation for CSCLIP was developed based on scholarly literature in learning and online learning. The team then selected a traditional hands-on laboratory course for transformation to the CSCLIP format (See Scheets &amp; Weiser, 2001). …</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389249573</t>
+          <t>https://openalex.org/W2016629178</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1742-6596/2600/8/082003</t>
+          <t>https://doi.org/10.1002/nml.108</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Chambers et al. (2023)</t>
+          <t>Hoye (2006)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>The GENEAP project: digitalising and automating planning of district heating and cooling</t>
+          <t>Leadership within Australian voluntary sport organization boards</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Abstract The Swiss Energy Strategy 2050 implies a transformation of the provision of thermal energy services (heating and cooling) to become CO2 neutral, district heating and cooling (DHC) are an important solution, which is technically challenging to design and whose implementation entails certain risks for investment. The GENEAP (Geospatial Analysis and Planning) project developed a software that applies automation and digitalisation to address this barrier and to apply scientific research to support the work of practitioners. The software Thermal Energy System Simulation Assistant (TESSA) increases reproducibility and decreases errors, and thereby reducing overall costs. We introduced innovative algorithms for modelling heat and cooling demand, thermal energy supplies, and the cost of thermal network technologies under different retrofit and climate change scenarios. We developed graph theory-based algorithms for computationally efficient routing of thermal network pipes. The goal of the GENEAP project was to validate the models and to establish how practitioners would find value in such a tool. Through workshops and interviews we established the need for digital tools due to the rapidly increasing need for new projects, the complexity and long time frames of projects, and the limited number of available experts to do this work. We found a gap between the high level energy strategy (Plan Directeur Energetique) and the detailed engineering design stage. In between these two stages we find the need for a flexible approach that can integrate cities and societies needs into the engineering design with non-energy requirements (e.g. political context, urban constraints and opportunities, etc).</t>
+          <t xml:space="preserve">Nonprofit Management and LeadershipVolume 16, Issue 3 p. 297-313 Research Article Leadership within Australian voluntary sport organization boards Russell Hoye, Russell Hoye La Trobe University, Melbourne, AustraliaSearch for more papers by this author Russell Hoye, Russell Hoye La Trobe University, Melbourne, AustraliaSearch for more papers by this author First published: 24 March 2006 https://doi.org/10.1002/nml.108Citations: 64AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat Abstract This article applies leader-member exchange theory to the study of dyadic relationships between leaders (board chairs and paid executives) and members (volunteer board members) within the boards of Australian voluntary sport organizations. The article specifically examines leader-member exchanges within a sample of six Queensland State sport organizations and their relationship with board performance. It was found that leadership within voluntary sport organization boards emanates from either board chairs or executives and that when the individuals fulfilling these roles are able to develop a mature working relationship, the board's ability to perform is enhanced. These findings extend our understanding of the importance of leadership roles held by volunteers and paid professionals for the achievement of organizational outcomes. References Auld, C. "Professionalisation of Australian Sport: The Effects on Organizational Decision-Making." European Journal for Sport Management, 1997, 4 (2), 17–39. Google Scholar Auld, C., and Godbey, G. "Influence in Canadian National Sport Organizations: Perceptions of Professionals and Volunteers." Journal of Sport Management, 1998, 12, 20–38. 10.1123/jsm.12.1.20 Web of Science®Google Scholar Berger, P., and Luckmann, T. The Social Construction of Reality: A Treatise on the Sociology of Knowledge. London: Penguin, 1967. Google Scholar Bradshaw, P., Murray, V., and Wolpin, J. "Do Nonprofit Boards Make a Difference? An Exploration of the Relationships Among Board Structure, Process, and Effectiveness." Nonprofit and Voluntary Sector Quarterly, 1992, 21, 227–249. 10.1177/089976409202100304 Google Scholar Dansereau, F., Graen, G., and Haga, B. A. "A Vertical-Dyad Linkage Approach to Leadership Within Formal Organizations: A Longitudinal Investigation of the Role Making Process." Organizational Behavior and Human Performance, 1975, 13, 46–78. 10.1016/0030-5073(75)90005-7 Web of Science®Google Scholar Danylchuk, K. E., and Chelladurai, P. "The Nature of Work in Canadian Intercollegiate Athletics." Journal of Sport Management, 1999, 13, 148–166. Web of Science®Google Scholar Dockery, T. M., and Steiner, D. D. "The Role of the Initial Interaction in Leader-Member Exchange." Group and Organization Studies, 1990, 15, 395–413. 10.1177/105960119001500405 Web of Science®Google Scholar Doherty, A. J., and Danylchuk, K. E. "Transformational and Transactional Leadership in Interuniversity Athletics Management." Journal of Sport Management, 1996, 10, 292–309. Web of Science®Google Scholar Duchon, D., Green, S., and Taber, T. "Vertical Dyad Linkage: A Longitudinal Assessment of Antecedents, Measures and Consequences." Journal of Applied Psychology, 1986, 71, 56–60. 10.1037/0021-9010.71.1.56 Web of Science®Google Scholar Eisenhardt, K. M. "Building Theories from Case Study Research." Academy of Management Review, 1989, 14, 532–550. 10.2307/258557 Web of Science®Google Scholar Fletcher, K. "Effective Boards: How Executive Directors Define and Develop Them." Nonprofit Management and Leadership, 1992, 2, 283–293. 10.1002/nml.4130020307 CASPubMedGoogle Scholar Gomez, C., and Rosen, B. "The Leader-Member Exchange as a Link Between Managerial Trust and Employee Empowerment." Group and Organization Management, 2001, 26 (1), 53–69. 10.1177/1059601101261004 Web of Science®Google Scholar Graen, G. B., and Uhl-Bien, M. "Relationship-Based Approach to Leadership: Development of Leader-Member Exchange (LMX) Theory of Leadership over Twenty-Five Years: Applying a Multi-Level Multi-Domain Perspective." Leadership Quarterly, 1995, 6 (2), 219–247. 10.1016/1048-9843(95)90036-5 Web of Science®Google Scholar Heimovics, R. D., and Herman, R. D. "Responsibility for Critical Events in Nonprofit Organizations." Nonprofit and Voluntary Sector Quarterly, 1990, 19, 59–72. 10.1177/089976409001900107 Google Scholar Heimovics, R. D., Herman, R. D., and Jurkiewicz, C. L. "The Political Dimension of Effective Nonprofit Executive Leadership." Nonprofit Management and Leadership, 1995, </t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2588171043</t>
+          <t>https://openalex.org/W90572113</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Salemink (2016)</t>
+          <t>Termrungruanglert et al. (2012)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Digital Margins: How spatially and socially marginalized communities deal with digital exclusion</t>
+          <t>Model for predicting the burden and cost of treatment in cervical cancer and HPV-related diseases in Thailand.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>The increasing importance of the Internet as a means of communication has transformed economies and societies. For spatially and socially marginalized communities, this transformation has resulted in digital exclusion and further marginalization. This book presents a study of two kinds of marginalized communities: spatially marginalized rural communities and socially marginalized Gypsy-Travelers. Mechanisms of both social exclusion and digital exclusion were studied to create a better understanding of how marginalized communities deal with ongoing digitalization. The interplay between citizens, governments, and market players is a recurring theme throughout the book. Issues in current policies and approaches are discussed, and recommendations for improvement are provided. Altogether, this study shows that the Internet is not an equalizer, as it was once assumed by academics and policy makers. Instead, unequal access to the Internet shows that ‘offline’ geographies still matter in the digital age. Ongoing developments around digital exclusion in the Netherlands, and in a broader perspective around the ‘participation society’, beg the question how much can be asked of communities and what should be a public task. If governments really care about digital equality, then they need to enable self-reliant communities to achieve their goals, but they also need to play a more active role themselves and help the more dependent communities.</t>
+          <t>Cervical cancer is a significant health burden in many countries. Long-term cost of care is still not well understood. We aimed to evaluate the long-term burden of illness and healthcare resource utilization associated with cervical cancer, cervical intraepithelial neoplasia (CIN) and genital warts from the care provider perspective.We developed a health state-transition Markov model to portray the algorithm of treatment of stages of cervical cancer, CIN and genital warts by tracking a hypothetical lifetime cohort of 12-year-old girls. Costs in this study were unit cost; capital costs and labor costs were included in the unit cost for inpatients and out-patients.The highest incidence of CIN and genital warts was observed in women aged 20-30 years old. For cervical cancer, the highest incidence was 45-55 years. Death rate was estimated at 2%, 8%, 84% and 94% in cervical cancer Stage IA1, IA2-IIA, IIB-IVA and IVB, respectively. The estimated mean direct cost per patient with cervical cancer Stage IA1, IA2-IIA, IIB-IVA, IVB, CIN1, CIN2/3 and genital warts were 41,117 Thai Baht ($1,277 US), 97,250 Thai Baht ($3,020 US), 402,683 Thai Baht ($12,506 US), 322,619 Thai Baht ($10,019 US), 5,381 Thai Baht ($167 US), 49,933 Thai Baht ($1.551 US) and 3,585 Thai Baht ($111 US), respectively. Cost for survival or death case was indifferent. The overall lifetime costs from the provider perspective were evaluated at 859.1 million Baht ($26.7 million US) per a cohort of 100,000 women which corresponds to approximately 4,244 million Baht ($131.8 million US) for the current number of Thai 12-year-old girls.HPV-related diseases impose health and cost burdens in Thailand. The national immunization programme to reduce this burden as well as further research to evaluate the impact is keenly expected.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3043593775</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5194/egusphere-egu2020-2707</t>
+          <t>https://openalex.org/W2625811892</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Lengaigne (2020)</t>
+          <t>Kessler (2001)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interactions of the Indian Ocean climate with other tropical oceans</t>
+          <t>The Firm and the Choice between Transparency and Secrecy</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>&amp;amp;lt;p&amp;amp;gt;Ocean-atmosphere interactions in the tropics have a profound influence on the climate system. El Ni&amp;amp;amp;#241;o&amp;amp;amp;#8211;Southern Oscillation (ENSO), which is spawned in the tropical Pacific, is the most prominent and well-known year-to-year variation on Earth. Its reach is global, and its impacts on society and the environment are legion. Because ENSO is so strong, it can excite other modes of climate variability in the Indian Ocean by altering the general circulation of the atmosphere. However, ocean-atmosphere interactions internal to the Indian Ocean are capable of generating distinct modes of climate variability as well. Whether the Indian Ocean can feedback onto Atlantic and Pacific climate has been an on-going matter of debate. We are now beginning to realize that the tropics, as a whole, are a tightly inter-connected system, with strong feedbacks from the Indian and Atlantic Oceans onto the Pacific. These two-way interactions affect the character of ENSO and Pacific decadal variability and shed new light on the recent hiatus in global warming.&amp;amp;lt;/p&amp;amp;gt;&amp;amp;lt;p&amp;amp;gt;Here we review advances in our understanding of pantropical interbasins climate interactions with the Indian Ocean and their implications for both climate prediction and future climate projections. ENSO events force changes in the Indian Ocean than can feed back onto the Pacific. Along with reduced summer monsoon rainfall over the Indian subcontinent, a developing El Ni&amp;amp;amp;#241;o can trigger a positive Indian Ocean Dipole (IOD) in fall and an Indian Ocean Basinwide (IOB) warming in winter and spring. Both IOD and IOB can feed back onto ENSO. For example, a positive IOD can favor the onset of El Ni&amp;amp;amp;#241;o, and an El Ni&amp;amp;amp;#241;o&amp;amp;amp;#8211;forced IOB can accelerate the demise of an El Ni&amp;amp;amp;#241;o and its transition to La Ni&amp;amp;amp;#241;a. These tropical interbasin linkages however vary on decadal time scales. Warming during a positive phase of Atlantic Multidecadal Variability over the past two decades has strengthened the Atlantic forcing of the Indo-Pacific, leading to an unprecedented intensification of the Pacific trade winds, cooling of the tropical Pacific, and warming of the Indian Ocean. These interactions forced from the tropical Atlantic were largely responsible for the recent hiatus in global surface warming.&amp;amp;lt;/p&amp;amp;gt;&amp;amp;lt;p&amp;amp;gt;Climate modeling studies to address these issues are unfortunately compromised by pronounced systematic errors in the tropics that severely suppress interactions with the Indian and Pacific Oceans. As a result, there could be considerable uncertainty in future projections of Indo-Pacific climate variability and the background conditions in which it is embedded. Projections based on the current generation of climate models suggest that Indo-Pacific mean-state changes will involve slower warming in the eastern than in the western Indian Ocean. Given the presumed strength of the Atlantic influence on the pantropics, projections of future climate change could be substantially different if systematic model errors in the Atlantic were corrected. There is hence tremendous potential for improving seasonal to decadal climate predictions and for improving projections of future climate change in the tropics though advances in our understanding of the dynamics that govern interbasin linkages.&amp;amp;lt;/p&amp;amp;gt;</t>
+          <t>Openness has gradually become the rule in the business world, under the influence of the communication technologies revolution, the evolution of the internal organization of firms, the transition from a debt economy to a self-financing economy, the demands of markets and institutional investors, as well as the evolution of corporate law. Openness and information are essential to the good operation of the economy, and their development corresponds to the necessary conditions of a « pure and perfect » competition. However, the demand for an absolute openness of firms, notably under the pressure of consumerism and the fight against frauds and illicit pratices, must respect the rules of industrial property, as well as a certain degree of confidentiality necessary for efficient management.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2043783864</t>
+          <t>https://openalex.org/W4214729227</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0036795</t>
+          <t>https://doi.org/10.4018/978-1-7998-8963-2.ch010</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Guillet et al. (2012)</t>
+          <t>King (2021)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Regulation of the Fruit-Specific PEP Carboxylase SlPPC2 Promoter at Early Stages of Tomato Fruit Development</t>
+          <t>Becoming Ellis</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>The SlPPC2 phosphoenolpyruvate carboxylase (PEPC; EC 4.1.1.31) gene from tomato (Solanum lycopersicum) is differentially and specifically expressed in expanding tissues of developing tomato fruit. We recently showed that a 1966 bp DNA fragment located upstream of the ATG codon of the SlPPC2 gene (GenBank AJ313434) confers appropriate fruit-specificity in transgenic tomato. In this study, we further investigated the regulation of the SlPPC2 promoter gene by analysing the SlPPC2 cis-regulating region fused to either the firefly luciferase (LUC) or the β-glucuronidase (GUS) reporter gene, using stable genetic transformation and biolistic transient expression assays in the fruit. Biolistic analyses of 5' SlPPC2 promoter deletions fused to LUC in fruits at the 8(th) day after anthesis revealed that positive regulatory regions are mostly located in the distal region of the promoter. In addition, a 5' UTR leader intron present in the 1966 bp fragment contributes to the proper temporal regulation of LUC activity during fruit development. Interestingly, the SlPPC2 promoter responds to hormones (ethylene) and metabolites (sugars) regulating fruit growth and metabolism. When tested by transient expression assays, the chimeric promoter:LUC fusion constructs allowed gene expression in both fruit and leaf, suggesting that integration into the chromatin is required for fruit-specificity. These results clearly demonstrate that SlPPC2 gene is under tight transcriptional regulation in the developing fruit and that its promoter can be employed to drive transgene expression specifically during the cell expansion stage of tomato fruit. Taken together, the SlPPC2 promoter offers great potential as a candidate for driving transgene expression specifically in developing tomato fruit from various tomato cultivars.</t>
+          <t>The chapter describes the author's experience as a counselor working with a transgender-identifying teenager named Ellis. The goals of the counseling relationship included exploring transgender identity, managing feelings of depression and anxiety connected to gender dysphoria, and helping Ellis process and cope with life struggles that he experienced. The author provides an in-depth description of Ellis's experience in counseling, as well as a follow-up interview conducted five years after termination of the counseling relationship. This chapter depicts the experience of Ellis's transition and his perspectives about what his transgender identity means to him. The author provides insights on how to best work with transgender clients that emerged from her experience of working with Ellis.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2746205999</t>
+          <t>https://openalex.org/W4285536743</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/chase.2017.93</t>
+          <t>https://doi.org/10.30525/978-9934-26-190-9-5</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Sholla et al. (2017)</t>
+          <t>Yemchuk &amp; Dzhulii (2021)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Incorporating Ethics in Internet of Things (IoT) Enabled Connected Smart Healthcare</t>
+          <t>FEATURES OF THE INFORMATION SUPPORT FORMATION OF THE ENTERPRISE’S INTELLECTUAL CAPITAL MANAGEMENT</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Emerging Internet of Things represents a paradigm shift in our understanding of modern communication networks. The basic premise is to have smart sensors collaborate directly without human involvement to deliver a new class of applications having far reaching consequences for all aspects of human life. In particular Internet of Things revolution is transforming the modern connected healthcare. However, ubiquitous nature and increased autonomy of the IoT devices raise serious concerns about the ethical complicity of connected smart healthcare applications. In this paper we present a novel method to incorporate ethics in IoT driven connected smart healthcare so that the services provided do not unwittingly infringe on the ethical rights of its beneficiaries.</t>
+          <t>The study substantiates the relevance of rapid changes in the intellectualization of economic processes under the influence of information systems and computer technology, and these components are interdependent. The study found that the selected factors stimulate the development of intellectual capital, which determines the new conditions for the functioning of the enterprise management system and the adoption of sound management decisions. Accordingly, the subject of research is a set of theoretical provisions, methodological tools and practical aspects of intellectualization of business management processes. The study used logical and system-structural analysis in the study of the features and role of information resources in the activities of modern enterprises, in the study of the impact of cloud technologies on the development of enterprise management. Economic and mathematical methods, tabular method and grouping methods are used to evaluate and analyze specific research results. The most important task of the study is to identify features of the functional potential of new information systems in enterprise management, processing of their economic information and formation of information management processes, as well as solving current problems related to the need for information systems. The study substantiates that the integration of the national economy into the global information space today is one of the determining factors of its efficiency and competitiveness. Under such conditions, the transformation processes related to the formation of an innovative model of the economy focused on scientific high-tech production, sustainable development and the creation of infrastructure for the formation of intelligent information space become relevant in the national industry. It is established that one of the most important elements of modern innovative transformations are information systems and technologies that are able to produce large amounts of information and knowledge, transmit them remotely, accumulate, store and form new intelligent products in both national and international economic systems. Emphasis is placed on the fact that the introduction of cloud technologies is especially important, which is a necessary condition for the development of enterprise management systems. It is theoretically substantiated that cloud technologies provide new tools for the development of management systems, intensification of interaction in the external environment of the enterprise. They also determine the progressive trends in the development of enterprises and their associations (cluster systems), the main directions of development of high-tech industries and information potential of enterprises. This allowed us to build a mathematical model for calculating the probability of making the right decision, evaluating the effectiveness of decision-making. It is proved that intellectual capital is the basis for the development of the knowledge-based economy and determines the new course of socioeconomic development of Ukraine.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2586502405</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/9781119388715.ch5</t>
+          <t>https://openalex.org/W1485230015</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Maesschalck (2017)</t>
+          <t>Szebehely (1982)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Promoting Reflexive Governance of RRI</t>
+          <t>Applications of modern dynamics to celestial mechanics and astrodynamics : proceedings of the NATO Advanced Study Institute held at Cortina d'Ampezzo, Italy, August 2-14, 1981</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>The fundamental challenge is to shift the attention that directs reformative activism onto the production of a reflected and collaborative mode of piloting attempts at reform. The challenge for reflexive governance is to produce effects that shift the heart of attention away from the aim of producing results that fit within an interest-equilibrium model, and onto the transformation of actors and their relational potential. This chapter starts from the recognized need to establish transversal vigilance across all orientations of a responsible research and innovation (RRI) policy, in order to target two major shifts, one collective, and the other subjective. The first considers RRI as a process of constructing new forms of relations between networks and research sectors, while the other concerns RRI insofar as it directly raises the question of singular research identities. Any RRI policy must include, as an integral and explicitly-thematized element, an acute vigilance aimed at its fundamental guiding principles.</t>
+          <t>I: Stars, Planets, Satellites, Asteroids and Rings.- The Dynamics of Close Planetary Satellites and Rings.- The Motion of Saturn's Co-Orbiting Satellites 1980S1 and 1980S3.- A Qualitative Study of Stabilizing and Destabilizing Factors in Planetary and Asteroidal Orbits.- Perturbations in Stellar Paths.- Modern Lunar Theory.- Some Aspects of Motion in the General Planar Problem of Three Bodies In Particular in the Vicinity of Periodic Solutions Associated with Near Small-Integer Commensurabilities of Orbital Period.- The Stability of N-Body Hierarchical Dynamical Systems.- Reference Systems for Earth Dynamics.- II: Resonance.- Recent Progress in the Theory of the Trojan Asteroids.- The Adiabatic Invariants: Its Use in Celestial Mechanics.- III: Connection with Statistical Mechanics.- Modern and Old Views in the Dynamical Foundations of Classical Statistical Mechanics.- The KAM Invariant and Poincare's Theorem.- IV: Regularization and Geodesics.- Regularization of the Singularities of the N-Body Problem.- Les Geodesiques de l'Ellipsoide a Trois Axes Inegaux, d'Apres Jacobi, Whittaker, Arnold.- Coordonnees Symetriques sur la Variete de Collision Triple du Probleme Plan des Trois Corps.- V: Non-Linearity, Determinancy and Manifolds.- Ergodic Theory and Area Preserving Mappings.- Exploding Dynamical Systems.- On Some Invariant Manifold Results and Their Applications.- Is Celestial Mechanics Deterministic?.- VI: Abstracts of Seminar Contributions.- On a Family of Continuous Maps of the Circle into Itself Related to the Van der Pol Equation.- Review on Semiconvergent Series, Periodic Solutions and the Vanishing Hessian in Celestial Mechanics.- Perturbative Effects of Solar Radiation Pressure on the Orbital Motion of High Earth Satellites.- Quasi-Random Motions in a Perturbed Pendulum.- Small Bodies Captured by a Thin Annular Disk Orbiting Around a Primary Body.- Lie-Algebraic Methods in Dynamics and Celestial Mechanics.- Parabolic Escape and Capture in the Restricted Three-Body Problem for Larger Values of the Jacobi Constant.- Compatability Conditions for a Non-Quadratic Integral of Motion.- Contact Systems and Celestial Mechanics.- Dimensions of the Invariant Manifolds Associated with Equilibrium Points in the N-Body Problem.- On the Development of an Artificial Satellite Theory.- Motion at the Second Order Resonances, 3:1 and 5:3.- On the Applicability of the Transition Chains Mechanism.- Small Divisors in the Derivatives of Hansen's Coefficients.- Periodic Solutions of the Restricted Problem of Three Bodies with Small Values of the Mass Parameter.- Non-Universality for a Class of Bifurcations.- Application of Lie-Series to Numerical Integration in Celestial Mechanics.- Applications of Hamilton's Law of Varying Action.- Some Current Astrodynamics Developments at the North American Aerospace Defense Command (NORAD).- About the Triple Collision Manifold in the Planar Three-Body Problem.- Periodic Orbits Near Homoclinic Orbits.- Some Numerical Results of a Semi-Analytic Orbit Theory Using Observed Data.- Orbital Behaviour in the Vicinity of Unstable Periodic Orbits in Dynamical Systems with Three Degrees of Freedom.- On the Convergence of Formal Integrals in Finite Time.- A Numerical Study of the Asymptotic Solutions to the Family (C) of Periodic Orbits in the Restricted Problem of Three Bodies.- The Equivalence of the Generators of Deprit's and Giorgelli-Galgani's Change of Variables in Differential Systems.- Stabilization of Spiral Density Waves in Flat Galaxies for a Hydrodynamical Model.- Stability of Periodic Orbits Near a Homoclinic Orbit for Analytical Hamiltonians with Two Degrees of Freedom.- A Method for the Investigation of the Integrability of Dynamical Systems.- Reappearance of Ordered Motion in Classical Non-Integrable Hamiltonian Systems.- Hopf-Bifurcation in a Nearly Hamiltonian System.- A Realization of Dynamical Systems in Boolean Algebras.- Relativistic Astrodynamics: Problems in Interstellar Flight.- The Origin of the Kirkwood Gaps: A Mapping for Asteroidal Motion Near the 3/1 Commensurability.- Completely Integrable Systems and Singularity in the Complex t-Plane.- Index of Names.- Index of Subjects.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4223422407</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s00603-022-02841-8</t>
+          <t>https://openalex.org/W174020264</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Souley et al. (2022)</t>
+          <t>Bloom (2002)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>3D Modelling of Excavation-Induced Anisotropic Responses of Deep Drifts at the Meuse/Haute-Marne URL</t>
+          <t>Professionalism in the practice of medicine.</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Understanding the excavation-induced fractured zone (EFZ) around drifts is paramount in the context of the deep geological disposal for nuclear waste since fractures can introduce pathways for the migration of radionuclides. Drifts in the Meuse/Haute-Marne Underground Research Laboratory (URL) have been essentially excavated following the two main directions of major and minor horizontal stresses. Field observations on the two drifts GCS (parallel to major horizontal stress direction) and GED (parallel to minor horizontal stress direction) in the URL show anisotropic shapes of EFZ around drifts through both orientations and anisotropic convergences. These anisotropic responses resulted from the inherent and/or induced anisotropies of the host rock as well as the anisotropic stress field. This study focuses on 3D numerical modelling of excavation-induced anisotropic responses including shape and extent of EFZ, and short-term convergences of drifts. The main assumption is that the failure of claystone material is due to fracturing along weakness planes (ubiquitous joints) and the failure of the rock matrix. The ubiquitous joint failure is represented by perfectly plastic models for both tensile and shear yield functions. Their orientation is determined from the stress state based on the fracture mechanics, which includes tensile, longitudinal splitting and shear (conjugate planes) cracks. The rock matrix is assumed to be elastoplastic with hardening, softening and residual behaviours. Confining pressure dependency for the post-peak behaviour with a brittle–ductile transition is taken into account for the rock matrix. The proposed model is implemented into a commercial numerical software FLAC3D. The main features of the implemented model are shown by the simulation of laboratory triaxial compression tests, as well as field observation within the URL. In particular, comparisons between 3D simulations of GCS and GED drifts with in situ observations shows promising results, which demonstrates advances of present model with respect to existing models. •3D modelling of excavation induced anisotropic mechanical responses of COx claystone. •A coupling between weakness planes and elastoplastic rock matrix for rock fracturing. •Stress state controlling the weakness plane occurring and its orientation. •Galleries within Andra URL following both minor and major horizontal stress orientations are considered. •Convergence and damage zone are rather well reproduced by the proposed model.</t>
+          <t>Although medicine is universally recognized as the archetype of the professions, it can only be understood as part of the modern medical center, a dynamic social system consisting of the university, the hospital, the medical center and, most recently, corporate managed care. Such a view results in a portrait of medicine as a profession transformed, driven by huge and growing health care markets, its fate tied not only to state bureaucracies, but also to the dynamics of both health and non-health care businesses. The question asked here is how does such a radical change in medical practice affect medical education. Using methods of historical analysis, it appears that medical educators operate as though the educational process itself determines the values, and therefore the present and future behavior of their students. In other words, at the end of their formal education, doctors are fully formed professionals. However, from the analysis of this paper it can be concluded that the physician as an individual cannot function independently of the structure of the society and its general conception of the world. In the structure of medicine s present situation, the ethical standards of professionalism, as they are classically defined, cannot survive. Instead, modern medical graduates, much like their teachers and professional mentors, will be forced to adapt to a situation that is contradictory to the best traditions of medicine. How to stop this process is the urgent question. Three answers are presented.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2384841189</t>
+          <t>https://openalex.org/W2298370954</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7596/taksad.v1i3.51</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Xiao-we (2015)</t>
+          <t>Yılmaz (2012)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Mao Zedong's Meditations on Talent Training Modes in 1950s to 1960s and its Contemporary Values</t>
+          <t>Eğitim Seviyesindeki Yükselmenin Geleneksel Aile Anlayışının Değişimine Etkisi: Karabük Üniversitesi Örneği</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Mao Zedong's theories of education practices in 1950 s and 1960 s center on his meditations on and reformations of talent training modes under the guidelines of  revolution in education. He earnestly attempted to propel China's education and scientific research towards focuses of social needs and production development, to integrate education, scientific research and production, and train talents with correct political views, realistic social concerns, proper proficiency and skills that fulfills the needs of socialist modern construction. In spite of the many flaws in its practices, such thoughts are still inspiring for our education reform in 21 st century.</t>
+          <t xml:space="preserve">Eğitim Seviyesindeki Yükselmenin Geleneksel Aile Anlayışının Değişimine Etkisi: Karabük Üniversitesi Örneği ÖzetGünümüzde aile ile ilgili yeni yaklaşımlar ortaya çıkmış ve geleneksel aile anlayışları değişmeye başlamıştır. Evlilik yaşının yükselmesi, boşanmaların artması, nikâhsız birlikte yaşama anlayışının yaygınlaşmaya başlaması, hanehalkı sayısının küçülmesi, çocuk sayısının azalması vb. yeni yaklaşım ve anlayışlar, sıradan bir insanın bile gözlemleyebileceği ölçüde yaygınlaşmıştır. Aile ile ilgili yeni anlayışların ortaya çıkmasını tetikleyen elbette pek çok neden vardır. Bu araştırmada, aile ile ilgili bu yeni anlayışların ortaya çıkmasında eğitimin rolünün ne olduğu araştırılmaktadır.Araştırmada, aile anlayışında meydana gelen değişmelerle ilgili olarak TÜİK verilerinden yararlanıldığı gibi üniversite öğrencileri üzerinde yapmış olduğumuz bir araştırmanın sonuçlarına da yer verilmiştir. İstatistiksel veriler eğitim seviyesinin düşük olduğu dönemlerle karşılaştırılmış, böylece eğitim seviyesindeki yükselmenin nasıl bir değişim ve dönüşüme neden olduğu tespit edilmeye çalışılmıştır. Özellikle ikinci dünya savaşı sonrasında aile ile ilgili olarak Avrupa ve Amerika’da yaşanan gelişmeler de incelenmiş ve Türk ailesindeki gelişmelerle karşılaştırılarak benzer dönüşümlerin yaşanıp yaşanmayacağı tartışılmıştır. The Effect of Increasing Education Level on Changes in Traditional Family Patterns: The Case of Karabuk University Abstract Today, new approaches about the family have emerged, and traditional family patterns have started to change. The increase of marriage age, the increase in the number of divorces, the tendency for cohabitation, the decrease in the number of family members and the decline in the number of offspring have become so wide-spread that these changes could be easily observed even by ordinary people. There are, of course, a lot of reasons that stimulate these new approaches about the family, yet this study focuses upon the role of education concerning the emergence of these new concepts about the family. In the study, the data taken from TUIK, as well as the results of a survey about the changes in the family patterns carried out on the university students are used. The statistical data are compared with the data of the previous periods in which the level of education was low. Additionally, the study examines how the increase in the level of education has brought about transformation in the traditional family patterns. Moreover, the transformations of family patterns in Europe and America, particularly after the Second World War, are studied, and these transformations are compared with the similar changes in the Turkish family patterns. The study also discusses whether the same transformations could be seen in Turkish family. Effet de l’élévation du niveau/grade d’études au changement de la conception de la famille traditionnelle : Le Cas de l’Université de Karabük RésuméAujourd’hui, de nouvelles approches ont vu le jour sur la famille et les conceptions de la famille traditionnelle ont commencé à changer. L’augmentation de l’âge du mariage, le nombre croissant de divorces, de personnes vivant en couple sans contrat de mariage, la diminution du nombre d’habitants au sein d’un ménage, la réduction du nombre d’enfants etc… sont des événements que l’on peut observer de plus en plus. Il existe bien sûr de nombreuses raisons qui déclenchent l’émergence de ces nouvelles conceptions au sujet de la famille. Dans cette étude, nous avons étudié le rôle de l’éducation dans l’émergence de ces nouvelles conceptions de la famille moderne.Dans cette étude, en ce qui concerne les changements relatifs à la conception familiale nous avons utilisé les données de TÜİK et aussi celles de notre recherche portant sur les étudiants universitaires. Les données statistiques sont comparées avec les données où le niveau d’éducation est bas dans le but de déterminer comment l’élévation du niveau d’études suscite un changement et une transformation en ce qui concerne la famille. Plus particulièrement, nous avons aussi examiné l' évolutions de la famille en Europe et aux Etats-Unis après la deuxième guerre mondiale et nous avons fait des comparaisons avec l’évolution de la famille Turque pour voir s’il existe des changements et transformations similaires. تأثير ارتفاع المستوى التعليمي على تغيّر "مفهوم الأسرة التقليدية" : نموذج جامعة كارابوكالملخص:في يومنا الحاضر ظهرت أساليب جديدة حول الأسرة و بدأت مفاهيم "الأسرة التقليدية" تتغير. ارتفاع سن الزواج وزيادة الطلاق، وانتشار مفهوم الاختلاط بين الشباب والشابات بدون نكاح، وتقليل عدد أفراد الأسرة، وتقليل عدد الأطفال في الأسرة، وغير ذلك من المفاهيم الجديدة؛ قد شاعت في المجتمع بقدر حتى يترصدها أي إنسان عادي. لا شك أن هناك أسباب عديدة في تحريك ظهور مفاهيم جديدة تتعلق بالأسرة. في هذه الدراسة، تم البحث عن مدى دور التعليم في ظهور هذه المفاهيم الجديدة المتعلقة بالأسرة...في الدراسة؛ كما تمت الاستفادة من معطيات مؤسسة إحصائيات تركيا، تترق إليه الباحث إلى نتائج البحث الذي قمنا بتطبيقه على </t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2517275835</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/cicn.2015.84</t>
+          <t>https://openalex.org/W2978587592</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Tomar &amp; Jain (2015)</t>
+          <t>Zhi-cheng (2008)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Lossless Image Compression Using Differential Pulse Code Modulation and its Application</t>
+          <t>On the Content System of the Political Party Culture of the Communist Party of China</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Images include information about human body which is used for different purpose such as medical examination security and other plans Compression of images is used in some applications such as profiling information and transmission systems. Regard to importance of images information, lossless or loss compression is preferred. Lossless compressions are JPEG, JPEG-LS and JPEG2000 are few well-known methods for lossless compression. We will use differential pulse code modulation for image compression with Huffman encoder, which is one of the latest and provides good compression ratio, peak signal to noise ratio and minimum mean square error. In real time application which needs hardware implementation, low complex algorithm accelerate compression process. In this paper, we use differential pulse code modulation for image compression lossless and near-lossless compression method is introduced which is efficient due to its high compression ratio and simplicity. This method is consists of a new transformation method called Enhanced DPCM Transformation (EDT) which has a good energy compaction and a suitable Huffman encoding. After introducing this compression method it is applied on different images from Corel dataset for experimental results and analysis. Also we compare it with other existing methods with respect to parameter compression ratio, peak signal noise ratio and mean square error.</t>
+          <t>The political party culture of the Communist Party of China is connected with the traditional Chinese culture,the glorious tradition of the Chinese revolution and the cultural spirit of the times.The content system of the political party culture of the Communist Party of China is confirmed clearly and scientificly,which is conducive to serious adherence to the comprehensive construction.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3133524445</t>
+          <t>https://openalex.org/W3200395595</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41893-021-00684-9</t>
+          <t>https://doi.org/10.1177/08404704211037794</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Chacón-Montalván et al. (2021)</t>
+          <t>Power &amp; Carson (2021)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Rainfall variability and adverse birth outcomes in Amazonia</t>
+          <t>The promise of transformed long-term care homes: Evidence from the pandemic</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Amazonian populations are increasingly exposed to climatic shocks, yet knowledge of related health impacts is limited. Understanding how health risks are coproduced by local climatic variability, place and social inequities is vital for improving decision-making, particularly in decentralized contexts. We assess the impacts of rainfall variability and multiscale vulnerabilities on birth weight, which has lifelong health consequences. We focus on highly river-dependent areas in Amazonia, using urban and rural birth registrations during 2006–2017. We find a strong but spatially differentiated relationship between local rainfall and subsequent river-level anomalies. Using Bayesian models, we disentangle the impacts of rainfall shocks of different magnitudes, municipal characteristics, social inequities and seasonality. Prenatal exposure to extremely intense rainfall is associated with preterm birth, restricted intra-uterine growth and lower mean birth weight (≤−183 g). Adverse birth outcomes also follow non-extreme intense rainfall (40% higher odds of low birth weight), drier conditions than seasonal averages (−39 g mean birth weight) and conception in the rising-water season (−13 g mean birth weight). Babies experience penalties totalling 646 g when born to adolescent, Amerindian, unmarried mothers that received no formal education or antenatal or obstetric health care. Rainfall variability confers intergenerational disadvantage, especially for socially marginalized Amazonians in forgotten places. Structural changes are required to reduce inequities, foster citizen empowerment and improve the social accountability of public institutions. Amazonians are subject to climate shocks, but the associated health outcomes are still unclear. This study finds that rainfall variability is associated with adverse birth outcomes, especially for those most isolated and marginalized.</t>
+          <t>A combination of factors during the SARS-CoV-2 pandemic led to a disproportionately high mortality rate among residents of long-term care homes in Canada and around the globe. Retrospectively, some of these factors could have been avoided or minimized. Many infection control approaches recommended by public health experts and regulators, while well intended to keep people safe from disease exposure, threatened other vital aspects of health and well-being. Furthermore, focusing narrowly on infection control practices does not address long-standing operational and infrastructural factors that contributed significantly to the pandemic toll. In this article, we review traditional (ie. institutional) long-term care practices that were associated with increased risk during the pandemic and highlight one transformational model (the Green House Project) that worked well to protect the lives and livelihood of people within congregate care settings. Drawing on this evidence, we identify specific strategies for necessary and overdue improvements in long-term care homes.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://openalex.org/W578092641</t>
+          <t>https://openalex.org/W2007275367</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ijpe.2015.04.015</t>
+          <t>https://doi.org/10.1074/jbc.m414016200</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Hlioui et al. (2015)</t>
+          <t>Lisenbee et al. (2005)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Replenishment, production and quality control strategies in three-stage supply chain</t>
+          <t>Paired Cysteine Mutagenesis to Establish the Pattern of Disulfide Bonds in the Functional Intact Secretin Receptor</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>In this paper, we propose to jointly integrate and coordinate production, replenishment and quality inspection decisions in a three-stage supply chain control problem. The transformation stage produces one final product type and responds to a stable market demand. After a random lead time, the supplier delivers raw materials in batches which may each contain a certain proportion of defective items. When a lot of raw materials is received, a lot-by-lot acceptance sampling plan is applied, and then a decision is taken with regards to a 100% screening or discarding of the sampled lot. In this article, we focus on the existing interaction between the applicable quality control decisions and the replenishment and production control decisions. The objective is to determine a control policy for production, replenishment and quality activities which minimizes the total cost, including purchasing costs, production and quality inspection costs, as well as the inventory/backlog costs. A simulation model and a Response Surface Methodology are used to find the optimal parameters of the proposed policy. The obtained results show that the integration of 100% screening or discarding decisions in a new “hybrid” one is more beneficial, and guarantees a better coordination at a lower cost.</t>
+          <t>The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. The amino-terminal domain of class B G protein-coupled receptors contains six conserved cysteine residues involved in structurally and functionally critical disulfide bonds. The mapping of these bonds has been unclear, with one pattern based on biochemical and NMR structural characterizations of refolded, nonglycosylated amino-terminal fragments, and another pattern derived from functional characterizations of intact receptors having paired cysteine mutations. In the present study, we determined the disulfide bonding pattern of the prototypic class B secretin receptor by applying the same paired cysteine mutagenesis approach and confirming the predicted bonding pattern with proteolytic cleavage of intact functional receptor. As expected, systematic mutation to serine of the six conserved cysteine residues within this region of the secretin receptor singly and in pairs resulted in loss of function of most constructs. Notable exceptions were single mutations of the 4th and 6th cysteine residues and paired mutations involving the 1st and 3rd, 2nd and 5th, and 4th and 6th conserved cysteines, with secretin eliciting statistically significant cAMP responses above basal levels of activation for each of these constructs. Immunofluorescence microscopy confirmed similar levels of plasma membrane expression for each of the mutated receptors. Furthermore, cyanogen bromide cleaved a series of wild type and mutant secretin receptors, yielding patterns that agreed with our paired cysteine mutagenesis results. In conclusion, these data suggest the same pattern of disulfide bonding as that predicted previously by NMR and thus support a consistent pattern of amino-terminal disulfide bonds in class B G protein-coupled receptors. G protein-coupled receptors (GPCRs) 1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid.1The abbreviations used are: GPCR, G protein-coupled receptor; Bpa, benzoylphenylalanine; CNBr, cyanogen bromide; HA, hemagglutinin epitope; PBS, phosphate-buffered saline; SecR, rat secretin receptor; DMEM, Dulbecco's modified Eagle's medium; BHK, baby hamster kidney; MES, 4-morpholineethanesulfonic acid. are important pharmaceutical targets for rational drug design, and thus have justified a great deal of research aimed at determining the structural aspects of their biological functions. Class B GPCRs are distinguished from the larger group of class A rhodopsin-like receptors in several ways, the most significant of which is the inclusion of an extended amino-terminal domain that plays critical roles in ligand binding and receptor activation (1.Fredriksson R. Lagerström M.C. Lundin L.-G. Schiöth H.B. Mol. Pharmacol. 2003; 63: 1256-1272Crossref PubMed Scopus (2086) Google Scholar, 2.Kristiansen K. Pharmacol. Ther. 2004; 103: 21-80Crossref PubMed Scopus (469) Google Scholar). Comparisons of the primary amino acid sequences of class B receptors have shown that this extracellular amino-terminal domain possesses six conserved cysteine residues that have been</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3212721812</t>
+          <t>https://openalex.org/W2271808440</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4000/communiquer.162</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Bonicatto et al. (2018)</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Conservación de semillas comerciales ¿un impedimento o una estrategia adecuada para mejorar la resiliencia de los agroecosistemas?</t>
+          <t>Gentil et al. (2013)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Numerous studies have highlighted the role family farmers’ play in maintaining seed conservation.There are many reports on the permanence of this practice in communities of peasantswith a long permanence in the area. However, there is little information regarding the dynamicsof this practice in rural-urban fringe areas, where the Green Revolution agricultural model ispart of the local productive rationality. The situation of conserved seeds, emphasizing commercialones, was investigated in the rural-urban fringe area of La Plata region, Argentina. Datawas collected based on semi-structured interviews. Conserved seeds and conservation criteriaare recorded. Of 479 cultivated plants 53.9% were conserved. Among the total of conservedseeds, there are both traditional varieties as well as commercial varieties. At the presentcontext, commercial seed`s conservation allows the maintenance of biocultural diversity, aswell as comply with market demands.</t>
+          <t>Dans ce numéro spécial, nous cherchons à interroger les reconfigurations organisationnelles et communicationnelles qui travaillent actuellement le domaine de la santé. En ouvrant la réflexion sur les processus de réagencement du social, nous cherchons, plus particulièrement, à questionner, par la clé d’entrée des processus communicationnels, les formes de constitution et transformation de ce que l’on nomme « l’organisation de la santé ». In this special edition, we examine the recent restructuring of organizational and communication systems in the health care sector. By reflecting on the process of reorganization, we seek to question the constitution and transformation of “the organization of health,” principally through the entryway of communicational processes.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389787858</t>
+          <t>https://openalex.org/W2060337978</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.hrcr.2023.11.001</t>
+          <t>https://doi.org/10.1074/jbc.m106659200</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Winterfield (2023)</t>
+          <t>Khadilkar et al. (2001)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Good luck where preparation meets opportunity</t>
+          <t>Identification of Sites in the Second Exomembrane Loop and Ninth Transmembrane Helix of the Mammalian Na+/H+ Exchanger Important for Drug Recognition and Cation Translocation</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>“Luck is what happens when preparation meets opportunity.”– Seneca Much of the emergence of the electrophysiology (EP) program at the Medical University of South Carolina (MUSC) began with work done by others—Drs Michael Gold and Marcus Wharton formed the academic core 2 decades ago. Dr Gold developed the cardiology division as chief, and he led the EP academic mission with his stewardship of pacing and implantable cardioverter-defibrillator trials. My former MUSC partner, Dr Frank Cuoco, developed a robust atrial fibrillation program and understood the need for an academic ventricular tachycardia (VT) practice. With this talented group, the die had been cast for a program supportive of robust investigator-initiated studies and clinical trials. After speaking at a conference in 2015, I was fortunate to receive an invitation to look at MUSC to build the VT program and later joined, in August 2016. The preparation had been a decade in the making, with a winding course through fellowship at Brigham and Women’s Hospital with an early focus on ion channel genetics and arrhythmogenesis; but, with mentorship from Drs Usha Tedrow and Bill Stevenson, the path steered toward clinical EP. The Brigham had been—and remains—a think tank for VT management, so the obvious next career step with support from mentors led to the great VT center at Loyola in Chicago under the leadership of Dr Dave Wilber. By then, focus on VT management—both mechanistic and technical with interest in ablation biophysics—led to collaborative growth with the great Loyola EP group. The “3 amigos”—Dr Smit Vasaiwala, Dr Alex Green, and me—grew together, with challenging VT cases complemented by sage input from Dr Wilber. He advised methods for improving mapping efficiency, addressing failures, and avoiding complications. The learning post-fellowship never stopped, and collaboration among junior EPs created one of the most transformational experiences of my career. I am grateful for those 5 years with the Loyola group. Mistakes are great teachers. Somewhat serendipitously, after abandoning VT ablation in an ischemic cardiomyopathy patient owing to hemodynamic instability after repeated inductions, Dr Wilber offered this advice: “You can learn a lot in sinus rhythm.” The patient, thankfully, did okay, but this initially confusing statement opened another path: how can we democratize VT ablation? Substrate-guided approaches with high-density mapping emerged during the 2010s, yet generalizability remained challenging given variable signal interpretation by operators and diversity of electrode arrangements on the newest high-density catheters. So the opportunity at MUSC could not have been more fertile for development of a VT program. In an environment somewhat suspicious of the risks of VT ablation, we constructed a program with safety and service at the forefront. Patients survived cases and returned to their doctors. We counseled patients and referring physicians that repeat ablations would sometimes be necessary. We grew from 29 VT ablations to more than 100 in 1 year, and we have experienced double-digit growth annually since 2019. In parallel, MUSC developed the advanced heart failure program with the recruitment of talented physicians and subsequent explosion in transplant / ventricular assist device volumes. Partnership with the heart failure group enabled the program to take on sicker patients with plans for bail-out strategies developed in a collaboration between EP and heart failure physicians. With an emerging VT program, I soon took over the EP section just over a year after arrival at MUSC. The work continued, but the needs of the VT program no longer took sole priority. We lacked a comprehensive lead extraction program, and our atrial fibrillation program required additional help to manage the growth in ablations and left atrial appendage closure. We recruited the superbly talented Dr Anne Kroman, who rapidly built a collaborative program with surgical colleagues to support complex extractions. In parallel, we hired additional faculty, including Dr Josh Payne, among others, to extend the complex ablation programs. Junior and midcareer faculty alike share responsibility for core EP work, but each enjoys opportunities to differentiate in niche practices and to lead research initiatives. The luck at MUSC EP emerged from hard work and preparation, coupled with focus on team play at every opportunity. Mentorship never ended, and I continue to engage colleagues for advice at critical program moments, such as recruitment or scientific investment. We will see the mission through, and we welcome colleagues and trainees to visit our open lab environment. No conflicts of interest. This research did not receive any specific grant from funding agencies in the public, commercial, or not-for-profit sectors.</t>
+          <t>Mammalian Na+/H+exchanger (NHE) isoforms are differentially sensitive to inhibition by several distinct classes of pharmacological agents, including amiloride- and benzoyl guanidinium-based derivatives. The determinants of drug sensitivity, however, are only partially understood. Earlier studies of the drug-sensitive NHE1 isoform have shown that residues within the fourth membrane-spanning helix (M4) (Phe165, Phe166, Leu167, and Gly178) and a 66-amino acid segment encompassing M9 contribute significantly to drug recognition. In this report, we have identified two residues within M9, one highly conserved (Glu350) and the other non-conserved (Gly356), that are major determinants of drug sensitivity. In addition, residues in the second exomembrane loop between M3 and M4 (Gly152, Phe157, and Pro158) were also found to modestly influence drug sensitivity. A double substitution of crucial sites within M4 and M9 of NHE1 with the corresponding residues present in the drug-resistant NHE3 isoform (i.e. L167F/G356A) greatly reduced drug sensitivity in a cooperative manner to levels nearing that of wild type NHE3. The above mutations did not appreciably affect Nao+ affinity but did markedly decrease the catalytic turnover of the transporter. These data suggest that specific sites encompassing M4 and M9 are critical determinants of both drug recognition and cation translocation. Mammalian Na+/H+exchanger (NHE) isoforms are differentially sensitive to inhibition by several distinct classes of pharmacological agents, including amiloride- and benzoyl guanidinium-based derivatives. The determinants of drug sensitivity, however, are only partially understood. Earlier studies of the drug-sensitive NHE1 isoform have shown that residues within the fourth membrane-spanning helix (M4) (Phe165, Phe166, Leu167, and Gly178) and a 66-amino acid segment encompassing M9 contribute significantly to drug recognition. In this report, we have identified two residues within M9, one highly conserved (Glu350) and the other non-conserved (Gly356), that are major determinants of drug sensitivity. In addition, residues in the second exomembrane loop between M3 and M4 (Gly152, Phe157, and Pro158) were also found to modestly influence drug sensitivity. A double substitution of crucial sites within M4 and M9 of NHE1 with the corresponding residues present in the drug-resistant NHE3 isoform (i.e. L167F/G356A) greatly reduced drug sensitivity in a cooperative manner to levels nearing that of wild type NHE3. The above mutations did not appreciably affect Nao+ affinity but did markedly decrease the catalytic turnover of the transporter. These data suggest that specific sites encompassing M4 and M9 are critical determinants of both drug recognition and cation translocation. Na+/H+ exchanger 5- (N-ethyl-N-isopropyl) amiloride Na+/H+ exchangers (NHE)1 are present at the cell surface and various organellar compartments of mammalian cells and mediate the electroneutral exchange of Na+ for H+, a process driven by the relative concentration gradients of the respective cations. To date seven distinct isoforms (NHE1 to NHE7) have been isolated that share ∼20–70% amino acid identity (calculated Mr ranging from ∼74,000 to 93,000) and exhibit similar membrane topologies, with 12 predicted N-terminal membrane-spanning (M) α-helices and a large C-terminal cytoplasmic region (1Orlowski J. Grinstein S. J. Biol. Chem. 1997; 272: 22373-22376Abstract Full Text Full Text PDF PubMed Scopus (521) Google Scholar, 2Wakabayashi S. Shigekawa M. Pouysségur J. Physiol. Rev. 1997; 77: 51-74Crossref PubMed Scopus (563) Google Scholar, 3Yun C.H.C. Tse C.-M. Nath S.K. Levine S.A. Brant S.R. Donowitz M. Am. J. Physiol. 1995; 269: G1-G11Crossref PubMed Scopus (38) Google Scholar, 4Numata M. Petrecca K. Lake N. Orlowski J. J. Biol. Chem. 1998; 273: 6951-6959Abstract Full Text Full Text PDF PubMed Scopus (234) Google Scholar, 5Numata M. Orlowski J. J. Biol. Chem. 2001; 276: 17387-17394Abstract Full Text Full Text PDF PubMed Scopus (215) Google Scholar). They show considerable differences in their patterns of tissue expression, membrane localization, kinetic properties, sensitivity to pharmacological antagonists, and responsiveness to various signaling pathways. Consistent with their molecular diversity, the exchangers participate in a broad spectrum of physiological processes, including the regulation of intracellular pH (pHi), maintenance of cell volume, and transepithelial transport of electrolytes. In addition, activation of certain exchangers appear to facilitate cellular growth and proliferation in response to numerous growth factors and other mitogens and are associated with events leading to apoptosis (6Shrode L.D. Tapper H. Grinstein S. J. Bioenerg. Biomembr. 1997; 29: 393-399Crossref PubMed Scopus (179) Google Scholar, 7Li J. Eastman A. J. Biol. Chem. 1995; 270: 3203-3211Abstract Full Text Full Text PDF PubMed Scopus (223) Google Scholar, 8Zhu W.H. Loh T.T. Biochim. Biophys. Ac</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4286230957</t>
+          <t>https://openalex.org/W2014025731</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1049/smt2.12118</t>
+          <t>https://doi.org/10.1366/000370265789619935</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Liu et al. (2022)</t>
+          <t>Eardley &amp; Clarke (1965)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Vibration detection method for core loosening degree of high‐voltage direct current converter valve saturable reactor based on variational mode decomposition‐symmetrized dot pattern and image matching</t>
+          <t>Some Factors Affecting the Precision of Solution Analysis by the Rotrode Technique</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>IET Science, Measurement &amp; TechnologyVolume 16, Issue 8 p. 454-466 ORIGINAL RESEARCHOpen Access Vibration detection method for core loosening degree of high-voltage direct current converter valve saturable reactor based on variational mode decomposition-symmetrized dot pattern and image matching Yunpeng Liu, Yunpeng Liu State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, ChinaSearch for more papers by this authorTingyu Lai, Corresponding Author Tingyu Lai [email protected] State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, China Correspondence Tingyu Lai, North China Electric Power University (Baoding), No. 619, Yonghua Street, Baoding, Hebei 071003, China. Email: [email protected]Search for more papers by this authorJiashuo Liu, Jiashuo Liu State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, China Jining Power Supply Bureau, Jining, ChinaSearch for more papers by this authorXiaoguang Wei, Xiaoguang Wei State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this authorShaotong Pei, Shaotong Pei State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, ChinaSearch for more papers by this authorChenghao Wang, Chenghao Wang State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this authorXiaolong Zhang, Xiaolong Zhang State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this author Yunpeng Liu, Yunpeng Liu State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, ChinaSearch for more papers by this authorTingyu Lai, Corresponding Author Tingyu Lai [email protected] State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, China Correspondence Tingyu Lai, North China Electric Power University (Baoding), No. 619, Yonghua Street, Baoding, Hebei 071003, China. Email: [email protected]Search for more papers by this authorJiashuo Liu, Jiashuo Liu State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, China Jining Power Supply Bureau, Jining, ChinaSearch for more papers by this authorXiaoguang Wei, Xiaoguang Wei State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this authorShaotong Pei, Shaotong Pei State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, ChinaSearch for more papers by this authorChenghao Wang, Chenghao Wang State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this authorXiaolong Zhang, Xiaolong Zhang State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this author First published: 18 July 2022 https://doi.org/10.1049/smt2.12118AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Abstract Saturable reactor is the key equipment in conve</t>
+          <t>Some of the factors affecting the precision of analysis of aqueous solutions by the rotrodc technique are described. These include speed of revolution, depth of solution, electrode material, pre-spark time, and variations in integration time which is automatically controlled by the internal standard intensity. Suggestions are made to minimize these effects to give the best precision</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384567468</t>
+          <t>https://openalex.org/W4299285335</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14254/2071-8330.2023/16-2/7</t>
+          <t>https://doi.org/10.1016/j.polymer.2022.125363</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Vozárová et al. (2023)</t>
+          <t>Lu et al. (2022)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>The impact of European monetary integration on M&amp;amp;A volume in the context of the banking market consolidation</t>
+          <t>Supramolecular hierarchical polyurethane elastomers for thermal and mechanical property optimization</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Over the last two decades, the banking sector in Europe has undergone significant changes in terms of regulations and market structure, which resulted in a significant increase in M&amp;amp;A transactions. The rise of M&amp;amp;A activity was also a consequence of fundamental changes in the external environment, such as introduction of the euro, technological progress and changing customer demand. The aim of this contribution is to compare the impact of the integration of the countries in the European Monetary Union on the volume (value) and number of realized M&amp;amp;A. The Mann-Whitney U test was used to verify three individual hypotheses. The results of the analysis did not confirm differences in the volume and number of M&amp;amp;As between EMU and non-EMU countries (with the exception of 2 years).</t>
+          <t>Supramolecular chemical designs that integrate complementary hydrogen bond donor and acceptor complexes in hierarchical polyurethane elastomers are reported. N 2 , N 6 -bis(2-hydroxyethyl)pyridine-2,6-dicarboxamide (PDA) and 5,5-bis(3-hydroxypropyl)barbituric acid (BBA) react with 4,4′-methylenediphenyl diisocyanate (MDI) to produce hard segments capable of multiple intermolecular hydrogen bonds in MDI-PDA/BBA-poly(tetramethylene oxide) (PTMO) polyurethanes. The addition of PDA facilitates the formation of a supramolecular complex, and BBA affords greater intersegmental mixing. As a result, these polyurethanes exhibit higher glass transition temperatures ( T g ) and greater strain hardening/strengthening under tensile deformation than a microphase-separated MDI-butanediol (BDO)-PTMO analog. Additionally, increased PDA and BBA contents results in up to a 60 °C increase of T g determined at 1 Hz via DMA relative to those determined by calorimetric measurements via DSC, which is considerably higher than the 15 °C T g increase observed in the MDI-BDO-PTMO analog. These results highlight a significant interplay between intersegmental mixing and supramolecular hydrogen bond interactions for the design of robust hierarchical elastomers. • Supramolecular designs of robust PDA/BBA polyurethanes with multi-functionality. • Synergy between segmental mixing and supramolecular hydrogen bond interactions. • High cohesive energy densities result in high T g s , high strength and toughness.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3215838996</t>
+          <t>https://openalex.org/W2555589681</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/hm9.0000000000000013</t>
+          <t>https://doi.org/10.1136/annrheumdis-2016-eular.2862</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Zhang (2021)</t>
+          <t>Stöcker et al. (2016)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Acupuncture and Herbal Medicine launched: building a bridge between traditional and modern medicine</t>
+          <t>AB1112-HPR Systemic Sclerosis Treatment: An Occupational Therapists' View</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>In 2021, Acupuncture and Herbal Medicine (AHM) in English is officially published by Tianjin University of Traditional Chinese Medicine and China Association of Chinese Medicine. AHM is a peer-reviewed, diamond open-access international journal dedicated to publishing high quality research in the field of acupuncture and herbal medicine. The types of publication considered are editorial, review article, original article, guidelines and standards, commentary, short communications, case report, methodology, and letter to the editor. Featured by evidence-based medicine researches, AHM publishes innovative studies on acupuncture and herbal medicine, promotes academic exchanges, and drives the transformation of research achievements to serve the international development of traditional Chinese medicine (TCM) and establish the frontrunner journal for international communication of traditional medicine. Since the late 2000s, changes in the disease spectrum have led to significant transformation in medical models and the goals of medicine worldwide. World Health Organization has advocated for universal access to essential medical services for global health benefits and starts the great journey of building a healthy world. Mainly based on acupuncture and herbal medicine, TCM has a long history and has played an important role in ensuring the prosperity of the nation and safeguarding the health of the Chinese people. Although it is ancient, its concepts are not outdated, such as the concepts of harmony between human beings and the nature, the dynamic balance between yin and yang, the individualized treatment through syndrome differentiation, and the active preventive medical thought of health maintenance. All of these theories converge with the frontier directions of modern life science, and exhibit the value of TCM in modern society. The extensive practice has proven that solutions to life sciences and medical problems are entrenched in TCM, emphasizing the worth of its vigorous inheritance and development. The modernization of TCM has been more than 20 years and has made great progress. A meaningful experience is to maintain the inheritance and promote the innovation, through following the theoretical basis of TCM, introducing and learning from advanced scientific and technological methods which is making the past serve the present. “Stones from other mountains can serve to polish our jade.” The synergistic effect can be realized through complementary advantages. Since 2020, a sudden COVID-19 epidemic has wreaked havoc around the world, with China bearing the brunt. Chinese people have united in struggling against COVID-19 with the fearless heroism, and forged the great anti-epidemic spirit of “the supremacy of life, the unity of the whole country, the sacrifice of life and death, respect for science, and the sharing of destiny.” In less than three months, we have won a phased victory in the fight against the epidemic. TCM has participated in the prevention and control of COVID-19 epidemic and played a critical role in all of the stages[1]. Strict isolation and widespread use of TCM effectively blocked the spread of COVID-19 epidemic, reduced the development from mild to severe, increased the cure rate and reduced the mortality rate. In response to the different outcomes in clinical evaluation studies, the world's first Core Outcome Set (COS) was developed by Tianjin University of Traditional Chinese Medicine for clinical trials on COVID-19 (COS-COVID), which determined the “rate of mild to severe” as a critical clinical evaluation outcome[2]. This outcome was recognized and widely used in evaluating the results of clinical trials for TCM, clinical drugs and vaccines. In addition, China has also actively shared its anti-epidemic experience of integrated traditional Chinese and Western medicine with the world, which has been widely concerned and positively commented by the international community. The combination of the TCM and Western medicine is not only one of the characteristics of China's COVID-19 response[3], but also a vivid practice of inheriting the essence of TCM, maintaining the integrity and promoting the innovation. The pandemic has not only changed the world, but also change the world's attitude towards TCM. Mainly based on acupuncture and herbal medicine, TCM has been popularized and applied in more than 100 countries around the world and legalized in health insurance by dozens of countries and regions. A number of high-level papers have been published and high-level education and personnel training have been sustainably performing. AHM will hold to evidence-based medicine research and adhere to the directions of “inheriting the essence, maintaining the integrity, and promoting the innovation”, report innovative theories and excellent academic achievements in the field of acupuncture and herbal medicine, and move forward to the international leading journal. We will strive to build a bridge between tr</t>
+          <t>&lt;h3&gt;Background&lt;/h3&gt; SSc has a great impact on daily functioning [1]. People with SSc make regular use of allied health care, mainly physiotherapy and occupational therapy (OT), for guidance in coping with the many consequences of the disease. Little is known about the current practice of occupational therapy for people with SSc [2]. &lt;h3&gt;Objectives&lt;/h3&gt; The purpose of this qualitative pilot study was to map the experience of Dutch occupational therapists about their daily practice and vision on optimal SSc care through OTs. &lt;h3&gt;Methods&lt;/h3&gt; Five female OTs, median age 38.6 years (range 25–46 years) from different work settings and regions with an average work experience of 8.6 years in SSc care, were recruited through the Dutch organisation of Health Professionals in rheumatology. A semi-structured interview was conducted with each participant and transcribed verbatim. Data were analysed by the three-step method of Boeije [3]. &lt;h3&gt;Results&lt;/h3&gt; OTs describe that in CURRENT PRACTICE patients report problems on a functional, activity and participation level, while the treatment is mostly aiming at functional level (including aids and compensations). They experience that their work is experience-based due to the lack of available evidence. The nature of interventions is significantly dependent on the phase of disease in which patients are. They experience a low number of referrals in a late state of the disease and suggest that this might be due to the lack of knowledge about occupational therapy. In an OPTIMAL SITUATION OTs are involved earlier in the disease process and focus on training and patient needs. They would want to focus on prevention and education including the social environment of the patient. In order to offer optimal treatment they would want to work guideline-based and establish sustained treatment relationships. Earlier referral in the disease process would enable meaningful treatment. They express their need for a clear OT profile to be known by rheumatologists, to facilitate timely and appropriate referrals to OTs. &lt;h3&gt;Conclusions&lt;/h3&gt; We found a distinct difference between current and ideal OT practice. The newly gained knowledge of this study can be used by OTs for a transition from treatment addressing compensation to a treatment targeting activity and participation. More attention should be paid to timely referrals with a transparent indication. &lt;h3&gt;References&lt;/h3&gt; Stamm, T., et al. (2011). Concepts of functioning and health important to people with systemic sclerosis: a qualitative study in four European countries. Ann Rheum Dis, 70(6), 1074–1079. Willems, L., et al. (2013). Health care use and patients9 perceptions on quality of care in systemic sclerosis. Clin Exp Rheum, 64. Boeije, H. R. (2014). Analyseren in kwalitatief onderzoek: denken en doen. Den Haag: Boom Lemma. &lt;h3&gt;Disclosure of Interest&lt;/h3&gt; None declared</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2129603544</t>
+          <t>https://openalex.org/W2765205180</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4324/9780203962299-17</t>
+          <t>https://doi.org/10.19080/artoaj.2017.08.555726</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Rask &amp; Rask (2007)</t>
+          <t>Bb (2017)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Transition economies and globalization: Food system asymmetries on the path to free markets</t>
+          <t>Chemical Weathering of Basement Basalt Causing Massive Landslide in Malin Village of Pune District in Maharastra, India: Lesson from Ethiopia</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>The emotional and often violent demonstrations accompanying global trade
-talks underscore the enormity of the transformations occasioned by increasing
-integration of global markets, especially for developing economies. While these
-countries try to mitigate the redistribution effects of trade-related changes
-(thereby often limiting trade itself), transition economies are faced with a contrasting fundamental challenge: recreating their economies to conform to global
-market structures as a precondition for enhanced trade.</t>
+          <t>Massive landslide in Malin village of Pune (India) on 14 th July 2014 was probably due to chemical weathering (reduction) of underground (basement) basalt at its bottom forming non-sticky mud under continued wetting environment with stored water through vertical cracks in rocks.Basalt at basement undergoes chemical reduction and probably microbial transformation with lapses of time under wet environment.This disastrous incidence of Malin, which is situated on basalt landscape, is a strong message to other parts of the world too for suitable preventive measures.Mumbai in India may fall in such risk zone.Ethiopia in this respect also seems to be sensitive with other African countries.Detailed investigation is desired to validate the truth in order to develop a strategic planning.This exploratory research is effective in laying the ground work that will lead to form the basis of systematic conclusive research.Even the farmer's suicidal case could be examined, if it relates to early drying of their soils possessing vertic properties.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2482492289</t>
+          <t>https://openalex.org/W1963528125</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/acprof:osobl/9780199259007.003.0002</t>
+          <t>https://doi.org/10.1063/1.2393158</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Ohr (2013)</t>
+          <t>Porneala &amp; Willis (2006)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Changing Patterns in Political Communication</t>
+          <t>Observation of nanosecond laser-induced phase explosion in aluminum</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>This chapter examines the empirical basis of hypotheses on personalization and presidentialization with respect to election campaigns and the media coverage of politics. It begins by presenting some of the main arguments behind the notion that political communication has become more personalized in advanced democracies in general and more presidentialized in parliamentary, party-dominated democracies in particular. It then considers whether and why a more ‘candidate- or leader-centred’ presentation of politics should have an impact on the political judgements of voters. Next, it presents empirical evidence which sheds light on the degree of personalized and presidentialized political communication in advanced democracies. The focus will be on the structural changes in the media systems of Western democracies that have occurred during the last decades, such as the spread of television, and which are likely to have fundamentally altered the rules of the game for the mass media coverage of politics. It also assesses to what extent the main communication media, that is, television and the press, have changed their coverage of politics in terms of personalization and/or presidentialization.</t>
+          <t>The transition from normal vaporization to phase explosion during laser ablation of aluminum was investigated using a nanosecond Nd:YAG laser. The threshold nature of phase explosion was observed by a discontinuous jump in the ablation depth at approximately 5.2J∕cm2. Ablation was imaged using a shadowgraph technique that was capable of probing ablation with nanosecond exposure time and nanosecond time delay resolution with respect to laser heating. Images above the threshold captured a mixture of vapor and droplets generated by phase explosion, which began near the end of the laser pulse without a significant time lag.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317530433</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/fld.5177</t>
+          <t>https://openalex.org/W3109445883</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Guesmi et al. (2023)</t>
+          <t>Williams et al. (2019)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Assessment of high‐order IMEX methods for incompressible flow</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Summary This paper investigates the competitiveness of semi‐implicit Runge‐Kutta (RK) and spectral deferred correction (SDC) time‐integration methods up to order six for incompressible Navier‐Stokes problems in conjunction with a high‐order discontinuous Galerkin method for space discretization. It is proposed to harness the implicit and explicit RK parts as a partitioned scheme, which provides a natural basis for the underlying projection scheme and yields a straight‐forward approach for accommodating nonlinear viscosity. Numerical experiments on laminar flow, variable viscosity and transition to turbulence are carried out to assess accuracy, convergence and computational efficiency. Although the methods of order 3 or higher are susceptible to order reduction due to time‐dependent boundary conditions, two third‐order RK methods are identified that perform well in all test cases and clearly surpass all second‐order schemes including the popular extrapolated backward difference method. The considered SDC methods are more accurate than the RK methods, but become competitive only for relative errors smaller than ca .</t>
+          <t>Health Care Transition and Longitudinal Care for Adolescents and Young Adults with Hydrocephalus</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3194443066</t>
+          <t>https://openalex.org/W2319059571</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.adro.2021.100766</t>
+          <t>https://doi.org/10.1016/j.cose.2016.03.006</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>McClelland et al. (2021)</t>
+          <t>Liu et al. (2016)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Analysis of Virtual Versus In-Person Prospective Peer Review Workflow in a Multisite Academic Radiation Oncology Department</t>
+          <t>Ts-RBAC: A RBAC model with transformation</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PurposeIn radiation oncology, peer review is a process where subjective treatment planning decisions are assessed by those independent of the prescribing physician. Before March 2020, all peer review sessions occurred in person; however due to the COVID-19 pandemic, the peer-review workflow was transitioned from in-person to virtual. We sought to assess any differences between virtual versus in-person prospective peer review.Methods and MaterialsPatients scheduled to receive nonemergent nonprocedural radiation therapy (RT) were presented daily at prospective peer-review before the start of RT administration. Planning software was used, with critical evaluation of several variables including treatment intent, contour definition, treatment target coverage, and risk to critical structures. A deviation was defined as any suggested plan revision.ResultsIn the study, 274 treatment plans evaluated in-person in 2017 to 2018 were compared with 195 plans evaluated virtually in 2021. There were significant differences in palliative intent (36% vs 22%; P = .002), but not in total time between simulation and the start of treatment (9.2 vs 10.0 days; P = .10). Overall deviations (8.0% in-person vs 2.6% virtual; P = .015) were significantly reduced in virtual peer review.ConclusionsProspective daily peer review of radiation oncology treatment plans can be performed virtually with similar timeliness of patient care compared with in-person peer review. A decrease in deviation rate in the virtual peer review setting will need to be further investigated to determine whether virtual workflow can be considered a standard of care.</t>
+          <t>The traditional role-based access control (RBAC) model is typically static, i.e., permissions are granted based on a policy that seldom changes. A more flexible support for access control is needed in certain scenarios (such as disaster management). The break the glass RBAC (BTG-RBAC) model is an RBAC model with the break-glass technique, which enables the violation of a predetermined policy in exceptional situations. However, the BTG-RBAC model is unable to provide adequate flexibility in the system. This paper proposes a new independent mechanism, termed transformation, which can change the user assignment to achieve dynamic changes in user permissions. The system should alert users when their permission is changed. Thus, this study integrates transformation with the BTG-RBAC model to create a new model called the Ts-RBAC model. The Ts-RBAC model maintains the safety ensured by the BTG-RBAC model and improves the flexibility of the system.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3003248148</t>
+          <t>https://openalex.org/W2299548933</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5032/jae.2019.03246</t>
+          <t>https://doi.org/10.1049/iet-pel.2014.0760</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Haddad et al. (2019)</t>
+          <t>Lin &amp; Shengzhi (2015)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>What Moves You? How SBAE Teachers Navigate Program Migration</t>
+          <t>Implementation of a new medium voltage asymmetric pulse‐width modulation converter with balanced input capacitor voltages</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Little data exists to examine the stigmatized phenomenon of program mobility within agricultural education. Our research starts the conversation through interviews with eight School-Based Agricultural Education (SBAE) teachers across the United States, using qualitative phenomenology, to provide a unique perspective of retention through migration. We define teacher migration as a program move while choosing to remain in SBAE. Utilizing the theoretical lens of expansive learning through activity systems (Engeström, 2009), we present teacher migration as a means to learn and grow in the craft of teaching within SBAE, particularly among teachers with more than eight years of experience. Although additional efforts are needed to quantify migration within SBAE, and to examine the common narrative, our research reveals program migration to be a relational issue. In our study, participants expressed community, opportunity to learn, and time as functions of support through a career transition. They identified resources and expectations as challenges faced in the migration process. Our research provides a starting place for conversations around teacher migration through a focus on the assets of experience, viewing migration as a means of retention rather than as a function toward attrition.</t>
+          <t>A 1.44 kW DC/DC converter with zero voltage switching (ZVS) for medium voltage applications is proposed in this study. Two half-bridge circuits with split capacitors are connected in series at high voltage side to limit voltage stresses of power switches at Vin/2. Three DC/DC circuits are adopted to share load current and reduce the current stress of rectifier diodes, transformers and output filter inductors. Two balance capacitors are used in the proposed circuit to automatically balance input split capacitor voltages in every switching cycle. The current doubler rectifier is adopted at low voltage side to partially cancel ripple current so that the root-mean-square current at output capacitor is reduced. Asymmetric pulse-width modulation is used to adjust the duty cycle of power switches and regulate output voltage. The output capacitance of power switches and the external resonant inductance are resonant at the transition interval and power metal-oxide-semiconductor field-effect transistors can be turned on under ZVS. The proposed converter can be applied for high input voltage applications such as a three-phase 380 V/480 V utility system. Experimental results from a 750–800 V input and 24 V/60 A output are provided to demonstrate the performance of proposed converter.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4296111827</t>
+          <t>https://openalex.org/W2021656551</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://doi.org/10.51952/9781847422347.bm001</t>
+          <t>https://doi.org/10.1016/j.amp.2012.10.013</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Sinclair (2007)</t>
+          <t>Marchais &amp; Cardon (2013)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Des attracteurs et régulateurs en pathologie mentale. Approche théorique, informatique, et clinique</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>This book’s message is that palliative care does not deliver on its aims to value people who are dying and make death and dying a natural part of life. The book draws from wide social-science perspectives and critically and specifically applies these to palliative care and its dominant medical model. The author argues for the de-institutionalisation of palliative care and the development of an alternative framework to the approaches found in hospices, palliative care units, and community-based palliative care services. He offers a new conceptualisation of death and loss that refines and expands modern understandings in a way which also resonates with traditional religious views concerning death. Wide-ranging recommendations advise fundamental change in the concept of palliative care, the way support and services are organised, and the day-to-day practice of palliative care.</t>
+          <t>Les troubles mentaux peuvent être conçus à partir d’une représentation énergétique d’ensemble du système psychique. À ce titre, une perspective théorique incite à évoquer un ensemble de réseaux de flux psychiques, leurs variations énergétiques sous l’effet d’attracteurs affaiblissant les régulations du système, ainsi que les flux neuronaux et interneuronaux qui participent à ces variations. Les concepts d’attracteurs et de régulateurs sont précisés en conscience artificielle par une informatique constructiviste. Leur action est évoquée en clinique pour les principaux états névrotiques et psychotiques. L’action unitaire et polymorphe de ces attracteurs et régulateurs est ensuite envisagée suivant leurs liens avec les divers niveaux d’organisation, leur retentissement sur l’intégration de ces formations, et leurs effets sur les composants des flux psychiques. Une conclusion souligne enfin le rapprochement entre la clinique et l’informatique à ce sujet, ainsi que la possibilité de modélisations qui en résulte. We can understand the mental disorders as bifurcations in the representations generated by the psychic system, using an informational and morphological notion of energy. In this way, the clinician should use an interdisciplinary perspective that encourages studying their internal dynamics in a fine reconciliation with the informatics concepts lighting on the automatisms of the thought. To this effect, a theoretical perspective leads to evoke a set of psychic flow networks, the changes of energy into these flow, and the role of neuronal and interneuron flows that are theirs retaining. These networks will form dynamic elements evolving and multiplying themselves and forming various integrated levels. The whole form a very complex and dynamic organization. These networks are subject to tensions that will sound on the regulation of the system and contribute to create bifurcations in management of general energy leading to mental disorders. Constructivist informatics defines the attractors as controllers of the networks of relations that can become autonomous and alter the morphology and behavior of the structure of the basic elements of the system, as well as their aggregates. They contribute to form the morphological and semantic characters into the system. They are related to regulators, which are themselves coactive networks that manage and control the basic elements and structures of the system allowing the real behavior. These attractors and regulators intervene at each level of the organization and contribute to form a systemic loop that controls the energy flow in multi-scale actions on the basic elements. Their effects combine themselves, leading to the creation of zones of bifurcations of energy that break the equilibrium of the system. Without a priori pretend to put an identity between the phenomena studied in clinic and the attractors and regulators specified into informatics, one could see a very possible reconciliation. Indeed, on can found the action of attractors and regulators in various states of disease. Their actions are mentioned in the superficial dysfunctions of the system that constitute the neurosis: anguish, anxiety, somatic conversions, phobias, obsessions… It is also proposed in the deeper problems that reach the general loop regulating the psychic system and the functional structures, changing their modes of development and their integrations, forming the psychosis: Processes of excitement, of unstructured depressions, delusions, hallucinations. A confrontation of these different concepts allows to well understand the both unitary and polymorphic action of the attractors and regulators in the formation of mental disorders. The clinic shows that the limits of the pathological functional structures are not frozen and that their areas of neighborhoods are pertinent in specific topologies, somewhat fuzzy, in report with the various underlying neurological formations. Their integration since interneuron spaces with modulators neurons until their effects onto the components of psychopathological formations, finally allow to better understand the general dynamics of the disorders, their associations, their movements and their possible transformations. To draw a conclusion, we set the clinic and informatics must join themselves in the field of the automatism in the thought where we consider the concepts of attractors and regulators. These two kinds of controllers concern both the levels of organization and the general regulation of their integration, and they are responsible of all the bifurcations that lead to the mental disorders. For that, it is possible and important to increase and develop the model allowing clarifying the inner laws of the normal and pathological psychic functioning.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231284013</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/9780470755594.refs</t>
+          <t>https://openalex.org/W2362925184</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Barss (2003)</t>
+          <t>Guo-pin (2014)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Research of Cultural Industry Relevance——Based on Big-Data of Alibaba-Cloud-data Platform</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Free Access References Book Editor(s):Andrew Barss, Search for more papers by this author First published: 01 January 2003 https://doi.org/10.1002/9780470755594.refs AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinked InRedditWechat References Aoun, Joseph, and Yen-hui Audrey Li (1989) Scope and constituency. Linguistic Inquiry, 20, 141– 72. Web of Science®Google Scholar Aoun, J., and D. Sportiche (1983) On the formal theory of government. Linguistic Review, 2, 221– 36. Google Scholar Armbuster, T. (1981) How to influence responses to “Is Kathy easy to see?” Journal of Psycholinguistic Research, 10, 27– 39. CrossrefWeb of Science®Google Scholar Bach, E. (1986) The algebra of events. Linguistics and Philosophy, 9, 5– 16. Web of Science®Google Scholar Bach, E., and B. H. Partee (1980) Anaphora and semantic structure. In Jody Kreiman and Almerindo E. Ojeda (eds), Papers from the Parasession on Pronouns and Anaphora, Chicago Linguistics Society. Chicago: University of Chicago Press. Google Scholar Badecker, W., and K. Straub (1992) Resolving pronoun antecedent relations. Poster presentation at the Fifth Annual CUNY Conference on Human Sentence Processing. Google Scholar Badecker, W., and K. Straub (1994) Evidence that binding principles participate in a constraint satisfaction process. Poster presentation at the Seventh Annual CUNY Conference on Human Sentence Processing. Google Scholar Badecker, W., and K. Straub (1995) The composition of the initial candidate set in the selection of referential antecedents. Poster presentation at the Eighth Annual CUNY Conference on Human Sentence Processing. Google Scholar Badecker, W., and K. Straub (1997) The processing role of structural constraints on the interpretation of pronouns and anaphors. Ms, Johns Hopkins University. Web of Science®Google Scholar Barss, A. (1984) Chain binding. Ms, MIT. Google Scholar Barss, A. (1986) Chains and anaphoric dependence: on reconstruction and its implications. Doctoral dissertation, MIT. Google Scholar Barss, A. (1995) Anaphora and the timing of dependency formation. Ms, University of Arizona. Google Scholar Barss, A. (2000) Minimalism and asymmetric WH-interpretation. In R. Martin, D. Michaels, and J. Uriagereka (eds), Step by Step. Cambridge, MA: MIT Press. Web of Science®Google Scholar Barss, A. (forthcoming) Derivations and dependencies. Ms, University of Arizona. Google Scholar Barss, A., and D. Basilico (1994) The scope of events. Ms, University of Arizona. Web of Science®Google Scholar Belletti, A. (1990) Generalized Verb Movement. Turin: Rosenberg and Sellier. Google Scholar Belletti, A., and L. Rizzi (1988) Psych verbs and theta theory. Natural Language and Linguistic Theory, 6, 291– 352. CrossrefWeb of Science®Google Scholar Berwick, R. C. (1985) The Acquisition of Syntactic Knowledge. Cambridge, MA: MIT Press. CrossrefGoogle Scholar Bittner, M. (1992) Movement and scope. Ms, Rutgers University. Google Scholar Bloom, P., A. Barss, J. Nicol, and L. Conway (1994) Children's knowledge of binding and coreference: evidence from spontaneous speech. Language, 70, 53– 71. CrossrefWeb of Science®Google Scholar Bolinger, D. L. (1987) “Each other” and its friends. In Another Indiana University Linguistics Club Twentieth Anniversary Volume. Bloomington: Indiana University Linguistics Club. Google Scholar Borer, H. (1984) Parametric Syntax: Case Studies in Semitic and Romance Languages. Dordrecht: Foris. CrossrefGoogle Scholar Boskovic, Z., and D. Takahashi (1998) Scrambling and last resort. Linguistic Inquiry, 29, 347– 66. CrossrefWeb of Science®Google Scholar Brody, M. (1979) Infinitivals, relative clauses, and deletion. Ms, University of London. Google Scholar Broihier, K., and K. Wexler (1995) Children's acquisition of control in temporal adjuncts. In C. T. Schütze, J. B. Ganger, and K. Broihier (eds), Papers on Language Processing and Acquisition. MIT Working Papers in Linguistics 26. Google Scholar Byrne, B. (1981) Deficient syntactic control in poor readers: is a weak phonetic memory coder responsible? Applied Psycholinguistics, 2, 201– 12. CrossrefPubMedWeb of Science®Google Scholar Cairns, H. S., D. McDaniel, and J. R. Hsu forthcoming) On the nature of the pronoun coreference requirement. Google Scholar Cairns, H. S., D. McDaniel, J. R. Hsu, and M. Rapp (1994) A longitudinal study of principles of control and pronominal reference in child English. Language, 70, 260– 88. CrossrefWeb of Science®Google Scholar Cairns, H. S., D. McDaniel, J. R. Hsu, S. Parsons, and D. Konstantyn (1995) Gram</t>
+          <t>Industry relevance is the mainstay for the research of the industrial integration policy,Cultural industry has been run throughout in the economic and social fields present a multidirectional interactive integration trend.Cultural industry relevance not only has the intrinsic relation between supply chain management,vertical integration strategy and strategic alliances in cultural industry companies,but also,has the intrinsic relation between upgrading of an industrial structure,industrial agglomeration and competitive advantage in regional economic development.This paper use the big-data of the manufacturers of cultural products on the Alibaba-Cloud-data platform(The biggest B2B platform of New Economic in China),establishes the culture industry complex network(ICN) in terms of the most reliable maximum flow arithmetic(MRMF) on uncertain graph,which shows the industry relevance of cultural industry by visualizing various data.The request of enterprise' s development strategy is to design the optimum route in cultural industry companies' industrial chain,and the policy of integration is to configure the management of industrial chain,all of these problems can be viewed as the MRMF in graph theory.Furthermore,measure the industry forward and backward relevance index between culture industries and other industries.The measurement of industry forward and backward relevance index of ICN is a complicated project related to many details,especially having excessive uncertainty and involving extensive domains.As to the identity of cultural industry,the industry relevance effect is widely different.The industry relevance effect could be decomposed into the positive effect lead to impetus and negative effect lead to crowding-out.These sectors with positive effect are listed as follows;business services;processing;electrician electrical;decoration,building materials;textiles,leather;beauty makeup cosmetic;fine chemicals;rubber and general merchandise;and sectors of agriculture;food and beverage;underwear;hardware,tools;transportation;chemicals;environmental protection;appliances;machinery and equipment industry;energy;clothing accessories,jewelry;shoes and clothing could be negative effect when integrate with cultural industry,according to the study of industry relevance.As to find the inner structure and mutual affections between culture industry and out industries,empirical research are used to calculate the contribution to the whole national economy by change 1% of investment of culture industry;the total influence over 2115 hundred million Yuan,25.7% of cultural industrial added value,which equal to 0.79% of non- cultural industrial added value.It shows that pre-unit input of cultural industry and drive 8.13 unit output of national economy,at 1% transformation of cultural industry.Optimize the industry relevance is very important to enterprise management and macroeconomic regulation,and the requirement of economy works well.In consideration of positive effect of industry relevance,cultural industry preferred to integrate with frequently occurring industries in the most reliable maximum flow,like tertiary industry.The model of ICN has a certain probability properties.This paper,has improved the MRMF by recommending the scaling factor of trade share,which endow the different economical connotations in ICN.With the development of Big-Data platform and algorithm optimization of Data Mining,digital characteristics of treatments in real world can make sense to this probability,and this is also the direction of future research to deepen.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2592333264</t>
+          <t>https://openalex.org/W2930659837</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781315226255-12</t>
+          <t>https://doi.org/10.1016/j.molliq.2019.03.167</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Bodino (2017)</t>
+          <t>Sharif et al. (2019)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>South Africa’s new challenges</t>
+          <t>Difference Frequency Generation-based ultralow threshold Optical Bistability in graphene at visible frequencies, an experimental realization</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>The purpose of this paper is to define whether and how it is possible to create inclusive connection spaces through planning, by analysing some of the most segregated cities in the world. The starting point is an overview of the current urban situation in South Africa, twenty years after the first democratic elections. Scholars argue that, due to a history of colonialism and apartheid, cities there are increasingly segregated and fragmented. At the same time the political agenda is struggling to address the process of transformation in order to mitigate spatial inequalities and promote urban integration, while on the other hand taking global interests into account. Through the examination of three examples this work attempts to identify some progress in the creation of inclusive spaces, while looking at the complexities involved in operating in a South African context.</t>
+          <t>We experimentally show that Difference Frequency Generation (DFG) can efficiently occur in a graphene ink for a visible pump-probe radiation in consequence of the second order nonlinear optical response of graphene. DFG induces the local field enhancement over the graphene sheets and subsequently motivates Surface Plasmons (SPs). We then show that SPs can appear as internal feedback entities to realize Optical Bistability (OB) if a large nonlinear response is guaranteed. However, the figure of merit is the experimental demonstration of ultralow rise/fall threshold OB process, not only by using no external feedback procedure but also caused by a single visible guide beam (in contrast to the double pump-probe radiation). The reason is inferred as the presence of strong Raman scattering which in turn triggers a probe radiation interacting with the guide beam as the pump radiation. We repeat the experiment for different wavelengths/nonlinear medium lengths. We deduce that the smaller lengths as well as the larger wavelengths demonstrate better OB features. We previously bring a simple theory, yet mathematically rigorous to interpret the effects. Then, conforming to the Ishikawa's theory of the graphene nonlinear optical response as the interplay of both interband and intraband transitions, we indicate the agreement between the experimental observations and simulation results. Our experimental results can delineate a plain route for Raman scattering and the other elastic scattering mechanisms within the complex medium of graphene ink, breeding thus the connected theory development. On the other hand, since the low threshold OB can be used to sense SPs' formation elaborately, our proposed approach to control SPs via a single visible beam can be extended to the potential applications like the optical switching, plasmonic wave generation, sensing, etc. with the purpose of energy saving.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3022347301</t>
+          <t>https://openalex.org/W4233671968</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/taes.2020.2991704</t>
+          <t>https://doi.org/10.5465/19416520.2012.678697</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Wu &amp; Cheng (2020)</t>
+          <t>Day et al. (2012)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Warm-Start Multihomotopic Optimization for Low-Thrust Many-Revolution Trajectories</t>
+          <t>The Sporting Life: Exploring Organizations through the Lens of Sport</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Traditionally, fuel-optimal problems for low-thrust spacecraft transfers are connected with energy-optimal problems to increase the convergence possibility of indirect methods. However, for low-thrust many-revolution missions, it is still hard to resolve the energy-optimal problems in a fast and reliable manner due to the strong nonlinearity. To address this issue, a warm-start multihomotopic optimization approach is proposed in this article, wherein the Sundman transformation and multihomotopic techniques are used to connect the energy-optimal problems to linear ones with analytical solutions. This article focuses on the following three contributions. First, the energy-optimal control problems are transformed into true longitude-depended energy-optimal problems based on the homotopy to dynamical model and Sundman transformation, and the equivalence relations of the solutions before and after transformation are obtained analytically. Second, the problems are further connected with time-free energy-optimal problems based on a homotopy to the time constraint. Third, the time-free problems are linearized near a nominal trajectory, and the corresponding analytical solutions are obtained. Starting with the analytical solutions, the algorithm can gradually iterate back to the solutions of the original energy- and fuel-optimal problems. Since the whole transformation process is lossless (optimality is preserved under the transformation process), the developed warm-start multihomotopic algorithm enjoys the advantages on reliable convergence and high computational efficiency. Numerical simulations of Earth-orbit transfer missions from GTO to GEO are conducted by comparing with traditional methods, and the results are given to substantiate the effectiveness of the proposed warm-start multihomotopic method.</t>
+          <t>We selectively review the literature from the fields of organizational behavior and sport science with the overarching purpose of identifying and summarizing key themes and contributions. The literature is used to provide insights into the fundamental issues of competition (getting ahead) and cooperation (getting along) in organizations. Studies from the organization sciences that have incorporated individual and team data from the various fields of sport are reviewed and organized by topic into succession effects, motivation and performance, and studies of individual and team performance changes over time. In addition, selected studies from the sport science literature are reviewed from the topic areas of the “hot-hand” effect, choking under pressure, passion for life activities, and difficult career transitions. The evidence presents a clear argument that greater integration across the fields of organization and sport science is needed. Areas of future research consideration with regard to embodied cognition and emotions as well as networked approaches to team processes are proposed.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1981501111</t>
+          <t>https://openalex.org/W2132333655</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2118/50781-ms</t>
+          <t>https://doi.org/10.1093/mutage/13.5.507</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Hayatdavoudi (1999)</t>
+          <t>Ferrezuelo et al. (1998)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Effect of Water-Soluble Gases on Production Decline, Production Stimulation, and Production Management</t>
+          <t>Role of DNA repair by (A)BC excinuclease and Ogt alkyltransferase in the final distribution of LacI&lt;sup&gt;−d&lt;/sup&gt; mutations induced by &lt;i&gt;N&lt;/i&gt;-butyl-&lt;i&gt;N&lt;/i&gt;-nitrosourea in &lt;i&gt;Escherichia coli&lt;/i&gt;</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Abstract With the help of industry and others, the author of this paper has compiled 16 years of field production and several pressure buildup data from two wells. These wells have been drilled in offshore Louisiana. The production and well test data cover both pre and post acidizing periods. The first objective of this work was to investigate whether the monthly production data revealed any hidden precursor (signature) to the impending Formation Damage and drop in oil production. If successfully achieved, the precursor would obviously assist us in two ways. One such way is that it would help us understand the reasons for a premature drop in Oil Production or Formation Damage. The other is that it would give us adequate time to take the necessary, preventive remedial action(s) prior to the onset of a serious Damage or an unusual drop in oil and gas production. The second objective was to introduce a simple technique, compatible with the present methods for interpreting the important features of the production and well test plots. The author, in this paper, has combined the Fourier analysis and the Action Parameter analysis for this purpose. These simple technique help us to manage the production strategy optimally as a part of the overall reservoir management package. Again, this can be accomplished in two ways. It could be done on a real time basis by automatically controlling the pressure and flow rate of all the wells in the reservoir(s). Another way involves a real time production optimization basis by installing modern, imbedded, on-site computers connected via an automatic control to a closed loop servo-controlled choke and separator system on an individual well. This well can easily be networked with other wells in the reservoir. Interestingly, for the first objective, the Fourier periodigram coefficients, frequency, and phase changes of the gas-water ratio of the monthly production data indicate a certain predictable precursor (signature) to the drop in oil production and Formation Damage prior to the onset of the real production decline. In this work, for the sake of brevity, the author has only resorted to the Fourier Phase changes in the analysis of Oil Production data. Furthermore, it is found that the existence of the precursor may be attributable to some portion of the reservoir "drive" energy that is wasted either as a pressure drop through the well down hole or surface equipment or in the perforation and formation as a total skin (completion, turbulence, formation damage, etc). The source of this energy may be rooted in the difference between the solubilities of methane, CH4, carbon dioxide, CO2, and other gases in the reservoir water. The results of the Fourier analysis of the monthly production data could be used to control the worsening or remedying of the Formation Damage before the implementation of some low cost remedial measures that turn into a costly or ineffective stimulation (see post-stimulation Oil Production data in Well No. 1.), or premature workover. Furthermore, this type of analysis could provide the industry with an efficient means of real time production optimization. For achieving the second objective, the author has used a simple Hamilton Integral in the form of an Action Parameter, As=pt2, or As= Et, (As = Action Parameter, p = power, E = energy, and t = time). When this integral is combined with Fourier analysis for the pressure build-up data, it reveals several clear results on the well test plots. The first result of this technique is the appearance of a sharp demarcation line between the transient, pseudosteady-state, and steady state times and their attributes like storage, boundary effect, seals, transition, onset of radial flow, dual porosity effects, and other aspects of well tests on the plots. The clarity of the results may be attributable to the sensitivity of the Action Parameter to time event. The many features of the new analysis technique may be used as a suitable substitute for a first or second "derivative" plot when the standard derivative plots remain too "rough and wavy" and ambiguous. The second result of this technique is the appearance of a clear and well-behaved slope of the steady state portion of the build-up plot which may be, again, a suitable substitute for when, for example, the steady state portion of the standard Horner plot cannot be used or interpreted clearly. It is expected that this technique, with proper calibration with the Scale (−10 to +200) for the skin caused by Formation Damage, and other scales for Storage, Productivity Ratio, Production Efficiency, Post-stimulation effects and Stimulation Efficiencies, and other parameters, to give much clearer results than what is available to the industry at this time.</t>
+          <t>In the absence of nucleotide excision repair, the additional deficiency of the DNA alkyltransferase (ATase) encoded by the constitutive ogt gene of Escherichia coli caused a marked increase in mutation induction by N-butyl-N-nitrosourea (BNU). Irrespective of the presence or absence of the Ogt ATase, little mutagenic response was detected in Uvr+ bacteria in the concentration range 0-8 mM BNU, indicating that most premutagenic DNA lesions induced at these concentrations are efficiently recognized and repaired by the nucleotide excision repair system. Increased susceptibility to mutagenesis by BNU was detected in Uvr- Ogt+ bacteria, but the Uvr- Ogt- double mutant exhibited much higher sensitivity. These data suggest that the Ogt ATase can replace to a great extent the repair capacity of the (A)BC excinuclease. Forward mutations induced by 6 mM BNU within the initial part of the lacI gene of E.coli were recovered from Uvr+ Ogt-, Uvr- Ogt+ and Uvr- Ogt- bacteria. A total of 454 independent mutations were characterized by DNA sequence analysis. The BNU-induced spectra were dominated by G:C--&gt;A:T transitions, consistent with the major role of the O6-alkylguanine miscoding lesion in mutagenesis by alkylating agents. Specific sites for G:C--&gt;A:T transitions were recovered more or less frequently in one genetic background versus the others, giving statistically significant differences among the spectra (P &lt; 10(-6)). We examined the influence of DNA repair by (A)BC excinuclease and Ogt ATase on the 5'-flanking base associated with the BNU-induced G:C--&gt;A:T transitions; preferences different from those previously reported for other alkylnitrosoureas were detected. We discuss how these differences might be caused by BNU producing branched chain derivatives, in addition to the expected linear chain adducts, and by possible preferences with respect to both the initial distribution of O6-butylguanine lesions and their repairability.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2160359554</t>
+          <t>https://openalex.org/W2050953128</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/app.1703</t>
+          <t>https://doi.org/10.1021/jf000776j</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Acar (2001)</t>
+          <t>Rodriguez‐Saona et al. (2001)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Synthesis and swelling characteristics of poly(4‐vinylpyridine) gels crosslinked by irradiation</t>
+          <t>Rapid Detection and Identification of Bacterial Strains By Fourier Transform Near-Infrared Spectroscopy</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Abstract The effect of irradiation under vacuum on thermal properties and swelling behavior on poly(4‐vinylpyridine) (P4VP) was investigated. The gel percentage in the irradiated P4VP films was determined by Soxhlet extraction. UV spectroscopy was also used to determine sol percentage, which decreased as the radiation dose increased. The changes in thermal properties, such as glass‐transition temperature ( T g ), were followed by differential scanning calorimetry before and after Soxhlet extraction. The gels prepared after irradiation were characterized with respect to their swelling properties and network structures. © 2001 John Wiley &amp;amp; Sons, Inc. J Appl Polym Sci 81: 2609–2614, 2001</t>
+          <t>The use of Fourier transform near-infrared (FT-NIR) spectroscopy and multivariate pattern recognition techniques for the rapid detection and identification of bacterial contamination in liquids was evaluated. The complex biochemical composition of bacteria yields FT-NIR vibrational transitions (overtone and combination bands) that can be used for classification and identification. Bacterial suspensions (Escherichia coli HB101, E. coli ATCC 43888, E. coli 1224, Bacillus amyloliquifaciens, Pseudomonas aeruginosa, Bacillus cereus, and Listeria innocua) were filtered to harvest the cells and eliminate the matrix, which has a strong NIR signal. FT-NIR measurements were done using a diffuse reflection-integrating sphere. Principal component analysis showed tight clustering of the bacterial strains at the information-rich spectral region of 6000-4000 cm(-1). The method reproducibly distinguished between different E. coli isolates and conclusively identified the relationship between a new isolate and one of the test species. This methodology may allow for the rapid assessment of potential bacterial contamination in liquids with minimal sample preparation.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3214604500</t>
+          <t>https://openalex.org/W4389249573</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-981-16-2505-3_15</t>
+          <t>https://doi.org/10.1088/1742-6596/2600/8/082003</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Li (2021)</t>
+          <t>Chambers et al. (2023)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Moving Towards a More Corruption-Resistant Society</t>
+          <t>The GENEAP project: digitalising and automating planning of district heating and cooling</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transparent politics is the basis for the healthy development of the economy, as well as social harmony and stability. Since China’s reform and opening-up, the transition from a planned economic system to a market system led by the government has caused excessive administrative intervention and control of the market in some fields, which has not only resulted in a failure of resource allocation in the market, but has also created ample opportunity for corruption. Additionally, due to China’s underdeveloped corruption-prevention system, the situation of corruption in some areas continues to deteriorate.</t>
+          <t>Abstract The Swiss Energy Strategy 2050 implies a transformation of the provision of thermal energy services (heating and cooling) to become CO2 neutral, district heating and cooling (DHC) are an important solution, which is technically challenging to design and whose implementation entails certain risks for investment. The GENEAP (Geospatial Analysis and Planning) project developed a software that applies automation and digitalisation to address this barrier and to apply scientific research to support the work of practitioners. The software Thermal Energy System Simulation Assistant (TESSA) increases reproducibility and decreases errors, and thereby reducing overall costs. We introduced innovative algorithms for modelling heat and cooling demand, thermal energy supplies, and the cost of thermal network technologies under different retrofit and climate change scenarios. We developed graph theory-based algorithms for computationally efficient routing of thermal network pipes. The goal of the GENEAP project was to validate the models and to establish how practitioners would find value in such a tool. Through workshops and interviews we established the need for digital tools due to the rapidly increasing need for new projects, the complexity and long time frames of projects, and the limited number of available experts to do this work. We found a gap between the high level energy strategy (Plan Directeur Energetique) and the detailed engineering design stage. In between these two stages we find the need for a flexible approach that can integrate cities and societies needs into the engineering design with non-energy requirements (e.g. political context, urban constraints and opportunities, etc).</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4327930690</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1021/acsaem.2c04070</t>
+          <t>https://openalex.org/W2588171043</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Lü et al. (2023)</t>
+          <t>Salemink (2016)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Constructing Bridging Heterointerfaces of PtCo/Co&lt;sub&gt;9&lt;/sub&gt;S&lt;sub&gt;8&lt;/sub&gt; for Enhancing Oxygen Electrocatalysis in Zn–Air Batteries</t>
+          <t>Digital Margins: How spatially and socially marginalized communities deal with digital exclusion</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Constructing heteronanostructures is an essential approach for integrating multiple functionalities into one single entity. Here, PtCo/Co9S8 composites with bridging heterointerfaces are synthesized using an ultrafast high-temperature shock strategy. The oxygen electrocatalysis of PtCo/Co9S8 is remarkably enhanced by constructing the well-coupled Pt–Co–S interfaces in the composites, in which the Co acts as the bridging linkage. PtCo/Co9S8 composites show efficient bifunctional activities toward oxygen evolution and reduction reactions (OERs and ORRs). The OER overpotential (10 mA cm–2) and ORR half-wave potential reach 284 and 832 mV, respectively. The rechargeable aqueous zinc–air battery (ZAB) using PtCo/Co9S8 composites as air cathodes achieves high power density (262.5 mW cm–2) and long-term cycling life (more than 1000 cycles). Moreover, the assembled flexible solid-state ZAB can power electronic devices well. The theoretical results suggest that the catalytic sites of Co and Pt in the bridging interfaces could impressively optimize the adsorption/desorption/transformation of O* to OH*, thus lowering the ΔG and facilitating the ORR process. This work provides an extremely promising strategy to develop bridging heterointerfaces for their application in energy storage and conversion systems.</t>
+          <t>The increasing importance of the Internet as a means of communication has transformed economies and societies. For spatially and socially marginalized communities, this transformation has resulted in digital exclusion and further marginalization. This book presents a study of two kinds of marginalized communities: spatially marginalized rural communities and socially marginalized Gypsy-Travelers. Mechanisms of both social exclusion and digital exclusion were studied to create a better understanding of how marginalized communities deal with ongoing digitalization. The interplay between citizens, governments, and market players is a recurring theme throughout the book. Issues in current policies and approaches are discussed, and recommendations for improvement are provided. Altogether, this study shows that the Internet is not an equalizer, as it was once assumed by academics and policy makers. Instead, unequal access to the Internet shows that ‘offline’ geographies still matter in the digital age. Ongoing developments around digital exclusion in the Netherlands, and in a broader perspective around the ‘participation society’, beg the question how much can be asked of communities and what should be a public task. If governments really care about digital equality, then they need to enable self-reliant communities to achieve their goals, but they also need to play a more active role themselves and help the more dependent communities.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://openalex.org/W61953674</t>
+          <t>https://openalex.org/W2332376884</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4438/1988-592x-re-2011-356-040</t>
+          <t>https://doi.org/10.1016/j.jval.2014.08.048</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Ruiz &amp; Ignácio (2011)</t>
+          <t>Nguyen &amp; T.T.H. (2014)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Un giro copernicano en la enseñanza universitaria: formación por competencias</t>
+          <t>Cost-Utility of Bevacizumab with PC Regimen in Non-Small Cell Lung Cancer Treatment</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>espanolLa implementacion del enfoque de competencias en la ensenanza universitaria supone situarla en conformidad con las nuevas necesidades y demandas que se derivan de la sociedad de la informacion. El objetivo de este articulo es avanzar en esta innovadora direccion proponiendo un nuevo modelo de ensenanza universitaria fundamentado y contrastado en la practica educativa. Despues de describir un enfoque ecosistemico de las competencias en donde se indican los rasgos que las definen, se propone formular los objetivos formativos a partir de la distincion de los elementos que los integran. En paralelo, se plantea la pertinencia de seleccionar y organizar los contenidos academicos tomando como base modulos disciplinares o, mejor aun interdisciplinares, estructurados en nucleos problematicos y redes de problemas. Asimismo, se presenta una metodologia didactica innovadora que promueve un aprendizaje activo, reflexivo y autentico basado en la investigacion colaborativa de los estudiantes tomando como base distintas fuentes de informacion: impresas, audiovisuales, informaticas e institucionales. Por ultimo, se describe un enfoque holistico para la evaluacion de la adquisicion de las competencias en el que se distinguen tres momentos claves: evaluacion diagnostica, evaluacion formativa y evaluacion sumativa. Para realizar esta compleja y rigurosa valoracion del aprendizaje academico se indican una serie de tecnicas e instrumentos que permiten una evaluacion autentica puesto que integran tanto evidencias de conocimiento como evidencias de desempeno. Este nuevo modelo esta siendo implementado en algunas materias de distintas facultades de la Universidad de Sevilla (Pedagogia, Psicologia, Odontologia, Economicas �fase inicial�, entre otras). Los resultados obtenidos demuestran que se incrementa el nivel y calidad del aprendizaje academico en cuanto que los estudiantes logran adquirir las competencias previstas. El articulo concluye senalando la necesidad de que este reciente enfoque pedagogico este sustentado en un cambio profundo en tres componentes basicos del sistema convencional de Educacion Superior: estructura institucional, cultura academica y curriculo universitario. EnglishImplementation of the competence approach at the university teaching level means enabling university teaching to equal the new needs and demands of the information society. The aim of this paper is to move in this innovative direction by proposing a new model of university teaching based on and tested in educational practice. An eco-systemic competencebased approach is described, and the approach�s defining features are given. Educational aims are then formulated, starting with a map of their constituent elements. A proposal is made regarding the validity of selecting and organizing academic contents on the basis of disciplinespecific or, even better, interdisciplinary modules structured into core problems and problem networks. Likewise, an innovative didactic methodology is presented, which promotes active, reflexive, true learning based on cooperative student research, on the basis of different sources of information: printed matter, audiovisuals, computerized sources and institutional sources. Lastly, a holistic focus is described for evaluating competence acquisition, in which three key points in time are distinguished: diagnostic evaluation, formative evaluation and additive evaluation. A series of techniques and instruments are outlined for performing this complex, rigorous evaluation of academic learning. These techniques and instruments make it possible to conduct a true evaluation, because they incorporate knowledge evidence and performance evidence at the same time. This new model is being implemented in a number of subjects at different schools at the University of Seville (inter alia, the School of Education, the School of Psychology, the School of Odontology and the School of Economics �undergraduate phase). Results show increases in the level and quality of academic learning as students master expected competences. The paper ends by pointing out the need for this brand-new pedagogical approach to be based on a deep change in three key elements of the conventional higher education system: institutional structure, academic culture and university curriculum.</t>
+          <t>Lung cancer, especially non-small cell lung cancer (NSCLC), is one of the most leading causes of mortality not only in the world but also in Vietnam. Bevacizumab – a targeted therapy agent- has been recommended to use in combination with chemotherapy as the first-line treatment of advanced NSCLC. However, the high cost of bevacizumab may reduce the availability of bevacizumab, especially in Vietnam. Therefore, this analysis was conducted to analyze the cost-effectiveness of bevacizumab in the combination with paclitaxel and carboplatin (BCP) versus paclitaxel and carboplatin regimen (PC) in Vietnamese setting. A Markov model has been developed with 3 stages (stable, progressive and death). The model has a cycle length of 1 year with the life-time horizon. The population of 1000 patients was included in the model. The transition rates have been retrieved from randomized clinical trials, the prices of drugs and medical services have been averaged from the price-lists of some major hospitals in Vietnam in 2013. The sensitivity analysis has been conducted. The cost of BCP and PC regimen for NSCLC treatment accounts for 4,691,452,387 VND and 1,792,656,298 VND with the QALY of 7.88 and 5.62, respectively. The CER of BCP regimen for NCSLC treatment accounts for 595,533,261 VND, which is around 2 times higher than that of PC regimen. The ICER of BCP regimen versus PC regimen accounts for around 1.3 billion VND, which is about 17 times higher than the willingness-to-pay of Vietnam (74 million VND). One-way sensitive analysis showed bevacizumab price as the most affecting factor on its cost-effectiveness. Due to the high cost of drug, the combination of bevacizumab in the PC regimen in treatment of NSCLC is considered not cost-effective in Vietnam. To enhance the cost-effectiveness of bevacizumab, supporting policies from manufacturer, health care providers and government should be established.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2058754014</t>
+          <t>https://openalex.org/W2471170444</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1600-0633.2012.00583.x</t>
+          <t>https://doi.org/10.1080/0144235x.2016.1192262</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>McGarvey (2012)</t>
+          <t>Weinhold et al. (2016)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Differential saturation of &lt;scp&gt;P&lt;/scp&gt;acific &lt;scp&gt;N&lt;/scp&gt;orthwest and &lt;scp&gt;S&lt;/scp&gt;outheast (&lt;scp&gt;USA&lt;/scp&gt;) fish assemblages</t>
+          <t>What is NBO analysis and how is it useful?</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Abstract Plots of local versus regional richness have been used to test whether assemblages are ‘saturated’ with species. However, the validity of these tests is limited by scale‐dependence and arbitrarily defined sampling units, statistical autocorrelation between local and regional richness data, and the confounding effects of propagule pressure. In this study, local versus regional richness plots were used to test the saturation hypothesis for P acific N orthwest and S outheast ( USA ) fish assemblages, taking care to account for each of the above problems. Specifically, longitudinal river zones were used to ensure that the regional sampling units were not scale‐dependent or biologically arbitrary. A log‐ratio transformation was used to remove autocorrelation from the local and regional richness data. And a comprehensive fish stocking database was used to account for propagule pressure. Results suggest that the P acific N orthwest fish assemblages, which have low native richness, are not saturated, but the species‐rich S outheast assemblages are at or approaching saturation.</t>
+          <t>Natural bond orbital (NBO) analysis is one of many available options for ‘translating’ computational solutions of Schrödinger’s wave equation into the familiar language of chemical bonding concepts. In this Review, we first address the title questions by describing characteristic features that distinguish NBO from alternative analysis methodologies (e.g. of QTAIM or EDA type) and answering criticisms that have been raised in specific chemical applications. We then address the general ‘usefulness’ of NBO analysis in the context of widely accepted philosophical criteria, including (i) broad consistency, both internally and with respect to known experimental data, (ii) multi-faceted predictive capacity, including numerical model predictions of specific properties, general correlative and statistical regression relationships, and ‘risky’ falsifiable predictions of previously unknown chemical phenomena, and (iii) general pedagogical value, promoting organisation, unification, and orderly rationalisation of chemical knowledge. Specific chemical topics chosen for discussion include controversial H⋯H ‘bond lines’ in bay-type hydrocarbon species; carbene ligation of coinage metals; resonance-type bonding of noble gas hydrides; NBO descriptors in Hammett-type quantitative structure-activity relationships; nature of conventional and ‘anti-electrostatic’ hydrogen bonding interactions; multi-centre bonding in ‘aromatic’ , Lewis-like hybridisation picture of non-VSEPR geometry and high-order multiple bonding in transition metal species; resonance origin of the ‘18e rule’; and localised (symmetry-independent) prediction of Jahn–Teller effects in free radical chemistry. We conclude with hints of some directions for future extensions of NBO methods.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2941955281</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jhep.2019.04.002</t>
+          <t>https://openalex.org/W2384841189</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Lemaigre (2019)</t>
+          <t>Xiao-we (2015)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Mechanical stimuli control liver homeostasis</t>
+          <t>Mao Zedong's Meditations on Talent Training Modes in 1950s to 1960s and its Contemporary Values</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>F-actin dynamics regulates mammalian organ growth and cell fate maintenanceJournal of HepatologyVol. 71Issue 1PreviewCell behavior is powerfully regulated by the mechanical properties of the microenvironment. For example, seminal studies indicated that extracellular matrix (ECM) stiffness and the resulting cell geometry can drive the choice between proliferation, cell death or differentiation, often dominating soluble cues and oncogenes.1–7 The current model explaining these observations is that cells probe the physical properties of the microenvironment by exerting contractile forces on adhesion complexes generated by their actomyosin cytoskeleton. Full-Text PDF Mechanical cues are known to control cell proliferation, differentiation, migration and malignant transformation. Such cues include compression, shear stress from blood flow, and stretch generated by cell-cell or cell-extracellular matrix interactions. Physical stimuli of the microenvironment are sensed by cell membrane-associated proteins such as integrins, ion channels, or growth factor receptors. They are then propagated to the actomyosin cytoskeleton whose contractility regulates intracellular signalling pathways, eventually leading to changes in gene expression and determination of the appropriate cellular response.1Iskratsch T. Wolfenson H. Sheetz M.P. Appreciating force and shape-the rise of mechanotransduction in cell biology.Nat Rev Mol Cell Biol. 2014; 15: 825-833Crossref PubMed Scopus (470) Google Scholar, 2Martino F. Perestrelo A.R. Vinarsky V. Pagliari S. Forte G. Cellular mechanotransduction: from tension to function.Front Physiol. 2018; 9: 824Crossref PubMed Scopus (364) Google Scholar In this issue of the Journal of Hepatology, Pocaterra and coworkers investigate how the mechanical properties of hepatocytes maintain adult liver homeostasis.[3]Pocaterra A. Santinon G. Romani P. Brian I. Dimitracopoulos A. Ghisleni A. et al.F-actin dynamics regulates mammalian organ growth and cell fate maintenance.J Hepatol. 2019; 71: 130-142Abstract Full Text Full Text PDF PubMed Scopus (40) Google Scholar They address the issue by focusing on the role of CAPZ, an actin capping protein. Contraction of the actomyosin cytoskeleton occurs by sliding of actin fibres on myosin motor proteins. Actin self-assembles into filaments of which one extremity is called the pointed end, while the other extremity is called the barbed end. This terminology was inspired by the arrowhead-like shape created by the decoration of polymerized actin by myosin. Capping proteins bind the barbed end of polymerized actin and regulate the dynamics of actin assembly.[4]Edwards M. Zwolak A. Schafer D.A. Sept D. Dominguez R. Cooper J.A. Capping protein regulators fine-tune actin assembly dynamics.Nat Rev Mol Cell Biol. 2014; 15: 677-689Crossref PubMed Scopus (165) Google Scholar Therefore, CAPZ is an excellent entry point to dissect the role of actin dynamics, mechanotransduction and cell behaviour in hepatocytes. Pocaterra initiated their work by implementing a classical loss-of-function approach, and first demonstrated that the response to geometrical constraints differs between wild-type and CAPZ-deficient primary fibroblasts. The technical approach consisted in growing the cells on small or large fibronectin-coated adhesive areas, and comparing their behaviour on the two substrates. Wild-type fibroblasts proliferate on large adhesive areas, but display nearly no proliferation on small adhesive areas. In contrast, CAPZ knockout cells maintain a more significant level of proliferation both on large and small adhesive areas. Moreover, CAPZ inactivation was associated with increased contractility, and CAPZ-deficient cells exerted higher tension forces on their substratum, thereby validating CAPZ inactivation as a biologically significant approach for investigating the cells' response to mechanical cues. Yes associated protein (YAP) is a known mediator of mechanical stimuli, and, importantly, CAPZ knockout fibroblasts grown on small fibronectin-coated areas retain nuclear YAP, unlike wild-type cells. In other terms, CAPZ-deficient cells combine YAP activation with increased actomyosin contractility. Building further on these initial observations, Pocaterra and coworkers turned their attention to the liver, and generated a mouse line with liver-specific inactivation of CAPZ. Increased nuclear localization of YAP and activation of typical YAP target genes were monitored, in line with the findings on cultured fibroblasts. More spectacular, CAPZ knockout livers were twice the size of normal liver, and this was caused by intense hepatocyte overproliferation. There was also massive induction of progenitor-like cells, as a result from transdifferentiation of hepatocytes. Therefore, CAPZ regulates YAP activation and controls liver growth and hepatocyte differentiation. Metabolism in the liver is zonated, which means that hepatocytes display heterogeneous metabolic activities depending on t</t>
+          <t>Mao Zedong's theories of education practices in 1950 s and 1960 s center on his meditations on and reformations of talent training modes under the guidelines of  revolution in education. He earnestly attempted to propel China's education and scientific research towards focuses of social needs and production development, to integrate education, scientific research and production, and train talents with correct political views, realistic social concerns, proper proficiency and skills that fulfills the needs of socialist modern construction. In spite of the many flaws in its practices, such thoughts are still inspiring for our education reform in 21 st century.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1602556105</t>
+          <t>https://openalex.org/W2517275835</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/0471028959.sof320</t>
+          <t>https://doi.org/10.1109/cicn.2015.84</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Harauz (2002)</t>
+          <t>Tomar &amp; Jain (2015)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Software Engineering Standards in the Nuclear Power Industry—Safety‐Related Applications</t>
+          <t>Lossless Image Compression Using Differential Pulse Code Modulation and its Application</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Abstract Nuclear power is very much an international industry. U.S., Canadian, and European vendors are actively involved in the deployment of modern nuclear reactors (including I&amp;amp;C systems) in Asia. I&amp;amp;C systems are routinely delivered across national boundaries; for instance U.S. designed systems have been implemented in Czech Republic, Ukraine, and South Korea; German designed systems have been implemented throughout Europe and proposed for the United States; Canadian designed systems have been installed in Canada and South Korea. The Canadian software engineering technology for safety critical software has been considered for adoption in the development of new I&amp;amp;C safety‐related systems outside of Canada. Japanese I&amp;amp;C systems have proven reliable and should attract wider interest. The global nature of nuclear power points to the strong need for consistency in international sets of nuclear and other standards in addition to consistent approaches to licensing such systems. The application of standards in the nuclear industry is a nontrivial exercise. Many standards organizations worldwide develop standards that affect nuclear I&amp;amp;C systems. Developing a system in one country to one set of standards is no longer sufficient. As such systems cross national boundaries, they need to demonstrate conformance to more than one set of standards and must be licensable in the country of implementation. There is a broad consensus on general principles and approaches in the standards, and national licensing approaches are converging. However, there remain a number of specific issues on which consensus is still outstanding. Examples are the benefits to be gained from the use of formal methods, how to quantify the benefits from applying diversity principles to software, methods for measuring and achieving software reliability and requirements, and methods for the validation of transformation tools and of their output. As technology advances, issues of concern today may be solved, or new issues may arise. Nuclear industry standards and regulatory criteria will have to be periodically updated to keep pace with new international standards, increasing regulatory rigor with respect to software, fast‐paced computer technology advances, and experience gained, both within and outside the nuclear industry, for safety‐related computer‐based I&amp;amp;C systems.</t>
+          <t>Images include information about human body which is used for different purpose such as medical examination security and other plans Compression of images is used in some applications such as profiling information and transmission systems. Regard to importance of images information, lossless or loss compression is preferred. Lossless compressions are JPEG, JPEG-LS and JPEG2000 are few well-known methods for lossless compression. We will use differential pulse code modulation for image compression with Huffman encoder, which is one of the latest and provides good compression ratio, peak signal to noise ratio and minimum mean square error. In real time application which needs hardware implementation, low complex algorithm accelerate compression process. In this paper, we use differential pulse code modulation for image compression lossless and near-lossless compression method is introduced which is efficient due to its high compression ratio and simplicity. This method is consists of a new transformation method called Enhanced DPCM Transformation (EDT) which has a good energy compaction and a suitable Huffman encoding. After introducing this compression method it is applied on different images from Corel dataset for experimental results and analysis. Also we compare it with other existing methods with respect to parameter compression ratio, peak signal noise ratio and mean square error.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3144341150</t>
+          <t>https://openalex.org/W3133524445</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s41893-021-00684-9</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Adele &amp; English (2013)</t>
+          <t>Chacón-Montalván et al. (2021)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>ONTARIO'S HOME FIRST APPROACH, CARE TRANSITIONS, AND THE PROVISION OF CARE: THE PERSPECTIVES OF HOME FIRST CLIENTS AND THEIR FAMILY CAREGIVERS</t>
+          <t>Rainfall variability and adverse birth outcomes in Amazonia</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Amazonian populations are increasingly exposed to climatic shocks, yet knowledge of related health impacts is limited. Understanding how health risks are coproduced by local climatic variability, place and social inequities is vital for improving decision-making, particularly in decentralized contexts. We assess the impacts of rainfall variability and multiscale vulnerabilities on birth weight, which has lifelong health consequences. We focus on highly river-dependent areas in Amazonia, using urban and rural birth registrations during 2006–2017. We find a strong but spatially differentiated relationship between local rainfall and subsequent river-level anomalies. Using Bayesian models, we disentangle the impacts of rainfall shocks of different magnitudes, municipal characteristics, social inequities and seasonality. Prenatal exposure to extremely intense rainfall is associated with preterm birth, restricted intra-uterine growth and lower mean birth weight (≤−183 g). Adverse birth outcomes also follow non-extreme intense rainfall (40% higher odds of low birth weight), drier conditions than seasonal averages (−39 g mean birth weight) and conception in the rising-water season (−13 g mean birth weight). Babies experience penalties totalling 646 g when born to adolescent, Amerindian, unmarried mothers that received no formal education or antenatal or obstetric health care. Rainfall variability confers intergenerational disadvantage, especially for socially marginalized Amazonians in forgotten places. Structural changes are required to reduce inequities, foster citizen empowerment and improve the social accountability of public institutions. Amazonians are subject to climate shocks, but the associated health outcomes are still unclear. This study finds that rainfall variability is associated with adverse birth outcomes, especially for those most isolated and marginalized.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1968586831</t>
+          <t>https://openalex.org/W2034704815</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.480056</t>
+          <t>https://doi.org/10.1016/j.jssc.2005.02.026</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Owrutsky &amp; Baronavski (1999)</t>
+          <t>Silva et al. (2005)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Ultrafast photodissociation studies of acetyl cyanide and acetic acid and unimolecular decomposition rates of the acetyl radical products</t>
+          <t>Neutron powder diffraction study of A2BeF4 (A=K, Rb, Cs): Structure refinement and analysis of background</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Unimolecular decomposition rates for acetyl radical following the photodissociation of acetyl cyanide and acetic acid near 193 nm have been studied using ultrafast mass-resolved photoionization spectroscopy. In both cases, the parent decays with an instrumentally limited lifetime, while the acetyl radical behaves in a manner consistent with an RRKM mechanism, in contrast to our previous results on acetone. It is necessary to convolute the population distribution with the microcanonical RRKM rates in order to achieve this agreement. We have also undertaken an ab initio study of the excited states of acetyl cyanide to clarify the assignments of these states. The state excited at 193 nm arises from a π→π* transition with a calculated transition velocity dipole moment oriented at an angle of 57° with respect to the C–C≡N bond, resulting in an anisotropy parameter of −0.22. This is in reasonable agreement with the previous data of North et al. [J. Phys. Chem. A 101, 9224 (1997)]. The apparent RRKM behavior of the acetyl radical formed by the photodissociation of acetic acid and acetyl cyanide indicates that acetyl radical produced by the photodissociation of acetone at 193 nm may exhibit “extrinsic non-RRKM” effects, i.e., dynamic bottlenecks or mode specific effects.</t>
+          <t>The crystal structure of potassium, rubidium and caesium fluoroberyllates have been re-examined by neutron powder diffraction at room temperature and at 1.5 K. Previously, their structures, obtained from X-ray data, were described in the Pn21a space group. However, the results obtained from Rietveld refinements, using powder neutron diffraction, at both temperatures, indicated that all structures are orthorhombic with space group Pnma. The known phase transition at high temperature is probably related to the appearance of a hexagonal pseudo-symmetry instead of the elimination of the mirror plane between the above mentioned orthorhombic space groups. A possible phase transition, at very low temperature, was discarded considering the stereochemical criteria concerning the structural stability of A2BX4 compounds. This was confirmed by thermal analysis. On the other hand, a modulated background has been detected in all samples during the refinements. This is compatible with the presence of an amorphous phase, coexisting with the crystalline phase, or with a disordered component within the main crystalline phase. Instead of using a polynomial function, the background was modelled by Fourier filtering improving the fit for all patterns. The radial distribution function (RDF) was obtained from the analysis of the calculated background and compared with the RDF from the average crystal structure. The advantages of neutron with respect to X-ray diffraction were evidenced for this type of compound with β-K2SO4-type structure.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://openalex.org/W638605339</t>
+          <t>https://openalex.org/W2441604512</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-642-65829-7_14</t>
+          <t>https://doi.org/10.1097/01.nep.0000476112.24899.a1</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Shaw (1974)</t>
+          <t>Skiba (2016)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>The External Ear</t>
+          <t>Face with Tears of Joy Is Word of the Year</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>The external ear protects the eardrum from mechanical damage by providing a narrow and extended entrance to the auditory system. It also transforms the sound field modifying and augmenting the directionality associated with head diffraction and adding substantial acoustic gain at the higher frequencies. These properties are intimately connected with the spatial perception of sound and are of considerable importance in auditory measurements and instrument design. To understand these properties it is useful to divide the acoustic antenna system into its functional components: the head, the torso and the pinna flange (Fig. 1) acting as diffracting bodies, the concha and the earcanal serving as acoustic resonators, and the eardrum providing an acoustic termination. But these components must always be seen as parts of an integrated system for it is the sound pressure transformation from the free field to the eardrum as a function of frequency, direction, and perhaps distance which is most directly linked with monaural and binaural localization and with the overall sensitivity of the hearing system.</t>
+          <t>FigureThe Oxford Dictionary Word of the Year (WOTY) is not a word but a pictograph, Face with Tears of Joy. For those of you who are not familiar with this pictograph, it is one of the many emoji available for use on your cell phones, tablets, and other devices. In case you missed it, we transitioned from emoticons [;-)] to emoji in the late 1990s. Face with Tears of Joy was chosen as WOTY because it reflected the ethos, mood, and preoccupations of 2015 (Oxford Dictionaries, 2015). The Oxford University Press worked with SwiftKey, a mobile technology company, to analyze usage statistics across the world. This emoji was chosen among several competitors because it made up 20 percent of the emoji used in the United Kingdom and 17 percent of those used in the United States. Even the word emoji has tripled in use since it emerged in 1997. You are probably aware of the smiley faces you get on text messages or how your adolescents order pizza at Dominos. To test your knowledge of emoji, visit the Learning Network at the New York Times (http://learning.blogs.nytimes.com/2014/08/05/test-yourself-emoji/?_r=0). A BRIEF HISTORY Shigetaka Kurita developed the concept of emoji while working for a Japanese company, Docomo, that was creating a mobile Internet platform to provide news, weather, email, and reservations. According to Blagdon (2013), “The lack of visual cures made the service more difficult to use…and could benefit majorly from some extra characters to show contextual information.” I was intrigued by how Kurita viewed the new technology and its impact on communication. According to Kurita, the Japanese traditionally wrote long letters for communication, and the brevity of more casual email sometimes led to miscommunication. Kurita also noticed that face-to-face and phone conversations also provided cues to assess mood or feelings. He concluded “that the promise of digital communication — being able to stay in closer touch with people — was being offset by this accompanying increase in miscommunication” (Blagdon, 2013). Hence, emoji were born as a mechanism to provide contextual information and emotions. Although it took awhile for global acceptance, emoji were eventually adopted into Unicode, a computing industry standard for consistent encoding, representation, and the handling of text expressed in most of the world’s writing systems. Emoji made their international debut in 2011 when they were released on Apple’s iOS5. From Blagdon’s (2013) article, I was able to link to some interesting websites, for example, Narratives in Emoji (http://narrativesinemoji.tumblr.com/) with Les Miserables. I also found an emoji version of Moby Dick (http://blogs.loc.gov/loc/2013/02/a-whale-of-an-acquisition/) and an emoji “zine” by Womanzine (http://issuu.com/lindseyweber5/docs/emoji_by_womanzine). Sternbergh (2014) wrote that “elasticity of meaning is a large part of the appeal and, perhaps, the genius of emoji.” Emoji can express emotion on a small screen in an easy manner, making it easier for those of us who find using our thumbs for text messaging to be a challenge. “These seemingly infantile cartoons are instantly recognizable, which makes them understandable even across linguistic barriers.” IMPLICATIONS FOR RESEARCH, EDUCATION, AND HEALTH CARE If emoji are recognizable across boundaries, what are their implications for research, education, and health care? To answer this question, I ventured forward to learn more, beyond my simple use of smiley faces. I discovered a growing use of emoji in marketing, education, and, yes, even health care. A research article (Pavalanathan &amp; Eisenstein, 2015) examines whether emoji will replace ASCII character emoticons. Using a causal inference model, Pavalanathan and Eisenstein compared a treatment group (those using emoji for a specified time) to a control group (those who did not use emoji), with emoticon usage as the dependent variable. They found a statistically significant difference in the use of emoticons, with the treatment group using less and less. In their discussion, they noted that, although emoticons were primarily designed using facial expressions to express emotion, they were also used to “establish more of a conversational connection, a playful interaction or a shared and secret uniqueness within a particular relationship.” Here are examples of how others use emoji: The White House uses emoji to communicate with millennials (Mosendz, 2014). Gonzalez (2015) describes various uses of emoji to engage learners; she points to a university campaign to address sexual assault (http://students.ubc.ca/livewell/topics/sexual-assault/consent) and provides a link to the GE Emoji Science website (http://emojiscience.com) with an Emoji Table of Content, lessons plans, and YouTube videos. GE Healthcare created a YouTube video with emoji to educate the public about breast density (http://newsroom.gehealthcare.com/breast-density-explained-with-emoji/). An app called Abused Emoji (www.ab</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3018095311</t>
+          <t>https://openalex.org/W3212721812</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Egger et al. (2015)</t>
+          <t>Bonicatto et al. (2018)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Vivianite represents a major sink for phosphorus in methanogenic coastal surface sediments</t>
+          <t>Conservación de semillas comerciales ¿un impedimento o una estrategia adecuada para mejorar la resiliencia de los agroecosistemas?</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Studies of authigenic phosphorus (P) minerals in marine sediments typically focus on authigenic carbonate fluorapatite, which is considered to be the major sink for P in marine sediments and can easily be semi-quantitatively extracted with the SEDEX sequential extraction method. The role of other potentially important authigenic P phases, such as the reduced iron (Fe) phosphate mineral vivianite (Fe(II)3(PO4)*8H2O) has so far largely been ignored in marine systems. This is, in part, likely due to the fact that the SEDEX method does not distinguish between vivianite and P associated with Fe-oxides. Here, we show that vivianite can be quantified in marine sediments by combining the SEDEX method with microscopic and spectroscopic techniques such as micro X-ray fluorescence (lXRF) elemental mapping of resin-embedded sediments, as well as scanning electron microscope–energy dispersive spectroscopy (SEM–EDS) and powder X-ray diffraction (XRD). We further demonstrate that resin embedding of vertically intact sediment sub-cores enables the use of synchrotron-based microanalysis (X-ray absorption near-edge structure (XANES) spectroscopy) to differentiate between different P burial phases in aquatic sediments. Our results reveal that vivianite represents a major burial sink for P below a shallow sulfate/methane transition zone in Bothnian Sea sediments, accounting for 40–50% of total P burial. We further show that anaerobic oxidation of methane (AOM) drives a sink-switching from Fe-oxide bound P to vivianite by driving the release of both phosphate (AOM with sulfate and Fe-oxides) and ferrous Fe (AOM with Fe-oxides) to the pore water allowing supersaturation with respect to vivianite to be reached. The vivianite in the sediment contains significant amounts of manganese ( 4–8 wt.%), similar to vivianite obtained from freshwater sediments. Our results indicate that methane dynamics play a key role in providing conditions that allow for vivianite authigenesis in coastal surface sediments. We suggest that vivianite may act as an important burial sink for P in brackish coastal environments worldwide. 2015 The Authors. Published by Elsevier Ltd. This is an open access article under the CC BY-NC-ND license (http:// creativecommons.org/licenses/by-nc-nd/4.0/).</t>
+          <t>Numerous studies have highlighted the role family farmers’ play in maintaining seed conservation.There are many reports on the permanence of this practice in communities of peasantswith a long permanence in the area. However, there is little information regarding the dynamicsof this practice in rural-urban fringe areas, where the Green Revolution agricultural model ispart of the local productive rationality. The situation of conserved seeds, emphasizing commercialones, was investigated in the rural-urban fringe area of La Plata region, Argentina. Datawas collected based on semi-structured interviews. Conserved seeds and conservation criteriaare recorded. Of 479 cultivated plants 53.9% were conserved. Among the total of conservedseeds, there are both traditional varieties as well as commercial varieties. At the presentcontext, commercial seed`s conservation allows the maintenance of biocultural diversity, aswell as comply with market demands.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2033817268</t>
+          <t>https://openalex.org/W4213033919</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/0953-8984/14/36/303</t>
+          <t>https://doi.org/10.1016/j.tfp.2022.100207</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Massalska-Arodź et al. (2002)</t>
+          <t>Nautiyal &amp; Goswami (2022)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Molecular dynamics of the liquid crystal 6O2OCB in nanopores</t>
+          <t>Role of traditional ecological knowledge on field margin vegetation in sustainable development: A study in a rural-urban interface of Bengaluru</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>The complex dielectric permittivity of 4-(2- hexyloxyethoxy)4'-cyanobiphenyl (6O2OCB) enclosed in porous samples of ZrO2 has been studied in the frequency range 10−1–106 Hz and over a wide temperature range. For the substance in the nearly spherical pores of ZrO2 no phase transition has been found, while for the substance in the bulk a monotropic system of phases, with smectic and crystalline phases, was determined. The relaxation spectra observed for the liquid phase of 6O2OCB in porous material are rather complex and they have been separated into three parts using sums of Havriliak–Negami equations. Two lower-frequency relaxations have been ascribed to collective and ionic motions. Our interest is in the high-frequency relaxation connected with the reorientations of molecules around the short axes. That process was the only one found in the pure 6O2OCB substance. In both cases the temperature changes of that relaxation were found to conform with the Vogel–Fulcher–Tammann formula for the average relaxation time. The relaxation times of molecules in pores are smaller than in the bulk. In pores the substance survives in the isotropic liquid phase to lower temperatures before the glass transition occurs. For the substance enclosed in pores the thermal hystereses of the dielectric permittivity and the relaxation times were found and discussed.</t>
+          <t>Field Margin Vegetation (FMV) is an important part of agrobiodiversity which provides a range of ecological and economic benefits. Those services are mostly unaccounted in spite of having potential contribution to biodiversity conservation, well-being of farming households, climate change mitigation etc. The structure and composition of FMV and socioeconomic transformation are closely linked to each other. Transformation which influences FMV negatively leads to erosion of traditional ecological knowledge of the community that is associated with the use, management and conservation of native vegetations in the agroecosystems. There has been research on the function and composition of field margin vegetations, more specifically in the West but the documentation of traditional ecological knowledge on field margin vegetation from the viewpoint of socio-ecological sustainability is not readily available. Through this research an attempt is made to understand and document the uses of FMV by farmers and related traditional knowledge in rural-urban interface of Bengaluru, India. The agricultural landscape under study was found to be rich in FMV species belonging to 43 families. These species are used for a variety of purposes by the people l living in the rural-urban fringe of the northern transect of Bengaluru. This is a preliminary, yet substantial attempt that provides insights into the socioecological significance of the FMV component of agroecosystem. The findings would help in strategising actions to enhance its stake in initiatives to achieve sustainable development goals through health and nutrition, sustainable farming, environmental conservation and economic well-being. The study suggests that the scientific assessment of ecosystem services from FMV along with integration of traditional ecological knowledge in contemporary science would certainly contribute towards enhancement of its values.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2169447361</t>
+          <t>https://openalex.org/W2083506052</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1367-2630/15/2/023009</t>
+          <t>https://doi.org/10.2977/prims/1195193782</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Altin et al. (2013)</t>
+          <t>Nakagami (1971)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Precision atomic gravimeter based on Bragg diffraction</t>
+          <t>Covariance operators of skew distributions</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>We present a precision gravimeter based on coherent Bragg diffraction of freely falling cold atoms. Traditionally, atomic gravimeters have used stimulated Raman transitions to separate clouds in momentum space by driving transitions between two internal atomic states. Bragg interferometers utilize only a single internal state, and can therefore be less susceptible to environmental perturbations. Here we show that atoms extracted from a magneto-optical trap using an accelerating optical lattice are a suitable source for a Bragg atom interferometer, allowing efficient beamsplitting and subsequent separation of momentum states for detection. Despite the inherently multi-state nature of atom diffraction, we are able to build a Mach-Zehnder interferometer using Bragg scattering which achieves a sensitivity to the gravitational acceleration of $\Delta g/g = 2.7\times10^{-9}$ with an integration time of 1000s. The device can also be converted to a gravity gradiometer by a simple modification of the light pulse sequence.</t>
+          <t>In this paper we extend the concept of a skew distribution on a real Hilbert space H defined in Q4] and Q6] to that on a complex Hilbert space K with an antiunitary involution F, and show the following result which stems from Theorem.3 in []4J.Whenever a skew distribution in is given on even or infinite dimensional (K, F\ any two of the following conditions imply the other one:( i ) m is a factor distribution;(ii) 77i is ^-invariant; and (iii) any pair of /"-invariant orthogonal subspaces are independent with respect to m.In the appendix we give a correspondence of a pair of Fock and anti-Fock representations to a pair of orthogonal transformations {A, *A} with A 2 = -l on K Notations and DefinitionsIn this section we prepare some notations and definitions from papers DG&gt; L^D and Q6] with slight modifications.Let § be a separable complex Hilbert space, % a von Neumann algebra on § and E a faithful normal trace on 21 with E(l) = l.By (K, F) we mean a complex Hilbert space K with an antiunitary involution F&gt; namely, (Ff \ Fy} = (y \ £) for f, TJ eK and F 2 = l.We denote by F=(F, 21) a strongly continuous (\\F(^\\^\\S\\ for some ^&gt;0) and faithful (if £</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1577625429</t>
+          <t>https://openalex.org/W3215838996</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/str.45.suppl_1.wp333</t>
+          <t>https://doi.org/10.1097/hm9.0000000000000013</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Cahill et al. (2014)</t>
+          <t>Zhang (2021)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Abstract W P333: Medications for Secondary Stroke Prevention at Hospital Discharge in Da Nang, Viet Nam</t>
+          <t>Acupuncture and Herbal Medicine launched: building a bridge between traditional and modern medicine</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Background: Developing countries, such as Viet Nam, are currently undergoing a health transition from infectious to chronic medical conditions, including vascular diseases. Medications for secondary stroke prevention may be underused. Our objectives were to quantify the frequency of such underuse and to identify patient characteristics associated with it. Methods: Data from consecutive patients admitted with stroke to Da Nang Hospital from March 2010 through February 2011 were collected using the WHO Stroke STEPS approach. Patients with ischemic stroke (IS) discharged alive, and not sent home to die, were included. Hypertension (HTN), diabetes mellitus (DM) and hyperlipidemia (HL) were conditions eligible for preventative medications at discharge. "Underuse" was defined as prescribing less than all appropriate medications, given each patient’s conditions. Patients with intraparenchymal hemorrhage were excluded from analyses. Multivariate associations with underuse were assessed for age, gender, number of conditions, stroke symptoms, employment status, level of education, hospital ward, and discharge modified Rankin scale. Results: Of 754 patients admitted with stroke, 260 patients met our inclusion criteria with a mean age of 67.2 years and with 42% women. Most had HTN (91.5%), and some, DM (9.6%) and HL (11.2%). Patients mostly had ≥ 2 conditions needing treatment at discharge (93.5 %). Underuse occurred in 69.2%, with only half being discharged on antithrombotic agents. Factors independently associated with underuse included older age (RR=1.06 per decade; 95% CI: 1.0-1.1), admission to the ward caring for most stroke patients (RR=2.3; 95% CI: 1.5-3.5), and completing only primary school education (RR=1.3; 95% CI: 1.1-1.7). Conclusions: Stroke patients discharged from Da Nang Hospital in Viet Nam are not consistently prescribed medications for secondary stroke prevention. A specific ward, older age, and lower education were independently associated with underuse of preventative medications. Opportunities exist to increase use of medications for secondary stroke prevention at the time of hospital discharge, but barriers will need to be identified.</t>
+          <t>In 2021, Acupuncture and Herbal Medicine (AHM) in English is officially published by Tianjin University of Traditional Chinese Medicine and China Association of Chinese Medicine. AHM is a peer-reviewed, diamond open-access international journal dedicated to publishing high quality research in the field of acupuncture and herbal medicine. The types of publication considered are editorial, review article, original article, guidelines and standards, commentary, short communications, case report, methodology, and letter to the editor. Featured by evidence-based medicine researches, AHM publishes innovative studies on acupuncture and herbal medicine, promotes academic exchanges, and drives the transformation of research achievements to serve the international development of traditional Chinese medicine (TCM) and establish the frontrunner journal for international communication of traditional medicine. Since the late 2000s, changes in the disease spectrum have led to significant transformation in medical models and the goals of medicine worldwide. World Health Organization has advocated for universal access to essential medical services for global health benefits and starts the great journey of building a healthy world. Mainly based on acupuncture and herbal medicine, TCM has a long history and has played an important role in ensuring the prosperity of the nation and safeguarding the health of the Chinese people. Although it is ancient, its concepts are not outdated, such as the concepts of harmony between human beings and the nature, the dynamic balance between yin and yang, the individualized treatment through syndrome differentiation, and the active preventive medical thought of health maintenance. All of these theories converge with the frontier directions of modern life science, and exhibit the value of TCM in modern society. The extensive practice has proven that solutions to life sciences and medical problems are entrenched in TCM, emphasizing the worth of its vigorous inheritance and development. The modernization of TCM has been more than 20 years and has made great progress. A meaningful experience is to maintain the inheritance and promote the innovation, through following the theoretical basis of TCM, introducing and learning from advanced scientific and technological methods which is making the past serve the present. “Stones from other mountains can serve to polish our jade.” The synergistic effect can be realized through complementary advantages. Since 2020, a sudden COVID-19 epidemic has wreaked havoc around the world, with China bearing the brunt. Chinese people have united in struggling against COVID-19 with the fearless heroism, and forged the great anti-epidemic spirit of “the supremacy of life, the unity of the whole country, the sacrifice of life and death, respect for science, and the sharing of destiny.” In less than three months, we have won a phased victory in the fight against the epidemic. TCM has participated in the prevention and control of COVID-19 epidemic and played a critical role in all of the stages[1]. Strict isolation and widespread use of TCM effectively blocked the spread of COVID-19 epidemic, reduced the development from mild to severe, increased the cure rate and reduced the mortality rate. In response to the different outcomes in clinical evaluation studies, the world's first Core Outcome Set (COS) was developed by Tianjin University of Traditional Chinese Medicine for clinical trials on COVID-19 (COS-COVID), which determined the “rate of mild to severe” as a critical clinical evaluation outcome[2]. This outcome was recognized and widely used in evaluating the results of clinical trials for TCM, clinical drugs and vaccines. In addition, China has also actively shared its anti-epidemic experience of integrated traditional Chinese and Western medicine with the world, which has been widely concerned and positively commented by the international community. The combination of the TCM and Western medicine is not only one of the characteristics of China's COVID-19 response[3], but also a vivid practice of inheriting the essence of TCM, maintaining the integrity and promoting the innovation. The pandemic has not only changed the world, but also change the world's attitude towards TCM. Mainly based on acupuncture and herbal medicine, TCM has been popularized and applied in more than 100 countries around the world and legalized in health insurance by dozens of countries and regions. A number of high-level papers have been published and high-level education and personnel training have been sustainably performing. AHM will hold to evidence-based medicine research and adhere to the directions of “inheriting the essence, maintaining the integrity, and promoting the innovation”, report innovative theories and excellent academic achievements in the field of acupuncture and herbal medicine, and move forward to the international leading journal. We will strive to build a bridge between tr</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2063823301</t>
+          <t>https://openalex.org/W2482492289</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/cm035294c</t>
+          <t>https://doi.org/10.1093/acprof:osobl/9780199259007.003.0002</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Lagerwall et al. (2004)</t>
+          <t>Ohr (2013)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>A Chameleon Chiral Polar Liquid Crystal: Rod-Shaped When Nematic, Bent-Shaped When Smectic</t>
+          <t>Changing Patterns in Political Communication</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>The first antiferroelectric liquid crystal (AFLC) exhibiting a (chiral) nematic phase, a combination which has long been the goal of synthetic chemists working with polar liquid crystals but which at the same time represents a fundamental contradiction in terms of translational order, was recently reported by Nishiyama and co-workers. We have investigated this chiral twin dimer by optic, electrooptic, and dielectric methods and conclude that it is not an ordinary AFLC material, but one where the peculiar properties of bent-core smectics are combined with those of ordinary rod-shaped liquid crystals. The compound exhibits a new type of nematic−smectic phase transition, connected with a change of molecule conformation from rod- to bent-shaped. This also has an important impact on the chiral interactions in the system. Toward the high-temperature end of the smectic phase, the energy balance between bent conformation smectic and straight conformation nematic can be shifted by an electric field such that the transition to the nematic phase with stretched-out molecules can be field-induced.</t>
+          <t>This chapter examines the empirical basis of hypotheses on personalization and presidentialization with respect to election campaigns and the media coverage of politics. It begins by presenting some of the main arguments behind the notion that political communication has become more personalized in advanced democracies in general and more presidentialized in parliamentary, party-dominated democracies in particular. It then considers whether and why a more ‘candidate- or leader-centred’ presentation of politics should have an impact on the political judgements of voters. Next, it presents empirical evidence which sheds light on the degree of personalized and presidentialized political communication in advanced democracies. The focus will be on the structural changes in the media systems of Western democracies that have occurred during the last decades, such as the spread of television, and which are likely to have fundamentally altered the rules of the game for the mass media coverage of politics. It also assesses to what extent the main communication media, that is, television and the press, have changed their coverage of politics in terms of personalization and/or presidentialization.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2965190328</t>
+          <t>https://openalex.org/W4317530433</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1071/mf19182</t>
+          <t>https://doi.org/10.1002/fld.5177</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Dubois et al. (2019)</t>
+          <t>Guesmi et al. (2023)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Integrating fish into irrigation infrastructure projects in Myanmar: rice-fish what if…?</t>
+          <t>Assessment of high‐order IMEX methods for incompressible flow</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>With rapidly increasing investment in water control infrastructure (WCI) and a recently ratified agriculture development strategy that promotes integrated farming of high-value products such as fish, agricultural production, already fundamental to Myanmar’s economy, will be central to driving the countries’ socioeconomic transformation. Water planners and managers have a unique opportunity to design and manage WCI to incorporate fish and, in so doing, reduce conflicts and optimise the benefits to both people and the ecosystem services upon which they depend. Results from rice–fish culture experimental trials in Myanmar’s Ayeyarwady Delta are providing an evidence base for the importance of integrating fish into WCI, highlighting a range of both environmental and social benefits. By using less than 13% of paddy land area and through best management practices, existing rice productivity is sustained, alongside a 25% increase in economic returns for the same land area from fish. In addition, there are considerably more protein and micronutrients available from the fish produced in the system. Should these farming system innovations be adopted at scale, Myanmar stands to benefit from increased employment, incomes and nutritional value of farm plots (alongside associated reductions in pesticide pollution) and water use benefits.1</t>
+          <t>Summary This paper investigates the competitiveness of semi‐implicit Runge‐Kutta (RK) and spectral deferred correction (SDC) time‐integration methods up to order six for incompressible Navier‐Stokes problems in conjunction with a high‐order discontinuous Galerkin method for space discretization. It is proposed to harness the implicit and explicit RK parts as a partitioned scheme, which provides a natural basis for the underlying projection scheme and yields a straight‐forward approach for accommodating nonlinear viscosity. Numerical experiments on laminar flow, variable viscosity and transition to turbulence are carried out to assess accuracy, convergence and computational efficiency. Although the methods of order 3 or higher are susceptible to order reduction due to time‐dependent boundary conditions, two third‐order RK methods are identified that perform well in all test cases and clearly surpass all second‐order schemes including the popular extrapolated backward difference method. The considered SDC methods are more accurate than the RK methods, but become competitive only for relative errors smaller than ca .</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2183323517</t>
+          <t>https://openalex.org/W3194443066</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/wjaf/14.2.73</t>
+          <t>https://doi.org/10.1016/j.adro.2021.100766</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Waggener &amp; Fight (1999)</t>
+          <t>McClelland et al. (2021)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Clearwood Quality and Softwood Lumber Prices: What's the Real Premium?</t>
+          <t>Analysis of Virtual Versus In-Person Prospective Peer Review Workflow in a Multisite Academic Radiation Oncology Department</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Abstract Diminishing quantities of appearance grade lumber and rising price premiums for it have accompanied the transition from old-growth to young-growth timber. The price premiums for better grades are an incentive for producers to undertake investments to increase the yield of those higher valued products. Price premiums, however, are also an incentive for users to substitute lower grades, lower priced species, or nonwood materials for these higher priced appearance grades. This possibility may cast doubt on the permanence of the price premiums associated with appearance grade lumber. The real price premiums paid for appearance grades of lumber from January 1989 through October 1995 were substantial and quite stable during a widely fluctuating softwood lumber market. We found little or no evidence to suggest that these premiums are either "temporary" or are in decline. Although care is required in extrapolating these findings over future long time horizons typically required for silvicultural investments in wood quality changes, the results of this study may help forest managers better understand the possible magnitude of real price premiums to use in evaluating those investments. West. J. Appl. For. 14(2):73-79.</t>
+          <t>PurposeIn radiation oncology, peer review is a process where subjective treatment planning decisions are assessed by those independent of the prescribing physician. Before March 2020, all peer review sessions occurred in person; however due to the COVID-19 pandemic, the peer-review workflow was transitioned from in-person to virtual. We sought to assess any differences between virtual versus in-person prospective peer review.Methods and MaterialsPatients scheduled to receive nonemergent nonprocedural radiation therapy (RT) were presented daily at prospective peer-review before the start of RT administration. Planning software was used, with critical evaluation of several variables including treatment intent, contour definition, treatment target coverage, and risk to critical structures. A deviation was defined as any suggested plan revision.ResultsIn the study, 274 treatment plans evaluated in-person in 2017 to 2018 were compared with 195 plans evaluated virtually in 2021. There were significant differences in palliative intent (36% vs 22%; P = .002), but not in total time between simulation and the start of treatment (9.2 vs 10.0 days; P = .10). Overall deviations (8.0% in-person vs 2.6% virtual; P = .015) were significantly reduced in virtual peer review.ConclusionsProspective daily peer review of radiation oncology treatment plans can be performed virtually with similar timeliness of patient care compared with in-person peer review. A decrease in deviation rate in the virtual peer review setting will need to be further investigated to determine whether virtual workflow can be considered a standard of care.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2331539135</t>
+          <t>https://openalex.org/W2020230501</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/2171428</t>
+          <t>https://doi.org/10.1186/1472-6807-7-41</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Fletcher &amp; Christian (1997)</t>
+          <t>Dergez et al. (2007)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Black Soldiers in Jim Crow Texas, 1899-1917.</t>
+          <t>Differential scanning calorimetry study of glycerinated rabbit psoas muscle fibres in intermediate state of ATP hydrolysis</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>In Jim Crow Texas, black Regular Army units returning victoriously from Cuba and the Philippines collided head-on with local segregation and bigotry. As the soldiers' expectations of dignity and respect met with racial restrictions and indignities from civilian communities, a series of violent episodes erupted. Although confrontations also occurred elsewhere, the most notorious were in Texas, beginning with an 1899 clash between white lawmen in Texarkana and black soldiers riding a troop train west after returning from Cuba. The first truly violent episode came in 1906, when troops were accused of attacking Brownsville after civilian provocations. In 1917 a full-scale battle in Houston resulted in fifteen dead and twenty-one injured. Between 1899 and 1917, a series of other face-offs--some involving the complex relationships of blacks with local Hispanic populations--occurred when black soldiers stood up for their rights or their lives in San Antonio, Laredo, El Paso, Rio Grande City, Del Rio, and Waco. This little-known story, never before told in full, illuminates the collision of racial discrimination with racial pride and reveals once again the petty biases, institutionalized racism, and mutual suspicions that have divided American society. But it is also a story of lofty aspirations too long delayed, of the transformation of a downtrodden race into a self-confident people, and of the noble attempt, however dangerous its means, to realize full citizenship. Clearly written and impressively researched, Black Soldiers in Jim Crow Texas traces the relationship of the four black military regiments--the 24th and 25th Infantries and the 9th and 10th Cavalries--with white civilian communities in the period between the Spanish-American War and World War I. Drawn from previously unexploited sources, it fills a void in the increasing body of research on the black military and illuminates the magnitude of racial intolerance in early twentieth-century America. No other work has explored these issues in such depth and with such skill.</t>
+          <t>Abstract Background Thermal denaturation experiments were extended to study the thermal behaviour of the main motor proteins (actin and myosin) in their native environment in striated muscle fibres. The interaction of actin with myosin in the highly organized muscle structure is affected by internal forces; therefore their altered conformation and interaction may differ from those obtained in solution. The energetics of long functioning intermediate states of ATP hydrolysis cycle was studied in muscle fibres by differential scanning calorimetry (DSC). Results SETARAM Micro DSC-II was used to monitor the thermal denaturation of the fibre system in rigor and in the presence of nucleotide and nucleotide analogues. The AM.ADP.P i state of the ATP hydrolysis cycle has a very short lifetime therefore, we mimicked the different intermediate states with AMP.PNP and/or inorganic phosphate analogues V i and AlF 4 or BeF x . Studying glycerol-extracted muscle fibres from the rabbit psoas muscle by DSC, three characteristic thermal transitions were detected in rigor. The thermal transitions can be assigned to myosin heads, myosin rods and actin with transition temperatures (T m ) of 52.9 ± 0.7°C, 57.9 ± 0.7°C, 63.7 ± 1.0°C. In different intermediate states of the ATP hydrolysis mimicked by nucleotide analogues a fourth thermal transition was also detected which is very likely connected with nucleotide binding domain of myosin and/or actin filaments. This transition temperature T m4 depended on the mimicked intermediate states, and varied in the range of 66°C – 77°C. Conclusion According to DSC measurements, strongly and weakly binding states of myosin to actin were significantly different. In the presence of ADP only a moderate change of the DSC pattern was detected in comparison with rigor, whereas in ADP.P i state trapped by V i , AlF 4 or BeF x a remarkable stabilization was detected on the myosin head and actin filament which is reflected in a 3.0 – 10.0°C shift in T m to higher temperature. A similar effect was observed in the case of the nonhydrolyzable AMP.PNP analogue. Differential DSC measurements suggest that stabilization actin structure in the intermediate states of ATP hydrolysis may play an additional role in actin-myosin interaction.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4213349883</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.35615/epilia.2022.00319</t>
+          <t>https://openalex.org/W2348887171</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Kwon (2022)</t>
+          <t>Xia (2012)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>The Growing Need for a Transitional Age Program for Adolescents with Epilepsy in Korea</t>
+          <t>Consideration of Education Management Thinking Mode based on Adolescent Transition Period</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>서론 일반적으로 소아는 정체된 상태로 있거나 혹은 퇴행하는 성인과Epilepsy is one of the most common chronic neurological conditions in adolescents and young adults.The transition from the pediatric to the adult health care system can be a major challenge for most adolescents with epilepsy and their families.An unsuccessful transition can have a detrimental effect on them as individuals, as well as on their families.Generally speaking, pediatric epileptologists often feel uncomfortable when they deal with adolescents and young adults with epilepsy due to unfamiliarity with the common psychosocial problems and diseases of adulthood, while adult epileptologists are unfamiliar with childhood-specific epilepsy syndromes and, in many cases, patients' previous history.Therefore, a transitional age program (TAP) is imperative to remediate the care gap and facilitate a smooth transition from the pediatric to the adult care system.A TAP is a set of processes that cover all the areas of the transition, including an assessment of transition readiness, rethinking the diagnosis using currently available tests, a reevaluation for neurobehavioral comorbidities, education, setting goals, and providing recommendations.Furthermore, the TAP should start as early as possible and must be comprehensive, flexible, and patient-centered.The cost-benefit effectiveness of TAPs requiring a multidisciplinary team has not been fully evaluated, but TAPs are becoming ubiquitous, especially in developed countries.I think that TAPs must be implemented in practical ways for adolescents and young adults with epilepsy at tertiary epilepsy centers as soon as possible in Korea.</t>
+          <t>The transition from high school to university is essential for the adolescents.This paper focuses on the consideration of adolescent education management in this special period.It is significant for the educators to integrate the concentrated and divergent thinking scientifically and effectively,in order to interpret the commonness and difference of adolescent cognitive styles and avoid the problems caused by subjective factors,and eventually reach the purpose of training imaginative and creative talents.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2582611117</t>
+          <t>https://openalex.org/W2592333264</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21697/zp.2011.11.2.13</t>
+          <t>https://doi.org/10.1201/9781315226255-12</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Machnikowska (2016)</t>
+          <t>Bodino (2017)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>NOWE PRAWO WŁASNOŚCI – PRZEKSZTAŁCENIA W STOSUNKACH WŁASNOŚCIOWYCH W POLSCE W LATACH 1944-1950</t>
+          <t>South Africa’s new challenges</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>NEW PROPRIETORSHIP – PRIVATIZATION TRANSFORMATIONS IN POLAND IN YEARS 1944-1950 Summary In the first years of the People’s Republic of Poland a partial change in the contents and the function of proprietorship occurred. The modification, in which the majority of the society believed for a long time, meant not only the introduction of new subjects under a given proprietorship, but also a real re-definition of the very notion of ownership. Then, shifts in restrictions imposed on proprietorship occurred. Before they were placed besides law, among other things in administrative regulations; as a result of the new solutions they have directly been included in proprietorship. This led to proportion changes between the rights and duties of owners and non-owners. Civil law tradition was abandoned, although it did not treat proprietorship as absolute law, but it did not impose any concreto limits. Civil law tradition accepted the assumption that the possible unlimited freedom of the proprietor connected with law’s flexibility is the characteristic feature of proprietorship. It proved that restrictions did not constitute the essence of ownership and they had a different role in it. Hence, it was underlined that the possible narrowing of the owner’s rights should have short-termed and individual character, established according to the law. Yet, the new transformations of proprietorship accepted a different assumption. The characteristic feature was that they were not distinctly visible and recognizable in the first years. They were not expressed in the theory of law while the thesis was developed in the sphere of politics and propaganda that its aim was to make proprietorship more wide spread and to enhance its social function. The political idea of proprietorship management appeared after many attempts taken up at the turn of the 40s and 50s. The referred theory of law was rather a false justification than the real, essential foundation of taken up activities at that time, as the new authorities did not manage to elaborate a coherent concept of socialist proprietorship fulfilling civil law criteria, even with the help of the Soviet achievements. Due to this reason slogans were mainly used, which were to signify the conformity of practice with the declaration of nationalization. In fact, they concentrated on the current property administration, property either taken over or controlled by the state. It was generally believed by the ruling body that proprietorship could be freely transformed without any negative consequences.</t>
+          <t>The purpose of this paper is to define whether and how it is possible to create inclusive connection spaces through planning, by analysing some of the most segregated cities in the world. The starting point is an overview of the current urban situation in South Africa, twenty years after the first democratic elections. Scholars argue that, due to a history of colonialism and apartheid, cities there are increasingly segregated and fragmented. At the same time the political agenda is struggling to address the process of transformation in order to mitigate spatial inequalities and promote urban integration, while on the other hand taking global interests into account. Through the examination of three examples this work attempts to identify some progress in the creation of inclusive spaces, while looking at the complexities involved in operating in a South African context.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2031520417</t>
+          <t>https://openalex.org/W3022347301</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0005-2736(82)90433-3</t>
+          <t>https://doi.org/10.1109/taes.2020.2991704</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Haeffner et al. (1982)</t>
+          <t>Wu &amp; Cheng (2020)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Difference in plasma membrane structure between two sublines of ehrlich-lettrè ascites tumor cells</t>
+          <t>Warm-Start Multihomotopic Optimization for Low-Thrust Many-Revolution Trajectories</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>The plasma membranes of the glycogen-free and the glycogen-containing subline of Ehrlich-Lettrè ascites cells were purified and compared with respect to their enzyme activity, chemical, lipid and protein composition, and membrane fluidity. Both membrane fractions differed in a number of parameters which are discussed as differences in the expression of malignant transformation of the two sublines. 1. The 5'-nucleotidase activity was 3-5 times higher and the sialic acid content 3-times lower in the glycogen-containing than in the glycogen-free subline. 2. Differences were also observed with respect to the phospholipid composition, that is in the relative proportions of mainly phosphatidylcholine, -inositol and -serine. 3. The fatty acid spectrum of the two sublines differed in the C-18 series and in the percentage of polyunsaturated acids, which was about 6% lower in the glycogen-containing line. 4. Measurements of fluorescence polarization (P) using 1,6-diphenyl-1,3,5-hextriene as probe generally gave higher P values, indicating a decreased membrane fluidity for the plasma membranes of the glycogen-containing subline both below and above the transition temperature at 33 degrees C. 5. Polyacrylamide gel electrophoresis revealed different protein patterns mainly in the molecular weight range of around 90 000 and in the range between 31 000 and 14 000.</t>
+          <t>Traditionally, fuel-optimal problems for low-thrust spacecraft transfers are connected with energy-optimal problems to increase the convergence possibility of indirect methods. However, for low-thrust many-revolution missions, it is still hard to resolve the energy-optimal problems in a fast and reliable manner due to the strong nonlinearity. To address this issue, a warm-start multihomotopic optimization approach is proposed in this article, wherein the Sundman transformation and multihomotopic techniques are used to connect the energy-optimal problems to linear ones with analytical solutions. This article focuses on the following three contributions. First, the energy-optimal control problems are transformed into true longitude-depended energy-optimal problems based on the homotopy to dynamical model and Sundman transformation, and the equivalence relations of the solutions before and after transformation are obtained analytically. Second, the problems are further connected with time-free energy-optimal problems based on a homotopy to the time constraint. Third, the time-free problems are linearized near a nominal trajectory, and the corresponding analytical solutions are obtained. Starting with the analytical solutions, the algorithm can gradually iterate back to the solutions of the original energy- and fuel-optimal problems. Since the whole transformation process is lossless (optimality is preserved under the transformation process), the developed warm-start multihomotopic algorithm enjoys the advantages on reliable convergence and high computational efficiency. Numerical simulations of Earth-orbit transfer missions from GTO to GEO are conducted by comparing with traditional methods, and the results are given to substantiate the effectiveness of the proposed warm-start multihomotopic method.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3124236583</t>
+          <t>https://openalex.org/W1981501111</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2118/50781-ms</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Ebrahim (2016)</t>
+          <t>Hayatdavoudi (1999)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>3D Printing: Digital Infringement &amp; Digital Regulation</t>
+          <t>Effect of Water-Soluble Gases on Production Decline, Production Stimulation, and Production Management</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>INTRODUCTION¶1 Guns. Body parts. Implants for medical uses. Apparel and fashion accessories. Jewelry. Artwork. What do these all have in common? Each is a 3D printed object that can quickly and easily be printed by Do It Yourself (DIY) consumers.1 3D printing has gained attention in the press recently, as commercially affordable additive manufacturing technology has become widely available. Hobbyists, enthusiasts, and artists are utilizing 3D printers to print objects for domestic and household uses. Additionally, the medical community has utilized 3D printing.2 3D printers can even be used to print other 3D printers.3¶2 The availability of 3D printing technology to consumer masses and the ability to create and almost immediately 3D print objects has created a revolution. The DIY community never had to worry about infringing on patents since their work was unlikely to draw the attention of patent owners; however, the consumer availability of 3D printing has enabled a DIY consumer to create a design in the form of a digital file that can be easily transmitted and made available to others. The digital file is called a Computer Aided Design (CAD) file, which is a virtual blueprint model that is used to produce 3D printed objects.4¶3 As 3D printers have become increasingly accessible to the public, websites and online platforms that enable sharing of CAD files have grown in popularity. These websites enable an easy means to upload, share, and download CAD files via the Internet, just as was done with digital music files. As a result, online social communities built around 3D printing are arising. 3D printing enables the DIY community and small, innovative companies to rapidly and electronically share their electronic designs with others around the world. Additionally, crowd-funding websites have successfully launched online campaigns aimed at reducing the cost of 3D printing, which allows even more people to access this technology.¶4 Moreover, physical products are already being designed, sold, and distributed on the computer and over the Internet, with end consumers only printing the physical manifestation of the product.5 In sum, the 3D printing revolution is enabling the consumer masses to easily create, develop, and print 3D objects as well as easily access, share, and modify electronic CAD files that enable printing.¶5 Given the ease with which physical objects can rapidly be replicated, reproduced and repaired, there are many unanswered questions with respect to intellectual property rights. In particular, the legal regimes that made sense in the traditional manufacturing world are being challenged in their attempted application to the digital manufacturing world. There are newfound challenges to the law that govern utility patents, copyrights, design patents, trademarks, and trade dress as it applies to 3D printing.¶6 Just like technological disruptions of the past, such as with the advent of the printing press, personal computing, and the Internet, the 3D printing revolution will also confront new issues at the intersection of technology, business, and law. With the rapid promotion of CAD files that enable printing of 3D objects, new issues will arise. There is not much jurisprudence regarding how patent law applies to 3D printing with respect to personal use. The Article analyzes some of the current scholarship on patent law in 3D printing and provides some new perspectives.¶7 Professors Timothy Holbrook and Lucas Osborn have published one major work in the area of 3D printing and patent infringement.6 Holbrook and Osborn point out that the line between digital and tangible has eroded in the world of 3D printing and also provide an analysis supporting the idea that digital files can infringe patent claims in 3D printing.7 However, there are still gaps in their analysis, and there are unanswered questions concerning the best way to regulate digital patent infringement in the realm of 3D printing. …</t>
+          <t>Abstract With the help of industry and others, the author of this paper has compiled 16 years of field production and several pressure buildup data from two wells. These wells have been drilled in offshore Louisiana. The production and well test data cover both pre and post acidizing periods. The first objective of this work was to investigate whether the monthly production data revealed any hidden precursor (signature) to the impending Formation Damage and drop in oil production. If successfully achieved, the precursor would obviously assist us in two ways. One such way is that it would help us understand the reasons for a premature drop in Oil Production or Formation Damage. The other is that it would give us adequate time to take the necessary, preventive remedial action(s) prior to the onset of a serious Damage or an unusual drop in oil and gas production. The second objective was to introduce a simple technique, compatible with the present methods for interpreting the important features of the production and well test plots. The author, in this paper, has combined the Fourier analysis and the Action Parameter analysis for this purpose. These simple technique help us to manage the production strategy optimally as a part of the overall reservoir management package. Again, this can be accomplished in two ways. It could be done on a real time basis by automatically controlling the pressure and flow rate of all the wells in the reservoir(s). Another way involves a real time production optimization basis by installing modern, imbedded, on-site computers connected via an automatic control to a closed loop servo-controlled choke and separator system on an individual well. This well can easily be networked with other wells in the reservoir. Interestingly, for the first objective, the Fourier periodigram coefficients, frequency, and phase changes of the gas-water ratio of the monthly production data indicate a certain predictable precursor (signature) to the drop in oil production and Formation Damage prior to the onset of the real production decline. In this work, for the sake of brevity, the author has only resorted to the Fourier Phase changes in the analysis of Oil Production data. Furthermore, it is found that the existence of the precursor may be attributable to some portion of the reservoir "drive" energy that is wasted either as a pressure drop through the well down hole or surface equipment or in the perforation and formation as a total skin (completion, turbulence, formation damage, etc). The source of this energy may be rooted in the difference between the solubilities of methane, CH4, carbon dioxide, CO2, and other gases in the reservoir water. The results of the Fourier analysis of the monthly production data could be used to control the worsening or remedying of the Formation Damage before the implementation of some low cost remedial measures that turn into a costly or ineffective stimulation (see post-stimulation Oil Production data in Well No. 1.), or premature workover. Furthermore, this type of analysis could provide the industry with an efficient means of real time production optimization. For achieving the second objective, the author has used a simple Hamilton Integral in the form of an Action Parameter, As=pt2, or As= Et, (As = Action Parameter, p = power, E = energy, and t = time). When this integral is combined with Fourier analysis for the pressure build-up data, it reveals several clear results on the well test plots. The first result of this technique is the appearance of a sharp demarcation line between the transient, pseudosteady-state, and steady state times and their attributes like storage, boundary effect, seals, transition, onset of radial flow, dual porosity effects, and other aspects of well tests on the plots. The clarity of the results may be attributable to the sensitivity of the Action Parameter to time event. The many features of the new analysis technique may be used as a suitable substitute for a first or second "derivative" plot when the standard derivative plots remain too "rough and wavy" and ambiguous. The second result of this technique is the appearance of a clear and well-behaved slope of the steady state portion of the build-up plot which may be, again, a suitable substitute for when, for example, the steady state portion of the standard Horner plot cannot be used or interpreted clearly. It is expected that this technique, with proper calibration with the Scale (−10 to +200) for the skin caused by Formation Damage, and other scales for Storage, Productivity Ratio, Production Efficiency, Post-stimulation effects and Stimulation Efficiencies, and other parameters, to give much clearer results than what is available to the industry at this time.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379984823</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/pandafpe57779.2023.10141206</t>
+          <t>https://openalex.org/W1578539318</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Feng et al. (2023)</t>
+          <t>Herzog (2004)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Research on Energy Big Data Sharing and Application under the Carbon Peaking and Carbon Neutrality Goals</t>
+          <t>The Effect of Student Satisfaction on Freshman Retention in Undergraduate Athletic Training Education Programs</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>This paper proposes a reliable, feasible, efficient, and secure system for sharing and applying energy big data, which enables the cross-border convergence, sharing, integration, and innovative application of various energy big data. This system is essential to achieve carbon peaking and carbon neutrality goals, as well as to thoroughly implement the Four Revolutions and One Cooperation energy security strategy. By following the fused development of the energy and digital revolutions, this system facilitates the integration of energy big data and its innovative application to promote sustainable development.</t>
+          <t>The Effect of Student Satisfaction on Freshman Retention in Undergraduate Athletic Training Education Programs Student retention is an issue facing higher education administrators that cannot be ignored. Program directors of athletic training education programs (ATEP) must become aware of the factors which influence retention and develop strategies to reduce attrition. Because the majority of attrition occurs during the freshman year, the focus of retention programs should be on the first year of the students’ college experience. To better understand why they persist in undergraduate ATEPs, freshman students (n = 603) were surveyed to determine their level of satisfaction with various aspects of the program as well as whether or not they chose to apply to the program during the spring semester. Of the surveys that were mailed, 347 were returned for a 58% return rate. Significant differences were found at the p &lt; .01 level with regard to their satisfaction with their intellectual integration, social integration, commitment, and clinical education experience. Significant differences between groups were also noted at the p &lt; .01 and p &lt; .05 levels for the students’ college cumulative grade point average (GPA) and their athletic training and science course grades. This study provides sufficient support for the development of retention programs to enhance student satisfaction with the freshman experience in ATEPs and in turn, increase the retention rates as well. Enriched by an evidence-based and coordinated retention program, the freshman experience can be a stimulating and fulfilling transition into college life as an athletic training student.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383683451</t>
+          <t>https://openalex.org/W2160359554</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://doi.org/10.32744/pse.2023.3.35</t>
+          <t>https://doi.org/10.1002/app.1703</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Zubko et al. (2023)</t>
+          <t>Acar (2001)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>University media education in the digital epoch: methods and practices for training future communication professionals</t>
+          <t>Synthesis and swelling characteristics of poly(4‐vinylpyridine) gels crosslinked by irradiation</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Introduction. Digital transformation of educational technologies and student teaching methods is highly relevant for the university education of future media communicators – journalists, public relations and advertising specialists, since communication professionals actively use the opportunities of digital environment in their work. The purpose of the present research is identifying the digital competence level of communication-profile students, their preferences and reaction with respect to the methods of teaching core disciplines. Methods. The research was based on the method of scientific generalisation and theoretical analysis of the Russian and foreign scientific literature in the area of digital transformation of the media sphere, media education methodology, digitalisation of educational practices. A total of 150 undergraduate (Bachelor degree course) and graduate (Master degree course) students of the Higher School of Media Communications and Public Relations of the Institute of Humanities under Peter the Great St. Petersburg Polytechnic University (Russian Federation), majoring in “Advertising and public relations in sectoral areas”, “Advertising and public relations in the international domain”, took part in the survey and the experiment. Results. Despite the objectively high level of students’ approval of the role and potential of digitalisation of the educational process, 79.3% of the surveyed students of St. Petersburg Polytechnic University prefer the training format where the teacher uses innovative technologies; thus one can observe a situation of gradual introduction of innovative technologies in the educational practice. A low level of the students’ use of up-todate technologies, programmes and services in performance of their assignments was recorded: 6.6% of the total number of surveyed students used neural networks; 10.7% of the 100% respondents used 3D-modelling software in their learning activities; 24.7% of the students applied interactive map creation technologies in the learning process. The priority of incorporating digital technologies in the learning process is largely focused on teaching the students to work with corporate learning services and platforms of the university. As a recommendation, the use of in-demand digital technologies for application in the learning process (neural networks, block designers for generation of multimedia content, interactive map creation services, software for development of virtual tours, interactive posters, etc.) is proposed and substantiated. Conclusion. A number of recommendations have been formulated for higher educational institutions, research and pedagogical staff engaged in professional training of future media specialists, with regard for the need for more extensive use of digital technologies in the educational process.</t>
+          <t>Abstract The effect of irradiation under vacuum on thermal properties and swelling behavior on poly(4‐vinylpyridine) (P4VP) was investigated. The gel percentage in the irradiated P4VP films was determined by Soxhlet extraction. UV spectroscopy was also used to determine sol percentage, which decreased as the radiation dose increased. The changes in thermal properties, such as glass‐transition temperature ( T g ), were followed by differential scanning calorimetry before and after Soxhlet extraction. The gels prepared after irradiation were characterized with respect to their swelling properties and network structures. © 2001 John Wiley &amp;amp; Sons, Inc. J Appl Polym Sci 81: 2609–2614, 2001</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4205898343</t>
+          <t>https://openalex.org/W4319786062</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/wlt.2016.0264</t>
+          <t>https://doi.org/10.1080/00295639.2022.2153617</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>McKenzie (2016)</t>
+          <t>Kowal et al. (2023)</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>The Half-Life of a Lapsed Ex-Fisher</t>
+          <t>Enhancing Monte Carlo Workflows for Nuclear Reactor Analysis with Metamodel-Driven Modeling</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>WORLDLITERATURETODAY.ORG 15 top photo : fiona bazter ( lickr . com / fiona _ baxter ) author photo : suzanne steele Last names weigh heavily and are important in Latin America, and Luiselli doesn’t mean anything to anyone. Being a middle-class Mexican, from a family of uneducated European migrants who arrived in Mexico City in the early twentieth century, mixed with “indigenous ” Mexicans, and never really “made it,” it was somehow expected of me to finish what my ancestors had started. It was a kind of duty passed on to me. Those before me had worked their necks off so my generation could have a better life. They went through wars and revolutions, they worked since they were six or seven years old, they sustained families of up to ten to twelve children—and still found time to do social service: they were heroic in a way that my generation would never be able to even come close to. So yes, I grew up with a sense of duty toward my ancestors, a sense of having to live up to their expectations , even if most of them died before I was born. I don’t think my late grandparents would care much for any of my accomplishments as a writer. “She writes these strange little experimental books that she then has to overexplain,” they probably say to each other, full of irony, wherever they are. But they would all proudly think of me as someone who finally went to a good school. NR: Do you think you’ll ever translate someone else’s work? If so, what author and book would you like to work on? VL: About ten years ago I translated several poems by Galway Kinnell. I published my translations of a few of his poems in magazines but never managed to convince anyone to publish an entire book. When he died last year, I wallowed in a sense of having failed him. I had met him when, in my early twenties, I interviewed him and told him I would take his work to Spanish readers. I never did, really. I still think The Book of Nightmares is a masterpiece, a testimony of the atrocities of twentieth-century wars and the desolation they left behind them. I was also about to translate Anne Carson’s Nox into Spanish, but my editors at Sexto Piso never managed to buy the rights to the book. I would have loved to work with her writing. She is one of the few writers I admire fully, without any reservations. Kinnell used to say that translation was a way of allowing someone to influence and change you as a writer. I would have loved to let Carson’s work enter my own and leave an imprint there. September 2015 The Half-Life of a Lapsed Ex-Fisher by Stephanie McKenzie i He once sold a portion of himself to a fish packing plant, slipped in the crates of the headless and dressed when all eyes were bludgeoned. Cloudy. Between the jagged tooth of dogfish he placed the holy gift of tongues, crescent moons from whoring acts. He wished to sail to Denmark or Japan, swear with sailors there. ii Righteous in ghettos he cast anchors deep in wet sidewalks. Fish twisted like humans, reeked of truth on the ground. Some fell on their knees in frozen fish sections, cast nets to catch loonies or bills. He tossed coins in the hold of a bus, snarled “float me the hell outa here.” His eyes cut steaks out of them. Stephanie McKenzie (stephaniemaymckenzie.com) has published three books of poetry, all with Salmon Poetry (Cliffs of Moher, Ireland). Recently, McKenzie received first place for her poetry in Room Magazine’s 2015 fiction and poetry contest. ...</t>
+          <t>AbstractMonte Carlo codes are essential components of many reactor physics simulation workflows as high-fidelity continuous-energy neutron transport solvers. Among Monte Carlo radiation transport codes, MCNP is particularly notable due to its diverse simulation capabilities, large user base, and long validation history. Despite being a powerful simulation tool, MCNP provides limited capabilities to allow automated execution, model transformation, or support for user-defined logic and abstractions that limit its compatibility with modern workflows. To better integrate MCNP into a modern scientific workflow, we have developed an intuitive yet full-featured MCNP Application Program Interface (API) in Python, named MCNPy, which provides a specialized set of classes for MCNP input development. Moreover, to guarantee that our reading, writing, and modeling capabilities remain self-consistent (and to render the huge scope of the MCNP API manageable), we have adopted a strategy of model-driven software development in which a generalized model of the MCNP input format has been created. From this generalized model, or “metamodel,” problem-specific implementations such as an engine for input validation or a codebase for programmatic operations may be automatically generated. Since MCNPy primarily acts as a Python front-end to the underlying Java API that directly interfaces with the metamodel, it is intrinsically linked to the metamodel and thus remains maintainable. With MCNPy, users can programmatically read, write, and modify any syntactically valid MCNP input file regardless of its origin. These capabilities allow users to automate complicated tasks like design optimization and model translation for nuclear systems. As examples, this work demonstrates the use of MCNPy to find the critical radius of a plutonium sphere and to translate a 9000+ line MCNP input file into a corresponding OpenMC model.Keywords: MCNPAPIPythonmetamodelMCNPy AcknowledgmentsThis material is based upon work supported by the NRC Office of Nuclear Regulatory Research under award number 31310020M0006. Partial support for this work also came from the U.S. Department of Energy Office of Nuclear Energy under award number DE-NE0008707. This research was performed under appointment of the third author to the Rickover Fellowship Program in Nuclear Engineering sponsored by the Naval Reactors Division of the National Nuclear Security Administration.Disclosure StatementNo potential conflict of interest was reported by the authors.Additional informationFundingThis work was supported by the U.S. Nuclear Regulatory Commission [31310020M0006]; the U.S. Department of Energy Office of Nuclear Energy’s Nuclear Energy University Programs [DE-NE0008707].</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2069874240</t>
+          <t>https://openalex.org/W3111246898</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1089/jpm.2009.0343</t>
+          <t>https://doi.org/10.24071/ijasst.v2i2.2519</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Alcorn et al. (2010)</t>
+          <t>Panuluh (2020)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>“If God Wanted Me Yesterday, I Wouldn't Be Here Today”: Religious and Spiritual Themes in Patients' Experiences of Advanced Cancer</t>
+          <t>The Lagrangian and Hamiltonian for RLC Circuit: Simple Case</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>This study sought to inductively derive core themes of religion and/or spirituality (R/S) active in patients' experiences of advanced cancer to inform the development of spiritual care interventions in the terminally ill cancer setting.This is a multisite, cross-sectional, mixed-methods study of randomly-selected patients with advanced cancer (n = 68). Scripted interviews assessed the role of R/S and R/S concerns encountered in the advanced cancer experience. Qualitative and quantitative data were analyzed. Theme extraction was performed with interdisciplinary input (sociology of religion, medicine, theology), utilizing grounded theory. Spearman correlations determined the degree of association between R/S themes. Predictors of R/S concerns were assessed using linear regression and analysis of variance.Most participants (n = 53, 78%) stated that R/S had been important to the cancer experience. In descriptions of how R/S was related to the cancer experience, five primary R/S themes emerged: coping, practices, beliefs, transformation, and community. Most interviews (75%) contained two or more R/S themes, with 45% mentioning three or more R/S themes. Multiple significant subtheme interrelationships were noted between the primary R/S themes. Most participants (85%) identified 1 or more R/S concerns, with types of R/S concerns spanning the five R/S themes. Younger, more religious, and more spiritual patients identified R/S concerns more frequently (beta = -0.11, p &lt; 0.001; beta = 0.83, p = 0.03; and beta = 0.89, p = 0.04, respectively).R/S plays a variety of important and inter-related roles for most advanced cancer patients. Future research is needed to determine how spiritual care can incorporate these five themes and address R/S concerns.</t>
+          <t>The Lagrangian and Hamiltonian for series RLC circuit has been formulated. We use the analogical concept of classical mechanics with electrical quantity. The analogy is as follow mass, position, spring constant, velocity, and damping constant corresponding with inductance, charge, the reciprocal of capacitance, electric current, and resistance respectively. We find the Lagrangian for the LC, RL, RC, and RLC circuit by using the analogy and find the kinetic and potential energy. First, we formulate the Lagrangian of the system. Second, we construct the Hamiltonian of the system by using the Legendre transformation of the Lagrangian. The results indicate that the Hamiltonian is the total energy of the system which means the equation of constraints is time independent. In addition, the Hamiltonian of overdamping and critical damping oscillation is distinguished by a certain factor.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3103406506</t>
+          <t>https://openalex.org/W61953674</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41563-020-0706-8</t>
+          <t>https://doi.org/10.4438/1988-592x-re-2011-356-040</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Choi et al. (2020)</t>
+          <t>Ruiz &amp; Ignácio (2011)</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Imaging and control of critical fluctuations in two-dimensional magnets</t>
+          <t>Un giro copernicano en la enseñanza universitaria: formación por competencias</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Strong spin fluctuations are expected near the thermodynamic critical point of a continuous magnetic phase transition. Such critical spin fluctuations are highly correlated and in principle can occur at any time- and length-scales; they govern critical phenomena and potentially can drive new phases. Although theoretical studies have been made for decades, direct observation of critical spin fluctuations remains elusive. The recent discovery of two-dimensional (2D) layered magnets, in which spin fluctuations significantly modify magnetic properties as compared to their bulk counterparts and integration into heterostructures and devices can be easily achieved, provides an ideal platform to investigate and harness critical spin phenomena. Here we develop a fast and sensitive magneto-optical imaging microscope to achieve wide-field, real-time monitoring of critical spin fluctuations in single-layer CrBr3, which is a 2D ferromagnetic insulator. We track the critical phenomena directly from the fluctuation correlations and observe both slowing-down dynamics and enhanced correlation length. Through real-time feedback control of critical spin fluctuations, we further achieve switching of magnetic states solely by electrostatic gating without applying a magnetic field or a Joule current. The ability to directly image and control critical spin fluctuations in 2D magnets opens up exciting opportunities to explore critical phenomena and develop applications in nanoscale engines and information science.</t>
+          <t>espanolLa implementacion del enfoque de competencias en la ensenanza universitaria supone situarla en conformidad con las nuevas necesidades y demandas que se derivan de la sociedad de la informacion. El objetivo de este articulo es avanzar en esta innovadora direccion proponiendo un nuevo modelo de ensenanza universitaria fundamentado y contrastado en la practica educativa. Despues de describir un enfoque ecosistemico de las competencias en donde se indican los rasgos que las definen, se propone formular los objetivos formativos a partir de la distincion de los elementos que los integran. En paralelo, se plantea la pertinencia de seleccionar y organizar los contenidos academicos tomando como base modulos disciplinares o, mejor aun interdisciplinares, estructurados en nucleos problematicos y redes de problemas. Asimismo, se presenta una metodologia didactica innovadora que promueve un aprendizaje activo, reflexivo y autentico basado en la investigacion colaborativa de los estudiantes tomando como base distintas fuentes de informacion: impresas, audiovisuales, informaticas e institucionales. Por ultimo, se describe un enfoque holistico para la evaluacion de la adquisicion de las competencias en el que se distinguen tres momentos claves: evaluacion diagnostica, evaluacion formativa y evaluacion sumativa. Para realizar esta compleja y rigurosa valoracion del aprendizaje academico se indican una serie de tecnicas e instrumentos que permiten una evaluacion autentica puesto que integran tanto evidencias de conocimiento como evidencias de desempeno. Este nuevo modelo esta siendo implementado en algunas materias de distintas facultades de la Universidad de Sevilla (Pedagogia, Psicologia, Odontologia, Economicas �fase inicial�, entre otras). Los resultados obtenidos demuestran que se incrementa el nivel y calidad del aprendizaje academico en cuanto que los estudiantes logran adquirir las competencias previstas. El articulo concluye senalando la necesidad de que este reciente enfoque pedagogico este sustentado en un cambio profundo en tres componentes basicos del sistema convencional de Educacion Superior: estructura institucional, cultura academica y curriculo universitario. EnglishImplementation of the competence approach at the university teaching level means enabling university teaching to equal the new needs and demands of the information society. The aim of this paper is to move in this innovative direction by proposing a new model of university teaching based on and tested in educational practice. An eco-systemic competencebased approach is described, and the approach�s defining features are given. Educational aims are then formulated, starting with a map of their constituent elements. A proposal is made regarding the validity of selecting and organizing academic contents on the basis of disciplinespecific or, even better, interdisciplinary modules structured into core problems and problem networks. Likewise, an innovative didactic methodology is presented, which promotes active, reflexive, true learning based on cooperative student research, on the basis of different sources of information: printed matter, audiovisuals, computerized sources and institutional sources. Lastly, a holistic focus is described for evaluating competence acquisition, in which three key points in time are distinguished: diagnostic evaluation, formative evaluation and additive evaluation. A series of techniques and instruments are outlined for performing this complex, rigorous evaluation of academic learning. These techniques and instruments make it possible to conduct a true evaluation, because they incorporate knowledge evidence and performance evidence at the same time. This new model is being implemented in a number of subjects at different schools at the University of Seville (inter alia, the School of Education, the School of Psychology, the School of Odontology and the School of Economics �undergraduate phase). Results show increases in the level and quality of academic learning as students master expected competences. The paper ends by pointing out the need for this brand-new pedagogical approach to be based on a deep change in three key elements of the conventional higher education system: institutional structure, academic culture and university curriculum.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2019259807</t>
+          <t>https://openalex.org/W2058754014</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-3010.2008.00694.x</t>
+          <t>https://doi.org/10.1111/j.1600-0633.2012.00583.x</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Buttriss (2008)</t>
+          <t>McGarvey (2012)</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Health policy set to tackle obesity</t>
+          <t>Differential saturation of &lt;scp&gt;P&lt;/scp&gt;acific &lt;scp&gt;N&lt;/scp&gt;orthwest and &lt;scp&gt;S&lt;/scp&gt;outheast (&lt;scp&gt;USA&lt;/scp&gt;) fish assemblages</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>As the Cabinet Office report Food: an analysis of the issues (Cabinet Office 2008), published in January 2008, makes plain, from the austerity of the post-war years, when almost a third of disposable income was spent on food, the modern consumer now has access to a wide choice of safe and affordable food and drink, and benefits from investment in product innovation and reformulation on the part of food manufacturers and from a highly competitive grocery market. But at the same time, sustainability of public health is threatened by the trends in obesity and type 2 diabetes and in particular the metabolic health of children and young people. Furthermore, in many Western populations, including the UK, the age profile of the population is changing – people are living longer but much of the extra lifespan is not spent in good health, resulting in implications for public health expenditure. Age-related change in health and disability was the theme of the British Nutrition Foundation's Annual Lecture, given by Professor Kay-Tee Khaw last November, who posed the question: ‘Is ageing modifiable?’ (see Khaw 2008). An ageing population also has other effects on the economy (e.g. in relation to pension requirements and the need for resource planning). The challenge to all those engaged in food and health policy and food provision is to ensure that greater recognition is attached to the linkages between food, nutrition, physical activity and health, that the food industry continues to expand the repertoire of healthier products available and that such products progressively dominate, and that those responsible for the built environment and transport policy in our town centres contribute to a far greater extent than is currently the case to facilitating regular physical activity. A long overdue cross-government strategy (for England) to tackle obesity was published at the beginning of the year: Healthy weight, Healthy lives (Department of Health and Department of Children, Schools and Families 2008), and the Food Standards Agency (FSA) has announced its plans to tackle high-saturated-fatty-acid intakes within the context of its Saturated Fat and Energy Intake Programme (FSA 2008a). The key themes are outlined below, but achievement of these plans will require a concerted effort across government and a genuine partner approach involving a wide range of stakeholders. The transformation of the food supply with respect to trans fatty acids demonstrates what the food industry can achieve on its own, without legislative pressure, when the scientific evidence is robust. In February, the FSA published a response from the Secretary of State for Health, Alan Johnson, to the Agency's December 2007 recommendation that mandatory restrictions on trans fatty acids are not necessary. The letter expresses the Secretary of State's support for the FSA's recommendation and agrees that the focus should now be on reducing saturates in the diet through voluntary measures, while maintaining the progress already made on trans fats (see http://www.food.gov.uk/multimedia/pdfs/ajtransfatletter080110.pdf). The background to the trans issue is discussed in a News and Views article in this issue (see Denny 2008). Healthy weight, Healthy lives is a cross-government strategy for England published by the Department of Health and Department of Children, Schools and Families (2008). Helped by a panel of experts, the government promises to publish annually an assessment of the progress it is making in halting, and then turning around, the rise in excess bodyweight. Ministers will use this annual assessment to develop and intensify their policy focus. Below is a summary of the key themes of the report. Immediate plans are to: identify at-risk families as early as possible and promote breastfeeding as the norm for mothers; give better information to parents about their children's health by providing parents with their child's results from the National Child Measurement Programme (see The Information Centre for Health and Social Care 2008); invest to ensure that all schools are healthy schools, including making cooking a compulsory part of the curriculum by 2011 for all 11- to 14-year-old children; ask all schools to develop healthy lunchbox policies, so that those not yet taking up school lunches are also eating healthily; develop tailored programmes in schools to increase the participation of obese and overweight pupils in PE and sporting activities; invest £75 million in an evidence-based marketing programme which will inform, support and empower parents in making changes to their children's diet and levels of physical activity; invest in improving cycling infrastructure and skills in areas where child weight is a particular problem, as part of the recently announced package of further funding of £140 million for Cycling England. Immediate plans are to: finalise a Healthy Food Code of Good Practice, in partnership with the food and drink industry, and other</t>
+          <t>Abstract Plots of local versus regional richness have been used to test whether assemblages are ‘saturated’ with species. However, the validity of these tests is limited by scale‐dependence and arbitrarily defined sampling units, statistical autocorrelation between local and regional richness data, and the confounding effects of propagule pressure. In this study, local versus regional richness plots were used to test the saturation hypothesis for P acific N orthwest and S outheast ( USA ) fish assemblages, taking care to account for each of the above problems. Specifically, longitudinal river zones were used to ensure that the regional sampling units were not scale‐dependent or biologically arbitrary. A log‐ratio transformation was used to remove autocorrelation from the local and regional richness data. And a comprehensive fish stocking database was used to account for propagule pressure. Results suggest that the P acific N orthwest fish assemblages, which have low native richness, are not saturated, but the species‐rich S outheast assemblages are at or approaching saturation.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1554434988</t>
+          <t>https://openalex.org/W2113708991</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1001/archneur.58.12.1985</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>강옥선 (2002)</t>
+          <t>Petersen et al. (2001)</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>영국 낭만시에서 여성의 목소리 읽기 : 애너 바볼드의 후기시를 중심으로</t>
+          <t>Current Concepts in Mild Cognitive Impairment</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>The literary canon of romanticism has so far been centered on masculine romanticism. It is necessary to discover the neglected feminine voice in English Romanticism. The feminine voice describes the feminine values, focusing on female freedom and social revolution. Women romantic poets celebrated the feminine moral sensibility by equating virtue with compassion for others and peaceful co-existence in their poetic texts. There is no possibility for appreciating hope of achieving self identification and social change without reading the feminine voice in English romanticism. Anna Barbauld (1743-1825) often voiced her belief in the freedom of mind, which is the genesis of all social reform. This paper attempts to read the feminine voice in English romantic poetry, focusing on Barbauld’s later poems. Barbauld wrote the prophecy of the end of the British empire in her later poem, “Eighteen Hundred and Eleven,” suggesting that its failure was caused due to a result of the male-centered values, such as destructive desire and profit motive. In this poem, Barbauld’s voice for resistance in male dominated society warns the dangers of commerce, emphasizing the negative aspects within commerce. Barbauld’s poems show the feminine moral sensibility such as ethics of care as opposed to ethics of justice in the commercial and industrial society. The feminine voice in Barbauld’s later poems is distinctly claiming the feminine role as moralist to achieve a moral society in English romantic age.</t>
+          <t>The field of aging and dementia is focusing on the characterization of the earliest stages of cognitive impairment. Recent research has identified a transitional state between the cognitive changes of normal aging and Alzheimer's disease (AD), known as mild cognitive impairment (MCI). Mild cognitive impairment refers to the clinical condition between normal aging and AD in which persons experience memory loss to a greater extent than one would expect for age, yet they do not meet currently accepted criteria for clinically probable AD. When these persons are observed longitudinally, they progress to clinically probable AD at a considerably accelerated rate compared with healthy age-matched individuals. Consequently, this condition has been recognized as suitable for possible therapeutic intervention, and several multicenter international treatment trials are under way. Because this is a topic of intense interest, a group of experts on aging and MCI from around the world in the fields of neurology, psychiatry, geriatrics, neuropsychology, neuroimaging, neuropathology, clinical trials, and ethics was convened to summarize the current state of the field of MCI. Participants reviewed the world scientific literature on aging and MCI and summarized the various topics with respect to available evidence on MCI. Diagnostic criteria and clinical outcomes of these subjects are available in the literature. Mild cognitive impairment is believed to be a high-risk condition for the development of clinically probable AD. Heterogeneity in the use of the term was recognized, and subclassifications were suggested. While no treatments are recommended for MCI currently, clinical trials regarding potential therapies are under way. Recommendations concerning ethical issues in the diagnosis and the management of subjects with MCI were made.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1637042773</t>
+          <t>https://openalex.org/W2941955281</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://doi.org/10.6092/issn.1972-5787/3887</t>
+          <t>https://doi.org/10.1016/j.jhep.2019.04.002</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Néron (2013)</t>
+          <t>Lemaigre (2019)</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>A Formal Proof of Square Root and Division Elimination in Embedded Programs</t>
+          <t>Mechanical stimuli control liver homeostasis</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>The use of real numbers in a program can introduce differences between the expected and the actual behavior of the program, due to the finite representation of these numbers. Therefore, one may want to define programs using real numbers such that this difference vanishes. This paper defines a program transformation for a certain class of programs that improves the accuracy of the computations on real number representations by removing the square root and division operations from the original program in order to enable exact computation with addition, multiplication and subtraction. This transformation is meant to be used on embedded systems, therefore the produced programs have to respect constraints relative to this kind of code. In order to ensure that the transformation is correct, i.e. preserves the semantics, we also aim at specifying and proving this transformation using the PVS proof assistant.</t>
+          <t>F-actin dynamics regulates mammalian organ growth and cell fate maintenanceJournal of HepatologyVol. 71Issue 1PreviewCell behavior is powerfully regulated by the mechanical properties of the microenvironment. For example, seminal studies indicated that extracellular matrix (ECM) stiffness and the resulting cell geometry can drive the choice between proliferation, cell death or differentiation, often dominating soluble cues and oncogenes.1–7 The current model explaining these observations is that cells probe the physical properties of the microenvironment by exerting contractile forces on adhesion complexes generated by their actomyosin cytoskeleton. Full-Text PDF Mechanical cues are known to control cell proliferation, differentiation, migration and malignant transformation. Such cues include compression, shear stress from blood flow, and stretch generated by cell-cell or cell-extracellular matrix interactions. Physical stimuli of the microenvironment are sensed by cell membrane-associated proteins such as integrins, ion channels, or growth factor receptors. They are then propagated to the actomyosin cytoskeleton whose contractility regulates intracellular signalling pathways, eventually leading to changes in gene expression and determination of the appropriate cellular response.1Iskratsch T. Wolfenson H. Sheetz M.P. Appreciating force and shape-the rise of mechanotransduction in cell biology.Nat Rev Mol Cell Biol. 2014; 15: 825-833Crossref PubMed Scopus (470) Google Scholar, 2Martino F. Perestrelo A.R. Vinarsky V. Pagliari S. Forte G. Cellular mechanotransduction: from tension to function.Front Physiol. 2018; 9: 824Crossref PubMed Scopus (364) Google Scholar In this issue of the Journal of Hepatology, Pocaterra and coworkers investigate how the mechanical properties of hepatocytes maintain adult liver homeostasis.[3]Pocaterra A. Santinon G. Romani P. Brian I. Dimitracopoulos A. Ghisleni A. et al.F-actin dynamics regulates mammalian organ growth and cell fate maintenance.J Hepatol. 2019; 71: 130-142Abstract Full Text Full Text PDF PubMed Scopus (40) Google Scholar They address the issue by focusing on the role of CAPZ, an actin capping protein. Contraction of the actomyosin cytoskeleton occurs by sliding of actin fibres on myosin motor proteins. Actin self-assembles into filaments of which one extremity is called the pointed end, while the other extremity is called the barbed end. This terminology was inspired by the arrowhead-like shape created by the decoration of polymerized actin by myosin. Capping proteins bind the barbed end of polymerized actin and regulate the dynamics of actin assembly.[4]Edwards M. Zwolak A. Schafer D.A. Sept D. Dominguez R. Cooper J.A. Capping protein regulators fine-tune actin assembly dynamics.Nat Rev Mol Cell Biol. 2014; 15: 677-689Crossref PubMed Scopus (165) Google Scholar Therefore, CAPZ is an excellent entry point to dissect the role of actin dynamics, mechanotransduction and cell behaviour in hepatocytes. Pocaterra initiated their work by implementing a classical loss-of-function approach, and first demonstrated that the response to geometrical constraints differs between wild-type and CAPZ-deficient primary fibroblasts. The technical approach consisted in growing the cells on small or large fibronectin-coated adhesive areas, and comparing their behaviour on the two substrates. Wild-type fibroblasts proliferate on large adhesive areas, but display nearly no proliferation on small adhesive areas. In contrast, CAPZ knockout cells maintain a more significant level of proliferation both on large and small adhesive areas. Moreover, CAPZ inactivation was associated with increased contractility, and CAPZ-deficient cells exerted higher tension forces on their substratum, thereby validating CAPZ inactivation as a biologically significant approach for investigating the cells' response to mechanical cues. Yes associated protein (YAP) is a known mediator of mechanical stimuli, and, importantly, CAPZ knockout fibroblasts grown on small fibronectin-coated areas retain nuclear YAP, unlike wild-type cells. In other terms, CAPZ-deficient cells combine YAP activation with increased actomyosin contractility. Building further on these initial observations, Pocaterra and coworkers turned their attention to the liver, and generated a mouse line with liver-specific inactivation of CAPZ. Increased nuclear localization of YAP and activation of typical YAP target genes were monitored, in line with the findings on cultured fibroblasts. More spectacular, CAPZ knockout livers were twice the size of normal liver, and this was caused by intense hepatocyte overproliferation. There was also massive induction of progenitor-like cells, as a result from transdifferentiation of hepatocytes. Therefore, CAPZ regulates YAP activation and controls liver growth and hepatocyte differentiation. Metabolism in the liver is zonated, which means that hepatocytes display heterogeneous metabolic activities depending on t</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2995315818</t>
+          <t>https://openalex.org/W4240970154</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.echo.2019.09.021</t>
+          <t>https://doi.org/10.2196/preprints.10169</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Pockros et al. (2020)</t>
+          <t>Yang et al. (2018)</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>System-Wide Echocardiography Accreditation: Physician Perceptions and Concerns</t>
+          <t>Postoperative Home Monitoring After Joint Replacement: Retrospective Outcome Study Comparing Cases With Matched Historical Controls (Preprint)</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Echocardiography accreditation at outpatient imaging facilities has been reported to improve diagnostic quality, reduce interpretative variability, and increase imaging appropriateness.1Behera S. Smith S.N. Tracy T.A. Impact of accreditation on quality in echocardiograms: a quantitative approach.J Am Soc Echocardiogr. 2017; 30: 913-922Abstract Full Text Full Text PDF PubMed Scopus (10) Google Scholar, 2Daubert M.A. Yow E. Barnhart H.X. Quality improvement implementation: improving reproducibility in the echocardiography laboratory.J Am Soc Echocardiogr. 2015; 28: 959-968Abstract Full Text Full Text PDF PubMed Scopus (33) Google Scholar, 3Bhatia R.S. Milford C.E. Picard M.H. Weiner R.B. An educational intervention reduces the rate of inappropriate echocardiograms on an inpatient medical service.J Am Coll Cardiol Imaging. 2013; 6: 545-555Crossref Scopus (76) Google Scholar Historically, outpatient echocardiography facilities have individually applied for Intersocietal Accreditation Commission (IAC) accreditation. However, some health systems have recently experimented with “system-wide accreditation,” in which all of a hospital's affiliated echocardiography facilities apply for accreditation under the same IAC application and standards.4The Intersocietal Accreditation CommissionIAC standards and guidelines for adult echocardiography accreditation. Part A: organization. Section 6A: multiple sites (fixed and/or mobile).https://www.intersocietal.org/echo/standards/IACAdultEchocardiographyStandards2017.pdfDate accessed: August 7, 2019Google Scholar This new approach to accreditation may potentially reduce application expenditures, save resources, and promote collaborative cardiac care across a health network. There are currently no published studies evaluating physician perceptions about this novel approach to accreditation. We examined physician perceptions about echocardiography accreditation following a hospital's recent transition to system-wide echocardiography accreditation. Maximizing the potential benefits of system-wide accreditation will require hospital physicians to trust the quality of imaging and accuracy of interpretation from referring facilities. We e-mailed a survey to all 32 cardiologists and all 35 hospitalists at Maine Medical Center, a tertiary-care hospital in southern Maine, which recently transitioned to system-wide echocardiography accreditation for its 22 affiliated facilities in 2018. The survey consisted of seven questions presented as single-answer multiple choice, multiple-answer multiple choice, rating scale, and open ended, along with an opportunity for additional comments. All responses were anonymous. A statistical analysis was performed using Excel version 15.40 (Microsoft, Redmond, WA) software. We performed two-tailed unpaired t tests comparing cardiologist and hospitalist responses. P values were derived from Fisher's exact test for categorical variables and a Mann-Whitney U test for continuous variables. We accepted P &lt; .05 as significant. Physician responses to the questionnaire are reported in Table 1. We received 30 responses in total (45%): 17 from cardiologists (53%) and 13 from hospitalists (37%). Fourteen out of 17 cardiologists (82%) and 11 out of 13 hospitalists (85%) indicated that they do not consider echocardiography accreditation when evaluating an interpretation from a referral site; 29% of cardiologists reported, “I do not trust reports from physicians I am not familiar with, regardless of accreditation.”Table 1Physician responses to surveyCardiologists (n = 32)Hospitalists (n = 35)P valueResponse rate (n)53 (17)37 (13)—Ordered repeat echo: Yes100100 No00—Reason for repeat: Poor image quality5331.23 Images from unaccredited facility68.84 “Do not trust interpreting physician”290.03 Financial incentives00— Image not available7654.19 Change in patient clinical status6569.79 Other00—Consider IAC accreditation before repeat echo: Yes128.71 No8285.87 Other68.84More likely to repeat for specific patient population: Yes7638.03 No2462.04Repeat echo resulting in different diagnosis32.0 (CI, 23.2-40.7)23.2 (CI, 12.8-33.6).22“Unnecessary” repeat echo ordered in 2-week period6.4 (CI, 3.9-8.9)3.3 (CI, 1.4-5.2).09All data are shown as percentages unless otherwise indicated. Open table in a new tab All data are shown as percentages unless otherwise indicated. Physicians were asked to estimate how often they ordered an “unnecessary” repeat echocardiogram in a 2-week period. We defined unnecessary as reasons excluding changes in patient condition or unavailability of images. Cardiologists estimated that within a 2-week period, 6.4% (95% CI, 3.9%-8.9%) of echocardiograms ordered are unnecessary repeats. In comparison, 3.3% (95% CI, 1.4%-5.2%) of echocardiograms ordered by hospitalists were considered unnecessary repeats (P = .09). The findings of our study are an important consideration for hospitals considering IAC system-wide accreditation. We demonstrate that most physicians</t>
+          <t>&lt;sec&gt; &lt;title&gt;BACKGROUND&lt;/title&gt; A retrospective cohort study was conducted in patients undergoing postoperative home monitoring (POHM) following elective primary hip or knee replacements. &lt;/sec&gt; &lt;sec&gt; &lt;title&gt;OBJECTIVE&lt;/title&gt; The objectives of our study were to compare the cost per patient, readmissions rate, emergency room visits, and mortality within 30 days to the historical standard of care using descriptive analysis. &lt;/sec&gt; &lt;sec&gt; &lt;title&gt;METHODS&lt;/title&gt; After Research Ethics Board approval, patients who were enrolled and had completed a POHM study were individually matched to historical controls by age, American Society of Anesthesiology class, and procedure at a ratio 1:2. &lt;/sec&gt; &lt;sec&gt; &lt;title&gt;RESULTS&lt;/title&gt; A total of 54 patients in the study group and 107 in the control group were eligible for the analysis. Compared with the historical standard of care, the average cost per case was Can $5826.32 (SD 1418.89) in the POHM group and Can $9198.58 (SD 1513.59) for controls. After 30 days, there were 2 emergency room visits (3.7%) and 0 readmissions in the POHM group, whereas there were 8 emergency room visits (7.5%) and 2 readmissions (1.9%) in the control group. No mortalities occurred in either group. &lt;/sec&gt; &lt;sec&gt; &lt;title&gt;CONCLUSIONS&lt;/title&gt; The POHM study offers an early hospital discharge pathway for elective hip and knee procedures at a 38% reduction of the standard of care cost. The multidisciplinary transitional POHM team may provide a reliable forum to minimize readmissions, and emergency room visits within 30 days postoperatively. &lt;/sec&gt; &lt;sec&gt; &lt;title&gt;CLINICALTRIAL&lt;/title&gt; ClinicalTrials.gov NCT02143232; https://clinicaltrials.gov/ct2/show/NCT02143232 (Archived by WebCite at http://www.webcitation.org/73WQ9QR6P) &lt;/sec&gt;</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4255519986</t>
+          <t>https://openalex.org/W1602556105</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://doi.org/10.12987/yale/9780300115581.003.0004</t>
+          <t>https://doi.org/10.1002/0471028959.sof320</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Corfield (2007)</t>
+          <t>Harauz (2002)</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Radical Discontinuity</t>
+          <t>Software Engineering Standards in the Nuclear Power Industry—Safety‐Related Applications</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>This chapter examines the issue of radical discontinuity in relation to history and time. It explains that radical discontinuity refers to all forms of drastic upheaval that are both significant in their actual happening and/or fundamental in their long-term impact and it is different from gradual change or adaptation. It provides examples of radical discontinuity including natural cataclysms, upheaval, and revolution and describes a Newtonian model that simultaneously incorporates instability and restlessness. This chapter also contends that explosive discontinuities are not separate factors within the cosmos but are part and parcel of the familiar state of play, both in human and non-human affairs.</t>
+          <t>Abstract Nuclear power is very much an international industry. U.S., Canadian, and European vendors are actively involved in the deployment of modern nuclear reactors (including I&amp;amp;C systems) in Asia. I&amp;amp;C systems are routinely delivered across national boundaries; for instance U.S. designed systems have been implemented in Czech Republic, Ukraine, and South Korea; German designed systems have been implemented throughout Europe and proposed for the United States; Canadian designed systems have been installed in Canada and South Korea. The Canadian software engineering technology for safety critical software has been considered for adoption in the development of new I&amp;amp;C safety‐related systems outside of Canada. Japanese I&amp;amp;C systems have proven reliable and should attract wider interest. The global nature of nuclear power points to the strong need for consistency in international sets of nuclear and other standards in addition to consistent approaches to licensing such systems. The application of standards in the nuclear industry is a nontrivial exercise. Many standards organizations worldwide develop standards that affect nuclear I&amp;amp;C systems. Developing a system in one country to one set of standards is no longer sufficient. As such systems cross national boundaries, they need to demonstrate conformance to more than one set of standards and must be licensable in the country of implementation. There is a broad consensus on general principles and approaches in the standards, and national licensing approaches are converging. However, there remain a number of specific issues on which consensus is still outstanding. Examples are the benefits to be gained from the use of formal methods, how to quantify the benefits from applying diversity principles to software, methods for measuring and achieving software reliability and requirements, and methods for the validation of transformation tools and of their output. As technology advances, issues of concern today may be solved, or new issues may arise. Nuclear industry standards and regulatory criteria will have to be periodically updated to keep pace with new international standards, increasing regulatory rigor with respect to software, fast‐paced computer technology advances, and experience gained, both within and outside the nuclear industry, for safety‐related computer‐based I&amp;amp;C systems.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1985122628</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1521/jscp.1992.11.4.377</t>
+          <t>https://openalex.org/W3144341150</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Chwalisz et al. (1992)</t>
+          <t>Adele &amp; English (2013)</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Causal Attributions, Self-Efficacy Cognitions, and Coping with Stress</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Causal Attributions, Self-Efficacy Cognitions, and Coping with StressKathleen Chwalisz, Elizabeth M. Altmaier and Daniel W. RussellKathleen Chwalisz1 Southern Illinois University, Elizabeth M. Altmaier and Daniel W. RussellThe University of IowaPublished Online:January 2011https://doi.org/10.1521/jscp.1992.11.4.377PDFPDF PLUS ShareShare onFacebookTwitterLinkedInRedditEmail ToolsAdd to favoritesDownload CitationsTrack Citations About Previous article Next article FiguresReferencesRelatedDetails Cited byCited by1. Investigating fixed and growth teaching mindsets and self-efficacy as predictors of language teachers' burnout and professional identityOnline publication date: 12 February 2023. Go to citation Crossref Google Scholar2. The level of perceived stress, burnout, self-efficacy, and coping strategies among physiotherapy academicians during the COVID-19 lockdownOnline publication date: Go to citation Crossref Google Scholar3. The Mediating Effects of Social Comparison on Faculty Burnout, Teaching Anxiety, and Satisfaction Among Faculty Who Taught During the COVID-19 PandemicOnline publication date: 16 November 2022. Go to citation Crossref Google Scholar4. How Does Transformational Leadership Relieve Teacher Burnout: The Role of Self-Efficacy and Emotional IntelligenceOnline publication date: 16 September 2022. Go to citation Crossref Google Scholar5. Trait attributions and threat appraisals explain why an entity theory of personality predicts greater internalizing symptoms during adolescenceOnline publication date: 23 March 2021. Go to citation Crossref Google Scholar6. Pupils' Adaptability at School, a Balance Between Demands and Resources?Online publication date: 30 June 2022. Go to citation Crossref Google Scholar7. The Interplay of Locus of Control and Role Stress-evidences from Healthcare SectorOnline publication date: 5 March 2021. Go to citation Crossref Google Scholar8. Speaking up and out: examining the predictors of prohibitive voice among teachersOnline publication date: 7 September 2021. Go to citation Crossref Google Scholar9. Linking Parental Phubbing to Adolescent Self-Depreciation: The Roles of Internal Attribution and Relationship SatisfactionOnline publication date: 1 February 2021. Go to citation Crossref Google Scholar10. Resilience, sense of coherence and self-efficacy as predictors of stress coping style among university studentsOnline publication date: 16 July 2019. Go to citation Crossref Google Scholar11. The impact of cognitive-behavioural stress management coaching on changes in cognitive appraisal and the stress response: a field experimentOnline publication date: 15 October 2020. Go to citation Crossref Google Scholar12. Teacher coping profiles in relation to teacher well-being: A mixed method approachOnline publication date: Go to citation Crossref Google Scholar13. Sharing economy platforms: An equity theory perspective on reciprocity and commitmentOnline publication date: Go to citation Crossref Google Scholar14. Job Demands–Resources theory and self-regulation: new explanations and remedies for job burnoutOnline publication date: 28 August 2020. Go to citation Crossref Google Scholar15. Poczucie własnej skuteczności nauczyciela w kontekście problemu przemocy rówieśniczej wśród uczniówOnline publication date: 1 January 2021. Go to citation Crossref Google Scholar16. Does Haze Drive Pro-Environmental and Energy Conservation Behaviors? Evidence from the Beijing-Tianjin-Hebei Area in ChinaOnline publication date: 28 November 2020. Go to citation Crossref Google Scholar17. Exploring Mindfulness Benefits for Students and Teachers in Three German High SchoolsOnline publication date: 11 November 2019. Go to citation Crossref Google Scholar18. Teachers Between Job Satisfaction and Burnout Syndrome: What Makes Difference in Czech Elementary SchoolsOnline publication date: 29 October 2019. Go to citation Crossref Google Scholar19. Parents' Feelings, Coping Strategies and Sense of Parental Self-Efficacy When Dealing With Children's Victimization ExperiencesOnline publication date: 4 October 2019. Go to citation Crossref Google Scholar20. Differentiated effects of risk perception and causal attribution on public behavioral responses to air pollution: A segmentation analysisOnline publication date: Go to citation Crossref Google Scholar21. What happens at home does not stay at home: The role of family and romantic partner conflict in destructive leadershipOnline publication date: 12 April 2019. Go to citation Crossref Google Scholar22. The Relationship among Middle School Students' Sibling Bullying Victimization, Characterological Self-Blame, Coping Self-Efficacy, and Peer Bullying VictimizationOnline publication date: Go to citation Crossref Google Scholar23. Emotions and teaching styles among academics: the mediating role of research and teaching efficacyOnline publication date: 31 December 2018. Go to citation Crossref Google Scholar24. Improved Parent Cognitions Relate to Immediate</t>
+          <t>ONTARIO'S HOME FIRST APPROACH, CARE TRANSITIONS, AND THE PROVISION OF CARE: THE PERSPECTIVES OF HOME FIRST CLIENTS AND THEIR FAMILY CAREGIVERS</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2077986950</t>
+          <t>https://openalex.org/W1968586831</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevlett.109.267403</t>
+          <t>https://doi.org/10.1063/1.480056</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Hagenmüller &amp; Ciuti (2012)</t>
+          <t>Owrutsky &amp; Baronavski (1999)</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Cavity QED of the Graphene Cyclotron Transition</t>
+          <t>Ultrafast photodissociation studies of acetyl cyanide and acetic acid and unimolecular decomposition rates of the acetyl radical products</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>We investigate theoretically the cavity quantum electrodynamics of the cyclotron transition for Dirac fermions in graphene. We show that the ultrastrong coupling regime characterized by a vacuum Rabi frequency comparable or even larger than the transition frequency can be obtained for high enough filling factors of the graphene Landau levels. Important qualitative differences occur with respect to the corresponding physics of massive electrons in a semiconductor quantum well. In particular, an instability for the ground state analogous to the one occurring in the Dicke model is predicted for an increasing value of the electron density.</t>
+          <t>Unimolecular decomposition rates for acetyl radical following the photodissociation of acetyl cyanide and acetic acid near 193 nm have been studied using ultrafast mass-resolved photoionization spectroscopy. In both cases, the parent decays with an instrumentally limited lifetime, while the acetyl radical behaves in a manner consistent with an RRKM mechanism, in contrast to our previous results on acetone. It is necessary to convolute the population distribution with the microcanonical RRKM rates in order to achieve this agreement. We have also undertaken an ab initio study of the excited states of acetyl cyanide to clarify the assignments of these states. The state excited at 193 nm arises from a π→π* transition with a calculated transition velocity dipole moment oriented at an angle of 57° with respect to the C–C≡N bond, resulting in an anisotropy parameter of −0.22. This is in reasonable agreement with the previous data of North et al. [J. Phys. Chem. A 101, 9224 (1997)]. The apparent RRKM behavior of the acetyl radical formed by the photodissociation of acetic acid and acetyl cyanide indicates that acetyl radical produced by the photodissociation of acetone at 193 nm may exhibit “extrinsic non-RRKM” effects, i.e., dynamic bottlenecks or mode specific effects.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390031611</t>
+          <t>https://openalex.org/W638605339</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5488/cmp.26.43602</t>
+          <t>https://doi.org/10.1007/978-3-642-65829-7_14</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Singh &amp; Singh (2023)</t>
+          <t>Shaw (1974)</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Formation of nano and micro scale hierarchical structures in MgO and ZnO quantum dots doped LC media: the role of competitive forces</t>
+          <t>The External Ear</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>In this paper, we have studied the effect of doping of ZnO and MgO nanoparticles (NPs) in 4-(trans-4-n-hexylcyclo-hexyl) isothiocyanatobenzoate. A thorough comparison of dielectric properties, optoelectronic properties, and calorimetric phase transition properties has been done for MgO and ZnO NP doped LC. We prepare their homogenous mixture of MgO and ZnO NPs in toluene and transfer into cells made of glass and Indium Tin-Oxide (ITO) coated glass. The observed microstructures in the hybrid system can be classified into three main categories: grain like structures formed by aggregation of smaller size MgO nanoparticles while liquid crystal molecules anchor over the surfaces of nanoparticles, the grtu grain-like structures further integrate to form inorganic polymeric type of honeycomb-like mesostructures in presence of glass surface, and flower-like clusters of MgO nanoparticles on ITO surface. The smaller size nanoparticles can maintain the energy balance by allowing the anchoring of liquid crystal molecules over their surfaces whereas the larger size nanoparticles cannot compromise or maintain the energy balance with the liquid crystal molecules and are separated out to nucleate and form bigger size nanoaggregate or clusters. The energy preference of the substrate and nanoparticle's surface to liquid crystal molecules plays an important role in the formation of different types of hierarchical nano- and microstructures. We account the reasons for the formation of nano and micro scale hierarchical structures on the basis of the competition between the forces: NP-NP, LC-LC, NP-LC, Glass/ITO-NP, and Glass/ITO-LC interactions. We observed a considerable change in the dielectric properties, transition temperature, bandgap, and other parameters of LC molecules when MgO NPs are doped, but a minor change occurs when ZnO NPs are doped in LC.</t>
+          <t>The external ear protects the eardrum from mechanical damage by providing a narrow and extended entrance to the auditory system. It also transforms the sound field modifying and augmenting the directionality associated with head diffraction and adding substantial acoustic gain at the higher frequencies. These properties are intimately connected with the spatial perception of sound and are of considerable importance in auditory measurements and instrument design. To understand these properties it is useful to divide the acoustic antenna system into its functional components: the head, the torso and the pinna flange (Fig. 1) acting as diffracting bodies, the concha and the earcanal serving as acoustic resonators, and the eardrum providing an acoustic termination. But these components must always be seen as parts of an integrated system for it is the sound pressure transformation from the free field to the eardrum as a function of frequency, direction, and perhaps distance which is most directly linked with monaural and binaural localization and with the overall sensitivity of the hearing system.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2947258101</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s1569-1993(19)30759-3</t>
+          <t>https://openalex.org/W3018095311</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Penrose et al. (2019)</t>
+          <t>Egger et al. (2015)</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>P467 Improving the transition of young people to an adult cystic fibrosis centre - the MDT approach</t>
+          <t>Vivianite represents a major sink for phosphorus in methanogenic coastal surface sediments</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Introduction: The significant increase in the survival for Cystic Fibrosis (CF), demands the evaluation and improvement of transition processes to adulthood.Objectives: To describe the experience of this transition process in patients with CF at the Hospital Infantil Universitario de San José (HIUSJ) in Bogotá.Methods: Qualitative research with a phenomenological approach.It was carried out through semi-structured interviews to patients and their caregivers, which were transcribed and systematized with the NVIVO program, that allowed us to identify deductive and inductive categories.A methodological triangulation was used to confront the voices of the participants, the investigators group opinions and the theory.Results: Fourteen interviews were conducted, 7 to patients and 7 to their caregivers.The age ranged between 19 and 23 years old, prevailing female patients (5/7).All of the caregivers were mothers between 42 and 61 years old.The study found difficulties in understanding the disease and in the skills for its management.A strong dependence of adolescents towards their mothers was identified in the administrative procedures, visits to the clinic and treatment adherence, perceiving overprotection from caregivers that resist giving more autonomy to patients.A passive attitude towards the disease is therefore encouraged affecting the patients' communication skills, self-care and self-defense.These processes have led patients not to assume the disease, and in some cases to hide it, which shows difficulties in social skills that hinder the development of stable relationships.Conclusion: In the HIUSJ CF program, difficulties are detected in the transition to adulthood in the aforementioned skills, which can negatively impact the illness development and the quality of life and could be mitigated with early interventions, encouraging the development of this skills.</t>
+          <t>Studies of authigenic phosphorus (P) minerals in marine sediments typically focus on authigenic carbonate fluorapatite, which is considered to be the major sink for P in marine sediments and can easily be semi-quantitatively extracted with the SEDEX sequential extraction method. The role of other potentially important authigenic P phases, such as the reduced iron (Fe) phosphate mineral vivianite (Fe(II)3(PO4)*8H2O) has so far largely been ignored in marine systems. This is, in part, likely due to the fact that the SEDEX method does not distinguish between vivianite and P associated with Fe-oxides. Here, we show that vivianite can be quantified in marine sediments by combining the SEDEX method with microscopic and spectroscopic techniques such as micro X-ray fluorescence (lXRF) elemental mapping of resin-embedded sediments, as well as scanning electron microscope–energy dispersive spectroscopy (SEM–EDS) and powder X-ray diffraction (XRD). We further demonstrate that resin embedding of vertically intact sediment sub-cores enables the use of synchrotron-based microanalysis (X-ray absorption near-edge structure (XANES) spectroscopy) to differentiate between different P burial phases in aquatic sediments. Our results reveal that vivianite represents a major burial sink for P below a shallow sulfate/methane transition zone in Bothnian Sea sediments, accounting for 40–50% of total P burial. We further show that anaerobic oxidation of methane (AOM) drives a sink-switching from Fe-oxide bound P to vivianite by driving the release of both phosphate (AOM with sulfate and Fe-oxides) and ferrous Fe (AOM with Fe-oxides) to the pore water allowing supersaturation with respect to vivianite to be reached. The vivianite in the sediment contains significant amounts of manganese ( 4–8 wt.%), similar to vivianite obtained from freshwater sediments. Our results indicate that methane dynamics play a key role in providing conditions that allow for vivianite authigenesis in coastal surface sediments. We suggest that vivianite may act as an important burial sink for P in brackish coastal environments worldwide. 2015 The Authors. Published by Elsevier Ltd. This is an open access article under the CC BY-NC-ND license (http:// creativecommons.org/licenses/by-nc-nd/4.0/).</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3048795083</t>
+          <t>https://openalex.org/W4391231109</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/hs9.0000000000000448</t>
+          <t>https://doi.org/10.1103/physrevb.109.l041409</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Oltolini et al. (2020)</t>
+          <t>Chatterjee et al. (2024)</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Coronavirus Disease 2019 in Recipient of Allogeneic Hematopoietic Stem Cell Transplantation: Life‐threatening Features Within the Early Post‐engraftment Phase</t>
+          <t>Second-order topological superconductor via noncollinear magnetic texture</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t xml:space="preserve">China reported a novel coronavirus, phylogenetically related to severe acute respiratory syndrome coronavirus (SARS-CoV), as the causative agent of an outbreak of pneumonia of unknown etiology in Wuhan. World Health Organization declared Coronavirus disease 2019 (COVID-19) a global pandemic: nowadays, 4,864,881 cases were reported worldwide, 228,006 in Italy with a 14% mortality rate.1 Retrospective studies on Chinese patients with pneumonia highlighted that cardiovascular diseases, older age, high C-reactive protein (CRP), interleukin-6 and ferritin, low lymphocytes and secondary infections were predictive of death.2,3 COVID-19 features in immunocompromised hematological patients are emerging, but data on allogeneic hematopoietic stem cell transplant (allo-HSCT) recipients are still scanty (Table 1).4–8 Jin et al reported a case of pneumonia in a male with chronic lymphocytic leukemia successfully treated with chemotherapy, corticosteroids and α-interferon.4 Zhang et al described another-one in a myeloma patient with favorable outcome after corticosteroids, arbidol and tocilizumab.5 COVID-19 in an allo-HSCT recipient, developed 7-months after transplant while on maintenance cyclosporine, was firstly published by Huang et al. Despite achieving negative SARS-2-CoV with lopinavir/ritonavir, corticosteroid and immunoglobulins, the patient died with persistently low lymphocytes (T-cell &lt; 300/μL, CD4 &lt; 100/μL) and secondary infection.6 Malard et al reported 25 cases in hematological patients including 2 recipients of allo-HSCT. At a median follow-up of 29-day since symptoms onset, 52% of patients developed acute respiratory distress syndrome (ARDS) and 36% died.7 The first case series on 6 allo-HSCT recipients, who developed COVID-19 at a median time of 41-months after HSCT, did not report deaths, suggesting that an immunosuppressed status [5/6 patients with chronic graft-vs-host disease (c-GVHD)] may be protective against hyper-inflammation of severe disease (unpublished data).Table 1: Published Clinical Reports of Coronavirus Disease 2019 in Hematological Patients.We described a case of severe low respiratory tract infection (LRTI) by SARS-2-CoV in a 64 years-old man with non-Hodgkin lymphoma, which arose on 21-day after allo-HSCT from matched-unrelated donor, whose pre-engraftment phase was uneventful. At hospital admission, 3 days after previous discharge, he was febrile and piperacillin/tazobactam was introduced. Laboratory tests revealed WBC 3490/μL (neutrophils 2000/μL, lymphocytes 500/μL), platelets 189/μL, CRP 13 mg/dl, lactic dehydrogenase 710 U/l, normal renal and hepatic functions. The nasopharyngeal swab was negative for community acquired respiratory viruses (CARV), while PCR for SARS-2-CoV resulted positive on 26-day after HSCT with CT scan revealing mild pneumonia (Fig. 1A). The same day lopinavir/ritonavir and hydroxychloroquine were introduced, discontinuing piperacillin/tazobactam. At this time, the patient was in good condition [Modified Early Warning Score (MEWS) 2 points]. Laboratory tests showed CRP 1 mg/dl, lactic dehydrogenase 591 U/l, bilirubin 1 mg/dl, ferritin 5510 ng/ml, pro-calcitonin 0.1 ng/ml, D-dimer 0.83 ng/ml, WBC 1720/μL (neutrophils 800/μL, monocytes 200/μL, lymphocyte 600/μL, CD4 35/μL, CD8 304/ μL, CD19 0/μL). On 33-day, because of major pharmacological interactions, lopinavir/ritonavir was replaced with azithromycin and cyclosporine with mycophenolate, detecting cyclosporine serum values ≥200 ng/ml until 43-day. On 36-day clinical condition worsened (MEWS 3 points), inflammatory markers increased (ferritin 5342 pg/ml, lactic dehydrogenase 836 U/l, D-dimer 0.71 ng/ml) and CT scan showed worsening bilateral infiltrates (Fig. 1B). Therefore, he received a single 6 mg/kg dose of tocilizumab and started methylprednisolone 0.5 mg/kg obtaining fever resolution. COVID-19 rapid immune-chromatographic test for determination of antibodies in whole blood was performed revealing the absence of both IgG and IgM. The patient required a progressive increase of oxygen supply, starting non-invasive ventilation on 41-day (MEWS 5 points). The same day, laboratory tests showed bilirubin 3.3 mg/dl, lactic dehydrogenase 1651 U/l and haptoglobin 0 mg/dl. Because of suspected endothelial activation, probably driven by both thrombotic micro-angiopathy and pulmonary hyper-inflammation, an off-label administration of intravenous defibrotide 6.25 mg/kg q6 h was started and methylprednisolone was increased to 1 mg/kg achieving a decrease of lactic dehydrogenase and stabilization of bilirubinemia and respiratory failure without major and minor bleedings. Since hospital admission, the patient received primary antimicrobial prophylaxis with acyclovir, letermovir, atovaquone and isavuconazole. On 45-day, SARS-2-CoV PCR was still positive, so azithromycin and hydroxychloroquine were discontinued. The clinical course was complicated on 54-day by blood culture negative septic shock (MEWS 8 points), requiring </t>
+          <t>We put forth a theoretical framework for engineering a two-dimensional (2D) second-order topological superconductor (SOTSC) by utilizing a heterostructure: incorporating noncollinear magnetic textures between an $s$-wave superconductor and a 2D quantum spin Hall insulator. It stabilizes the higher order topological superconducting phase, resulting in Majorana corner modes (MCMs) at four corners of a 2D domain. The calculated nonzero quadrupole moment characterizes the bulk topology. Subsequently, through a unitary transformation, an effective low-energy Hamiltonian reveals the effects of magnetic textures, resulting in an effective in-plane Zeeman field and spin-orbit coupling. This approach provides a qualitative depiction of the topological phase, substantiated by numerical validation within an exact real-space model. Analytically calculated effective pairings in the bulk illuminate the microscopic behavior of the SOTSC. The comprehension of MCM emergence is supported by a low-energy edge theory, which is attributed to the interplay between effective pairings of $({p}_{x}+{p}_{y})$-type and $({p}_{x}+i{p}_{y})$-type. Our extensive study paves the way for practically attaining the SOTSC phase by integrating noncollinear magnetic textures.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2529287898</t>
+          <t>https://openalex.org/W1985562665</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-319-43118-5_1</t>
+          <t>https://doi.org/10.1016/s0301-4622(97)00093-8</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Ballam et al. (2016)</t>
+          <t>Karpenko et al. (1997)</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>International Perspectives on the Pedagogies of Educational Transitions</t>
+          <t>The conformation and stability of human Zn-α2-glycoprotein in aqueous and methanolic solutions</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>There has been a great deal written recently about children starting school, particularly primary school. All of the stakeholders in these transitions to school have been considered, along with matters of readiness – for the child, family, educators, schools and communities; adjustment and adaptation; continuity and change in curricula and learning; and the opportunities, aspirations, expectations and entitlements encompassed in the transformation of roles involved. As the children move from their prior-to-school experiences – preschool, child care, home, other out-of-home care – to school, they experience many changes. One of these is often a change from a primarily play-based pedagogical approach in the prior-to-school setting to perhaps a more structured, even formal pedagogy in school. But what about the pedagogies of the transitions themselves? Children do not stop learning and teachers do not stop teaching as children are in the process of transition to school. There are pedagogies of transition employed. This book explores these pedagogies through the work of an international alliance of transitions to school researchers from five countries – Iceland, Scotland and Sweden (European) and Australia and New Zealand (Antipodean). This alliance is named Pedagogies of Educational Transitions – POET.</t>
+          <t>The stability of Zn-alpha 2-glycoprotein has been studied using UV-spectroscopy and circular dichroism with respect to the influence of temperature, pH, and solvent composition. It has been found that: (1) this protein contains a relatively high proportion of beta-sheet (60%) and a very low amount of other periodic structures as estimated from circular dichroic spectra; (2) at pH 7.4, the circular dichroic spectra change reversibly in the temperature range between 25 and 85 degrees C; small disturbances were observed at 265 nm; (3) with the assumption of the two-state process, the temperature of cooperative denaturation was Tm = 66 degrees C, van't Hoff's enthalpy of this process was 27 kJ mol-1; (4) up to pH 9.5 the dichroic spectrum appeared the same as at pH 7.4; (5) in the presence of methanol (vol. fraction 50%), no isodichroic points on the circular dichroic spectra were found during temperature denaturation; after cooling from 85 degrees C, the alpha-helix content was higher than in the native protein; (6) in the molecule of Zn-alpha 2-glycoprotein, 14 out of 18 tyrosines can dissociate with the instrinsic pK = 11.2; and (7) the temperature perturbation difference spectra yielded nonlinear delta A vs. T curves with temperature transition corresponding to the values found in the circular dichroic spectra; the numbers of chromophores exposed to the solvent as determined by the temperature difference spectra were: 4 tyrosines, 1 tryptophan, and 1 phenylalanine. In several aspects, a parallel has been found between Zn-alpha 2-glycoprotein and orosomucoid (acid alpha 1-glycoprotein), another plasma glycoprotein.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2185165592</t>
+          <t>https://openalex.org/W2183323517</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/wjaf/14.2.73</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Gordon et al. (2013)</t>
+          <t>Waggener &amp; Fight (1999)</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>mHEALTHHealthcare Transformation on Steroids</t>
+          <t>Clearwood Quality and Softwood Lumber Prices: What's the Real Premium?</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Mobile health is poised to become a major driver and accelerant of the transformation of health care from a volume-based system to a value-based system. This tsunami of change is being driven by a perfect storm of out-of- control healthcare costs and the availability of faster, cheaper, more reliable, interoperable technology, particularly that available through cellular phones, tablets, and other wireless communication devices. As the cost of this technology continues to fall, it has become available to even the poorest people in the most remote parts of the globe. The end result is a global industry expected to reach $26 billion in revenues by 2017. Indeed, industry analysts predict that the growth of mHealth in the near future will rival that of the Internet in the 1990s.</t>
+          <t>Abstract Diminishing quantities of appearance grade lumber and rising price premiums for it have accompanied the transition from old-growth to young-growth timber. The price premiums for better grades are an incentive for producers to undertake investments to increase the yield of those higher valued products. Price premiums, however, are also an incentive for users to substitute lower grades, lower priced species, or nonwood materials for these higher priced appearance grades. This possibility may cast doubt on the permanence of the price premiums associated with appearance grade lumber. The real price premiums paid for appearance grades of lumber from January 1989 through October 1995 were substantial and quite stable during a widely fluctuating softwood lumber market. We found little or no evidence to suggest that these premiums are either "temporary" or are in decline. Although care is required in extrapolating these findings over future long time horizons typically required for silvicultural investments in wood quality changes, the results of this study may help forest managers better understand the possible magnitude of real price premiums to use in evaluating those investments. West. J. Appl. For. 14(2):73-79.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3090980052</t>
+          <t>https://openalex.org/W2331539135</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.apm.2020.08.044</t>
+          <t>https://doi.org/10.2307/2171428</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Rohan et al. (2021)</t>
+          <t>Fletcher &amp; Christian (1997)</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Homogenization approach and Floquet-Bloch theory for wave analysis in fluid-saturated porous media with mesoscopic heterogeneities</t>
+          <t>Black Soldiers in Jim Crow Texas, 1899-1917.</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>We consider fluid-saturated poroelastic media whose the mechanical response is governed by the Biot model relevant to a mesoscopic scale. Assuming the material properties being described by periodic functions, to analyze wave propagation in such heterogeneous and anisotropic media, we derive a formulation based on the Floquet-Bloch (FB) wave decomposition which enables to analyze waves within the whole first Brillouin zone associated with the periodic structure. The wave dispersion results obtained by the FB approach are compared with those computed using a model derived by the homogenization based on the asymptotic analysis with respect to the scale parameter. As another new ingredient, the homogenized model is extended to describe media saturated simultaneously by multiple different fluids, so that the model involves new permeability tensors and differs in structure from the model derived earlier. The dispersion analysis by the FB approach leads to a cumbersome quadratic eigenvalue problem to be solved for complex wave numbers. We suggest an efficient filtration strategy to identify the principle propagating modes (the fast and slow compressional waves and the shear waves). For comparison with results of the FB transformation applied at the mesoscopic heterogeneity scale, the homogenized model responses are reconstructed using the corrector results of the homogenization with fixing a finite scale. Numerical examples illustrate very good correspondence of the dispersion results, as computed by both the approaches.</t>
+          <t>In Jim Crow Texas, black Regular Army units returning victoriously from Cuba and the Philippines collided head-on with local segregation and bigotry. As the soldiers' expectations of dignity and respect met with racial restrictions and indignities from civilian communities, a series of violent episodes erupted. Although confrontations also occurred elsewhere, the most notorious were in Texas, beginning with an 1899 clash between white lawmen in Texarkana and black soldiers riding a troop train west after returning from Cuba. The first truly violent episode came in 1906, when troops were accused of attacking Brownsville after civilian provocations. In 1917 a full-scale battle in Houston resulted in fifteen dead and twenty-one injured. Between 1899 and 1917, a series of other face-offs--some involving the complex relationships of blacks with local Hispanic populations--occurred when black soldiers stood up for their rights or their lives in San Antonio, Laredo, El Paso, Rio Grande City, Del Rio, and Waco. This little-known story, never before told in full, illuminates the collision of racial discrimination with racial pride and reveals once again the petty biases, institutionalized racism, and mutual suspicions that have divided American society. But it is also a story of lofty aspirations too long delayed, of the transformation of a downtrodden race into a self-confident people, and of the noble attempt, however dangerous its means, to realize full citizenship. Clearly written and impressively researched, Black Soldiers in Jim Crow Texas traces the relationship of the four black military regiments--the 24th and 25th Infantries and the 9th and 10th Cavalries--with white civilian communities in the period between the Spanish-American War and World War I. Drawn from previously unexploited sources, it fills a void in the increasing body of research on the black military and illuminates the magnitude of racial intolerance in early twentieth-century America. No other work has explored these issues in such depth and with such skill.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2526258891</t>
+          <t>https://openalex.org/W2094036033</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1742-6596/744/1/012177</t>
+          <t>https://doi.org/10.1002/nag.296</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Náprstek &amp; Král (2016)</t>
+          <t>Sheng et al. (2003)</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Multi-dimensional Fokker-Planck equation analysis using the modified finite element method</t>
+          <t>Finite element formulation and algorithms for unsaturated soils. Part II: Verification and application</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>The Fokker-Planck equation (FPE) is a frequently used tool for the solution of cross probability density function (PDF) of a dynamic system response excited by a vector of random processes. FEM represents a very effective solution possibility, particularly when transition processes are investigated or a more detailed solution is needed. Actual papers deal with single degree of freedom (SDOF) systems only. So the respective FPE includes two independent space variables only. Stepping over this limit into MDOF systems a number of specific problems related to a true multi-dimensionality must be overcome. Unlike earlier studies, multi-dimensional simplex elements in any arbitrary dimension should be deployed and rectangular (multi-brick) elements abandoned. Simple closed formulae of integration in multi-dimension domain have been derived. Another specific problem represents the generation of multi-dimensional finite element mesh. Assembling of system global matrices should be subjected to newly composed algorithms due to multi-dimensionality. The system matrices are quite full and no advantages following from their sparse character can be profited from, as is commonly used in conventional FEM applications in 2D/3D problems. After verification of partial algorithms, an illustrative example dealing with a 2DOF non-linear aeroelastic system in combination with random and deterministic excitations is discussed.</t>
+          <t>Abstract The finite‐element formulation and integration algorithms developed in Part I are used to analyse a number of practical problems involving unsaturated and saturated soils. The formulation and algorithms perform well for all the cases analysed, with the robustness of the latter being largely insensitive to user‐defined parameters such as the number of coarse time steps and error control tolerances. The efficiency of the algorithms, as measured by the CPU time consumed, does not depend on the number of coarse time steps, but may be influenced by the error control tolerances. Based on the analyses presented here, typical values for the error control tolerances are suggested. It is also shown that the constitutive modelling framework presented in Part I can, by adjusting one constitutive equation and one or two material parameters, be used to simulate soils that expand or collapse upon wetting. Treating the suction as a strain variable instead of a stress variable proves to be an efficient and robust way of solving suction‐dependent plastic yielding. Moreover, the concept of the constitutive stress is a particularly convenient way of handling the transition between saturation and unsaturation. Copyright © 2003 John Wiley &amp;amp; Sons, Ltd.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1964627994</t>
+          <t>https://openalex.org/W2113948354</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.840008</t>
+          <t>https://doi.org/10.1186/1471-2407-5-126</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Fibrich et al. (2010)</t>
+          <t>Calabrese et al. (2005)</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Pr:YAlO 3 and Pr:LiYF 4 laser emission comparison under GaN laser diode pumping</t>
+          <t>Numbers of mutations to different types of colorectal cancer</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>In this paper we report on comparison of laser results reached by Pr-doped oxide and fluoride crystals under GaN-laser diode pumping at room temperature. As oxide and fluoride crystal representatives, Pr:YAlO&lt;sub&gt;3&lt;/sub&gt; (Pr:YAP) and Pr:LiYF&lt;sub&gt;4&lt;/sub&gt; (Pr:YLF) crystals were used. Pumping was accomplished by multimode GaN-laser diodes capable of providing output powers of up to 1W at wavelengths corresponding with Pr:YAP and Pr:YLF absorption peaks. For both samples, efficient stimulated emission in the red laser transition has been demonstrated, and laser results regarding the output power, threshold, and slope efficiency with respect to the absorbed power have been compared.</t>
+          <t>The numbers of oncogenic mutations required for transformation are uncertain but may be inferred from how cancer frequencies increase with aging. Cancers requiring more mutations will tend to appear later in life. This type of approach may be confounded by biologic heterogeneity because different cancer subtypes may require different numbers of mutations. For example, a sporadic cancer should require at least one more somatic mutation relative to its hereditary counterpart.To better estimate numbers of mutations before transformation, 1,022 colorectal cancers were classified with respect to microsatellite instability (MSI) and germline DNA mismatch repair mutations characteristic of hereditary nonpolyposis colorectal cancer (HNPCC). MSI- cancers were also classified with respect to clinical stage. Ages at cancer and a Bayesian algorithm were used to estimate the numbers of oncogenic mutations required for transformation for each cancer subtype.Ages at MSI+ cancers were consistent with five or six oncogenic mutations for hereditary (HNPCC) cancers, and seven or eight mutations for its sporadic counterpart. Ages at cancer were consistent with seven mutations for sporadic MSI- cancers, and were similar (six to eight mutations) regardless of clinical cancer stage.Different biologic subtypes of colorectal cancer appear to require different numbers of oncogenic mutations before transformation. Sporadic MSI+ cancers may require more than a single additional somatic alteration compared to hereditary MSI+ cancers because the epigenetic inactivation of MLH1 commonly observed in sporadic MSI+ cancers may be a multistep process. Interestingly, estimated numbers of MSI- cancer mutations were similar (six to eight mutations) regardless of clinical cancer stage, suggesting a propensity to spread or metastasize does not require additional mutations after transformation. Estimates of oncogenic mutation numbers may help explain some of the biology underlying different cancer subtypes.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://openalex.org/W134639374</t>
+          <t>https://openalex.org/W2582611117</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.2379993</t>
+          <t>https://doi.org/10.21697/zp.2011.11.2.13</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Musila (2014)</t>
+          <t>Machnikowska (2016)</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Between Rhetoric and Action: The Politics, Processes and Practice of the ICC's Work in the Democratic Republic of the Congo (DRC)</t>
+          <t>NOWE PRAWO WŁASNOŚCI – PRZEKSZTAŁCENIA W STOSUNKACH WŁASNOŚCIOWYCH W POLSCE W LATACH 1944-1950</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>This monograph attempts to respond to some of the questions raised in respect of the work of the International Criminal Court (ICC) in the Democratic Republic of the Congo (DRC). In this regard, it has three main objectives. First, by focusing on a State Party where the ICC’s Office of the Prosecutor is currently conducting investigations, it considers the cooperation relationship between the ICC and the DRC. In this regard, it appears that, irrespective of the lack of legislation implementing the Rome Statute in that country, the DRC continues to cooperate with the ICC in its investigations. In view of erroneous positions taken by some states and commentators that only those countries where crimes have been perpetrated, in particular those in respect of which investigations are ongoing, have immediate obligations in relation to the ICC’s work, the monograph seeks to outline and illustrate broader obligations for member states in general. It demonstrates that the work of the ICC in places like the DRC engages the duties of ‘non-situation states’ in various ways. Second, by examining the practice of the Court since the situation was referred to it, the monograph considers the role of politics – domestic or otherwise – in the work of the ICC. Third, it examines the perceptions around the work of the ICC in various sectors of Congolese society, including government, victims, civil society and the general public. By extension, it addresses some of the questions hat the work of the ICC in Africa has raised, including the allegation that the ICC is ‘targeting’ African countries and that somehow these countries are unwilling participants in the process. By identifying and discussing the various factors that informed the referral of the situation by the DRC, the monograph seeks to discredit the single-factor explanations of the circumstances under which the ICC became engaged in the DRC. In this regard it explores various factors that influenced those events and continue to have a bearing on current perceptions and operations of the Court. These influences include the role of victims and non-governmental organisations (NGOs); international pressure, in particular from the United Nations (UN) and European Union (EU); the transition from conflict and the new government’s will to rebuild the country governed by rule of law and respect for human rights; the absence of reliable and ready domestic mechanisms; and the continuing conflict in the east of the country. The study makes a set of findings, conclusions and recommendations. On the issue of cooperation between the DRC and the Court, the monograph concludes that the ICC cannot succeed in its work without effective and reliable cooperation and assistance from member states, in particular states where investigations are ongoing. Such a relationship has to be given effect by some instrument – usually implementing legislation. In the absence of this, the DRC has signed the Agreement on Judicial Cooperation in terms of which the relationship between the Court and the country is regulated. In outlining the relevant provisions of the Agreement on Judicial Cooperation, which stipulates in detail the framework for cooperation and the granting of assistance to the Court, it became apparent that for the DRC to meet these obligations, a well-resourced Office of the Attorney General and Director of Prosecutions, both equipped with the necessary capacities, is essential. The monograph notes that these elements are for the most part lacking and that, despite the existence of political will to assist the Court, complaints have emerged on the ground that the ‘ICC is too demanding’. In view of ill-equipped law enforcement agencies, the various forms of assistance – for the most part of a technical character – impose heavy burdens on existing structures. The study finds that perceptions of the ICC in different sectors of Congolese society are varied. It also notes that these perceptions have been influenced by several factors, which have varied with the prevailing political circumstances. With respect to government, the study finds that the government views the role of the ICC in prosecuting serious crimes as an important one, not only in fighting impunity and doing justice for victims but also in sending a message to those who are still actively involved in armed conflict and various forms of violence that they have to choose the path of peace. It is noted that having received numerous complaints from victims regarding crimes committed in the DRC, the Office of the Prosecutor worked to persuade the government that a referral would be appropriate. While perhaps assigning too much responsibility to the ICC, the government sees its work as crucial in the fight against impunity. The failure of the Truth and Reconciliation Commission (Commission Verite et Reconciliation) to achieve anything significant in the two years it was in existence, and weaknesses in the criminal justice system, in</t>
+          <t>NEW PROPRIETORSHIP – PRIVATIZATION TRANSFORMATIONS IN POLAND IN YEARS 1944-1950 Summary In the first years of the People’s Republic of Poland a partial change in the contents and the function of proprietorship occurred. The modification, in which the majority of the society believed for a long time, meant not only the introduction of new subjects under a given proprietorship, but also a real re-definition of the very notion of ownership. Then, shifts in restrictions imposed on proprietorship occurred. Before they were placed besides law, among other things in administrative regulations; as a result of the new solutions they have directly been included in proprietorship. This led to proportion changes between the rights and duties of owners and non-owners. Civil law tradition was abandoned, although it did not treat proprietorship as absolute law, but it did not impose any concreto limits. Civil law tradition accepted the assumption that the possible unlimited freedom of the proprietor connected with law’s flexibility is the characteristic feature of proprietorship. It proved that restrictions did not constitute the essence of ownership and they had a different role in it. Hence, it was underlined that the possible narrowing of the owner’s rights should have short-termed and individual character, established according to the law. Yet, the new transformations of proprietorship accepted a different assumption. The characteristic feature was that they were not distinctly visible and recognizable in the first years. They were not expressed in the theory of law while the thesis was developed in the sphere of politics and propaganda that its aim was to make proprietorship more wide spread and to enhance its social function. The political idea of proprietorship management appeared after many attempts taken up at the turn of the 40s and 50s. The referred theory of law was rather a false justification than the real, essential foundation of taken up activities at that time, as the new authorities did not manage to elaborate a coherent concept of socialist proprietorship fulfilling civil law criteria, even with the help of the Soviet achievements. Due to this reason slogans were mainly used, which were to signify the conformity of practice with the declaration of nationalization. In fact, they concentrated on the current property administration, property either taken over or controlled by the state. It was generally believed by the ruling body that proprietorship could be freely transformed without any negative consequences.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382706388</t>
+          <t>https://openalex.org/W2031520417</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://doi.org/10.23887/jpai.v5i2.38858</t>
+          <t>https://doi.org/10.1016/0005-2736(82)90433-3</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Supriyati &amp; Wijono (2021)</t>
+          <t>Haeffner et al. (1982)</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Organizational Culture with Transformational Leadership Style on Production Supervision at PT Diamondfit Garment Indonesia</t>
+          <t>Difference in plasma membrane structure between two sublines of ehrlich-lettrè ascites tumor cells</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>The success of an organization is largely determined by the quality of the people who work in it. In developing an organization, a leader is needed who is able to become a driving force in encouraging employees to have high motivation to be able to increase employee performance productivity. With the transformational leadership style, it can inspire and motivate employees to improve their performance optimally so that organizational goals can be achieved as much as possible without any pressure or coercion from the leader. The concept of transformational leadership integrates ideas developed in a character, style and contingency approach. This research was conducted with the aim of knowing the relationship between organizational culture and transformational leadership style in all production supervisors at PT. Diamondfit Garment Indonesia. In this study using quantitative research methods with a sample of 30 employees with production supervisor positions at PT. Diamondfit Garment Indonesia, then data analysis was performed using Pearson Momemt Product from SPSS Statistics version 21.0 for Windows. From the research that has been done, it shows the results (r = 0.461) and the correlation significantly shows the value of sig. p=0.005 (p&amp;lt;0.05) with a positive correlation coefficient, it can be concluded that there is a significant positive relationship between organizational culture and transformational leadership style.</t>
+          <t>The plasma membranes of the glycogen-free and the glycogen-containing subline of Ehrlich-Lettrè ascites cells were purified and compared with respect to their enzyme activity, chemical, lipid and protein composition, and membrane fluidity. Both membrane fractions differed in a number of parameters which are discussed as differences in the expression of malignant transformation of the two sublines. 1. The 5'-nucleotidase activity was 3-5 times higher and the sialic acid content 3-times lower in the glycogen-containing than in the glycogen-free subline. 2. Differences were also observed with respect to the phospholipid composition, that is in the relative proportions of mainly phosphatidylcholine, -inositol and -serine. 3. The fatty acid spectrum of the two sublines differed in the C-18 series and in the percentage of polyunsaturated acids, which was about 6% lower in the glycogen-containing line. 4. Measurements of fluorescence polarization (P) using 1,6-diphenyl-1,3,5-hextriene as probe generally gave higher P values, indicating a decreased membrane fluidity for the plasma membranes of the glycogen-containing subline both below and above the transition temperature at 33 degrees C. 5. Polyacrylamide gel electrophoresis revealed different protein patterns mainly in the molecular weight range of around 90 000 and in the range between 31 000 and 14 000.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1967828056</t>
+          <t>https://openalex.org/W4391455890</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.444291</t>
+          <t>https://doi.org/10.56082/annalsarsciphil.2023.1-2.62</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Gellene et al. (1982)</t>
+          <t>Stãiculescu et al. (2023)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Stability of the ammonium and methylammonium radicals from neutralized ion-beam spectroscopy</t>
+          <t>AUTOPOIESIS AND SACREDNESS IN THE DIGITAL SOCIETY: THE BIRTH OF THE METAVERSE</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>The stability of the ammonium radical (NH4) was determined from measurements of the kinetic energy released in its fragmentation products following formation in a fast electron capture process: NH4++Na → NH4*+Na+. Scattering profiles for heavy (NH3) and light (H) dissociation products were obtained from beam measurements with 5–16 keV NH4+ ions. The existence of a predissociative barrier in the radical is inferred from edge structure and scattering continua in H atom profiles. The radical is bound with respect to a potential minimum but all of the isotopic species NH4, NH3D, NH2D2, and NHD3 undergo rapid loss of H atoms and have ground states lying above their dissociation limits. The radical ND4 has unusual stability with its ground state lying close to or below its dissociation limit. Dissociative lifetimes for stable and unstable states of ND4 differ by at least two orders of magnitude. The possible significance of these observations on the interpretation of optical transitions involving the ground states of NH4 and ND4 are discussed. From these measurements the ionization potential of 4.73±0.06 eV for NH4 is calculated. The stabilities of CH3NH3 and CH3ND3 radicals and their dissociative pathways have also been investigated.</t>
+          <t>The Metaverse, as the apogee of Society 5.0, opens an iconic and transcendental horizon for exploring the capabilities of human innovation and synergy, giving the knowledge society a new, spiritually connected dimension. The article explores the emergence of the metaverse as an autopoietic entity within the contemporary risk society, arguing that digital transformation facilitates the convergence of separate social systems. In light of Luhmann's theories, the metaverse is examined as a solution to the latent risks of reflexive, late and liquid modernity. The analysis draws on the thought of Baudrillard, Durkheim and Marx, applying their concepts to assess the potential positive and negative repercussions of the metaverse. The article draws a parallel between the structure of magic - characterised by individualism - and that of religion - intrinsically communitarian - suggesting that the metaverse would benefit from following this communitarian model to sustain a collective spiritual dimension, in contrast to the hyperstimulating satisfaction of selfish desires. The conclusion invokes theologian Paul Evdokimov's vision of the limitations of cataphatic theology and the invigorating potential of apophatic theology that calls for the plenitude of the parousiac life, including in the context of interdisciplinary dialogue.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2158142242</t>
+          <t>https://openalex.org/W4379984823</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/cgf.12135</t>
+          <t>https://doi.org/10.1109/pandafpe57779.2023.10141206</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Xie et al. (2013)</t>
+          <t>Feng et al. (2023)</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interactive Ray Casting of Geodesic Grids</t>
+          <t>Research on Energy Big Data Sharing and Application under the Carbon Peaking and Carbon Neutrality Goals</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Abstract Geodesic grids are commonly used to model the surface of a sphere and are widely applied in numerical simulations of geoscience applications. These applications range from biodiversity, to climate change and to ocean circulation. Direct volume rendering of scalar fields defined on a geodesic grid facilitates scientists in visually understanding their large scale data. Previous solutions requiring to first transform the geodesic grid into another grid structure (e.g., hexahedral or tetrahedral grid) for using graphics hardware are not acceptable for large data, because such approaches incur significant computing and storage overhead. In this paper, we present a new method for efficient ray casting of geodesic girds by leveraging the power of Graphics Processing Units (GPUs). A geodesic grid can be directly fetched from storage or streamed from simulations to the rendering stage without the need of any intermediate grid transformation. We have designed and implemented a new analytic scheme to efficiently perform value interpolation for ray integration and gradient calculations for lighting. This scheme offers a more cost‐effective rendering solution over the existing direct rendering approach. We demonstrate the effectiveness of our rendering solution using real‐world geoscience data.</t>
+          <t>This paper proposes a reliable, feasible, efficient, and secure system for sharing and applying energy big data, which enables the cross-border convergence, sharing, integration, and innovative application of various energy big data. This system is essential to achieve carbon peaking and carbon neutrality goals, as well as to thoroughly implement the Four Revolutions and One Cooperation energy security strategy. By following the fused development of the energy and digital revolutions, this system facilitates the integration of energy big data and its innovative application to promote sustainable development.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3030252671</t>
+          <t>https://openalex.org/W4383683451</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s13033-020-00370-x</t>
+          <t>https://doi.org/10.32744/pse.2023.3.35</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Strand et al. (2020)</t>
+          <t>Zubko et al. (2023)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Combining online and offline peer support groups in community mental health care settings: a qualitative study of service users’ experiences</t>
+          <t>University media education in the digital epoch: methods and practices for training future communication professionals</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Peer support for people with long-term mental health problems is central to recovery-oriented approaches in mental health care. Peer support has traditionally been conducted offline in face-to-face groups, while online groups on the Internet have increased rapidly. Offline and online peer support groups are shown to have differing strengths and weaknesses. However, little is known about how combining the two formats might be experienced by service users, which this paper aims to illuminate.In this exploratory and descriptive study, a recovery-oriented Internet-based portal called ReConnect was used by service users in two mental health communities in Norway for 6-12 months. The portal included an online peer support group which also facilitated participation in local offline peer support groups. Both group formats were moderated by an employed service user consultant. Qualitative data about service users' experiences were collected through focus groups and individual interviews and inductively analyzed thematically.A total of 14 female service users 22-67 years of age with various diagnoses participated in three focus groups and 10 individual interviews. Two main themes were identified: (1) balancing anonymity and openness, and (2) enabling connectedness. These themes are further illustrated with the subthemes: (i) dilemmas of anonymity and confidentiality, (ii) towards self-disclosure and openness, (iii) new friendships, and (iv) networks in the local community. Three of the subthemes mainly describe benefits, while challenges were more implicit and cut across the subthemes. Identified challenges were related to transitions from anonymity online to revealing one's identity offline, confidentiality, and barriers related to participation in offline peer support groups.This study suggests that online and offline peer support groups complement each other, and that combining them is mainly described as beneficial by service users. Identified benefits appeared to arise from service users' options of one format or the other, or that they could combine formats in ways that suited their individual values and comfort zones. Moderation by a trained service user consultant appeared essential for both formats and can be used systematically to address identified challenges. Combining online and offline peer support groups is a promising concept for facilitating recovery-oriented care and warrants continued research.</t>
+          <t>Introduction. Digital transformation of educational technologies and student teaching methods is highly relevant for the university education of future media communicators – journalists, public relations and advertising specialists, since communication professionals actively use the opportunities of digital environment in their work. The purpose of the present research is identifying the digital competence level of communication-profile students, their preferences and reaction with respect to the methods of teaching core disciplines. Methods. The research was based on the method of scientific generalisation and theoretical analysis of the Russian and foreign scientific literature in the area of digital transformation of the media sphere, media education methodology, digitalisation of educational practices. A total of 150 undergraduate (Bachelor degree course) and graduate (Master degree course) students of the Higher School of Media Communications and Public Relations of the Institute of Humanities under Peter the Great St. Petersburg Polytechnic University (Russian Federation), majoring in “Advertising and public relations in sectoral areas”, “Advertising and public relations in the international domain”, took part in the survey and the experiment. Results. Despite the objectively high level of students’ approval of the role and potential of digitalisation of the educational process, 79.3% of the surveyed students of St. Petersburg Polytechnic University prefer the training format where the teacher uses innovative technologies; thus one can observe a situation of gradual introduction of innovative technologies in the educational practice. A low level of the students’ use of up-todate technologies, programmes and services in performance of their assignments was recorded: 6.6% of the total number of surveyed students used neural networks; 10.7% of the 100% respondents used 3D-modelling software in their learning activities; 24.7% of the students applied interactive map creation technologies in the learning process. The priority of incorporating digital technologies in the learning process is largely focused on teaching the students to work with corporate learning services and platforms of the university. As a recommendation, the use of in-demand digital technologies for application in the learning process (neural networks, block designers for generation of multimedia content, interactive map creation services, software for development of virtual tours, interactive posters, etc.) is proposed and substantiated. Conclusion. A number of recommendations have been formulated for higher educational institutions, research and pedagogical staff engaged in professional training of future media specialists, with regard for the need for more extensive use of digital technologies in the educational process.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1581996073</t>
+          <t>https://openalex.org/W4205898343</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15520/ajcsit.v5i4.22</t>
+          <t>https://doi.org/10.1353/wlt.2016.0264</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>NA (2015)</t>
+          <t>McKenzie (2016)</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Use of ETL Subsystems for Real-Time Data-Warehouse using MS SQL Server Tool</t>
+          <t>The Half-Life of a Lapsed Ex-Fisher</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Data warehousing is gaining in eminence as organizations become awake of the benefits of decision oriented and business intelligence oriented data bases.  Informed decision-making is required for competitive success in the new global marketplace, which is fraught with uncertainty and rapid technology changes. Achieving Real-Time Data Warehousing is highly dependent on the choice of a process in data warehousing technology known as Extract, Transform, and Load (ETL). This process involves: 1) Extracting data from outside sources; 2) Transforming it to fit operational needs; and 3) Loading it into the end target (database or data warehouse). Not all ETL’s are equal when it comes to quality and performance. As such, optimizing the ETL processes for real time decision making is becoming ever increasingly crucial to today's decision-making process. An effective ETL leads to effective business decisions and yields extraordinary decision-making outcomes. This study overviews the theory behind ETL and raises a research vision for its evolution, with the aim of improving the difficult but necessary data management work required for the development of advanced analytics and business intelligence. SQL Server Integration services (SSIS-MS Sql server tool) is a platform for data integration and workflow applications. It features a fast and flexible data-warehousing tool used for data extraction, transformation, and loading (ETL). The tool may also be used to automate maintenance of SQL Server databases and updates to multidimensional cube data. SQL Server Reporting Services (SSRS- MS Sql server tool) is a server-based report generation software system from Microsoft. Administered via a web interface, it can be used to prepare and deliver a variety of interactive and printed reports.</t>
+          <t>WORLDLITERATURETODAY.ORG 15 top photo : fiona bazter ( lickr . com / fiona _ baxter ) author photo : suzanne steele Last names weigh heavily and are important in Latin America, and Luiselli doesn’t mean anything to anyone. Being a middle-class Mexican, from a family of uneducated European migrants who arrived in Mexico City in the early twentieth century, mixed with “indigenous ” Mexicans, and never really “made it,” it was somehow expected of me to finish what my ancestors had started. It was a kind of duty passed on to me. Those before me had worked their necks off so my generation could have a better life. They went through wars and revolutions, they worked since they were six or seven years old, they sustained families of up to ten to twelve children—and still found time to do social service: they were heroic in a way that my generation would never be able to even come close to. So yes, I grew up with a sense of duty toward my ancestors, a sense of having to live up to their expectations , even if most of them died before I was born. I don’t think my late grandparents would care much for any of my accomplishments as a writer. “She writes these strange little experimental books that she then has to overexplain,” they probably say to each other, full of irony, wherever they are. But they would all proudly think of me as someone who finally went to a good school. NR: Do you think you’ll ever translate someone else’s work? If so, what author and book would you like to work on? VL: About ten years ago I translated several poems by Galway Kinnell. I published my translations of a few of his poems in magazines but never managed to convince anyone to publish an entire book. When he died last year, I wallowed in a sense of having failed him. I had met him when, in my early twenties, I interviewed him and told him I would take his work to Spanish readers. I never did, really. I still think The Book of Nightmares is a masterpiece, a testimony of the atrocities of twentieth-century wars and the desolation they left behind them. I was also about to translate Anne Carson’s Nox into Spanish, but my editors at Sexto Piso never managed to buy the rights to the book. I would have loved to work with her writing. She is one of the few writers I admire fully, without any reservations. Kinnell used to say that translation was a way of allowing someone to influence and change you as a writer. I would have loved to let Carson’s work enter my own and leave an imprint there. September 2015 The Half-Life of a Lapsed Ex-Fisher by Stephanie McKenzie i He once sold a portion of himself to a fish packing plant, slipped in the crates of the headless and dressed when all eyes were bludgeoned. Cloudy. Between the jagged tooth of dogfish he placed the holy gift of tongues, crescent moons from whoring acts. He wished to sail to Denmark or Japan, swear with sailors there. ii Righteous in ghettos he cast anchors deep in wet sidewalks. Fish twisted like humans, reeked of truth on the ground. Some fell on their knees in frozen fish sections, cast nets to catch loonies or bills. He tossed coins in the hold of a bus, snarled “float me the hell outa here.” His eyes cut steaks out of them. Stephanie McKenzie (stephaniemaymckenzie.com) has published three books of poetry, all with Salmon Poetry (Cliffs of Moher, Ireland). Recently, McKenzie received first place for her poetry in Room Magazine’s 2015 fiction and poetry contest. ...</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2414424352</t>
+          <t>https://openalex.org/W2046635277</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1074/jbc.m212639200</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Stanley (1992)</t>
+          <t>Bosserhoff et al. (2003)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Some current factors restricting the potential of private general practice.</t>
+          <t>Specific Expression and Regulation of the New Melanoma Inhibitory Activity-related Gene MIA2 in Hepatocytes</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>This background paper focuses on two or three aspects which, in the writer's opinion, are crucial to the healthy development of general dental practice, although the rapidly progressing health reforms have already altered the relevance of some comments made. The first aspect is equitable access, especially for the financially disadvantaged in this time of economic recession. The ability and inclination of providers to treat the financially disadvantaged has not currently been matched by the political will of funders, even though an effective system could simply be organised. Access problems also apply to the elderly. A smooth transitional system of oral health care should exist for every aging patient, whether economically, physically, and mentally healthy, or in a state of total dependence, and this should be an integral part of general dental practice management. Generally it is not. Secondly, the fragmentation of the New Zealand dental workforce, and the lack of a real team approach have hindered the logical development of oral health services and prevented many possible options from being offered. Dialogue to reduce the fragmentation must continue, hopefully to a successful conclusion. Perhaps the catalyst for meaningful change may be contained in the current health reforms. Certainly opportunities for change have been clearly signalled.</t>
+          <t>The novel human gene MIA2encoding a melanoma inhibitory activity (MIA) homologous protein was identified by a GenBankTM search. MIA2, together with MIA, OTOR, and TANGO, belongs to the novel MIA gene family sharing important structural features, significant homology at both the nucleotide and protein levels, and similar genomic organization. In situ hybridization, reverse transcriptase-PCR, and Northern blots presented a highly tissue-specific MIA2 expression pattern in the liver. Promoter studies analyzing transcriptional regulation of MIA2 revealed an HNF-1-binding site at position −236 controlling hepatocyte-specific expression. Mutation of the site led to a complete loss of promoter activity in HepG2 cell. Further sites detected in the MIA2 promoter were consensus binding sites for SMAD and STAT3, Consistently, stimulation of MIA2 mRNA expression occurred by treatment with interleukin-6, transforming growth factor-β, and conditioned medium from activated hepatic stellate cells. In accordance with these results, MIA2 mRNA was found to be increased in liver tissue of patients with chronic hepatitis C infection compared with controls. MIA2 mRNA levels were significantly higher in patients with severe fibrosis or inflammation than in patients with less severe fibrosis or inflammation. In summary our data indicate that MIA2 represents a potential novel acute phase protein and MIA2 expression responds to liver damage. The increased transcription in more severe chronic liver disease suggests that MIA2 may serve as a marker of hepatic disease activity and severity. The novel human gene MIA2encoding a melanoma inhibitory activity (MIA) homologous protein was identified by a GenBankTM search. MIA2, together with MIA, OTOR, and TANGO, belongs to the novel MIA gene family sharing important structural features, significant homology at both the nucleotide and protein levels, and similar genomic organization. In situ hybridization, reverse transcriptase-PCR, and Northern blots presented a highly tissue-specific MIA2 expression pattern in the liver. Promoter studies analyzing transcriptional regulation of MIA2 revealed an HNF-1-binding site at position −236 controlling hepatocyte-specific expression. Mutation of the site led to a complete loss of promoter activity in HepG2 cell. Further sites detected in the MIA2 promoter were consensus binding sites for SMAD and STAT3, Consistently, stimulation of MIA2 mRNA expression occurred by treatment with interleukin-6, transforming growth factor-β, and conditioned medium from activated hepatic stellate cells. In accordance with these results, MIA2 mRNA was found to be increased in liver tissue of patients with chronic hepatitis C infection compared with controls. MIA2 mRNA levels were significantly higher in patients with severe fibrosis or inflammation than in patients with less severe fibrosis or inflammation. In summary our data indicate that MIA2 represents a potential novel acute phase protein and MIA2 expression responds to liver damage. The increased transcription in more severe chronic liver disease suggests that MIA2 may serve as a marker of hepatic disease activity and severity. melanoma inhibitory activity reverse transcriptase interleukin transforming growth factor β tumor necrosis factor-α lipopolysaccharide phorbol myristyl acetate hepatic stellate cells α1-antitrypsin α2-macrogobulin α1-acid glycoprotein α1-antichymotrypsin Src homology 3 Melanoma inhibitory activity (MIA)1 protein was identified previously within growth-inhibiting activities purified from the tissue culture supernatant of the human melanoma cell line HTZ-19 (1Bogdahn U. Apfel R. Hahn M. Gerlach M. Behl C. Hoppe J. Martin R. Cancer Res. 1989; 49: 5358-5363PubMed Google Scholar). MIA is translated as a 131-amino acid precursor molecule and is processed into a mature 107-amino acid protein after cleavage of a hydrophobic secretion signal. The position within the human genome was mapped to chromosome 19q13.32-13.33 (2Koehler M.R. Bosserhoff A. von Beust G. Bauer A. Blesch A. Buettner R. Schlegel J. Bogdahn U. Schmid M. Genomics. 1996; 35: 265-267Crossref PubMed Scopus (33) Google Scholar). MIA mRNA was identified independently by differential display approaches comparing melanoma cell lines and also comparing differentiated and dedifferentiated cartilage cells in vitro. Therefore, MIA has also been referred to as cartilage-derived retinoic acid-sensitive protein (3Dietz U.H. Sandell L.J. J. Biol. Chem. 1996; 271: 3311-3316Abstract Full Text Full Text PDF PubMed Scopus (119) Google Scholar). Subsequent studies of murine embryos and murine adult tissues demonstrated specific mRNA expression patterns in cartilage but not in any other non-neoplastic tissue (4Bosserhoff A.K. Kondo S. Moser M. Dietz U.H. Copeland N.G. Gilbert D.J. Jenkins N.A. Buettner R. Sandell L.J. Dev. Dyn. 1997; 208: 516-525Crossref PubMed Scopus (103) Google Scholar). Functionally, MIA was initially purified and described to exert a</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3175751780</t>
+          <t>https://openalex.org/W2075171177</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7498/aps.70.20210059</t>
+          <t>https://doi.org/10.1086/165511</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Jin et al. (2021)</t>
+          <t>Tayal et al. (1987)</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Implementation of the Rydberg double anti-blockade regime and the quantum logic gate based on resonant dipole-dipole interactions</t>
+          <t>Electron excitation of fine-structure transitions within the ground 3s2 3p3 configuration in Fe XII</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Quantum information science is an emerging field that applies the quantum coherence and correlation to cause the revolutionary advances in computation, communication, and fundamental quantum science. As an irreducible ingredient, Rydberg quantum gate is considered to be a powerful resource with great promises to a wide range of quantum information tasks far beyond the original gate proposals, since the remarkable features characterized by Rydberg atom are long lifetime and giant polarizability. In recent years, the research mainly focused on the properties of Rydberg atom, especially for the case where the effects of Rydberg blockade and antiblockade involving single level for each atom are dominated by van der Waals forces. However, with the variation of interatomic distance, Rydberg interactions can induce more complicated dynamical behavior. This paper studies the implementation of controlled-phase gate and swap gate in one step based on the constructed Rydberg antiblockade (RAB) and double antiblockade (RDAB) regimes when the interatomic distance is less than the characteristic length. Different from the conventional RAB regime that requires weak Rydberg-Rydberg interaction (RRI), our attainable strategy is to compensate the RRI-induced energy shift by properly tuning the detuning between the driving field and atomic transition frequencies. In addition, the proposed RDAB mechanism is a new physical insight that can enable two pairs of Rydberg states belonging to different atoms to be excited, simultaneously. In contrast to other blocking schemes or the schemes without requirements for strong interactions, the merits of our proposal lies in the strong dipole-dipole interaction between two atoms, leading to the population exchange of multiple energy levels. Numerical simulations show that the time evolution of the population for collective double-atom basis obtained from the original Hamiltonian agrees well with the analytical results given by the effective Hamiltonian. In the ideal case, the average fidelity of the controlled-phase (swap) gate can reach 99.35% (99.67%) at final time &amp;lt;inline-formula&amp;gt;&amp;lt;tex-math id="M1"&amp;gt;\begin{document}$t=\sqrt{2}\pi\Delta/\Omega^{2}$\end{document}&amp;lt;/tex-math&amp;gt;&amp;lt;alternatives&amp;gt;&amp;lt;graphic xmlns:xlink="http://www.w3.org/1999/xlink" xlink:href="13-20210059_M1.jpg"/&amp;gt;&amp;lt;graphic xmlns:xlink="http://www.w3.org/1999/xlink" xlink:href="13-20210059_M1.png"/&amp;gt;&amp;lt;/alternatives&amp;gt;&amp;lt;/inline-formula&amp;gt; (&amp;lt;inline-formula&amp;gt;&amp;lt;tex-math id="M2"&amp;gt;\begin{document}$t=2\pi\Delta/\Omega^{2}$\end{document}&amp;lt;/tex-math&amp;gt;&amp;lt;alternatives&amp;gt;&amp;lt;graphic xmlns:xlink="http://www.w3.org/1999/xlink" xlink:href="13-20210059_M2.jpg"/&amp;gt;&amp;lt;graphic xmlns:xlink="http://www.w3.org/1999/xlink" xlink:href="13-20210059_M2.png"/&amp;gt;&amp;lt;/alternatives&amp;gt;&amp;lt;/inline-formula&amp;gt;), and our protocol is robustness against spontaneous emission of high-lying Rydberg states. We believe our present investigation is feasible in upcoming experimental realization and may offer an new venue with respect to on-demand design of new types of effective Rydberg quantum gate devices.</t>
+          <t>view Abstract Citations (33) References (26) Co-Reads Similar Papers Volume Content Graphics Metrics Export Citation NASA/ADS Electron Excitation of Fine-Structure Transitions within the Ground 3s 23p 3 Configuration in Fe XII Tayal, S. S. ; Henry, Ronald J. W. ; Pradhan, A. K. Abstract LS-coupled K matrices calculated in an R-matrix approach are recoupled to obtain collision strengths for fine-structure transitions within the ground 3s23p3 configuration in an intermediate coupling scheme. The target states are represented by extensive configuration-interaction wave functions. The relativistic effects in the target are allowed in the Breit-Pauli formulation. The effective collision strengths are obtained by integrating the collision strengths over a Maxwellian distribution of electron energies. These are listed over a wide temperature range (400,000 - 3,000,000K). Publication: The Astrophysical Journal Pub Date: August 1987 DOI: 10.1086/165511 Bibcode: 1987ApJ...319..951T Keywords: Atomic Excitations; Computational Astrophysics; Electron Transitions; Fine Structure; Iron; Solar Wind; Collision Rates; Electron Scattering; Solar Physics; ATOMIC PROCESSES full text sources ADS |</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2799449770</t>
+          <t>https://openalex.org/W2090599549</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1053/j.ajkd.2018.02.005</t>
+          <t>https://doi.org/10.1109/cleoe-iqec.2013.6801255</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Kattah &amp; Garovic (2018)</t>
+          <t>Marris‐Morini et al. (2013)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>From Delivery to Dialysis: Does Preeclampsia Count?</t>
+          <t>Low energy consumption and high speed germanium-based optoelectronic devices</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Related Article, p. 619 Related Article, p. 619 Hypertensive disorders of pregnancy (HDPs) represent a spectrum of conditions including gestational hypertension, preeclampsia/eclampsia, and preeclampsia superimposed on chronic hypertension.1National High Blood Pressure Education Program Working Group on High Blood Pressure in PregnancyReport of the National High Blood Pressure Education Program Working Group on High Blood Pressure in Pregnancy.Am J Obstet Gynecol. 2000; 183: S1-S22Abstract Full Text Full Text PDF PubMed Scopus (2331) Google Scholar The exact incidence of HDPs is unclear because definitions have changed over time, but most estimates place the incidence at ∼8% of pregnancies.1National High Blood Pressure Education Program Working Group on High Blood Pressure in PregnancyReport of the National High Blood Pressure Education Program Working Group on High Blood Pressure in Pregnancy.Am J Obstet Gynecol. 2000; 183: S1-S22Abstract Full Text Full Text PDF PubMed Scopus (2331) Google Scholar HDPs have been linked to the future development of hypertension, cardiovascular disease, and stroke.2Bellamy L. Casas J.P. Hingorani A.D. Williams D.J. Pre-eclampsia and risk of cardiovascular disease and cancer in later life: systematic review and meta-analysis.BMJ. 2007; 335: 974-986Crossref PubMed Scopus (1558) Google Scholar In light of this evidence, several societies define preeclampsia as a distinct risk factor in women for the future development of vascular disease.3Mosca L. Benjamin E.J. Berra K. et al.Effectiveness-based guidelines for the prevention of cardiovascular disease in women–2011 update: a guideline from the American Heart Association.J Am Coll Cardiol. 2011; 57: 1404-1423Crossref PubMed Scopus (542) Google Scholar, 4Bushnell C. McCullough L. Stroke prevention in women: synopsis of the 2014 American Heart Association/American Stroke Association guideline.Ann Intern Med. 2014; 160: 853-857Crossref PubMed Scopus (31) Google Scholar, 5American College of Obstetricians and Gynecologists; Task Force on Hypertension in Pregnancy. Hypertension in pregnancyReport of the American College of Obstetricians and Gynecologists' Task Force on Hypertension in Pregnancy.Obstet Gynecol. 2013; 122: 1122-1131Crossref PubMed Scopus (601) Google Scholar Given the close relationship among hypertension, cardiovascular disease, and kidney disease, it is not surprising that HDPs have also been associated with the development of kidney dysfunction, particularly albuminuria, and with the development of end-stage renal disease (ESRD).6McDonald S.D. Han Z. Walsh M.W. Gerstein H.C. Devereaux P.J. Kidney disease after preeclampsia: a systematic review and meta-analysis.Am J Kidney Dis. 2010; 55: 1026-1039Abstract Full Text Full Text PDF PubMed Scopus (124) Google Scholar, 7Vikse B.E. Irgens L.M. Leivestad T. Skjaerven R. Iversen B.M. Preeclampsia and the risk of end-stage renal disease.N Engl J Med. 2008; 359: 800-809Crossref PubMed Scopus (441) Google Scholar, 8Wang I.K. Muo C.H. Chang Y.C. et al.Association between hypertensive disorders during pregnancy and end-stage renal disease: a population-based study.CMAJ. 2013; 185: 207-213Crossref PubMed Scopus (96) Google Scholar, 9Kattah A.G. Scantlebury D.C. Agarwal S. et al.Preeclampsia and ESRD: the role of shared risk factors.Am J Kidney Dis. 2016; 69: 498-505Abstract Full Text Full Text PDF PubMed Scopus (31) Google Scholar In this issue of AJKD, Paauw et al10Paauw N.D. van der Graaf A.M. Bozoglan R. et al.Kidney function after a hypertensive disorder of pregnancy: a longitudinal study.Am J Kidney Dis. 2018; 71: 619-626Abstract Full Text Full Text PDF PubMed Scopus (15) Google Scholar present data using the Prevention of Renal and Vascular End Stage Disease (PREVEND) cohort that again address the relationship between HDPs and kidney disease, offering additional insights into this increasingly recognized association. The first study to demonstrate the relationship between preeclampsia and ESRD was by Vikse et al7Vikse B.E. Irgens L.M. Leivestad T. Skjaerven R. Iversen B.M. Preeclampsia and the risk of end-stage renal disease.N Engl J Med. 2008; 359: 800-809Crossref PubMed Scopus (441) Google Scholar in 2008. Using the Medical Birth Registry of Norway, the authors found nearly 5-fold increased risk for ESRD after preeclampsia in a woman’s first pregnancy, with increasing risk for ESRD if preeclampsia occurred in several pregnancies.7Vikse B.E. Irgens L.M. Leivestad T. Skjaerven R. Iversen B.M. Preeclampsia and the risk of end-stage renal disease.N Engl J Med. 2008; 359: 800-809Crossref PubMed Scopus (441) Google Scholar It should be noted that the absolute risk for ESRD was still low in this population (14.5 vs 3.3 per 100,000 person-years in women with preeclampsia vs no preeclampsia) and developed at a mean age of 41 years, on average 17 years after a woman’s first pregnancy. The second study to explore this relationship was by Wang et al8Wang I.K. Muo C.H. Chang Y.C. et al</t>
+          <t>Summary form only given. Silicon photonics has generated a strong interest in recent years, mainly for optical telecommunications and optical interconnects in microelectronic circuits. The main rationales of silicon photonics are the reduction of photonic system costs and the increase of the number of functionalities on the same integrated chip by combining photonics and electronics. In the group IV materials, germanium (Ge) has been identified as a promising material to cost-effectively enhance the performance of Si electronic and photonic integrated circuits (IC) [1,2]. In optics, despite being an indirect-gap semiconductor, Ge may play a key role enabling future chip scale optical interconnects to meet aggressive requirements in terms of power consumption, data density, speed, reliability and monolithic integration with silicon [2]. Strong light detection [3], modulation [4], and emission [5] capabilities around C and L telecommunication wavelength bands were shown using Ge direct-gap transitions of bulk Ge on Si. A new promising approach is to employ Ge/SiGe quantum wells (QWs). Indeed, such heterostructures were shown to further enhance light modulation based on quantum confined Stark effect (QCSE) using the direct-gap transition of Ge multiple quantum wells (MQW) embedded in a vertical p-i-n diode [6,7]. Light modulation, detection, and emission can be obtained with both Ge platforms.In this paper, we focus on the modulation performances and DC and high speed modulation performances of the Ge/SiGe MQW waveguide were investigated (figure 1a and 1b). The epitaxial growth of such Ge/SiGe stack was performed using LEPECVD. The Ge/SiGe MQW modulator exhibit a wide spectral range with an ER greater than 10 dB with only 12% overlap factor between the optical mode and the MQW. High speed modulation performance from Ge/SiGe MQWs was demonstrated up to 23 GHz in waveguide configuration at wavelengths around 1.4 μm. The working wavelength can be tuned according to the QW configuration and modulation has been also demonstrated at 1.3μm. Recent results on waveguide integration will be presented and good performance of optical link will be reported.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2048546948</t>
+          <t>https://openalex.org/W2019259807</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.hlc.2011.05.569</t>
+          <t>https://doi.org/10.1111/j.1467-3010.2008.00694.x</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>McVeigh &amp; Davidson (2011)</t>
+          <t>Buttriss (2008)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Nurse Practitioners in Cardiac Care: State of the Nation</t>
+          <t>Health policy set to tackle obesity</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Background: Contemporary health care systems face a number of changes mainly attributed to the increasing burden of chronic conditions, a demand for evidence based practice, fiscal constraints and workforce shortages. Reconfiguring workforce characteristics is necessary to meet these challenges. The nurse practitioner (NP) is an emerging role with the potential to improve health outcomes in Australia and internationally. Aim: To document the numbers of NPs in cardiac care and identify barriers and facilitators to enabling this advanced practice nursing role. Method: A data base is managed by the Australian Cardiovascular Nursing College and the Australia College of Nurse Practitioners. This data base was searched for the number of nurses working in cardiology NP roles and to identify areas of specialisation. Barriers and facilitators to the NP role were identified by an integrative literature review and key informant consultation. Results: Data sources reveal that there are approximately 310 authorised nurse practitioners in Australia and approximately 115 in transitional positions. Since 2002, 20 authorised nurse practitioners are working in a range of positions (for example heart failure and acute cardiology) and 25 working towards authorisation or in transitional positions in cardiology. The majority of authorised nurse practitioners are in heart failure (n = 15) Queensland currently has the greatest number of nurse practitioners (n = 7). Local factors, such as clinical champions, serve as enablers to the NP role, whereas role ambiguity and confusion contribute to a lack of role enablement in many settings. Conclusion: Systematic and strategic initiatives are needed to enable the NP role in cardiac care in Australia.</t>
+          <t>As the Cabinet Office report Food: an analysis of the issues (Cabinet Office 2008), published in January 2008, makes plain, from the austerity of the post-war years, when almost a third of disposable income was spent on food, the modern consumer now has access to a wide choice of safe and affordable food and drink, and benefits from investment in product innovation and reformulation on the part of food manufacturers and from a highly competitive grocery market. But at the same time, sustainability of public health is threatened by the trends in obesity and type 2 diabetes and in particular the metabolic health of children and young people. Furthermore, in many Western populations, including the UK, the age profile of the population is changing – people are living longer but much of the extra lifespan is not spent in good health, resulting in implications for public health expenditure. Age-related change in health and disability was the theme of the British Nutrition Foundation's Annual Lecture, given by Professor Kay-Tee Khaw last November, who posed the question: ‘Is ageing modifiable?’ (see Khaw 2008). An ageing population also has other effects on the economy (e.g. in relation to pension requirements and the need for resource planning). The challenge to all those engaged in food and health policy and food provision is to ensure that greater recognition is attached to the linkages between food, nutrition, physical activity and health, that the food industry continues to expand the repertoire of healthier products available and that such products progressively dominate, and that those responsible for the built environment and transport policy in our town centres contribute to a far greater extent than is currently the case to facilitating regular physical activity. A long overdue cross-government strategy (for England) to tackle obesity was published at the beginning of the year: Healthy weight, Healthy lives (Department of Health and Department of Children, Schools and Families 2008), and the Food Standards Agency (FSA) has announced its plans to tackle high-saturated-fatty-acid intakes within the context of its Saturated Fat and Energy Intake Programme (FSA 2008a). The key themes are outlined below, but achievement of these plans will require a concerted effort across government and a genuine partner approach involving a wide range of stakeholders. The transformation of the food supply with respect to trans fatty acids demonstrates what the food industry can achieve on its own, without legislative pressure, when the scientific evidence is robust. In February, the FSA published a response from the Secretary of State for Health, Alan Johnson, to the Agency's December 2007 recommendation that mandatory restrictions on trans fatty acids are not necessary. The letter expresses the Secretary of State's support for the FSA's recommendation and agrees that the focus should now be on reducing saturates in the diet through voluntary measures, while maintaining the progress already made on trans fats (see http://www.food.gov.uk/multimedia/pdfs/ajtransfatletter080110.pdf). The background to the trans issue is discussed in a News and Views article in this issue (see Denny 2008). Healthy weight, Healthy lives is a cross-government strategy for England published by the Department of Health and Department of Children, Schools and Families (2008). Helped by a panel of experts, the government promises to publish annually an assessment of the progress it is making in halting, and then turning around, the rise in excess bodyweight. Ministers will use this annual assessment to develop and intensify their policy focus. Below is a summary of the key themes of the report. Immediate plans are to: identify at-risk families as early as possible and promote breastfeeding as the norm for mothers; give better information to parents about their children's health by providing parents with their child's results from the National Child Measurement Programme (see The Information Centre for Health and Social Care 2008); invest to ensure that all schools are healthy schools, including making cooking a compulsory part of the curriculum by 2011 for all 11- to 14-year-old children; ask all schools to develop healthy lunchbox policies, so that those not yet taking up school lunches are also eating healthily; develop tailored programmes in schools to increase the participation of obese and overweight pupils in PE and sporting activities; invest £75 million in an evidence-based marketing programme which will inform, support and empower parents in making changes to their children's diet and levels of physical activity; invest in improving cycling infrastructure and skills in areas where child weight is a particular problem, as part of the recently announced package of further funding of £140 million for Cycling England. Immediate plans are to: finalise a Healthy Food Code of Good Practice, in partnership with the food and drink industry, and other</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3164994590</t>
+          <t>https://openalex.org/W2990274894</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fpls.2021.670497</t>
+          <t>https://doi.org/10.1016/j.wneu.2019.11.070</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Gómez-Soto et al. (2021)</t>
+          <t>Thien et al. (2020)</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Overexpression of a SOC1-Related Gene Promotes Bud Break in Ecodormant Poplars</t>
+          <t>The National Neuroscience Institute External Ventricular Drain Study: A Pragmatic Multisite Risk-Stratification Pathway to Reduce Ventriculostomy-Related Infection</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Perennial species in the boreal and temperate regions are subject to extreme annual variations in light and temperature. They precisely adapt to seasonal changes by synchronizing cycles of growth and dormancy with external cues. Annual dormancy–growth transitions and flowering involve factors that integrate environmental and endogenous signals. MADS-box transcription factors have been extensively described in the regulation of Arabidopsis flowering. However, their participation in annual dormancy–growth transitions in trees is minimal. In this study, we investigate the function of MADS12 , a Populus tremula × alba SUPPRESSOR OF CONSTANS OVEREXPRESSION 1 ( SOC1 )-related gene. Our gene expression analysis reveals that MADS12 displays lower mRNA levels during the winter than during early spring and mid-spring. Moreover, MADS12 activation depends on the fulfillment of the chilling requirement. Hybrid poplars overexpressing MADS12 show no differences in growth cessation and bud set, while ecodormant plants display an early bud break, indicating that MADS12 overexpression promotes bud growth reactivation. Comparative expression analysis of available bud break-promoting genes reveals that MADS12 overexpression downregulates the GIBBERELLINS 2 OXIDASE 4 ( GA2ox4 ), a gene involved in gibberellin catabolism. Moreover, the mid-winter to mid-spring RNAseq profiling indicates that MADS12 and GA2ox4 show antagonistic expression during bud dormancy release. Our results support MADS12 participation in the reactivation of shoot meristem growth during ecodormancy and link MADS12 activation and GA2ox4 downregulation within the temporal events that lead to poplar bud break.</t>
+          <t>Ventriculostomy-related infection (VRI) is associated with potential serious morbidity, extended hospitalization duration, increased health care costs, and mortality. We assessed the effectiveness of a pragmatic risk-stratification pathway for external ventricular drain (EVD) management, allowing for surgical decision making, in reducing the rate of VRIs. Two studies were performed concurrently. A retrospective audit of EVD infection rates and outcomes in our unit across 3 hospitals was conducted from January to December 2014. The second prospective study compared the same variables during the implementation of the EVD pathway across the 3 sites from January 2015 to December 2016. The number of patients requiring EVDs increased from 2014 to 2016 (165 vs. 189 vs. 197 patients, respectively), with a significant increase in patients with intraventricular hemorrhage (P = 0.009). Despite increasing risk, overall EVD infections decreased during the implementation period, from 4.8% (8/165) in 2014 to 3.7% in 2015 (7/189) and 2.0% in 2016 (4/197, P = 0.33). In 2 sites (site 1, 2.0% vs. 2.1% vs. 1.9%, and site 2, 4.7% vs. 5.0% vs. 5.3%), transition to the EVD risk-stratification pathway maintained already low infection rates; in site 3, EVD infections decreased from 6.8% (5/73) to 3.9% (4/102) and 0% (0/86, P = 0.06). The introduction of a pragmatic evidence-based risk-stratification pathway, in which different options for EVD management are incorporated, results in low EVD infection rates across a multisite institutional practice. Our results are comparable to published protocols involving the implementation of standard care bundles and/or antibacterial EVDs alone, in reducing VRIs.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1982403959</t>
+          <t>https://openalex.org/W1637042773</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physreve.77.061127</t>
+          <t>https://doi.org/10.6092/issn.1972-5787/3887</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Xu (2008)</t>
+          <t>Néron (2013)</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Continuous-time quantum walks on one-dimensional regular networks</t>
+          <t>A Formal Proof of Square Root and Division Elimination in Embedded Programs</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>In this paper, we consider continuous-time quantum walks (CTQWs) on a one-dimensional ring lattice of N nodes in which every node is connected to its 2m nearest neighbors ( m on either side). In the framework of the Bloch function ansatz, we calculate the space-time transition probabilities between two nodes of the lattice. We find that the transport of CTQWs between two different nodes is faster than that of the classical continuous-time random walks (CTRWs). The transport speed, which is defined by the ratio of the shortest path length and propagating time, increases with the connectivity parameter m for both CTQWs and CTRWs. For fixed parameter m , the transport of CTRWs gets slower with the increase of the shortest distance while the transport (speed) of CTQWs turns out to be a constant value. In the long-time limit, depending on the network size N and connectivity parameter m , the limiting probability distributions of CTQWs show various patterns. When the network size N is an even number, the probability of being at the original node differs from that of being at the opposite node, which also depends on the precise value of parameter m .</t>
+          <t>The use of real numbers in a program can introduce differences between the expected and the actual behavior of the program, due to the finite representation of these numbers. Therefore, one may want to define programs using real numbers such that this difference vanishes. This paper defines a program transformation for a certain class of programs that improves the accuracy of the computations on real number representations by removing the square root and division operations from the original program in order to enable exact computation with addition, multiplication and subtraction. This transformation is meant to be used on embedded systems, therefore the produced programs have to respect constraints relative to this kind of code. In order to ensure that the transformation is correct, i.e. preserves the semantics, we also aim at specifying and proving this transformation using the PVS proof assistant.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2131522100</t>
+          <t>https://openalex.org/W3040864496</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1107/s0567739478000509</t>
+          <t>https://doi.org/10.1016/j.watres.2020.116133</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Grimm &amp; Fitzgerald (1978)</t>
+          <t>Durán et al. (2020)</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>A neutron investigation of the low-temperature structure of RbH&lt;sub&gt;3&lt;/sub&gt;(SeO&lt;sub&gt;3&lt;/sub&gt;)&lt;sub&gt;2&lt;/sub&gt;</t>
+          <t>Modeling the anaerobic treatment of sulfate-rich urban wastewater: Application to AnMBR technology</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>The crystal structure of RbH3(SeO3)2 has been determined in the low-temperature phase (space group P21) with neutron diffraction. The crystal undergoes an improper ferroelectric phase transition at 158 K and the unit cell is doubled below the transition temperature. This transition is induced by the condensation of a soft mode at the Brillouin zone boundary. Imposing the symmetry of the soft-mode eigenvector on the static displacements from the high-temperature positions (space group P212121) results in a reduction, by a factor of four, of the number of positional parameters required to describe the low-temperature structure. The crystal is constructed of two types of chains consisting of SeO3 groups connected by hydrogen bonds, and the order parameter for the transition is shown to be the rigid rotations of the SeO3 tetrahedra belonging to one type of chain. The atomic displacements necessary to produce the observed spontaneous polarization are shown to be too small to be observed in the present experiment, and the precise mechanism responsible for the spontaneous polarization remains unknown.</t>
+          <t>Although anaerobic membrane bioreactors (AnMBR) are a core technology in the transition of urban wastewater (UWW) treatment towards a circular economy, the transition is being held back by a number of bottlenecks. The dissolved methane released from the effluent, the need to remove nutrients (ideally by recovery), or the energy lost by the competition between methanogenic and sulfate-reducing bacteria (SRB) for the biodegradable COD have been identified as the main issues to be addressed before AnMBR becomes widespread. Mathematical modeling of this technology can be used to obtain further insights into these bottlenecks plus other valuable information for design, simulation and control purposes. This paper therefore proposes an AnMBR anaerobic digestion model to simulate the crucial SRB-related process since these bacteria degrade more than 40% of the organic matter. The proposed model, which is included in the BNRM2 collection model, has a reduced but all-inclusive structure, including hydrolysis, acidogenesis, acetogenesis, methanogenesis and other SRB-related processes. It was calibrated and validated using data from an AnMBR pilot plant treating sulfate-rich UWW, including parameter values obtained in off-line experiments and optimization methods. Despite the complex operating dynamics and influent composition, it was able to reproduce the process performance. In fact, it was able to simulate the AD of sulfate-rich UWW considering only two groups of SRB: heterotrophic SRB growing on both VFA (propionate) and acetate, and autotrophic SRB growing on hydrogen. Besides the above-mentioned constraints, the model reproduced the dynamics of the mixed liquor solids concentration, which helped to integrate biochemical and filtration models. It also reproduced the alkalinity and pH dynamics in the mixed liquor required for assessing the effect of chemical precipitation on membrane scaling.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1973838891</t>
+          <t>https://openalex.org/W1991617345</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0749-6419(94)00049-2</t>
+          <t>https://doi.org/10.1161/01.hyp.25.4.464</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Haupt &amp; Kamlah (1995)</t>
+          <t>Daemen &amp; Mey (1995)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Representation of cyclic hardening and softening properties using continuous variables</t>
+          <t>Regional Heterogeneity of Arterial Structural Changes</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Our aim is the modeling of cyclic hardening, cyclic softening, cyclic mean stress relaxation, and additional nonproportional cyclic hardening. We do so by means of hardening functionals for back stress and yield stress without employing additional memory surfaces. Rather, we suppose all quantities to evolve simultaneously during elastic-plastic loading in a continuous manner. The basic idea is to formulate evolution equations for the hardening variables, which are of the “hardening/dynamic recovery” format with respect to a transformed arc length. The corresponding transformation is influenced by continuously evolving parameters, measuring strain amplitude and nonproportionality during the recent process history. Although the resulting, model has a very simple structure, it is capable of describing the basic phenomena under quite general loading conditions.</t>
+          <t>Arterial structural changes in experimental models of hypertension and restenosis differ between vessel types and within vessels. Inspired by the diversity of short-term functional responses to vasoactive agents, hypotheses are presented with respect to the heterogeneity of structural alterations. Considered are the multifactorial nature of smooth muscle cell growth control and the possibility that vascular smooth muscle is not homogeneous but composed of different smooth muscle cell populations. These hypotheses may help explain the origin of both intervascular and intravascular heterogeneity of vascular structural responses.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1886439830</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.47749/t/unicamp.2013.923156</t>
+          <t>https://openalex.org/W2187649962</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Oliveira (2021)</t>
+          <t>Yahia et al. (2010)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Desenvolvimento de um microinversor monofásico para sistema fotovoltaico conectado na rede elétrica de baixa tensão</t>
+          <t>Condensed [OPr 4 ] 10+ and Discrete [AsO 3 ] 3-- Y 1 -Tetrahedra in Pr 5 O 4 Cl[AsO 3 ] 2</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>The objective of this work is the construction of a complete single-phase power electronic converter for grid connection of low voltage distribution powered by photovoltaic panels.Photovoltaic panels generates a DC voltage that varies between 20 and 50V, depending on the type of panel and presence or absence of connection between them, it is necessary, therefore, the adequacy of voltage levels generated by the panel with the voltage level of the electrical distribution network, in which it is connected.The power electronic converter used in this study consists of two stages with the first is a dcdc converter and the second is a dc-ac converter, frequency inverter.It will be controlled in two ways: the first is responsible for controlling the input voltage of the dc-dc converter and the power injection in the ac-dc converter which, besides being responsible for the transformation into alternating voltage is also responsible by the synchronism of the converter dc-ac with the utility grid.Simulation results of the converter operation connected to the utility grid are presented, its network control and operation of the complete electrical system.The complete design of converters and auxiliary circuits and the experimental results obtained in the laboratory are presented.</t>
+          <t>The oxide chloride arsenite Pr5O4Cl[AsO3]2 was obtained as green crystals as a by-product of the synthesis of PrOTAs oxide arsenides (T = late transition metal), starting from Pr6O11, a transition metal oxide, arsenic, and an NaCl/KCl flux. Pr5O4Cl[AsO3]2 crystallizes with the monoclinic Nd5O4Cl[AsO3]2-type structure, space group C2/m. The structure was refined from single-crystal diffractometer data: a = 12.4943(15), b = 5.6884(13) c = 9.0776(19) A° , β = 116.61(1)◦, R(F) = 0.0264, wR(F2) = 0.0509, 542 F2 values, and 52 variables. It is built up from corrugated layers of edge- and corner-sharing [OPr4]10+ tetrahedra, which are connected via chloride anions. The space between the layers is filled by these Cl− and discrete arsenite anions [AsO3]3− with lone pairs pointing towards each other. The network of condensed [OPr4]10+ tetrahedra is compared with the different arrays in the oxide pnictides α-PrOZnP, and in β -PrOZnP. Arsenic lone pair energy bands, main interactions, and the spatial distribution were identified precisely using density functional theory (DFT). Among the three crystallographically different sites for praseodymium, one was found non-magnetic in these calculations.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1587320091</t>
+          <t>https://openalex.org/W4255519986</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.12987/yale/9780300115581.003.0004</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Ackermann (1996)</t>
+          <t>Corfield (2007)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Developing object-oriented multimedia software : based on the MET++ application framework</t>
+          <t>Radical Discontinuity</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Developing Object-Oriented Multimedia Software Contents Developing Object-Oriented Multimedia Software by Philipp Ackermann 1 Introduction 1.1 What is Multimedia? 1.1.1 Integration and Interaction with Continuous Media 1.1.2 Multimedia Hardware 1.1.3 Multimedia Applications 1.2 Developing Multimedia Applications 1.2.1 Problems of Multimedia Productions 1.2.2 Developing Multimedia Software 1.2.3 Problems of Current Multimedia Toolkits 2 Software Engineering Aspects 2.1 Design Considerations 2.1.1 Creating Models with Computers 2.1.2 Modeling through Programming 2.1.3 Programming Methods 2.1.4 The Role of Evolutionary Prototypes 2.1.5 The Software Development Process 2.2 Object-Oriented Software Development 2.2.1 Object-Oriented Design 2.2.2 Object-Oriented Programming Languages 2.2.3 Class Libraries and Building Blocks 2.2.4 Design Patterns 2.2.5 Frameworks 2.2.6 Application Frameworks 2.2.7 Components and Run-time Environments 3 The MET++ Multimedia Application Framework 3.1 The ET++ Application Framework 3.1.1 Building Blocks 3.1.2 Application Framework and User Interaction Elements 3.1.3 Portability Layer 3.1.4 Data and Converter Framework 3.1.5 Exploration Environment 3.2 The MET++ Multimedia Framework Extensions 3.2.1 System Overview 3.2.2 Hardware Platforms of the Development Environment 3.2.3 3D Graphics 3.2.4 Audio and Music 3.2.5 Video 3.2.6 Time Synchronization 3.2.7 Hyperlinks 3.2.8 File Converters 4 The Time Synchronization Framework 4.1 Multimedia Synchronization 4.2 Specification of Media Presentations 4.2.1 Temporal Specification 4.2.2 Object-Based Event Composition 4.3 Time Events 4.3.1 Basic Event Class 4.3.2 Grouping of Events 4.3.3 Grouping Classes with Temporal Layout Strategies 4.4 Time-dynamic Media Objects 4.4.1 Temporal Wrappers 4.4.2 Time Functions 4.4.3 Local Time Warping 4.5 Real-time Presentation 4.5.1 Real-Time Clock 4.5.2 Presentation Time 4.5.3 Interactive Control of Presentations 4.6 Visualization of Temporal Structures 4.6.1 Event Graph 4.6.2 Time Composition View 4.7 Direct Manipulation of Temporal Structures 4.7.1 Time Function Editing 4.7.2 Event Transformations and Grouping Color Plates 5 The Graphics and Animation Framework 5.1 Integrating 2D and 3D Graphics 5.1.1 Integration Concepts 5.1.2 Implementation and Cross-Platform Portability 5.1.3 3-Dimensional Views 5.1.4 Camera Manipulations 5.2 3D Models 5.2.1 3D Objects and 3D Views 5.2.2 3D Object Picking 5.2.3 Handles for 3D Object Manipulations 5.2.4 Programming 3D Graphics Applications 5.3 Animations 5.3.1 Keyframe Animations 5.3.2 Animated 2D Graphics 5.3.3 Synchronized Screen Update 5.3.4 Animated 3D Graphics 5.3.5 Direct Manipulation of Trajectories 6 The Audio and Music Framework 6.1 Digital Audio Processing 6.1.1 Audio Signal Flow 6.1.2 Audio Input/Output 6.1.3 Audio Samples in Memory and Files 6.1.4 CD-Audio and Digital Audio Tape 6.1.5 Sound Generators 6.1.6 Filters and Effects 6.1.7 Audio Flow Programming 6.1.8 Interactive Patch Editor 6.2 Musical Structures 6.2.1 Musical Interpretation Context 6.2.2 Notes and chords 6.2.3 Musical Performance 6.2.4 Common Music Notation 6.2.5 Music Instruments 6.2.6 Score Converters 7 The Image and Video Framework 7.1 Image Processing 7.1.1 Image Display and Data Representation 7.1.2 Image Editing 7.2 Video Integration 7.2.1 Video Processing Layers 7.2.2 Video Signal Flow 7.2.3 Video Input 7.2.4 Video Display 7.2.5 Video Compression 7.2.6 Movie Playback and Recording 7.2.7 Off-line Video Post-Processing 7.2.8 Network Video Transmission 7.3 Remote Video Control 7.3.1 Remote Video Preview 7.3.2 Remote Video Recording 8 Rapid Application Development by Reusing Frameworks 8.1 Multimedia 8.1.1 The medit Multimedia Editor 8.1.2 The Skydiving Tutorial 8.2 Hypermedia 8.2.1 Hyperlinking 8.2.2 Embedded Documents 8.2.3 The mwrite Hypertext Editor 8.2.4 Online Help 8.2.5 World Wide Web Browser 8.3 Augmented User Interfaces and Metaphors 8.3.1 Three-Dimensional User Interface Components 8.3.2 Audio Feedback 8.3.3 Audio Mixing Front-Ends 8.4 Scientific Visualization 8.4.1 Geoid 8.4.2 Medical Data 8.4.3 Simulation Models 8.4.4 Data Visualization and Sonification 8.5 Visual Programming Environment 8.5.1 User Interface Builder 8.5.2 Executable Documents 9 Summary 9.1 Conclusion 9.2 Consequences 9.3 Outlook Appendix A The C++ Programming Language A.1 C++ Notation A.2 Graphical Class and Object Diagrams A.3 Naming Conventions and C++ Coding Guidelines A.4 C++ Source Code Excerpts Appendix B MET++ Software Distribution B.1 Availability B.2 Installation B.2.1 Platforms B.2.2 Directory Structure B.2.3 Installation Procedure B.3 The ETRC Resource File List of Classes List of Programs Bibliography Index</t>
+          <t>This chapter examines the issue of radical discontinuity in relation to history and time. It explains that radical discontinuity refers to all forms of drastic upheaval that are both significant in their actual happening and/or fundamental in their long-term impact and it is different from gradual change or adaptation. It provides examples of radical discontinuity including natural cataclysms, upheaval, and revolution and describes a Newtonian model that simultaneously incorporates instability and restlessness. This chapter also contends that explosive discontinuities are not separate factors within the cosmos but are part and parcel of the familiar state of play, both in human and non-human affairs.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2802707553</t>
+          <t>https://openalex.org/W1985122628</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41598-018-23326-1</t>
+          <t>https://doi.org/10.1521/jscp.1992.11.4.377</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Lin et al. (2018)</t>
+          <t>Chwalisz et al. (1992)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Data-based Decision Rules to Personalize Depression Follow-up</t>
+          <t>Causal Attributions, Self-Efficacy Cognitions, and Coping with Stress</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Depression is a common mental illness with complex and heterogeneous progression dynamics. Risk grouping of depression treatment population based on their longitudinal patterns has the potential to enable cost-effective monitoring policy design. This paper establishes a rule-based method to identify a set of risk predictive patterns from person-level longitudinal disease measurements by integrating the data transformation, rule discovery and rule evaluation. We further extend the identified rules to create rule-based monitoring strategies to adaptively monitor individuals with different disease severities. We applied the rule-based method on an electronic health record (EHR) dataset of depression treatment population containing person-level longitudinal Patient Health Questionnaire (PHQ)-9 scores for assessing depression severity. 12 risk predictive rules are identified, and the rule-based prognostic model based on identified rules enables more accurate prediction of disease severity than other prognostic models including RuleFit, logistic regression and Support Vector Machine. Two rule-based monitoring strategies outperform the latest PHQ-9 based monitoring strategy by providing higher sensitivity and specificity. The rule-based method can lead to a better understanding of disease dynamics, achieving more accurate prognostics of disease progressions, personalizing follow-up intervals, and designing cost-effective monitoring of patients in clinical practice.</t>
+          <t>Causal Attributions, Self-Efficacy Cognitions, and Coping with StressKathleen Chwalisz, Elizabeth M. Altmaier and Daniel W. RussellKathleen Chwalisz1 Southern Illinois University, Elizabeth M. Altmaier and Daniel W. RussellThe University of IowaPublished Online:January 2011https://doi.org/10.1521/jscp.1992.11.4.377PDFPDF PLUS ShareShare onFacebookTwitterLinkedInRedditEmail ToolsAdd to favoritesDownload CitationsTrack Citations About Previous article Next article FiguresReferencesRelatedDetails Cited byCited by1. Investigating fixed and growth teaching mindsets and self-efficacy as predictors of language teachers' burnout and professional identityOnline publication date: 12 February 2023. Go to citation Crossref Google Scholar2. The level of perceived stress, burnout, self-efficacy, and coping strategies among physiotherapy academicians during the COVID-19 lockdownOnline publication date: Go to citation Crossref Google Scholar3. The Mediating Effects of Social Comparison on Faculty Burnout, Teaching Anxiety, and Satisfaction Among Faculty Who Taught During the COVID-19 PandemicOnline publication date: 16 November 2022. Go to citation Crossref Google Scholar4. How Does Transformational Leadership Relieve Teacher Burnout: The Role of Self-Efficacy and Emotional IntelligenceOnline publication date: 16 September 2022. Go to citation Crossref Google Scholar5. Trait attributions and threat appraisals explain why an entity theory of personality predicts greater internalizing symptoms during adolescenceOnline publication date: 23 March 2021. Go to citation Crossref Google Scholar6. Pupils' Adaptability at School, a Balance Between Demands and Resources?Online publication date: 30 June 2022. Go to citation Crossref Google Scholar7. The Interplay of Locus of Control and Role Stress-evidences from Healthcare SectorOnline publication date: 5 March 2021. Go to citation Crossref Google Scholar8. Speaking up and out: examining the predictors of prohibitive voice among teachersOnline publication date: 7 September 2021. Go to citation Crossref Google Scholar9. Linking Parental Phubbing to Adolescent Self-Depreciation: The Roles of Internal Attribution and Relationship SatisfactionOnline publication date: 1 February 2021. Go to citation Crossref Google Scholar10. Resilience, sense of coherence and self-efficacy as predictors of stress coping style among university studentsOnline publication date: 16 July 2019. Go to citation Crossref Google Scholar11. The impact of cognitive-behavioural stress management coaching on changes in cognitive appraisal and the stress response: a field experimentOnline publication date: 15 October 2020. Go to citation Crossref Google Scholar12. Teacher coping profiles in relation to teacher well-being: A mixed method approachOnline publication date: Go to citation Crossref Google Scholar13. Sharing economy platforms: An equity theory perspective on reciprocity and commitmentOnline publication date: Go to citation Crossref Google Scholar14. Job Demands–Resources theory and self-regulation: new explanations and remedies for job burnoutOnline publication date: 28 August 2020. Go to citation Crossref Google Scholar15. Poczucie własnej skuteczności nauczyciela w kontekście problemu przemocy rówieśniczej wśród uczniówOnline publication date: 1 January 2021. Go to citation Crossref Google Scholar16. Does Haze Drive Pro-Environmental and Energy Conservation Behaviors? Evidence from the Beijing-Tianjin-Hebei Area in ChinaOnline publication date: 28 November 2020. Go to citation Crossref Google Scholar17. Exploring Mindfulness Benefits for Students and Teachers in Three German High SchoolsOnline publication date: 11 November 2019. Go to citation Crossref Google Scholar18. Teachers Between Job Satisfaction and Burnout Syndrome: What Makes Difference in Czech Elementary SchoolsOnline publication date: 29 October 2019. Go to citation Crossref Google Scholar19. Parents' Feelings, Coping Strategies and Sense of Parental Self-Efficacy When Dealing With Children's Victimization ExperiencesOnline publication date: 4 October 2019. Go to citation Crossref Google Scholar20. Differentiated effects of risk perception and causal attribution on public behavioral responses to air pollution: A segmentation analysisOnline publication date: Go to citation Crossref Google Scholar21. What happens at home does not stay at home: The role of family and romantic partner conflict in destructive leadershipOnline publication date: 12 April 2019. Go to citation Crossref Google Scholar22. The Relationship among Middle School Students' Sibling Bullying Victimization, Characterological Self-Blame, Coping Self-Efficacy, and Peer Bullying VictimizationOnline publication date: Go to citation Crossref Google Scholar23. Emotions and teaching styles among academics: the mediating role of research and teaching efficacyOnline publication date: 31 December 2018. Go to citation Crossref Google Scholar24. Improved Parent Cognitions Relate to Immediate</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2189294255</t>
+          <t>https://openalex.org/W2077986950</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physrevlett.109.267403</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Ravichandra (2015)</t>
+          <t>Hagenmüller &amp; Ciuti (2012)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Core Schema Mappings: Computing Core Solution with Target Dependencies in Data Exchange</t>
+          <t>Cavity QED of the Graphene Cyclotron Transition</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Schema mapping is a declarative specification of the relationship between source schema and target schema. Nowadays, schema mapping is widely used in data transformation, schema evolution, data exchange and data integration activities and there by supporting in ETL applications, Enterprise Information Integration, and Enterprise Application Integration tasks. While performing data exchange for given schema mapping, it is required to consider all the types of target constraints which are target tgds (tuple generating dependencies) and target egds (equality generating dependencies). Many researchers have addressed various types of target constraints and provided solutions for them. The common drawback is that they are time consuming due to recursive nature and multiple intermediate states generation. In this paper, we proposed solution to resolve the above so called drawbacks and an approach to handle the target constraints on performing data exchange for given schema mapping in non recursive way. Our proposed solution rewrites given target dependencies and combines these with rewritten s-t tgds such that these modified dependencies can be directly translated into SQL Script. Later this produced SQL Script can be executed directly on a relational database system to populate data into target database</t>
+          <t>We investigate theoretically the cavity quantum electrodynamics of the cyclotron transition for Dirac fermions in graphene. We show that the ultrastrong coupling regime characterized by a vacuum Rabi frequency comparable or even larger than the transition frequency can be obtained for high enough filling factors of the graphene Landau levels. Important qualitative differences occur with respect to the corresponding physics of massive electrons in a semiconductor quantum well. In particular, an instability for the ground state analogous to the one occurring in the Dicke model is predicted for an increasing value of the electron density.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2542403453</t>
+          <t>https://openalex.org/W4390031611</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jval.2016.09.1125</t>
+          <t>https://doi.org/10.5488/cmp.26.43602</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Rencz et al. (2016)</t>
+          <t>Singh &amp; Singh (2023)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>A Cost-Effectiveness Analysis of Biosimilar Infliximab (Inflectra®) For The Treatment of Psoriatic Arthritis In Nine European Countries</t>
+          <t>Formation of nano and micro scale hierarchical structures in MgO and ZnO quantum dots doped LC media: the role of competitive forces</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Biosimilar infliximab (Inflectra®) has been approved by the European Medicines Agency for the treatment of active and progressive psoriatic arthritis (PsA) in adult patients since 2013. Currently in most European countries, the price of biosimilars is considerably lower compared to the reference product. We aim to compare cost-effectiveness of adalimumab, certolizumab pegol, etanercept, golimumab, infliximab, secukinumab, ustekinumab and biosimilar infliximab for the treatment of PsA in nine European countries: Belgium, France, Germany, Hungary, Italy, the Netherlands, Spain, Sweden and the UK. The analysis was based on a probabilistic Markov model of selected biological treatment sequences compared to the standard care or to other biological sequences in patients with PsA with inadequate response to previous disease-modifying antirheumatic drug therapy. Transition probabilities between health states were derived from randomized controlled trials. The model included costs of drugs, monitoring, administration and hospitalisation from third-party payer perspective. A five-year time horizon was adopted, and both costs and benefits were discounted at country-specific discount rates. The incremental cost-utility ratios (ICUR) of biosimilar infliximab-standard care treatment sequence versus standard care were as follows: €50,103/QALY (Belgium), €60,141/QALY (France), €79,730/QALY (Germany), €40,897/QALY (Hungary), €48,059/QALY (Italy), €49,212/QALY (the Netherlands), €53,602/QALY (Spain), €74,773/QALY (Sweden) and €68,697/QALY (the UK). Compared to standard care, the originator infliximab was dominated by biosimilar infliximab in all countries. The inclusion of additional biologicals to the treatment sequence resulted in higher cost-utility ratios. ICURs of biosimilar infliximab-secukinumab-etanercept sequence ranged from €54,946/QALY to €104,113/QALY and between €67,487/QALY and €121,203/QALY for the biosimilar infliximab-ustekinumab-certolizumab pegol sequence. The results were the most sensitive to changes in the perspective of the analysis, utility weights and time horizon (10-year). Biosimilar infliximab is a cost-effective alternative to the originator product for the treatment of adults with PsA that may increase the affordability of, and thus the access to biological treatments in Europe.</t>
+          <t>In this paper, we have studied the effect of doping of ZnO and MgO nanoparticles (NPs) in 4-(trans-4-n-hexylcyclo-hexyl) isothiocyanatobenzoate. A thorough comparison of dielectric properties, optoelectronic properties, and calorimetric phase transition properties has been done for MgO and ZnO NP doped LC. We prepare their homogenous mixture of MgO and ZnO NPs in toluene and transfer into cells made of glass and Indium Tin-Oxide (ITO) coated glass. The observed microstructures in the hybrid system can be classified into three main categories: grain like structures formed by aggregation of smaller size MgO nanoparticles while liquid crystal molecules anchor over the surfaces of nanoparticles, the grtu grain-like structures further integrate to form inorganic polymeric type of honeycomb-like mesostructures in presence of glass surface, and flower-like clusters of MgO nanoparticles on ITO surface. The smaller size nanoparticles can maintain the energy balance by allowing the anchoring of liquid crystal molecules over their surfaces whereas the larger size nanoparticles cannot compromise or maintain the energy balance with the liquid crystal molecules and are separated out to nucleate and form bigger size nanoaggregate or clusters. The energy preference of the substrate and nanoparticle's surface to liquid crystal molecules plays an important role in the formation of different types of hierarchical nano- and microstructures. We account the reasons for the formation of nano and micro scale hierarchical structures on the basis of the competition between the forces: NP-NP, LC-LC, NP-LC, Glass/ITO-NP, and Glass/ITO-LC interactions. We observed a considerable change in the dielectric properties, transition temperature, bandgap, and other parameters of LC molecules when MgO NPs are doped, but a minor change occurs when ZnO NPs are doped in LC.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2997811330</t>
+          <t>https://openalex.org/W2947258101</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jlumin.2019.117008</t>
+          <t>https://doi.org/10.1016/s1569-1993(19)30759-3</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Ovchinnikov et al. (2020)</t>
+          <t>Penrose et al. (2019)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Luminescence of colloidal Ag&lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline" id="d1e315" altimg="si63.svg"&gt;&lt;mml:msub&gt;&lt;mml:mrow /&gt;&lt;mml:mrow&gt;&lt;mml:mn&gt;2&lt;/mml:mn&gt;&lt;/mml:mrow&gt;&lt;/mml:msub&gt;&lt;/mml:math&gt;S/ZnS core/shell quantum dots capped with thioglycolic acid</t>
+          <t>P467 Improving the transition of young people to an adult cystic fibrosis centre - the MDT approach</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>The features of IR luminescence of colloidal Ag2S QDs passivated with thioglycolic acid (Ag2S/TGA) under the formation of Ag2S/ZnS/TGA core/shell QDs are considered. A 4.5-fold increase in the quantum yield of recombination IR luminescence within the band with a peak at 960 nm (1.29 eV), full width at half maximum of 250 nm (0.34 eV), and the Stokes shift with respect to the exciton absorption of 0.6 eV was found. The increase in the IR luminescence intensity of Ag2S/ZnS/TGA QDs is accompanied by an increase in the average luminescence lifetime from 2.9 ns to 14.3 ns, which is explained as “healing” of surface trap states during the formation of the ZnS shell. For the first time, the enhancement of the luminescence intensity photodegradation (hereinafter referred to as fatigue) was found during the formation of the Ag2S/ZnS/TGA core/shell QDs. The luminescence fatigue is irreversible. We conclude that the initial stage of photolysis of the Ag2S core QDs under laser irradiation plays a key role. Low-atomic photolytic clusters of silver formed on the Ag2S core QDs act as luminescence quenching centers and do not reveal structural transformations into Ag2S, provided that the clusters are not in contact with TGA.</t>
+          <t>Introduction: The significant increase in the survival for Cystic Fibrosis (CF), demands the evaluation and improvement of transition processes to adulthood.Objectives: To describe the experience of this transition process in patients with CF at the Hospital Infantil Universitario de San José (HIUSJ) in Bogotá.Methods: Qualitative research with a phenomenological approach.It was carried out through semi-structured interviews to patients and their caregivers, which were transcribed and systematized with the NVIVO program, that allowed us to identify deductive and inductive categories.A methodological triangulation was used to confront the voices of the participants, the investigators group opinions and the theory.Results: Fourteen interviews were conducted, 7 to patients and 7 to their caregivers.The age ranged between 19 and 23 years old, prevailing female patients (5/7).All of the caregivers were mothers between 42 and 61 years old.The study found difficulties in understanding the disease and in the skills for its management.A strong dependence of adolescents towards their mothers was identified in the administrative procedures, visits to the clinic and treatment adherence, perceiving overprotection from caregivers that resist giving more autonomy to patients.A passive attitude towards the disease is therefore encouraged affecting the patients' communication skills, self-care and self-defense.These processes have led patients not to assume the disease, and in some cases to hide it, which shows difficulties in social skills that hinder the development of stable relationships.Conclusion: In the HIUSJ CF program, difficulties are detected in the transition to adulthood in the aforementioned skills, which can negatively impact the illness development and the quality of life and could be mitigated with early interventions, encouraging the development of this skills.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3018481732</t>
+          <t>https://openalex.org/W2888357246</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jmv.25958</t>
+          <t>https://doi.org/10.1007/978-3-319-99229-7_16</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>El‐Arabey &amp; Abdalla (2020)</t>
+          <t>Verma et al. (2018)</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Metformin and COVID‐19: A novel deal of an old drug</t>
+          <t>A Quantitative Approach for the Likelihood of Exploits of System Vulnerabilities</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Journal of Medical VirologyVolume 92, Issue 11 p. 2293-2294 LETTER TO THE EDITOR Metformin and COVID-19: A novel deal of an old drug Amr Ahmed EL-Arabey, Corresponding Author Amr Ahmed EL-Arabey [email protected] [email protected] orcid.org/0000-0003-0420-7191 Department of Pharmacology and Toxicology, Faculty of Pharmacy, Al-Azhar University, Cairo, Egypt Correspondence Amr Ahmed EL-Arabey, Department of Pharmacology and Toxicology, Faculty of Pharmacy, Al-Azhar University, Cairo, Egypt. Email: [email protected] and [email protected] Mohnad Abdalla, Department of Biology, Qingdao Institute of Bioenergy and Bioprocess Technology Chinese Academy of Sciences, CAS Key Laboratory of Biofuels and Shandong Provincial Key Laboratory of Synthetic Biology, Qingdao, 266101 Shandong, China. Email: [email protected]Search for more papers by this authorMohnad Abdalla, Corresponding Author Mohnad Abdalla [email protected] orcid.org/0000-0002-1682-5547 Department of Biology, Qingdao Institute of Bioenergy and Bioprocess Technology Chinese Academy of Sciences, CAS Key Laboratory of Biofuels and Shandong Provincial Key Laboratory of Synthetic Biology, Qingdao, Shandong, China Correspondence Amr Ahmed EL-Arabey, Department of Pharmacology and Toxicology, Faculty of Pharmacy, Al-Azhar University, Cairo, Egypt. Email: [email protected] and [email protected] Mohnad Abdalla, Department of Biology, Qingdao Institute of Bioenergy and Bioprocess Technology Chinese Academy of Sciences, CAS Key Laboratory of Biofuels and Shandong Provincial Key Laboratory of Synthetic Biology, Qingdao, 266101 Shandong, China. Email: [email protected]Search for more papers by this author Amr Ahmed EL-Arabey, Corresponding Author Amr Ahmed EL-Arabey [email protected] [email protected] orcid.org/0000-0003-0420-7191 Department of Pharmacology and Toxicology, Faculty of Pharmacy, Al-Azhar University, Cairo, Egypt Correspondence Amr Ahmed EL-Arabey, Department of Pharmacology and Toxicology, Faculty of Pharmacy, Al-Azhar University, Cairo, Egypt. Email: [email protected] and [email protected] Mohnad Abdalla, Department of Biology, Qingdao Institute of Bioenergy and Bioprocess Technology Chinese Academy of Sciences, CAS Key Laboratory of Biofuels and Shandong Provincial Key Laboratory of Synthetic Biology, Qingdao, 266101 Shandong, China. Email: [email protected]Search for more papers by this authorMohnad Abdalla, Corresponding Author Mohnad Abdalla [email protected] orcid.org/0000-0002-1682-5547 Department of Biology, Qingdao Institute of Bioenergy and Bioprocess Technology Chinese Academy of Sciences, CAS Key Laboratory of Biofuels and Shandong Provincial Key Laboratory of Synthetic Biology, Qingdao, Shandong, China Correspondence Amr Ahmed EL-Arabey, Department of Pharmacology and Toxicology, Faculty of Pharmacy, Al-Azhar University, Cairo, Egypt. Email: [email protected] and [email protected] Mohnad Abdalla, Department of Biology, Qingdao Institute of Bioenergy and Bioprocess Technology Chinese Academy of Sciences, CAS Key Laboratory of Biofuels and Shandong Provincial Key Laboratory of Synthetic Biology, Qingdao, 266101 Shandong, China. Email: [email protected]Search for more papers by this author First published: 29 April 2020 https://doi.org/10.1002/jmv.25958Citations: 32Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat No abstract is available for this article. REFERENCES 1Lai CC, Shih TP, Ko WC, Tang HJ, Hsueh PR. Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) and coronavirus disease-2019 (COVID-19): the epidemic and the challenges. Int J Antimicrob Agents. 2020; 55(3):105924. https://doi.org/10.1016/j.ijantimicag.2020.105924 10.1016/j.ijantimicag.2020.105924 CASPubMedWeb of Science®Google Scholar 2Dietz W, Santos-Burgoa C. Obesity and its implications for COVID-19 mortality [published online ahead of print April 1, 2020]. Obesity (Silver Spring). 2020. https://doi.org/10.1002/oby.22818 10.1002/oby.22818 PubMedWeb of Science®Google Scholar 3Bailey CJ. Metformin: historical overview. Diabetologia. 2017; 60(9): 1566-1576. https://doi.org/10.1007/s00125-017-4318-z 10.1007/s00125-017-4318-z CASPubMedWeb of Science®Google Scholar 4EL-Arabey AA. Update on off label use of metformin for obesity. Prim Care Diabetes. 2018; 12(3): 284-285. https://doi.org/10.1016/j.pcd.2018.02.004 10.1016/j.pcd.2018.02.004 PubMedWeb of Science®Google Scholar 5EL-Arabey AA, Abdalla M, Eltayb WA. Metformin: ongoing journey with superdrug revolution. Adv Pharm Bull. 2019; 9(1): 1-4. https:</t>
+          <t>Modern systems’ transition towards more connected, information and communication technologies (ICT) has increased the safety, capacity and reliability of systems such as transport systems (railways, automotive) and industrial systems but it has also exposed a big additional surface for cyber attackers which makes it necessary to take in consideration general IT security concerns. Cyber-physical systems need more effort to consider safety critical IT security concerns. The safety impact of security compromises is evaluated in a semiquantitative manner because it is a relatively new area so there is not enough real data available to analyse attack rates quantitatively and the attack-vulnerability scenario is constantly changing because of adversary intelligence. This paper proposes an approach for the quantification of vulnerabilities based on learning from data obtained by concrete pattern implementations in safety-critical systems. This will allow combined analysis of safety and security.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2086514545</t>
+          <t>https://openalex.org/W1989794054</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.midw.2013.02.007</t>
+          <t>https://doi.org/10.1103/physrevb.33.6177</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Draper &amp; Ives (2013)</t>
+          <t>Chang &amp; Cohen (1986)</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Men's involvement in antenatal care and labour: Rethinking a medical model</t>
+          <t>Structural stability of phases of black phosphorus</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>In the UK, putative fathers are encouraged to be involved in antenatal and maternal health care, in the belief that involving men as early as possible lays the foundation for better, more involved fatherhood. Integrating men into maternity care can, however, have hitherto unexplored ethical complexities. We begin by providing three ethical justifications for involving men in antenatal and maternity health care, and then discuss how each necessarily constrains the nature of this involvement. The medical setting itself creates some of the difficulties. This observation leads us into a broader exploration of the medicalisation of men's transition to fatherhood.</t>
+          <t>The pseudopotential method is used to examine the structural stability of high-pressure orthorhombic, rhombohedral (A-7), and simple cubic (sc) phases of black phosphorus. The calculated ground-state properties are in good agreement with the measured values for each phase. A total-energy study gives the orthorhombic phase as the most stable structure at low pressures. At higher pressures it transforms into the A-7 structure in agreement with experiment. At even higher pressure, the calculations indicate that the A-7 phase is stable with respect to the sc structure as is the case for other group-V elements. Measurements show that the sc phase is stable at 110 kbar at room temperature. This suggests that the calculated crystal energy for the A-7 phase is too low and it requires a finite energy shift. With an a priori energy shift, the transition pressure and volume are in good agreement with experiment. A possible source of this correction is the zero-point energy or temperature renormalization of the phonon frequencies caused by anharmonicity. The changes of the energy band structures and charge densities for the A-7 displacement and selected phonon frequencies are calculated.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2028034612</t>
+          <t>https://openalex.org/W3008635302</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.bbmt.2014.11.688</t>
+          <t>https://doi.org/10.1016/j.envsci.2020.02.017</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Ramsey et al. (2015)</t>
+          <t>Ainsworth et al. (2020)</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Estimated Cost-Effectiveness of Brentuximab Vedotin Vs. Best Supportive Care Following Autologous Stem Cell Transplant in Hodgkin's Lymphoma</t>
+          <t>Integrating scientific and local knowledge to address conservation conflicts: Towards a practical framework based on lessons learned from a Scottish case study</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Hodgkin Lymphoma (HL) that relapses following autologous stem cell transplant (ASCT) is costly to treat and carries an unfavorable prognosis. Brentuximab vedotin (BV), a novel agent to reduce the risk of relapse following ASCT, offers the potential to be both effective and cost-effective. Anticipating the results of the AETHERA trial, we constructed a decision model to estimate the cost-effectiveness of BV vs. best supportive care (BSC) for adult HL patients at high risk of relapse following ASCT. The model is constructed as a Markov process, taking the U.S. health insurer perspective and a lifetime horizon. Following ASCT, high-risk HL patients are treated with BV or BSC alone. After treatment, patients enter one of 5 health states: remission; relapse/salvage therapy; relapse/palliative care; 2nd remission; death. Transition probabilities were based on published reports, bone marrow transplant registry data, and life tables. Drug cost was ASP + 6%. Costs are based on 2013 Medicare reimbursements. In the base case (HR 0.667 for BV vs. BSC), total life years, QALYs, and costs were 16.7, 13.4, and $308,000 for the BV strategy vs. 14.3, 10.9, and $140,000 for the BSC strategy. The cost per life year gained and cost per QALY gained for BV vs. BSC were $70,000 and $67,200, respectively. Economic outcomes across a range of hazard ratios (HR) for BV vs BSC are as follows:Tabled 1BV Relapse HR vs. BSC0.50.60.70.8Life Years Gained3.82.92.11.3QALYs Gained4.13.12.31.4Additional Cost$155,000$162,000$169,000$176,000Cost Per Life Year $6#Gained$40,789$55,862$80,476$135,384Cost Per QALY Gained$37,804$52,258$73,478$125,714 Open table in a new tab (a) efficacy of BV (relapse HR), (b) monthly drug cost, and (3) cycles of treatment. In the base case, the likelihood of BV being cost-effective was 92.6% at a willingness to pay threshold of $100,000 per QALY. BV has the potential to be cost-effective in HL patients at risk for relapse following ASCT. The AETHERA trial will provide more precise estimates of the cost-effectiveness of this therapy.</t>
+          <t>Integrating local knowledge with scientific knowledge can offer significant benefits to improving environmental decision-making. However, this is especially challenging in environmental conflict situations where advice is lacking, and no single approach can foster conflict transformation. To understand stakeholder knowledge and its integration in a conflict transformation process in Scotland, we brought together diverse stakeholder organisations and encouraged power sharing in the project’s management. Our mixed-methods approach was based on theories of community science, knowledge co-production, knowledge integration and implementation and conflict transformation. We gathered stakeholder perceptions to see where local and scientific knowledge converged and diverged. Stakeholders holding opposing views mutually prioritised knowledge gaps and identified future collaborative actions. Building upon lessons learned, we present a practical framework and associated considerations to realise knowledge integration goals in conservation conflict situations. This framework is widely applicable, especially in situations where disputes over the evidence-base prevent positive outcomes for people and nature.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2719309252</t>
+          <t>https://openalex.org/W4308314282</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s10549-022-06732-y</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Dufy &amp; Thiriot (2013)</t>
+          <t>Eijkelboom et al. (2022)</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>The Pitfalls of Transitology: Time for a Reassessment in the Light of African and Post-Soviet Cases</t>
+          <t>Changes in breast cancer treatment during the COVID-19 pandemic: a Dutch population-based study</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>In spite of the redefinitions undertaken in the 2000’s, the theory of hybrid regimes still bears the imprint of the context in which it originally emerged: the democratisation processes of the 1990s. As a result, it is unable to make sense of the emerging countries’ integration into the global economy. The authoritarian regimes’ stability represents a theoretical challenge, yet to be resolved by many transitologists. The present article argues that the theoretical framework used by transition studies is both highly normative and western-oriented. The analysis is often based on a formal approach that aspires to define categories. Yet, the priority of international donor agencies has simultaneously moved from democratization towards political stability. The article suggest a reassessment of this theoretical grid through a discussion of African and post-soviet countries. The emphasis is put on the various processes of internal regulation in the political sphere and on legitimization processes within authoritarian States. This allows to reintroduce into the framework of analysis such concepts as State, institutions, the interplay between formal and informal processes, and the mix between political, social and economic dynamics.</t>
+          <t>We aimed to compare (1) treatments and time intervals between treatments of breast cancer patients diagnosed during and before the COVID-19 pandemic, and (2) the number of treatments started during and before the pandemic.Women were selected from the Netherlands Cancer Registry. For aim one, odds ratios (OR) and 95% confidence intervals (95%CI) were calculated to compare the treatment of women diagnosed within four periods of 2020: pre-COVID (weeks 1-8), transition (weeks 9-12), lockdown (weeks 13-17), and care restart (weeks 18-26), with data from 2018/2019 as reference. Wilcoxon rank-sums test was used to compare treatment intervals, using a two-sided p-value &lt; 0.05. For aim two, number of treatments started per week in 2020 was compared with 2018/2019.We selected 34,097 women for aim one. Compared to 2018/2019, neo-adjuvant chemotherapy was less likely for stage I (OR 0.24, 95%CI 0.11-0.53), stage II (OR 0.63, 95%CI 0.47-0.86), and hormone receptor+/HER2- tumors (OR 0.55, 95%CI 0.41-0.75) diagnosed during transition. Time between diagnosis and first treatment decreased for patients diagnosed during lockdown with a stage I (p &lt; 0.01), II (p &lt; 0.01) or III tumor (p = 0.01). We selected 30,002 women for aim two. The number of neo-adjuvant endocrine therapies and surgeries starting in week 14, 2020, increased by 339% and 18%, respectively. The number of adjuvant chemotherapies decreased by 42% in week 15 and increased by 44% in week 22.The pandemic and subsequently altered treatment recommendations affected multiple aspects of the breast cancer treatment strategy and the number of treatments started per week.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2103747662</t>
+          <t>https://openalex.org/W4392653421</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1364/ao.38.006447</t>
+          <t>https://doi.org/10.5194/egusphere-egu24-18920</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Swayambunathan et al. (1999)</t>
+          <t>Almillategui et al. (2024)</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Laser photofragmentation–fragment detection and pyrolysis–laser-induced fluorescence studies on energetic materials</t>
+          <t>Tracking biogeochemical processes in a Subterranean Estuary (STE): Application of a multidisciplinary approach integrating isotopes, hydrogeochemistry, and dissolved organic matter (DOM)&amp;amp;#160;</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Trace concentrations of energetic materials such as 2, 4, 6-trinitrotoluene (TNT), pentaerythritol tetranitrate (PETN), and hexahydro-1, 3, 5-trinitro-s-triazine (RDX) are detected by laser photofragmentation-fragment detection (PF-FD) spectrometry. In this technique, a single laser operating near 227 nm photofragments the parent molecule and facilitates the detection of the characteristic NO fragment by means of its A (2)Sigma(+)-X (2)Sigma (0, 0) transitions near 227 nm. Fragment detection is accomplished by resonance-enhanced multiphoton ionization with miniature electrodes and by laser-induced fluorescence (LIF) with a photodetector. Experiments are also conducted in the visible region by use of 453.85-nm radiation for photofragmentation and fragment detection. Sand samples contaminated with PETN and RDX are analyzed by a pyrolysis-LIF technique, which involves pyrolysis of the energetic material with subsequent detection of the pyrolysis products NO and NO(2) by LIF and PF-LIF, respectively, near 227 nm. The application of these techniques to the trace analysis of TNT, PETN, and RDX at ambient pressure in room air is demonstrated with limits of detection (signal-to-noise ratio, 3) in the low parts-in-10(9) to parts-in-10(6) range for a 20-s integration time and 10-120 microJ of laser energy at 226.8 nm and approximately 5 mJ at 453.85 nm. An increase in detection sensitivity is projected with an increase in laser energy and an improved system design. The analytical merits of these techniques are discussed and compared with those of other laser-based techniques.</t>
+          <t>Subterranean Estuaries (STEs) have been recognized for their role in the transport and fate of chemical compounds that discharge to the coastal ocean. The enrichment of coastal groundwater with nutrients is affected by different sources and mechanisms. Moreover, the distribution of these substances discharging to the sea is highly affected by the reactions produced at the mixing zone between the fresh and saline groundwater. In this research, we aim to identify the nutrient sources and biogeochemical processes that are actively playing a role in the subterranean estuary located in the alluvial aquifer of Argentona, in the northeast of Barcelona, Catalonia (Spain). Coastal groundwater in the area has been continuously explored since 2014 with the development of a unique experimental site. The site is 100m long inland from the coastline and 30m wide. It is being monitored with 25 piezometers consisting of 5 nests with 4 piezometers each (with intervals at 10m, 20m, 15m, and 25m) and 4 individual piezometers, equipped with different sensors that collect data every 15 minutes. This study integrates various approaches such as the N-isotopes (&amp;amp;#948;15N-NO3-, &amp;amp;#948;18O-NO3-, &amp;amp;#948;15N-NH4+), hydrogeochemistry, dissolved organic matter (DOM), and bacteria concentration that has been measured in all piezometers during two sampling campaigns (winter and summer). The results show potential sources of ammonium and nitrate and the biogeochemical transformations that have a main role in the subterranean estuary dynamic. Acknowledgments This work was funded by the Spanish Government under the project MUCHOGUSTO (grant no. PID2022-140862OB-C21/C22) and the SENACYT &amp;amp;#8211; BID Scholarship by the Panamanian Government.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4211081331</t>
+          <t>https://openalex.org/W2908568847</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/9781118278710.refs</t>
+          <t>https://doi.org/10.1115/imece2018-86552</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Smil (2013)</t>
+          <t>Pramuanjaroenkij et al. (2018)</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>The Development of a Simple Alternative Hybrid Engine for Gasoline, LPG and Biogas</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Free Access References Book Editor(s):Vaclav Smil, Vaclav SmilSearch for more papers by this author First published: 18 March 2013 https://doi.org/10.1002/9781118278710.refs AboutPDFPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShareShare a linkShare onFacebookTwitterLinked InRedditWechat References a Calorie Counter. 2012. Fast Food Restaurants &amp; Nutrition Facts Compared. http://www.acaloriecounter.com/fast-food.php. Accessed on November 14, 2012. Google Scholar Aarestrup, F. 2012. Get pigs off antibiotics. Nature 486: 465– 466. Google Scholar Abel, W. 1962. Geschichte der deutschen Landwirtschaft von frühen Mittelalter bis zum 19 Jahrhundert. Stuttgart: Ulmer. Google Scholar Aberle, E.D. et al. 2001. Principles of Meat Science. Dubuque, IA: Kendall Hunt Publishing. Google Scholar Adams, C. 2010. The Sexual Politics of Meat: A Feminist-Vegetarian Critical Theory. New York: Continuum International Publishing Group. http://books.google.ca/books/about/The_Sexual_Politics_of_Meat.html?id=AwrwRKNavtAC. Accessed on November 14, 2012. Google Scholar AFSSA (Agence française_de_sécurité sanitaire des produits de santé). 2009. Synthèse de l'étude Individuelle Nationale des Consommations Alimentaires 2 (INCA 2) 2006–2007. Paris: AFSSA. Google Scholar Aiello, L.C. and J.C.K. Wells. 2002. Energetics and the evolution of the genus Homo . Annual Review of Anthropology 31: 323– 338. Google Scholar Aiello, L.C. and P. Wheeler. 1995. The expensive-tissue hypothesis. Current Anthropology 36: 199– 221. Google Scholar Al-Deseit, B. 2009. Least-cost broiler ration formulation using linear programming technique. Journal of Animal and Veterinary Advances 8: 1274– 1278. Google Scholar Allan, J.A. 1993. Fortunately there are substitutes for water otherwise our hydro-political futures would be impossible. In: Priorities for Water Resources Allocation and Management. London: ODA, pp. 13– 26. Google Scholar Allbaugh, L.G. 1953. Crete: A Case Study of an Undeveloped Area. Princeton, NJ: Princeton University Press. Google Scholar Allen, R.C. 2007. How Prosperous Were the Romans? Evidence from Diocletian's Price Edict (301 AD). Oxford: Department of Economics, Oxford University. Google Scholar Allen, J.R.M. 2010. Last glacial vegetation of northern Eurasia. Quaternary Science Reviews 29: 2604– 2618. Google Scholar de Almeida, J.C. et al. 2006. Fatty acid composition and cholesterol content of beef and chicken meat in Southern Brazil. Brazilian Journal of Pharmaceutical Sciences 42: 109– 117. Google Scholar Alonso, A. et al. 2009. Cardiovascular risk factors and dementia mortality: 40 years of follow-up in the Seven Countries Study. Journal of Neurological Sciences 2009: 79– 83. Google Scholar Alroy, J. 2001. A multispecies overkill simulation of the end-Pleistocene megafaunal mass extinction. Science 292: 1893– 1896. Google Scholar Alvard, M.S. and L. Kuznar. 2001. Deferred harvests: The transition from hunting to animal husbandry. American Anthropologist 103: 295– 311. Google Scholar Alverson, D.L. 2005. Managing the catch of non-target species. In: W.S. Wooster and J.M. Quinn, eds., Improving Fishery Management: Melding Science and Governance. Seattle, WA: The School of Marine Affairs, University of Washington. Google Scholar Alverson, D.L. et al. 2004. A Global Assessment of Fisheries Bycatch and Discards. Rome: FAO. Google Scholar AMI (American Meat Institute). 2012. The United States Meat Industry at a Glance. http://www.meatami.com/ht/d/sp/i/47465/pid/47465. Accessed on November 14, 2012. Google Scholar Amit, M. 2010. Vegetarian diets in children and adolescents. Pediatric Child Health 15(3): 303– 308. Google Scholar Anderson, O.E. 1953. Refrigeration in America: A History of a New Technology and Its Impact. Princeton, NJ: Princeton University Press. Google Scholar Animal Liberation Front. 2012. Manifesto for Radical Abolitionism: By Any Means. http://www.animalliberationfront.com/ALFront/Manifesto-TotalLib.htm. Accessed on November 14, 2012. Google Scholar Antony, A.C. 2003. Vegetarianism and vitamin B-12 (cobalamin) deficiency. American Journal of Clinical Nutrition 78: 3– 6. Google Scholar Århem, K. 1989. Maasai food symbolism: The cultural connotations of milk, meat, and blood in the pastoral Maasai diet. Anthropos 8: 1– 23. Google Scholar Armelagos, G.J. and K.N. Harper. 2005. Genomics at the origins of agriculture, part one. Evolutionary Anthropology 14: 68– 77. Google Scholar Asner, G.P. et al. 2004. Grazing systems, ecosystem responses and global change. Annual Review of Environment and Resources 29: 261– 299. Google Scholar Atalay, S. and C.A. Hastorf. 2006. Food, meals, and daily activities: Food habitus at Neolithic Çatalhöyük. American Antiquity 71: 283– 319. Google Scholar Atwater, W.O. 1888. Foods and beverages. The Century Magazine. May, pp. 135– 139. Google Scholar Atwater, W. and C. Woods. 1896. The Chemical Composition of American Food Materials. Washington, DC: USDA. Google Scholar</t>
+          <t>This work was focused on the development of a hybrid engine which was fueled with three different fuels; gasoline as original fuel, Liquid Petroleum Gas (LPG) and biogas as two alternative fuels. The developed engine consisted of fuel storage tanks, a small gas reducer, a fuel premixer and the engine of a Suzuki Skydrive 125CC motorcycle. Performances of the prototype and developed engines were compared in terms of wheel speed. The developed engine could be started, idled and accelerated with the average maximum speed of 1276 revolutions per minute when it was connected directly with the biogas reservoir. Then, the biogas was compressed and stored in a standard gas tank which was connected with the developed engine, the average maximum speed of 1273.67 revolutions per minute was obtained from three experiments. This work emphasized not only biogas usage as the alternative fuel for the engine but also pointed out that biogas quality could affect the engine performance. The developed engine could be applied as vehicle engine or it could drive household self-power generators by using household biogas as fuel.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3029950940</t>
+          <t>https://openalex.org/W2526258891</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/1369118x.2020.1770833</t>
+          <t>https://doi.org/10.1088/1742-6596/744/1/012177</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Westermeier (2020)</t>
+          <t>Náprstek &amp; Král (2016)</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Money is data – the platformization of financial transactions</t>
+          <t>Multi-dimensional Fokker-Planck equation analysis using the modified finite element method</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Financial transactions are part of everyday life, yet banking has largely withstood the digital transformation within most European countries. Recently, there have been initiatives that merge the digital and the financial sphere by integrating the transactions that run through established financial infrastructures into digital platforms. Large data-driven companies hereby seek access to financial transactions and try to embed payments within their platforms. This contribution discusses differing models of how tech-driven companies gain access to financial infrastructures, and how recently introduced policies engender these processes. Within Europe and the United Kingdom, banks that operate through financial infrastructures and hold most transactional data are now required by regulators to provide access to their customers’ accounts. The platformization of financial transactions is thus not purely a technical question, but it also is a remarkable example of how politically enforced changes in the materiality of data lead to reconfigurations with broader economic and social consequences. It results in the transformation of money into a form of (transactional) data and shows how the value of money and data depends on the technological underpinnings that determine the capability of their circulation. In order to understand their valuation, we need to take the material assemblages that enable their distribution into account.</t>
+          <t>The Fokker-Planck equation (FPE) is a frequently used tool for the solution of cross probability density function (PDF) of a dynamic system response excited by a vector of random processes. FEM represents a very effective solution possibility, particularly when transition processes are investigated or a more detailed solution is needed. Actual papers deal with single degree of freedom (SDOF) systems only. So the respective FPE includes two independent space variables only. Stepping over this limit into MDOF systems a number of specific problems related to a true multi-dimensionality must be overcome. Unlike earlier studies, multi-dimensional simplex elements in any arbitrary dimension should be deployed and rectangular (multi-brick) elements abandoned. Simple closed formulae of integration in multi-dimension domain have been derived. Another specific problem represents the generation of multi-dimensional finite element mesh. Assembling of system global matrices should be subjected to newly composed algorithms due to multi-dimensionality. The system matrices are quite full and no advantages following from their sparse character can be profited from, as is commonly used in conventional FEM applications in 2D/3D problems. After verification of partial algorithms, an illustrative example dealing with a 2DOF non-linear aeroelastic system in combination with random and deterministic excitations is discussed.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4294749298</t>
+          <t>https://openalex.org/W1964627994</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17072/2078-7898/2022-2-339-349</t>
+          <t>https://doi.org/10.1117/12.840008</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Ermilova (2022)</t>
+          <t>Fibrich et al. (2010)</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>The habitus of the athlete: a sociological interpretation through the prism of P. Bourdieu’s theory</t>
+          <t>Pr:YAlO 3 and Pr:LiYF 4 laser emission comparison under GaN laser diode pumping</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>The article provides a sociological interpretation of the concept of the «athlete’s habitus» performed through the prism of P. Bourdieu’s theory based on sociological research data. To describe the athletes’ habitus, data of the following sociological studies were used: interviews with athletes studying at the Faculty of Physical Culture and Sports of Lobachevsky University (n = 74 persons representing individual and team sports in a 50/50 ratio); secondary analysis of interviews with mothers of high-performance athletes (n = 3 persons); participant observation carried out during the training and sports process with representatives of the following sports: volleyball, basketball, hockey, athletics, martial arts. The grounded theory approach, proposed by A. Strausset and D. Corbin, was used to analyze the data obtained during the interviews with student athletes, part of which were applied the method of «life histories» (analysis of the life of athletes from their mothers’ words) and conversational analysis (analysis of the interviewer-athlete dialogues). During the data analysis (coding procedure) the following concepts were identified and described: trajectories and stages of the sports habitus formation, social practices of the athlete’s habitus; a strong connection was noted between these concepts. Reliability of the obtained results is within the acceptable level as the subjective views of the informants are expressed in the indicators typical of their activity, acquired in the process of integration into the sports field over 10 years or more. This resulted in a high sports status (candidate master of sports, master of sports), which was the rationale for their selection for the interview. The paper reveals the peculiarities of the formation of the athletes’ habitus, its trajectory, and formation stages. Depending on the stage of the habitus formation in the sports field, the agent is endowed with transitional sports habitus, which, accumulating, allow the individual to acquire the habitus of the established athlete. The athlete’s habitus synthesizes the diversity of social experiences of agents of various social fields, thereby endowing itself with the identity of the realization of practices characteristic only of the social space of sport. In general, we can define the athlete’s habitus as a system of acquired predispositions that are imposed by the structure of the social field of sport.</t>
+          <t>In this paper we report on comparison of laser results reached by Pr-doped oxide and fluoride crystals under GaN-laser diode pumping at room temperature. As oxide and fluoride crystal representatives, Pr:YAlO&lt;sub&gt;3&lt;/sub&gt; (Pr:YAP) and Pr:LiYF&lt;sub&gt;4&lt;/sub&gt; (Pr:YLF) crystals were used. Pumping was accomplished by multimode GaN-laser diodes capable of providing output powers of up to 1W at wavelengths corresponding with Pr:YAP and Pr:YLF absorption peaks. For both samples, efficient stimulated emission in the red laser transition has been demonstrated, and laser results regarding the output power, threshold, and slope efficiency with respect to the absorbed power have been compared.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2790274731</t>
+          <t>https://openalex.org/W1967828056</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1299/jsmedmc.2017.406</t>
+          <t>https://doi.org/10.1063/1.444291</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Wada et al. (2017)</t>
+          <t>Gellene et al. (1982)</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Identification of frequency characteristics of exciting sources not affected by design change of structure and noise reduction design using it</t>
+          <t>Stability of the ammonium and methylammonium radicals from neutralized ion-beam spectroscopy</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>To estimate the sound radiation power as an objective function in noise reduction design, vibration characteristics of the structure and the force exciting it need estimating. However, as the vibration characteristics of the structure change, the exciting force also changes, therefore the estimated exciting force cannot be directly applied to the structure after it changed for noise reduction design. In this paper, we propose a method to estimate the response of the structure after its vibration characteristics are changed considering the change of exciting force. By introducing an exciting source that generates exciting force, the excitation force is expressed using the frequency response function of the structure. The exciting source is modeled as having a vibration system showing a linear response to the input, and the number of points connected to the structure is not limited. We can identify the vibration characteristics of the exciting source and the input applied to it by measuring the response with a known structural change. In experiments on cantilevered flat plates, changing structure by adding mass to several different positions, identify characteristics of the exciting source and estimate the responses considering the exciting force change. Moreover, applying this method to the search for the attachment position of the rib which minimizes the sound radiation power, we verify the validity of the method.</t>
+          <t>The stability of the ammonium radical (NH4) was determined from measurements of the kinetic energy released in its fragmentation products following formation in a fast electron capture process: NH4++Na → NH4*+Na+. Scattering profiles for heavy (NH3) and light (H) dissociation products were obtained from beam measurements with 5–16 keV NH4+ ions. The existence of a predissociative barrier in the radical is inferred from edge structure and scattering continua in H atom profiles. The radical is bound with respect to a potential minimum but all of the isotopic species NH4, NH3D, NH2D2, and NHD3 undergo rapid loss of H atoms and have ground states lying above their dissociation limits. The radical ND4 has unusual stability with its ground state lying close to or below its dissociation limit. Dissociative lifetimes for stable and unstable states of ND4 differ by at least two orders of magnitude. The possible significance of these observations on the interpretation of optical transitions involving the ground states of NH4 and ND4 are discussed. From these measurements the ionization potential of 4.73±0.06 eV for NH4 is calculated. The stabilities of CH3NH3 and CH3ND3 radicals and their dissociative pathways have also been investigated.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2280186621</t>
+          <t>https://openalex.org/W1581996073</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://doi.org/10.6084/m9.figshare.1603128</t>
+          <t>https://doi.org/10.15520/ajcsit.v5i4.22</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Chimera et al. (2015)</t>
+          <t>NA (2015)</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Security Agencies Organizational Structure and the Implementation of Community Policing In Njoro Sub-County, Nakuru, Kenya</t>
+          <t>Use of ETL Subsystems for Real-Time Data-Warehouse using MS SQL Server Tool</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>The paper examines the organizational structuring of security agencies in the face of the implementation of community policing in Njoro Sub-County, Nakuru, Kenya. A cross-sectional survey in Njoro Sub-County was undertaken and data collected from 138 sample respondents using interview schedules. The study targeted three security agencies: the National Government Administration, Kenya Police Service and Administration Police Service; whose officers were the sample respondents. The study conducted focused group discussions with 22 chiefs’ elders and administered interviews to the Sub-County Security and Intelligence Committee members as Key informants. The three security agencies formed the strata from where officers were selected by simple random sampling. The study concludes that there have been little efforts put in re-structuring of the security agencies to accord with and respect the structural requirements of implementing community policing. There is need to ensure that the necessary structural reforms are undertaken in the face of community policing implementation. These findings inform policy on the ongoing security sector reforms especially on the structural reforms that are required to transform the country’s security sector in Kenya.</t>
+          <t>Data warehousing is gaining in eminence as organizations become awake of the benefits of decision oriented and business intelligence oriented data bases.  Informed decision-making is required for competitive success in the new global marketplace, which is fraught with uncertainty and rapid technology changes. Achieving Real-Time Data Warehousing is highly dependent on the choice of a process in data warehousing technology known as Extract, Transform, and Load (ETL). This process involves: 1) Extracting data from outside sources; 2) Transforming it to fit operational needs; and 3) Loading it into the end target (database or data warehouse). Not all ETL’s are equal when it comes to quality and performance. As such, optimizing the ETL processes for real time decision making is becoming ever increasingly crucial to today's decision-making process. An effective ETL leads to effective business decisions and yields extraordinary decision-making outcomes. This study overviews the theory behind ETL and raises a research vision for its evolution, with the aim of improving the difficult but necessary data management work required for the development of advanced analytics and business intelligence. SQL Server Integration services (SSIS-MS Sql server tool) is a platform for data integration and workflow applications. It features a fast and flexible data-warehousing tool used for data extraction, transformation, and loading (ETL). The tool may also be used to automate maintenance of SQL Server databases and updates to multidimensional cube data. SQL Server Reporting Services (SSRS- MS Sql server tool) is a server-based report generation software system from Microsoft. Administered via a web interface, it can be used to prepare and deliver a variety of interactive and printed reports.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://openalex.org/W594199302</t>
+          <t>https://openalex.org/W2030101668</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/14742837.2014.994094</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Garrett (2004)</t>
+          <t>Brandt (2015)</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Zambia : issues of scaling up in peri-urban areas</t>
+          <t>Feminist Practice and Solidarity in Secular Societies: Case Studies on Feminists Crossing Religious–Secular Divides in Politics and Practice in Antwerp, Belgium</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>This note is part of a series that examines the factors that facilitate the scaling up of Community Driven Development (CDD) programs. The note highlights the experience of CARE Zambia's Program of Support for Poverty Elimination and Community Transformation (PROSPECT) initiative, which applies a community based approach to reduce poverty in peri-urban areas of Lusaka, and discusses the importance of linking CDD with structures, and processes outside community boundaries, to ensure that they are able to scale up in more dynamic and sustainable ways than simple replication. It also examines the difficulties of doing so in the face of opposition by entrenched political interests.</t>
+          <t>In west European countries, public debates on migration, integration, and diversity are informed by particular understandings of secularism and the secular society. In our increasingly diverse societies, so the story goes, it is needed to implement a certain type of secularism and/or support particular types of secular standpoints in order to maintain a certain status quo that guarantees security, democracy, and equality for all. Religion is often perceived and simultaneously constructed in opposition to the emancipation and equal rights of women. This dominant logic, in which secularism and religion are opposites, makes it difficult for women of diverse religious–cultural backgrounds to cooperate on an equal footing for a shared feminist cause. However, feminist politics and practices that cross religious–secular divides can and do take place. Feminist research has so far paid little attention to the actualities of this feminist border-crossing and the transformations it may engender in our current sociopolitical context. In this article, I aim to offer a consideration of feminist politics and solidarity crossing religious–secular divides in Flanders, the Dutch-speaking northern region of Belgium. Through two case studies, I explore how cooperation and solidarity across religious–secular boundaries are developed and being talked about by activists. I argue that such feminist coalitions can and do directly and indirectly affect the public debates and inspire feminist thinking on issues regarding religion, secularism, and feminism in the multicultural society.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3180993849</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2139/ssrn.3577328</t>
+          <t>https://openalex.org/W2414424352</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Choi &amp; Lee (2020)</t>
+          <t>Stanley (1992)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Maximum Likelihood Estimation of Continuous-time Diffusion Models for Exchange Rates</t>
+          <t>Some current factors restricting the potential of private general practice.</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Five diffusion models are estimated using three different foreign exchange rates to find an appropriate model for each. Daily spot exchange rates expressed as the prices of 1 euro, 1 British pound and 100 Japanese yen in US dollars, respectively denoted by USD/EUR, USD/GBP, and USD/100JPY, are used. The maximum likelihood estimation method is implemented after deriving an approximate log-transition density function (log-TDF) of the diffusion processes because the true log-TDF is unknown. Of the five models, the most general model is the best fit for the USD/GBP, and USD/100JPY exchange rates, but it is not the case for the case of USD/EUR. Although we could not find any evidence of the mean-reverting property for the USD/EUR exchange rate, the USD/GBP, and USD/ 100JPY exchange rates show the mean-reversion behavior. Interestingly, the volatility function of the USD/EUR exchange rate is increasing in the exchange rate while the volatility functions of the USD/GBP and USD/100Yen exchange rates have a U-shape. Our results reveal that more care has to be taken when determining a diffusion model for the exchange rate. The results also imply that we may have to use a more general diffusion model than those proposed in the literature when developing economic theories for the behavior of the exchange rate and pricing foreign currency options or derivatives.</t>
+          <t>This background paper focuses on two or three aspects which, in the writer's opinion, are crucial to the healthy development of general dental practice, although the rapidly progressing health reforms have already altered the relevance of some comments made. The first aspect is equitable access, especially for the financially disadvantaged in this time of economic recession. The ability and inclination of providers to treat the financially disadvantaged has not currently been matched by the political will of funders, even though an effective system could simply be organised. Access problems also apply to the elderly. A smooth transitional system of oral health care should exist for every aging patient, whether economically, physically, and mentally healthy, or in a state of total dependence, and this should be an integral part of general dental practice management. Generally it is not. Secondly, the fragmentation of the New Zealand dental workforce, and the lack of a real team approach have hindered the logical development of oral health services and prevented many possible options from being offered. Dialogue to reduce the fragmentation must continue, hopefully to a successful conclusion. Perhaps the catalyst for meaningful change may be contained in the current health reforms. Certainly opportunities for change have been clearly signalled.</t>
         </is>
       </c>
     </row>

--- a/ch1_evidence_causes/data/samples_5.3_narrowed_criteria3.xlsx
+++ b/ch1_evidence_causes/data/samples_5.3_narrowed_criteria3.xlsx
@@ -387,390 +387,395 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4557684</t>
+          <t>https://openalex.org/W2055986502</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-444-88923-2.50004-5</t>
+          <t>https://doi.org/10.1002/ajmg.a.33284</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Frank &amp; Gerteis (1991)</t>
+          <t>Levenson (2010)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>INCLUDING DYNAMIC MODELLING INTO THE OBJECT-ORIENTED DESIGN</t>
+          <t>Personalized medicine presents challenges and opportunities</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Development and integration of distributed application software is still a complex task regardless of the actual type of application. The DOCASE project is introducing an architecture for a development support environment that is based on common understanding of the development data representation. To facilitate this strategy, two representation languages are developed to cover the needs during the requirements and the design phases. Object-orientation and modelling of dynamic behaviour have been emphasized and transformation from the requirements representation to the design representation is included. This paper introduces both languages and the transformation strategy and provides an example.</t>
+          <t xml:space="preserve">Researchers detail progress and the work ahead Much work remains if personalized medicine is to fulfill its promise of revolutionizing healthcare, according to genetics researchers who spoke at the 2009 Annual Meeting of the American Society of Human Genetics (ASHG). Personalized medicine represents an obvious opportunity to stop “treating people in a one-size-fits all way,” said Alan Guttmacher, MD, acting director of the National Human Genome Research Institute (NHGRI) at the National Institutes of Health (NIH) in Bethesda, Maryland, during a press briefing. Today, it is clear that genetics affect how individuals react to medications, added Edward McCabe, MD, PhD, ASHG past president and physician-in-chief at the University of California, Los Angeles Mattel Children's Hospital. For example, rofecoxib (Vioxx) is quite effective for the majority of people for whom its prescribed, but a certain small percentage of patients suffer serious side effects, which Dr. McCabe attributed to genetic variation. “We need more therapies targeted toward individuals, especially drugs that work with an individual's genetic makeup so the risk of side effects is reduced,” he said. However, development of these drugs requires large databases of associations of single nucleotide polymorphisms (SNPs), drug side effects, and risk of disease, Dr. McCabe said. Genome wide association studies (GWAS), which involve rapidly scanning markers across the complete genomes of many people to find genetic variations associated with a particular disease and large population studies that aim to translate knowledge of genetics to medical practice would produce necessary data. Little data from such studies now exist. Personalized medicine aims to use genomic and molecular information to target medical treatments to the individual. Genetic testing to inform warfarin dosing—now ongoing at some clinics—is an example of one application of personalized medicine that would benefit from such studies. While several studies have looked at such testing in particular, and others are in progress, Dr. McCabe noted that, “studying one population [and genetic testing in warfarin dosing] doesn't tell us much about another population.” Breast cancer prevention and treatment efforts would benefit greatly from GWAS, Dr. Guttmacher added. GWAS data might inform several debates over proper care, including the age at which individual women should start having regular mammograms. GWAS are beginning to deliver data that will someday settle these types of questions involving human genetic variability. But, although much knowledge has been derived from GWAS on common diseases already, those studies have underscored “that we don't understand the mechanisms in human heritability,” Dr. Guttmacher noted, adding that the future of personalized medicine depends in part on such knowledge. Study of the interactions between genes and environment represents an even greater challenge—and opportunity—to personalized medicine, said Dr. Guttmacher. Data on how diet, exercise, and toxin exposure affect genes are extremely important, but getting this information is a very difficult and expensive endeavor, he added. In a separate symposium at the meeting, Dr. Guttmacher noted that some countries and companies have launched longitudinal studies of gene-environment and gene-gene interactions with very good genotypic, phenotypic, and environmental information. He called for a U.S.-based study of similar quality. The best research on these interactions and GWAS will have little impact if healthcare providers do not use it and patients do not accept resulting treatments, said Dr. Guttmacher during the press briefing. To this end, NIH's Mulitplex Imitative is examining how patients react to the offer of personalized medicine and if patients and providers use results effectively. “We assume that personalized medicine is better, but we need to show it's effective,” Dr. Guttmacher explained. ASHG President Roderick McInnes, MD, PhD, science director of the Institute of Genetics in the Canadian Institutes of Health Research in Toronto, noted that studies have pointed to various genetic associations with both increased and decreased risk of coronary artery disease. Echoing Dr. Guttmacher's remarks on the lack of knowledge about how genes interact with the environment, he warned that, “because the complexity is remarkable, we must be careful not to over-promise [regarding what personalized medicine can do].” Along with Drs. McCabe and Guttmacher, Dr. McInnes pointed to pharmacogenetics as the most promising area of personalized medicine. In addition to research that has shown genotyping certain patients prescribed warfarin can reduce adverse events, he noted that testing for variation in the gene that expresses thiopurine methyltransferase (TPMT) is now helping to make chemotherapy with 6-mercaptopurine safer for some patients. Patients with alleles linked to difficulty metabolizing the drug are at </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4225725528</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arxiv.2202.08184</t>
+          <t>https://openalex.org/W2616978171</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bross et al. (2022)</t>
+          <t>Opiłowska (2015)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tomographic Muon Imaging of the Great Pyramid of Giza</t>
+          <t>(Un)gewollte Nachbarschaft? Transnationale Beziehungen im deutsch-polnischen Grenzraum</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The pyramids of the Giza plateau have fascinated visitors since ancient times and are the last of the Seven Wonders of the ancient world still standing. It has been half a century since Luiz Alvarez and his team used cosmic-ray muon imaging to look for hidden chambers in Khafres Pyramid. Advances in instrumentation for High-Energy Physics (HEP) allowed a new survey, ScanPyramids, to make important new discoveries at the Great Pyramid (Khufu) utilizing the same basic technique that the Alvarez team used, but now with modern instrumentation. The Exploring the Great Pyramid Mission plans to field a very-large muon telescope system that will be transformational with respect to the field of cosmic-ray muon imaging. We plan to field a telescope system that has upwards of 100 times the sensitivity of the equipment that has recently been used at the Great Pyramid, will image muons from nearly all angles and will, for the first time, produce a true tomographic image of such a large structure.</t>
+          <t>Im Prozess der europaischen Integration wird den Grenzraumen die Rolle der Laboratorien der europaischen Integration und des Inkubators der kosmopolitischen Identitat zugeschrieben. Die deutsch-polnische Grenzregion stellt einen interessanten Fall fur die Untersuchung der Evolution von Nachbarschaftsbeziehungen in Europa dar. Nach der politischen und wirtschaftlichen Transformation in Mittel- und Osteuropa befand sich die deutsch-polnische Grenzregion in der Mitte der Rekonfiguration des europaischen Raumes. Mit dem Fall des Eisernen Vorhangs und dem Beitritt Polens zur Europaischen Union in 2004 verwandelt sich die Grenze allmahlich von der Barriere zur Brucke, was insbesondere im politischen Diskurs betont wird. Das Ziel des Beitrags ist es, die neue polnische Migration in Mecklenburg-Vorpommern mit dem Konzept von transborderness zu analysieren.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2055986502</t>
+          <t>https://openalex.org/W2894838145</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/ajmg.a.33284</t>
+          <t>https://doi.org/10.4414/sanp.2014.00224</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Levenson (2010)</t>
+          <t>NA (2014)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Personalized medicine presents challenges and opportunities</t>
+          <t>Übergänge – eine Herausforderung</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Researchers detail progress and the work ahead Much work remains if personalized medicine is to fulfill its promise of revolutionizing healthcare, according to genetics researchers who spoke at the 2009 Annual Meeting of the American Society of Human Genetics (ASHG). Personalized medicine represents an obvious opportunity to stop “treating people in a one-size-fits all way,” said Alan Guttmacher, MD, acting director of the National Human Genome Research Institute (NHGRI) at the National Institutes of Health (NIH) in Bethesda, Maryland, during a press briefing. Today, it is clear that genetics affect how individuals react to medications, added Edward McCabe, MD, PhD, ASHG past president and physician-in-chief at the University of California, Los Angeles Mattel Children's Hospital. For example, rofecoxib (Vioxx) is quite effective for the majority of people for whom its prescribed, but a certain small percentage of patients suffer serious side effects, which Dr. McCabe attributed to genetic variation. “We need more therapies targeted toward individuals, especially drugs that work with an individual's genetic makeup so the risk of side effects is reduced,” he said. However, development of these drugs requires large databases of associations of single nucleotide polymorphisms (SNPs), drug side effects, and risk of disease, Dr. McCabe said. Genome wide association studies (GWAS), which involve rapidly scanning markers across the complete genomes of many people to find genetic variations associated with a particular disease and large population studies that aim to translate knowledge of genetics to medical practice would produce necessary data. Little data from such studies now exist. Personalized medicine aims to use genomic and molecular information to target medical treatments to the individual. Genetic testing to inform warfarin dosing—now ongoing at some clinics—is an example of one application of personalized medicine that would benefit from such studies. While several studies have looked at such testing in particular, and others are in progress, Dr. McCabe noted that, “studying one population [and genetic testing in warfarin dosing] doesn't tell us much about another population.” Breast cancer prevention and treatment efforts would benefit greatly from GWAS, Dr. Guttmacher added. GWAS data might inform several debates over proper care, including the age at which individual women should start having regular mammograms. GWAS are beginning to deliver data that will someday settle these types of questions involving human genetic variability. But, although much knowledge has been derived from GWAS on common diseases already, those studies have underscored “that we don't understand the mechanisms in human heritability,” Dr. Guttmacher noted, adding that the future of personalized medicine depends in part on such knowledge. Study of the interactions between genes and environment represents an even greater challenge—and opportunity—to personalized medicine, said Dr. Guttmacher. Data on how diet, exercise, and toxin exposure affect genes are extremely important, but getting this information is a very difficult and expensive endeavor, he added. In a separate symposium at the meeting, Dr. Guttmacher noted that some countries and companies have launched longitudinal studies of gene-environment and gene-gene interactions with very good genotypic, phenotypic, and environmental information. He called for a U.S.-based study of similar quality. The best research on these interactions and GWAS will have little impact if healthcare providers do not use it and patients do not accept resulting treatments, said Dr. Guttmacher during the press briefing. To this end, NIH's Mulitplex Imitative is examining how patients react to the offer of personalized medicine and if patients and providers use results effectively. “We assume that personalized medicine is better, but we need to show it's effective,” Dr. Guttmacher explained. ASHG President Roderick McInnes, MD, PhD, science director of the Institute of Genetics in the Canadian Institutes of Health Research in Toronto, noted that studies have pointed to various genetic associations with both increased and decreased risk of coronary artery disease. Echoing Dr. Guttmacher's remarks on the lack of knowledge about how genes interact with the environment, he warned that, “because the complexity is remarkable, we must be careful not to over-promise [regarding what personalized medicine can do].” Along with Drs. McCabe and Guttmacher, Dr. McInnes pointed to pharmacogenetics as the most promising area of personalized medicine. In addition to research that has shown genotyping certain patients prescribed warfarin can reduce adverse events, he noted that testing for variation in the gene that expresses thiopurine methyltransferase (TPMT) is now helping to make chemotherapy with 6-mercaptopurine safer for some patients. Patients with alleles linked to difficulty metabolizing the drug are at </t>
+          <t>Das Leben in verschiedenen Welten und die Ubergange zwischen verschiedenen Welten im Psychoanalytiker bzw. im Psychotherapeuten und in seinem Patienten: Die Transformation von Stadien der Desintegration in Stadien der Nicht-Integration</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2130079398</t>
+          <t>https://openalex.org/W2040265599</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2737/pnw-gtr-422</t>
+          <t>https://doi.org/10.3816/clc.2009.s.001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wallin et al. (1998)</t>
+          <t>Bunn (2009)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A landscape plan based on historical fire regimes for a managed forest ecosystem: the Augusta Creek study.</t>
+          <t>Novel Therapies for Non–Small-Cell Lung Cancer: A 2008 Update</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The Augusta Creek project was initiated to establish and integrate landscape and watershed objectives into a landscape plan to guide management activities within a 7600-hectare (19,000-acre) planning area in western Oregon. Primary objectives included the maintenance of native species, ecosystem processes and structures, and long-term ecosystem productivity in a federally managed landscape where substantial acreage was allocated to timber harvest. Landscape and watershed management objectives and prescriptions were based on an interpreted range of natural variability of landscape conditions and disturbance processes. A dendrochronological study characterized fire patterns and regimes over the last 500 years. Changes in landscape conditions throughout the larger surrounding watershed due to human uses (e.g., roads in riparian areas, widespread clearcutting, a major dam, and portions of a designated wilderness and an unroaded area) also were factored into the landscape plan. Landscape prescriptions include an aquatic reserve system comprised of small watersheds distributed throughout the planning area and major valley-bottom corridor reserves that connect the small-watershed reserves. Where timber harvest was allocated, prescriptions derived from interpretations of fire regimes differ in rotation ages (100 to 300 years), green-tree retention levels (15- to 50- percent canopy cover), and spatial patterns of residual trees. General prescriptions for fire management also were based on interpretations of past fire regimes. All these prescriptions were linked to specific blocks of land to provide an efficient transition to site-level planning and project implementation. Landscape and watershed conditions were projected 200 years into the future and compared with conditions that would result from application of standards, guidelines, and assumptions in the Northwest Forest Plan prior to adjustments resulting from watershed analyses. The contrasting prescriptions for aquatic reserves and timber harvest (rotation lengths, green-tree retention levels, and spatial patterns) in these two approaches resulted in strikingly different potential future landscapes. These differences have significant implications for some ecosystem processes and habitats. We view this management approach as a potential postwatershed analysis implementation of the Northwest Forest Plan and offer it as an example of how ecosystem management could be applied in a particular landscape by using the results of watershed analysis.</t>
+          <t>Lung cancer is the leading cause of cancer death in the United States and worldwide.1,2 The 5-year survival rate of 16% remains suboptimal and far lower than 5-year survival rates for all cancers (66%) and other common cancers such as breast, colon, and prostate cancers.1 Cytotoxic chemotherapy has been the mainstay of treatment for patients with advanced small-cell lung cancer and non–small-cell lung cancer (NSCLC) for many years.3-5 Because these therapies have many toxicities that kill a substantial number of tumor cells, it is imperative that we develop biomarkers to identify patients most likely to respond to individual drugs and to develop agents with reduced toxicities. The revolution in our understanding of the molecular basis of lung cancer leads to the identification of new therapeutic targets. Among these new targets are growth factor pathways that stimulate not only tumor growth but also the growth of blood vessels that permit lung cancer growth (angiogenesis). In this supplement to Clinical Lung Cancer, the recent advances in novel therapies for lung cancer are reviewed by experts in the field. With respect to the novel targets, the epidermal growth factor (EGF) pathway for lung cancer cells and the vascular endothelial growth factor (VEGF) pathway for endothelial cells are highlighted. Horn and Sandler review the emerging data on antiangiogenic therapies for NSCLC. There are several ways to inhibit the pathway, including monoclonal antibodies (MoAbs) directed to the VEGF ligand (bevacizumab) or MoAbs to the VEGF receptor (VEGFR; eg, IMC-1121B). Many small-molecule tyrosine kinase inhibitors (TKIs) of VEGFR signaling are also being studied. Among all antiangiogenic therapies of any class, only bevacizumab (Avastin) is currently US Food and Drug Administration (FDA) approved for lung cancer therapy. Herein, Joy and Butts review the status of inhibitors of the EGF receptor (EGFR) signaling pathway. Once again, there are both MoAbs to the receptor, such as cetuximab, and small-molecule TKIs of EGFR signaling, such as erlotinib and gefitinib. The smallmolecule inhibitor erlotinib is approved for use in NSCLC by the FDA, and there are promising emerging data for cetuximab and gefitinib. There are intense studies to identify the best biomarkers to select patients for these therapies. Activating EGFR mutations appear to be excellent markers for sensitivity to EGFR TKIs. EGFR protein expression, EGFR gene copy number by fluorescence in situ hybridization, and other markers are being evaluated to assist in the selection of patients for cetuximab therapy. Pakkala and Ramalingam review studies that evaluate dual inhibition of both the EGFR and VEGFR pathways. The dual inhibition can be achieved by combining agents specific for each pathway (eg, erlotinib and bevacizumab) and by using single small-molecule TKIs that target both pathways (eg, vandetanib). Scagliotti and colleagues review recent studies focusing on the novel cytotoxic chemotherapeutic agent pemetrexed. Pemetrexed is a multitargeted antifolate that is FDA approved for use in both firstand second-line therapy for advanced NSCLC. Multiple studies have demonstrated that its activity is greater in nonsquamous carcinomas than in squamous carcinomas. The authors explore the molecular basis for this difference. Finally, West reviews the next generation of targeted therapies for advanced NSCLC. There are many promising targets, including insulin-like growth factor-1 receptor signaling; c-Met signaling; mammalian target of rapamycin; AKT and phosphatidylinositol 3-kinase signaling; and inducers of apoptosis, such as TRAIL, and agonist antibodies to DR4 or DR5. This supplement highlights the major advances in lung cancer therapy that have the potential to improve 5-year survival rates and reduce the pain and suffering experienced by patients with lung cancer.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2040265599</t>
+          <t>https://openalex.org/W3034459191</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3816/clc.2009.s.001</t>
+          <t>https://doi.org/10.14505/jarle.v10.7(45).05</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bunn (2009)</t>
+          <t>Hrabovska et al. (2019)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Novel Therapies for Non–Small-Cell Lung Cancer: A 2008 Update</t>
+          <t>Tendencies of Reforming Legislative Regulation in the Field of Evidence in Civil Procedure of Ukraine</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lung cancer is the leading cause of cancer death in the United States and worldwide.1,2 The 5-year survival rate of 16% remains suboptimal and far lower than 5-year survival rates for all cancers (66%) and other common cancers such as breast, colon, and prostate cancers.1 Cytotoxic chemotherapy has been the mainstay of treatment for patients with advanced small-cell lung cancer and non–small-cell lung cancer (NSCLC) for many years.3-5 Because these therapies have many toxicities that kill a substantial number of tumor cells, it is imperative that we develop biomarkers to identify patients most likely to respond to individual drugs and to develop agents with reduced toxicities. The revolution in our understanding of the molecular basis of lung cancer leads to the identification of new therapeutic targets. Among these new targets are growth factor pathways that stimulate not only tumor growth but also the growth of blood vessels that permit lung cancer growth (angiogenesis). In this supplement to Clinical Lung Cancer, the recent advances in novel therapies for lung cancer are reviewed by experts in the field. With respect to the novel targets, the epidermal growth factor (EGF) pathway for lung cancer cells and the vascular endothelial growth factor (VEGF) pathway for endothelial cells are highlighted. Horn and Sandler review the emerging data on antiangiogenic therapies for NSCLC. There are several ways to inhibit the pathway, including monoclonal antibodies (MoAbs) directed to the VEGF ligand (bevacizumab) or MoAbs to the VEGF receptor (VEGFR; eg, IMC-1121B). Many small-molecule tyrosine kinase inhibitors (TKIs) of VEGFR signaling are also being studied. Among all antiangiogenic therapies of any class, only bevacizumab (Avastin) is currently US Food and Drug Administration (FDA) approved for lung cancer therapy. Herein, Joy and Butts review the status of inhibitors of the EGF receptor (EGFR) signaling pathway. Once again, there are both MoAbs to the receptor, such as cetuximab, and small-molecule TKIs of EGFR signaling, such as erlotinib and gefitinib. The smallmolecule inhibitor erlotinib is approved for use in NSCLC by the FDA, and there are promising emerging data for cetuximab and gefitinib. There are intense studies to identify the best biomarkers to select patients for these therapies. Activating EGFR mutations appear to be excellent markers for sensitivity to EGFR TKIs. EGFR protein expression, EGFR gene copy number by fluorescence in situ hybridization, and other markers are being evaluated to assist in the selection of patients for cetuximab therapy. Pakkala and Ramalingam review studies that evaluate dual inhibition of both the EGFR and VEGFR pathways. The dual inhibition can be achieved by combining agents specific for each pathway (eg, erlotinib and bevacizumab) and by using single small-molecule TKIs that target both pathways (eg, vandetanib). Scagliotti and colleagues review recent studies focusing on the novel cytotoxic chemotherapeutic agent pemetrexed. Pemetrexed is a multitargeted antifolate that is FDA approved for use in both firstand second-line therapy for advanced NSCLC. Multiple studies have demonstrated that its activity is greater in nonsquamous carcinomas than in squamous carcinomas. The authors explore the molecular basis for this difference. Finally, West reviews the next generation of targeted therapies for advanced NSCLC. There are many promising targets, including insulin-like growth factor-1 receptor signaling; c-Met signaling; mammalian target of rapamycin; AKT and phosphatidylinositol 3-kinase signaling; and inducers of apoptosis, such as TRAIL, and agonist antibodies to DR4 or DR5. This supplement highlights the major advances in lung cancer therapy that have the potential to improve 5-year survival rates and reduce the pain and suffering experienced by patients with lung cancer.</t>
+          <t>The radical political changes that have taken place in recent years in connection with Ukraine's desire for integration into the European community have led to another judicial reform. As part of the legislative reform, a new version of the Code of Civil Procedure (CPC) was developed and adopted in 2017. The aim of this study is to identify, structure and analyze the fundamental changes that have occurred in the new version of the Code, and to trace outline trends in legislation of Ukraine of such concept as proof and reliability of evidence. The research substantiates the need to separate electronic evidence as an independent means of proof in civil justice, to analyze new innovations in Ukrainian law, and to show progressive vectors of change in civil law in Ukraine. This study may form the basis for further research into civil justice reform.&amp;#x0D;</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W259869057</t>
+          <t>https://openalex.org/W2408673697</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1557-3265.pmsclingen15-ia22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Waters (2007)</t>
+          <t>Sawyers (2016)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Out of Print: Traditional Textbook Publishers Are Having to Adjust to a Changing Market, as K-12 Educators Show a Growing Interest in Digital Content</t>
+          <t>Abstract IA22: Reflections on precision medicine</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Anita Givens first began teaching elementary school students to use computers back in the mid-1980s, there were few digital learning materials available and little demand for electronic textbooks. In fact, parents and educators worried that the advent of computers in schools would result in students' spending too much time in the company of computer monitors, and not enough time with real books. Many people were saying, 'We don't want kids sitting in front of a computer all day at school,' as though they were television sets, recalls Givens, who serves the Texas Education Agency as the senior director for instructional materials and educational technology. Look at how many of us now sit in front of a computer all day at work. how we do business. how we communicate through e-mail. how we accomplish tasks using the web. And it's important to leverage that technology--that now common experience--so it's a seamless part of the learning experience for students. I, A lot has changed in 20 years. Teachers, parents, and especially students are embracing electronic educational content today in growing numbers. Givens' agency, for one, has made deployment of digital learning tools and content a priority. The TEA has adopted electronic instructional materials and educational technologies from a range of publishers and depositories--which store and distribute instructional materials for publishing companies--including Glencoe/McGraw-Hill, Pearson Scott Foresman, Harcourt, and Classroom Connect, among others, and from websites such as Learning.com. The influx of alternative digital content has actually altered Texas' formal definition of to include electronic media. reconsideration and redefining of the textbook and how it relates to teaching is occurring across K-12. The consensus definition, however, is still aborning. What now can correctly be called a textbook? For some, printed materials scanned as a PDF file qualify; for others, a certain level of interactivity and even multimedia is required. little else, there is agreement on this: no longer printed pages in a bound book. We define an e-book as a digital book that is available for download, reading, and printing from a connected PC, Mac, or notebook--and for a variety of our materials, PDAs and smart phones, says Steve Potash, CEO of digital content provider OverDrive. When you talk about an e-book or a digital book, with the exception of digital audio books, you are still talking about text, about reading. Digital book file formats vary, Potash points out. A PDF file, for example, is usually searchable, and the reader can sometimes apply highlighting and annotations from the PC. Some digital books are readable from a cell phone or PDA running Adobe's Acrobat eBook or the Mobipocket Reader. Digital audio books can be downloaded to an MP3 player. And Adobe eBooks have built-in text-to-speech capabilities so that a reader may have the book read aloud by the computer. This is disruptive technology, Potash says. It's changing education in fundamental ways. Givens elaborates. If we're going to prepare our students to live and work in the 21st century, we have to make sure that they are comfortable with 21st-century tools, she says. They become the most proficient with these tools when they are connected to content, when they are an integral part of the core curriculum areas--language arts and reading, math, science, and social studies--across the spectrum. More Than Letters on a Screen Mark Bretl agrees that a revolution is afoot with the arrival of electronic textbooks in K-12 environments, but he finds it difficult to work up much enthusiasm for PDF files. Bretl believes that interactivity and multimedia are the keys to this new incarnation of the textbook, which the founders of Kinetic Books, where Bretl is vice president, call, aptly, kinetic textbooks. …</t>
+          <t>Abstract The clinical success of molecularly targeted therapies such as imatinib for chronic myeloid leukemia sparked a revolution in cancer drug development as well as global efforts to define the landscape of genomic alterations across all cancers. Today we live in a world with a near complete understanding of all cancer gene mutations, giving us an unprecedented opportunity to leverage this knowledge to improve treatment outcomes, through precision medicine. Despite the many remarkable successes over the past 15 years, the goal of improved therapy for all cancers remains daunting due to the complexity of the genomic landscape and the challenges of overcoming drug resistance. With the rapid spread of next generation sequencing into the clinical arena at various cancer centers and health care institutions throughout the world, we have an opportunity to accelerate our understanding of treatment response and resistance through data sharing across these growing silos of genomic and clinical datasets. In this lecture I will illustrate the power of this approach through specific examples in prostate cancer and discuss interactional efforts to catalyzed data sharing through the Global Alliance for Genomics and Health (GA4GH). Citation Format: Charles L. Sawyers. Reflections on precision medicine. [abstract]. In: Proceedings of the AACR Precision Medicine Series: Integrating Clinical Genomics and Cancer Therapy; Jun 13-16, 2015; Salt Lake City, UT. Philadelphia (PA): AACR; Clin Cancer Res 2016;22(1_Suppl):Abstract nr IA22.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3209206529</t>
+          <t>https://openalex.org/W4384033984</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1748-9326/ac3605</t>
+          <t>https://doi.org/10.1515/zpch-2023-0252</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Khatri‐Chhetri et al. (2021)</t>
+          <t>Nazik et al. (2023)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Financing climate change mitigation in agriculture: assessment of investment cases</t>
+          <t>Synthesis of doped metal sulfide nanoparticles and their graphene reinforced nanohybrid for Pb(II) detection</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Abstract More than one-quarter of the world’s greenhouse gas emissions come from agriculture, forestry, and land-use change. As with other sectors of the economy, agriculture should also contribute to meeting countries’ emission reduction targets. Transformation of agriculture to low-carbon food systems requires much larger investments in low emission development options from global climate finance, domestic budgets, and the private sector. Innovative financing mechanisms and instruments that integrate climate finance, agriculture development budgets, and private sector investment can improve and increase farmers’ and other value chain actors’ access to finance while delivering environmental, economic, and social benefits. Investment cases assessed in this study provide rich information to design and implement mitigation options in agriculture through unlocking additional sources of public and private capital, strengthening the links between financial institutions, farmers, and agribusiness, and coordination of actions across multiple stakeholders. These investment cases expand support for existing agricultural best practices, integrate forestry and agricultural actions to avoid land-use change, and support the transition to market-based solutions.</t>
+          <t>Abstract This paper explores different techniques to combine and improve the electrochemical sensing activities of the transition metal chalcogenide. The transition metal chalcogenide was doped with a suitable dopant to tune the band structure. Surface-assisted nanotechnology was used to enrich the superficial properties of the doped material. Lastly, the nanostructured doped materials were physically mixed with the graphene nanoplates (GNPs) to improve the flow of charges and the stability of the electrochemistry. The most electrically conductive and common metal sulfides in nature were chosen and prepared using a cheap and easy wet-route method. Crystal structure, chemical functionality, texture, composition, and thermal stability of undoped, doped, and composite materials were determined using physicochemical techniques such as X-ray diffraction, FTIR, SEM, EDX, and TGA. N 2 -adsorption-desorption, current-voltage, and impedance studies show that the composite sample’s surface area, electrical conductivity, and charge transport properties are superior to those of the undoped and doped samples. Regarding electrochemical applications, the composite material supported a glassy carbon electrode (Co–Cu 2 S/Gr@GCE) with excellent Pb(II) ion sensing activity. Moreover, the sensitivity, detection, and quantification limits of the modified electrode for Pb(II) detection were computed to be 88.68 μAμMcm −2 , 0.091 μM, and 0.30 μM, respectively. The key features developed in the metal sulfide for its enhancement of electrochemical sensing activity are a high surface area, good conductivity, and fast electron transport by adopting nanotechnology, metal doping, and composite formation methodologies. Based on the results of the experiments, we can say that using multiple inputs to integrate the feature we want is an excellent way to make electrochemical systems for the next generation.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2741322247</t>
+          <t>https://openalex.org/W3209206529</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1386/ejac.36.2.137_1</t>
+          <t>https://doi.org/10.1088/1748-9326/ac3605</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Koehler (2017)</t>
+          <t>Khatri‐Chhetri et al. (2021)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sweet sick teens: Gothic narratives of American adolescent sexuality</t>
+          <t>Financing climate change mitigation in agriculture: assessment of investment cases</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Abstract Pivotal to the transition into adulthood is sexual maturation, an inescapable rite of passage which this article investigates across a range of contemporary American media. Beginning in the 1980s through the turn of the twenty-first century, the works in this archive tend to represent the increasingly politicized, stigmatized adolescent body as a conflict zone, a liminal precinct in which sex, illness and death often intersect to traumatic and Gothic effect. They consist of culturally influential ‘indie’ narratives that bridge the gap or, at times, blur the line between the mainstream and cult subculture. Starting from Victor Turner’s seminal work on the adolescent’s passage into adulthood, I place the concept of liminality side by side with the cultural imagination of the frontier. The sex and death dichotomy that characterizes adolescent sexuality shares with the fundamental trope of the frontier a wide array of Gothic connotations. Pre-existing scholarship on Gothic teen studies has yet to extrapolate on the portrayals of sickly teen bodies that run rampant in Gothic works. To append this missing link, I discuss Freudian drives, Susan Sontag’s illness metaphors, and Priscilla Wald’s readings of contagion narratives to lay the groundwork for the connection between sex, illness and cultural anxieties that these late-century narratives communicate. Indeed, I understand contemporary Gothic along the lines of Catherine Spooner, who quipped in her 2006 monograph that ‘[l]ike a malevolent virus, Gothic narratives have [...] spread across disciplinary boundaries to infect all kinds of media…’ (2006: 8). I consider sick teen bodies across a variety of works under two main headings: first, those that rely heavily on anaesthetized imagery to evoke the Gothic. Beginning with 2015’s genre-bending It Follows (Mitchell), I work backwards to trace its clear-cut intertext – The Virgin Suicides (Coppola, 1993), a teen dream-turned-nightmare likewise set in suburban Detroit. The second heading explores decidedly more violent works, among them the graphic novel Black Hole and the horror film Ginger Snaps (Fawcett, 2000), which juxtapose adolescence and supernatural monstrosities that act as carriers of disease. The female is often at the centre of the narratives at hand, and though these works explore the world of minors, rarely, problematically are ‘minority’ bodies represented. Common to these works are stigmatized figures who fight for individual expression yet often fail to emerge from the adolescent stage as autonomous adults, due either to their unwillingness to conform to mainstream culture or the failure of this culture to integrate them.</t>
+          <t>Abstract More than one-quarter of the world’s greenhouse gas emissions come from agriculture, forestry, and land-use change. As with other sectors of the economy, agriculture should also contribute to meeting countries’ emission reduction targets. Transformation of agriculture to low-carbon food systems requires much larger investments in low emission development options from global climate finance, domestic budgets, and the private sector. Innovative financing mechanisms and instruments that integrate climate finance, agriculture development budgets, and private sector investment can improve and increase farmers’ and other value chain actors’ access to finance while delivering environmental, economic, and social benefits. Investment cases assessed in this study provide rich information to design and implement mitigation options in agriculture through unlocking additional sources of public and private capital, strengthening the links between financial institutions, farmers, and agribusiness, and coordination of actions across multiple stakeholders. These investment cases expand support for existing agricultural best practices, integrate forestry and agricultural actions to avoid land-use change, and support the transition to market-based solutions.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3198723610</t>
+          <t>https://openalex.org/W79045625</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12913-021-06942-y</t>
+          <t>https://doi.org/10.1007/978-3-642-03904-1_8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fridberg et al. (2021)</t>
+          <t>Becker et al. (2009)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The innovation characteristics of person-centred care as perceived by healthcare professionals: an interview study employing a deductive-inductive content analysis guided by the consolidated framework for implementation research</t>
+          <t>Authentication of persons using acceleration sensors in a telemedicine setting</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Abstract Background Person-centred care (PCC) is promoted as an innovation that will improve patients’ rights and increase their participation in healthcare. Experience shows that the implementation of PCC is challenging and often results in varying levels of adoption. How health care professionals (HCPs) perceive an innovation such as PCC is an important factor to consider in implementation. Yet, such studies are scarce. Thus, in a sample of healthcare units in a region in Sweden, involved in a transition to PCC, we aimed to investigate HCPs’ perceptions of PCC. Methods An interview study was conducted in 2018 during the implementation of PCC with HCPs ( n = 97) representing diverse vocational roles in six healthcare contexts. Data were collected via focus groups ( n = 15), dyadic interviews ( n = 5), and individual interviews ( n = 22) and analysed using a deductive–inductive content analysis. The deductive approach was guided by the Consolidated Framework for Implementation Research (CFIR), followed by an inductive analysis to describe HCPs’ in-depth perceptions of PCC in relation to each of the CFIR constructs. Results Eight constructs from two of the CFIR domains, Intervention characteristics and Inner setting, were used to code HCPs’ perceptions of PCC. One construct, Observability, was added to the coding sheet to fully describe all the data. The constructs Relative advantage, Complexity, Compatibility, Observability, and Available resources were discussed in depth by HCPs and resulted in rich and detailed data in the inductive data analysis. This analysis showed large variations in perceptions of PCC among HCPs, based on factors such as the PCCs ethical underpinnings, its operationalisation into concrete working routines, and each HCPs’ unique recognition of PCC and the value they placed on it. Conclusions We identified nine CFIR constructs that seem pertinent to HCPs’ perceptions of PCC. HCPs report an array of mixed perceptions of PCC, underlining its complex nature. The perceptions are shaped by a range of factors, such as their individual understandings of the concept and the operationalisation of PCC in their local context. Stakeholders in charge of implementing PCC might use the results as a guide, delineating factors that may be important to consider in a wide range of healthcare contexts.</t>
+          <t>Prophylactic measures are reducing costs of healthcare without lowering its quality. Telemetric Personal Health Monitoring (TPHM) Systems with multi-parametric sensors allow active integration of patients into therapy. A common problem in such systems is the verification and identification of users to guarantee the authenticity of gathered data. To assign measured physiological parameters to legitimate users we included a gait-based identification algorithm into a TPHM System. The algorithm records two-dimensional acceleration data from a two-axis accelerometer located on a chest belt. In configuration mode the participant has to walk fast to allow the algorithm to calculate a reference pattern for the legitimate user of the belt. In identification mode the algorithm is looking for fast walking sequences and compares the recorded pattern with the reference pattern. Test patterns generated by different users wearing the belt are compared to find out if the algorithm is able to distinguish between legitimate and illegitimate users. We use methods similar to classification procedures in speech processing to analyze our data in the frequency domain. Several approaches and classificators like the Mahalanobis Classificator and the Minimum Distance Classificator were examined. The signal processing chain consisted of Hamming Windowing, FFT (Fast Fourier Transformation), calculation of the performance density spectrum and calculation of Fourier coefficients. Furthermore, histogram statistics were used as a simple and performance-efficient way to classify the acquired data. We showed that it is difficult to use acceleration data to identify persons without large training sets.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283807879</t>
+          <t>https://openalex.org/W2033792504</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.26577/hj.2022.v64.i2.10</t>
+          <t>https://doi.org/10.1103/physrevb.62.17043</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ashirbekova &amp; Abylkhanova (2022)</t>
+          <t>Roth &amp; Balasubramanya (2000)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Methods of Presenting Information in the Journalism of B. Omaruly</t>
+          <t>Predicted properties and melting transition of krypton layers physisorbed onto Lennard-Jones spheres</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The journalistic side of Bauyrzhan Omaruly, who has his own style in the development of the national press, is unique in that he knows how to raise a topical issue. Whatever problem B. Omaruly wrote, he approached it carefully and with great responsibility. Its freshness of idea and uniqueness lies in the clarity of the author's position. &amp;nbsp;Bauyrzhan's travel essays, which give life to living and non-living things, have become readers' favorite works. Therefore, we believe that looking into the workshop of the resourceful journalist B. Omaruly and identifying its features is a necessary topic for domestic journalism. The main purpose of the scientific article is to show the problematic, thematic features of the journalistic works of B. Omaruly, to determine his artistic abilities and to express his civil position. Omaruly is a writer who studies the chosen topic in detail. He has a deep knowledge of journalistic research methods. At the same time, the choice and discovery of the topic by the publicist were analyzed from the point of view of creative abilities. His desire to master the genre of the journalistic work (analytical, artistic, journalistic, epistolary) is determined by the analysis of specific articles, essays, interviews, journalistic studies. The publicist not only master these genres, but also has a unique style in their transformation. The article analyzes journalistic texts by B. Omaruly, published in the newspapers «Leninshil zhas» («Zhas Alash»), «Aikyn», in terms of genre, theme, problem, language, style, features of the author's position. His original style, personality and curiosity are explored in his other works. Omaruly is a writer with a unique style in domestic journalism. His personality is reflected in the chosen topic, the nature of the writer who studies the issue in detail, his respect for national values ​​and boundless love for the Motherland, high taste for the art of speech. In the works of B. Omaruly a special reflection of nature and man, the relationship between man and society, the fate of the individual appeared. This is an excellent school for today's young journalists. &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Keywords: national journalism, publicist, press, essay, Bauyrzhan Omaruly.</t>
+          <t>We report the results of constant-temperature, constant-density, molecular-dynamics simulations of the melting transition of Kr atoms physisorbed onto small Lennard-Jones spheres. Adlayer depletion takes place when free boundary conditions are used but utilization of a soft reflecting shell results in a broad melting transition at around $T=65\mathrm{K}$ without any appreciable hysteresis. We introduce structural and bond-orientational parameters and utilize thermodynamic parameters to monitor the behavior of the system. The spherical geometry causes compression of the neighbor distances with respect to those for the corresponding planar case, causing enhanced interaction of the neighbor shells via interstitials/vacancies, the nature of which is further elucidated using the bond-orientational information. Quantities related to the radial degree of freedom change slowly during melting, and bond-orientational order of the Kr lattice persists well into the fluid.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1496992349</t>
+          <t>https://openalex.org/W1982873233</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.amjopharm.2011.07.005</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bercaw (2013)</t>
+          <t>Villanyi et al. (2011)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
+          <t>Medication Reconciliation: Identifying Medication Discrepancies in Acutely Ill Hospitalized Older Adults</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
+          <t>Medication discrepancies may occur during transitions from community to acute care hospitals. The elderly are at risk for such discrepancies due to multiple comorbidities and complex medication regimens. Medication reconciliation involves verifying medication use and identifying and rectifying discrepancies. The aim of this study was to describe the prevalences and types of medication discrepancies in acutely ill older patients. Patients who were ≥70 years and were admitted to any of 3 acute care for elders (ACE) units over a period of 2 nonconsecutive months in 2008 were prospectively enrolled. Medication discrepancies were classified as intentional, undocumented intentional, and unintentional. Unintentional medication discrepancies were classified by a blinded rater for potential to harm. This study was primarily qualitative, and descriptive (univariate) statistics are presented. Sixty-seven patients (42 women; mean [SD] age, 84.0 [6.5] years) were enrolled. There were 37 unintentional prescription-medication discrepancies in 27 patients (40.3%) and 43 unintentional over-the-counter (OTC) medication discrepancies in 19 patients (28.4%), which translates to Medication Reconciliation Success Index (MRSI) of 89% for prescription medications and 59% for OTC medications. The overall MRSI was 83%. More than half of the prescription-medication discrepancies (56.8%) were classified as potentially causing moderate/severe discomfort or clinical deterioration. Despite a fairly high overall MRSI in these patients admitted to ACE units, a substantial proportion of the prescription-medication discrepancies were associated with potential harm.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4247868226</t>
+          <t>https://openalex.org/W2764413946</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.6004/jadpro.2015.6.4.1</t>
+          <t>https://doi.org/10.1355/ae24-2h</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Viale (2015)</t>
+          <t>Wicaksono (2007)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cancer Care in the United States: A System in Transition</t>
+          <t>Think ASEAN! : Rethinking Marketing toward ASEAN Community 2015</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DOI: 10.1355/ae24-2h Think ASEAN! Rethinking Marketing toward Community 2015. By Philip Kotler, Hermawan Kartajaya, and Hooi Den Huan. Singapore: McGraw-Hill, 2007. Pp. 192. This book can be considered as the first book that exposes the practical implications of economic integration on businesses, especially in marketing. In a nutshell, this book explores what means for businesses. The importance comes mainly from the fact that there has been much things said about integration, but business communities have complained that there is little that they have seen and experienced arising from the benefits of integration. Think ASEAN! is a counter to those sceptical views. By outlining the success stories of marketing companies in Southeast Asia, the book provides compelling cause for businesses to see as an integrated community offering high potential and lucrative markets. It makes reading the book imperative as a lesson for companies and entrepreneurs with intentions to go global, as it will show them that seizing the potential in this region would be the way to go. For academics and policy-makers, Think ASEAN! is also something they might have needed: a set of evidence showing that the regionalism mantra brings benefit for the people. In their quest for the right formula of integration in ASEAN, critics pointed that they might have forgotten the man in the street in countries. The book shows that regional integration has brought benefits as there are more men on the street who can fly from one country to another with Air Asia, or more men on the streets of Jakarta, Bangkok and Manila who can taste the hot chicken-floss bun of Singapore's BreadTalk, for example. Thus, Think ASEAN! shows that thinking, going to, and doing as a whole brings meaning not only for business, but also for the people of ASEAN. The book consists of three parts, with the first focusing on the theoretical models and the latter two parts elaborating more on the empirical evidence of the marketing practice in by companies, both local companies in as well as multinationals. Part I, entitled ASEAN from the Top, starts with the authors' 4C diamond model to depict the changing business landscape and its driving force. Based on this model, Part I further elaborates the phenomenon of digitization and globalization, and their impacts on as market and its competitive landscape with its four chapters within. Chapter 1 on the digitization of the world argues that the impact of ICT (information and communication technology) on economy has been one of the key drivers in the changing business landscape. However, it was also noted that despite efforts by all countries' governments to develop and launch policies in ICT towards e-ASEAN, the digital divide among countries is widening. Chapter 2, on the impact of globalization on economies, elaborates on the challenges posed by globalization on ASEAN. Political and legal changes as well as economic changes have shifted the agents of change from the hands of the government of countries to multinational companies, and lastly to individuals. Globalization in its current era described by the authors being in its third wave - following overseas venture to seek colonies and industry revolution as the first and second wave - has shifted the focus of mind from globalization itself to regionalization. Thus, China and India have become the main performers in the leading role in this era of globalization, while regionalization has become the new mantra at the time when Asia is the region with the highest growth and most lucrative potential. Regionalization has brought about the consequences elaborated in Chapter 3 on being the future market. Exactly forty years after its formation in 1967, has become not only an organization, but also a community and region, which also means a market. …</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3092134418</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3917/cnx.113.0075</t>
+          <t>https://openalex.org/W2517076079</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Béraud &amp; Ravit (2020)</t>
+          <t>Báez et al. (2016)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Approche clinique et psychodynamique des expériences d’effroi… chez les patients hospitalisés en unité pour malades difficiles</t>
+          <t>GEOLOGÍA DEL SECTOR ORIENTAL DEL COMPLEJO PLUTÓNICO VOLCÁNICO CURACO (TRIÁSICO SUPERIOR), RÍO NEGRO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Les actes violents souffrent depuis longtemps d’une représentation déficitaire du sujet, envisagée comme l’émergence d’une carence représentative mettant indubitablement en difficulté le travail de la pensée. L’acte est alors perçu comme un langage hors expression symbolique. En cela, il génère violence et effroi. Notre propos, en appui sur la clinique rencontrée en unité pour malades difficiles ( umd ), sera ici d’envisager l’agir violent comme une tentative de contextualisation d’un vécu d’effroi. Nous pensons que la répétition des comportements violents serait ainsi des tentatives extrêmes pour « ex-corporer » et déposer à l’extérieur de la psyché, des expériences de destruction subjective impensables mais éprouvables à travers la charge d’effroi qu’elles véhiculent. L’ umd serait un lieu « spécifique » dédié à l’accueil de ces éléments archaïques en attente de transformation subjectivante. Le psychologue exerçant dans une telle institution ferait ainsi office de méta-conteneur du travail du négatif pour tenter de symboliser la destructivité.</t>
+          <t>The Curaco plutonic-volcanic Complex (Upper Triassic), is located at the NE of El Cuy town, Rio Negro, and its eastern sector is formed by monzogranites, minor granodiorite and mafic to felsic dikes, and a less amount of syenite, monzonite, and diorite. The monzogranites are biotitic with porphyric, equigranular, and granophyric-graphic textures, and exhibit sub-volcanic intrusion features. These three monzogranite facies show tectonic contacts through brittle-ductile shear zones, although a single transitional contact between porphyric and equigranular facies has been mapped. The granodiorite is represented by sharp contacts xenoliths within the monzogranite facies. Synmagmatic aplitic-pegmatitic dikes are consanguineous of the porphyric monzogranite. The QAP analysis suggests a monzogranitic evolution progressively enriched by quartz to the consanguineous dikes, and a granodioritic one that parallel evolutes. The Curaco Complex is cut by the Brusain ductile Shear Zone oriented NO-SE, composed by mylonitized granites at the centre, and medium grade mylonites and ultramylonites at both edges. Synorogenic granite dikes intrude the shear concordantly. One 192 m.y. Rb-Sr age indicates that ductile shear occurred at Lower Jurassic. Mafic dikes intrude the monzogranite, whereas rhyolitic dikes are post orogenic in respect to the ductile shear and contain mafic dikes xenoliths. Finally, E-O oriented dextral strike-slip faults cut the whole Complex. Petrologic and structural features of the Curaco Complex indicate a probable correlation with the Calvo Granite of the Dos Lomas plutonic-volcanic Complex.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W934421831</t>
+          <t>https://openalex.org/W4388588935</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0074-6142(10)97019-8</t>
+          <t>https://doi.org/10.1093/neuonc/noad179.1155</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Osborne (2010)</t>
+          <t>Ahn (2023)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Computation of Algebraic-Geometric Loop Integrals for the KdV Equation</t>
+          <t>MODL-04. ESTABLISHMENT OF TUMOR MICROENVIRONMENT-PRESERVING ORGANOID MODEL FROM PATIENTS WITH INTRACRANIAL MENINGIOMA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>This chapter presents the numerical methods for computing the Riemann spectrum by loop integrals methods; in particular, the results for the Korteweg-de Vries (KdV) equation are given. The chapter describes the computation of the generic loop integral Gij and how to remove singularities from the numerical computations due to particular configurations of the inverse scattering transform (IST) eigenvalues. Two kinds of singularities (or near singularities) exist in the loop integrals. The first occurs exactly at the band edges, and these are trivially accounted for. The second is a near singularity that occurs in the nearest eigenvalues immediately to the right and left of the band-edge integration limits. The near singularities occur either in the small-amplitude limit (for sine waves, the near-degenerate case occurs when two open-band eigenvalues are nearly equal) or in the large-amplitude soliton limit (when two adjacent gap eigenvalues are nearly equal). The chapter discusses the procedure for convenient transformations that includes first transformation, second transformation, and a final transformation. The chapter also describes the arithmetic-geometric mean (AGM) method for the loop integrals.</t>
+          <t>Abstract Although meningioma is the most common primary brain tumor, treatments depend only on the surgery and radiotherapy, and recurrent meningiomas have no standard therapeutic options due to a lack of clinically relevant research models. Current meningioma cell lines or organoids cannot reflect biological features of patients’ tumors since they undergo transformation along culture and consist of only tumor cells without microenvironment. Here, we firstly established patient-derived meningioma organoids (MNOs) preserving diverse cell types of tumor microenvironment, including endothelial cells and macrophage/microglia cells. Exclusion of the enzymatic dissociation-reaggregation steps endowed MNOs with original histology and tumor microenvironment. In addition, we used liquid media culture system instead of embedding into Matrigel, thus easy-to-handle, cost-efficient, and time-saving. MNOs maintained their functionality and morphology after long-term culture ( &amp;amp;gt; 9 wk) and repeated cryopreserving-recovery cycles. The similarity between MNOs and their corresponding parental tumors were confirmed by both immunohistochemistry and whole-exome sequencing. As a representative application, we utilized MNOs in drug screening, and mifepristone, an antagonist of progesterone receptor, showed prominent antitumor efficacy in respect to viability, invasiveness, and protein expression. Taken together, our MNO model overcame limitations of previous meningioma models and showed superiority in terms of resemblance with parental tumors. Thus, we expect that our model can facilitate translational research of identifying and selecting drugs for meningioma in the era of precision medicine.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1998058414</t>
+          <t>https://openalex.org/W2468735228</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/iros.2013.6696514</t>
+          <t>https://doi.org/10.1111/nph.14092</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Furgale et al. (2013)</t>
+          <t>Lallemand et al. (2016)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Unified temporal and spatial calibration for multi-sensor systems</t>
+          <t>The elusive predisposition to mycoheterotrophy in Ericaceae</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>In order to increase accuracy and robustness in state estimation for robotics, a growing number of applications rely on data from multiple complementary sensors. For the best performance in sensor fusion, these different sensors must be spatially and temporally registered with respect to each other. To this end, a number of approaches have been developed to estimate these system parameters in a two stage process, first estimating the time offset and subsequently solving for the spatial transformation between sensors. In this work, we present on a novel framework for jointly estimating the temporal offset between measurements of different sensors and their spatial displacements with respect to each other. The approach is enabled by continuous-time batch estimation and extends previous work by seamlessly incorporating time offsets within the rigorous theoretical framework of maximum likelihood estimation. Experimental results for a camera to inertial measurement unit (IMU) calibration prove the ability of this framework to accurately estimate time offsets up to a fraction of the smallest measurement period.</t>
+          <t xml:space="preserve">New PhytologistVolume 212, Issue 2 p. 314-319 LettersFree Access The elusive predisposition to mycoheterotrophy in Ericaceae Félix Lallemand, Félix Lallemand Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Master BioSciences, Département de Biologie, École Normale Supérieure de Lyon, Université de Lyon, UCB Lyon1, 46 Allée d'Italie, Lyon, FranceSearch for more papers by this authorMyriam Gaudeul, Myriam Gaudeul Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorJosie Lambourdière, Josie Lambourdière Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorYosuke Matsuda, Yosuke Matsuda Laboratory of Forest Mycology, Graduate School of Bioresources, Mie University, Kurimamachiya 1577, Tsu, Mie, 514-8507 JapanSearch for more papers by this authorYasushi Hashimoto, Yasushi Hashimoto Department of Life Science and Agriculture, Obihiro University of Agriculture and Veterinary Medicine, Inada-cho, Obihiro, Hokkaido, 080-8555 JapanSearch for more papers by this authorMarc-André Selosse, Corresponding Author Marc-André Selosse [email protected] Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Department of Plant Taxonomy and Nature Conservation, University of Gdansk, ul. Wita Stwosza 59, Gdańsk, 80-308 Poland(Author for correspondence: tel +33 607123418; email [email protected])Search for more papers by this author Félix Lallemand, Félix Lallemand Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Master BioSciences, Département de Biologie, École Normale Supérieure de Lyon, Université de Lyon, UCB Lyon1, 46 Allée d'Italie, Lyon, FranceSearch for more papers by this authorMyriam Gaudeul, Myriam Gaudeul Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorJosie Lambourdière, Josie Lambourdière Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorYosuke Matsuda, Yosuke Matsuda Laboratory of Forest Mycology, Graduate School of Bioresources, Mie University, Kurimamachiya 1577, Tsu, Mie, 514-8507 JapanSearch for more papers by this authorYasushi Hashimoto, Yasushi Hashimoto Department of Life Science and Agriculture, Obihiro University of Agriculture and Veterinary Medicine, Inada-cho, Obihiro, Hokkaido, 080-8555 JapanSearch for more papers by this authorMarc-André Selosse, Corresponding Author Marc-André Selosse [email protected] Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Department of Plant Taxonomy and Nature Conservation, University of Gdansk, ul. Wita Stwosza 59, Gdańsk, 80-308 Poland(Author for correspondence: tel +33 607123418; email [email protected])Search for more papers by this author First published: 12 July 2016 https://doi.org/10.1111/nph.14092Citations: 27AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL The rise and diversification of land plants was accompanied by mycorrhizal symbiosis, from their emergence to their adaptation to various biomes and ecological situations (Selosse et al., 2015). In most mycorrhizal associations, fungi provide soil minerals to the plant, in exchange for sugars derived from photosynthesis (Smith &amp; Read, 2008; van der Heijden et al., 2015). However, several plant species adapted to shaded forest conditions by secondarily reversing this exchange of carbohydrates: they became achlorophyllous thanks to carbon provided by the fungus. This so-called mycoheterotrophic nutrition is described in over 400 species and evolved at </t>
         </is>
       </c>
     </row>
@@ -804,6135 +809,6107 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1610938443</t>
+          <t>https://openalex.org/W4224247230</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/ange.202205125</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bainum &amp; James (1977)</t>
+          <t>Nakamoto et al. (2022)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The dynamics and optimal control of spinning spacecraft with movable telescoping appendages. Part C: Effect of flexibility during boom deployment</t>
+          <t>Biomacromolecule‐Fueled Transient Volume Phase Transition of a Hydrogel</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>The dynamics of a spinning symmetrical spacecraft system during the deployment (or retraction) of flexible boom-type appendages were investigated. The effect of flexibility during boom deployment is treated by modelling the deployable members as compound spherical pendula of varying length (according to a control law). The orientation of the flexible booms with respect to the hub, is described by a sequence of two Euler angles. The boom members contain a flexural stiffness which can be related to an assumed effective restoring linear spring constant, and structural damping which effects the entire system. Linearized equations of motion for this system, when the boom length is constant, involve periodic coefficients with the frequency of the hub spin. A bounded transformation is found which converts this system into a kinematically equivalent one involving only constant coefficients.</t>
+          <t>Abstract A metabolic cycle‐inspired hydrogel which exhibits the biomacromolecule‐fueled transient volume phase transition is reported. This hydrogel has the affinity and digestive capacity for a fuel α‐poly‐L‐lysine by incorporating acrylic acid and trypsin. The hydrogel captured fuel and transiently shrank owing to the construction of electrostatic cross‐linkages. This process was inherently connected with the digestion of these cross‐linkages and the release of oligo‐lysine as waste, which induced the reswelling of the hydrogel at equilibrium. The transient volume change of the hydrogel realized the fuel‐stimulated transient release of a payload. This study provides a strategy for engineering materials with biomacromolecule‐fueled dynamic functions under the out‐of‐equilibrium condition.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2995359922</t>
+          <t>https://openalex.org/W3100527577</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.1912.07648</t>
+          <t>https://doi.org/10.1063/1.4757865</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Liu et al. (2019)</t>
+          <t>Lim et al. (2012)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rethinking Medical Image Reconstruction via Shape Prior, Going Deeper and Faster: Deep Joint Indirect Registration and Reconstruction</t>
+          <t>Field-effect diode based on electron-induced Mott transition in NdNiO&lt;sub&gt;3&lt;/sub&gt;</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Indirect image registration is a promising technique to improve image reconstruction quality by providing a shape prior for the reconstruction task. In this paper, we propose a novel hybrid method that seeks to reconstruct high quality images from few measurements whilst requiring low computational cost. With this purpose, our framework intertwines indirect registration and reconstruction tasks is a single functional. It is based on two major novelties. Firstly, we introduce a model based on deep nets to solve the indirect registration problem, in which the inversion and registration mappings are recurrently connected through a fixed-point interaction based sparse optimisation. Secondly, we introduce specific inversion blocks, that use the explicit physical forward operator, to map the acquired measurements to the image reconstruction. We also introduce registration blocks based deep nets to predict the registration parameters and warp transformation accurately and efficiently. We demonstrate, through extensive numerical and visual experiments, that our framework outperforms significantly classic reconstruction schemes and other bi-task method; this in terms of both image quality and computational time. Finally, we show generalisation capabilities of our approach by demonstrating their performance on fast Magnetic Resonance Imaging (MRI), sparse view computed tomography (CT) and low dose CT with measurements much below the Nyquist limit.</t>
+          <t>We studied an electron-induced metal-insulator transition in a two-terminal device based on oxide NdNiO3. In our device, the NdNiO3 is electrostatically doped by the voltage applied between the terminals, resulting in an asymmetric conductivity with respect to the bias polarity. The asymmetry is temperature-dependent and is most significant near the metal-insulator transition. The I-V characteristics exhibit a strong dependence both on the thermal history and the history of the applied voltage bias. Our two-terminal device represents a simple and efficient route for studies of the effect of electron doping on the metal-insulator transition.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386070126</t>
+          <t>https://openalex.org/W1988028006</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/jintelligence11090170</t>
+          <t>https://doi.org/10.1021/ic901744m</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wang et al. (2023)</t>
+          <t>Ramaswamy et al. (2009)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AI for Psychometrics: Validating Machine Learning Models in Measuring Emotional Intelligence with Eye-Tracking Techniques</t>
+          <t>Synthesis, Structure, and Transformation Studies in a Family of Inorganic−Organic Hybrid Framework Structures Based on Indium</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AI, or artificial intelligence, is a technology of creating algorithms and computer systems that mimic human cognitive abilities to perform tasks. Many industries are undergoing revolutions due to the advances and applications of AI technology. The current study explored a burgeoning field-Psychometric AI, which integrates AI methodologies and psychological measurement to not only improve measurement accuracy, efficiency, and effectiveness but also help reduce human bias and increase objectivity in measurement. Specifically, by leveraging unobtrusive eye-tracking sensing techniques and performing 1470 runs with seven different machine-learning classifiers, the current study systematically examined the efficacy of various (ML) models in measuring different facets and measures of the emotional intelligence (EI) construct. Our results revealed an average accuracy ranging from 50-90%, largely depending on the percentile to dichotomize the EI scores. More importantly, our study found that AI algorithms were powerful enough to achieve high accuracy with as little as 5 or 2 s of eye-tracking data. The research also explored the effects of EI facets/measures on ML measurement accuracy and identified many eye-tracking features most predictive of EI scores. Both theoretical and practical implications are discussed.</t>
+          <t>Eight new open-framework inorganic-organic hybrid compounds based on indium have been synthesized employing hydrothermal methods. All of the compounds have InO(6), C(2)O(4), and HPO(3)/HPO(4)/SO(4) units connected to form structures of different dimensionality. Thus, the compounds have zero- (I), two- (II, III, IV, V, VII, and VIII), and three-dimensionally (VI) extended networks. The formation of the first zero-dimensional hybrid compound is noteworthy. In addition, concomitant polymorphic structures have been observed in the present study. The molecular compound, I, was found to be reactive, and the transformation studies in the presence of a base (pyridine) give rise to the polymorphic structures of II and III, while the addition of an acid (H(3)PO(3)) gives rise to a new indium phosphite with a pillared layer structure (T1). Preliminary density functional theory calculations suggest that the stabilities of the polymorphs are different, with one of the forms (II) being preferred over the other, which is consistent with the observed experimental behavior. The oxalate units perform more than one role in the present structures. Thus, the oxalate units connect two In centers to satisfy the coordination requirements as well as to achieve charge balance in compounds II, IV, and VI. The terminal oxalate units observed in compounds I, IV, and V suggest the possibility of intermediate structures. Both in-plane and out-of-plane connectivity of the oxalate units were observed in compound VI. The compounds have been characterized by powder X-ray diffraction, IR spectroscopy, thermogravimetric analysis, and (31)P NMR studies.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3186116205</t>
+          <t>https://openalex.org/W2027717763</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-88506-5.50238-2</t>
+          <t>https://doi.org/10.12968/jowc.1999.8.9.26205</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Baratsas et al. (2021)</t>
+          <t>Hofman (1999)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Circular Economy Systems Engineering: A case study on the Coffee Supply Chain</t>
+          <t>The past and future progress of wound care</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>The current linear “take-make-waste” extractive models that have powered the tremendous growth of the last centuries, lead to the depletion of natural resources and environmental degradation. Circular Economy (CE) aims to address these impacts by building supply chains that are restorative, regenerative, and environmentally benign, through re-utilizing products and materials, using renewable energy sources, and closing any open loops. Process Systems Engineering (PSE) could play a critical role in this transition, providing the necessary analytical tools for a quantitative evaluation, and exploring alternative pathways for social and economic advancement. As such, we present here a novel framework for the modeling and optimization of CE food supply chains, along with a representative case study for the supply chain of coffee. First, the alternative pathways for the production of the desired product and the utilization of wastes are identified. Then, a Resource-Task-Network (RTN) representation that captures all these pathways is constructed. Since this analysis must be conducted holistically, a mixed-integer linear programming model that captures the entire supply chain, its objectives, and constraints is formulated, and it is solved to multi-objective optimality.</t>
+          <t>The forthcoming European Wound Management Association (EWMA) meeting in Harrogate (November 9-11) promises debate on a broad range of topics. The progress of wound healing during the past century will be reviewed, with particular emphasis on the radical changes that have emerged during the past 30 years. In this time there has been an upsurge in the availability of wound-care products in developed countries, together with an increasing emphasis on the need for evidence-based medicine.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3111802645</t>
+          <t>https://openalex.org/W2000920566</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.32983/2222-4459-2020-10-384-391</t>
+          <t>https://doi.org/10.1080/13642537.2014.932298</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Проскурніна (2020)</t>
+          <t>Cayne (2014)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Transformation of Business Models of Retail Enterprises in the Conditions of Digitalization</t>
+          <t>Learning beyond the known</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>The article is aimed at generalizing the theoretical and practical principles of transformation of business models of retail enterprises in the digitalization of the economy. The determinants of innovative transformation of retail business models are characterized, which allow, based on internal and external conditions, to critically rethink and adjust the basic principle by which value is created. The need to search for ideas of the latest business models of retail trade, on the basis of which enterprises will be able to be successful and grow rapidly in the conditions of digitalization, is proved. A scientific generalization and systematization of business models of value creation in both off-line and on-line channels is carried out. According to the model of Graf and Schneider, a value chain is defined, which is based on the following primary activities: supply (range, focused on demand); presentation of the product (photo of the product, listing, recommendations, text); marketing and sales (off-line marketing, on-line marketing, sales channels); executing sale and purchase (issue of check, payment methods, risk analysis); logistics (delivery of goods, management of return of goods); customer service (dialogue with the client in social networks, hot-line, chat, on-line self-service). These determinants in the course of value creation can be materialized on the basis of innovative approaches, through multichannel sales, use of brands, pricing management, integration of customers into various processes and shopper marketing (buying marketing), which allows to focus on the decision-making process from the first opinion of the consumer about the purchase of goods and further on, during making the choice. It is noted that the rapid response to changes, the proactive search for new ideas and high readiness for digitalization are triggers of the successful transformation of the business model of retailers in the digital revolution. As the main competencies at the retail enterprises the author defines innovation, digital intelligence and personalization, which must be adequately used to win the competition.</t>
+          <t>In this paper issues related to adult learning, such as self-directed and experiential learning are shown to hold a trace of the unknown, which has implications for psychotherapy training and practice. The unknown is traced through the problematic of individualistic approaches that restrict the emergence of unknowns by limiting possibility of the other, hindering recognition of our own cultural position and seeking to avoid anxiety. Learning is also shown to have links with experiences of change and loss, having in common the generation of anxiety, seen as both the driving force to know and the need to close down unknowing. Subsequently, learning is viewed as involving the potential to repeat the already known as well as opening up the possibility for something new. Psychoanalysis and continental philosophy are shown, in different ways, to help our understanding of the reasons for the anxiety occurring in times of transition, also showing the way fragmentary experiences act as a reminder of death. It is proposed that the relational aspects of learning are an important factor in learning to tolerate the anxiety and adult learning is thus seen as requiring possibility of the other, in relationship, in order to permit the unknown.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2027717763</t>
+          <t>https://openalex.org/W2965591601</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.12968/jowc.1999.8.9.26205</t>
+          <t>https://doi.org/10.1016/j.amjmed.2019.03.007</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hofman (1999)</t>
+          <t>Robbins et al. (2019)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The past and future progress of wound care</t>
+          <t>Academic Hospitalists and Health Care Costs</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>The forthcoming European Wound Management Association (EWMA) meeting in Harrogate (November 9-11) promises debate on a broad range of topics. The progress of wound healing during the past century will be reviewed, with particular emphasis on the radical changes that have emerged during the past 30 years. In this time there has been an upsurge in the availability of wound-care products in developed countries, together with an increasing emphasis on the need for evidence-based medicine.</t>
+          <t>We read with great interest the Commentary by Dalen et al1.Dalen J.E. Ryan K.J. Waterbrook A.L. Alpert J.S. Hospitalists, medical education, and U.S. health care costs.Am J Med. 2018; 131: 1267-1269Abstract Full Text Full Text PDF Scopus (1) Google Scholar in the November 2018 issue of The American Journal of Medicine examining the relationships among hospitalists, medical education, and health care costs. The authors correctly point out the seismic shifts that have occurred over the past 20 years in the care of inpatients and in the education of medical residents. Hospitalists have now become the dominant attending physicians for inpatients and, by default, the primary instructors for an entire generation of residents in internal medicine, family medicine, neurology, and other disciplines. Hospitalists appear to have improved efficiency, safety, effectiveness, and patient satisfaction in numerous reports in the literature. With this transformation, hospitalists have taken on an important determinant role in health care costs. Our group studied the quality and cost of care provided by academic hospitalists supervising a resident university teaching service (UTS) in the same hospital in which nonteaching hospitalists care for similar patients.2.Perez J.A. Awar M. Nezamabadi A. et al.Comparison of direct patient care costs and quality outcomes of the teaching and nonteaching hospitalist services at a large academic medical center.Acad Med. 2018; 93: 491-497Crossref Scopus (10) Google Scholar Houston Methodist Hospital is a large academic medical center with an outstanding record of safety and low mortality, despite having patients with a high case mix index (CMI). Beginning in 2013, our residents' curriculum emphasized the Choosing Wisely guidelines of the American Board of Internal Medicine and the High Value Care Curriculum of the Alliance for Academic Internal Medicine. In a retrospective study over a 2-year period, we used propensity score matching and the CMI to control for patient (n = 8457) characteristics. We found no statistical difference in mortality or 30-day all-cause readmission rates between the 2 cohorts. However, the patients under the care of UTS had significantly shorter lengths of stay, lower consultant utilization, and lower direct costs per case ($5028 UTS vs $5502 nonteaching service; P = .006). If applied to the nonteaching patient population studied, this would have amounted to more than $1.4 million in savings to the hospital. Dalen et al1.Dalen J.E. Ryan K.J. Waterbrook A.L. Alpert J.S. Hospitalists, medical education, and U.S. health care costs.Am J Med. 2018; 131: 1267-1269Abstract Full Text Full Text PDF Scopus (1) Google Scholar summarize the published data indicating that medical students and residents had better educational experiences with hospitalist-led teams than with non-hospitalists. At the end of the commentary, they raise the question about whether teams led by academic hospitalists might help bend the curve to US health care costs. Our study directly addressed this and found that costs were lower on such teams. Single-site studies such as ours never provide definitive answers; however, we hope that our preliminary findings will lead others to investigate this important issue. Hospitalists, when aligned with the quality mission of the hospital and the educational goals of the training programs, can drive down health care costs for patients and payers.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3001590248</t>
+          <t>https://openalex.org/W3032980377</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5250/legacy.36.2.0181</t>
+          <t>https://doi.org/10.1111/nuf.12477</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Strand (2019)</t>
+          <t>Goodman et al. (2020)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Women's Petitions and &amp;lt;em&amp;gt;The Linwoods&amp;lt;/em&amp;gt;</t>
+          <t>Rigor in PhD dissertation research</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Women's Petitions and The Linwoods Amy Dunham Strand I have again come a petitioner to you," says republican heroine Isabella Linwood to the British military leader Sir Henry Clinton in Catharine Maria Sedgwick's historical romance The Linwoods (1835), highlighting Isabella's repeated role as a petitioner in the novel (275). In central scenes throughout The Linwoods, Isabella petitions Sir Henry, appealing with "due humility" to reunite the Linwood family (240), if not to free her patriot brother Herbert, imprisoned in New York while impetuously seeking reconciliation with their Loyalist father. Isabella's petitions simultaneously trace the constitution of her political convictions from tory to rebel. In turn, Sedgwick petitions her readers throughout her "humble story," echoing Isabella's goals of republican union and transformation for her own era (315). In a series of gendered political performances in The Linwoods, Sedgwick thus invokes a central genre informing mid-nineteenth-century American women's writing: the petition, or political prayer, often on behalf of others—and a foundational genre in Anglo-American jurisprudence, relying on conventions of humility and republicanism to express requests to government officials. In translating the petition's rhetorical conventions of humility and republicanism into The Linwoods with an eye to performances of gender, Sedgwick's fiction foregrounds the constitutive rhetorical production of both citizenship and womanhood in nineteenth-century America. In recent years, historical studies have underlined the importance of tropes of humility and republicanism in petitions by American women who "were clearly aware of gender categories in antebellum America that mapped gender onto the public/private distinction" such that "to petition Congress was, for many women of the early Republic, a calculated but significant political risk" (Carpenter and Moore 483). In the novel, Sedgwick is aware of the calculated risk of women's petitioning; consequently, as in antebellum women's petitioning, she invokes [End Page 181] the humble rhetoric of petitioning with strategic performances of gender to persuade her auditors while still embracing republican ideals, registering protest with the goal of union. In doing so, Sedgwick uses Isabella's petitions to imagine women's political agency and to cast her as a burgeoning model of female citizenship who could still, without losing womanly virtues, participate in the body politic. In petitions to readers, the narrator of The Linwoods does the same, performing gender conventions alongside petitioning's conventions, often to mitigate its potential political risk. Sedgwick is among several nineteenth-century women writers who discursively explore women's political agency through novel incorporations of such in-text, thematic petitions and extratextual, authorial petitions, such that the fictions themselves can be read as petitions to their readers that theorize women's political agency. Not only in The Linwoods, female heroines and their authors strategically recast the rhetoric of the petition—beseeching, appealing, or praying, in speech, writing, or action—to intervene in issues of justice and freedom and to become political actors in gender-inflected ways, as rhetorical situations demand. For instance, at the heart of Harriet Beecher Stowe's Uncle Tom's Cabin (1852), Mrs. Bird petitions for escaped, potentially imprisoned slaves, challenging husband Senator Bird on the Fugitive Slave Law with a political prayer, as she "ruled [in her domestic sphere] more by entreaty and persuasion than by command or argument" (68; emphasis added). Mrs. Bird's spoken petition marks Senator Bird's political transformation, preparing him to receive the live, runaway Eliza at their door, with her own, embodied appeal in "the real presence of distress,—the imploring human eye, the frail, trembling human hand, the despairing appeal of helpless agony" (77; emphasis added). In E. D. E. N. Southworth's The Hidden Hand (1859), the popular heroine Capitola circulates a written petition for Black Donald, also unjustly imprisoned, and, when her conciliatory petition fails, Capitola resorts to action, a radical rescue of this prisoner. While these earlier fictions integrate women's petitioning rhetoric, by the time Rebecca Harding Davis published Life in the Iron-Mills (1861), women's petitioning had become so recognizable that it evolved into a figure sculpted of korl—a fully embodied visual representation of Davis's authorial petitions, direct sentimental appeals to her readers on the soul-starvation...</t>
+          <t>Recent reports from the Institute of Medicine document the increase in the number of nurses enrolled in doctoral education preparing for nurse scientist and leadership roles in the transformation of health care. This means that many doctoral students will acquire a knowledge of the research process, learn how to review and critique relevant literature, select appropriate research designs, and with the guidance of their dissertation chair and committee, design and conduct high quality, scholarly research studies that culminate in successfully defended doctoral dissertations. The health care profession expects that these dissertations, which include quantitative, qualitative, or mixed methods, will contribute to the knowledge base of the nursing profession and advance improvement in clinical and public health outcomes in the populations served by the nursing profession. This article reviews the concept of rigor in research, the rationale for rigor, various approaches that increase rigor, and the associated concepts that strengthen a research study.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380877901</t>
+          <t>https://openalex.org/W1989039149</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.mtchem.2023.101600</t>
+          <t>https://doi.org/10.1016/j.virusres.2013.02.006</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rani et al. (2023)</t>
+          <t>Goel et al. (2013)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bifunctional metal-organic frameworks as selective turn-on fluorescence sensors for tryptophan and heterogeneous catalysts for Knoevenagel condensation reaction</t>
+          <t>An infectious HHV-6B isolate from a healthy adult with chromosomally integrated virus and a reporter based relative viral titer assay</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Two new doubly interpenetrated metal-organic frameworks (MOFs) with formulas [{Zn(L1)(5-nipa)}·DMA]α (1a) and [{Cd(L2)(5-nipa)(H2O)}]α (1b) have been discussed herein, where [L1 = N,N'-(oxybis(4,1-phenylene))diisonicotinamide; L2 = N,N'-(methylenebis(4,1-phenylene)) diisonicotinamide; 5-H2nipa = 5-nitroisophthalic acid; DMA = dimethylacetamide]. A single crystal X-ray analysis reveals that 1a exhibits a 2D-interpenetrated interwoven sheet and finally adapts a 3D framework structure with the help of π···π stacking interactions. Similarly, 1b displays a two-fold interpenetrated 2D sheet-like architecture and is finally adjusted to a 3D structure. Both 1a and 1b feature channels with a cross-section of 25.06 × 25.06 Å2 and 24.01 × 24.01 Å2, respectively, running along the b-axis. Topological analysis of 1a and 1b by ToposPro suggests a (4)-connected uninodal sql topology with point symbol {44.62}. Further, 1a and 1b were exploited as molecular sensors for several amino acids exposing different shapes and sizes and exhibiting selective turn-on fluorescence sensing towards biologically important D/L-tryptophan with the notable limit of detection values of 0.084/0.110 μM and 0.143/0.141 μM, respectively, in aqueous medium. In addition, 1a and 1b were also exploited as heterogeneous catalysts towards several assorted aldehydes having different electronic environments, including sterically demanding aldehydes, under mild reaction conditions and obtained up to 97% of the respective Knoevenagel condensation product. Importantly, sterically hindered aldehydes also worked well with the MOF catalysts 1a and 1b, but showed comparatively low conversion. It is important to mention that in both cases, these MOF materials are recyclable for up to five consecutive runs without displaying any substantial loss in their sensing or catalytic activities. Moreover, the present investigation cultivates a new vision to design novel luminescent MOFs that can be used as multifunctional materials for the turn-on sensing of small organic molecules as well as instigated as heterogeneous catalysts in diverse organic transformation reactions.</t>
+          <t>Human herpesvirus 6B (HHV-6B) primary infections occur in early childhood and establish a life-long latency in the most healthy adults. HHV-6B was detectable in the peripheral blood mononuclear cells (PBMC) and granulocytes by serial genomic DNA dilution PCR till 10 pg of template DNA, in a healthy adult. Epstein Barr virus (EBV) mediated transformation of the PBMC resulted in establishment of a B-cell line. Southern hybridization with the PBMC as well as the cell line DNA showed distinct signals for high copy viral genomes and Gardella gel analysis indicated chromosomal integration of the HHV-6B. Integration site analysis in the PBMC and the cell line indicated an atypical viral integration in non-telomeric region of chromosome 12. Cell free culture medium of the cell line could infect different mononuclear cell lines, naïve or mitogen stimulated PBMC and was found to impart productive infection in a recipient T cell line. An HIV-1 LTR driven luciferase based reporter cell line was made and a single step assay was developed for estimating HHV-6B relative concentration in the culture supernatants. This study thus reports a new infectious HHV-6B isolate with uncommon integration site, spontaneous production from a cell line and also development of a simple relative HHV-6B titer assay.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3129739317</t>
+          <t>https://openalex.org/W1990785902</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jcis.2021.02.057</t>
+          <t>https://doi.org/10.1001/jama.1994.03510310090052</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Peychev &amp; Slavchov (2021)</t>
+          <t>Welch (1994)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Adsorption model and phase transitions of diblock perfluoroalkylated surfactants at the water∣alkane interface</t>
+          <t>William Henry Welch and the Heroic Age of American Medicine</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>We present a theory of the adsorption behaviour and phase transitions in monolayers of perfluoroalkylated alcohols, n-CnF2n+1CmH2mOH, at the water∣oil interface, and validate it for a range of temperatures and surfactant structures. The reason for the observed cohesive behaviour is identified as dispersion attraction between the fluorocarbon blocks. The London constant is determined from the increment of the lateral attraction parameter with the size of the fluorocarbon chain. The monolayers exhibit phase transition from liquid expanded state to van der Waals crystal. However, they are supercritical with respect to the gas–liquid transition. For the description of the liquid phase, we use the sticky disc model – fluid monolayer made of hard discs interacting with a short-ranged sticky potential. For the crystalline phase, a two-dimensional cell model is developed using the same interaction potential. This new model coincides with the empirical equation of state of Jura and Harkins, and ascribes physical meaning to its parameters. We extend the theory of Ivanov et al. for the adsorption constant Ka to diblock molecules; it predicts accurately the dependence of Ka and the adsorption heat on the surfactant structure. An invariant phase diagram of the monolayers is constructed.</t>
+          <t>Johns Hopkins, a rich Baltimore merchant, left the largest philanthropic gift in the history of the United States when he died in 1873. Nearly $7 million were divided equally between the prospective Johns Hopkins University and The Johns Hopkins Hospital; the Medical School was linked to both of them. He thereby initiated a revolution in American medical education and medical care. A few individuals were responsible for these rapid developments. President Gilman, the first president of the Hopkins, and William Henry Welch, a young pathologist and dean of the medical school, were scientists. Sir William Osler was a great humanist and clinician. William S. Halsted developed meticulous surgical techniques in the laboratory as well as the operating theater. Howard A. Kelly was a dextrous, capable surgeon. The last major architect was Abraham Flexner, who, in 1910, delivered his kiss of death to half of the medical schools in the country</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1986734478</t>
+          <t>https://openalex.org/W3141252252</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02500160108537921</t>
+          <t>https://doi.org/10.1109/spline.2007.23</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Henrich (2001)</t>
+          <t>Voelter &amp; Groher (2007)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The griot storyteller and modern media</t>
+          <t>Product Line Implementation using Aspect-Oriented and Model-Driven Software Development</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ABSTRACT The griot, or African storyteller, was and is today, the main conveyer of the collective wisdom of the tribal peoples of Africa. Stories are presented in a stylistic way and are associated with great enjoyment. Even today among the rural Wolof of Senegal people gather in village squares to hang on each word the griot says. In fact, the Wolof are Muslims, about two million of whom live in Senegal. Large percentages are non-literate and the griot reinforces cultural norms of their adopted Islamic religion. There are many intruding influences on the cultural status quo of human beings. Culture is not static, rather transitional. Historically, this cultural status quo was influenced by increased interaction between villages, development workers desiring to drill wells to bring clean water to the villagers and by medical workers with improved health care and reduced infant mortality. In many ways, these so-called ‘backward’ cultures were wrenched into the 20th century. Culture was ignored. Infrastructure improvements were abandoned because they were ‘extra cultural’ and not desired by the villagers. Innovations which took the west hundreds of years to adopt are pushed onto less developed peoples and if they do not adopt these innovations, they are called laggards by the diffusion researchers. In this article, I will look at the village griot, his influence on the peoples of West Africa and India through two case studies. The first case deals with the Griot as opinion leader in facilitating change in Nigeria. The second case is based on a 1984 project I undertook in southern India using a traditional folk singer, or Villaputu artist to stimulate change. I will address the parallels between the Griot and modern media. My conclusions will be that modern TV &amp; cinema does not occupy the same place as the griot in our society. TV &amp; cinema do wield great influence and do communicate culture. Although they are more pervasive in our lives, modern media can provide mixed messages to the viewers.</t>
+          <t>Software product line engineering aims to reduce development time, effort, cost, and complexity by taking advantage of the commonality within a portfolio of similar products. The effectiveness of a software product line approach directly depends on how well feature variability within the portfolio is implemented and managed throughout the development lifecycle, from early analysis through maintenance and evolution. This paper presents an approach that facilitates variability implementation, management and tracing by integrating model-driven and aspect-oriented software development. Features are separated in models and composed by aspect-oriented composition techniques on model level. Model transformations support the transition from problem to solution domain. Aspect-oriented techniques enable the explicit expression and modularization of variability on model, code, and template level The presented concepts are illustrated with a case study of a home automation system.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1541265469</t>
+          <t>https://openalex.org/W2000313494</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-7660.2012.01743.x</t>
+          <t>https://doi.org/10.1016/0379-6779(86)90055-x</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Razavi (2012)</t>
+          <t>Yamaji (1986)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;i&gt;World Development Report 2012: Gender Equality and Development&lt;/i&gt;— A Commentary</t>
+          <t>Theory of field-induced spin-density-wave in Bechgaard salts</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Development and ChangeVolume 43, Issue 1 p. 423-437 Assessment World Development Report 2012: Gender Equality and Development— A Commentary Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author Shahra Razavi, Shahra Razavi is Senior Researcher at the United Nations Research Institute for Social Development (UNRISD), Palais des Nations, 1211 Geneva 10, Switzerland; e-mail [email protected]. She specializes in the gender dimensions of social development, with a particular focus on livelihoods and social policy. Her recent publications include The Gendered Impacts of Liberalization: Towards ‘Embedded Liberalism’? (Routledge, 2009), Workers in the Care Economy, edited with Silke Staab (International Labour Review, 2010), and Seen, Heard and Counted: Rethinking Care in a Development Context (edited special issue of Development and Change, 2011).Search for more papers by this author First published: 21 February 2012 https://doi.org/10.1111/j.1467-7660.2012.01743.xCitations: 60Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Abramo, Lais and Maria Elena Valenzuela (2005) ‘Women's Labour Force Participation Rates in Latin America’, International Labour Review 144(4): 370–99. Agarwal, Bina (1994) A Field of One's Own: Gender and Land Rights in South Asia. Cambridge : Cambridge University Press. Arza, Camila (forthcoming) “ Pension Reform and Gender Equality in Latin America.” Programme Paper. Geneva : UNRISD. Bangura, Yusuf (2000) ‘ Public Sector Restructuring: The Institutional and Social Effects of Fiscal, Managerial and Capacity-Building Reforms’. Occasional Paper No. 3. Geneva : UNRISD. Beneria, Lourdes (2001) ‘Shifting the Risk: New Employment Patterns, Informalization, and Women's Work’, International Journal of Politics, Culture and Society 15(1): 27–53. Berik, Günseli and Yana van der Meulen Rodgers (2009) ‘ Engendering Development Strategies and Macroeconomic Policies? What's Sound and Sensible?’, in Günseli Berik, Yana van der Meulen Rodgers and Ann Zammit (eds) Social Justice and Gender Equality: Rethinking Development Strategies and Macroeconomic Policies, pp. 1–43. London and New York : Routledge/UNRISD. Borchorst, Anette (1994) ‘The Scandinavian Welfare States: Patriarchal, Gender-Neutral or Woman-Friendly?’, International Journal of Contemporary Sociology 31: 1–23. Budlender, Debbie (2008) ‘ Feasibility and Appropriateness of Attaching Behavioural Conditions to a Social Support Grant for Children Aged 15–17 Years’. Report prepared for Department of Social Development (Government of South Africa), Final Version. Cerrutti, Marcela (2000) ‘Economic Reform, Structural Adjustment and Female Labor Force Participation in Buenos Aires, Argentina’, World Development 28(5): 879–91. Chen, Martha, Joanne Vanek, Francie Lund, James Heintz, Renana Jhabvala and Chris Bonner (2005) Progress of the World's Women 2005: Women, Work, and Poverty. New York : UNIFEM. DFID (2011) ‘ Cash Transfers Evidence Paper. Policy Division. London : Department for International Development. Dolan, Catherine and Kristina Sorby (2003) ‘ Gender and Employment in High-Value Agriculture Industries’. Agriculture and Rural Development Working Paper No. 7. Washington , DC : The World Bank. Dollar, David and Roberta Gatti (1999) ‘ Gender Inequality, Income, and Growth: Are Good Times Good for Women?. World Bank Policy Research Report Working Paper Series No. 1. Washington , DC : The World Bank. Elson, Diane (1995) ‘ Male Bias in Macroeconomics: The Case of Structural Adjustment’, in Diane Elson (ed.) Male Bias in the Development Process, pp. 164–90. Manchester : Manchester University Press. Elson, Diane (1999) ‘Labor Markets as Gendered Institutions: Equality, Efficiency and Empowerment Issues’, World Development 27(3): 611–27. Elson, Diane (2009) ‘Gender Equality and Economic Growth in the World Bank World Development Report 20</t>
+          <t>A variational formulation taking account of the magnetic field is presented for the spin-density-wave (SDW) ground state in an anisotropic two-dimensional Hubbaard model. The energy of the SDW state calculated in the fully quantum method is shown to be lowered in the field due to quantization of closed orbits formed in the k-space around the SDW gap. Minimization of this energy with respect to the SDW parameters leads to the finding that, when the weaker transfer energy tb is greater than a critical value tb, cr, many local minima exist corresponding to SDW subphases with different parameters. The phase diagram of the subphases with the lowest energy is constructed in the plane of the magnetic field versustb. Anomalies in the thermodynamic and transport properties in the field-induced SDW state in Bechgaard salts are shown to be fairly well understable in terms of the successive first-order transitions among the SDW subphases in the changing field.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1989039149</t>
+          <t>https://openalex.org/W4388142124</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.virusres.2013.02.006</t>
+          <t>https://doi.org/10.59117/20.500.11822/43850</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Goel et al. (2013)</t>
+          <t>NA (2023)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>An infectious HHV-6B isolate from a healthy adult with chromosomally integrated virus and a reporter based relative viral titer assay</t>
+          <t>How Egypt is Switching to a Circular Economy: Building climate resilience and resource efficiency</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Human herpesvirus 6B (HHV-6B) primary infections occur in early childhood and establish a life-long latency in the most healthy adults. HHV-6B was detectable in the peripheral blood mononuclear cells (PBMC) and granulocytes by serial genomic DNA dilution PCR till 10 pg of template DNA, in a healthy adult. Epstein Barr virus (EBV) mediated transformation of the PBMC resulted in establishment of a B-cell line. Southern hybridization with the PBMC as well as the cell line DNA showed distinct signals for high copy viral genomes and Gardella gel analysis indicated chromosomal integration of the HHV-6B. Integration site analysis in the PBMC and the cell line indicated an atypical viral integration in non-telomeric region of chromosome 12. Cell free culture medium of the cell line could infect different mononuclear cell lines, naïve or mitogen stimulated PBMC and was found to impart productive infection in a recipient T cell line. An HIV-1 LTR driven luciferase based reporter cell line was made and a single step assay was developed for estimating HHV-6B relative concentration in the culture supernatants. This study thus reports a new infectious HHV-6B isolate with uncommon integration site, spontaneous production from a cell line and also development of a simple relative HHV-6B titer assay.</t>
+          <t>Egypt’s NAP was based upon its 2013 Green Economy Scoping Study, which assessed the potential for a transition to a green and more sustainable economy. The NAP is considered a significant milestone on the road to integrating sustainability into key economic sectors. The plan aims to achieve SCP by promoting the efficient allocation and use of water and energy, sustainable agriculture and waste management, with a focus on waste reduction, recover, re-use and recycling.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2090201870</t>
+          <t>https://openalex.org/W2033737413</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0005-2736(99)00034-6</t>
+          <t>https://doi.org/10.1097/00000539-200509000-00079</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ortíz &amp; Aranda (1999)</t>
+          <t>Marsh (2005)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>The influence of vitamin K1 on the structure and phase behaviour of model membrane systems</t>
+          <t>Australia’s First Anaesthetic Department: 75 Years at the RRPA.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Vitamin K1 is a component of the Photosystem I of plants which constitutes the major dietary form of vitamin K. The major function of this vitamin is to be cofactor of the microsomal gamma-glutamylcarboxylase. Recently, novel roles for this vitamin in the membrane have been postulated. To get insight into the influence of vitamin K1 on the phospholipid component of the membrane, we have studied the interaction between vitamin K1 and model membranes composed of dimyristoylphosphatidylcholine (DMPC) and dielaidoylphosphatidylethanolamine (DEPE). We utilized high-sensitivity differential scanning calorimetry and small-angle X-ray diffraction techniques. Vitamin K1 affected the thermotropic properties of the phospholipids, broadened and shifted the transitions to lower temperatures, and produced the appearance of several peaks in the thermograms. The presence of the vitamin gave rise to the formation of vitamin-rich domains which were immiscible with the bulk phospholipid in both the gel and the liquid-crystalline phases. Vitamin K1 was unable to alter the lamellar organization of DMPC, but we found that it produced an increase in the interlamellar repeat spacing of DMPC at 10 degrees C. Interestingly, vitamin K1 promoted the formation of inverted hexagonal HII structures in the DEPE system. We discuss the possible implications that these vitamin K1-phospholipid interactions might have with respect to the biological function of the vitamin.</t>
+          <t>Australia’s First Anaesthetic Department: 75 Years at the RRPA. Baker B. Camperdown, NSW, Australia: Jobson Foundation, Inc., ISBN 10-646-44555-3. 172 pp, $20.00. This short history of anesthesia in Australia at the Royal Prince Alfred (RPA) Hospital, an institution established in the colony of New South Wales in 1882 as the initial teaching hospital for the School of Medicine of the University of Sydney, focuses on 75 years of progress from 1930 to 2005. Professor Barry Baker starts with the opening of the hospital in 1882 to 1930 with the inception of anesthesia as a separate department within that hospital, directed by the Lecturer in Anaesthetics of the University of Sydney, and proceeds to the present day, with an academic anesthesia department of significant merit within the University’s Medical School in 2005. The establishment of this current academic department, with philanthropic support for basic research and education in anesthesia and related fields, was initiated by monies from Lord Muffed in 1962, an event outlined in great detail by Baker. This later 75-year period’s history offers interesting and different insights into the intertwined events underlying the social and clinical transformation of medicine during the 20th century. Professor Baker, as noted by Gary Phillips in his introduction to the book, is to be congratulated for having produced a “concise and very readable history,” “building the story around key ‘personalities’ in the department . . . from 1882 to the present day.” The book is arranged in two parts with supporting appendices. The first part sequentially outlines eight eras coinciding with individual Directors of Anaesthesia at the RPA Hospital. In the beginning, anesthesia was the domain of the surgeon. Dr. Todd was the first anesthetist appointed to the staff of RPA in 1889. Dr. Robert Scot-Skiving, an Edinburgh-trained physician, had landed in the colony in 1883 and was almost immediately appointed superintendent to RPA Hospital. He and Sir Alexander McCormick were surgical pioneers in the colony whose attitudes reckoned large in the early days of Australian anesthesia, probably somewhat impeding rapid development of anesthesia independence as a separate academic and respected specialty. Senior surgical residents in training gave anesthesia in the hospital. McCormick’s views may have modified later, because in giving the presidential address to the section of surgery in the Australian Medical Association (AMA) in 1899, he said, “The most distinguishing surgical features of the ‘past’ century itself have undoubtedly been the introduction of anaesthetics and the use of antiseptics. The only other ‘historical surgical event’. . . of equal moment was the introduction of the ligature by Paré.” Baker takes us from this beginning with Dr. Todd in 1889 through to the inception of an independent Department of Anaesthetics under Lidwill in 1930, to Hotter, to Jobson, and then to the first real academic chair, the first Duffield Professor, Douglas Joseph, who was appointed in 1962. The philanthropic support from Lord Duffield for the establishment of this chair within the Medical School was, tellingly, sought for and obtained largely because of the efforts of Professor John Loewenthal, the then Busch Professor of Surgery. Baker outlines this story in exact detail. Baker’s own tenure, to date, is then the final chapter in this first part of the book. Part 2 of the book consists of four chapters outlining developments of four specialty areas: liver transplantation, critical care medicine, neuroanesthesia, and cardiothoracic anesthesia. These stories are told by four staff participants in the development of these specialties within anaesthesia at the RPA Hospital. Admittedly, as noted in the apt words of Rita Chiron of Columbia University, “writing one’s life is a risky venture of memory, invention and desire.” Baker has cleverly avoided excessive editorial comment, and concisely presented the well-documented facts of the known history of anesthesia at RPA Hospital. The current department is vibrant, busy, and at a point at which, as Professor Baker’s tenure ends, an opportunity exists for further strengthening of the academic base for anesthesiology, pain management, and reanimation at Sydney University and within the RPA Hospital. This book is Baker’s final gift to the department as the next Director’s era is about to begin. However, this reviewer can thoroughly recommend the addition of this slim volume to any anesthesiology history buff’s library. The volume will also strongly appeal to anesthesiologists who wish to reflect on the current state of our branch of the medical profession, wherever they may reside and practice. The volume makes for an entertaining and illuminating fireside evening’s read. Michael Marsh, MD Professor and Chair; Wayne State Medical School; Detroit, MI</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4247403066</t>
+          <t>https://openalex.org/W4210289145</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/apm.12041</t>
+          <t>https://doi.org/10.4095/302665</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Kim et al. (2012)</t>
+          <t>Lipsett et al. (1986)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mutational analysis of &lt;i&gt;SATB1&lt;/i&gt; gene in hepatocellular carcinomas</t>
+          <t>Time series analysis of gamma densitometry signals</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>To the Editor To the Editor The Special AT-rich Sequence-Binding protein 1 (SATB1) is a cell-type-specific organizer of the genome 1. SATB1 regulates gene expression in thymocytes and pre B-cells by binding to matrix attachment region (MAR) of DNA 2. MAR is a specific DNA sequence that binds to nuclear matrix in vitro and these sequences have been posited to form the base of chromosomal loops 3. It plays an important role in the organization of higher-order chromatin structure 4. SATB1 as a MAR-binding protein regulates the genes by folding chromatin into loop domain 5. Recent studies have shown that SATB1 promotes tumor growth and metastasis through chromatin gene recombination in breast cancer 6. Furthermore, SATB1 is not only overexpressed in a large number of human cancers, but is also an excellent prognostic marker in some cancers 7-10. All of these findings strongly imply that SATB1 is a possible candidate oncogene that it may contribute to carcinogenesis. Hepatocellular carcinoma (HCC) is one of the most common cancers in the world with the highest incidence in Southeast Asia and Africa. In Korea, it accounts for an estimated 12.2% of all malignancies, with 16.4% in the male population and 6.5% in the female population 11. The pathogenesis of HCC has been studied extensively, and molecular changes during malignant transformation have been identified. Hepatocarcinogenesis is considered as a multistep process originating from hepatic stem cells or mature hepatocytes 12. Genetic and epigenetic alterations leads to an activation of oncogenes and inhibition of tumor suppressor genes accompanied by an escalation of genetic instability and the disruption of signaling pathways related to the main promoters of hepatocarcinogenesis, namely cell proliferation and angiogenesis 13. Until now, mutation of the SATB1 gene has not been described in HCC. To investigate whether or not genetic alterations of SATB1 are involved in hepatocellular carcinogenesis, we searched for somatic mutation of the SATB1 gene in HCC. Hepatocellular carcinoma samples and their corresponding non-cancerous liver tissues of 38 patients were evaluated. This study was approved by the Institutional Review Boards at the Ulsan University Hospital. Frozen tissue samples were ground to a very fine powder in liquid nitrogen. Genomic DNA was prepared using a procedure based on a protocol described previously 14. Genomic DNA samples from cancer cells and corresponding non-cancerous liver tissues were amplified with 15 sets of primers covering the entire coding region (10 exons) of the SATB1 gene (Table 1). Numbering of DNA of the SATB1 was done in respect to the ATG start codon according to the genomic sequence of Genbank accession no. NM_002971. All PCR products in exons 2–11 of the SATB1 gene were screened by single strand conformation polymorphism (SSCP) analysis (Mutation Detection Enhancement; FMC BioProducts, Rockland, ME, USA) with 10% glycerol and sequencing analysis. We repeated the experiments three times to ensure the specificity of the results, and found that the data were consistent. In this study, we found one (2.6%) mutation in 38 HCC cases. The mutation was missense mutation: a AGT to AAT transition at codon 354 (S354N). S354N was found in exon 7A located within the MAR domain of the SATB1 gene. It has been reported that SATB1 recruits histone deacetylase complex to the MAR site inside the interleukin-2 receptor α gene 5. In addition, SATB1 regulates the expression of fetal globin genes by binding to MAR in the β-globin cluster 15. Thus, it is likely that the SATB1 mutation identified in cancer cells may contribute to the development of HCC by defect of protein-protein interaction. There was no mutation in corresponding normal DNAs of these tissues, indicating that the mutation detected in the cancer cells had arisen somatically. SSCP gels of these cases with mutation showed aberrantly migrating mutant bands with remaining wild-type bands, suggesting hemizygous mutations (Fig. 1). Thus, these results suggest that the mutation of the SATB1 gene maybe a rare event in the development of HCC in Korean population. Recent study revealed that SATB1 plays an important role in the development and progression of liver cancer through increase of cell cycle progression and defect in apoptosis 16. As SATB1 promotes tumor growth and metastasis in liver cancer, we presumed that mutation of SATB1 gene might affect not only cell cycle progression but also apoptosis pathway in liver cancer. Functional analysis of the mutation identified in this study will broaden our understanding of the pathogenesis of HCCs. This work was supported by Priority Research Center Program through the National Research Foundation of Korea (NRF) funded by the Ministry of Education, Science and Technology (2012-0717).</t>
+          <t>Single, narrow-beam densitometry has been developed as a method for determining the flow regime and void fraction for industrial liquidgas experiments at high pressures and temperatures in a vertical, thick-walled, steel vessel. To develop suitable techniques, the experimental conditions were simulated using a transparent air/water column. In the transition region from bubbly to slug flow, a time sequence of four regimes, viz. annular flow, partially developed annular flow, coalescing bubble flow and bubbly flow were visually identified in a given cross section. Gamma rays were used to interrogate a column diameter, and digital time series analysis methods were applied. Amplitude spectral densities were used to determine any periodicity in the gas phase flow. The average void fraction for periodic gas flows was obtained by analysis of probability density distributions (PDD). The time sequence of the flow regimes was obtained from the signal magnitude of the diametral void fractions and the time spent in each regime was measured by the associated probability. The results compared well with those obtained from other methods. In the bubbly flow region, the standard deviation of the PDD exceeded that expected for nuclear counting. This bubble noise was assessed with respect to bubble properties.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3118058104</t>
+          <t>https://openalex.org/W3016171366</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-981-15-0947-6_58</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Adeyanju et al. (2019)</t>
+          <t>Hajji et al. (2020)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Family Care Givers Educational Needs in the Care of the Home Dwelling Aged in Ikare-Akoko Community of Ondo State, Nigeria</t>
+          <t>Towards Eclipse Plug-ins for Automated Data Warehouse Design from an Ontology</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Globally, the term family or informal caregiver refers to an unpaid family member, friend, or neighbour who provides care for ill or disabled aged who cannot do for themselves a variety of fundamental tasks due to loss of independence. The purpose of the study was to explore family caregivers' educational needs in the care of aged in Ikare-Akoko Ondo State, Nigeria. A mixed method research design was adopted and a multistage sampling methods were used to select fifty (50) participants for the quantitative descriptive phase and ten (10) participants for the qualitative explorative phase respectively . An observational check list was used to obtain data in the descriptive quantitative phase while an interview guide was used to guide the interview that helped to elicit qualitative data. The instruments were validated and reliability tested. Data were analysed with the aid of International Business Machine SPSS version 23. Descriptive statistics was done to generate frequencies and percentages of responses from the quantitative data while interview excerpts were subjected to content analysis. Major findings of the study showed that family caregivers' practical caregiving need is modest. They appreciably performed procedures on medication care, grooming, pain assessment, food preparation and moving patients. However, caregivers demonstrated inadequate skill in performing procedures on emergency resuscitation. The study also revealed that family caregivers perceived caregiving as merely assisting care recipients with ADL and administering medications. they were found to engage in risky practices which can be detrimental to the health of their older relatives, as well as to their own health. More so, family caregivers possess inadequate information about the illness and treatment of care of the aged. They also lack support and have deficient knowledge on where to get external support. Thus there is need for training on care of older relatives at home and how to access help and support from health and social care professionals. In this light, a health education program for family caregivers of aged in Ikare-Akoko could be based on the Melei's transition theory and should include content such as strategies to care for the aged transition from one life stage to another and to be adequately adapted to new roles among others.</t>
+          <t>The Semantic Web is experiencing a rise in recent years. As a result, ontologies have become ubiquitous in many areas while attracting growing interest from researchers. However, this knowledge representation model escapes to multidimensional analysis due to the lack of tools allowing the transition from the ontological model to the multidimensional model. In this contribution, we present our approach for the implementation of our multi-approaches model for the automatic generation of a Data Warehouse model from an ontology. In this context, we have first developed an Eclipse Plug-in for generating a conceptual model of a relational database from an ontology. Secondly, we have developed another Eclipse Plug-in for generating a Data Warehouse model from a database model. And finally, we have integrated these two plug-ins, based on model-to-model transformation and to build an automated design solution for a Data Warehouse model from an ontology.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3141252252</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/spline.2007.23</t>
+          <t>https://openalex.org/W2955526082</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Voelter &amp; Groher (2007)</t>
+          <t>Selvaraju (2017)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Product Line Implementation using Aspect-Oriented and Model-Driven Software Development</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Software product line engineering aims to reduce development time, effort, cost, and complexity by taking advantage of the commonality within a portfolio of similar products. The effectiveness of a software product line approach directly depends on how well feature variability within the portfolio is implemented and managed throughout the development lifecycle, from early analysis through maintenance and evolution. This paper presents an approach that facilitates variability implementation, management and tracing by integrating model-driven and aspect-oriented software development. Features are separated in models and composed by aspect-oriented composition techniques on model level. Model transformations support the transition from problem to solution domain. Aspect-oriented techniques enable the explicit expression and modularization of variability on model, code, and template level The presented concepts are illustrated with a case study of a home automation system.</t>
+          <t>Health care expenditure in India structural changes and their implications</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2911952093</t>
+          <t>https://openalex.org/W2601356454</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.32461/2226-3209.4.2013.138059</t>
+          <t>https://doi.org/10.1007/978-3-662-54494-5_15</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Shevchenko (2013)</t>
+          <t>Lara et al. (2017)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>The Role of the Modern Ukrainian Family in the Formation of Cultural Identity</t>
+          <t>Reusing Model Transformations Through Typing Requirements Models</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>The article deals with the formation of cultural identity in modern Ukrainian family, analyzes the role of family socialization features. Considerable attention is given to cultural and educational potential of the family and its influence on the cultural identity formation. Process of identity formation is always largely determined by the specific socio-cultural factors which were shaped by centuries of historical development. Family as a social institution deserves priority attention among those fundamental factors. Family – first principle of society. It is a certain social group in which most individual characteristics of the parents , their children and other family members showed through their behavior and personality development which are formed with self-knowledge, self-actualization and socialization of its members. Family by its characteristics is a social structure that goes through various stages of growth and development and through improved performance of its functions. It enriches the treasury of material and spiritual values of the people. The material and moral responsibility of family members to each other and to society is the main feature on the basis of these theoretical studies , modern family has to become a key element in the individual`s education and socialization. Proceeding with historical and modern conceptions of identity, a person in the epicenter of culture, is the highest spiritual value which becomes it`s spiritual essence and a part of humanity. The person develops it through culture. The cultural essence of personality is the backbone component of its integrity. Cultural values in the socio-cultural sphere are achieved by the beliefs of humanity that were formed and still continue to grow in the transformation of the socio-historical situation. The succession of generations is a process of mutual transfer, assimilation, storage and use of material and spiritual values, social information and experience of previous generations where the family plays an important role. The family in Ukraine fells under the influence of transformation of socio-cultural and political processes and transformations. They reflect on it and led to significant changes in their functioning. Socio-economic conditions of life appear in the relationship: increasing conflict, collapsing the established ethical principles of operation of the complete family. Dysfunctions increased in economic, legal and moral vulnerability of families, reducing their role in the socialization and education of children. This affects today's youth significantly. This effect is motivated by emotion, culture, internal rules and possibilities of family resources. However, the modern Ukrainian family does not realize it`s great educational potential. It depends on many social factors , especially economic life marked both positive and negative trends. This feature needs detailed analysis of trends, opportunities and constraints for the implementation of the educational potential of Ukrainian families. It ensures the development of the individual in the modern world. Therefore, the study of socio-cultural and psycho-educational situation in the family upbringing of the young generation has to become a basis for further development of public policy in education. The content of individual’s education in modern Ukrainian family should be integrated into national and humanist culture of the people in Intercontinental area. Content of education should reflect and establish the highest national and universal value orientation in the minds of modern and young people: spiritual, cultural, humanistic, ethical, aesthetic, physical, social and labor. It should also reflect the practice of modern Ukrainian family in the independent state. Based on these theoretical studies, the modern family is a major element in the education of contemporary identity and in shaping its culture. In Ukrainian family, it`s ideas were always clearly distinguished and rooted in the depths of people's life, minds, work and creativity. At all times ideals of the family were the highest and most sacred for our people. Family was considered to be a fundamental principle of human life, a kind of fortress, which provided development and protection of personality’s best qualities, including: labor as the most complete form of expression and creativity of human capabilities, sources of wealth and pleasure; spirituality as a synthetic form of understanding the world and ourselves in the same high moral dimension of creative and humane attitude to the environment and people. Ukrainian family has to cultivate such qualities of character and personality characteristics as: respect for parents and family devotion, commitment to mutual support , formation of national consciousness and identity, love for the land and people, formation of high language culture, respect the culture, customs and traditions of the peoples who inhabit the Ukraine, and the peoples of the world. F</t>
+          <t>Model transformations are key elements of Model-Driven Engineering (MDE), where they are used to automate the manipulation of models. However, they are typed with respect to concrete source and target meta-models and hence their reuse for other (even similar) meta-models becomes challenging. In this paper, we describe a method to extract a typing requirements model (TRM) from an ATL model-to-model transformation. A TRM describes the requirements that the transformation needs from the source and target meta-models in order to obtain a transformation with a syntactically correct typing. A TRM is made of three parts, two of them describing the requirements for the source and target meta-models, and the last expressing dependencies between both. We define a notion of conformance of meta-model pairs with respect to TRMs. This way, the transformation can be used with any meta-model conforming to the TRM. We present tool support and an experimental validation of correctness and completeness using meta-model mutation techniques, obtaining promising results.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3037811040</t>
+          <t>https://openalex.org/W4391318973</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acs.inorgchem.0c00834</t>
+          <t>https://doi.org/10.17762/ijritcc.v11i9.9173</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ibáñez et al. (2020)</t>
+          <t>Susmitha (2023)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Structural and Lattice-Dynamical Properties of Tb&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;3&lt;/sub&gt; under Compression: A Comparative Study with Rare Earth and Related Sesquioxides</t>
+          <t>Analysis and Prediction of Winning Team and Player Performance in Franchise Cricket using Machine Learning</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>We report a joint experimental and theoretical investigation of the high pressure structural and vibrational properties of terbium sesquioxide (Tb2O3). Powder X-ray diffraction and Raman scattering measurements show that cubic Ia3̅ (C-type) Tb2O3 undergoes two phase transitions up to 25 GPa. We observe a first irreversible reconstructive transition to the monoclinic C2/m (B-type) phase at ∼7 GPa and a subsequent reversible displacive transition from the monoclinic to the trigonal P3̅m1 (A-type) phase at ∼12 GPa. Thus, Tb2O3 is found to follow the well-known C → B → A phase transition sequence found in other cubic rare earth sesquioxides with cations of larger atomic mass than Tb. Our ab initio theoretical calculations predict phase transition pressures and bulk moduli for the three phases in rather good agreement with experimental results. Moreover, Raman-active modes of the three phases have been monitored as a function of pressure, while lattice-dynamics calculations have allowed us to confirm the assignment of the experimental phonon modes in the C- and A-type phases as well as to make a tentative assignment of the symmetry of most vibrational modes in the B-type phase. Finally, we extract the bulk moduli and the Raman-active mode frequencies together with their pressure coefficients for the three phases of Tb2O3. These results are thoroughly compared and discussed in relation to those reported for rare earth and other related sesquioxides as well as with new calculations for selected sesquioxides. It is concluded that the evolution of the volume and bulk modulus of all the three phases of these technologically relevant compounds exhibit a nearly linear trend with respect to the third power of the ionic radii of the cations and that the values of the bulk moduli for the three phases depend on the filling of the f orbitals.</t>
+          <t>Sports, especially cricket, produces an enormous amount of statistical data that has led to the evolution of the game. Unlike other sports, cricket involves numerous variables ranging from pitch conditions, weather, boundary length, and several other factors that make each game unique. These variables make every match have its own significance, making cricket an ever-evolving sport that continues to captivate its audience. Over the years, cricket has witnessed a massive transformation with the integration of analytics. The use of data analytics has changed the way players and coaches approach the game. It has brought a new dimension to the game and has opened several new avenues for analyzing and interpreting the game. The Indian Premier League (IPL) has acted as a catalyst in showcasing the potential of cricket to the world and has bridged the gap between different cultures and audiences. In the present-day IPL, every statistic available is being used due to the high level of competitiveness of the tournament. Teams use data analytics to understand their strengths and weaknesses, analyze their opponents' gameplay, and devise strategies to win matches. These analytics provide valuable insights into various aspects of the game, such as player performance, team strategies, and game trends, among others. This paper is a sincere effort to uncover hidden insights in IPL by utilizing data from previous seasons. The vast amount of data available offers a treasure of formation that can help us to understand the nuances of the game and make informed decisions. By analyzing this data, we can identify patterns and trends, assess player performance, and make informed decisions that can impact the outcome of a match.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2556968239</t>
+          <t>https://openalex.org/W2790868704</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5751/es-01595-110118</t>
+          <t>https://doi.org/10.1016/j.cptl.2018.02.007</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Olsson et al. (2006)</t>
+          <t>Chamberlin et al. (2018)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Shooting the Rapids: Navigating Transitions to Adaptive Governance of Social-Ecological Systems</t>
+          <t>Implementation and assessment of a pulmonary diseases elective course for third-year pharmacy students</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>The case studies of Kristianstads Vattenrike, Sweden; the Northern Highlands Lake District and the Everglades in the USA; the Mae Nam Ping Basin, Thailand; and the Goulburn-Broken Catchment, Australia, were compared to assess the outcome of different actions for transforming social-ecological systems (SESs).The transformations consisted of two phases, a preparation phase and a transition phase, linked by a window of opportunity.Key leaders and shadow networks can prepare a system for change by exploring alternative system configurations and developing strategies for choosing from among possible futures.Key leaders can recognize and use or create windows of opportunity and navigate transitions toward adaptive governance.Leadership functions include the ability to span scales of governance, orchestrate networks, integrate and communicate understanding, and reconcile different problem domains.Successful transformations rely on epistemic and shadow networks to provide novel ideas and ways of governing SESs.We conclude by listing some rules of thumb" that can help build leadership and networks for successful transformations toward adaptive governance of social-ecological systems.</t>
+          <t>Given the significant public health burden of pulmonary diseases and the vital role pharmacists play in management across the continuum of care (and within transitions in care), an elective course for pharmacy students focused on pulmonary diseases was developed.A month-long elective course for third-year pharmacy students consisting of 12 class sessions delivered in two-hour periods three times per week, was implemented. The course was delivered using the team-based learning (TBL) format in addition to hands-on skills and simulation sessions. Knowledge and skills assessments were administered before and after completion of the course. Student perceptions of self-confidence and ability regarding management of pulmonary diseases pre- and post-course and their perceptions of the course and TBL as a teaching strategy for this course were evaluated upon course completion.Nine students completed the course. Mean scores on knowledge and skills assessment significantly improved after completion of the course (54.5% pre-course vs. 79.3% post-course; p &lt; 0.05% and 60.3% pre-course vs. 93.2% post-course; p &lt; 0.05, respectively). Student perceptions of their ability to care for patients with pulmonary diseases significantly increased, compared to pre-assessments, in all areas taught in the course (p&lt; 0.05). Additionally, students' confidence in managing specific disease states significantly improved in all areas (p &lt; 0.05) except for spirometry (p = 0.06). Students' knowledge, skills, and confidence regarding management of common pulmonary disease states improved following this month-long elective course delivered using a combination of TBL activities and hands-on skills sessions.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2026250138</t>
+          <t>https://openalex.org/W2644456763</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11606-015-3255-0</t>
+          <t>https://doi.org/10.1299/jsmeibaraki.2014.22.27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Callahan (2015)</t>
+          <t>Osari et al. (2014)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Opening the Door to Transgender Care</t>
+          <t>106 Grand Canonical Monte Carlo simulation of sphere-to-sheet transition of membrane</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>This issue of the Journal of General Internal Medicine showcases an intriguing and uncommon article: “Electronic Health Records and Transgender Patients—Practical Recommendations for the Collection of Gender Identity Data.”1 Readers who currently see no transgender or transsexual (now commonly referred to as trans) patients may wonder why this paper was selected for publication. While the common belief has been that trans patients needed to be referred to endocrinologists or other specialists, there is now increasing recognition that quality primary care can be provided by general internists and others who are willing to expand their practice by engaging in dialogue with the patient and others committed to caring for trans patients. Another common belief in the past was that trans people were universally committed to full medical and surgical transition. The trans patients seeking care now appear to vary widely on how few or how many transition services they seek. Significant expansion and personalization of trans care is critical in efforts to reduce health disparities for these populations._x000D_
-_x000D_
-The pressing need to reduce health disparities for those with marginalized sexual orientation and/or gender identity was brought to public attention with the publication of a committee report from the Institute of Medicine (IOM; 2011).2 That report documented serious health disparities in lesbian, gay, and bisexual (LGB) populations, prompting recognition of the medical profession’s ethical responsibility to reduce those disparities.3 Ironically, almost fully absent from the IOM report was the T in LGBT: trans populations. The near silence on trans health stems from the fact that there were so few data on the health of trans populations. In its report, the IOM committee recommends increased efforts to document the gender identity of patients seen in routine care as well as the gender identity of those responding to surveys. Since less than 0.5 % of the population is reputed to be trans, why is this a critical issue for readers of this journal?_x000D_
-_x000D_
-First, while gender identity disorders have not yet been the focus of formal epidemiologic studies, Atkins et al.4 contend that clinic-referred samples suggest an increasing prevalence. Reviewing ten years of data, Blosnich et al.5 reached the same conclusion: they found that the frequency of gender identity diagnoses in the Veteran’s Administration health care system nearly doubled from 2002 through 2011. That remarkable increase is prompting new VA initiatives to enhance care for trans patients, including new programs to reduce trans suicidality. Existing data cannot clarify whether the overall incidence of gender dysphoria has increased or whether the noticeable difference reflects more people becoming open about their gender identity. In addition to more individuals appearing to accept and acknowledge their gender identities, it is likely that the Affordable Care Act has increased access to primary care for many trans patients who had little or no access to care in the past._x000D_
-_x000D_
-Second, there is a strong cultural stigma against trans people that often negatively impacts their health. There is evidence of bullying and violence against trans people that begins in the early years, sometimes even within the family, and continues throughout life;6 this violence often extends to trans people being the target of sexual violence. Perhaps most importantly, the cultural rejection of children and adults who exhibit cross-gender behavior and/or appearance has permeated the health care environment._x000D_
-_x000D_
-Two recent surveys document common negative experiences of trans people seeking health care. An online survey conducted by Lambda Legal7 found that nearly 27 % of trans people surveyed reported that they had been denied the health care they sought because of their gender identity. Further, while 21 % reported verbal abuse by their provider, almost 8 % reported that they had experienced rough or physically abusive treatment by a health care professional. In that survey, trans patients reported far higher levels of mistreatment than LGB patients, even higher than the rates reported by HIV-positive patients. It is unknown how many trans patients have stopped seeking care because of their experience at the hands of primary care providers, but it is clear that there is a need for quality improvement in care for trans patients._x000D_
-_x000D_
-To better understand the health needs of sexual minority patients in California, the state Department of Public Health developed a collaborative online survey that was completed by over 3,000 lesbian, gay, bisexual, transgender, queer, and questioning (LGBTQ) individuals.8 The survey results revealed that 75 % of respondents agreed with the statement, ”I have experienced emotional difficulties such as stress, anxiety or depression which were directly related to my sexual orientation or gender identity/expression,” sowing the seeds for increased risk for a variety of</t>
+          <t>We study a sphere-to-sheet transition of a surface model using the grand canonical Monte Carlo simulation technique on dynamically triangulated lattices. This transition is closely connected to a pore formation of liposome and also to the lamellar-to-onion transition. The model is defined on a triangulated sphere with a pore, which is topologically identical with a disk. The perimeter length of the pore is allowed to vary, and consequently we have two different phases at high bending region; one is a spherical phase and the other is a planar phase. We find that these two phases are separated by a first-order transition.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4205326087</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/ijtj/ijab032</t>
+          <t>https://openalex.org/W2520293038</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Verwoerd et al. (2022)</t>
+          <t>Dries &amp; Swinnen (2002)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Peace as Betrayal: On the Human Cost of Relational Peacebuilding in Transitional Contexts</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ABSTRACT This article explores the micro-dynamics of intragroup betrayal and self-betrayal that can be evoked by relational peacebuilding between groups. The painful accusation of betrayal by close, family-type group members and internally feeling like a betrayer as a result of working with the ‘other side’ is presented as an underestimated human cost of relational peacebuilding. This understanding emerged from an international ‘Beyond Dehumanisation’ research project, which included experienced peace practitioners from South Africa, the Israel-Palestine region and the conflict in and about Northern Ireland. The emerging diagnostic framework is supported by (and provides empirical support for) theories of betrayal that stress how deeply relational betrayal is. The resonance with Margalit’s theory of betrayal as the ‘undermining of thick relations’ is especially strong. ‘Peace as betrayal’ suggests the need for more practical support for peacebuilders and can also be applied more widely to render resistance to transitional justice processes more visible.</t>
+          <t>Globalization, european integration and transition of the Polish dairy sector</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4320516614</t>
+          <t>https://openalex.org/W3173042276</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/978-1-80382-517-520231011</t>
+          <t>https://doi.org/10.31703/grr.2020(v-iii).28</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lehr &amp; Vaughan (2023)</t>
+          <t>Khan et al. (2020)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Humanistic Leadership and its Enduring Legacy in a Post-Covid-19 World</t>
+          <t>Decline of Separatist Movement in Sindh (1971-77): An Outcome of PPP Rise to Power</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>As societies worldwide continue to navigate and recover from the impacts of the Covid-19 pandemic, the world is at a unique crossroads. How can leaders in higher education institutions (HEIs) prioritize holistic human needs and maximize interpersonal and collegial human connection, while continuing to guide and grow successful learning communities both in-person and virtually? With potential costs and benefits in mind, pertinent literature is reviewed, and the limitations and silver linings presented by the ongoing pandemic are explored. Different forms of grief and loss experienced by faculty and students as well as the effects of technostress amid this time of change are also recognized. Concepts and practices introduced by prominent humanistic thought-leaders are discussed as a way to navigate the educational impacts created by the pandemic. A key finding presented is that leaders and HEIs that prioritize human connections and relationships, in concert with adopting technological advancements, are better equipped to maintain personal well-being while enhancing academic success in the long term. By fostering learning environments based on psychological safety, compassion, autonomy, and adaptability, humanistic leaders contribute to the betterment of HEIs as a whole. To this end, the enduring legacy of humanistic leadership is pivotal in this new era of global and individual humanistic transformation amid change.</t>
+          <t>The decade of 1970 witnessed a landmark change in Sindh's political spectrum as the centripetal elements started to flourish while putting centrifugal politics into the background. Why did the political mosaic of Sindh alter? And how did it alter? These key questions are investigated in this study. Since this alteration owed the fundamental structural and ideological transformation of Pakistan's politics. Pakistan People's Party (PPP)) headed by a leader from rural Sindh formed a central government as well as the provincial government of Sindh. Various measures taken by the PPP government got appreciations of Sindhi masses and became a cause to promote greater attachment with the Pakistani state, which appeared estranged erstwhile. Hence, the hypothesis gets approved that the popularity of a mainstream political party in a peripheral region can strengthen the process of national integration and evaporate sub-nationalist separatist tendencies. This study is based on deductive reasoning as it makes a profound analysis of the phenomenon in perspective of scholarly insights of Alexis Heraclides, Ramon Maize and Susan J. Henders.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4232336923</t>
+          <t>https://openalex.org/W2428158973</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/mdr.2006.0083</t>
+          <t>https://doi.org/10.1007/978-3-319-30322-2_24</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Moi (2006)</t>
+          <t>Ağraz &amp; Purutçuoğlu (2016)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>"First and Foremost a Human Being": Idealism, Theatre, and Gender in A Doll's House</t>
+          <t>Transformations of Data in Deterministic Modelling of Biological Networks</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>"First and Foremost a Human Being":Idealism, Theatre, and Gender in A Doll's House1 Toril Moi (bio) Introduction A Doll's House is the first full-blown example of Ibsen's modernism. It contains a devastating critique of idealism entwined with a turn to the everyday, a celebration of theatre combined with a fierce analysis of everyday theatricality (A Doll's House is teeming with metatheatrical elements) and a preoccupation with the conditions of love in modernity. In A Doll's House, Ibsen mobilizes all these features in a contemporary setting and in relation to a fundamentally modern theme: namely, the situation of women in the family and society.2 The result is a play that calls for a radical transformation [forvandling], not just, or not even primarily, of laws and institutions, but of human beings and their ideas of love. This article explores three major themes in A Doll's House: idealism, theatre, and gender. Although idealist aesthetic norms were a primary concern for many of the play's first critics, contemporary literary scholars have barely raised the subject.3 In this article, I use the term "idealism" to mean "idealist aesthetics," defined broadly as the idea that the task of art is to create beauty, combined with the belief that beauty, truth, and goodness are one. Taking questions of beauty to be questions of morality and truth, idealist aesthetics thus seemlessly merge aesthetics [End Page 256] and ethics. Although the earliest versions of idealist aesthetics had been espoused by Romantic radicals such as Friedrich Schiller, Madame de Staël, and - a little later - Shelley, by the time of A Doll's House, the Romantic movement was long dead; yet idealist aesthetics lived on, albeit in increasingly tired and exhausted forms, which often were aligned with conservative and moralistic social forces. Not surprisingly, then, in the wake of the radical Danish intellectual Georg Brandes's fiery call for a modern literature in his 1871-72 lectures on Hovedstrømninger i Europeisk litteratur, idealism was increasingly coming under attack, and - as I show in my book Henrik Ibsen and the Birth of Modernism - Ibsen's works were the linchpin of the burgeoning modernist opposition to idealism.4 The moment of A Doll's House marks a clear shift in the increasingly intense cultural battle between idealists and emerging modernists in Europe. Idealist responses to A Doll's House were embattled in a way that idealist responses to Love's Comedy and Emperor and Galilean were not.5 In this article, I will show that defenders of Ibsen's realism nevertheless come across as less sophisticated than their idealist opponents. In fact, by propagating the idea that A Doll's House was to be understood as a "slice of life," Ibsen's first admirers entirely missed his pro-theatricalism, his metatheatrical insistence that what we are seeing is theatre. Around 1880, then, neither Ibsen's enemies nor his friends were in a position truly to grasp the scope of his aesthetic achievement. But idealism was not just an important element in the reception of A Doll's House. It is also embedded in the play, most strikingly in the character of Torvald Helmer, a card-carrying idealist aesthete if ever there was one. Moreover, Helmer's idealism and Nora's unthinking echoing of it make them theatricalize both themselves and each other, most strikingly by taking themselves to be starring in various idealist scenarios of female sacrifice and male rescue. Ibsen's critique of idealism is the condition of possibility for his revolutionary analysis of gender in modernity. In this respect, the key line of the play is Nora's claim to be "first and foremost a human being (359)."6 Nora's struggle for recognition as a human being is rightly considered an exemplary case of women's struggle for political and social rights.7 But Nora claims her humanity only after explicitly rejecting two other identities: namely, "doll" and "wife and mother." In order to show what these refusals mean, I first consider the signification of the figure of the doll. "The human body is the best picture of the human soul," Ludwig Wittgenstein writes (152). What...</t>
+          <t>The Gaussian graphical model (GGM) is a probabilistic modelling approach used in the system biology to represent the relationship between genes with an undirected graph. In graphical models, the genes and their interactions are denoted by nodes and the edges between nodes. Hereby, in this model, it is assumed that the structure of the system can be described by the inverse of the covariance matrix, $$\varTheta $$ , which is also called as the precision, when the observations are formulated via a lasso regression under the multivariate normality assumption of states. There are several approaches to estimate $$\varTheta $$ in GGM. The most well-known ones are the neighborhood selection algorithm and the graphical lasso (glasso) approach. On the other hand, the multivariate adaptive regression splines (MARS) is a non-parametric regression technique to model nonlinear and highly dependent data successfully. From previous simulation studies, it has been found that MARS can be a strong alternative of GGM if the model is constructed similar to a lasso model and the interaction terms in the optimal model are ignored to get comparable results with respect to the GGM findings. Moreover, it has been detected that the major challenge in both modelling approaches is the high sparsity of $$\varTheta $$ due to the possible non-linear interactions between genes, in particular, when the dimensions of the networks are realistically large. In this study, as the novelty, we suggest the Bernstein operators, namely, Bernstein and Szasz polynomials, in the raw data before any lasso type of modelling and associated inference approaches. Because from the findings via GGM with small and moderately large systems, we have observed that the Bernstein polynomials can increase the accuracy of the estimates. Hence, in this work, we perform these operators firstly into the most well-known inference approaches used in GGM under realistically large networks. Then, we investigate the assessment of these transformations for the MARS modelling as the alternative of GGM again under the same large complexity. By this way, we aim to propose these transformation techniques for all sorts of modellings under the steady-state condition of the protein-protein interaction networks in order to get more accurate estimates without any computational cost. In the evaluation of the results, we compare the precision and F-measures of the simulated datasets.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3101089542</t>
+          <t>https://openalex.org/W3164506741</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.cesys.2021.100038</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Saxon et al. (2018)</t>
+          <t>Yalçın &amp; Foxon (2021)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Development of an Interdisciplinary Cardiovascular ICU Ventilator Weaning Team to Improve Patient Outcomes and Decreased Intubation Times</t>
+          <t>A systemic approach to transitions towards circular economy: The case of Brighton and Hove</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Background: Historically, the overall post-operative care (including, ventilator weaning) in the Cardiovascular ICU was the responsibility of the nursing staff. Respiratory therapy staff would assist with ventilator weaning on an as-needed basis. When transitioning to new ventilators, it was suggested that a dedicated Respiratory therapy team could wean the patients from mechanical ventilation in less time than a primary nurse-lead weaning approach. Methods: Data collected from patients9 that underwent cardiac surgery from January 2017 through August 2017 was reviewed. An opportunity for improvement was noted in regards to streamlining the weaning and extubation process. A two person respiratory therapist based weaning team was put into place to focus on these patients upon arrival into the ICU. Additionally, a revised ventilator management protocol was utilized to manage these patients improving the weaning and extubation process. Results: Each medical discipline developed recommendations for improving patient care in their respective areas. The respiratory therapists implemented a weaning team that was focused solely on management of these post- operative patients. This allowed direct observation of respiratory patterns, selection of appropriate ventilator settings, blood gas management, and timely assessment for the readiness of CPAP. Recently, we revised the standard process to include administration of a paralytic reversal agent upon admission to the ICU. This further reduced the time for nursing staff to decrease sedation. Our standard process also included a standardized PEEP of +8 to help post-surgical alveolar recruitment and oxygenation. Finally, all staff completed Team STEPPS and Cultural Beliefs training which facilitated open communication between all team members regarding care management, patient extubation readiness, and options for oxygen devices post extubation Conclusions: Data regarding outcomes for RT weaning of post-operative patients in the CVICU shows an increase of patients being extubated within 6 hours from 51.56% in September of 2017 to 81% as of April of 2018. Disclosures: None.</t>
+          <t>To date, the literature on the circular economy has been dominated by closed-loop industrial practices, circular products, and business models. Lack of systemic perspective in the circularity debate limited the understanding of multi-actor and multi-pattern transitions. In this paper, we apply a co-evolutionary framework to investigate key dimensions of a socio-technical system -ecosystems, technologies, businesses, institutions, and user practices-in the city of Brighton and Hove (United Kingdom). We present the causal interaction between these systems based on the outcomes of semi-structured interviews with the local actors and documentary analysis of relevant policies and strategies. Exploring how each system evolves under own dynamics and influenced by the dynamics in the others leads us to identify the main drivers and barriers of a circular economy in the city. Our findings underline the necessity of systems-level change with a holistic vision, consideration of place-specific factors and engagement of multiple actors for a successful transition.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3119439580</t>
+          <t>https://openalex.org/W3097947765</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jpurol.2020.12.020</t>
+          <t>https://doi.org/10.1016/j.egyai.2020.100036</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Claeys et al. (2021)</t>
+          <t>Xin et al. (2020)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Barriers in transitioning urologic patients from pediatric to adult care</t>
+          <t>The future of sustainable chemistry and process: Convergence of artificial intelligence, data and hardware</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;Summary&lt;/h2&gt; As the advances in medicine continue to emerge, more children with congenital or pediatric-onset chronic urologic conditions are surviving well into adulthood. This imposes an ever rising there is a need for adequate transition of these patients from pediatric to adult care. Despite position statements from multiple heath care organizations and several models proposed in literature, different issues and gaps in urologic transition continue to exist. Major barriers in this transition are adolescence, a challenging time that is characterized by impulsive behavior and risk taking, and the longstanding relation between both patients and paediatric providers. Both pediatric and adult care providers need to be aware of the special needs of maturing youth with chronic care problems related to education, self-management, legal issues and psychological support during care transition. Furthermore, they need to understand and address the currently existing obstacles for adequate transition. There is need for active communication with each other and the patient to develop sustainable relationships that can support the transitioning process. It is therefore in the greatest interest of the care provider to make this transition as smooth as possible. This paper aims to point out the currently perceived barriers in care transition within the urological context, reflect on previous implemented models for care transition and present proposals for improvement.</t>
+          <t>Sustainable chemistry for renewable energy generation and green synthesis is a timely research topic with the vision to provide present needs without compromising future generations. In the era of Industry 4.0, sustainable chemistry and process are undergoing a drastic transformation from continuous flow system toward the next level of operations, such as cooperating and coordinating machine, self-decision-making system, autonomous and automatic problem solver by integrating artificial intelligence, data and hardware in the cyber-physical systems. Due to the lack of convergence between the physical and cyber spaces, the open-loop systems are facing challenges such as data isolation, slow cycle time, and insufficient resources management. Emerging researches have been devoted to accelerating these cycles, reducing the time between multistep processes and real-time characterization via additive manufacturing, in-/on-line monitoring, and artificial intelligence. The final goal is to concurrently propose process recipes, flow synthesis, and molecules characterization in sustainable chemical processes, with each step transmitting and receiving data simultaneously. This process is known as 'closing the loop', which will potentially create a future lab with highly integrated systems, and generate a service-orientated platform for end-to-end synchronization and self-evolving, inverse molecular design, and automatic science discovery. This perspective provides a methodical approach for understanding cyber and physical systems individually, enabled by artificial intelligence and additive manufacturing, respectively, in combination with in-/on-line monitoring. Moreover, the future perspective and key challenges for the development of the closed-loop system in sustainable chemistry and process are discussed.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4392680595</t>
+          <t>https://openalex.org/W4392202867</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5219/1962</t>
+          <t>https://doi.org/10.1016/j.cegh.2024.101562</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Akimova et al. (2024)</t>
+          <t>Bakheet et al. (2024)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Enzymatic hydrolysis in food processing: biotechnological advancements, applications, and future perspectives</t>
+          <t>Transition of care of adolescents with rheumatic diseases in Saudi Arabia, current practice and obstacles</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>In food processing, enzymatic hydrolysis has become a revolutionary biotechnological instrument that provides consistency and sustainability that are unmatched by traditional techniques. This work thoroughly analyzes current developments in enzymatic hydrolysis and examines its uses in various food processing contexts. The biotechnological aspects—such as substrate specificity, enzyme engineering, and sustainable process optimization—are the main focus. The historical background and development of enzymatic hydrolysis in food processing are explored at the study's outset, highlighting the process's transformation from a specialized use to a critical component of contemporary biotechnological food production. A thorough literature review underscores the specificity of enzymes in dissolving various dietary components, offering insights into the biotechnological nuances controlling substrate-enzyme interactions. A careful examination of the many enzymes used in enzymatic hydrolysis and a full assessment of their uses and specificities are provided. Enzymatic hydrolysis selection criteria are outlined, taking regulatory compliance, thermostability, pH sensitivity, and substrate specificity into account. The integration of enzymatic hydrolysis into workflows for food processing is also covered, focusing on compatibility with current infrastructure and processing parameters. The case studies that demonstrate the effective use of enzymatic hydrolysis in various food production situations are the core of the research. These examples illustrate the adaptability and effectiveness of enzymatic processes in improving food quality, from developing gluten-free products to optimizing fermentation in baked goods. In its futuristic conclusion, the article imagines how enzymatic hydrolysis will continue to influence food processing in the years to come. The biotechnological viewpoint strongly emphasizes current research directions, such as integrating enzymatic processes into sustainable food production techniques and engineering enzymes for increased specificity. This biotechnological investigation highlights how enzymatic hydrolysis may completely change the food processing industry by providing accuracy, sustainability, and creativity in pursuing wholesome, nutrient-dense, and aesthetically pleasing food items.</t>
+          <t>&lt;h2&gt;Abstract&lt;/h2&gt;&lt;h3&gt;Background&lt;/h3&gt; The importance of transition of care for adolescents with rheumatological illnesses from pediatric to adult rheumatology is increasing as the childhood rheumatologic diseases continue to adulthood. Despite that, transition practice in Saudi Arabia is not yet well-developed. &lt;h3&gt;Objectives&lt;/h3&gt; This study aims to evaluate the current transition of care practice for adolescents with rheumatological diseases to the adult healthcare facilities and the obstacles in achieving the best transition of care in Saudi Arabia. &lt;h3&gt;Setting and methods&lt;/h3&gt; This is a non-interventional cross-sectional study conducted using an online survey that was distributed to pediatric and adult rheumatologists in Saudi Arabia. Google forms and Microsoft Excel 2016 were used for data entry and analysis. Descriptive statistics, frequencies and percentages were performed for categorical variables. &lt;h3&gt;Results&lt;/h3&gt; A total number of 60 rheumatologists (27 pediatric and 33 adult) participated in the survey. Fifty-six (94%) of the participants do not follow any standardized programs for transition of care. All participants agreed on the need for a defined protocol for transition of care. The major barriers for successful transition of care were lack of protocols (63%), lack of healthcare providers (56%), and lack of well-developed systems that makes it difficult to access patient's electronic health records (55%). &lt;h3&gt;Conclusion&lt;/h3&gt; A well-structured protocol for transition of care of adolescents with rheumatologic illnesses from pediatric to adult rheumatology in Saudi Arabia is still an unmet need. Efforts should be directed towards improving the practice of transition of care by establishing this protocol, enhancing the connectivity between pediatric and adult healthcare facilities, and encouraging pediatric and adult rheumatologists to adapt the transition of care protocol in their daily clinical practice.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3129798316</t>
+          <t>https://openalex.org/W1963689218</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.36106/ijsr/7136867</t>
+          <t>https://doi.org/10.1190/1.1890387</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Motghare &amp; Mourya (2021)</t>
+          <t>Hadidi &amp; Smith (1990)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>EFFECT OF ORAL MOTOR MUSCLE STIMULATION ON OUTCOMES OF PRETERM INFANT SYSTEMATIC REVIEW OF PUBLISHED LITERATURE, 2006-2019.</t>
+          <t>Transition zone seismic: A method to integrate various source and receiver combinations</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Prematurity is incredibly common in children within the Indian scenario. Techniques for oral motor stimulation have been explored, therefore the preterm newborn develops the transition to full oral feeding safer and active suck in an exceedingly shorter time This study aims to hold out a systematic scientific review of national and international literature reporting different techniques and elucidate their effectiveness, regarding the oral sensorimotor stimulation of preterm neonates that remained hospitalized. According to the literature, the foremost current technique utilized in India is that non-nutritive sucking with a gloved finger or orthodontic pacifier. Other countries also recorded the technique of non-nutritive sucking in pacifiers followed by oral motor muscle stimulation as a current new approach. these techniques have been positively affecting neonates' oral function development. Regarding the need for promotion of exclusive breastfeeding, recent publications highlighted a concerning percentage of synthetic nipples usage for stimulation in neonatal intensive care medical units.</t>
+          <t>Exploration in transition zones is challenging due to rapidly varying surface conditions, which require the use of creative acquisition and processing techniques. In the case described here, a 3D transition zone seismic survey was acquired with nine different source and receiver combinations, each designed to accommodate a particular environment, ranging from onshore to offshore. Therefore, wavelet processing was a critical stage in processing this survey. Improvements in modeling deterministic wavelet components and in handling noise effects have enhanced the design of appropriate wavelet processing operators. With all data converted to minimum phase, regardless of the energy source and the receiver type, statistical deconvolution more effectively compressed the wavelet. The resulting 3D survey has excellent resolution and continuity, allowing a refined structural interpretation and a detailed stratigraphic analysis to be completed.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385839247</t>
+          <t>https://openalex.org/W4319655684</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5194/egusphere-2023-1730</t>
+          <t>https://doi.org/10.1111/jjns.12522</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ekberzade et al. (2023)</t>
+          <t>Yoshimura et al. (2023)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>GC Insights: Fostering transformative change for biodiversity restoration through transdisciplinary research</t>
+          <t>Development and validation of the Care Transitions Scale for Patients with Heart Failure: A tool for nurses to assess patients' readiness for hospital discharge</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Abstract. Despite being considered one of the most pressing global issues, biodiversity loss and the degradation of ecosystems is continuing at an alarming rate. In December 2022, COP15 saw the adoption of the Kunming-Montreal Global Biodiversity Framework, where four overarching international goals for biodiversity and 23 targets. While these targets are a positive step to address the drivers of biodiversity loss, we will not only need public and political will to reach the goals and targets outlined but also more effective methods to integrate and use scientific information. To facilitate this, scientists and research institutions need to establish new and innovative approaches to transform the way science is conducted, communicated, and integrated into the policymaking process. This will require the scientific community to become proficient at working in inter and transdisciplinary teams, establishing connectivity, and engaging in the policymaking process to ensure that the best available scientific evidence is not only comprehensible to decision makers, but also timely and relevant. Here, we detail how scientists can embrace transformative change within and outside of their own communities to increase the impact of their research and help reach global targets that benefit society.</t>
+          <t>This study aimed to develop and assess the validity and reliability of the Care Transitions Scale for Patients with Heart Failure (CTS-HF) as a nurse-reported measure for evaluating patients' readiness for hospital discharge.We conducted a cross-sectional study of cardiovascular ward nurses from 163 hospitals across Japan. Structural validity was assessed using exploratory factor analysis with development participants and confirmatory factor analysis with validation participants. Convergent validity was assessed by correlation with the Discharge Planning of Ward Nurses scale (DPWN). Hypotheses testing for construct validity was performed as comparisons between subgroups of transitional care practice.Valid responses were obtained from 704 nurses (development participants, n = 352; validation participants, n = 352). The final scale comprised 21 items divided into six factors: "Clear preparation for how to manage health at home," "Adjusting to home care/support system," "Transitions of medication management from hospital to home," "Dealing with patients' concerns and questions," "Transitions of disease management from hospital to home," and "Family support." Indices of fit supported these results (comparative fit index = 0.944, root mean square error of approximation = 0.057). The CTS-HF was significantly correlated with the DPWN. The nurses' subgroup with higher transitional care practice had higher CTS-HF scores. Cronbach's alpha was .93 for the CTS-HF.The CTS-HF showed sufficient reliability and validity for use in evaluating discharge care. Further studies are needed regarding the usefulness of this scale in nursing practice.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2039777622</t>
+          <t>https://openalex.org/W1597061519</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/1541344609339023</t>
+          <t>https://doi.org/10.1161/01.cir.0000037134.24080.42</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Rosen (2009)</t>
+          <t>Burch (2002)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Transformation of Central and Peripheral Beliefs in the Eyes of the ‘‘Other’’</t>
+          <t>Passage of Inhaled Particles Into the Blood Circulation in Humans</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Peace education in the context of intractable conflict involves conflicting collective historical narratives and underlying beliefs. Could it be that peace education is coping with transformation of different types of beliefs rooted in the collective narratives of the conflict? This study suggests differentiation between central and peripheral beliefs and their connection to the behavioral patterns toward the ‘‘other.’’ A total of 546 Jewish and 410 Palestinian 10th grade male and female youth (aged 15—16) from Israel participated in this study. The study identified and characterized the perception of central beliefs from the collective narrative of the ‘‘other’’ as well as more peripheral ones. In addition, it was found that the central beliefs are more connected to the readiness for social contact with the other side as compared to the peripheral ones. Implications for peace education in regions of intractable conflict are discussed.</t>
+          <t>HomeCirculationVol. 106, No. 20Passage of Inhaled Particles Into the Blood Circulation in Humans Free AccessLetterPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessLetterPDF/EPUBPassage of Inhaled Particles Into the Blood Circulation in Humans William M. Burch William M. BurchWilliam M. Burch Molecular Medicine, The John Curtin School of Medical Research, Canberra, Australia, E-mail Originally published12 Nov 2002https://doi.org/10.1161/01.CIR.0000037134.24080.42Circulation. 2002;106:e141–e142To the Editor:It is clear from Figure 2 in the article by Nemmar et al1 that their aerosol contained a high level of a species somewhere between Technegas and Pertechnegas. Technegas generation demands a 100% inert atmosphere to work properly. Even minute traces of oxygen will begin to create a mixed oxide species. Machines that are not fully serviced at regular intervals can trap sufficient oxygen in the carbon deposited on the chamber walls, for example, to generate Pertechnegas. The immediate clinical sign is thyroid uptake in the images. This alone is often the first reason to call in a service engineer. There should be no visible thyroid on a study done using a properly functioning machine. Even the original discovery of Pertechnegas arose out of a wrongly filled argon cylinder. A curious alumina micro-aerosol within gas cylinders made of aluminum was implicated in a whole series of inadvertent Pertechnegas studies generated from "ultra high purity argon."We did not explore the transitional phase between pure carbon-coated compounds and the Technetium Oxide species named Pertechnegas, but we were aware of a "third species" that we hypothesized to be either an insoluble or poorly soluble oxide of Technetium or an incomplete closure of the carbon "cage." I suspect the machine used by the authors of this article1 is sitting right at the transitional phase and is producing a high level of this "third species."As part of the process of convincing regulatory agencies of the behavior of Technegas in the body, in 1986 I had five volunteers breathe in a small (≈30 MBq) dose, and a posterior view was taken on a gamma camera. Twenty-four hours later, the imaging procedure was repeated, and after correcting for decay, &lt;3% of the material had moved from the lung fields. This also very neatly demonstrated that Technegas had penetrated beyond the 16th division of the bronchial tree, the lower limit of the mucociliary escalator.Much of the background science and procedural help may be found at our University Web site at http://jcsmr.anu.edu.au/ Technegas.1 Nemmar A, Hoet P, Vanquickenborne B, et al. Passage of inhaled particles into the blood circulation in humans. Circulation. 2002; 105: 411–414.CrossrefMedlineGoogle ScholarcirculationahaCirculationCirculationCirculation0009-73221524-4539Lippincott Williams &amp; WilkinsResponseNemmar A., , DVM, PhD, Hoet P.H.M., , PhD, Thomeer M., , MD, Nemery B., , MD, PhD, Vanquickenborne B., , MD, Vanbilloen H., , PhD, Mortelmans L., , MD, PhD, Hoylaerts M.F., , PhD, Verbruggen A., , Pharm, PhD, and Dinsdale D., , PhD12112002We thank Dr Burch for his interest in our article1 and his comments with respect to the characteristics of the aerosol of the Technegas apparatus.The possible presence of a "species somewhere between Technegas and Pertechnegas" in the aerosol is a surprising suggestion. In his letter, Dr Burch does not refer to any published experimental evidence supporting the existence of this so-called "mixed oxide" species. To our knowledge, such species has never been documented in the scientific literature and, moreover, it is not clear what the biological characteristics of this speculative agent might be.Apart from the lack of evidence about the presence of such species in the generated aerosol, its hypothetical presence does not compromise the results and conclusions of our study. Thin layer chromatography (TLC) showed a clear difference between the chromatographic behavior of the radioactivity in the blood of the volunteers after inhalation of the aerosol (most radioactivity staying at the application point of the TLC plate) and in blood spiked with pertechnetate or obtained after the intratracheal instillation of pertechnetate in hamsters (all radioactivity moving with the solvent front). We used ultrapure argon (&gt;99.9997%) for generating Technegas without contaminating oxygen as prescribed by the instructions of the manufacturer of the apparatus.2 The TLC analysis of the collected Technegas aerosol indicated that no pertechnetate was present and thus we can be confident that we have used an aerosol not containing pertechnetate. However, some in vivo reoxidation of technetium to pertechnetate is possible and likely, because we observed a gradual rise in activity migrating with the solvent front on TLC in the blood samples. Nevertheless, shortly after inhalat</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2562809071</t>
+          <t>https://openalex.org/W4391797927</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-08-100625-2.00011-8</t>
+          <t>https://doi.org/10.51952/9781847422064.ch005</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Miller et al. (2017)</t>
+          <t>Izuhara (2010)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Drug discovery</t>
+          <t>Housing wealth and family reciprocity in East Asia</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>We sit here today perched atop the shoulders of giants. Giants of medicinal chemistry and pharmacology who toiled hard, making and testing one compound each week, a very well-developed process when drug design utilizing computer graphics first came on the scene in the late 1970s. Preclinical development disciplines, including pharmacokinetics, drug metabolism, and toxicology, were also well in place by then. But soon a series of technological advances would rock the drug discovery world, with quantum leaps in the state-of-the-art, changing the face of drug discovery forever. This revolution included the preparation and high-throughput screening of larger and larger drug libraries, large-molecule biologics to compete with small-molecule drugs, and genomics and proteomics, thereby dramatically increasing the information available to drug hunters. But revolutions take time to settle in. As “Drug Discovery 2001: A Molecular Space Odyssey” dawned, pundits thought genomics would solve major healthcare problems overnight, relegating traditional pharmaceutical R&amp;D methods to the waste bin. Reality prevailed and decades of iteration remain before genomics’ economic and social impact will change behavior fundamentally, nationally and internationally. Meanwhile, immuno-oncology moved cancer beyond “dying from” or “living with” to outright “cures” in selected cases. Resulting biotech financings and deals generated huge funds for R&amp;D, employees, and investors, and importantly made possible new medical products for patients and caregivers, greatly improving the standard of care. Though today’s grand progress provides novel therapies to those in need, we still require the tools of neo-classical chemical biology—structure-based design, combinatorial synthesis, and high-throughput screening—along with the old-fashioned, laborious, one-drug-at-a-time art of science circa 1990. Biologics have made big headway into medical practice, saving countless lives and contributing greatly to industry profits, but small-molecule drugs still dominate scrips. Sadly, diminishing numbers of students will work the long, hard hours essential to mastering chemistry or pharmacology. Too many seek quick wins. For some it is about money. For others it is about achievement, adventure, and intellectual challenge. Finally, and most importantly, it is about helping others. Nothing feels better than “doing well by doing good.” Brilliant, dedicated scientists, please, make good health and longevity the norm. Pity the societies that don’t get this right!</t>
+          <t>This chapter examines the changing nature and patterns of East Asian practices on family support and reciprocity. It uses the housing dimension to explore the flow of support, but looks beyond the conventional nuclear family households to include three interrelated generations within families. It identifies changing strategies and practices of family relations to cope with the wider and rapid structural changes taking place in the region. It notes that the analysis of the empirical data is focused on a comparison of two dynamic cities in East Asia — Tokyo and Shanghai.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2069889664</t>
+          <t>https://openalex.org/W4385743484</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1046/j.1523-1747.2002.19634.x</t>
+          <t>https://doi.org/10.1016/j.procs.2023.08.074</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Eckert et al. (2002)</t>
+          <t>Dumitrache et al. (2023)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Keratinocyte Survival, Differentiation, and Death: Many Roads Lead to Mitogen-Activated Protein Kinase</t>
+          <t>Collaborative Decisions in Knowledge Management for Intelligent Cyber-Enterprises</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>The epidermis is a dynamic and continually renewing surface that provides and maintains a life-sustaining interface with the environment. The epidermal keratinocyte, the major cell type of the epidermis, undergoes a complex and carefully choreographed program of differentiation. This process requires a balance between keratinocyte proliferation, differentiation, and apoptosis. This overview will concentrate on cascades that regulate the balance between keratinocyte cell proliferation and survival, and apoptosis and cell differentiation, with a particular emphasis on the role of the mitogen-activated protein kinase cascades. A summary of the literature suggests that extracellular regulated kinases function to promote keratinocyte proliferation and survival, whereas p38 mitogen-activated protein kinase functions to promote differentiation and apoptosis. The epidermis is a dynamic and continually renewing surface that provides and maintains a life-sustaining interface with the environment. The epidermal keratinocyte, the major cell type of the epidermis, undergoes a complex and carefully choreographed program of differentiation. This process requires a balance between keratinocyte proliferation, differentiation, and apoptosis. This overview will concentrate on cascades that regulate the balance between keratinocyte cell proliferation and survival, and apoptosis and cell differentiation, with a particular emphasis on the role of the mitogen-activated protein kinase cascades. A summary of the literature suggests that extracellular regulated kinases function to promote keratinocyte proliferation and survival, whereas p38 mitogen-activated protein kinase functions to promote differentiation and apoptosis. In recent decades study of keratinocyte differentiation has yielded substantial new insights. Early efforts identified and cataloged many of the morphologic properties of keratinocytes. Progress was limited, however, by the lack of a suitable in vitro system for the study of keratinocyte differentiation. The 1970s heralded the arrival of various cell culture models that permitted keratinocytes to be grown in mass culture (Rheinwald and Green, 1975Rheinwald J.G. Green H. Serial cultivation of strains of human epidermal keratinocytes: the formation of keratinizing colonies from single cells.Cell. 1975; 6: 331-343Abstract Full Text PDF PubMed Scopus (3902) Google Scholar;Elgjo et al., 1976Elgjo K. Hennings H. Michael D. Yuspa S.H. Natural synchrony of newborn mouse epidermal cells in vitro.J Invest Dermatol. 1976; 66: 292-296Crossref PubMed Scopus (26) Google Scholar;Bettger et al., 1981Bettger W.J. Boyce S.T. Walthall B.J. Ham R.G. Rapid clonal growth and serial passage of human diploid fibroblasts in a lipid-enriched synthetic medium supplemented with epidermal growth factor, insulin, and dexamethasone.Proc Natl Acad Sci USA. 1981; 78: 5588-5592Crossref PubMed Scopus (105) Google Scholar;Boyce and Ham, 1983Boyce S.T. Ham R.G. Calcium-regulated differentiation of normal human epidermal keratinocytes in chemically defined clonal culture and serum-free serial culture.J Invest Dermatol. 1983; 81: 33s-40sCrossref PubMed Scopus (958) Google Scholar). This, in turn, accelerated progress in identifying major structural proteins that participate in formation of differentiated structures. The evolution of culture technology coupled with the revolution in gene analysis technologies led to the identification of a host of proteins that form differentiated structures in keratinocytes (Green, 1980Green H. The keratinocyte as differentiated cell type.The Harvey Lectures. 1980; 74: 101-139PubMed Google Scholar;Fuchs and Byrne, 1994Fuchs E. Byrne C. The epidermis: rising to the surface.Curr Opin Genet Dev. 1994; 4: 725-736Crossref PubMed Scopus (222) Google Scholar;Eckert et al., 1997Eckert R.L. Crish J.F. Robinson N.A. The epidermal keratinocyte as a model for the study of gene regulation and cell differentiation.Physiol Rev. 1997; 77: 397-424Crossref PubMed Scopus (343) Google Scholar). The ability to isolate the genes encoding these proteins subsequently identified DNA sequences that regulate gene expression. In recent years, the knowledge built during the 1970s and 1980s has led to a substantial interest in understanding how keratinocyte differentiation is regulated and in elucidating the signaling mechanisms that control gene expression. Keratinocytes begin as proliferation-competent basal layer cells that are characterized by expression of specific basal-cell-associated marker proteins. These cells, in turn, give rise to daughter cells that terminally differentiate. Cell differentiation results in the stacking of multiple keratinocyte layers above the basal zone, forming the spinous, granular, and cornified layers (Eckert et al., 1997Eckert R.L. Crish J.F. Robinson N.A. The epidermal keratinocyte as a model for the study of gene regulation and cell differentiation.Physiol Rev. 1997; 77: 397-424Crossref PubMed Scopus (343) Goo</t>
+          <t>The faster and faster IT integration of various categories of activities - from production to administration, passing through medicine, transport, education, government, etc. - led to important changes in terms of obtaining, storing and using data. On the other hand, the increasingly rapid accumulation of societal challenges has exerted immense pressure on the relatively nascent discipline of knowledge management, which is expected to help address increasingly complex issues, primarily related to decision-making aspects that necessitate the selection and transformation of data into information and knowledge. This article focuses on establishing a framework for developing a collaborative, dynamic, heterogeneous decision-making system that includes both human and cybernetic agents as well as digital twins. Such a system creates and sustains a knowledge management flow that is essential for making informed decisions, achieved by selectively collecting and appropriately transforming data into information.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W135984254</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3233/978-1-60750-073-5-55</t>
+          <t>https://openalex.org/W2377983395</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>D’Hollander &amp; Beyls (2009)</t>
+          <t>Defen (2014)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>High performance computing with FPGAs</t>
+          <t>Comprehensive assessment of regional PRED system based on new urbanization approach: a case study in Dalian</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Field-programmable gate arrays represent an army of logical units which can be organized in a highly parallel or pipelined fashion to implement an algorithm in hardware. The flexibility of this new medium creates new challenges to find the right processing paradigm which takes into account of the natural constraints of FPGAs: clock frequency, memory footprint and communication bandwidth. In this paper first use of FPGAs as a multiprocessor on a chip or its use as a highly functional coprocessor are compared, and the programming tools for hardware/software codesign are discussed. Next a number of techniques are presented to maximize the parallelism and optimize the data locality in nested loops. This includes unimodular transformations, data locality improving loop transformations and use of smart buffers. Finally, the use of these techniques on a number of examples is demonstrated._x000D_
-The results in the paper and in the literature show that, with the proper programming tool set, FPGAs can speedup computation kernels significantly with respect to traditional processors.</t>
+          <t>At present,China is in the process of rapid urbanization. The traditional urban development approach urgently needs to be transformed into a new urbanization model that is intelligent,green and low-carbon. Meanwhile,coordinated urban-rural development and regional integrative development have gained greater importance. In order to systematically assess the quality of China's urbanization under the new situation,the comprehensive assessment method of regional PRED system was proposed considering the complicated relationship between population,resources,environment and economic and social development(PRED),which are mutually stimulating but also restricting. This paper proposes the concept and characterization method of regional PRED carrying capacity. By learning from the Pressure-State-Response(PSR) model,the assessment index system of regional PRED on Carrying capacity-Pressure-State-Response was established. A comprehensive responsiveness and emergency response grade categorization method was proposed to assess regional PRED system by multi-objective planning and decision making. Using Dalian city as an example,this study empirically analyzes the above-mentioned concept,model,assessment index system and assessment method. The results show that during 2000-2012,PRED system of Dalian was in a state of overload,that regional population carrying capacity decreased from 3630 thousand to 2910 thousand persons. Compared with nationwide levels,the pressure of Dalian PRED system was relative low with a decreasing trend: the load index of regional PRED system dropped from 0.97 to 0.85. Comprehensive responsiveness of regional PRED in Dalian was above 0.6 and emergency response grade was GradeⅡ(orange) or Grade Ⅲ(yellow). The results indicate that because of resource scarcity and environmental degradation,the population carrying capacity of Dalian was gradually decreasing. Due to the continuous development of economy and social security,the pressure of urbanization in Dalian has been relieved. In the future,relevant government departments should seek to actively solve the problem of resources and environmental constraints of new urbanization,resolve the conflicts that hindered the sustainable development of economy and society,promote regional coordinated development through reasonably managing the urban size and resources allocation and practicing environmental protection,industrial transformation and livelihood security improvement. By comparing with similar studies and further discussion,the results of this paper are considered as reliable and conforming to the reality of Dalian in population,resources,environment and economic and social development. The concept of regional PRED carrying capacity and the assessment index system based on the carrying capacity PSR model and multi-objective decision-making method provide a new thought and method to quantitatively assess the quality of urbanization and regional sustainable development.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2110493470</t>
+          <t>https://openalex.org/W2006991786</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1176/appi.ajp.2008.08030398</t>
+          <t>https://doi.org/10.1021/jp0034325</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Campanella (2008)</t>
+          <t>Sayle &amp; Watson (2001)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>The Green Bike</t>
+          <t>The Atomistic Structures of MgO/SrTiO&lt;sub&gt;3&lt;/sub&gt;(001) and BaO/SrTiO&lt;sub&gt;3&lt;/sub&gt;(001) Using Simulated Amorphization and Recrystallization</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Back to table of contents Previous article Next article IntrospectionsFull AccessThe Green BikeKarla Campanella M.D., M.A.Karla Campanella M.D., M.A.Search for more papers by this authorPublished Online:1 Sep 2008https://doi.org/10.1176/appi.ajp.2008.08030398AboutSectionsPDF/EPUB ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InEmail I was in the middle of a hectic night on call in the ED. I had a long list of patients to see—all with suicidal ideation of one form or another.I begin evaluating the next patient. Stifling a yawn, I smoothly transition from HPI to ROS. How’s your sleep, appetite, energy? I am on a roll. Past Psychiatric History and Family History pass by like signposts on a late-night road trip. Turning the corner onto Social History, I am moments away from being able to check the patient off my list and that much closer to a few stolen moments of sleep.“Have you ever been abused?” With that question, the momentum is broken. The patient, an older African American female, gets a faraway look in her eyes.“Back then,” she finally says, “They could not get black teachers for the school in my neighborhood. So I had a white fourth grade teacher.” The patient reflected on how honored she felt that he singled her out and gave her special jobs to do. “I had never been shown attention from a white man before.” But then one day he took her into the broom closet and molested her.Mesmerized, I listened as the patient shared how more and more men from the neighborhood sexually abused her—shopkeepers, neighbors, cousins, brothers. When she challenged her brothers, they said, “That is just the way it is supposed to be.” The men would call to her from their houses as she walked down the street. “Hey, do you want a quarter?” The patient confided that she loved to swim and a day’s admission to the pool cost a quarter. “I swam every day.”Quietly, the patient told me how much she hated it. How she would constantly change her walking route to avoid the calling men. But still they would find her. She had no one to go to for help. Her family was poor, and her mother was always working. Her father was an alcoholic.But a neighbor lady seemed to know what was happening. One day, she gave the patient her daughter’s old green bike. Now the men would call, but the patient could pedal fast and get away. “Yes, I loved that green bike,” the patient smiled, “I took such good care of it.”Deeply touched, I gazed upon this former medical record number on a checklist and said, “You are a strong woman.” She looked at me and said, “That is the way with African American women. We have to be strong no matter what. We are just supposed to take whatever life gives us. We are not supposed to ask for help.”Silently, I thanked her for derailing my goal-directed history evaluation, and for taking me on a cross-cultural detour through the pain of poverty, racial tension, and sexual aggression. Her story of the power of a neighbor’s kindness in the midst of a neighborhood’s inhumanity touched my soul, and forever I will carry the image of that old green bike along with the determined little girl for whom it was a link to sanity.Address correspondence and reprint requests to Dr. Campanella, University of Pennsylvania Health System, 2nd Floor, 3535 Market St., Philadelphia, PA 19104; [email protected] (e-mail). Introspection accepted for publication April 2008 (doi: 10.1176/appi.ajp.2008.08030398). FiguresReferencesCited byDetailsCited ByNone Volume 165Issue 9 September, 2008Pages 1110-1110THE AMERICAN JOURNAL OF PSYCHIATRY September 2008 Volume 165 Number 9 Metrics PDF download History Published online 1 September 2008 Published in print 1 September 2008</t>
+          <t>Large-scale atomistic simulations of oxide interfaces have been performed where the thin film is forced to undergo a controlled amorphous transition prior to recrystallizing. The MO/SrTiO3(001) (M = Ba or Mg) systems explored using this simulation technique demonstrate markedly different structural characteristics owing to the difference in lattice parameter associated with each system. In particular regions of SrTiO3(001) (TiO2 terminated) supported MgO undergo a transformation into a pseudohexagonal type structure, reducing the lattice misfit from +7.4% to ca. −0.5 to −4%, whereas the +34% lattice misfit associated with the BaO/SrTiO3 system is reduced to −0.3% via a 45° rotation of the BaO with respect to the underlying SrTiO3. Moreover, the plane exposed by the SrTiO3(001) support (either SrO or TiO2) exacts a critical influence on the structure of the thin film. In particular, BaO, when supported on a TiO2 terminated SrTiO3, comprises a high concentration of dislocations. Conversely, for the analogous SrO terminated system no dislocations are present within the thin film.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2058832548</t>
+          <t>https://openalex.org/W3044894984</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/pdi.544</t>
+          <t>https://doi.org/10.1007/978-3-030-47001-2_17</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wroe (2003)</t>
+          <t>Pérez-Soba (2020)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>‘Three years is not a long time in which there can be substantial changes’</t>
+          <t>The Salvation of Desire: Saint Augustine’s Perspective</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>In an interview with Practical Diabetes International, the incoming President of the International Diabetes Federation (IDF) and Emeritus Professor of Medicine at the University of Liege, Pierre Lefèbvre, discusses the challenges which lie ahead. I have been working for the IDF for a long time. I had two terms as Vice President and, over the last three years as President-Elect, I have been working very closely and have had a very good relationship with Sir George Alberti, the outgoing President. This kind of relationship is very important in order to ensure a smooth transition. As I take over as President, I have been asked to make a few comments as to how I see the world of diabetes developing over the next three years. At the moment the situation is far from optimistic and three years is not a long time in which there can be substantial changes. There are already so many people in the world with diabetes and, as we know, the numbers are going to increase at a fast rate. Furthermore, as has been reported at this year's IDF Congress, there are a similar number of people with impaired glucose tolerance, many of whom will go on to become diabetic – and the number of these also is likely to increase. Worldwide, many of those in these two groups are already poorly treated or cannot afford their treatment and I am seriously concerned that, as their numbers increase at a much faster rate than money becomes available, they may well have even poorer prospects of treatment in the coming years. However, in many respects, the forthcoming challenges for type 1 and type 2 people with diabetes differ and thus the ways in which we will try to meet these challenges will differ also. For type 1, we have to find out what is inducing the condition. We know that for most people it is autoimmune – the destruction of the beta-cells. However, whilst we know some of the mechanisms involved, we do not know what is the trigger that starts the process. We know that there are genes involved and that the condition starts years before it becomes apparent. What I would hope to see is some method of identifying those at risk and then the implementation of preventive measures. However, so far most of the preventive measures have failed. Perhaps one hope lies in the identification of an effective vaccination? Certainly transplantation techniques are making progress and may offer some hope. In the developed world, the incidence of type 2 diabetes has grown during the last 25 years of prosperity and this has beeen exacerbated by the rise of the food and automobile industries. Worldwide, increasingly sedentary lifestyles (both in terms of the kind of lives we live now but also in the way we are bringing up our young to spend most of their time looking at computers instead of playing outside sports) are contributing to the growth in the incidence of type 2 diabetes. One of the problems is going to be getting people to modify their behaviour. When you have middle-aged people who have done no exercise and who are obese, it is extremely difficult to get them to change their habits and lifestyles. With such people we may have to consider surgery or the use of drugs which, to date, are far from perfect. There will undoubtedly be new drugs but these are likely to be extremely expensive and thus unavailable to many people. Therefore, I think we have to start with the younger generation and we have to influence their parents, their schools and their teachers. But this is going to be an extremely long process and we are only at the beginning of trying to do something about it. The IDF can only do so much. We can identify the problems and provide some of the educational tools. However, the implementation is outside our hands. This has to be done locally and it varies from country to country and upon the local associations. Finally – and this will be particularly appropriate to readers of Practical Diabetes International – I would stress the importance of health care teams in helping to educate patients, parents and the public. Doctors alone are unable to cope with the increased numbers and health care teams are going to play increasingly crucial roles not only in education but also in the management and implementation of lifestyle changes. Interview by Charles D Wroe, medical correspondent</t>
+          <t>Saint Augustine makes desire the axis for his understanding of human life. On it, he establishes the relationship with God as its origin and end, through the creation and necessity of the encounter with Christ. In this way, he establishes the via interioritatis as a reference to the truth of desire, which must find in original love both the point of departure for and the response to the problem of evil. He integrates the ontological principle of existence with the affective principle of transformation in the beloved. At this point, we can see an important evolution from the initial principle of uti and frui in an integration of the value of personal alterity into this movement, which opens it up to the experience of friendship as a necessary light in human life. The conception of desire is essentially dynamic, and in it is where we see the relationship it establishes between the bodily senses and the light of intelligence. Desire lives internally in deep paradox; it rests only in the end that cannot reach by itself what we must understand as the “Salvation of desire.” In this sense, Saint Augustine takes an affective and operative vision of grace. Thus, the relationship between the gift and the beatitudes will be the ultimate truth of desire, capable of reaching the happiness promised by God.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2066296828</t>
+          <t>https://openalex.org/W3129636132</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1207/s15544818ped0101_2</t>
+          <t>https://doi.org/10.1007/978-3-030-63864-1_8</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Kalantzis (2006)</t>
+          <t>Raeder (2021)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Changing Subjectivities, New Learning</t>
+          <t>Psychological Contracts in the Era of HRM 4.0</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>In this article I argue that today's social transformations are of such depth and significance that they demand a fundamental rethinking of the nature of pedagogy. I address 3 closely interwoven facets of change: the nature of subjectivity, where as citizens, workers, and cultural beings, we are more and more required to be users and players rather than spectators or delegates; the growing intensity and significance of lifeworld diversity in which the local is more multifarious and the global more proximate; and the changing means of production of meaning where the semantic web is increasingly ubiquitous and its meanings multimodal. The response of a New Learning must be multifaceted and holistic. More than reactive, the New Learning must be creative, itself an agent of change rather than merely reflective of change. The transformations wrought by the New Learning must be systemic, rhetorical, and evident in the everyday practices of teaching and learning. In the article I highlight just one of a number of possible pathways, and that is the shift from a psychological/cognitivist view of learning to an epistemological one.</t>
+          <t>Digitalisation of production is expected to intensify an ongoing transformation of the psychological contract. This chapter analyses how digital practices of human resource management (HRM 4.0) affect psychological contracts. To perform this analysis, two attributes of HRM 4.0 (standardisation and reduced social interaction) and two demands on HRM 4.0 (transparency and trust) were derived. In the absence of empirical research, effects of the attributes and demands on relational psychological contracts were suggested. Attributes and demands were assessed for many different HRM practices (e.g. selection, training, performance management), and consequences for relational psychological contracts were derived. The analysis shows that large portions of HRM 4.0, except for the practices of autonomy and communication, challenge the development of a relational psychological contract. Organisations are thus advised to establish opportunities for social interaction around HRM issues when introducing HRM 4.0 to ensure trust and transparency and to strengthen the role of the supervisor as an organisational contract partner.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2790881213</t>
+          <t>https://openalex.org/W2574398961</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7889/hct.6.8</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Noe et al. (2011)</t>
+          <t>Kako (2017)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Emergence of giant superfluorescent pulses from semiconductor quantum wells in a strong magnetic field</t>
+          <t>Clinical trials of combining the data from the Japan Society for Hematopoietic cell transplantation (JSHCT) and the Japan Adult Leukemia Study Group (JALSG)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Currently, considerable resurgent interest exists in the concept of superradiance (SR), i.e., accelerated relaxation of excited dipoles due to cooperative spontaneous emission, first proposed by Dicke in 1954. Recent authors have discussed SR in diverse contexts, including cavity quantum electrodynamics, quantum phase transitions, and plasmonics. At the heart of these various experiments lies the coherent coupling of constituent particles to each other via their radiation field that cooperatively governs the dynamics of the whole system. In the most exciting form of SR, called superfluorescence (SF), macroscopic coherence spontaneously builds up out of an initially incoherent ensemble of excited dipoles and then decays abruptly. Here, we demonstrate the emergence of this photon-mediated, cooperative, many-body state in a very unlikely system: an ultradense electron-hole plasma in a semiconductor. We observe intense, delayed pulses, or bursts, of coherent radiation from highly photo-excited semiconductor quantum wells with a concomitant sudden decrease in population from total inversion to zero. Unlike previously reported SF in atomic and molecular systems that occur on nanosecond time scales, these intense SF bursts have picosecond pulse-widths and are delayed in time by tens of picoseconds with respect to the excitation pulse. They appear only at sufficiently high excitation powers and magnetic fields and sufficiently low temperatures - where various interactions causing decoherence are suppressed. We present theoretical simulations based on the relaxation and recombination dynamics of ultrahigh-density electron-hole pairs in a quantizing magnetic field, which successfully capture the salient features of the experimental observations.</t>
+          <t>The execution of a prospective trial involving the random assignment of adult patients with acute lymphoblastic leukemia (ALL) in first remission who have a human leukocyte antigen (HLA) -matched related donor into 1 of the 2 groups, those undergoing hematopoietic stem cell transplantation (HSCT) or those treated with chemotherapy alone, is difficult in terms of practicality. Therefore, we performed a decision analysis to establish the optimal post-remission treatment in such patients. Transition probabilities after continuing chemotherapy in the first remission period, and after treatment with HSCT in patients with various disease statuses, were established according to the results of Japan Adult Leukemia Study Group (JALSG) prospective studies, and data from the Transplant Registry Unified Management Program (TRUMP) of Japan Society for Hematopoietic cell transplantation (JSHCT), respectively. As a result, the decision to perform HSCT in the first remission period, as opposed to continuing treatment with chemotherapy in this period, is recommended for adult patients with ALL who have an HLA-matched related donor. In addition, we were able to demonstrate efficacy when combining the large amount of clinical data regarding chemotherapy and HSCT. Further improvement in two large nationwide data obtained from results of JALSG studies regarding chemotherapy and from TRUMP of JSHCT regarding HSCT is anticipated, and the direct association between these 2 large data will generate important results with respect to treatment strategies for hematological diseases in Japan.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3109180265</t>
+          <t>https://openalex.org/W2012782408</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31355/58</t>
+          <t>https://doi.org/10.1037/0003-066x.48.8.878</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Saadé (2020)</t>
+          <t>Sperry (1993)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Digital Innovation &amp;amp; Transformation Opportunities for Researchers &amp;amp; Practitioners – A Structured Literature Review &amp;amp; Proposed Model</t>
+          <t>The impact and promise of the cognitive revolution.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Aim/Purpose Although the latest review on digital innovation was made in 2018 (included articles up to 2017), the purpose of this study is to explore and examine opportunities for research in digital innovation and transformation for both researchers (including graduate students) and practitioners. A conceptual model is proposed. Background Digital innovation is omnipresent today, as it has penetrated deep into the structure and psyche of individuals, communities, organizations, institutions and governments. We find ourselves in a quagmire of opportunities risks and uncertainties, where ubiquitous technological interconnectedness form a new paradigm enabling industry to innovate and grow. All humanity is faced with these disruptive digital pressures. Yet, relatively there is little research done. Unfortunately, a coordinated effort for such a seriously important phenome-non does not exist. Methodology A structured literature review approach was conducted, the results of which were used for a qualitative approach, using nVivo, to extract insights and understanding. Findings This study identifies the extent of research done in the different areas of digital innovation and transformation and puts the results into perspective. Scholarly research is scarce, dispersed and diverse, lacking any direction or cohesion. Research on transformation is more than innovation and in both cases those that study their relationships with human or society are a handful. A conceptual model is proposed by integrating knowledge gained from the literature, the integral theory and the concept of impact assessment. Impact on Society This study shows that the integration of human agency digital innovation research and practice is primary. Researchers and practitioners can use the conceptual model to help them expand and extend their work.</t>
+          <t>Opening a new era in science, psychology's cognitive revolution contradicts traditional doctrine that science has no use for consciousness to explain brain function. Subjective mental states as emergent interactive properties of brain activity become irreducible and indispensable for explaining conscious behavior and its evolution and get primacy in determining what a person is and does. Dualistic unembodied consciousness is excluded. A modified two-way model ofinterlevel causal determinism introduces new principles of downward holistic and subjective causation. Growing adoption in other disciplines suggests the two-way model may be replacing reductive physicalism as the basic explanatory paradigm of science. The practice, methods, and many proven potentials of science are little changed. However, the scientific worldview becomes radically revised in a new unifying vision of ourselves and the world with wide-ranging humanistic and ideologic as well as scientific implications.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4393345454</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/ser/mwae018</t>
+          <t>https://openalex.org/W2940508642</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Kalanta (2024)</t>
+          <t>Hulsen et al. (2018)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Growth model change in emerging economies: sectorial loci of growth and politics</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Abstract The article contributes to an ongoing debate in comparative political economy on the integration of the demand and supply sides in growth model (GM) analysis. In particular, the article focuses on the characteristics of export-led GMs in emerging economies and addresses questions of GM change. The article makes two contributions. First, for capturing differences between countries that adopt export-led growth, the article introduces the concept of a sectoral locus of growth. Second, the article links GM change to the interaction of politics and sectoral transformations that a country accumulated during the preceding GM. The article presents empirical support for its arguments from the cases of Estonia and Lithuania, which both recovered from the Global Financial Crisis by shifting from debt-led to export-led growth based, however, on different sectoral loci of growth: exports of low-quality manufacturing and services in Lithuania and exports of dynamic services in Estonia.</t>
+          <t>Making sense of sensors in transition cow care</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W254866690</t>
+          <t>https://openalex.org/W1940186159</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Hsieh &amp; Gutiérrez (1998)</t>
+          <t>Bachev (2010)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Miscibility studies of coextruded polycarbonate/polymethyl methacrylate composites. Final report, October 1996--September 1997</t>
+          <t>Study on Agrarian Contracts in Bulgaria</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Miscibility and molecular relaxation measurements have been carried out using dynamic mechanical analysis (DMA) on the coextruded polycarbonate (PC) /polymethyl methacrylate (PMMA) multilayers with various compositions. Three distinct transitions are observed; two of these are corresponding to the glass transition of the PC-rich phase and PMMA-rich phase. The glass transition temperatures, T(g), of both phases shift slightly toward each other, compared to the T(g) of pure PC and pure PMMA, indicating limited miscibility. A third relaxation, which was not observed with differential scanning calorimetry (DSC), is present at a temperature between the T(g) of PC-rich and PMMA-rich phases. The transition temperature of this intermediate relaxation increases as the PC composition increases, and it also shifts to a higher temperature with an increase in the molecular weight of PMMA. The origin of the intermediate transition is attributed to the molecular relaxation response of an interphase resulted from interdiffusion between the PC and PMMA. In addition, this intermediate relaxation is more sensitive to the change in frequency compared to the response of glass transition of either pure component. As a result, the apparent activation energy values determined for the corresponding third relaxation are consistently smaller than those measured for the glass transitionmore » of pure PC and pure PMMA. The former values, however, remain relatively constant with respect to the variation in composition and molecular weight for all the PC/PMMA multilayers.« less</t>
+          <t>This paper suggests a holistic framework for analysis of agrarian contracts and investigates the contractual structure in transitional Bulgarian agriculture. Firstly, it incorporates the interdisciplinary New Institutional and Transaction Costs Economics (combining Economics, Organization, Law, Sociology, Behavioral and Political Sciences) and describes major mechanisms of governance of agrarian activity – institutional environment, market competition, private, collective and public order; and defines features of agrarian sale-purchase, lease, employment, service, loan, insurance and coalition contracts; and identifies technological, institutional, behavioral, dimensional, and transaction costs factors for contractual choice and specifies effective modes for contractual arrangements in agriculture; and determines the effective boundaries and sustainability of farm and agrarian organizations. Secondly, it analyzes the post-communist institutional and organizational modernization of Bulgarian agriculture, and assesses the efficiency of various modes for governing of land supply, and labor supply, and service supply, and inputs supply, and finance supply, and insurance supply, and marketing of output in different type of farms.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2333727462</t>
+          <t>https://openalex.org/W2028374171</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/00005176-200406001-01296</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Layton (2015)</t>
+          <t>Mičetić‐Turk et al. (2004)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Scrum For Dummies</t>
+          <t>P1172 NUTRITIONAL STATUS IN HOSPITALISED PAEDIATRIC PATIENTS IN NORTH-EAST SLOVENIA DURING A 12 YEAR PERIOD (1989???2001)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Practice an agile form of management to stop wasting time and money Scrum For Dummies is an easy to use guide to managing the tricky transition from a traditional project management methodology to the new and most popular agile framework. As the most efficient, successful methodology for team project management, Scrum relies on transparency, flexibility, and fluidity to deliver a final product that fulfills the needs of all stakeholders. Written in easy-to-read Dummies style, this book walks you through the core principles of Scrum and provides a roadmap for tangible implementation. The vast majority of projects go over budget, and billions of dollars are wasted every year on overruns. Put a stop to this wasteful leakage by switching to a management style that keeps all participants informed, up-to-date, and accountable. Authored by a Certified Scrum Trainer, Mark Layton, Scrum For Dummies covers the key ideas and processes behind Scrum methodologies, and presents the inner workings of the plan in an engaging and accessible format. Topics include: * The Scrum values, roles, artifacts, and activities that make up the principle of this methodology * When and how best to use Scrum * The differences between Scrum and other agile methodologies * Using Scrum for IT, finance, construction, health care, and more The book also delves into the everyday use of Scrum, and how it can help you achieve your own personal goals outside of work. There's a reason why scrum is quickly becoming the standard approach to project management it works! If you want to stop wasting time and start producing more effectively, Scrum For Dummies is the guide that will get you there.</t>
+          <t>Introduction: Accurate assessment of child’s nutritional status is an important medical, sociological, economic and public health element of paediatric care. Its goals are to determine if a child is or may imminently become malnourished, to ascertain the risk of nutrition related complications and to provide guidelines for short and long term therapy. Methods: The aim of our study was to determine the nutritional status of children hospitalised at the Paediatric Department, Maribor Teaching Hospital, NE Slovenia during the 12-year period (1989–2001), and to establish if the nutritional status was affected by the new social and economic situation. (In the year 1989 Slovenia was a part of the former socialistic Yugoslavia, and became an independent democratic republic in 1991). The study was retrospective. We analysed anthropometric, laboratory and clinical data for all in-patients (0–18 years of age) in a 1-day cross-sectional survey conducted on 1st December 1989 (109 patients), 1st December 1995 (100 patients) and 1st December 2001 (89 patients). All obtained data were statistically analysed. Results: Our results clearly show that the number of hospitalised children has been decreasing constantly. However, we observed a sharp increase in the number of patients hospitalised due to chronic diseases and disorders in respect to the acute illnesses. The analysis of anthropometric data shows that the proportion of normally nourished children in the period of the study has not changed significantly (70–77%), and that the prevalence of obesity in the studied population was much higher than the prevalence of malnourished children. Obese children (as determined by the weight: age ratio, weight: height ratio as well as height: age and BMI ratio) represented 18% of hospitalised population in each study year, whereas the proportion of mal-nourished children has increased from 7% in the year 1989 to 13% in the year 1995, and declined again to 5% in the year 2001. The analysis of available laboratory data (albumin, haemoglobin, lymphocytes, Ca, alkaline phosphatase) did not show any statistically significant differences (p&gt;0.05). Conclusion: We conclude, that the level of public health, as well as the quality of nutrition in the studied period (period of transition in Slovenia), remained as good as it was in the period when all social and public health opportunities were available to population as a whole, since we have not found any significant changes in the nutritional status of hospitalised children during this period.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3203786532</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.19181/1561-7785-2019-00014</t>
+          <t>https://openalex.org/W2743507272</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sharin &amp; Kulkova (2019)</t>
+          <t>Križaj (2017)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Impact of the older generation’s support on fertility in Russia</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>The problem of fertility remains urgent for the Russian society that negatively affects the demographic situation in the country. Fertility is influenced by many economic and social factors, including the support of senior parents. Scientists give ambiguous assessment of the role of this support. The article is aimed at analyzing the impact of family support on fertility. On the basis of the study of the role of senior parents as subjects of family support there are identified the factors influencing the character of support and reproductive attitudes of younger generations. The study used methods of system analysis, general scientific methods. It is concluded that against the background of the transition to the European model of the family, the emotional and material support of senior parents has not lost its relevance and remains one of the significant factors when making decisions about childbirth. Meanwhile, there is a transformation of the role of older generation, change in the dominant forms of support for child care and upbringing. In this aspect, the authors propose a typology of families with children under 14 by the degree of senior parents’ support for child care. In Russia, there has been an increase in the retirement age, which gives reason to consider the impact of this factor on the help of older parents. The paper presents a reasonable forecast of possible changes in the reproductive attitudes of young families due to the increase in the retirement age. The obtained results can be used to improve the state demographic policy, in the development of measures to raise the fertility.</t>
+          <t>AN EXPLORATION OF SLOVENIAN OLDER PEOPLE’S OCCUPATIONS AND THE INFLUENCE OF TRANSITION INTO A CARE HOME ON THEIR OCCUPATIONAL ENGAGEMENT</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4255517653</t>
+          <t>https://openalex.org/W2063126359</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31219/osf.io/s4fa6</t>
+          <t>https://doi.org/10.1037//0096-1523.10.5.683</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mamoor (2021)</t>
+          <t>Warren (1984)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Differential expression of ANK2 in cancer of the vulva.</t>
+          <t>Perceiving affordances: Visual guidance of stair climbing.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>In these brief notes we document work using published microarray data (1, 2) to pioneer integrative transcriptome analysis comparing vulvar carcinoma to its tissue of origin, the vulva. We report the differential expression of ankyrin 2, neuronal, encoded by ANK2, in cancer of the vulva. ANK2 may be of pertinence to understanding transformation and disease progression in vulvar cancer (3).</t>
+          <t>How do animals visually guide their activities in a cluttered environment? Gibson (1979) proposed that they perceive what environmental objects offer or afford for action. An analysis of affordances in terms of the dynamics of an animal-environment system is presented. Critical points, corresponding to phase transitions in behavior, and optimal points, corresponding to stable, preferred regions of minimum energy expenditure, emerge from variation in the animal-environment fit. It is hypothesized that these points are constants across physically similar systems and that they provide a natural basis for perceptual categories and preferences. In three experiments these hypotheses are examined for the activity of human stair climbing, by varying riser height with respect to leg length. The perceptual category boundary between "climbable" and "unclimbable" stairs is predicted by a biomechanical model, and visually preferred riser height is predicted from measurements of minimum energy expenditure during climbing. It is concluded that perception for the control of action reflects the underlying dynamics of the animal-environment system.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3044415895</t>
+          <t>https://openalex.org/W2103567464</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17116/stomat20209904157</t>
+          <t>https://doi.org/10.1177/1081286513504945</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Aa et al. (2020)</t>
+          <t>Balzani &amp; Schmidt (2013)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Regulatory framework of the new system of wage payment in research institutions</t>
+          <t>Comparative analysis of damage functions for soft tissues: Properties at damage initialization</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Changes in the legislation, the development of the regulatory and legal framework governing relations in the sphere of wage payment for health care workers has caused the transition of medical organizations to the new system of salaries payments (NSWP). This system has given executives and economists significant freedom when determining the size of payments to the employee per hour worked, including stimulating and compensation payments, bonuses and other regular pension benefits. However, given situation has also resulted in the need for studies intended on the formulation of the criteria's for medical workers of different specialties actions evaluation and the quality of medical services that they have provided, as well as on the efficiency of the health care organizations in general.Изменения в законодательстве, в частности, разработка нормативной правовой базы, регулирующей правоотношения в сфере оплаты труда медицинских работников, обусловили переход медицинских организаций и институтов на новую систему оплаты труда. Эта система предоставила руководителям и экономистам значительную свободу в определении размера выплат, причитающихся работнику за отработанное время, включая стимулирующие и компенсационные выплаты, премии, а также иные регулярные выплаты. Однако данная ситуация также привела к необходимости проведения исследований, направленных на разработку критериев оценки деятельности научных и медицинских работников различных специальностей и влияние этих критериев на качество оказанных медицинских услуг, а также на эффективность функционирования медицинских организаций и институтов в целом.</t>
+          <t>In this paper several damage equations are analysed with respect to their properties at damage initialization. This is particularly important for soft biological tissues since two different loading regimes have to be clearly distinguished: the physiological domain where no damage evolution should be considered and the supra-physiological domain where damage evolves. At the transition between these two domains the behaviour of different damage models may influence the convergence of the Newton iteration when solving, for example, nonlinear finite element problems. It is shown that the model proposed by Balzani et al. ( Comput Meth Appl Mech Eng 2012; 213–216: 139–151) a priori ensures smooth tangent moduli. In addition to that, a new damage function is proposed able to describe a slow damage evolution at damage initialization also providing smooth tangent moduli. Using this new damage function the approach given by Balzani et al. ( Acta Biomater 2006; 2(6): 609–618) can also be modified such that smooth tangent moduli are guaranteed. Numerical analyses of a circumferentially overstretched artery are performed and show that no convergence problems are observed at the transition from the undamaged to the damaged domain, even when a model is used that has non-smooth tangent moduli.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2925476429</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1353/cch.2019.0013</t>
+          <t>https://openalex.org/W2389796480</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Brannan (2019)</t>
+          <t>Guo-ti (2002)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>The Apocalypse of Settler Colonialism: The roots of slavery, White supremacy, and capitalism in seventeenth-century North America and the Caribbean by Gerald Horne</t>
+          <t>Reliability index analysis of stability of soil slopes</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Reviewed by: The Apocalypse of Settler Colonialism: The roots of slavery, White supremacy, and capitalism in seventeenth-century North America and the Caribbean by Gerald Horne Laura Brannan The Apocalypse of Settler Colonialism: The roots of slavery, White supremacy, and capitalism in seventeenth-century North America and the Caribbean By Gerald Horne. New York: Monthly Review Press. 2018. In The Apocalypse of Settler Colonialism, Gerald Horne weaves together a century of events and processes to demonstrate the depth to which colonial systems of slavery and settler colonialism, which significantly accelerated in the seventeenth century, influenced the foundation of the United States. In his introduction, Horne states he is attempting to persuade readers that "any explanation [of how the US is a global dominant power] that elides slavery, colonialism, and the shards of an emerging capitalism… is deficient in explanatory power" (7). He successfully accomplishes this argument through framing the rise of slavery and its direct connection to capitalism through cross-class alliances, which congealed pan-Europeanism and the dominative identity of whiteness that has endured to the present day. These events, atop land that was violently seized from groups indigenous to North America and built upon the backs of people enslaved in the Caribbean and the mainland, were all veiled under the quest for democracy and religious freedom, which fundamentally set the stage for the revolution of 1776. Organizing The Apocalypse chronologically is a logical choice, as Horne is a historian and is synthesizing archival documents, primary sources and a whole host of scholars' analysis on subjects pertaining to the history of slavery in the Caribbean and the mainland of what is the modern-day US. These sources were integral to viewing his object of study and were utilized to bolster his claim that it is inadequate to consider the US as a self-made world power without grasping the historical events of slavery, capitalism and White supremacy in the seventeenth century. However, employing an extensive scope of sources to serve as supporting evidence results in quite a detail-driven narrative. Encompassing the wide breadth of multiple European empires and multifaceted processes like slavery and settler colonialism over the course of a century in less than two hundred pages is an ambitious task that might overwhelm introductory students. But these details help Horne succeed in both relaying these events and explicitly offering opportunity to apply these histories to the current US landscape; thus, the meticulous details throughout the book should not overshadow what this monograph achieves. In fact, Horne integrates his themes of how "enslaving colonialism forged 'whiteness'" (22) and how this process increased early migration to the US quite clearly throughout the nine chapters of The Apocalypse. The study of whiteness has captured the attention of scholars since W.E.B. Du Bois, but Horne provides a fresh analysis as he contextualizes whiteness as an emerging pan-Europeanism that resulted from intensified African labor during the seventeenth century. Throughout each chapter, Horne integrates this sub-theme of how the political identity of whiteness formed through the colonizing events of those in power—European nations—pawning off, placing and implementing differently marked bodies to different locations and for different labor for the profits of capitalism. Horne intertwines slavery, capitalism and White supremacy most clearly in Chapters Four, Five and Six. These chapters outline pivotal moments on the world stage and events thereafter that altered the construction of the US—the disintegration of both the Spanish and Dutch empires and the formation of the Royal African Company. Horne effectively weaves together how these events contributed to the rise of England's imperial dominance and the tightening of their grasp on slavery. Factors in conjunction with one another like London's stake in the Royal African Company, rising capitalist demands for increased labor, the sugar boom and intensified fear of additional slave revolts caused more enslaved Africans to be forced into labor, inversely decreasing poor indentured European labor. This all began to constitute the soon to be pervasive identity politics of whiteness cemented into the foundation of the US. While the project of deconstructing American exceptionalism has been undertaken before by scholars in fields such as African American studies, Slavery studies, American...</t>
+          <t>Some integration formulae which are suitable to analyzing the homogeneous soil slope are put forward, a practical optimal method is used for calculating the reliability index, and some regularity in the reliability analysis of stability of soil slopes is discussed. The formula of reliability index is calculated in the origin space directly, so derivation and orthogonal transformation are avoided. In comparison with the limit equilibrium analysis in which the searching of critical slip arc is needed, using the optimal method to obtain the reliability index has notable advantages. The Microsoft Excel's Solver is used for calculating the safety factor and the reliability index.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1496498685</t>
+          <t>https://openalex.org/W820127183</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/isaf.1992.300658</t>
+          <t>https://doi.org/10.1016/j.dsr2.2015.06.019</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Roseman et al. (2003)</t>
+          <t>Doyle &amp; Mier (2016)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PTC behavior in yttria doped BaTiO/sub 3/ as related to grain boundary structure</t>
+          <t>Early life history pelagic exposure profiles of selected commercially important fish species in the Gulf of Alaska</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Lattice structure and phase distribution along the grain boundaries in Y/sub 2/O/sub 3/-doped BaTiO/sub 3/, with Zr/sup 4+/ as a counterdopant were investigated with respect to their impact on PTC (positive-temperature-coefficient) behavior. This doping, related to A and B-site occupancy, creates ionic defect states which segregate during annealing to different morphological regions along the grain boundaries, identified as nondomain and domain regions. TEM (transmission electron microscope) high-resolution imaging, and HOLZ pattern and EDS (electron diffraction spectroscopy) analysis of these regions showed differences in composition, lattice parameters, and lattice plane coherency across the grain boundaries. Optimum doping in light of these structural changes resulted in lower resistivity and enhanced PTC effects, the stress release being the driving force for sharp PCT transitions.&lt; &lt;ETX xmlns:mml="http://www.w3.org/1998/Math/MathML" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;&amp;gt;&lt;/ETX&gt;</t>
+          <t>A synthesis of nearly four decades of ichthyoplankton survey data from the Gulf of Alaska was undertaken to provide the most comprehensive information available on the early life history ecology of five focal species: Pacific Cod (Gadus macrocephalus), Walleye Pollock (Gadus chalcogrammus), Pacific Ocean Perch (Sebastes alutus), Sablefish (Anoplopoma fimbria), and Arrowtooth Flounder (Atheresthes stomias). This analysis of historical data, along with information from published studies, is presented here in the form of ecological reviews of the species during their planktonic phase. The reviews include descriptions of temporal and spatial patterns of exposure to the environment, and interpretation regarding associated sensitivities to environmental forcing. On a temporal scale, patterns in abundance of eggs and larvae are synthesized that characterize seasonal exposure to the pelagic environment, and interannual variation that is presumed to incorporate responses to long-term environmental forcing. Spatial patterns are synthesized to identify horizontal and vertical extent of egg and larval distributions, delineate areas of primary larval habitat, and illuminate egg and larval drift pathways. The observed patterns are discussed with respect to characterizing species early life history strategies, identifying long-term adaptations to the Gulf of Alaska environment, and associated resilience and vulnerability factors that may modulate early life responses to environmental forcing in this region. For each species, gaps in knowledge are identified and are concerned primarily with the period of transition between the larval and juvenile stage, and feeding habits and ecology across seasons, habitats and sub-intervals of early ontogeny. These early life history reviews advance our ecological understanding of the pelagic phase, and fine-tune our focus for the investigation of potential response mechanisms to environmental forcing at appropriate, species-specific temporal and spatial scales.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2772891606</t>
+          <t>https://openalex.org/W2027195522</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4102/satnt.v28i4.73</t>
+          <t>https://doi.org/10.1074/jbc.m510369200</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Walt (2009)</t>
+          <t>Dash et al. (2006)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Study orientation and knowledge of basic vocabulary in Mathematics in the primary school</t>
+          <t>Examining Ty3 Polypurine Tract Structure and Function by Nucleoside Analog Interference</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Whatever the reason, underachievement in mathematics in South Africa is endemic and tantamount to a national disaster. Despite the transformation of education in South Africa, failure rates in mathematics at school and university remain unacceptably high, and the number of learners who leave Grade 12 with a pass mark in both mathematics and physical science is unacceptably low. Relatively little has been written about inadequate performance of Grade 4 to 7 learners in mathematics in South Africa, and even less about possible solutions to the problem. South African primary school learners’ lack of basic mathematics and vocabulary skills in particular is a source of major concern. In the ﬁrst national systemic evaluation of learners’ skills in English, mathematics and science in 2001 Grade 3 learners achieved an average of 30% in mathematics. In the follow-up studies, Grade 6 learners achieved a national average of 27% in mathematices, in 2004, while nationally eighty percent of Grade 3 and 6 learners achieved less than 50 percent for mathematics and Languages in 2008. The ﬁnding that so many primary school learners today are not numerate or literate has a direct inﬂuence both on the teaching and the learning of mathematics. Everything possible needs to be done to change this situation. During the past 15 years, the research focus in mathematics has shifted to an examination of the inﬂuence of social, cognitive and metacognitive, conative and affective factors on achievement in mathematics. In this regard, it is of particular importance that an ongoing investigation into “other” aspects that impact on achievement in mathematics is launched, rather than to restrict the investigation to mere assessment of objectives that are aimed at continually evaluating cognitive progress in mathematics. There is sufﬁcient empirical evidence that an adequate orientation to the study of mathematics correlates positively with high achievement in mathematics on secondary and tertiary levels. The aim of this research was to investigate the extent to which the performance in study orientation (Study Orientation questionnaire in Mathematics (Primary)) and knowledge of basic vocabulary/terminology in mathematics (Mathematics Vocabulary (Primary)) (vocabulary as one aspect of language in Mathematics) of Grade 4 to 7 learners predict performance in mathematics (Basic Mathematics (Primary)). Three standardised questionnaires were administered, namely the Study Orientation questionnaire in Mathematics (Primary), or SOM(P), Mathematics Vocabulary (Primary) or (MV(P), and Basic Mathematics (Primary) or BM(P). The participants consisted of learners in Grade 4 to 7 (n = 1 103) in North-West Province with respectively Afrikaans, English and Tswana as their home language. Results from the data, by calculating intercorrelations and stepwise regression, conﬁrmed that learners’ performance in mathematics (BM(P)) can be predicted through their performance in the knowledge of basic vocabulary in mathematics (MV(P)), their “maths” anxiety, study attitude towards and study habits in mathematics (SOM(P)). The results can be implemented to improve learners’ performance in mathematics when teachers identify inadequate knowledge of basic vocabulary in mathematics as well as study orientation (for example, “maths” anxiety, study attitude towards and study habits in mathematics) in the early years of schooling. Learners’ scores can be checked to identify those requiring aid, support, remediation and/or counselling. An analysis of individual answers (particularly those where learner’s replies differ signiﬁcantly in respect of the answers usually given by good achievers in mathematics) could be extremely useful. Enculturing learners to the vocabulary of mathematical language is an aspect of instruction that needs speciﬁc attention. The three questionnaires, which are administered in this research, provide mathematics teachers with standardised tools with which to make a simple systematic analysis of a number of important background particulars, feelings, attitudes, habits and customs with regard to the learner’s academic orientation in mathematics, as well as to their knowledge of basic vocabulary in mathematics that could be remedied when inadequate.</t>
+          <t>We have combined nucleoside analog interference with chemical footprinting, thermal denaturation, NMR spectroscopy, and biochemical studies to understand recognition of the polypurine tract (PPT) primer of the Saccharomyces cerevisiae long terminal repeat-containing retrotransposon Ty3 by its cognate reverse transcriptase. Locked nucleic acid analogs, which constrain sugar ring geometry, were introduced pairwise throughout the PPT (-)-DNA template, whereas abasic tetrahydrofuran linkages, which lack the nucleobase but preserve the sugar phosphate backbone, were introduced throughout the (-)-strand DNA template and (+)-strand RNA primer. Collectively, our data suggest that both the 5′- and 3′-portions of the PPT-containing RNA/DNA hybrid are sensitive to nucleoside analog substitution, whereas the intervening region can be modified without altering cleavage specificity. These two regions most likely correspond to portions of the PPT that make close contact with the Ty3 reverse transcriptase thumb subdomain and RNase H catalytic center, respectively. Achieving a similar phenotype with nucleoside analogs that have different effects on duplex geometry reveals structural features that are important mediators of Ty3 PPT recognition. Finally, the results from introducing tetrahydrofuran lesions around the scissile PPT/unique 3′-sequence junction indicate that template nucleobase -1 is dispensable for catalysis, whereas a primer nucleobase on either side of the junction is necessary. We have combined nucleoside analog interference with chemical footprinting, thermal denaturation, NMR spectroscopy, and biochemical studies to understand recognition of the polypurine tract (PPT) primer of the Saccharomyces cerevisiae long terminal repeat-containing retrotransposon Ty3 by its cognate reverse transcriptase. Locked nucleic acid analogs, which constrain sugar ring geometry, were introduced pairwise throughout the PPT (-)-DNA template, whereas abasic tetrahydrofuran linkages, which lack the nucleobase but preserve the sugar phosphate backbone, were introduced throughout the (-)-strand DNA template and (+)-strand RNA primer. Collectively, our data suggest that both the 5′- and 3′-portions of the PPT-containing RNA/DNA hybrid are sensitive to nucleoside analog substitution, whereas the intervening region can be modified without altering cleavage specificity. These two regions most likely correspond to portions of the PPT that make close contact with the Ty3 reverse transcriptase thumb subdomain and RNase H catalytic center, respectively. Achieving a similar phenotype with nucleoside analogs that have different effects on duplex geometry reveals structural features that are important mediators of Ty3 PPT recognition. Finally, the results from introducing tetrahydrofuran lesions around the scissile PPT/unique 3′-sequence junction indicate that template nucleobase -1 is dispensable for catalysis, whereas a primer nucleobase on either side of the junction is necessary. Although reverse transcription in long terminal repeat (LTR) 3The abbreviations used are: LTR, long terminal repeat; PPT, polypurine tract; RTs, reverse transcriptases; U3, unique 3′-sequence; HIV-1, human immunodeficiency virus type 1; LNA, locked nucleic acid; H4folate, tetrahydrofuran; RAb, abasic riboside; DAb, abasic deoxyriboside; Tm, melting temperature; DQF, double quantum filtered. -containing retrotransposons of Saccharomyces cerevisiae (Ty1 and Ty3) and Saccharomyces paradoxus (Ty5) can be likened to that in retroviruses, notable differences have recently been documented. These include (a) initiation of (-)-strand DNA synthesis from an internal site of the host-coded tRNA primer as opposed to its 3′ terminus (1Ke N. Gao X. Keeney J.B. Boeke J.D. Voytas D.F. RNA (N. Y.). 1999; 5: 929-938Crossref PubMed Scopus (27) Google Scholar), (b) initiation of (-)-strand DNA synthesis via self-priming (2Levin H.L. Mol. Cell. Biol. 1995; 15: 3310-3317Crossref PubMed Scopus (82) Google Scholar), (c) use of a bipartite primer-binding site derived from each end of the viral RNA genome to initiate (-)-strand DNA synthesis (3Gabus C. Ficheux D. Rau M. Keith G. Sandmeyer S. Darlix J.L. EMBO J. 1998; 17: 4873-4880Crossref PubMed Scopus (60) Google Scholar), and (d) divergence in size and sequence of the (+)-strand polypurine tract (PPT) primers (see Fig. 1) (4Heyman T. Agoutin B. Friant S. Wilhelm F.X. Wilhelm M.L. J. Mol. Biol. 1995; 253: 291-303Crossref PubMed Scopus (48) Google Scholar, 5Wilhelm M. Heyman T. Boutabout M. Wilhelm F.X. Nucleic Acids Res. 1999; 27: 4547-4552Crossref PubMed Scopus (20) Google Scholar). A detailed biochemical study of these processes has been hampered by the lack of purified LTR-containing retrotransposon reverse transcriptases (RTs). However, the availability of active recombinant Ty1 and Ty3 enzymes (6Wilhelm M. Boutabout M. Wilhelm F.X. Biochem. J. 2000; 348: 337-342Crossref PubMed Scopus (39) Google Scholar, 7Rausch J.W. Grice M.K. Henrie</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3113120568</t>
+          <t>https://openalex.org/W2937433661</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/acm.0000000000003868</t>
+          <t>https://doi.org/10.1016/j.lwt.2019.04.016</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Huppert et al. (2020)</t>
+          <t>Kowalski et al. (2019)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Virtual Interviews at Graduate Medical Education Training Programs: Determining Evidence-Based Best Practices</t>
+          <t>The effect of an addition of marjoram oil on stabilization fatty acids profile of rapeseed oil</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>The COVID-19 pandemic has had a profound impact on the nation's health care system, including on graduate medical education (GME) training programs. Traditionally, residency and fellowship training program applications involve in-person interviews conducted on-site, with only a minority of programs offering interviews remotely via a virtual platform. However, in light of the COVID-19 pandemic, it is anticipated that most interviews will be conducted virtually for the 2021 application cycle and possibly beyond. Therefore, GME training programs need to prepare for the transition to virtual interviews using evidence-based practices. At the University of California, San Francisco, a multidisciplinary task force was convened to review existing literature about virtual interviews and determine best practices. This article summarizes these findings, first discussing the advantages and disadvantages of the virtual interview format and then providing evidence-based best practices for GME training programs. Specifically, the authors make the following recommendations: develop a detailed plan for the interview process, consider using standardized interview questions, recognize and respond to potential biases that may be amplified with the virtual interview format, prepare your own trainees for virtual interviews, develop electronic materials and virtual social events to approximate the interview day, and collect data about virtual interviews at your own institution. With adequate preparation, the virtual interview experience can be high yield, positive, and equitable for both applicants and GME training programs.</t>
+          <t>Currently, natural antioxidants and substances with a protective effect on fatty acids are used more and more often instead of synthetic compounds that may have a negative impact on human health. This is related to the prevailing trend of promoting healthy and organic food. Essential oils are interesting in this respect because studies confirm their antioxidant properties. The aim of this study was to analyse the effect of the addition of marjoram oil on the inhibition of changes in the fatty acid profile of rapeseed oil, stored under different temperature conditions. In the experiment, marjoram oil and BHA were added to the batches of rapeseed oil. The samples of rapeseed oil with the addition of marjoram oil and BHA were stored at room temperature and at 40 °C. The negative effect of storage on quantitative changes in fatty acid profile of rapeseed oil was observed. It was found that the ability of selected substances to inhibit unfavourable transformations in fats depends on their concentration and the temperature of storage. Marjoram oil can potentially be used as an additive stabilizing the fatty acid profile in vegetable oils.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4308465362</t>
+          <t>https://openalex.org/W2171584764</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4018/978-1-6684-5284-4.ch001</t>
+          <t>https://doi.org/10.1016/j.difgeo.2005.06.008</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Zeerak et al. (2022)</t>
+          <t>Sánchez (2006)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Digital Transformations in Business and FinTech</t>
+          <t>On causality and closed geodesics of compact Lorentzian manifolds and static spacetimes</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>The ever-growing technological innovations and inventions are reshaping businesses at external and internal levels. Digital transformation is the process that integrates technologies in business processes and strategies. This transformation is mostly dependent on data and is driven by evolving technologies, rapid growth in competition, and shift in consumer behavior. It enables a business to be more agile and productive and to provide a better customer experience. This chapter discusses the impact of digital transformation in business and the fintech industry by highlighting the modern technologies used in transformation, the effect on business, the fintech industry, and their current trends. Furthermore, it elaborates on how digital transformation affects businesses at different levels. Lastly, it discusses the challenges faced by businesses in the process of digital transformation and recommends solutions for them.</t>
+          <t>Some results related to the causality of compact Lorentzian manifolds are proven: (1) any compact Lorentzian manifold which admits a timelike conformal vector field is totally vicious, and (2) a compact Lorentzian manifold covered regularly by a globally hyperbolic spacetime admits a timelike closed geodesic, if some natural topological assumptions (fulfilled, for example, if one of the conjugacy classes of deck transformations containing a closed timelike curve is finite) hold. As a consequence, any compact Lorentzian manifold conformal to a static spacetime is geodesically connected by causal geodesics, and admits a timelike closed geodesic.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2069989322</t>
+          <t>https://openalex.org/W4231662464</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5840/philtoday201155342</t>
+          <t>https://doi.org/10.21203/rs.3.rs-214048/v1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Fried (2011)</t>
+          <t>Eni et al. (2021)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>A Letter to Emmanuel Faye</t>
+          <t>Decolonizing Health in Canada: A Manitoba First Nation Perspective</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>(ProQuest: ... denotes non-USASCII text omitted.) Dear Professor Faye, Let me begin by thanking you for taking initiative to send me your book, Heidegger: Introduction of Nazism into Philosophy. contacted me because I had contributed to the line debate in the commentary to Romano's review of your book in The of Higher Education.1 I owe you an apology. When I upon that review, your book was not yet in English except to reviewers, and so I was ing not so much to your work as to what I took be the intellectual glibness and laziness of the view, which struck me as inappropriate to the scope and the seriousness of the philosophical, ethical, and political questions at stake.2 ter having read your book with care, I must now acknowledge that some of what I wrote then would no longer write today. In my first post the discussion, I claimed, To a very large extent, [the furor surrounding your book and review] is simply a repeat of the scandal erupted 22 years ago when the work of Farias and Hugo Ott was published. There nothing really new here, except perhaps an increase of the 'data' of Heidegger's loathsomeness as a human being.3 1 also wrote: We have known that [Heidegger was a dedicated National Socialist] for a long time now. But the devil is in the details. It has long been well known that Heidegger was opposed to biological racism and opposed to global imperialism. He was what we might now call a mulitculturalist, but between nations, not within them. He thought Nazism would allow national cultures and historical traditions to maintain themselves in their own bounds. But note, in my view this still leaves room for what might be called a metaphysical or ontologica! racism (see the work of Berel Lang or Robert Bernasconi for a responsible treatment of this point), and I believe Heidegger was guilty of that. But it was by no means orthodox Nazism. After reading your book, I would no longer say all of this. Indeed, this is one of your most important contributions: to set out in great detail the intricacies of the developments and the battles between strands of Nazism about precisely what should and would count for orthodoxy. I wrote: [Romano's] article wants to paint Heidegger as a hack, who dressed up his Nazism in philosophical clothing. That is a crude dodge that avoids what is seriously at issue for real thought. Heidegger was never an orthodox Nazi and the orthodox soon came to suspect him of deviationism. It is absurd to claim that Heidegger somehow was an architect of Nazi ideology, in the way, say, that Lenin or Marx were of Communism, or that Locke or Jefferson were of liberalism.... Yes, Heidegger lent his respected name to the movement, but little to its content or direction.5 Having read your book, I now believe much of this to be false: he was orthodox (to the extent that there was an orthodox Nazism), and he did have a significant impact. The verdict is clear: never again can anyone say that Heidegger, who played a passionate role in the debates over the core meaning and direction of the movement, who subscribed to a form of non-biologistic racism that was in fact by no means alien to National Socialism, who lent his voice and his weight as a thinker, as an administrator, and as an educator to the consolidation Gleichschaltung) of Hitler's dictatorship, was not fully in the ambit of orthodox Nazism, because Nazism contained many strands, especially in the first years after the revolution, and Heidegger fit within the scope of this diversity. While some of the elements of this picture have been know since Farias and Ott, this issue is too important to be digested piecemeal, with a biographical detail leaking out here, a new text there, as they do over the years. While you also contribute some decisive new information, I find that it is the totality of what you assemble that is impossible to ignore: it conveys the portrait of a man entirely dedicated to the cause of Nazism, and not just in a fit of temporary madness or enthusiasm, but as an enduring mission. …</t>
+          <t>Abstract Background This paper focuses on a longitudinal research program in Manitoba, Canada, by the Innovation Supporting Transformation in Community-Based Research Project (iPHIT) to learn from First Nations across the province that have developed effective community-based primary healthcare models. The research is relevant and timely as First Nations across the country, and Indigenous populations globally, work towards improvements in population health and health equity via critical analysis and restructuring of health services. The purpose of the paper is to deepen an understanding of decolonization as it is defined within the communities, as a central aspect of health restructuring. Methods The study is a qualitative, grounded theory analysis, which is a constructivist approach to social research that allows for generation of theory in praxis, through interactions and conversations between researchers and research participants. Findings are based on 183 in-depth interviews and eight focus group discussions with participants from 8 Manitoba First Nation communities. The study was designed to understand strengths, limitations and priorities of primary healthcare strategies and frameworks of the communities. The iPHIT team was an active collaborative partnership between the First Nation communities, First Nation Health and Social Secretariat of Manitoba, and the University of Manitoba. The First Nation partners led in all aspects of the research, from development to implementation, data collection, analyses, and dissemination. Respected Elders from the communities also guided in appropriate research and engagement protocols. Results Data was coded and then grouped into 4 interconnecting themes. These are: (1) First Nation control of healthcare, (2) traditional medicine and healing activities, (3) full community participation, and (4) moving out of colonization involves cleaning up and moving beyond the mess that colonization has inflicted. Conclusion Decolonizing health involves a taking back of Indigenous wisdom and traditional activities; connections to the land, resources; intra- and inter-community relationships. Participants emphasized the value of full community engagement with respect to inclusion of different interpretations of and experiences in the world, highlighting creation of a shared vision. The study focused on First Nation community experiences and interests in Manitoba specifically, though the data may be applicable to national and global decolonization efforts.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2028374171</t>
+          <t>https://openalex.org/W2007196976</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/00005176-200406001-01296</t>
+          <t>https://doi.org/10.1016/0038-1101(77)90106-x</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mičetić‐Turk et al. (2004)</t>
+          <t>Guckel et al. (1977)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>P1172 NUTRITIONAL STATUS IN HOSPITALISED PAEDIATRIC PATIENTS IN NORTH-EAST SLOVENIA DURING A 12 YEAR PERIOD (1989???2001)</t>
+          <t>Transition region behavior in abrupt, forward-biased pn-junctions</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Introduction: Accurate assessment of child’s nutritional status is an important medical, sociological, economic and public health element of paediatric care. Its goals are to determine if a child is or may imminently become malnourished, to ascertain the risk of nutrition related complications and to provide guidelines for short and long term therapy. Methods: The aim of our study was to determine the nutritional status of children hospitalised at the Paediatric Department, Maribor Teaching Hospital, NE Slovenia during the 12-year period (1989–2001), and to establish if the nutritional status was affected by the new social and economic situation. (In the year 1989 Slovenia was a part of the former socialistic Yugoslavia, and became an independent democratic republic in 1991). The study was retrospective. We analysed anthropometric, laboratory and clinical data for all in-patients (0–18 years of age) in a 1-day cross-sectional survey conducted on 1st December 1989 (109 patients), 1st December 1995 (100 patients) and 1st December 2001 (89 patients). All obtained data were statistically analysed. Results: Our results clearly show that the number of hospitalised children has been decreasing constantly. However, we observed a sharp increase in the number of patients hospitalised due to chronic diseases and disorders in respect to the acute illnesses. The analysis of anthropometric data shows that the proportion of normally nourished children in the period of the study has not changed significantly (70–77%), and that the prevalence of obesity in the studied population was much higher than the prevalence of malnourished children. Obese children (as determined by the weight: age ratio, weight: height ratio as well as height: age and BMI ratio) represented 18% of hospitalised population in each study year, whereas the proportion of mal-nourished children has increased from 7% in the year 1989 to 13% in the year 1995, and declined again to 5% in the year 2001. The analysis of available laboratory data (albumin, haemoglobin, lymphocytes, Ca, alkaline phosphatase) did not show any statistically significant differences (p&gt;0.05). Conclusion: We conclude, that the level of public health, as well as the quality of nutrition in the studied period (period of transition in Slovenia), remained as good as it was in the period when all social and public health opportunities were available to population as a whole, since we have not found any significant changes in the nutritional status of hospitalised children during this period.</t>
+          <t>The transition region for abrupt p-n junctions, symmetric and asymmetric, is analyzed in terms of carrier densities at the neutral bulk-space charge region boundaries and the location of these boundaries with respect to the metallurgical junction. The non-equilibrium semiconductor problem is simplified by defining an effective intrinsic carrier concentration and an effective Fermi energy. The relation between the split in the quasi-Fermi levels and applied junction voltage is obtained. Also, density relationships are derived in terms of externally applied junction voltages. A low, high and very high injection formulation results. The transition region width is determined by solving Poisson's equation for a double region problem approximately. MOS concepts such as inversion and depletion are shown to apply to the forward biased junction.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1509260842</t>
+          <t>https://openalex.org/W3170845148</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1140/epjp/s13360-021-01648-w</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lorenzetti &amp; Schumacher (2005)</t>
+          <t>Marsch &amp; Narita (2021)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>L'endogamie matrimoniale dans les villes suisses, 1880-1930</t>
+          <t>Threefold spin helicity as possible origin of SU(3) gauge symmetry</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>L'etude analyse les caracteristiques de l'endogamie matrimoniale dans quatre villes suisses a la fin du xixe siecle et au debut du xxe siecle. En dissociant les contraintes structurelles – definies par les equilibres numeriques sur les marches matrimoniaux – des preferences individuelles – integrant les choix individuels et le respect des normes sociales et communautaires –, l'etude met en evidence notamment les specificites de l'endogamie par rapport au profil socio-economique des villes observees. En outre, elle essaye de verifier dans quelle mesure les transformations du choix du conjoint refletent l'emergence (ou, dans certains cas, la consolidation), apres le premier conflit mondial, d'une nouvelle sociabilite urbaine, basee sur de nouveaux rapports a la ville et a son economie et facilitant les processus d'integration.</t>
+          <t>Abstract In this paper, the notion of spin helicity is generalized into threefold spin helicity. It appears to be a useful means to extend the standard Dirac equation to describe coloured fermions. The threefold generalization of helicity is derived from the mass shell condition, spin, and kinetic helicity in a natural way. It is found that the three different types of helicities are associated with the rotation degrees of freedom in 3-D coordinate space. Moreover, threefold helicity can by unitary transformation be connected with the empirical SU (3) colour symmetry of the quarks, and thus be brought into the mathematical form of the SU (3) Yang–Mills gauge theory of the standard model. This offers an alternative picture of the physical origin of quark symmetry in compliance with the Coleman–Mandula theorem.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2063126359</t>
+          <t>https://openalex.org/W1964865610</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037//0096-1523.10.5.683</t>
+          <t>https://doi.org/10.1136/bmj.314.7092.1428</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Warren (1984)</t>
+          <t>Wilkins (1997)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Perceiving affordances: Visual guidance of stair climbing.</t>
+          <t>Valvular heart disease: putting guidelines into practice</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>How do animals visually guide their activities in a cluttered environment? Gibson (1979) proposed that they perceive what environmental objects offer or afford for action. An analysis of affordances in terms of the dynamics of an animal-environment system is presented. Critical points, corresponding to phase transitions in behavior, and optimal points, corresponding to stable, preferred regions of minimum energy expenditure, emerge from variation in the animal-environment fit. It is hypothesized that these points are constants across physically similar systems and that they provide a natural basis for perceptual categories and preferences. In three experiments these hypotheses are examined for the activity of human stair climbing, by varying riser height with respect to leg length. The perceptual category boundary between "climbable" and "unclimbable" stairs is predicted by a biomechanical model, and visually preferred riser height is predicted from measurements of minimum energy expenditure during climbing. It is concluded that perception for the control of action reflects the underlying dynamics of the animal-environment system.</t>
+          <t>Like many areas of medical care, the management of valvular heart disease has undergone a revolution within the practising lifetime of many doctors. As improved interventions have become available, so has the need to investigate correctly and identify better those who could benefit from such interventions. Recommendations for investigating and managing valvular heart disease have recently been published by Britain's Royal College of Physicians.1
+Much of what we know about the natural course of valvular heart disease comes from an era before surgical intervention, when patients presenting with symptomatic disease were unlikely to survive more than five to 10 years.2 3 Few investigative tools were available and management decisions were based on the patient's symptoms. It has now become clear that symptoms alone are not an adequate guide, since the lack of symptoms does not predict an …</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1443769296</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.15678/zp.2015.31.1.05</t>
+          <t>https://openalex.org/W2970606950</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Majone (2015)</t>
+          <t>Dikranjan &amp; Bruno (2018)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Od państwa pozytywnego do państwa regulacyjnego: przyczyny i skutki zmian sposobu rządzenia</t>
+          <t>Entropy on normed semigroups (Towards a unifying approach to entropy)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Since the late 1970s European governments have been forced to change their traditional modes of governance in response to such trends as increasing international competition and deepening economic and monetary integration within the European Union. Strategic adaptation to the new realities has resulted in a reduced role for the positive, interventionist state and a corresponding increase in the role of the regulatory state: rule making is replacing taxing and spending. The paper’s first part identifies three sets of strategies leading to the growth of the regulatory state as external or market regulator, and as internal regulator of decentralised administration. The second part examines major structural changes induced by changes in regulatory strategies. The institutional and intellectual legacy of the interventionist state is a major impediment to the speedy adjustment of governance structures to new strategies. It would be unwise to underestimate the difficulties of the transition from the positive to the regulatory state, but it is important to realise that international competition takes place not only among producers of goods and services but also, increasingly, among regulatory regimes. Regulatory competition will reward regimes in which institutional innovations do not lag far behind the new strategic choices.</t>
+          <t>We present a unifying approach to the study of entropies in Mathematics, such as measure entropy, topological entropy, algebraic entropy, set-theoretic entropy. We take into account discrete dynamical systems, that is, pairs $(X,T)$, where $X$ is the underlying space and $T:X\to X$ a transformation. We see entropies as functions $h:\mathfrak X\to \mathbb R_+$, associating to each flow $(X,T)$ of a category $\mathfrak X$ either a non negative real or $\infty$. We introduce the notion of semigroup entropy $h_\mathfrak S:\mathfrak S\to\mathbb R_+$, which is a numerical invariant attached to endomorphisms of the category $\mathfrak S$ of normed semigroups. Then, for a functor $F:\mathfrak X\to\mathfrak S$ from any specific category $\mathfrak X$ to $\mathfrak S$, we define the functorial entropy $h_F:\mathfrak X\to\mathbb R_+$ as the composition $h_{\mathfrak S}\circ F$. Clearly, $h_F$ inherits many of the properties of $h_\mathfrak S$, depending also on the properties of $F$. Such general scheme permits to obtain relevant known entropies as functorial entropies $h_F$, for appropriate categories $\mathfrak X$ and functors $F$, and to establish the properties shared by them. In this way we point out their common nature. Finally, we discuss and deeply analyze through the looking glass of our unifying approach the relations between pairs of entropies. To this end we formalize the notion of Bridge Theorem between two entropies $h_i:\mathfrak X_i\to \mathbb R_+$, $i=1,2$, with respect to a functor $\varepsilon:\mathfrak X_1\to\mathfrak X_2$. Then, for pairs of functorial entropies we use the above scheme to introduce the notion and the related scheme of Strong Bridge Theorem, which allows us to put under the same umbrella various relations between pairs of entropies.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2276597461</t>
+          <t>https://openalex.org/W4293456503</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/jhq.0000000000000353</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lásźló (2005)</t>
+          <t>White‐Williams et al. (2022)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>The Emergence of Transdisciplinary Unified Theory</t>
+          <t>Interprofessional Collaborative Practice Improves Access to Care and Healthcare Quality to Advance Health Equity</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Paradigm-shifts, termed scientific revolutions, occur periodically in the course of sciences development. The twentieth century witnessed o number of revolutions, first by Albert Einstein and then by Niels Bohr in physics, and subsequently in biology, cosmology and, trough the pioneering work of Pierre Teilhard de Chardin, in the transdisciplinary area that includes human mind and consciousness. But scientific development did not come to a standstill: while the spirit of Einstein and Teilhard is as present as ever their specific theories are object to the dynamic of theory development troughs periods of normal and revolutionary science. Today another revolution lo about to occur, bringing science to the threshold of a more comprehensive and integrated account of the observed phenomenon. The currently emerging transdisciplinary unified theory is consistent whit the goals and vision of both Albert Einstein and Teilhard de Chardin. It penetrates deeper into the domains of reality than the 2Otis century's mainstream physical, biological and psychological theories did - below the level of the quanta that populate space-time, to the quantum vacuum, better termed cosmic plenum, that generates the quanta and interconnects them throughout space and time. In the twentieth century Einstein 's general relativity gave us the relativistically interlinked universe, where all things are connected by signals propagating across the geometric structure of space-time, and Teilhard de Chardin laid the foundations of a unified theory where life and mind emerge consistently out of the physical world. In the twenty-first century transdisciplinary unified theory will extend these conceptions and give us the coherent universe, where all things are intrinsically connected by a fundamental information and virtual-energy field at a fundamental level of physical reality.</t>
+          <t>Healthcare disparites exist in cardiovascular care, including heart failure. Care that is not equitable can lead to higher incidence of heart failure, increased readmissions, and poorer outcomes. The Heart Failure Transitional Care Services for Adults Clinic is an interprofessional collaborative practice that provides guideline-directed medical therapy and education to underserved patients with heart failure. Little is known regarding healthcare equity and quality metrics in relation to interprofessional teams. Thus, the purpose of this study was to examine if an interprofessional collaborative practice care delivery model can affect access to care and healthcare quality outcomes in underserved patients with heart failure. As evidenced by control charts over a two and a half year period, the Heart Failure Transitional Care Services for Adults Clinic was able to show improvements in access to care and quality metrics results without variation. An interprofessional collaborative practice can be an effective delivery model to address health equity and quality of care outcomes.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231662464</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.21203/rs.3.rs-214048/v1</t>
+          <t>https://openalex.org/W3034638000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Eni et al. (2021)</t>
+          <t>Powell et al. (2005)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Decolonizing Health in Canada: A Manitoba First Nation Perspective</t>
+          <t>Coping in construction: Female students' perspectives</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Abstract Background This paper focuses on a longitudinal research program in Manitoba, Canada, by the Innovation Supporting Transformation in Community-Based Research Project (iPHIT) to learn from First Nations across the province that have developed effective community-based primary healthcare models. The research is relevant and timely as First Nations across the country, and Indigenous populations globally, work towards improvements in population health and health equity via critical analysis and restructuring of health services. The purpose of the paper is to deepen an understanding of decolonization as it is defined within the communities, as a central aspect of health restructuring. Methods The study is a qualitative, grounded theory analysis, which is a constructivist approach to social research that allows for generation of theory in praxis, through interactions and conversations between researchers and research participants. Findings are based on 183 in-depth interviews and eight focus group discussions with participants from 8 Manitoba First Nation communities. The study was designed to understand strengths, limitations and priorities of primary healthcare strategies and frameworks of the communities. The iPHIT team was an active collaborative partnership between the First Nation communities, First Nation Health and Social Secretariat of Manitoba, and the University of Manitoba. The First Nation partners led in all aspects of the research, from development to implementation, data collection, analyses, and dissemination. Respected Elders from the communities also guided in appropriate research and engagement protocols. Results Data was coded and then grouped into 4 interconnecting themes. These are: (1) First Nation control of healthcare, (2) traditional medicine and healing activities, (3) full community participation, and (4) moving out of colonization involves cleaning up and moving beyond the mess that colonization has inflicted. Conclusion Decolonizing health involves a taking back of Indigenous wisdom and traditional activities; connections to the land, resources; intra- and inter-community relationships. Participants emphasized the value of full community engagement with respect to inclusion of different interpretations of and experiences in the world, highlighting creation of a shared vision. The study focused on First Nation community experiences and interests in Manitoba specifically, though the data may be applicable to national and global decolonization efforts.</t>
+          <t>All parts of the construction industry are quantitatively and hierarchically male-dominated. In response to widespread calls for greater diversity within the sector, a number of government initiatives have been introduced to encourage women to pursue engineering degree courses, including construction programmes. Women represent the most significant group of untapped potential for the UK construction sector and so their recruitment and retention in the industry is vital for its future prosperity. This paper reports on part of an ESRC funded study exploring the impact of women construction students' workplace experiences on their career intentions. Workplace experiences are examined in the form of the year long industrial placement, as this is usually women's first major contact with the construction industry. The industrial placement also represents a key transitional stage in each student's process of becoming a construction professional (or not). Specifically, the research presented uses qualitative interviews with female construction students on industrial placement to analyse how women manage their integration into the industry, and the coping strategies women adopt. The paper concludes by explaining how the findings will be built upon in future stages of the research, in which a practical guidance document identifying initiatives to improve women's careers in construction will be developed for industry employers.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1964865610</t>
+          <t>https://openalex.org/W2889895835</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/bmj.314.7092.1428</t>
+          <t>https://doi.org/10.2514/6.2018-5318</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Wilkins (1997)</t>
+          <t>Kunze et al. (2018)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Valvular heart disease: putting guidelines into practice</t>
+          <t>A Design Method for Shape Transition Nozzles for Hypersonic Vehicles</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Like many areas of medical care, the management of valvular heart disease has undergone a revolution within the practising lifetime of many doctors. As improved interventions have become available, so has the need to investigate correctly and identify better those who could benefit from such interventions. Recommendations for investigating and managing valvular heart disease have recently been published by Britain's Royal College of Physicians.1
-Much of what we know about the natural course of valvular heart disease comes from an era before surgical intervention, when patients presenting with symptomatic disease were unlikely to survive more than five to 10 years.2 3 Few investigative tools were available and management decisions were based on the patient's symptoms. It has now become clear that symptoms alone are not an adequate guide, since the lack of symptoms does not predict an …</t>
+          <t>A design method for three-dimensional shape transition scramjet nozzles is introduced. The method employs streamline tracing to capture the properties of an axisymmetric thrust nozzle in a complex three-dimensional shape that allows for airframe integration and side-by-side mounting of scramjet engine modules. A modified version of an established maximum thrust nozzle is used as the axisymmetric parent flowfield to allow for more accurate capture of its properties in and design flexibility for the shape transition nozzle. The design procedure is detailed and applied to design a nozzle for a Mach 12 scramjet engine at an off-design condition. An inviscid CFD analysis of the nozzle is used to analyse the accuracy of the capture of the parent flowfield’s properties. It is found that despite the shape transition the nozzle is able to reproduce the interior flow of the axisymmetric flowfield.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4295899644</t>
+          <t>https://openalex.org/W2317847690</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/dth.15828</t>
+          <t>https://doi.org/10.2307/2500051</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Mahé et al. (2022)</t>
+          <t>Thorpe (1992)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Biologics combined with conventional systemic agents for the treatment of children with severe psoriasis. Real‐life data from the BiPe cohorts and a practice survey among French and Italian pediatric dermatologists</t>
+          <t>The Academic Theaters and the Fate of Soviet Artistic Pluralism, 1919-1928</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Dermatologic TherapyVolume 35, Issue 11 e15828 ORIGINAL ARTICLE Biologics combined with conventional systemic agents for the treatment of children with severe psoriasis. Real-life data from the BiPe cohorts and a practice survey among French and Italian pediatric dermatologists Emmanuel Mahé, Corresponding Author Emmanuel Mahé [email protected] orcid.org/0000-0001-5780-1827 Dermatology Department, Hôpital Victor Dupouy, Argenteuil, France Correspondence Emmanuel Mahé, Dermatology Department, Hôpital Victor Dupouy, 69 rue du Lieutenant-Colonel Prud'hon, Argenteuil 95100, France. Email: [email protected]Search for more papers by this authorAlain Beauchet, Alain Beauchet Public Health Department, Centre Hospitalier Universitaire Ambroise Paré, Boulogne-Billancourt, FranceSearch for more papers by this authorSmaïl Hadj-Rabia, Smaïl Hadj-Rabia Dermatology Department, INSERM U1163 &amp; Institut Imagine, Centre Hospitalier Universitaire Necker-Enfants Malades, Assistance Publique-Hôpitaux de Paris, Université Paris Descartes – Sorbonne, Paris, FranceSearch for more papers by this authorJuliette Mazereeuw-Hautier, Juliette Mazereeuw-Hautier Dermatology Department, Centre de Référence des Maladies Rares de la Peau et des Muqueuses, Hôpital Larrey, Toulouse, FranceSearch for more papers by this authorStéphanie Mallet, Stéphanie Mallet Dermatology Department, Hôpital de la Timone, Assistance-Publique-Hôpitaux de Marseille, Marseille, FranceSearch for more papers by this authorAlice Phan, Alice Phan Paediatric Department, Hôpital Femme-Mère-Enfant, Hospices Civils de Lyon, Bron, FranceSearch for more papers by this authorMaëlle Severino-Freire, Maëlle Severino-Freire Dermatology Department, Centre de Référence des Maladies Rares de la Peau et des Muqueuses, Hôpital Larrey, Toulouse, FranceSearch for more papers by this authorFranck Boralevi, Franck Boralevi Department of Paediatric Dermatology, Hôpital Pellegrin, CHU de Bordeaux, Bordeaux, FranceSearch for more papers by this authorHélène Aubert, Hélène Aubert Dermatology Department, Centre Hospitalier Universitaire de Nantes, Nantes, FranceSearch for more papers by this authorHugue Barthélémy, Hugue Barthélémy Dermatology Department, Centre Hospitalier d'Auxerre, Auxerre, FranceSearch for more papers by this authorCéline Girard, Céline Girard Dermatology Department, Centre Hospitalier Universitaire de Montpellier, Montpellier, FranceSearch for more papers by this authorLudovic Martin, Ludovic Martin Dermatology Department, Centre Hospitalier Universitaire d'Angers, Angers, FranceSearch for more papers by this authorMaryam Piram, Maryam Piram Service de Rhumatologie Pédiatrique, Centre Hospitalier Universitaire Bicêtre, Université Paris Sud-Saclay, UVSQ, Assistance Publique-Hôpitaux de Paris HP, Le Kremlin Bicêtre, FranceSearch for more papers by this authorSébastien Barbarot, Sébastien Barbarot Dermatology Department, Centre Hospitalier Universitaire de Nantes, Nantes, FranceSearch for more papers by this authorXavier Balguerie, Xavier Balguerie Dermatology Department, Centre Hospitalier Universitaire Charles-Nicolle, Rouen, FranceSearch for more papers by this authorJinane Zitouni, Jinane Zitouni Dermatology Department, Hôpital Victor Dupouy, Argenteuil, FranceSearch for more papers by this authorCéline Phan, Céline Phan Dermatology Department, Hôpital Victor Dupouy, Argenteuil, FranceSearch for more papers by this authorVito Di Lernia, Vito Di Lernia Dermatology Unit, Arcispedale S. Maria Nuova IRCCS, Reggio Emilia, ItalySearch for more papers by this authorGroupe de Recherche sur le Psoriasis (GrPso) of the Société Française de Dermatologie (SFD), Groupe de Recherche de la Société Française de Dermatologie Pédiatrique (GR SFDP), and Società Italiana di Dermatologia Pediatrica (S.I.Der.P.), Groupe de Recherche sur le Psoriasis (GrPso) of the Société Française de Dermatologie (SFD), Groupe de Recherche de la Société Française de Dermatologie Pédiatrique (GR SFDP), and Società Italiana di Dermatologia Pediatrica (S.I.Der.P.)Search for more papers by this author Emmanuel Mahé, Corresponding Author Emmanuel Mahé [email protected] orcid.org/0000-0001-5780-1827 Dermatology Department, Hôpital Victor Dupouy, Argenteuil, France Correspondence Emmanuel Mahé, Dermatology Department, Hôpital Victor Dupouy, 69 rue du Lieutenant-Colonel Prud'hon, Argenteuil 95100, France. Email: [email protected]Search for more papers by this authorAlain Beauchet, Alain Beauchet Public Health Department, Centre Hospitalier Universitaire Ambroise Paré, Boulogne-Billancourt, FranceSearch for more papers by this authorSmaïl Hadj-Rabia, Smaïl Hadj-Rabia Dermatology Department, INSERM U1163 &amp; Institut Imagine, Centre Hospitalier Universitaire Necker-Enfants Malades, Assistance Publique-Hôpitaux de Paris, Université Paris Descartes – Sorbonne, Paris, FranceSearch for more papers by this authorJuliette Mazereeuw-Hautier, Juliette Mazereeuw-Hautier Dermatology Department, Centre de Référence des Maladies R</t>
+          <t>While many studies of the early Soviet theater have focused upon its proletarian or revolutionary stages, in the polemics of that era a central topic of dispute was the so-called academic stage. The academic theaters of Moscow and Petrograd, which included the former imperial theaters as well as select representatives of the pre-revolutionary private stage, most notably the Arts and Kamernyi theaters, had no lack of critics or enemies in the years after October. The former court theaters were attacked as politically dangerous relics of the old regime, their artists were envied for their material privileges and status, their large budgets were coveted by less generously funded workers' and avant-garde stages, their art was condemned as conservative and out of harmony with the revolution and socialism. For Commissar of Education Anatolii Lunacharskii, however, these theaters were academies which would both preserve the best of the pre-revolutionary cultural heritage and provide standards of technical excellence against which more innovative theaters could be measured.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4310613103</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/b978-0-323-91159-7.00018-7</t>
+          <t>https://openalex.org/W3043028927</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Bazyar (2023)</t>
+          <t>Ubbelohde (2019)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Impacts of progressive biofuels on environmental sustainability</t>
+          <t>New economy, same challenges: Is Circular Economy enabling a sustainable and holistic transition in Europe?</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Biofuels are one of the most promising approaches for reducing CO2 emissions in the transportation industry. However, due to numerous fundamental restrictions, such as a lack of raw materials, a low CO2 mitigation effect, a blending wall, and poor cost competitiveness, traditional plant-based biofuels (e.g., biodiesel, bioethanol) had a relatively low fraction of total transportation-fuel usage in 2016, under 4%. Advanced biofuels, such as drop-in, microalgal, and electro biofuels, especially those derived from inedible biomass, are seen as a possible answer to the problem of meeting rising biofuel demand. Recent advances in oxy-free hydrocarbon conversion via catalytic deoxygenation processes, oleaginous microalgae selection and lipid content increase, electrochemical biofuel conversion, and the diversification of useful products from biomass and intermediates are discussed in this study. Although the United States and the EU have different financial and approach motivating forces for biofuel production, markers of environmental sustainability have evolved from the updated research across the boundaries of politics. We categorized mentioned markers into six already set up characteristics of natural supportability, advertising depictions for each and connecting them to proposed universal guidelines for progressed biofuels. If ideal feedstock choice, administration, generation, and fuel transformation criteria are particularly sought after, progressed biofuel improvement can be a step toward naturally economic vitality. Even though devices for surveying natural supportability exist, they have not however been connected to progressed biofuels in a standardized way.</t>
+          <t>Circular economy has emerged as a new economic paradigm to solve problems of natural resource scarcity and environmental pollution by using resources more efficiently and designing products to mini ...</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322737768</t>
+          <t>https://openalex.org/W2074919076</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/2041-210x.14070</t>
+          <t>https://doi.org/10.1016/j.carj.2011.12.001</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Record et al. (2023)</t>
+          <t>Deatsch-Kratochvil et al. (2013)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Synthesizing forecasts to inform decision‐making and advance ecological theory</t>
+          <t>The International Atomic Energy Agency's Activities in Radiation Medicine and Cancer: Promoting Global Health through Diplomacy</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Methods in Ecology and EvolutionVolume 14, Issue 3 p. 728-731 EDITORIALOpen Access Synthesizing forecasts to inform decision-making and advance ecological theory Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author First published: 01 March 2023 https://doi.org/10.1111/2041-210X.14070 [Corrections added on 28 February 2023, after first online publication: The copyright line has been changed.] AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Since the inception of the Intergovernmental Panel on Climate Change in 1988, there has been growing scientific consensus that humans have modified the Earth's environment and that human decisions have the potential to mitigate or exacerbate the effects of future global change (Intergovernmental Panel on Climate Change, 2022). In the face of widespread environmental change, society needs information to make sound decisions. Ecological forecasts provide such information about how ecosystems and their services may respond to different environmental conditions before they happen and considering alternative management scenarios. Following the publication of the first IPCC report in 1990 that called for a better understanding of the future effects of climatic change, the number of ecological publications focused on forecasting increased exponentially (Figure 1). FIGURE 1Open in figure viewerPowerPoint To illustrate a growing interest in ecological forecasting since the publication of the first Intergovernmental Panel on Climate Change report in 1990, we show the number of publications per year for articles that have 'ecology' and 'forecast' in their keywords ( source: Web of Science, search criteria used: Topic = 'ecology' and forecast*'; Timespan = All Years). This includes all publications since 1900 with the exception of Hodgson (1932). The notion of forecasting ecosystem change in ecology is not new (e.g. Clark et al., 2001; Hodgson, 1932). However, as the number of ecological papers focused on forecasting grew in the context of climatic change, ecologists from across sub-disciplines became increasingly concerned with various aspects of forecasting. Paleoecologists acknowledged the limits of our ability to forecast into non-analog climatic conditions when using forecast horizons suggested by the IPCC (e.g. anticipating conditions 60–80 years into the future; Williams &amp; Jackson, 2007). Applied and theoretical ecologists questioned the utility of long-term forecasts for advancing decision-making and ecological theory, respectively (Houlahan et al., 2017; Mouquet et al., 2015). At the same time as these concerns, ecologists recognized the transformative potential of near-term, iterative forecasting for making ecological forecasts more relevant to decision makers and spurring innovations in ecological theory if key technical and conceptual advances could be made (Dietze et al., 2018). In 2018, the Ecological Forecasting Initiative (EFI; https://ecoforecast.org/) launched with an emphasis on creating near-term, iterative forecasts with the hopes of using outputs to inform theory and to better align forecasts with management timeframes. EFI is a grassroots effort funded as a research coordination network through the US National Science Foundation aimed at building and supporting an interdiscipl</t>
+          <t>Global health has been an issue of seemingly low political importance in comparison with issues that have direct bearing on countries’ national security. Recently, health has experienced a “political revolution” or a rise in political importance. Today, we face substantial global health challenges, from the spread of infectious disease, gaps in basic maternal and child health care, to the globalization of cancer. A recent estimate states that the “overall lifetime risk of developing cancer (both sexes) is expected to rise from more than one in three to one in two by 2015.” These issues pose significant threats to international health security. To successfully combat these grave challenges, the international community must embrace and engage in global health diplomacy, defined by scholars Thomas Novotny and Vicanne Adams as a political activity aimed at improving global health, while at the same time maintaining and strengthening international relations. The IAEA (International Atomic Energy Agency) is an international organization with a unique mandate to “accelerate and enlarge the contribution of atomic energy to peace, health, and prosperity throughout the world.” This article discusses global health diplomacy, reviews the IAEA's program activities in human health by focusing on radiation medicine and cancer, and the peaceful applications of atomic energy within the context of global health diplomacy.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1959925334</t>
+          <t>https://openalex.org/W3087636632</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1524-4741.2010.01056.x</t>
+          <t>https://doi.org/10.1074/jbc.ra119.012102</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Byler &amp; Gil (2011)</t>
+          <t>Maunders et al. (2020)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Responsibility for Long-Term Care of Breast Cancer Survivors</t>
+          <t>Global reprogramming of virulence and antibiotic resistance in Pseudomonas aeruginosa by a single nucleotide polymorphism in elongation factor, fusA1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>The Breast JournalVolume 17, Issue 2 p. 216-217 LETTER TO THE EDITOR Responsibility for Long-Term Care of Breast Cancer Survivors Jamie M. Byler MD, Jamie M. Byler MD Department of Obstetrics and Gynecology, Akron General Medical Center, Akron, OhioSearch for more papers by this authorKaren M. Gil PhD, Karen M. Gil PhD Department of Obstetrics and Gynecology, Akron General Medical Center, Akron, OhioSearch for more papers by this author Jamie M. Byler MD, Jamie M. Byler MD Department of Obstetrics and Gynecology, Akron General Medical Center, Akron, OhioSearch for more papers by this authorKaren M. Gil PhD, Karen M. Gil PhD Department of Obstetrics and Gynecology, Akron General Medical Center, Akron, OhioSearch for more papers by this author First published: 07 February 2011 https://doi.org/10.1111/j.1524-4741.2010.01056.xCitations: 2 Address correspondence and reprints request to: Karen M. Gil, PhD, Research Director, Department of Obstetrics and Gynecology, AGMC, 224 W. Exchange St., #120, Akron OH 44302, USA, or e-mail: [email protected]. Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL No abstract is available for this article. References 1 Aziz NM. Cancer survivorship research: state of knowledge, challenges and opportunities. Acta Oncol 2007; 46: 417– 32. 2 Khan NF, Ward A, Watson E, Austoker J, Rose PW. Long-term survivors of adult cancers and uptake of primary health services: a systematic review. Eur J Cancer 2008; 44: 195– 204. 3 Ganz PA, Hahn EE. Implementing a survivorship care plan for patients with breast cancer. J Clin Oncol 2008; 26: 759– 67. 4 http://seer.cancer.gov/csr/1975_2007/results_merged/topic_prevalence.pdf (accessed December 30, 2010). 5 Committee on Cancer Survivorship: Improving Care and Quality of Life. National Cancer Policy Board, Institute of Medicine and National Research Council. M Hewitt, S Greenfield, E Stovall, eds. From Cancer Patient to Cancer Survivor: Lost in Transition. Washington DC: The National Academies Press, 2006. 6 Nissen MJ, Beran MS, Lee MW, Mehta SR, Pine DA, Swenson KK. Views of primary care providers on follow-up care of cancer patients. Fam Med 2007; 39: 477– 82. 7 Erikson C, Salsberg E, Forte G, Bruinooge S, Goldstein M. Future supply and demand for oncologists: Challenges to assuring access to oncology services. J Oncol Pract 2007; 3: 79– 86. Citing Literature Volume17, Issue2March/April 2011Pages 216-217 ReferencesRelatedInformation</t>
+          <t>Clinical isolates of the opportunistic pathogen Pseudomonas aeruginosa from patients with cystic fibrosis (CF) frequently contain mutations in the gene encoding an elongation factor, FusA1. Recent work has shown that fusA1 mutants often display elevated aminoglycoside resistance due to increased expression of the efflux pump, MexXY. However, we wondered whether these mutants might also be affected in other virulence-associated phenotypes. Here, we isolated a spontaneous gentamicin-resistant fusA1 mutant (FusA1P443L) in which mexXY expression was increased. Proteomic and transcriptomic analyses revealed that the fusA1 mutant also exhibited discrete changes in the expression of key pathogenicity-associated genes. Most notably, the fusA1 mutant displayed greatly increased expression of the Type III secretion system (T3SS), widely considered to be the most potent virulence factor in the P. aeruginosa arsenal, and also elevated expression of the Type VI (T6) secretion machinery. This was unexpected because expression of the T3SS is usually reciprocally coordinated with T6 secretion system expression. The fusA1 mutant also displayed elevated exopolysaccharide production, dysregulated siderophore production, elevated ribosome synthesis, and transcriptomic signatures indicative of translational stress. Each of these phenotypes (and almost all of the transcriptomic and proteomic changes associated with the fusA1 mutation) were restored to levels comparable with that in the progenitor strain by expression of the WT fusA1 gene in trans, indicating that the mutant gene is recessive. Our data show that in addition to elevating antibiotic resistance through mexXY expression (and also additional contributory resistance mechanisms), mutations in fusA1 can lead to highly selective dysregulation of virulence gene expression. Clinical isolates of the opportunistic pathogen Pseudomonas aeruginosa from patients with cystic fibrosis (CF) frequently contain mutations in the gene encoding an elongation factor, FusA1. Recent work has shown that fusA1 mutants often display elevated aminoglycoside resistance due to increased expression of the efflux pump, MexXY. However, we wondered whether these mutants might also be affected in other virulence-associated phenotypes. Here, we isolated a spontaneous gentamicin-resistant fusA1 mutant (FusA1P443L) in which mexXY expression was increased. Proteomic and transcriptomic analyses revealed that the fusA1 mutant also exhibited discrete changes in the expression of key pathogenicity-associated genes. Most notably, the fusA1 mutant displayed greatly increased expression of the Type III secretion system (T3SS), widely considered to be the most potent virulence factor in the P. aeruginosa arsenal, and also elevated expression of the Type VI (T6) secretion machinery. This was unexpected because expression of the T3SS is usually reciprocally coordinated with T6 secretion system expression. The fusA1 mutant also displayed elevated exopolysaccharide production, dysregulated siderophore production, elevated ribosome synthesis, and transcriptomic signatures indicative of translational stress. Each of these phenotypes (and almost all of the transcriptomic and proteomic changes associated with the fusA1 mutation) were restored to levels comparable with that in the progenitor strain by expression of the WT fusA1 gene in trans, indicating that the mutant gene is recessive. Our data show that in addition to elevating antibiotic resistance through mexXY expression (and also additional contributory resistance mechanisms), mutations in fusA1 can lead to highly selective dysregulation of virulence gene expression. Due to its high intrinsic resistance to antibiotics and aggressive virulence, Pseudomonas aeruginosa holds the dubious accolade of consistently occupying a “top ten” slot on lists of clinical threats across the globe. Indeed, the World Health Organization recently classified it as a top priority pathogen for which the development of new antimicrobial interventions is critical. This opportunistic, Gram-negative bacterium is ubiquitous and exhibits a particular predilection for the built environment, making encounters with the human populace commonplace. P. aeruginosa is frequently isolated from burn wounds, the respiratory tract, and the urinary tract and is the leading cause of morbidity and mortality in people with cystic fibrosis (CF) (1McCarthy R.R. Mooij M.J. Reen F.J. Lesouhaitier O. O'Gara F. A new regulator of pathogenicity (bvlR) is required for full virulence and tight microcolony formation in Pseudomonas aeruginosa.Microbiology. 2014; 160 (24829363): 1488-150010.1099/mic.0.075291-0Crossref PubMed Scopus (17) Google Scholar, 2Pereira S.G. Rosa A.C. Ferreira A.S. Moreira L.M. Proença D.N. Morais P.V. Cardoso O. Virulence factors and infection ability of Pseudomonas aeruginosa isolates from a hydropathic facility and respiratory infections.J. Appl. Microbiol. 2014; 116 (24484457): 1359-136810.1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4366463390</t>
+          <t>https://openalex.org/W4319833052</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/hex.13772</t>
+          <t>https://doi.org/10.1177/20534345231151209</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Hughes et al. (2023)</t>
+          <t>Kokorelias et al. (2023)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>The role of identity in the experiences of dementia care workers from a minority ethnic background during the COVID‐19 pandemic: A qualitative study</t>
+          <t>The role of patient navigation in supporting low-income older adults in their housing needs during hospital to home transitions: A qualitative descriptive study from Ontario, Canada</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Care home staff working during the COVID-19 pandemic experienced higher levels of stress and increased workloads. People from diverse ethnic backgrounds were disproportionately affected by the COVID-19 pandemic. This study explored the identity experiences of care home staff from diverse ethnic backgrounds in the context of working during the COVID-19 pandemic.Fourteen semistructured interviews were conducted between May 2021 and April 2022 with ethnic minority care home staff in England, who worked during the pandemic. Participants were recruited using convenience and theoretical sampling. Interviews were conducted via telephone or online platforms. A social constructivist grounded theory methodology was utilised in analysing the data.Participants described five key processes which facilitated or hindered the impact that their experiences had on their identity: dealing with uncertainty and transitioning into a COVID-19 world; difficult emotions; experiences of discrimination and racism; the response from the care home and societal systems; and the personal vs collective responsibility. When participants' physical and psychological needs went unmet by support structures within the care home and/or society, they experienced a sense of injustice, lack of control and being unvalued or discriminated against by others.This study highlights the importance of recognising the unique needs of staff from diverse ethnic backgrounds working in care homes and adapting working practices to improve impact on identity, job satisfaction and staff retention.One care home worker was involved in developing the topic guide and helping to interpret the findings.</t>
+          <t>Introduction Housing is an important determinant of health. Little research has explored hospital and community agency staff perspectives on how to support the housing needs of low-income older adults. Therefore, this paper examines the challenges associated with supporting low-income seniors as they transition from hospital to home and explores what role, if any, patient navigation models of care could have in addressing housing needs. Methods A thematic secondary analysis that triangulated data from two qualitative studies was used. In total, interviews and/or focus groups with 109 hospital and community care workers were re-analyzed, applying a new interpretive lens to the data to reveal new insights. Data were collected in Ontario, Canada. Results Participants described how low-income older adults have increasing complex care needs that influence their housing, but housing supports are limited and difficult to navigate. Participants believed further support was needed and suggested that a housing-specific patient navigation model of care may be beneficial, but difficult to implement due to the limitations of existing services. Discussion Our findings provide a unique perspective on the challenges hospital and community staff face in caring for older adults with housing needs. Patient navigation with a focus on housing may support these older adults. Further work needs to be undertaken to better understand how to best implement sustainable housing patient navigation models of care.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2903193854</t>
+          <t>https://openalex.org/W2071528024</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.outlook.2018.08.006</t>
+          <t>https://doi.org/10.1109/scored.2013.7002535</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Hein et al. (2018)</t>
+          <t>Lakshmanan et al. (2013)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Policy brief: Protecting vulnerable LGBTQ youth and advocating for ethical health care</t>
+          <t>Wireless power transfer for small scale application</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Lesbian, Gay, Bisexual, Transgender and Queer/Questioning (LGBTQ) youth are at heightened risk for bullying, victimization, homelessness, and being subjected to harmful therapies and associated physical and mental health issues. Health disparities in these populations are strongly associated with increased vulnerability based on stigma and discrimination due to their sexual orientation, gender identity, and gender expression (United Nations 2017United NationsThe Yogyakarta principles plus 10. United Nations, Geneva, Switzerland2017http://yogyakartaprinciples.org/wp-content/uploads/2017/11/A5_yogyakartaWEB-2.pdfGoogle Scholar). Additional threats to the health of LGBTQ youth include: expanded religious freedom exemptions of providers, permitting legal refusal to provide health care or other services to this population; a halt to Title IX enforcement for transgender persons by the Department of Education; and regular threats to repeal Section 1557 of the Affordable Care Act (ACA), thereby excluding coverage for transgender-related care and eliminating coverage for pre-existing conditions (U.S. Department of Health and Human Services). The American Academy of Nursing supports the rights of LGBTQ youth to be safe at school, at home, in places of worship, in the community and while seeking and obtaining access to health care. We oppose discrimination towards young people based on sexual orientation or gender identity and expression. We oppose transgender-specific exclusion from health care coverage or exclusion from sexual orientation and gender-based legal protections, and call for the provision of inclusive, safe, competent health care. LGBTQ youth are at elevated risk for violent victimization (O'Malley Olsen et al., 2014O'Malley Olsen E. Kann L. Vivolo-Kantor A. Kinchen S. McManus T. School violence and bullying among sexual minority high school students, 2009-2011.Journal of Adolescent Health. 2014; 55: 432-438https://doi.org/10.1016/j.jadohealth.2014.03.002Abstract Full Text Full Text PDF PubMed Scopus (71) Google Scholar), harmful therapies (American Academy of Nursing 2015American Academy of NursingAmerican Academy of Nursing position statement on reparative therapy.Nursing Outlook. 2015; 63: 368-369https://doi.org/10.1016/j.outlook.2015.03.003Abstract Full Text Full Text PDF Google Scholar, SAMHSA 2015SAMHSAEnding conversion therapy: Supporting and affirming LGBTQ youth.2015http://store.samhsa.gov/shin/content//SMA15-4928/SMA15-4928.pdfGoogle Scholar) and related physical and mental health issues (Sedlak and Boyd, 2016Sedlak C.A. Boyd C.J. Health care services for transgender individuals: Position statement.Nursing Outlook. 2016; 64: 510-512http://dx.doi.org/10.1016/j.outlook.2016.07.002Abstract Full Text Full Text PDF Google Scholar). This vulnerability is principally due to exclusion, pathologization, and victimization because of prejudice and discrimination toward sexual orientation, gender identity and gender expression. Approximately 3.4% of youth in the U.S., ages 10-19, identify as LGBTQ, suggesting that potentially over a million youth could be excluded from health care based on misguided interpretations of the conscience clause (Gates and Newport, 2012Gates G. Newport F. Special report: 3.4% of U.S. adults identify as LGBT.http://www.gallup.com/poll/158066/special-report-adults-identify-lgbt.aspx?utm_source=email-a-friend&amp;utm_medium=email&amp;utm_campaign=sharing&amp;utm_content=morelinkDate: 2012Google Scholar). Family support can be protective for these youth but is not always present (Eisenberg et al., 2017Eisenberg M.E. Gower A.L. McMorris B.J. Rider G.N. Shea G. Coleman E. Risk and protective factors in the lives of transgender/gender nonconforming adolescents.Journal of Adolescent Health. 2017; 61: 521-526https://doi.org/10.1016/j.jadohealth.2017.04.014Abstract Full Text Full Text PDF PubMed Scopus (210) Google Scholar; Ryan, 2014Ryan C. Generating a revolution in prevention, wellness and care for LGBT children and youth.Temple Political and Civil Rights Law Review. 2014; 23: 331-344Google Scholar). Unlike other minority groups, LGBTQ youth are not raised within the potential resilience-fostering context of similarly marginalized families. LGBTQ minority status is rarely shared by family members, who therefore may lack experience in navigating LGBTQ marginalization. Parents may feel ill-equipped to supportively respond to an LGBTQ child, and need support themselves (Ryan, 2010Ryan C. Engaging families to support lesbian, gay, bisexual, and transgender youth: The family acceptance project.Prevention Researcher. 2010; 17: 11-13Google Scholar). Health care can be a venue for support and healing but also intolerance and abusive therapies (Hein and Matthews, 2010Hein L.C. Matthews A.K. Reparative therapy: The adolescent, the psych nurse and the issues.Journal of Child and Adolescent Psychiatric Nursing. 2010; 23: 29-35https://doi.org/10.1111/j.1744-6171.2009.00214.xCrossref Scopus (14) Google Scholar,</t>
+          <t>The password security wireless power transfer system is the integration of password security into wireless electrical power design which has a separate power design from source to load controlled by password controller. The revolution for wireless power and communications has arrived with wireless technologies widely integrated into wide range of products, provides new levels of convenience, interaction and monitoring. Consumer behaviours and demands have shifted for better reliability, convenience and innovative products. The research idea is innovative and no familiar design application and products are developed within designated electrical area. The research aims to design and develop a small scale wireless power transfer system via resonance inductive coupling wireless power technique to transmit power through high resonant frequency. A robust password security system is designed and developed using Arduino Deumilanove microcontroller, which adopts knowledge-based authentication technique to control the wireless power system. Full system analysis and experimental tests were conducted and it recorded 60% efficiency across transmitting distance of 50mm and the best transmitting and receiving antenna position are identified with range of 1 cm to 2 cm offset for antenna intersection for maximum efficiency. The research serves a good platform for electrical power design in security system and could be improvised further with advance system development, which can be commercialized to the public.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2809237032</t>
+          <t>https://openalex.org/W4321464970</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acsenergylett.8b00938</t>
+          <t>https://doi.org/10.1016/j.trd.2023.103647</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wiktor et al. (2018)</t>
+          <t>Giliomee &amp; Booysen (2023)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Role of Polarons in Water Splitting: The Case of BiVO&lt;sub&gt;4&lt;/sub&gt;</t>
+          <t>Decarbonising South Africa’s long-distance paratransit: Battery swapping with solar-charged minibus trailers</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>We study hole and electron polarons in BiVO4 at finite temperature through hybrid functional molecular dynamics simulations. Through the thermodynamic integration method, we obtain the transition levels corresponding to the localized charges at 300 K. We observe that the polaron levels achieved in this way lie significantly closer to each other than those at 0 K. We find both hole and electron levels to lie within the band gap, with binding energies of 0.11 and 0.88 eV, respectively. Our calculations show that polaron localization significantly affects the alignment at the solid/liquid interface and that electron–hole recombination through polaronic states competes with the evolution of the water-splitting reaction in BiVO4.</t>
+          <t>The expected electrification of Sub-Sahara Africa's urban paratransit with an electric minibus taxi (eMBT) has received increased attention in energy research and expenditure analyses. In this paper, several long-distance routes between the Western Cape and the Eastern Cape in South Africa are assessed for electrification. To mitigate the long charging time of eMBTs, we propose a battery swapping approach in which a trailer acts as a mobile battery bank to the vehicle (eMBT+T); which is to be charged from a solar charging station to reduce emissions. Compared to the current MBTs, the proposed model results in only a 6% trip time increase. Crucially, emissions are reduced by 75%, where a 20% increase is seen when using an eMBT. The results show that a trailer battery enables viable long-distance electrical paratransit, and with the integration of solar power charging, this transition can also be sustainable.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3087636632</t>
+          <t>https://openalex.org/W4237403930</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.ra119.012102</t>
+          <t>https://doi.org/10.5958/2349-3011.2018.00005.1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Maunders et al. (2020)</t>
+          <t>Nayar-Akhtar (2018)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Global reprogramming of virulence and antibiotic resistance in Pseudomonas aeruginosa by a single nucleotide polymorphism in elongation factor, fusA1</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Clinical isolates of the opportunistic pathogen Pseudomonas aeruginosa from patients with cystic fibrosis (CF) frequently contain mutations in the gene encoding an elongation factor, FusA1. Recent work has shown that fusA1 mutants often display elevated aminoglycoside resistance due to increased expression of the efflux pump, MexXY. However, we wondered whether these mutants might also be affected in other virulence-associated phenotypes. Here, we isolated a spontaneous gentamicin-resistant fusA1 mutant (FusA1P443L) in which mexXY expression was increased. Proteomic and transcriptomic analyses revealed that the fusA1 mutant also exhibited discrete changes in the expression of key pathogenicity-associated genes. Most notably, the fusA1 mutant displayed greatly increased expression of the Type III secretion system (T3SS), widely considered to be the most potent virulence factor in the P. aeruginosa arsenal, and also elevated expression of the Type VI (T6) secretion machinery. This was unexpected because expression of the T3SS is usually reciprocally coordinated with T6 secretion system expression. The fusA1 mutant also displayed elevated exopolysaccharide production, dysregulated siderophore production, elevated ribosome synthesis, and transcriptomic signatures indicative of translational stress. Each of these phenotypes (and almost all of the transcriptomic and proteomic changes associated with the fusA1 mutation) were restored to levels comparable with that in the progenitor strain by expression of the WT fusA1 gene in trans, indicating that the mutant gene is recessive. Our data show that in addition to elevating antibiotic resistance through mexXY expression (and also additional contributory resistance mechanisms), mutations in fusA1 can lead to highly selective dysregulation of virulence gene expression. Clinical isolates of the opportunistic pathogen Pseudomonas aeruginosa from patients with cystic fibrosis (CF) frequently contain mutations in the gene encoding an elongation factor, FusA1. Recent work has shown that fusA1 mutants often display elevated aminoglycoside resistance due to increased expression of the efflux pump, MexXY. However, we wondered whether these mutants might also be affected in other virulence-associated phenotypes. Here, we isolated a spontaneous gentamicin-resistant fusA1 mutant (FusA1P443L) in which mexXY expression was increased. Proteomic and transcriptomic analyses revealed that the fusA1 mutant also exhibited discrete changes in the expression of key pathogenicity-associated genes. Most notably, the fusA1 mutant displayed greatly increased expression of the Type III secretion system (T3SS), widely considered to be the most potent virulence factor in the P. aeruginosa arsenal, and also elevated expression of the Type VI (T6) secretion machinery. This was unexpected because expression of the T3SS is usually reciprocally coordinated with T6 secretion system expression. The fusA1 mutant also displayed elevated exopolysaccharide production, dysregulated siderophore production, elevated ribosome synthesis, and transcriptomic signatures indicative of translational stress. Each of these phenotypes (and almost all of the transcriptomic and proteomic changes associated with the fusA1 mutation) were restored to levels comparable with that in the progenitor strain by expression of the WT fusA1 gene in trans, indicating that the mutant gene is recessive. Our data show that in addition to elevating antibiotic resistance through mexXY expression (and also additional contributory resistance mechanisms), mutations in fusA1 can lead to highly selective dysregulation of virulence gene expression. Due to its high intrinsic resistance to antibiotics and aggressive virulence, Pseudomonas aeruginosa holds the dubious accolade of consistently occupying a “top ten” slot on lists of clinical threats across the globe. Indeed, the World Health Organization recently classified it as a top priority pathogen for which the development of new antimicrobial interventions is critical. This opportunistic, Gram-negative bacterium is ubiquitous and exhibits a particular predilection for the built environment, making encounters with the human populace commonplace. P. aeruginosa is frequently isolated from burn wounds, the respiratory tract, and the urinary tract and is the leading cause of morbidity and mortality in people with cystic fibrosis (CF) (1McCarthy R.R. Mooij M.J. Reen F.J. Lesouhaitier O. O'Gara F. A new regulator of pathogenicity (bvlR) is required for full virulence and tight microcolony formation in Pseudomonas aeruginosa.Microbiology. 2014; 160 (24829363): 1488-150010.1099/mic.0.075291-0Crossref PubMed Scopus (17) Google Scholar, 2Pereira S.G. Rosa A.C. Ferreira A.S. Moreira L.M. Proença D.N. Morais P.V. Cardoso O. Virulence factors and infection ability of Pseudomonas aeruginosa isolates from a hydropathic facility and respiratory infections.J. Appl. Microbiol. 2014; 116 (24484457): 1359-136810.1</t>
+          <t>Transitioning to alternative care and deinstitutionalization</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2120493161</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1542/peds.2012-3786f</t>
+          <t>https://openalex.org/W2530778548</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Billett et al. (2013)</t>
+          <t>Yanagi et al. (2016)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Exemplar Pediatric Collaborative Improvement Networks: Achieving Results</t>
+          <t>Test and Evaluation of TRUST: Tools for Recognizing Useful Signals of Trustworthiness</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>A number of pediatric collaborative improvement networks have demonstrated improved care and outcomes for children. Regionally, Cincinnati Children's Hospital Medical Center Physician Hospital Organization has sustained key asthma processes, substantially increased the percentage of their asthma population receiving "perfect care," and implemented an innovative pay-for-performance program with a large commercial payor based on asthma performance measures. The California Perinatal Quality Care Collaborative uses its outcomes database to improve care for infants in California NICUs. It has achieved reductions in central line-associated blood stream infections (CLABSI), increased breast-milk feeding rates at hospital discharge, and is now working to improve delivery room management. Solutions for Patient Safety (SPS) has achieved significant improvements in adverse drug events and surgical site infections across all 8 Ohio children's hospitals, with 7700 fewer children harmed and &gt;$11.8 million in avoided costs. SPS is now expanding nationally, aiming to eliminate all events of serious harm at children's hospitals. National collaborative networks include ImproveCareNow, which aims to improve care and outcomes for children with inflammatory bowel disease. Reliable adherence to Model Care Guidelines has produced improved remission rates without using new medications and a significant increase in the proportion of Crohn disease patients not taking prednisone. Data-driven collaboratives of the Children's Hospital Association Quality Transformation Network initially focused on CLABSI in PICUs. By September 2011, they had prevented an estimated 2964 CLABSI, saving 355 lives and $103,722,423. Subsequent improvement efforts include CLABSI reductions in additional settings and populations.</t>
+          <t>Abstract : This study focuses on the measurement of trustworthiness. The report focuses on testing, research and evaluation of a new research method for measuring and requiring trust between individuals. Not only did this study attempt to understand the holistic neural, psychophysiological, psychological, and behavioral underpinnings of the nature of trust, but more broadly, enhance understanding of the social dynamic of human interaction vital to the success of everyday life, especially in the defense and intelligence community context. The study was adapted from a well-evaluated game theory paradigm (Prisoners Dilemma). The Prisoners Dilemma puts study participants in a situation where they must decide to trust or not trust an assigned partner. Their decisions and the decisions of their partners, to trust or not trust are determined by the amount of monetary compensation participants were given at the end of the experimental session. The study goal was to evaluate the extent to which particular behavioral, psychological, physiological, and neural signals are related to trust between two people. Many areas were studied for this report, including frontal alpha power asymmetry, electroencephalography (EEG), high- and low-frequency and RR interval of heart rate, electrocardiography (ECG), skin conductance levels and Galvanic Skin Response (GSR), oxytocin and cortisol concentrations, and psychological state (questionnaires). These areas were investigated using three different methodological transformations: one examining raw signals, and two adjusting the signals to baseline: minus baseline and divided by baseline. Applied throughout the report are six hypotheses derived from Social Exchange Model. The six hypotheses are provided in the report.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3164395695</t>
+          <t>https://openalex.org/W4307357089</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31124/advance.14471751.v1</t>
+          <t>https://doi.org/10.1214/22-aos2199</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Solis-Mullen (2021)</t>
+          <t>Dürre &amp; Paindaveine (2022)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Strategies of Brazilian Elite Domination</t>
+          <t>Affine-equivariant inference for multivariate location under Lp loss functions</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>In order to maintain their dominant socio-economic and political positions, Brazilian elites developed and employed a range of strategies in order to maintain the basic inequality regime established during the colonial period. Still among the most unequal countries in the world by Gini Coefficient, this paper seeks to show how Brazilian elites maintained their position of relative dominance through superstructural and material transformations in Brazilian society in terms of their collectively finding solutions to four problems: the Ideology of Creole Revolution, Unmanaged Elite Competition, Race Relations, and Democracy. As the latter three remain serious problems for Brazilian elites, the way previous elites navigated these threats to their position and maintained the basic nature of the inequality regime through transformations in the material base and superstructure provide insights into how Bolsonaro and contemporary conservative elites may attempt to manage the social democratic forces of the PT.</t>
+          <t>We consider the fundamental problem of estimating the location of a d-variate probability measure under an Lp loss function. The naive estimator, that minimizes the usual empirical Lp risk, has a known asymptotic behavior but suffers from several deficiencies for p≠2, the most important one being the lack of equivariance under general affine transformations. In this work, we introduce a collection of Lp location estimators μˆnp,ℓ that minimize the size of suitable ℓ-dimensional data-based simplices. For ℓ=1, these estimators reduce to the naive ones, whereas, for ℓ=d, they are equivariant under affine transformations. Irrespective of ℓ, these estimators reduce to the sample mean for p=2, whereas for p=1, the estimators provide the well-known spatial median and Oja median for ℓ=1 and ℓ=d, respectively. Under very mild assumptions, we derive an explicit Bahadur representation result for μˆnp,ℓ and establish asymptotic normality. We prove that, quite remarkably, the asymptotic behavior of the estimators does not depend on ℓ under spherical symmetry, so that the affine equivariance for ℓ=d is achieved at no cost in terms of efficiency. To allow for large sample size n and/or large dimension d, we introduce a version of our estimators relying on incomplete U-statistics. Under a centro-symmetry assumption, we also define companion tests ϕnp,ℓ for the problem of testing the null hypothesis that the location μ of the underlying probability measure coincides with a given location μ0. For any p, affine invariance is achieved for ℓ=d. For any ℓ and p, we derive explicit expressions for the asymptotic power of these tests under contiguous local alternatives, which reveals that asymptotic relative efficiencies with respect to traditional parametric Gaussian procedures for hypothesis testing coincide with those obtained for point estimation. We illustrate finite-sample relevance of our asymptotic results through Monte Carlo exercises and also treat a real data example.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2601389783</t>
+          <t>https://openalex.org/W3152196443</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Lam (2006)</t>
+          <t>X (1986)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Contradictions between Traditional Chinese Values and the Actual Performance: A Study of the Caregiving Roles of the Modern Sandwich Generation in Hong Kong*</t>
+          <t>POLARIZATION OF TIGHT JUNCTION DURING THE PROCESS OF ITS FORMATION</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>INTRODUCTIONAn aging population is a worldwide phenomenon primarily caused by declining birth rates and longer life expectancy. In 1975, 5.7% of the Hong Kong population was aged 65 and above. The percentage has been increasing at an alarming rate, up to 6.46% in 1980, 8.51 % in 1990, 10.03% in 1996, and 12% in 2001 respectively (Hong Kong Census &amp; Statistics Department, 2002). In absolute terms the number of people aged 65 and above is forecast to increase from about 747,000 in 2001 to about 1,092,000 in 2016-an increase of 46% (HKCSS, 1999). The rapid increase in the aged population has been having a tremendous impact on the labor market and the distribution of social resources, including social security, pensions, health care and housing. This phenomenon has aroused concern and a review of the issues related to its impact, especially the caregiving to the elderly (Bengtson &amp; Putney, 2000; Chi, 1999; Liu Cheng &amp; McGhee, 2001 ; Mok, 1994).In traditional Chinese society, the values of Confucian filial piety provide the basis to culturally define the inter-generational relationships. These values surpass all other ethics (Ho, 1996). Filial piety as a core ethic has been continuously practised, taught and appreciated in behavior, attitude, and belief throughout China (Tu, 1997: 172). The Confucian values have assumed that the care for the elderly is the responsibility of adult children, and therefore, basically the family's responsibility (Bengtson &amp; Putney, 2000; Chow, 2001; Pak, 1996). Research has assumed filial piety to be a moral impulse in governing the inter-generational behavior (Chow, 2001: 127-128; Ganong, et al., 1998; Kwan, 2003; Kwok, 1996;Kosberg, 1992; Merrill, 1997; Montgomery, 2000). However, these values have undergone substantial modification with industrialization. 'In pre-industrial economics both land and businesses, which served as the family's source of sustenance, were owned by the oldest generation and passed down to the younger generation only at death. Hence, it was not the oldest generation that was dependent upon the younger generation, but rather the younger generation that was dependent on the older generation for housing and income. What care may have been provided to parents was, therefore, not necessarily based on a sense of moral obligation but instead stemmed from economic necessity' (Montgomery, 2000: 1019). However, the introduction of an industrial economy has changed substantially both the economic necessity and the moral obligation. First, when the traditional extended and interdependent family moves to the city, the adult children begin working for other employers, rather than having their father as their employer. The economic independent and financial power of the sons frequently enables them to achieve a dominant position in the family. Consequently, the adult children will usually move out to form their own nuclear families. Thus, the economic independence and formation of nuclear families has affected how the new generation perceives and performs filial piety.Second, the functions of the family are diminishing in modern society; the family no longer functions as the provider of education, health care, and vocational training for its members. These functions have now largely been taken over by government and other institutions. Moreover, the family is no longer the only source of moral training. More and more schools, nurseries, clubs, and the state are molding the worldview of the Chinese. Modern education tends to produce a generation which values achievement and the making of decisions on rational grounds. In addition, economic independence has also fostered rational and independent thinking and behavior (Ng, 1991: 178-181). Consequently, the new generation has substantially modified or changed how they perceive and perform the values of Confucian filial piety. Research has indicated that traditional filial piety is on the decline or under transformation (Chow, 2001; Ho, 1996; Kwan, 2003; Lui, et al, 1997;Ng, 1991). …</t>
+          <t>By the freeze-etching technique, electron microscopic observations of the formation of the tight junction of embryonic cells of Cynops orientalis were carried out. Three states were recorded: isolated fragments of junctional strands occurred at the lateral membrane, the isolated fragments connected to form a more or less continuous band and finally a typical bandlike structure was observed at the apical border of the cell. They represent the transitional stages of the polarization of the tight junction. The dependence of the polarization on the appearance of the segmentation cavity and the interrelationship between the polarization and the domains of the epithelial cells were discussed.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1963898533</t>
+          <t>https://openalex.org/W1999378245</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/wal.0.0122</t>
+          <t>https://doi.org/10.1016/j.fuel.2009.06.007</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Rice (2010)</t>
+          <t>Ribeiro (2010)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Contesting Knowledge: Museums and Indigenous Perspectives&lt;/i&gt; (review)</t>
+          <t>Message from the Chairman of the International Organizing Committee of ISAF</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Reviewed by: Contesting Knowledge: Museums and Indigenous Perspectives Kym S. Rice Contesting Knowledge: Museums and Indigenous Perspectives. Edited by Susan Sleeper-Smith. Lincoln: University of Nebraska Press, 2009. 374 pages, $35.00. In his influential 1997 essay "Museums as Contact Zones," anthropologist James Clifford raised troubling questions about the unequal power relationships that existed between majority (read, white-run) museums and Native Americans inspired by an encounter he witnessed between tribal elders and staff at the Portland Art Museum. Among other things, Clifford argued for museums to adopt new strategies of representation that would accord greater recognition and respect to the meaning of sacred objects, as conveyed through living indigenous memory and perspective. Published more than a decade later, based on conference papers originally presented at the Newberry Library's D'Arcy McNickle Center for American Indian History, Contesting Knowledge features essays by scholars who study indigenous museums and material culture. The very readable volume, edited by Susan Sleeper-Smith of Michigan State University, speaks to the transformations as well as the complications that have occurred in the field since Clifford's piece originally appeared—precipitated, in part, by the continuing expansion of tribal museums, some with elaborate exhibition programs fueled by casino development. Although the book asserts a global perspective through its inclusion of essays by Hal Langfur on Brazil and Ciraj Rassool on the District Six Museum in Cape Town, South Africa, it focuses chiefly on North America. As one might expect, multiple essays critique the Smithsonian Institution's controversial National Museum of the American Indian (NMAI), which opened its Washington, DC, facility in 2004. Miranda J. Brady, in "A Dialogic Response to the Problematicized Past," interrogates NMAI's placement within the Smithsonian Empire, which Brady finds not only obscures its efforts to construct a national indigenous identity within the museum but is further complicated by what she perceives as a lack of transparency in its relationships with political and corporate America. Of additional interest with respect to NMAI are Jennifer Shannon's "The Construction of Native Voice at the National Museum of the American Indian," which addresses the difficult issues related to community authority and representation, and Ann McMullen's sweeping "Reinventing George Heye: Nationalizing the Museum of the American Indian and Its Collections," which reconsiders the museum's vast 800,000-plus object [End Page 213] collection through a new scrutiny of Heye, the individual who collected them earlier in the twentieth century. Other essays analyze the role of tribal museums in revitalizing their communities, particularly through community-focused exhibition practices. Amy Lonetree's thoughtful "Museums as Sites of Decolonization: Truth Telling in National and Tribal Museums" concludes the volume. Lonetree has in the past criticized NMAI's lack of historical context, particularly with respect to colonization and genocide, while generally offering praise for the museum's efforts to effect close collaboration with Native communities. Here she evaluates the Saginaw Chippewa's Ziibiwing Center of Anishinabe Culture and Lifeways as an exemplar of what Lonetree terms the "decolonized" museum—standing in sharp contrast to NMAI. Her study calls our attention to the powerful, creative, and quite different new models for exhibition making now emerging from some indigenous museums. Regardless of one's ethnicity, affiliation or experience, museum professionals and public historians alike, especially those with little or no experience working with indigenous communities or other stakeholder audiences, will find this volume concerning an emerging aspect of museum practice valuable and worth exploring. Kym S. Rice George Washington University, Washington, DC Copyright © 2010 The Western Literature Association</t>
+          <t>We report an innovative synthetic strategy based on the solid state reaction of fullerene C60 with lithium-transition metals alloys (platinum and palladium), which provides transition metal-decorated lithium intercalated fullerides, with improved hydrogen storage properties. Compounds with Li6Pt0.11C60 and Li6Pd0.07C60 stoichiometry were obtained and investigated with manometric/calorimetric techniques which showed an 18% increase of the final H2 absorbed amount with respect to pure Li6C60 (5.9 wt% H2) and an improved absorption process kinetic. The absorption mechanism was investigated with X-rays diffraction which allowed to identify the formation of the hydrofullerides. Scanning Electron Microscopy was applied to gain information on transition metal distribution and detected the presence of platinum and palladium aggregates which are shown to perform a surface catalytic activity towards hydrogen molecule dissociation process.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3162495630</t>
+          <t>https://openalex.org/W4280637020</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/su13105354</t>
+          <t>https://doi.org/10.2196/32840</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Pichlak (2021)</t>
+          <t>McLeod et al. (2022)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>The Drivers of Technological Eco-Innovation—Dynamic Capabilities and Leadership</t>
+          <t>Patterns of Skills Acquisition in Anesthesiologists During Simulated Interscalene Block Training on a Soft Embalmed Thiel Cadaver: Cohort Study</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>In the paper, a theoretical framework that combines the multidimensional conceptualization of dynamic capabilities (sensing, seizing, and reconfiguring) with two leadership styles (transactional and transformational) and two types of eco-innovation (incremental and radical) was developed and empirically tested. The purpose of this study is to answer the key question: how different leadership styles influence the potential of dynamic capabilities to generate ecological changes. The research examining the theoretical framework was quantitative and was based on a deliberately selection of the sample, which included 54 of the most evo-innovative Polish companies. The results indicate that transformational leadership moderates the positive relationship between seizing capability and both incremental and radical technological eco-innovation, whereas transactional leadership moderates the positive relationship between reconfiguring capability and both types of analyzed changes. This paper contributes to the development of the literature by integrating three theoretical concepts, showing the importance of a given leadership style as a factor enhancing the potential of dynamic capabilities for the development of technological eco-innovation. Moreover, the study may be a contribution to a broader discussion on the specifics of eco-innovative activity and its behavioral conditions.</t>
+          <t>The demand for regional anesthesia for major surgery has increased considerably, but only a small number of anesthesiologists can provide such care. Simulations may improve clinical performance. However, opportunities to rehearse procedures are limited, and the clinical educational outcomes prescribed by the Royal College of Anesthesiologists training curriculum 2021 are difficult to attain. Educational paradigms, such as mastery learning and dedicated practice, are increasingly being used to teach technical skills to enhance skills acquisition. Moreover, high-fidelity, resilient cadaver simulators are now available: the soft embalmed Thiel cadaver shows physical characteristics and functional alignment similar to those of patients. Tissue elasticity allows tissues to expand and relax, fluid to drain away, and hundreds of repeated injections to be tolerated without causing damage. Learning curves and their intra- and interindividual dynamics have not hitherto been measured on the Thiel cadaver simulator using the mastery learning and dedicated practice educational paradigm coupled with validated, quantitative metrics, such as checklists, eye tracking metrics, and self-rating scores.Our primary objective was to measure the learning slopes of the scanning and needling phases of an interscalene block conducted repeatedly on a soft embalmed Thiel cadaver over a 3-hour period of training.A total of 30 anesthesiologists, with a wide range of experience, conducted up to 60 ultrasound-guided interscalene blocks over 3 hours on the left side of 2 soft embalmed Thiel cadavers. The duration of the scanning and needling phases was defined as the time taken to perform all the steps correctly. The primary outcome was the best-fit linear slope of the log-log transformed time to complete each phase. Our secondary objectives were to measure preprocedural psychometrics, describe deviations from the learning slope, correlate scanning and needling phase data, characterize skills according to clinical grade, measure learning curves using objective eye gaze tracking and subjective self-rating measures, and use cluster analysis to categorize performance irrespective of grade.The median (IQR; range) log-log learning slopes were -0.47 (-0.62 to -0.32; -0.96 to 0.30) and -0.23 (-0.34 to -0.19; -0.71 to 0.27) during the scanning and needling phases, respectively. Locally Weighted Scatterplot Smoother curves showed wide variability in within-participant performance. The learning slopes of the scanning and needling phases correlated: ρ=0.55 (0.23-0.76), P&lt;.001, and ρ=-0.72 (-0.46 to -0.87), P&lt;.001, respectively. Eye gaze fixation count and glance count during the scanning and needling phases best reflected block duration. Using clustering techniques, fixation count and glance were used to identify 4 distinct patterns of learning behavior.We quantified learning slopes by log-log transformation of the time taken to complete the scanning and needling phases of interscalene blocks and identified intraindividual and interindividual patterns of variability.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2135076993</t>
+          <t>https://openalex.org/W4206558651</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/pssb.200301818</t>
+          <t>https://doi.org/10.1007/s00453-021-00825-8</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Kashirina et al. (2003)</t>
+          <t>Biniaz et al. (2021)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Correlation effects and Pekar bipolaron (arbitrary electron–phonon interaction)</t>
+          <t>On the Minimum Consistent Subset Problem</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Abstract The Buimistrov–Pekar method of canonical transformation was used to calculate the energies of the lowest singlet and triplet terms of bipolarons in crystals with ionic binding. An arbitrary electron–phonon interaction described by the Fröhlich Hamiltonian was considered. It was shown that, in the whole parametric range of electron–phonon interaction, the value of the free bipolaron ground state energy obtained by the Buimistrov–Pekar method is lower than all those found by Adamowski and Bednarek in the framework of direct variational approaches, and only slightly exceeds (relative error &amp;lt;0.3%) those obtained by Verbist, Peeters, and Devreese by integration over trajectories for α ≤ 7. The calculations have shown that any metastable triplet states corresponding to the lowest triplet term of a bipolaron are absent for all the parameters of the electron–phonon interaction, the results being in complete analogy with Hill's theorem about the absence of any bound excited states for an H − ion. Study of a wave function of more general form has demonstrated that a two‐center bipolaron is energetically less advantageous than a one‐center one for all the parameters of the electron–phonon interaction. Control calculations performed with the system of functions used in this paper have yielded 1.173 a.u. for the hydrogen molecule energy, which is in good agreement with the experimental value.</t>
+          <t>Let P be a set of n colored points in the d-dimensional Euclidean space. Introduced by Hart (1968), a consistent subset of P, is a set $$S\subseteq P$$ such that for every point p in $$P {\setminus } S$$ , the closest point of p in S has the same color as p. The consistent subset problem is to find a consistent subset of P with minimum cardinality. This problem is known to be NP-complete even for two-colored point sets. Since the initial presentation of this problem, aside from the hardness results, there has not been significant progress from the algorithmic point of view. In this paper we present the following algorithmic results for the consistent subset problem in the plane: (1) The first subexponential-time algorithm for the consistent subset problem. (2) An $$O(n\log n)$$ -time algorithm that finds a consistent subset of size two in two-colored point sets (if such a subset exists). Along the way we prove the following result which is of an independent interest: given n translations of a cone (defined as the intersection of n halfspaces) and n points in $$\mathbb {R}^3$$ , in $$O(n\log n)$$ time one can decide whether or not there is a point in a cone. (3) An $$O(n\log ^2 n)$$ -time algorithm that finds a minimum consistent subset in two-colored point sets where one color class contains exactly one point; this improves the previous best known $$O(n^2)$$ running time which is due to Wilfong (SoCG 1991). (4) An O(n)-time algorithm for the consistent subset problem on collinear points that are given from left to right; this improves the previous best known $$O(n^2)$$ running time. (5) A non-trivial $$O(n^6)$$ -time dynamic programming algorithm for the consistent subset problem on points arranged on two parallel lines. To obtain these results, we combine tools from planar separators, paraboloid lifting, additively-weighted Voronoi diagrams with respect to convex distance functions, point location in farthest-point Voronoi diagrams, range trees, minimum covering of a circle with arcs, and several geometric transformations.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2074300212</t>
+          <t>https://openalex.org/W2078509248</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0017-9310(96)00081-6</t>
+          <t>https://doi.org/10.1111/jocn.12128</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Tambour (1997)</t>
+          <t>Wilson et al. (2013)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Theory of transient multicomponent transport coupling in three-dimensional stagnation flows</t>
+          <t>Moral distress: levels, coping and preferred interventions in critical care and transitional care nurses</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A general field transformation for transient three-dimensional multicomponent energy and species equations is presented. Employing this transformation, transient multicomponent transport coupling effects in three-dimensional flows with surface injection cooling are studied. A new multicomponent transport coupling parameter is introduced and new results for the surface heat flux for various values (between 0 and 1) of this parameter are given. These values of the transport coupling parameter represent a wide range of transport properties of multicomponent mixtures. The present results demonstrate how a given final surface cooling efficiency can be obtained by choosing a variety of combinations of various values of the transport coupling parameter and injection rates. The present study also reveals an interesting behavior of local overshoot values in the transient relative contribution of the transport coupling effects to the surface heat flux. This behavior is explained here in terms of fluctuations in a multicomponent 'Transport-coupling Activity' number, which is sensitive to the differences in the characteristic rate of change of the local concentration gradients with respect to the local temperature gradient.</t>
+          <t>To examine the level and frequency of moral distress in staff nurses working in two types of units in an acute care hospital and to gather information for future interventions addressing moral distress.In 2008, the American Association of Critical Care Nurses published a Position Statement on Moral Distress. Nurses working in units where critically ill patients are admitted may encounter distressing situations. Moral distress is the painful feelings and/or psychological disequilibrium that may occur when taking care of patients.An exploratory, descriptive design study was used to identify the type and frequency of moral distress experienced by nurses. The setting was an acute care hospital in which the subjects were sampled from two groups of nurses based on their unit assignment.A descriptive, questionnaire study was used. Nurses completed the 38-item moral distress scale, a coping questionnaire, and indicated their preferred methods for institutional support in managing distressing situations. A convenience sample of staff nurses was approached to complete the moral distress questionnaire.Overall, the nurses reported low levels of moral distress. Situations creating the highest levels of moral distress were those related to futile care. A significance between group differences was found in the physician practice dimension. Specific resources were identified to help guide future interventions to recognise and manage moral distress.Nurses reported lower levels and frequency of moral distress in these units but their open-ended responses appeared to indicate moral distress. Nurses identified specific resources that they would find helpful to alleviate moral distress.There are numerous studies that identify the situations and the impact of moral distress, but not many studies explore treatments and interventions for moral distress. This study attempted to identify nurse preferences for lessening the impact of moral distress.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2958430348</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/1468-0424.12437</t>
+          <t>https://openalex.org/W2795546746</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Fisher &amp; Funke (2019)</t>
+          <t>Lacroix &amp; Tamtchouong (2018)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>The Age of Attraction: Age, Gender and the History of Modern Male Homosexuality</t>
+          <t>Dynamic Causal Effects of Post-Migration Schooling on Labour Market Transitions</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">In 1902, founder of the Berlin Institute for Sexual Science, Magnus Hirschfeld, developed a ‘psychobiological questionnaire’ to investigate human sexuality.1 The section labelled ‘sexual instinct’ [Geschlechtstrieb] asked: ‘What approximately are the highest and lowest limits in age of the people to whom you feel drawn, or is age of no importance to you?’2 Hirschfeld's interest in age as a driver of sexual attraction reflects broader sexual scientific attempts to map an erotics of age.3 This article explores how and why the relative age of sexual subjects was theorised by British and German sexual scientists in the late nineteenth and early twentieth centuries. It demonstrates that questions around age preoccupied sexual science and argues, more specifically, that constructions of male homosexuality were driven by anxieties about interactions between children or adolescents and older men.4 In so doing, the article reveals the interrelationship between sexological debates about homosexuality and scientific explorations of childhood sexuality and adolescent development. It shows that age needs to be acknowledged as a crucial category shaping sexual scientific debate and structuring understandings of modern homosexuality.5 As is well known, the erotic charge provided by age difference was central to many culturally prominent eighteenth- and nineteenth-century understandings of same-sex desire.6 European and American elites interpreted classical (predominately Ancient Greek) cultures as providing affirmative models of youthful male beauty and intimate attachment between older and younger men or boys.7 While precise differences in age were rarely specified, partners were separated on the basis of maturity into active (the erastes) and passive roles (the eromenos). Moreover, attraction to younger same-sex partners was not seen to exclude opposite-sex relationships: men who desired male youths could also be married to women. The influence of this material on individual identities can be found, for example, in sexological case studies or letters received by prominent Hellenic writers.8 At the same time, this idealisation of age-differentiated erotics reinforced existing associations between same-sex activity and the sexual misuse of younger people by older men.9 In response, some sexual scientists sought to tease apart age-structured and same-sex relationships. These authors defined the male homosexual through his exclusive inborn attraction to other consenting adults. This article shows that this influential construction of the modern homosexual as a discrete congenital type emerged in direct response to considerations around age.10 It also demonstrates that, notwithstanding the emergence of this model, questions about the impact of sexual encounters with older men on a younger person's sexual development continued to be debated within sexual science, creating dialogue between theorisations of homosexuality and concurrent studies of childhood sexuality.11 As such, investigations of male homosexuality continued to revolve around urgent questions about how and when same-sex desire emerged and what impact sexual experiences in youth had on later desires. These debates remained at the centre of early twentieth-century sexual science in Britain and Germany, complicating the inborn model and securing the centrality of age as a key category in modern articulations of sexuality. Throughout the nineteenth century, male same-sex acts were frequently associated with the sexual coercion of young people in news media and forensic, legal and literary writings. The assumption that same-sex relations were violations of youth fundamentally shaped sexual scientific investigations of same-sex desire and informed intersecting explorations of childhood and adolescent sexual development.12 Later nineteenth-century constructions of homosexuality were inextricably linked to concerns about childhood and adolescent sexuality in ways that scholars have not yet fully explored. There are two main reasons for this oversight: first, research on child sexual abuse has frequently side-lined male-male same-sex behaviour, concentrating on sexual violence involving girls.13 Second, histories of male homosexuality have often downplayed the prominence of young people in representations of male same-sex behaviour.14 From the mid-nineteenth century, sexual science, alongside other scientific, legal and literary discussions of childhood, constructed children as at risk of physical and moral molestation.15 Although there was no clearly defined concept of child sex abuse before the twentieth century, minors were increasingly seen as victims of defilement rather than as sexually precocious agents.16 Age of consent and sexual assault laws as well as child marriage legislation in Europe and European colonies were often focused on the vulnerabilities of girls.17 Yet, boys were also seen as requiring protection from (often male) predators.18 Age of consent and </t>
+          <t>Immigrants often experience difficulties integrating the local labor market. In Canada, the government of Quebec implemented a program back in 1996 that explicitly selected highly qualified workers (Bachelors', Masters' or PhD's). This paper investigates the extent to which the return to foreign-acquired human capital is different from the education acquired in Quebec. Specifically, we seek to estimate the benefits of post-migration education over foreign-education on the transitions between qualified and unqualified jobs and unemployment by means of a multiple-spells and multiple-states model. Our results indicate that immigrants originating from well-off countries have no need to further invest in domestic education. On the other hand, immigrants from poorer countries, despite being highly qualified, benefit greatly from such training in the long run as it eases their transitions into qualified and unqualified jobs and out of unemployment. Our results also indicate that selection into domestic education needs to be accounted for to avoid significant selection problems.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3165612848</t>
+          <t>https://openalex.org/W4315563578</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://doi.org/10.23951/1609-624x-2021-3-102-109</t>
+          <t>https://doi.org/10.33790/jmhsb1100168</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Бутенко (2021)</t>
+          <t>Evans et al. (2022)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PAREMIOLOGICAL TRANSFORMATIONS IN FILM TRANSLATION (BASED ON THE RUSSIAN AND ENGLISH LANGUAGES)</t>
+          <t>Social Connections and Community Engagement Trends Among Unaccompanied Refugee Minors Exiting Foster Care</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Введение. Проведено лингвостилистическое исследование паремиологических трансформаций в кинотексте и рассмотрены возможности эквивалентной передачи трансформа в языке перевода. Актуальность исследования обусловлена широкой употребительностью пословичных единиц в художественном языке, в частности в кинодискурсе. Встраиваясь в матрицу кинодиалога, они становятся основой для последующих преобразований в высказываниях персонажей, создавая своей окказиональностью значительный экспрессивный потенциал. Цель. Поскольку свидетельством эффективной трансформации является узнаваемость исходной пословицы в трансформе, целью исследования стало выявление лингвостилистических средств, способствующих узнаванию, декодированию и адекватному зрительскому восприятию трансформа в языке принимающей культуры. Материал и методы. Материалом исследования послужили пословичные трансформы в высказываниях персонажей анимационного фильма “The Lion King. Hakuna Matata” («Король Лев. Акуна Матата»). Проводимое исследование имело теоретико-эмпирический характер, при котором анализ материала осуществлялся посредством структурного и описательного методов, позволяющих установить определенные лингвистические закономерности паремиологических трансформаций. Результаты и обсуждение. Анализируемый авторский трансформ является по сути сентенцией, афористическим, то есть лаконичным и поучительным, изречением. Сентенция воспроизводит типические черты народной пословицы: дидактичность, переосмысленность, имплицитность. Оживляя традиционную форму паремиологической единицы, она сохраняет семантико-стилистическое тождество с прецедентным текстом. Наряду со смысловой тождественностью с исходной пословицей, трансформ-сентенция демонстрирует и синтаксическую схожесть, при этом бесшовно включаясь в контекст диалога. Констатируемые проявления трансформационного процесса закономерны, так как трансформ создается по пословичным алгоритмам, что обеспечивает его соотносимость с исходной пословицей. Их имплицитная общность предопределяет и в некоторой степени ограничивает вариативность лексического содержания, а также синтаксической структуры трансформа. Это дедуктивное положение может стать небольшим научным вкладом в лингвостилистические исследования в области паремиологической трансформации. Оно эффективно работает в художественном языке, где обеспечивающая адекватное восприятие логическая структура традиционной пословицы способна производить дериваты, выделяющиеся своеобразием формы. Проводимым лингвостилистическим исследованием изучаются людические (игровые) ресурсы полисемии, применяемые в трансформе, и анализируются изыскиваемые возможности перевода каламбурных речений. Внесение модифицированной пословичной единицы – сентенции – в структуру кинодиалога рассматривается как прием стилистической цитации, функциональная ценность которой подтверждается уместностью употребления в определенной ситуации общения. Статус интертекстуального знака, приобретаемый сентенцией в высказывании персонажа, наделяет ее особой значимостью и способствует возникновению направленных ассоциаций, служит средством усиления аргументации и выражения оценки. Заключение. Трансформация паремиологических единиц – это результат художественно-обработанного прецедентного текста, где структурно-семантическая устойчивость обновляется окказиональным, но идентичным по содержанию выражением. Таким образом, модифицированные паремии не воспринимаются как безжизненные фольклорные штампы, они являются актуальными составляющими речевого узуса. Поскольку краткость входит одним из основных компонентов в понятие «пословица», ее семантико-стилистическому деривату также свойственны смысловая емкость и синтаксическая сжатость. Подобные формы способствуют созданию языковой компрессии, необходимой в субтитровании, наиболее востребованном виде киноперевода. Этот фактор подтверждает как практическую значимость исследования, так и его актуальность для киноиндустрии. Introduction. The linguistic research analyzes paremiological transformations in the film text and stud-ies the possibilities of their equivalent translation in the host culture. The relevance of the study is due to the wide use of proverbial units in the artistic language and namely in film discourse. Embedded in the matrix of the film dialogue, they become a basis for subsequent transformations in characters’ speech, creating a significant expressive potential because of their occasional character. Aim and objectives. Since the recognition of the original proverb in the modified version is the proof of an effective transformation, the aim of the study is to identify the linguistic means that contribute to recognition, decoding and adequate perception of the transform in the language of the host culture. Material and methods. The research is based on the proverbial transforms in the characters’ utterances of the animated film “The Lion King. Hakuna Matata”. Being of a theoretical-empirical nature, the lingua-stylistic study required the use of the struc</t>
+          <t>The United States has more immigrants than any other country in the world. The Unaccompanied refugee minor program has been serving thousands of youth annually since the 1970s and yet there is still a dearth of research and some apprehension of how to assist these vulnerable children in making friends and supportive relationships in the US. Social ties, social support networks, and engagement in the local/ immigrant community have all been shown to help ease the transition to the United States and improve mental health well being for immigrants. A national refugee resettlement agency sent surveys to all the Unaccompanied Refugee Minors who had existed foster care program three to 15 months prior to assess their social connections and community engagement after the program ended. Thirty youth replied and results show that living arrangements varied among participants, social engagement in the community was present for most of the young adults, relationships were an aspect of social support, and reliance on public benefits was relatively low among respondents. There are implications for caseworkers in terms of case planning to help ensure youth are connected before they leave the program, and future recommendations for more in-depth research are included.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://openalex.org/W623916810</t>
+          <t>https://openalex.org/W4296417943</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5860/choice.37-5785</t>
+          <t>https://doi.org/10.12788/fp.0303</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>NA (2000)</t>
+          <t>Dodlapati (2022)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>The Spanish economy in the new Europe</t>
+          <t>Agent Orange Exposure, Transformation From MGUS to Multiple Myeloma, and Outcomes in Veterans</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>List of Tables and Figures Foreword by Luis Angel Rojo Preface List of Abbreviations Introduction: Changes in the International Economic Setting PART ONE: COMPARATIVE ANALYSIS Growth and Structural Changes Productivity and its Determinants Activity, Employment and Unemployment Costs, Prices and Competitiveness Public Finances and Fiscal Policy External Sector Nominal and Real Convergence PART TWO: EVALUATION OF THE INTEGRATION PROCESS Trade Relations Direct Investment Flows Migratory Flows The Community Budget and its Functions Unification of Monetary Policy in Europe Epilogue: Prospects and Economic Strategies for the Spain of the Euro Appendix I: Chronology of the European Integration Process Appendix II: Methodological Problems of International Comparisons Index</t>
+          <t>Multiple myeloma (MM) accounts for 1% to 2% of all cancers. Exposure to the pesticide Agent Orange (AO) has been established as a potential risk factor for the development of monoclonal gammopathy of undetermined significance (MGUS) and, subsequently, MM in Vietnam War veterans.This study explored variation in survival related to AO exposure, transformation from MGUS to MM, and covariates. Vietnam War veterans with MM or MGUS were identified in Veterans Health Administration (VHA) health records data. Cox proportional hazards models analyzed survival as a function of AO, race, ethnicity, body mass index, nicotine dependence, alcohol use disorder, Charlson Comorbidity Index, and treatment. Autologous hematopoietic cell transplantation for MM was defined by procedure codes.In the VHA 16,366 patients were identified: 11,112 patients diagnosed with MGUS and 7261 with MM during fiscal years 2010 to 2015 were identified; 12% (n = 2007) had both diagnoses. No statistically significant difference in the rate of transformation from MGUS to MM in the AO exposed and AO not exposed groups was found. In survival models, AO exposure was associated with slightly lower mortality. Alcohol use disorder, nicotine dependence, older age, and greater comorbidity burden increased mortality risk. Black race, female sex, obesity/overweight, and hematopoietic cell transplantation for patients with MM were protective factors. AO exposure was associated with decreased mortality for both MM/MGUS groups. Transformation increased mortality risk for patients with MGUS and decreased mortality risk for patients with MM.Because AO exposure is a nonmodifiable risk factor, focus should be placed on modifiable risk factors (eg, nicotine dependence, alcohol and drug use disorders, underlying comorbid conditions) as these were associated with worse outcomes. Future studies should examine the correlation of AO exposure, cytogenetics, and clinical outcomes in these veterans to best identify their disease course and optimize their care in the latter part of their life.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2059228813</t>
+          <t>https://openalex.org/W1878173133</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/016128498249222</t>
+          <t>https://doi.org/10.48550/arxiv.0812.3778</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Doswell et al. (1998)</t>
+          <t>De et al. (2008)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SELF-IMAGE AND SELF-ESTEEM IN AFRICAN-AMERICAN PRETEEN GIRLS: IMPLICATIONS FOR MENTAL HEALTH</t>
+          <t>Transition from mode-locked periodic orbit to chaos in a 2D piecewise smooth non-invertible map</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Current research suggests that pubertal development is occurring earlier in African-American preteen girls in response to familial contextual factors, which may make them vulnerable to low self-image and self-esteem dissatisfaction. This lowering in self-image and self-esteem may contribute to the early initiation of sexual behaviors, putting these girls at risk for pregnancy and sexually transmitted diseases. These potential risks place these girls in need of prepubertal health promotion, yet preadolescents are not frequently a focus of nursing care delivery except when summer camp and back-to-school physicals are performed. This article presents an in-depth overview of selected literature on self-esteem, discusses findings on self-image and self-esteem from a pilot study on pubertal influences on accelerated sexual behavior, and proposes health promotion strategies for pre-and peripubertal girls to promote positive mental health outcomes. More focused attention is needed on health promotion targeting the developmental transition health needs of prepubertal girls. Targeted health promotion activities may foster healthier pre-and peripubertal girls' perceptions of the meaning of their pubertal physical changes and stronger self-image and self-esteem. The goal of these health promotion activities should be to foster continuity of positive self-image and self-esteem among preteen girls, which is essential to prevent initiation of premature for-age risk of problem behavior, such as early coitus.</t>
+          <t>In this work we report a new route to chaos from a resonance torus in a piecewise smooth non-invertible map of the plane into itself. The closed invariant curve defining the resonance torus is formed by the union of unstable manifolds of saddle cycle and the points of stable cycle and saddle cycle. We have found that a cusp torus cannot develop before the onset of chaos, though the loop torus appears. The destruction of the two-dimensional torus occurs through homoclinic bifurcation in the presence of an infinite number of loops on the invariant curve. We show that owing to the non-invertible nature of the map, the structure of the basin of attraction changes from simply connected to a nonconnected one. We also describe how the mechanism of transition to chaos differs from the scenario of appearance of chaos in invertible maps as well as in smooth non-invertible maps.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317941081</t>
+          <t>https://openalex.org/W2921029899</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://doi.org/10.35774/visnyk2022.04.028</t>
+          <t>https://doi.org/10.1117/12.2511297</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Melnyk &amp; Zhukevych (2023)</t>
+          <t>Serna et al. (2019)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Economic and analytical diagnostics in the financial activity management system of a modern health care institution</t>
+          <t>Shining light on oxide-based nanostructures: tunable plasmonics and spintronics (Conference Presentation)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Introduction. The concept of the development of the system of financial support in the field of health care outlines the need to introduce a new financial mechanism, which provides for the provision of a sufficient level of managerial and financial autonomy to medical institutions.The change in the nature of financial relations imposes new requirements on the management of financial activities in health care institutions. The functional component of managerial activity is economic and analytical diagnostics, the application of which will ensure the adaptability of financial management methods and models to modern realities and the integration of the finances of health care institutions into the system of competitive market relations.Purpose. The purpose of the study is the development of theoretical provisions of economic-analytical diagnostics and the development of methodological approaches for its application in the management of financial activities of health care institutions in the conditions of transformational changes.Methods. Achieving the set goal is achieved by using general scientific, special and empirical methods of learning processes and phenomena. The methods of analysis and synthesis, comparison, and generalization are used to understand economic and analytical diagnostics in the management system; scientific abstraction, structural-logical and tabular methods for determining the methodology of economic-analytical diagnostics in modern health care institutions.Results. It has been proven that the mechanism of management activity of state institutions with elements of entrepreneurial structures, which are currently medical institutions, requires the use of modern economic and analytical methods and diagnostic models and their adaptation to the specifics of the activities of health care institutions. The analysis of the main approaches of scientists to the definition and understanding of economic-analytical diagnostics as a functional component of managing the financial activities of a health care institution was carried out, and it was determined that the essence of economic-analytical diagnostics of health care institutions should be the system of management activities regarding decision-making on the investment of financial and other resources to provide quality services that will ensure the efficiency and competitiveness of the health care institution.At the same time, the main tasks are defined: analysis of the financial activity of medical institutions, assessment of production capacities and resource base and means of their improvement, which will ensure the financial and economic stability and stability of medical institutions with the approval of market positions and/or exit from the crisis state.It is substantiated that the indicators of the efficiency and stability of the functioning of the health care institution should form an optimal management model of an expedient and justified system of financing and provision of financial resources and the efficiency of their spending.The use of integral methods and models that combine internal and external factors of the functioning of economic entities is proposed to carry out economic and analytical diagnostics and determine the capabilities of health care institutions. The main approaches to the SWOT analysis methodology with the possibility of its adaptation and application in the management of health care institutions were studied.Discussion. In order to carry out economic and analytical diagnostics regarding the determination of the capabilities of health care institutions, including financial ones, in addition to SWOT analysis, it is advisable to use other integral methods and models that combine internal and external factors of the functioning of economic entities in the field of medicine, which may be the subject of further research.</t>
+          <t>Nanophotonics profits enormously from the unique optical response shown by metamaterials and multilayers based in oxides. The functional optical response is achieved by either embedding non-oxide nano-resonators to enable a plasmonic behavior, or by modifying the oxide composition/structure to tune its optical, electronic and magnetic properties. In this contribution first, we review the non-conventional plasmonics based on elements of the p-block. The plasmonic response has its origin on the interband transitions of these elements in the infrared [1,2]. Especial emphasis will be made on bismuth nano-resonator structures because Bi shows the strongest interband transitions reported so far [3]. Second, we will show the key role of oxide layers in the design of plasmonic metamaterials to enable a strong coupling between plasmonic and photonic modes. Such coupling has demonstrated to be instrumental for development of high resolution optical thermometry sensors [4]. Finally, we show how the fine control of the composition of europium monoxide (EuO) nanocrystalline films induces a large tuning of its band-gap and of the ferroelectric response, which is necessary for its integration in optical and spintronics platforms [5]. [1]. J. Toudert, and R. Serna, Opt. Mat. Expr. 7, 2434 (2016); [2]. J. Toudert, and R. Serna, Opt. Mater. Express 7, 2299 (2017); [3]. J. Toudert, R. Serna, I. Camps, J. Wojcik, P. Mascher, E. Rebollar, T. Ezquerra, J. Phys. Chem. C 121, 3511 ( 2017); [4] G. Baraldi, M.García Pardo, J. Gonzalo, R. Serna and J. Toudert, Adv. Mater. Interfaces 5, 1870058 (2018); [5] A. Mariscal, et al., Appl. Surf. Science 456,980 (2018).</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2795546746</t>
+          <t>https://openalex.org/W2101569644</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/j.1567-1364.2007.00280.x</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Lacroix &amp; Tamtchouong (2018)</t>
+          <t>Steinborn et al. (2007)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Dynamic Causal Effects of Post-Migration Schooling on Labour Market Transitions</t>
+          <t>A novel vector element providing multicopy vector integration in&lt;i&gt;Arxula adeninivorans&lt;/i&gt;</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Immigrants often experience difficulties integrating the local labor market. In Canada, the government of Quebec implemented a program back in 1996 that explicitly selected highly qualified workers (Bachelors', Masters' or PhD's). This paper investigates the extent to which the return to foreign-acquired human capital is different from the education acquired in Quebec. Specifically, we seek to estimate the benefits of post-migration education over foreign-education on the transitions between qualified and unqualified jobs and unemployment by means of a multiple-spells and multiple-states model. Our results indicate that immigrants originating from well-off countries have no need to further invest in domestic education. On the other hand, immigrants from poorer countries, despite being highly qualified, benefit greatly from such training in the long run as it eases their transitions into qualified and unqualified jobs and out of unemployment. Our results also indicate that selection into domestic education needs to be accounted for to avoid significant selection problems.</t>
+          <t>An Arxula adeninivorans vector element has been identified that provides multicopy integration in an atrp1 host strain. The element consists of the ATRP1 selection marker fused to a newly generated truncated ALEU2 promoter of 53 bp. In the described example eight copies of an amyA expression vector encoding heterologous alpha-amylase from Bacillus amyloliquefaciens are integrated in the genome of the recombinant strain instead of a single copy observed when using the ATRP1 element with the complete promoter. The high copy number results in strains of superior productivity for a secreted recombinant alpha-amylase. The vector design enables the integration of a small vector fragment that consists of yeast DNA only providing high transformation frequencies and a high mitotic stability.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4302029183</t>
+          <t>https://openalex.org/W2317785099</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1922/cdh_00110niciomhair06</t>
+          <t>https://doi.org/10.5104/jiep.4.621</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Iomhair et al. (2022)</t>
+          <t>Kumazawa et al. (2001)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>The Greater Manchester Child Friendly Dental Practice Scheme: Using a Transformational Commissioning Approach to Align Paediatric Dental Service Provision with Childhood Oral Health Needs in Greater Manchester.</t>
+          <t>Moisture Absorbency of Optical Components Resin Adhesive.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>In response to the impact of the COVID-19 pandemic on access to already oversubscribed specialist paediatric dental services, a pilot of an enhanced primary care paediatric dental pathway, known as the Child Friendly Dental Practice (CFDP) scheme, was commissioned by the Greater Manchester Health and Social Care Partnership. Supported by a transformational commissioning approach, the ambition of the CFDP pilot was to manage or stabilise the oral health of high-need paediatric patients who had been referred to specialist dental services within Community or Hospital Dental Service settings, through timely access to primary care clinicians who were confident and experienced in treating children. The theory of change of the CFDP pilot proposed that rapid access to enhanced primary dental care would reduce the need for onward referral to specialist paediatric dental services, whilst also stabilising the oral health of children who require more complex management in specialist services. A formative evaluation of the phase one pilot implementation of the CFDP Scheme has demonstrated the potential of the CFDP Scheme to improve access to dental services for paediatric patients referred from their General Dental Practitioner. Comparison of waiting times between the CFDP pathway and the standard paediatric dental referral pathway have revealed substantially reduced waiting times to access care along the CFDP pathway, while less than 30% of those who attended CFDPs required onward referral to specialist paediatric dental services. Encouragingly, similar attendance and treatment completion rates were noted among patients from all levels of socio-economic deprivation, reducing concerns regarding the potential for service-based interventions to increase oral health inequalities. Following successful completion of the phase one pilot implementation and evaluation, the CFDP Scheme has now been rolled out across all localities in Greater Manchester as part of a second phase pilot implementation. Public Health Competencies; Equitable healthcare provision, Partnership working, Evidence-based public health, Systems thinking, Transformational commissioning, Healthcare evaluation.</t>
+          <t>Semiconductor optical device packages require precise positioning of submicron meter order and long term stability. When adhesive resin made of organic material is used to fix optical parts, one important concern is that it may reduce the stability of the packages. To clarify the moisture attack in adhesive resin, the material properties of the widely-used adhesive epoxy resin for optical parts fabrication have been investigated here by exposing it to high temperature and humidity. Length, weight, transition temperature and thermal expansion were measured in reliable test conditions of semiconductor packages. It is shown that severe degradation is caused when humidity is combined with conditions of high temperature. The decrement of transition temperature was expressed by a logarithmic equation in the range of 1000 hours. It was revealed that the degradation of epoxy resin was closely connected with the semiconductor laser package's power life.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1878173133</t>
+          <t>https://openalex.org/W3167306296</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.0812.3778</t>
+          <t>https://doi.org/10.4135/9788132108542</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>De et al. (2008)</t>
+          <t>Nilakant &amp; Ramnarayan (2006)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Transition from mode-locked periodic orbit to chaos in a 2D piecewise smooth non-invertible map</t>
+          <t>Change Management: Altering Mindsets in a Global Context</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>In this work we report a new route to chaos from a resonance torus in a piecewise smooth non-invertible map of the plane into itself. The closed invariant curve defining the resonance torus is formed by the union of unstable manifolds of saddle cycle and the points of stable cycle and saddle cycle. We have found that a cusp torus cannot develop before the onset of chaos, though the loop torus appears. The destruction of the two-dimensional torus occurs through homoclinic bifurcation in the presence of an infinite number of loops on the invariant curve. We show that owing to the non-invertible nature of the map, the structure of the basin of attraction changes from simply connected to a nonconnected one. We also describe how the mechanism of transition to chaos differs from the scenario of appearance of chaos in invertible maps as well as in smooth non-invertible maps.</t>
+          <t>THIS BOOK was originally conceived as the second edition of our previous book Managing Organisational Change, written in the aftermath of liberalisation initiated by the Indian government in 1991 and published in 1998. Based on primary data from about fifty Indian organisations in a variety of industries, it examined the challenges of growth in an emerging, liberalised competitive environment. We viewed organisational change as comprising three generic processes of growth, transformation and decline. We suggested that these three processes differ from one another in certain crucial respects and, therefore, required different approaches to manage the same. We argued that it was important for managers to know which generic process they are managing in order to be effective. We presented a model of the levers of change that provided an integrated approach to the management of change. Our generic model specifically focused on eight tangible levers of change: values-based leadership, strategy, structure, human resource practices, technology, marketing, quality, and costs. While the model was illustrated with examples from the best of Indian and international practices, the book emphasized both what organisations need to change and how they should go about it. It suggested that the effective management of change involves managing intangibles, particularly positive values such as selflessness, justice, compassion, tolerance, respect and integrity.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2101569644</t>
+          <t>https://openalex.org/W4286203341</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1567-1364.2007.00280.x</t>
+          <t>https://doi.org/10.1038/s41594-022-00804-9</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Steinborn et al. (2007)</t>
+          <t>Chang et al. (2022)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>A novel vector element providing multicopy vector integration in&lt;i&gt;Arxula adeninivorans&lt;/i&gt;</t>
+          <t>Structure of the metastatic factor P-Rex1 reveals a two-layered autoinhibitory mechanism</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>An Arxula adeninivorans vector element has been identified that provides multicopy integration in an atrp1 host strain. The element consists of the ATRP1 selection marker fused to a newly generated truncated ALEU2 promoter of 53 bp. In the described example eight copies of an amyA expression vector encoding heterologous alpha-amylase from Bacillus amyloliquefaciens are integrated in the genome of the recombinant strain instead of a single copy observed when using the ATRP1 element with the complete promoter. The high copy number results in strains of superior productivity for a secreted recombinant alpha-amylase. The vector design enables the integration of a small vector fragment that consists of yeast DNA only providing high transformation frequencies and a high mitotic stability.</t>
+          <t>P-Rex (PI(3,4,5)P3-dependent Rac exchanger) guanine nucleotide exchange factors potently activate Rho GTPases. P-Rex guanine nucleotide exchange factors are autoinhibited, synergistically activated by Gβγ and PI(3,4,5)P3 binding and dysregulated in cancer. Here, we use X-ray crystallography, cryogenic electron microscopy and crosslinking mass spectrometry to determine the structural basis of human P-Rex1 autoinhibition. P-Rex1 has a bipartite structure of N- and C-terminal modules connected by a C-terminal four-helix bundle that binds the N-terminal Pleckstrin homology (PH) domain. In the N-terminal module, the Dbl homology (DH) domain catalytic surface is occluded by the compact arrangement of the DH-PH-DEP1 domains. Structural analysis reveals a remarkable conformational transition to release autoinhibition, requiring a 126° opening of the DH domain hinge helix. The off-axis position of Gβγ and PI(3,4,5)P3 binding sites further suggests a counter-rotation of the P-Rex1 halves by 90° facilitates PH domain uncoupling from the four-helix bundle, releasing the autoinhibited DH domain to drive Rho GTPase signaling.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3093889870</t>
+          <t>https://openalex.org/W2089433433</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fbuil.2020.560116</t>
+          <t>https://doi.org/10.1002/hrm.20445</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Seilabi et al. (2020)</t>
+          <t>Marks &amp; Mirvis (2011)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Promoting Autonomous Vehicles Using Travel Demand and Lane Management Strategies</t>
+          <t>A framework for the human resources role in managing culture in mergers and acquisitions</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A key challenge facing cities of today is the persistent and growing urban congestion that has significant adverse effects on economic productivity, emissions, driver frustration, and quality of life. The concept of smart cities, which can revolutionize the management of metropolitan transportation operations and infrastructure, shows great promise in mitigating this problem. Specifically, the automation and connectedness (A&amp;C) of smart city entities such as its infrastructure, services, and vehicles, can be helpful. In this regard, this paper focuses on the potential of autonomous vehicles (AVs) and AV infrastructure, particularly during prospective transition era where there will be mixed streams of AVs and human driven vehicles (HDVs). The paper considers two aspects of this potential: connectivity-enabled travel demand management and travel infrastructure supply through lane management. To demonstrate the opportunity associated with this potential, this paper first presents an AV-enabled tradable credit scheme (TCS) to manage travel demand. Here, the transportation authority distributes travel credits to travelers directly and instantaneously using the AV's A&amp;C features. Then, travelers use their A&amp;C features to pay these credits for travel at specific locations or times-of-day according to their choices of lane types and links. With regard to supply, the paper considers that the road network consists of two lane types: AV-dedicated, and mixed traffic lanes, and develops a scheme for Travel Demand and Lane Management Strategies in AV transition era (TLMAV). First, the paper models the expected travel choices based on the user equilibrium concepts, at different levels of AV market penetration. Then, the existence of the optimal solution in terms of link flows and the prevailing travel credit price is demonstrated. Then, the paper establishes the optimal TLMAV that minimize total travel time subject to user equity constraints. The results demonstrate the extent to which HDV users suffer increase in travel cost if equity is not considered in the model. The results also show how the transportation agency can use TLMAV to keep HDV travel costs to acceptable levels, particularly during early periods of the AV transition period.</t>
+          <t>Abstract Scholars, business people, and change agents agree that culture matters in eventual merger and acquisition (M&amp;amp;A) success. Researchers have generated many insights and practitioners have developed many interventions regarding culture in M&amp;amp;A. Managing culture, however, is often a low priority when executives are consumed with the deal's financial and strategic aspects. The authors propose a framework for how Human Resources (HR) can work with business partners in managing acculturation in M&amp;amp;A. They first examine the relationship between cultural differences and M&amp;amp;A outcomes, how culture manifests itself in combinations, and the causes and stages of culture clash. They then highlight the value of a clear “cultural endstate” in M&amp;amp;A and apply classic change management theory to identify actions that unfreeze current cultural mind‐sets, move people toward the desired endstate, and refreeze the desired culture. Their framework specifies HR actions for four distinct cultural endstates—pluralism (in which the partner companies coexist), integration (in which the partners blend current cultures together), assimilation (in which one company absorbs the other), and transformation (in which the partner companies abandon key elements of their current cultures and adopt new values and norms). © 2011 Wiley Periodicals, Inc.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2040919102</t>
+          <t>https://openalex.org/W4387415386</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m403212200</t>
+          <t>https://doi.org/10.4103/ijn.ijn_253_22</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Pangas et al. (2004)</t>
+          <t>Girimaji et al. (2023)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Growth Differentiation Factor 9 Regulates Expression of the Bone Morphogenetic Protein Antagonist Gremlin</t>
+          <t>Transition of Kidney Care at 18: Challenges and Practical Solutions for India</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. The bone morphogenetic proteins (BMPs) 1The abbreviations used are: BMP, bone morphogenetic protein; GDF, growth differentiation factor; TFG-β, transforming growth factor β; MOPS, 4-morpholinepropanesulfonic acid-formaldehyde; PGE2, prostaglandin E2; PMSG, pregnant mare serum gonadotropin; FBS, fetal bovine serum; RT, reverse transcription; hCG, human chorionic gonadotropin. and growth differentiation factors (GDFs) constitute the largest subgroup of the TGF-β superfamily of secreted growth factors (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar). Many of the ligands are expressed throughout embryogenesis as well as in adult tissues, reflecting the diversity of their biological activities. BMPs were first characterized as growth factors that cause de novo bone synthesis in non-skeletal sites (2Urist M.R. Science. 1965; 150: 893-899Google Scholar, 3Wozney J.M. Eur. J. Oral Sci. 1998; 106: 160-166Google Scholar). Subsequent work has demonstrated that they are multifunctional proteins involved in mesoderm formation, limb development, branching morphogenesis, germ cell development, cardiac development, and female fertility, among other functions (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar, 4Hogan B.L. Genes Dev. 1996; 10: 1580-1594Google Scholar). BMPs are secreted dimeric proteins that bind to membrane-bound receptor serine-threonine kinases (5Shi Y. Massague J. Cell. 2003; 113: 685-700Google Scholar). The type I and type II receptors, in turn, phosphorylate cytoplasmic SMAD proteins that act as transcription factors to regulated down-stream target genes (6Attisano L. Wrana J.L. Curr. Opin. Cell Biol. 2000; 12: 235-243Google Scholar). GDF9 is a TGF-β-related protein necessary for female fertility (7Dong J. Albertini D.F. Nishimori K. Kumar T.R. Lu N. Matzuk M.M. Nature. 1996; 383: 531-535Google Scholar, 8Elvin J.A. Yan C. Wang P. Nishimori K. Matzuk M.M. Mol. Endocrinol. 1999; 13: 1018-1034Google Scholar). Although Gdf9 knock-out mice arrest at the primary follicle stage, in vitro studies have shown that GDF9 signaling is also critical during ovulation. During ovulation, GDF9 induces cumulus cell expansion, an inflammation-like process that involves the mucification of the cells surrounding the oocyte. This process bind</t>
+          <t>Health-care transition (HCT) from pediatric-centered to adult-oriented health-care setting is more than a simple transfer of care. It is a carefully planned movement specially tailored for the needs of adolescents and young adults (AYAs). Similar to other chronic diseases, the need for HCT for AYAs with kidney disease has been well established by the International Society of Nephrology (ISN) and the International Pediatric Nephrology Association (IPNA) consensus statements since 2011. However, successful HCT in India and other low- and middle-income countries (LMICs) has been limited. Undertaking the HCT program in India requires involvement of many stakeholders, that is, AYAs, parents/caregivers, health-care providers, and the health-care system. In this article, we discuss the need for HCT, the challenges faced during the transition, and the recommended models for HCT in kidney care. We focus on the unique challenges faced in India and conclude with practical suggestions to implement HCT in our setting.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2792728668</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/14780887.2018.1456588</t>
+          <t>https://openalex.org/W3172847412</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sadlier (2018)</t>
+          <t>Olazabal (2020)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Dancing to a resistant imaginary: reconfiguring female (a)sexualities through Zorbitality</t>
+          <t>El reto climático en las ciudades</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>In the twenty-first century, asexuality has become synonymous with sexual orientation, being described as a 'lack' of sexual attraction.At this juncture, a study of female (a)sexualities is long overdue.Firstly, very little has been written on the topic.Secondly, with the rise of a postfeminist culture, women are often represented as desiring their own objectification, whilst the narratives of asexual-identified women are reduced to static narratives of frigidity or spiritual devotion.In response, this paper develops the concept of Zorbitality.Zorbitality is a resistant imaginary, which seeks to reconfigure female (a)sexualities through collective ecstatic motion.It harnesses the historical transformation and cultural hybridity of Afro-diasporic rhythms, to interrogate the Western thought systems that constrain women's ecstatic movement.The paper draws on two methodologies: Deleuzian feminist cartographies and collective biography.These methodologies together speak to a posthuman concern with reaching an enhanced sense of the collective, through a focus on the affective intensity of each moment.Two dance narratives will frame the analysis: Stravinsky's (1913) ballet, The Rite of Spring, where a sacrificial 'virgin' dances herself to death, and West African Yoruba dance, characterised by solo dance within a collective.These narratives will interweave in the memory of a woman called Martha, in which her solo dance within a collective evokes the uncreolised African body and enables her to experience an ethical opening to human and non-human others.</t>
+          <t>espanolEl reto climatico es especialmente importante en las ciudades y asi lo trasladan la Nueva Agenda Urbana y los objetivos de desarrollo sostenible. En este capitulo se discuten las claves locales del reto climatico con una doble perspectiva: las ciudades como parte del problema y como sistemas altamente vulnerables al cambio climatico. Se describen estos retos a traves de un repaso de las tendencias urbanas y sus consecuencias en terminos de emisiones y riesgos climaticos. Con el objetivo de establecer las pautas para una transformacion urbana justa, sostenible y resiliente, se discuten los principales tipos de medidas climaticas, los condicionantes intrinsecos urbanos que explican la necesidad de pensar desde lo local, y los principios clave de la accion climatica: flexibilidad, integracion y transdisciplinariedad. El capitulo termina con un repaso al progreso de la accion climatica local y concluye aludiendo a la co-responsabilidad de los gobiernos locales, de las empresas, ciudadanos y usuarios de las urbes, en el transito hacia modelos urbanos bajos en carbono y resilientes al cambio climatico. EnglishThe climate challenge is especially important in cities as reflected in the New Urban Agenda and the Sustainable Development Goals. This chapter discusses the key aspects of the urban climate challenge with a double perspective: cities as the source of the problem and as systems highly vulnerable to climate change. These challenges are described through a review of urban trends and their consequences in terms of emissions and climate risks. In order to establish guidelines for a just, sustainable and resilient urban transformation, the chapter discusses the main types of climate action, the inherent urban conditioning factors that explain the need to think locally, and, eventually, the key principles of climate action: flexibility, integration and transdisciplinarity. The chapter ends with a review of the progress of local climate action globally and concludes by calling to the co-responsibility of local governments, companies, citizens and users of cities, in the transition towards low-carbon urban models which are resilient to climate change.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4229850158</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1287/opre.1120.1145</t>
+          <t>https://openalex.org/W2908368518</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>NA (2012)</t>
+          <t>Muñoz (2016)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>In This Issue</t>
+          <t>Identifying individuals with advanced chronic conditions who may benefit from an early palliative care approach: using the NECPAL CCOMS-ICO© tool: population-based prevalence, predictive validity for mortality and predictive models</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Chapter 13 of the Old Testament's Book of Numbers begins, “And the Lord spoke unto Moses, saying: ‘Send thou men, that they may spy out the land of Canaan.’” Although intelligence operations have become more sophisticated since Moses' time, the basic steps remain the same: collect information and analyze it with the goal of providing reasoned assessments that reduce uncertainty and help political or military leaders make better decisions. The topic of intelligence is potentially of special interest to operations researchers for two reasons. First, intelligence is a product resulting from several distinct operations, and as with all products, there are better and worse ways to produce it, which leads to a natural focus on research. Second, there are several opportunities for the application of tools from the broad sweep of operations research methods to specific intelligence questions; this set of problems can be construed as intelligence operations research. “Intelligence Operations Research” is the archival record of Kaplan's Philip McCord Morse Lecture on this topic. Consumer tax preparation applications comprise a profitable niche in software development. Internal Revenue Service efforts to achieve an 80% electronic filing rate for major returns by 2013 has bolstered the growth in tax preparation software. Companies producing tax preparation software must process thousands of state and federal tax forms and release their product on time to protect their market share. “A Hierarchical Framework for Organizing a Software Development Process,” by F. Iravani, S. Dasu, and R. Ahmadi proposes hierarchical optimization models for organizing a complex tax software development process at a leading U.S. software company. The models assign tax forms to groups to control the process more effectively and staff the groups such that they complete processing the assigned tax forms by the release deadline. Implementing the hierarchical models helped the company reduce overtime hours by 31%, reduce total workforce cost by 13%, and release the tax software on time. When a new, more critical patient arrives in a hospital's intensive care unit (ICU) and no bed is available, physicians must discharge a current patient. The discharged patient may require readmission to the ICU, thus straining the already congested resources. Currently, no objective (severity-based using strict physiologic criteria) standards for ICU admission and discharge exist. In “Optimizing Intensive Care Unit Discharge Decisions with Patient Readmissions,” C. W. Chan, V. F. Farias, N. Bambos, and G. J. Escobar provide a systematic and evidence-based discharge strategy for ICU patients when incoming demand necessitates the discharge of a current patient. This work establishes a methodological framework to examine the performance of an index policy that accounts for patient readmissions when making ICU discharge decisions. The major implication of this work is that, in the future, discharge strategies could be linked to objective physiologic criteria to improve patient outcomes and increase efficiency. Flooding can cause significant loss of life and economic damage. The 1953 floods in the southwestern parts of the Netherlands demonstrated the flooding risks to that country. Soon after 1953, Van Dantzig started the cost-benefit analysis of the dike height optimization problem, which looks for the optimal balance between investing in dikes (costs) and reducing flood risk (benefits). In “Safe Dike Heights at Minimal Costs: The Nonhomogeneous Case,” R. Brekelmans, D. den Hertog, K. Roos, and C. Eijgenraam extend Van Dantzig's model and address the fundamental questions of when and how much to invest where. The authors formulate this problem as a mixed-integer nonlinear programming (MINLP) model and combine state-of-the-art solvers with techniques that exploit the problem structure. Dutch government agencies use the model to analyze the main dike rings in the Netherlands and to propose new safety standards to incorporate into the Dutch Water Act. Probabilistically constrained optimization problems with discretely distributed random variables are computationally challenging. In “Pattern-Based Modeling and Solution of Probabilistically Constrained Optimization Problems,” M. Lejeune develops a combinatorial pattern-based framework to model such problems. The method scales remarkably well and solves exactly and very fast stochastic problems where uncertainty is represented by an extremely large (up to 50,000) number of scenarios. This is a key and distinctive feature of the method. It permits reformulating the stochastic problems as mixed-integer ones in which the number of binary variables is not an increasing function of the number of scenarios used to characterize the uncertainty. In the current financial crisis, central banks worldwide have saved major banks from going into default. Companies and banks are closely linked in today's global economy, and negative ev</t>
+          <t>In high income countries, around 75% of the population will die due to chronic conditions. Despite only about one third of those having chronic diseases needing palliative care suffer from cancer, palliative care is mainly aimed at patients with terminal cancer in institutional settings. Nevertheless, there is strong evidence of unmet palliative needs among people with life-threatening non-malignant disease. Data in patients with advanced cancer show that early provision of specialty palliative care improves quality of life, lowers spending, and helps clarify treatment preferences and goals of care. Translating available evidence into health systems to deliver early palliative care to all people with advanced chronic conditions different than cancer in any setting of care might improve clinical outcomes decreasing costs of care in this population. Recognising transition 1, the period referred to as end of life preceding terminal phase, may enable early palliative care intervention and anticipatory palliative care planning. Nevertheless, the right moment to start palliative care -for which early identification is a prerequisite- has not been defined yet. Acknowledging limitations of available prognostic indices and predictive models, with insufficient evidence at this time to recommend their widespread use, a pragmatic approach to identify candidates for palliative care advocating a person centred approach based not on diagnosis or prognosis, but on their needs has been proposed. It is based on asking the surprise question (“Would you be surprised if this patient were to die in the next 12 months?”) and looking for one or more clinical indicators that would suggest a person might be at risk of deteriorating and dying and should be assessed for unmet needs. This pragmatic approach is the basis of most of the set of identification indicators which have been developed in recent years to recognizing transition 1 and identifying individuals likely in need of palliative care, as the NECPAL CCOMS-ICO© tool. The overall aim of this thesis was to evaluate the usefulness of the NECPAL CCOMS-ICO© tool in identifying individuals with advanced chronic conditions who may benefit from an early palliative care approach, through employing it as a tool to determine the population-based prevalence of these individuals (Study I), evaluating its predictive validity for mortality at 3, 6, 12 and 24 months to inform usefulness as screening tool for early palliative care (Study II) and identifying the indicators that were associated with mortality within 24 months to develop a predictive model for identifying individuals at high risk of death (Study III). Conclusions The NECPAL CCOMS-ICO© tool can be considered useful in identifying individuals with advanced chronic conditions who may benefit from an early palliative care approach. It can be employed to assess the population-based needs for palliative care through identifying prospectively the population-based prevalence of this population, an innovative approach which can be potentially useful for improving clinical practice. It can be used, as well as the SQ, as screening tools for early palliative care, as they present high sensitivity and high NPV, both important predictive values to identify such a vulnerable and often undetected and under-treated population. It can be employed as a first assessment to identify this population, preferably accompanied by repeated or additional tests, aiming to improve specificity. From a population-based perspective, end of life trajectories may turn out to be an excellent conceptual framework for the development of simple predictive models for identifying individuals at high risk of death, particularly in advanced frailty and organ failure, the most prevalent population-based advanced chronic conditions, for which simple and promising predictive models have been developed and should be externally validated.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2045459554</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0147-619x(85)90054-x</t>
+          <t>https://openalex.org/W3153399341</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cohen et al. (1985)</t>
+          <t>Prabhu &amp; Bigham (2020)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>The integrated and free states of Streptomyces griseus plasmid pSG1</t>
+          <t>Cross-disciplinary interactions in work-integrated learning</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>A 16.6-kb plasmid—pSG1—was isolated from Streptomyces griseus following transformation of protoplasts with unrelated plasmids. Southern hybridization experiments with radioactive probes prepared from pSG1 fragments and immobilized S. griseus DNA fragments indicated that the plasmid was present in the progenitor strain, in an integrated state. In the pSG1+ isolates plasmid sequences existed both as integrated sequences and as free plasmids. The integrated state of maintenance persisted in strains which have been cured of the free plasmid. The junction site on the plasmid was located on a 0.5-kb EcoRI-SalI fragment. The chromosomal integration site was demonstrated to be the same in all strains derived from S. griseus NRRL3851. The occurrence of both states of plasmid maintenance in the same clones indicates that an integrated pSG1 sequence does not interfere with free plasmid replication and partition. It suggests that the establishment of the free state may involve a replicative excision of pSG1 from the S. griseus chromosome.</t>
+          <t>Work-integrated learning (WIL) is the intentional integration of theory and practice knowledge to prepare graduates towards securing a placement in the workplace or a work community arena. The purpose of incorporating WIL into courses is to assist students with the complicated process of transferring skills gained in a formal educational setting to the workplace. The term WIL is most commonly used to describe programmes where students engage with workplaces and communities as part of their studies._x000D_
+Students graduate into a transdisciplinary world, not a monodisciplinary one. It is essential for education providers to ensure that their students are equipped with relevant discipline skills as well as generic, transferable skills. Professionals in the field of information technology (IT), such as System analysts, Business analysts, Developers, IT services, and IT trainers must understand the workplace business requirements which may not necessarily be limited to IT. Hence it is crucial that our graduates develop skills that enable them to interact productively. In addition to shaping and supporting the learner for the workplace through practice-based experience, we look at ways to provide learners with the social skills necessary to interact and work with other disciplines as they transition from structured education to the workplace. In this study, we focus on cross-disciplinary approaches to develop the skills necessary for a graduate as they transition to the workplace. The objective is for the student to gain knowledge and understanding and to master the skills that emulate key aspects of the workplace. _x000D_
+The paper aims to investigate how learners engage with the methods that are intended to provide them with practice-based learning. Cross-disciplinary teams worked together on industry problems and co-created the full cycle of problem-solving. Qualitative data was collected from 150 students across a range of disciplines, and 10 organisations through anonymous surveys and semi-structured interviews to gain students' perspective of cross-disciplinary WIL learning approaches. _x000D_
+Preliminary results showed high satisfaction with the learning process, the interdisciplinary teamwork and the future-focused toolkit that can be applied to the IT industry and beyond. Students welcome the opportunity to work with industry as peers, while also enjoy creating events that involve industry. The feedback received from the IT students shows that they thrive with the responsibility they are allowed to have and hence become aware of their personal development and growth as a working professional, which had improved retention and completion rates. Cross-disciplinary team members supply input to a project or question requiring specialist knowledge, allowing for the overall objective to be reached. _x000D_
+Based on the preliminary results, the authors conclude that working on cross-disciplinary projects helped students think beyond their expertise and understand the 'big picture' about working on projects in teams within an organisation. This also creates a way to give students responsibility which allows students to be motivated while also allowing autonomy to think about their own development during this situation. Interactions (directly with industry partners) gave students the guidance, confidence, motivation, and a sense of belonging.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2791768532</t>
+          <t>https://openalex.org/W1984028227</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.envint.2018.03.006</t>
+          <t>https://doi.org/10.4067/s0034-98872014000600006</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Wei et al. (2018)</t>
+          <t>Bitrán et al. (2014)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Neglected environmental health impacts of China's supply-side structural reform</t>
+          <t>]]¿Cómo aprenden los estudiantes de medicina en la transición hacia el ciclo clínico?: Estudio cualitativo de las percepciones de estudiantes y docentes acerca del aprendizaje inicial de la clínica</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>“Supply-side structural reform” (SSSR) has been the most important ongoing economic reform in China since 2015, but its important environmental health effects have not been properly assessed. The present study addresses that gap by focusing on reduction of overcapacity in the coal, steel, and iron sectors, combined with reduction of emissions of sulfur dioxide (SO2), nitrogen oxide (NOx), and fine particulate matter (PM2.5), and projecting resultant effects on air quality and public health across cities and regions in China. Modeling results indicate that effects on air quality and public health are visible and distributed unevenly across the country. This assessment provides quantitative evidence supporting projections of the transregional distribution of such effects. Such uneven transregional distribution complicates management of air quality and health risks in China. The results challenge approaches that rely solely on cities to improve air quality. The article concludes with suggestions on how to integrate SSSR measures with cities' air quality improvement attainment planning and management performance evaluation.</t>
+          <t>The transition to the clinical courses represents a major challenge for medical students who are expected to become experiential learners, able to integrate theory and practice in the context of patient care. There are questions about how students face this challenge.To understand and compare the perceptions of students and clinical tutors on how medical students learn during the transition to the clinical levels of the curriculum.We performed eight focus group discussions with 54 students enrolled in years three to seven and we interviewed eight clinical tutors. Both students' focus group discussions and tutors' interviews were audio recorded, transcribed and analyzed according to the Grounded Theory.Nine main themes emerged from the analysis of students' opinions and six from the tutors' views. The following themes were common to both students and educators: educational activities, actors, clinical settings, learning strategies, transition markers and tutor's role. Educators emphasized the importance of curricular courses' design and students, that of emotions, adaptation and self-care strategies, and threats to learning.There is a common core of students' and clinical tutors' perceptions about the relevance of practical activities, social interactions and context in the development of students' learning and adaptation strategies during the transition to the clinical levels of the curriculum. These results are related to social and cultural theories of learning. Thus we propose a model for early clinical learning that might help to stimulate the reflection of students and medical educators regarding clinical learning and contribute to the development of interventions that improve the clinical learning and teaching practices.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3183300235</t>
+          <t>https://openalex.org/W2082663198</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10649-021-10077-6</t>
+          <t>https://doi.org/10.1016/j.physa.2006.03.064</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Gosztonyi (2021)</t>
+          <t>Acedo (2006)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>How history of mathematics can help to face a crisis situation: the case of the polemic between Bernoulli and d’Alembert about the smallpox epidemic</t>
+          <t>A second-order phase transition in the complete graph stochastic epidemic model</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Abstract In this article, I present the eighteenth century’s polemic of Bernoulli and d’Alembert concerning the smallpox epidemic and a prevention method called inoculation. Through an analysis of the polemic and the related resources, I show that this historical debate has various interests for mathematics education; and more specifically it can help teachers to confront dilemmas emerging with the COVID-19 pandemic (for example if a teacher should talk about it in class or not, how to help students to interpret the statistical data and the mathematical models connected to the pandemic and more generally, how to deal with the confusions and concerns emerging in connection to the pandemic). I describe the documents related to the historical polemic as transitional objects, having a potential to reveal the teachers’ own professional or personal experiences, reflections and questions, and to stimulate dialogue with them on these issues. I illustrate this proposition by the presentation of an online reading seminar realized with a French group of teachers in April 2020.</t>
+          <t>A stochastic model for epidemic spread in a set of individuals placed upon the sites of a complete graph of relations is investigated. The model is defined by three parameters: the number of individuals or sites, N, the probability that an infected site transmits the disease to a susceptible site, α, and the probability of recovery of infected sites, β, both referred to the unit of time. We show that this system evolves towards a, approximately Gaussian, stationary distribution of infected sites whose mean and variance can be analytically estimated. Also, we find that the average fraction of infected sites, x, is zero for transmission probabilities below the critical value αc=1-e-β/N and grows linearly with α for 0&lt;α-αc⪡1. A sharp peak observed in Monte Carlo simulations of the variance of the number of infected sites as a function of α allows us to classify this dynamical phase transition as second order with x playing the role of an order parameter. Some consequences of this model to the dynamics of highly connected complex systems, such as the brain cortex, are also discussed.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2601717714</t>
+          <t>https://openalex.org/W2028044306</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/21598282.2017.1287584</t>
+          <t>https://doi.org/10.1364/oe.15.000809</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Jefferies (2017)</t>
+          <t>Xu et al. (2007)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>China’s Challenge to the West: Possibility and Reality</t>
+          <t>Realization of optical perfect shuffle with microoptical array element</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Leo Panitch and Sam Gindin’s article “The Integration of China into Global Capitalism” argues that China will follow the pattern of post-war Japan to become a supplemental, junior partner in supporting US hegemony. They claim that due to the close trade and financial ties between the United States and China, there is no question of China challenging America’s dominance of the global system (Panitch and Gindin 2013). This article will critically examine the premises of this claim, taking account of the post-war history of Japan; the measure of transition to market forms in China’s economy; the role of trade; China’s overall level of development; and the growth of the country’s domestic corporations. The article focuses particularly on the level of China’s domestic technology measured through Patents in Force (PiFs). It argues against Panitch and Gindin that China is poised to challenge Western dominance of the world economy.</t>
+          <t>A new method to realize the optical perfect shuffle (PS) with a microoptical array element is presented in this paper. The whole process is simulated by computer, and parameters of the structure to fabricate the experimental component are given. The microoptical array element has been fabricated by introducing very large scale integration (VLSI), stepping photolithography and reactive iron etching (RIE), which can realize 8-channel PS transformation. Experiments, tests and analysis have been done using the array element. The experimental results show that the method proposed in this paper agrees well with theoretical expectation. This success of the experiment lays a good foundation for us to do further research on realization of optical switching and communication through cascade multilevel PS interconnection.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387302972</t>
+          <t>https://openalex.org/W3166662469</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://doi.org/10.24833/2541-8831-2023-3-27-104-123</t>
+          <t>https://doi.org/10.7218/nenpouseijigaku.63.1_114</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Romanin (2023)</t>
+          <t>Somae (2012)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Hic Sunt Dracones: Foreign Space in the English and Russian Worldview as Reflected by the Pejorative Toponymy of the English and Russian Languages</t>
+          <t>Ingredients of Strong Medicine: LDP's Medical Policy and Interest Groups during postwar developing era</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>The article examines the perception of the foreign space in the English and Russian native speakers’ worldviews based on the pejorative names of foreign countries and cities. Englishlanguage and Russian-language Internet sites were used as the source of data for the research, since this environment is especially favorable for the existence and collection of language material of this kind due to the online disinhibition effect. Based on the analysis of the inner form of the word and the stadial model of the Us—Them dichotomy with a gradual transition from the biological to the cultural, proposed by V. G. Lysenko, an attempt is made to derive the main patterns of making derogatory toponyms, and then to compare the characteristics that foreign lands receive within the English and Russian xenophobic discourse, and, as far as possible, to build a holistic image of the concept of foreign space in the English and Russian collective worldview. As a result of the study, a large number of negatively marked toponyms were found in the English and Russian languages. They show clearly similar features both in the formal peculiarities of word formation and in semantics, however, some specificities are also found, which makes it possible to deduce similarities and differences in the English and Russian perception of the concept of foreign space. In general, a significant similarity between English and Russian pejorative names of places is revealed: in both worldviews, different topoi appear as an ugly, unpleasant place inhabited by people (and sometimes not quite people) demonstrating weird, abnormal eating habits and perverted sexual preferences, where the space itself is distorted and defective.</t>
+          <t>This article explains how LDP had developed post-war medical policy. Having very strong political ties with Japan Medical Association, LDP had supported JMA's claims for higher payment of social health care insurance. Business leaders and mayors as well as workers were all against high payment, but JMA doctors were strongly united and available to simultaneously refuse social insurance contract. Since no health care system would be possible without contracted doctors, LDP was afraid enough for big compromises with them. JMA seemed a successful political giant as a pressure group for medical industry. On the other hand, new medical schools graduated 4000 more doctors every year since early 1970s. The expansion against JMA's favor was eagerly supported by local politicians and LDP pursued the programs for more rural doctors. Number of doctors increased rapidly and this was the beginning of the end of JMA era. Structural changes inside medical environment happened to make hospitals more focused. Being grown surgical needs and chronic invalids, majority of medical expense went to hospitals. More doctors, nurses, and other medical professionals worked in hospitals. Thus interests within medical industry became greatly diffuse and JMA was no longer an exclusive representative of the business. Politics of the medicals was the politics of medical economy for long time and JMA won games against cost bearers and Ministry of Welfare. The policy, however, also had another important element: public control over medical supply such as beds, professionals, and networks. MOW failed to establish authorities on such control so that this constraint limited following attempts for systematic medical service.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3172847412</t>
+          <t>https://openalex.org/W2365344422</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Olazabal (2020)</t>
+          <t>Qing-bin (2015)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>El reto climático en las ciudades</t>
+          <t>6MW Back Pressure Unit Technical Transformation in a Thermal Power Plant</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>espanolEl reto climatico es especialmente importante en las ciudades y asi lo trasladan la Nueva Agenda Urbana y los objetivos de desarrollo sostenible. En este capitulo se discuten las claves locales del reto climatico con una doble perspectiva: las ciudades como parte del problema y como sistemas altamente vulnerables al cambio climatico. Se describen estos retos a traves de un repaso de las tendencias urbanas y sus consecuencias en terminos de emisiones y riesgos climaticos. Con el objetivo de establecer las pautas para una transformacion urbana justa, sostenible y resiliente, se discuten los principales tipos de medidas climaticas, los condicionantes intrinsecos urbanos que explican la necesidad de pensar desde lo local, y los principios clave de la accion climatica: flexibilidad, integracion y transdisciplinariedad. El capitulo termina con un repaso al progreso de la accion climatica local y concluye aludiendo a la co-responsabilidad de los gobiernos locales, de las empresas, ciudadanos y usuarios de las urbes, en el transito hacia modelos urbanos bajos en carbono y resilientes al cambio climatico. EnglishThe climate challenge is especially important in cities as reflected in the New Urban Agenda and the Sustainable Development Goals. This chapter discusses the key aspects of the urban climate challenge with a double perspective: cities as the source of the problem and as systems highly vulnerable to climate change. These challenges are described through a review of urban trends and their consequences in terms of emissions and climate risks. In order to establish guidelines for a just, sustainable and resilient urban transformation, the chapter discusses the main types of climate action, the inherent urban conditioning factors that explain the need to think locally, and, eventually, the key principles of climate action: flexibility, integration and transdisciplinarity. The chapter ends with a review of the progress of local climate action globally and concludes by calling to the co-responsibility of local governments, companies, citizens and users of cities, in the transition towards low-carbon urban models which are resilient to climate change.</t>
+          <t>To improve the utilization rate of energy,a thermal power plant planned to build a 6MW medium temperature sub-high pressure back pressure turbine generator unit,which would replace two 3MW medium temperature and medium pressure back pressure turbine generator units. At the same time,a3 MW extraction condensing unit in the first phase of the project was converted into a back pressure turbine with post machine connected with the exhaust steam pipe in order to solve the problem of poor system stability caused by the low heat load in the off-season in the company. It used the exhaust steam of the back pressure turbine as its steam admission to maintain the stable operation of the back pressure machine. This paper analyzed the technical transformation. Using the back pressure turbine with high parameters instead of the one with low parameters can improve energy efficiency; reduce pollutant emissions to achieve the aim of saving energy,protecting the environment and enhancing the area resident's quality of life.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2117264800</t>
+          <t>https://openalex.org/W3042531122</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00032719408006370</t>
+          <t>https://doi.org/10.1111/famp.12588</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Iskander et al. (1994)</t>
+          <t>Walsh (2020)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Kinetics and Determination of Some Transition Metals with Peri-Dihydroxynaphthindenone</t>
+          <t>Loss and Resilience in the Time of COVID‐19: Meaning Making, Hope, and Transcendence</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Abstract A simple sensitive and selective spectrophotometric method has been developed for determination of some transition metal ions. It is based on the reaction of the metal ions with excess peri-dihydroxynaphthindenone in 80% v/v ethyl alcohol-water mixture at 30°C. The colored products obtained display maximum absorption band at 560–590 nm depending upon the type of transition metal ion used, and E1 cm 1% in the range 70–480. Under the optimum conditions results with an average recovery of 96%, (mean standard deviation ±3% are obtained for 6 different transition metal ions without any significant interference from Li+, Na+, K+, Cs+, Rb+, Ba2+, Sr2+, Ni2+, Bi3+, Co2+, Mn+2, Cd+2 and Al+3. Kinetic data reveal that the reaction proceeds via a second order route (first order with respect to either the metal cation or ligand). The activation parameters and a suggested mechanism have been presented, and the nature of bonding in the solid chelate products has been verified.</t>
+          <t>This article addresses the many complex and traumatic losses wrought by the COVID-19 pandemic. In contrast to individually based, symptom-focused grief work, a resilience-oriented, systemic approach with complex losses contextualizes the distress and mobilizes relational resources to support positive adaptation. Applying a family resilience framework to pandemic-related losses, discussion focuses on the importance of shared belief systems in (1) meaning-making processes; (2) a positive, hopeful outlook and active agency; and (3) transcendent values and spiritual moorings for inspiration, transformation, and positive growth. Practice guidelines are offered to facilitate adaptation and resilience.En este artículo se abordan las numerosas pérdidas complejas y traumáticas ocasionadas por la pandemia de la COVID-19. A diferencia de un trabajo de duelo individual centrado en los síntomas, un método sistémico orientado a la resiliencia con pérdidas complejas contextualiza el distrés y moviliza los recursos relacionales para fomentar la adaptación positiva. Mediante la aplicación de un marco de resiliencia familiar a las pérdidas relacionadas con la pandemia, el debate se centra en la importancia de los sistemas de creencias compartidas en (1) los procesos de creación de significado; (2) una actitud positiva y optimista y una intervención activa; y (3) los valores trascendentes y la estabilidad espiritual para la inspiración, la transformación y el crecimiento positivo. Se ofrecen pautas prácticas para facilitar la adaptación y la resiliencia.本文论述了COVID-19疫情造成的许多比以往更复杂的痛失亲友和创伤性的损失。与以个人为基础、以症状为中心的悲伤主题研究不同，以复原力为导向的系统研究方法，面对更复杂的失去，将痛苦置于情境中，并调动相关资源来支持积极的适应。将家庭弹性框架应用于疫情相关的痛失亲友，讨论集中在(1)意义形成过程中共享信念体系的重要性; (2)积极乐观的心态和积极的能动能力; (3)超然的价值观和精神寄托，以获得灵感、转变和积极成长。本研究也提供了实践指南以实现促进适应变化的能力和耐挫力。.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3175941654</t>
+          <t>https://openalex.org/W2085684455</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1096/fasebj.25.1_supplement.946.3</t>
+          <t>https://doi.org/10.2528/pier14022001</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Kim et al. (2011)</t>
+          <t>Gilardi &amp; Smit (2014)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>E‐cadherin antagonizes TGFbeta1 gene induction in hepatic stellate cells by inhibiting RhoA‐dependent Smad3/2 phosphorylation</t>
+          <t>GENERIC INP-BASED INTEGRATION TECHNOLOGY: PRESENT AND PROSPECTS (Invited Review)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Cadherins mediate cell‐cell adhesion and catenin (ctn)‐related signaling pathways. Liver fibrosis is accompanied by the loss of E‐cadherin that promotes the process of epithelial mesenchymal transition. This study investigated whether E‐cadherin overexpression inhibits transforming growth factor‐beta1 (TGFbeta1) gene induction and, if so, what molecular basis. Forced expression of E‐cadherin decreased the level of mesenchymal markers, and the constitutive or inducible expression of the TGFbeta1 gene and its downstream genes. E‐cadherin overexpression decreased Smad3/2 phosphorylations, and consequent its transcriptional activity. The ability of E‐cadherin to inhibit TGFbeta1‐inducible Smad activity was reversed by RhoA activation. Molecular approaches revealed that the p120‐ctn binding domain of E‐cadherin was responsible for TGFbeta1 repression. E‐cadherin was capable of binding p120‐ctn, which recruited RhoA, preventing the ability of TGFbeta1 to increase RhoA‐mediated Smad3 phosphorylation. In the liver tissues of patients with liver fibrosis, E‐cadherin expression reciprocally correlated with the severity of fibrosis. In conclusion, E‐cadherin inhibits Smad3/2 phosphorylations by recruiting RhoA to p120‐ctn, supporting the notion that the loss of E‐cadherin due to cadherin switch promotes TGFbeta1 and target gene induction, and facilitates liver fibrosis.</t>
+          <t>The generic foundry approach will lead to a revolution in micro and nanophotonics, just as it did in microelectronics thirty years ago.Generic integration leads to a drastic reduction in the entry costs for developing Photonic Integrated Circuits.Integrated circuits using generic integration open up a whole new range of applications including data communications, fiber-to-the-home, fiber sensors, gas sensing, medical diagnostics, metrology and consumer photonics.Present status and prospects of InP-based photonic foundry technology are reviewed. INTRODUCTION: THE DEVELOPMENT OF PHOTONIC CHIP COMPLEXITYIn microelectronics there is a clear exponential development in the number of transistors per chip, which has been doubling every two years on average during the last four decades.This phenomenon is known as Moore's law [1,2].In Photonics we observe a similar development, albeit in an early stage.Figure 1 shows the complexity development of InP-based Photonic ICs (PICs), measured as the number of components integrated on a single chip.Early examples of complex InP-based PICs are a WDM source by Koren et al. (1989) [3], a gratingbased receiver by Cremer et al. (1991) [4], a switch array by Gustavsson et al. (1992) [5], and a heterodyne receiver by Kaiser (1994) [6].The highest complexities so far have been reported in AWG-based PICs.It started with the publication of the first AWG by Smit [7] in 1988, followed by Takahashi et al. (1990) [8] and Dragone (1991) [9].After the invention of the AWG a number of AWG-based devices with increasing circuit complexity was reported: WDM receivers with 5-10 components by Amersfoort et al. (1993) [10], Zirngibl et al. (1995) [11] and Steenbergen et al. (1996) [12]; WDM lasers with 10-20 components by Zirngibl et al. (1994Zirngibl et al. ( , 1996) [13, 14] ) [13, 14] and Staring et al. (1996) [15]; WDM channel selectors with 10-20 components by Zirngibl and Joyner (1994) [16], Ishii et al. (1998) [17], Menezo et al. (1999) [18], Mestric et al. (2000) [19] and Kikuchi et al. (2001) [20] and a crossconnect chip with 66 components by Herben et al. (1999) [21].A special device is the WDM-receiver with integrated pre-amplifiers by Chandrasekhar et al. (1995) [22] which counts 81 components, most of them electronic (transistors and resistors).The new century brought a significant increase in complexity: WDM receiver and transmitter chips with 44-51 components by Tolstikhin (2003) [23], ThreeFivePhotonics (2004) [24] and Infinera (2005) [25].Shortly after, in 2006, Infinera published a 40-channel WDM transmitter with 241 components [26].Recent devices with a very high complexity are an all-optical tunable 8 × 8 wavelength router with more than 175 components by Nicholes et al. [27] in 2009 and a 100-channel Arbitrary Waveform Generator with more than 300 components by Soares et al. [28] in 2010.The latter device also contains 400 phase shifters for reducing the high crosstalk level in the very large AWG which is used to separate 100 wavelength channels.Recently, Infinera reported a PM-DQPSK transmitter with more than 400</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2033762435</t>
+          <t>https://openalex.org/W2009498514</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/tc.1986.1676737</t>
+          <t>https://doi.org/10.1183/09031936.03.00068503a</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Reischer &amp; Simovici (1986)</t>
+          <t>Witek &amp; Mahler (2003)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Iteration Properties of Multivalued Switching Functions</t>
+          <t>Minimal important difference of the transition dyspnoea index in a multinational clinical trial</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>The purpose of this correspondence is to survey the literature concerning the iterative properties of multivalued switching functions. These properties are important for the synthesis of switching circuits by cascades of simpler elements. Our presentation evolves around the graphs of transformations of finite sets. We discuss such topics as limitations of the computational capabilities of cascades, the existence of roots of given functions with respect to iteration powers, etc.</t>
+          <t>Dyspnoea is a primary symptom of chronic obstructive pulmonary disease (COPD). The baseline (BDI) and transition (TDI) dyspnoea indices are commonly used instruments to assess breathlessness and the impact of intervention. Its validity and pattern of response in multinational clinical trials has not been established. In a retrospective analysis of a cohort of 997 COPD patients who received tiotropium, salmeterol or placebo, in addition to usual care, the validity and pattern of response of the BDI and TDI were examined. The BDI was significantly correlated with the dyspnoea diary (DD) score and the symptom and activity components of the St. George9s respiratory questionnaire (SGRQ), establishing concurrent validity. Furthermore, the TDI was also correlated with the changes in DD, SGRQ symptom and activity scores. Construct validity was established by the association between baseline forced expiratory volume in one second (FEV&lt;sub&gt;1&lt;/sub&gt;) and BDI and ΔFEV&lt;sub&gt;1&lt;/sub&gt; with TDI. Physician9s global evaluation (PGE) was significantly associated with BDI as well as ΔPGE with TDI. Significant correlations have also been observed when the cohorts were classified according to native English and native non­English speaking countries. A change in PGE of 1 category (&lt;i&gt;i.e.&lt;/i&gt; 2 units on an 8‐point scale) was associated with a mean TDI of ∼1 unit (0.9–1.3 mean focal score), lending further support to the clinical significance of this change inherent in the instrument9s descriptors. TDI responders (&lt;i&gt;i.e.&lt;/i&gt; focal score ≥1 unit) used less supplemental salbutamol, had fewer exacerbations and had significantly improved health status as measured by impacts and total SGRQ scores compared with nonresponders. In conclusion, the transition dyspnoea index is a valid instrument when used in a multinational clinical trial and the patterns of response confirm a 1‐unit change in the transition dyspnoea index focal score as being clinically important.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1984028227</t>
+          <t>https://openalex.org/W2200712483</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4067/s0034-98872014000600006</t>
+          <t>https://doi.org/10.1016/s0360-1315(00)00016-6</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Bitrán et al. (2014)</t>
+          <t>Wegerif (2000)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>]]¿Cómo aprenden los estudiantes de medicina en la transición hacia el ciclo clínico?: Estudio cualitativo de las percepciones de estudiantes y docentes acerca del aprendizaje inicial de la clínica</t>
+          <t>Literacy Theory in the Age of the Internet</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>The transition to the clinical courses represents a major challenge for medical students who are expected to become experiential learners, able to integrate theory and practice in the context of patient care. There are questions about how students face this challenge.To understand and compare the perceptions of students and clinical tutors on how medical students learn during the transition to the clinical levels of the curriculum.We performed eight focus group discussions with 54 students enrolled in years three to seven and we interviewed eight clinical tutors. Both students' focus group discussions and tutors' interviews were audio recorded, transcribed and analyzed according to the Grounded Theory.Nine main themes emerged from the analysis of students' opinions and six from the tutors' views. The following themes were common to both students and educators: educational activities, actors, clinical settings, learning strategies, transition markers and tutor's role. Educators emphasized the importance of curricular courses' design and students, that of emotions, adaptation and self-care strategies, and threats to learning.There is a common core of students' and clinical tutors' perceptions about the relevance of practical activities, social interactions and context in the development of students' learning and adaptation strategies during the transition to the clinical levels of the curriculum. These results are related to social and cultural theories of learning. Thus we propose a model for early clinical learning that might help to stimulate the reflection of students and medical educators regarding clinical learning and contribute to the development of interventions that improve the clinical learning and teaching practices.</t>
+          <t>Today, the situation of the higher education in the state and the society has been more important. While the values of higher education have been determining by the external factors, itself has been increasing the effect power on higher education institutions as an external factor. The cause and result of this transformation has been intersection ares of universities with the dynamics of global competition. As a result in this process universities have taken care of their relationship with stakeholder to able to read the changes beter. Academicians are in the first place among stakeholders without a doubt. Gaining qualifications of universities in the sense of regional and international in this environment is appearing as an important result of this process. This point has provided a platform of European Higher Education Areas theorotical reasons. Thus, both the variation process and the discussions about theories and applications of European Higher Education Area have always been tha agenda.From this point the subject of this study is researching the correlation between the changing higher education values and EHEA requirements in the axis of a conceptual model designed for the satisfaction of stakeholders and the quality level of universities. In this study first, historical and conceptual transformation of higher eduation and university has been discussed. Second, an analytical evaluation of changing values of higher education has been presented. Also the history of European Higher Education Area and its components have been searched with a critical view. Consequently the process and system suggestions have been developed for building up cooperation with stakeholders and meeting the targets of EHEA through a conceptual model.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4235671025</t>
+          <t>https://openalex.org/W2159766471</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1149/ma2016-01/37/1874</t>
+          <t>https://doi.org/10.1061/(asce)co.1943-7862.0000213</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Liu &amp; Paddison (2016)</t>
+          <t>Hartmann et al. (2010)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Quantitative Comparison of Atomistic Molecular Dynamics Simulations and X-Ray Scattering of Polymerized Ionic Liquids</t>
+          <t>Closure to “Areas of Application for 3D and 4D Models on Construction Projects” by Timo Hartmann, Ju Gao, and Martin Fischer</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Polymerized ionic liquids (polyILs) are touted as the ideal solid-state electrolyte materials for electrochemical devices due to enhanced mechanical characteristics of polymer nature and unique physico-chemical properties inherent from ionic liquids. PolyILs offer great flexibility in designing the task specific media through judicious choosing component cations, anions and polymer structures for a wide range of energy conversion and storage applications, such as dye-sensitized solar cells, lithium ion rechargeable batteries, and alkaline fuel cells. While polyILs enjoy many favorable properties such as low flammability, high thermal/chemical/electrochemical stability, and mechanical strength, they inevitably suffer from the retarded ionic conductivity, one of the detrimental shortcomings in electrochemical applications. PolyILs usually have elevated glass transition temperature Tg and subsequently several orders of magnitude decrease in ionic conductivity with respect to their molecular IL counterparts. Most of previous research involve in finding the optimal polyILs to achieve the maximum accessible ionic conductivity. It is generally accepted that ionic conductivity of polyILs depends on the complex correlations between chemical nature of polymer backbone and counter-ions, glass transition temperature, mesophase morphology, temperature and pressure. Therefore, a molecular-level understanding of the relationship between chemical structure, morphology and ion transport will promote the rational design of polyILs for electrochemical applications. In present work, we use atomistic molecular dynamics simulations to investigate structural properties of model system poly(1-n-alkyl-3vinylimidzolium bistrifluoromethylsulfonylimide) poly(nVim Tf2N) . X-ray scattering measurement on structural properties of polyILs is elusive. The detailed simulations provide a direct quantitative picture for understanding the structure/morphology of polyILs on the atomic scale. In particular, we present the first direct comparison of structure factors obtained from X-ray scattering and simulations for various alkyl chain length of poly(nVim Tf2N). Excellent agreement is found between the experimental and simulated scattering profiles in terms of peak position and shape, which provides proper validation of our simulation methods. All characteristic distances (backbone-to-backbone, anion-to-anion and pendant-to-pendant) are well reproduced. As the alkyl chain length increases, the backbone-to-backbone peak becomes stronger, moving to larger distance, the anion-to-anion separation slightly increases with vanishing intensity, and the pendant-to-pendant peak hardly changes. This quantitative comparison of X-ray scattering and atomistic simulations is expected to lead to a molecular-level predictive understanding in structure and morphology of polyILs and paves a substantive step towards the rational design of future polyILs for electrochemical devices.</t>
+          <t>The authors provide a good categorization framework for application areas for 3D and 4D models in construction practices. It will be helpful for the practitioners in finding the most beneficial applications of 3D and 4D models on their projects and also for the researchers in identifying the most promising areas of research. The authors have already explored different possible areas of applications and research; however, the objective of this discussion is to make some additional observations about a few issues related to future research areas for 3D and 4D models. The discusser feels that more points may be incorporated in future studies in order to help readers better understand the authors’ observations. Although 3D computer-aided drafting CAD models are strong visualization tools, they consist of points, lines, polygons, and solids with no topology and no link to a database. As mentioned in the paper, there is a major revolution of building information modeling BIM in the CAD world. BIM is a kind of 3D modeling that includes topology and may be linked with a database. It is a full building life cycle management tool from construction to day-to-day operations to ultimate demolition. The authors mentioned that 3D/4D models, as well as BIM, need to be researched to determine their future use in different applications areas. In the discusser’s opinion, it would have been better if the authors had specified that 3D CAD and 4D modeling should be researched for application in 3D topology, or the industry needs the integration of BIM with 4D tools, or researchers should study the application of 4D tools during the project life cycle as mentioned in the paper , or the 3D and 4D modeling capabilities of BIM should be enhanced. The 4D models require application-level integration to fulfill project requirements such as quantity takeoffs, cost estimation, energy simulations, etc. Hence, software from various disciplines is being used to fulfill such requirements. Architects, engineers, builders, owners, and operators face challenges because different information formats are used to represent the graphical and nongraphical information for a project and this data is difficult to consolidate Isikdag et al. 2008 . During the planning process when using 4D models, planners have to repeatedly reorganize, interpret, and combine the information collected from different software. This process is tedious and frequently produces errors. Therefore, lack of interoperability is a major obstacle to effectively combining information from different sources. BIM provides solutions for overcoming the interoperability problems that</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2028044306</t>
+          <t>https://openalex.org/W2742887869</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1364/oe.15.000809</t>
+          <t>https://doi.org/10.1109/icsict.2016.7998995</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Xu et al. (2007)</t>
+          <t>Wang et al. (2016)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Realization of optical perfect shuffle with microoptical array element</t>
+          <t>Development of three-dimensional synaptic device and neuromorphic computing hardware</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>A new method to realize the optical perfect shuffle (PS) with a microoptical array element is presented in this paper. The whole process is simulated by computer, and parameters of the structure to fabricate the experimental component are given. The microoptical array element has been fabricated by introducing very large scale integration (VLSI), stepping photolithography and reactive iron etching (RIE), which can realize 8-channel PS transformation. Experiments, tests and analysis have been done using the array element. The experimental results show that the method proposed in this paper agrees well with theoretical expectation. This success of the experiment lays a good foundation for us to do further research on realization of optical switching and communication through cascade multilevel PS interconnection.</t>
+          <t>To facilitate the development of low-cost, low-power, and high-density hardware neural networks, we have successfully developed a Ta/TaO &lt;sub xmlns:mml="http://www.w3.org/1998/Math/MathML" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;x&lt;/sub&gt; /TiO &lt;sub xmlns:mml="http://www.w3.org/1998/Math/MathML" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;2&lt;/sub&gt; /Ti RRAM-based synaptic device. The device exhibits numerous synaptic functions resembling those in biological synapses, including synaptic plasticity of potentiation and depression, spike-timing dependent plasticity, paired-pulse facilitation and a transition from short-term to long-term memory. We further demonstrate 3D high-density, high-connectivity integration of the Ta/TaO &lt;sub xmlns:mml="http://www.w3.org/1998/Math/MathML" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;x&lt;/sub&gt; /TiO &lt;sub xmlns:mml="http://www.w3.org/1998/Math/MathML" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;2&lt;/sub&gt; /Ti device, and the device exhibits excellent uniformity among interlayer and intralayer cells in a 4 × 4 3D two-layer cross-point array. Finally, we investigate the influence of nonlinearity of synaptic weight updates on neuromorphic computing. A state-independent training scheme is proposed to improve linearity and fault tolerance of training accuracy.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3134832133</t>
+          <t>https://openalex.org/W2551087905</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/smll.202007025</t>
+          <t>https://doi.org/10.14257/ijgdc.2016.9.9.27</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Wang et al. (2021)</t>
+          <t>Hans et al. (2016)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CO&lt;sub&gt;2&lt;/sub&gt; Footprint of Thermal Versus Photothermal CO&lt;sub&gt;2&lt;/sub&gt; Catalysis</t>
+          <t>Cloud Based Data Mining Model for Asthma Diagnosis</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transformation of CO2 into value-added products via photothermal catalysis has become an increasingly popular route to help ameliorate the energy and environmental crisis derived from the continuing use of fossil fuels, as it can integrate light into well-established thermocatalysis processes. The question however remains whether negative CO2 emission could be achieved through photothermal catalytic reactions performed in facilities driven by electricity mainly derived from fossil energy. Herein, we propose universal equations that describe net CO2 emissions generated from operating thermocatalysis and photothermal reverse water-gas shift (RWGS) and Sabatier processes for batch and flow reactors. With these reactions as archetype model systems, the factors that will determine the final amount of effluent CO2 can be determined. The results of this study could provide useful guidelines for the future development of photothermal catalytic systems for CO2 reduction.</t>
+          <t>The potential of cloud computing for overriding the needs for deploying various infrastructures for running a server based services brought up a revolutionary change in the way the traditional demands of the people use to be handled.Cloud computing provides the software's on pay per use option which make it easier for the people who are not able to meet the economic requirements.Since the whole scenario is beneficial to big industries like facebook, google, orkut etc , various order fields are also getting dependent on cloud computing.Since tons of data is uploading every second to the cloud server does needs to be mined properly for efficient data storage.inthis paper we try to integrate the data preprocessing technique with data classification technique to mine big data's of asthma based patients.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1587591531</t>
+          <t>https://openalex.org/W2799762231</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-642-23851-2_36</t>
+          <t>https://doi.org/10.30657/pea.2014.04.06</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Bardis et al. (2011)</t>
+          <t>Borkowski et al. (2014)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>A Formal Framework for Declarative Scene Description Transformation into Geometric Constraints</t>
+          <t>AN IDENTIFICATION OF VARIABLES THAT INFLUENCES ON THE MANUFACTURED PRODUCTS QUALITY</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>The disambiguation of a declarative visual model is a crucial step towards the generation of its geometric equivalents. Any abstract description has to be ultimately translated into a concrete set of values or relevant constraints, solely relying on quantifiable model characteristics. To this day, there is no general consensus with respect to a unified, formally defined model for this disambiguation process or the desired quantified outcome. The current work sets the basis for a uniform transformation process and the corresponding formal constraint model, inclusive of a number of already existing approaches for declarative modelling. The applicability of the proposed framework is exhibited in an existing declarative modelling environment, explicitly demonstrating its implementation in the specific context.</t>
+          <t>The fact that companies are constantly subjected to changes creates challenges connected with constant learning and acquiring knowledge.Companies are forced to act in accordance with the generative strategy.Besides realizing the traditional tasks of production or service, companies need to acquire and process knowledge and apply it in practice.The consequence of these changes is the transformation of contemporary enterprises into knowledge-based organizations, with managers increasingly recognizing the role and importance of the concept of knowledge management in creating enterprises competitiveness.The main aim of the article is identification of knowledge management in production enterprises.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2085684455</t>
+          <t>https://openalex.org/W2026539446</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2528/pier14022001</t>
+          <t>https://doi.org/10.1074/jbc.273.21.12732</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Gilardi &amp; Smit (2014)</t>
+          <t>Capranico et al. (1998)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>GENERIC INP-BASED INTEGRATION TECHNOLOGY: PRESENT AND PROSPECTS (Invited Review)</t>
+          <t>Mapping Drug Interactions at the Covalent Topoisomerase II-DNA Complex by Bisantrene/Amsacrine Congeners</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>The generic foundry approach will lead to a revolution in micro and nanophotonics, just as it did in microelectronics thirty years ago.Generic integration leads to a drastic reduction in the entry costs for developing Photonic Integrated Circuits.Integrated circuits using generic integration open up a whole new range of applications including data communications, fiber-to-the-home, fiber sensors, gas sensing, medical diagnostics, metrology and consumer photonics.Present status and prospects of InP-based photonic foundry technology are reviewed. INTRODUCTION: THE DEVELOPMENT OF PHOTONIC CHIP COMPLEXITYIn microelectronics there is a clear exponential development in the number of transistors per chip, which has been doubling every two years on average during the last four decades.This phenomenon is known as Moore's law [1,2].In Photonics we observe a similar development, albeit in an early stage.Figure 1 shows the complexity development of InP-based Photonic ICs (PICs), measured as the number of components integrated on a single chip.Early examples of complex InP-based PICs are a WDM source by Koren et al. (1989) [3], a gratingbased receiver by Cremer et al. (1991) [4], a switch array by Gustavsson et al. (1992) [5], and a heterodyne receiver by Kaiser (1994) [6].The highest complexities so far have been reported in AWG-based PICs.It started with the publication of the first AWG by Smit [7] in 1988, followed by Takahashi et al. (1990) [8] and Dragone (1991) [9].After the invention of the AWG a number of AWG-based devices with increasing circuit complexity was reported: WDM receivers with 5-10 components by Amersfoort et al. (1993) [10], Zirngibl et al. (1995) [11] and Steenbergen et al. (1996) [12]; WDM lasers with 10-20 components by Zirngibl et al. (1994Zirngibl et al. ( , 1996) [13, 14] ) [13, 14] and Staring et al. (1996) [15]; WDM channel selectors with 10-20 components by Zirngibl and Joyner (1994) [16], Ishii et al. (1998) [17], Menezo et al. (1999) [18], Mestric et al. (2000) [19] and Kikuchi et al. (2001) [20] and a crossconnect chip with 66 components by Herben et al. (1999) [21].A special device is the WDM-receiver with integrated pre-amplifiers by Chandrasekhar et al. (1995) [22] which counts 81 components, most of them electronic (transistors and resistors).The new century brought a significant increase in complexity: WDM receiver and transmitter chips with 44-51 components by Tolstikhin (2003) [23], ThreeFivePhotonics (2004) [24] and Infinera (2005) [25].Shortly after, in 2006, Infinera published a 40-channel WDM transmitter with 241 components [26].Recent devices with a very high complexity are an all-optical tunable 8 × 8 wavelength router with more than 175 components by Nicholes et al. [27] in 2009 and a 100-channel Arbitrary Waveform Generator with more than 300 components by Soares et al. [28] in 2010.The latter device also contains 400 phase shifters for reducing the high crosstalk level in the very large AWG which is used to separate 100 wavelength channels.Recently, Infinera reported a PM-DQPSK transmitter with more than 400</t>
+          <t xml:space="preserve">To identify structural determinants for the sequence-specific recognition of covalent topoisomerase II-DNA complexes by anti-cancer drugs, we investigated a number of bisantrene congeners, including a 10-azabioisoster, bearing one or two 4,5-dihydro-1H-imidazol-2-yl hydrazone side chains at positions 1, 4, or 9 of the anthracene ring system. The studied bisantrene/amsacrine (m-AMSA) hybrid and bisantrene isomers were able to poison DNA topoisomerase II with an intermediate activity between those of bisantrene and m-AMSA. Moving the side chain from the central to a lateral ring (from C-9 to C-1/C-4) only slightly modified the drug DNA affinity, whereas it dramatically affected local base preferences of poison-stimulated DNA cleavage. In contrast, switching the planar aromatic systems of bisantrene andm-AMSA did not substantially alter the sequence specificity of drug action. A computer-assisted steric and electrostatic alignment analysis of the test compounds was in agreement with the experimental data, since a common pharmacophore was shared by bisantrene,m-AMSA, and 9-substituted analogs, whereas the 1-substituted isomer showed a radically changed pharmacophoric structure. Thus, the relative space occupancy and electron distribution of putative DNA binding (aromatic rings) and enzyme binding (side chains) moieties are fundamental in directing the specific action of topoisomerase II poisons and in determining the poison pharmacophore. To identify structural determinants for the sequence-specific recognition of covalent topoisomerase II-DNA complexes by anti-cancer drugs, we investigated a number of bisantrene congeners, including a 10-azabioisoster, bearing one or two 4,5-dihydro-1H-imidazol-2-yl hydrazone side chains at positions 1, 4, or 9 of the anthracene ring system. The studied bisantrene/amsacrine (m-AMSA) hybrid and bisantrene isomers were able to poison DNA topoisomerase II with an intermediate activity between those of bisantrene and m-AMSA. Moving the side chain from the central to a lateral ring (from C-9 to C-1/C-4) only slightly modified the drug DNA affinity, whereas it dramatically affected local base preferences of poison-stimulated DNA cleavage. In contrast, switching the planar aromatic systems of bisantrene andm-AMSA did not substantially alter the sequence specificity of drug action. A computer-assisted steric and electrostatic alignment analysis of the test compounds was in agreement with the experimental data, since a common pharmacophore was shared by bisantrene,m-AMSA, and 9-substituted analogs, whereas the 1-substituted isomer showed a radically changed pharmacophoric structure. Thus, the relative space occupancy and electron distribution of putative DNA binding (aromatic rings) and enzyme binding (side chains) moieties are fundamental in directing the specific action of topoisomerase II poisons and in determining the poison pharmacophore. The elucidation of structural determinants of the sequence-specific recognition of DNA by small molecules is fundamental for a rational design of gene-specific DNA binders that are effective in the therapy of human diseases. Several DNA-interactive compounds are known that may bind to the double helix in a site-selective manner; however, the degree and mechanisms of the specificity are very different among them (1Palumbo M. Advances in DNA Sequence-specific Agents 3. Jai Press Inc., 1998Google Scholar, 2Capranico G. Binaschi M. Borgnetto M.E. Zunino F. Palumbo M. Trends Pharmacol. Sci. 1997; 18: 303-346PubMed Google Scholar, 3Baguley B.C. Anti-Cancer Drug Des. 1991; 6: 1-35PubMed Google Scholar, 4Bailly C. Denny W.A. Waring M.J. Anti-Cancer Drug Des. 1996; 11: 611-624PubMed Google Scholar). A wide variety of antitumor drugs, with and without the ability to bind to naked DNA, have been shown to poison DNA topoisomerases with a high sequence selectivity (2Capranico G. Binaschi M. Borgnetto M.E. Zunino F. Palumbo M. Trends Pharmacol. Sci. 1997; 18: 303-346PubMed Google Scholar, 5Pommier Y. Teicher B.A. Cancer Therapeutics: Experimental and Clinical Agents. Humana Press Inc., Totowa, NJ1997: 153-174Crossref Google Scholar, 6Liu L.F. Annu. Rev. Biochem. 1989; 58: 351-375Crossref PubMed Scopus (1913) Google Scholar, 7Froelich-Ammon S.J. Osheroff N. J. Biol. Chem. 1995; 270: 21429-21432Abstract Full Text Full Text PDF PubMed Scopus (504) Google Scholar). DNA topoisomerases are ubiquitous enzymes deputed to resolve topological problems that arise during various nuclear processes including transcription, recombination, and chromosome partitioning at cell division (8Wang J.C. Annu. Rev. Biochem. 1996; 65: 635-692Crossref PubMed Scopus (2060) Google Scholar, 9Watt P.M. Hickson I.D. Biochem. J. 1994; 303: 681-695Crossref PubMed Scopus (385) Google Scholar, 10Osheroff N. Zechiedrich E.L. Gale K.C. BioEssays. 1991; 13: 269-273Crossref PubMed Scopus (235) Google Scholar). Type II enzymes make transient double-stranded breaks into one segment of DNA and pass an </t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4213028338</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.gerinurse.2022.01.017</t>
+          <t>https://openalex.org/W1557369755</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Groenendaal et al. (2022)</t>
+          <t>Sarin et al. (2015)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Maintaining meaningful activities for persons with dementia during transitions of care: A systematic review</t>
+          <t>Perils of total colonic aganglionosis presenting in neonatal age.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>This systematic review summarizes the experiences with maintaining meaningful activities for persons with dementia during transitions of care, including related barriers and facilitators, and interventions and strategies. A systematic search was performed in eight databases. The methodological quality was assessed with the Mixed Methods Appraisal Tool. Four articles were included; one describing the transition from home to hospital and vice versa, and three describing the transition from home to nursing home. The narrative synthesis revealed a decrease of meaningful activities after transition. Facilitators of and barriers to maintaining meaningful activities during transitions were related to the person with dementia, informal caregivers, healthcare professionals and organization of care, as well as the environment. Interventions and strategies focused on continuously adjusting meaningful activities to the person. To conclude, maintaining meaningful activities during transitions is an under-researched area. Several recommendations are provided for healthcare professionals and organizations.</t>
+          <t>The purpose of this study is to review the cases of total colonic aganglionosis seen in the span of ten years at a pediatric surgery unit of a tertiary care public hospital in New Delhi.Medical records of twelve patients with total colonic aganglionosis were retrieved.Ten out of the twelve patients were males; seven were of the Muslim community. Average recorded birth weight was 2.2 kg. Ten patients presented with features of intestinal obstruction, while two presented with perforation peritonitis. Among the cases of obstruction, Hirschsprung's disease was suspected in eight cases (one was associated with Shah-Waardenburg syndrome), one case each was preoperatively diagnosed as ileal atresia and meconium ileus. Abdominal X-rays at presentation of all the neonates except in one with Shah-Waardenburg syndrome showed multiple air fluid levels. Contrast enema was done in five patients. It showed micro-colon in two patients, and typical question mark sign, dilated small bowel with transition zone in hepatic flexure and normal caliber colon in one each. All the patients underwent exploratory laparotomy. Intra-operatively, the transition zone was seen at distal ileum in ten cases and at hepatic flexure and transverse colon in one each. Biopsies of all the twelve patients eventually showed absence of ganglion cells in entire colon. Ileostomy was done in nine cases, colostomy in two and primary Kimura's procedure in one (this patient was discharged and lost to follow up). Left colonic patch with Swenson's pull through with ileostomy was done for one patient on colostomy. His stoma was closed; he was eventually discharged and lost to follow up. In the other patient with colostomy, the stoma was closed and an ileostomy was created. Of all the patients on ileostomy, three expired in the immediate postoperative period. Four were lost to follow up. Two underwent Kimura's procedure; and expired few months later. One patient on ileostomy is awaiting further treatment.The outcomes for total colonic aganglionosis in those presenting in neonatal age tend to be unsatisfactory in the developing countries.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2009498514</t>
+          <t>https://openalex.org/W3160846398</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1183/09031936.03.00068503a</t>
+          <t>https://doi.org/10.21007/etd.cghs.2021.0528</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Witek &amp; Mahler (2003)</t>
+          <t>Dickerson (2021)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Minimal important difference of the transition dyspnoea index in a multinational clinical trial</t>
+          <t>Investigating the Role of ZNF384 Rearrangements in Acute Leukemia</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Dyspnoea is a primary symptom of chronic obstructive pulmonary disease (COPD). The baseline (BDI) and transition (TDI) dyspnoea indices are commonly used instruments to assess breathlessness and the impact of intervention. Its validity and pattern of response in multinational clinical trials has not been established. In a retrospective analysis of a cohort of 997 COPD patients who received tiotropium, salmeterol or placebo, in addition to usual care, the validity and pattern of response of the BDI and TDI were examined. The BDI was significantly correlated with the dyspnoea diary (DD) score and the symptom and activity components of the St. George9s respiratory questionnaire (SGRQ), establishing concurrent validity. Furthermore, the TDI was also correlated with the changes in DD, SGRQ symptom and activity scores. Construct validity was established by the association between baseline forced expiratory volume in one second (FEV&lt;sub&gt;1&lt;/sub&gt;) and BDI and ΔFEV&lt;sub&gt;1&lt;/sub&gt; with TDI. Physician9s global evaluation (PGE) was significantly associated with BDI as well as ΔPGE with TDI. Significant correlations have also been observed when the cohorts were classified according to native English and native non­English speaking countries. A change in PGE of 1 category (&lt;i&gt;i.e.&lt;/i&gt; 2 units on an 8‐point scale) was associated with a mean TDI of ∼1 unit (0.9–1.3 mean focal score), lending further support to the clinical significance of this change inherent in the instrument9s descriptors. TDI responders (&lt;i&gt;i.e.&lt;/i&gt; focal score ≥1 unit) used less supplemental salbutamol, had fewer exacerbations and had significantly improved health status as measured by impacts and total SGRQ scores compared with nonresponders. In conclusion, the transition dyspnoea index is a valid instrument when used in a multinational clinical trial and the patterns of response confirm a 1‐unit change in the transition dyspnoea index focal score as being clinically important.</t>
+          <t>"Chromosomal rearrangements involving ZNF384 are the defining lesion in 5% of pediatric and adult B-cell acute lymphoblastic leukemia and tumors are characterized by aberrant myeloid marker expression. Additionally, ZNF384 rearrangements are the defining lesion in nearly half of pediatric B/myeloid mixed phenotype acute leukemia. These fusions juxtapose full-length ZNF384 to the N terminal portion of a diverse range of partners, most often, transcription factors or epigenetic modifiers. It has been shown that ZNF384-rearranged tumors have a distinct gene expression profile that is consistent between disease groups and N terminal partners. Genomic analyses of patient tumors has shown that ZNF384 fusions arise in hematopoietic stem cells and that expression of the fusion, but not the concomitant genetic alterations, results in lineage aberrancy, however, the mechanistic role of ZNF384 rearrangements has not been formally studied. The goal of this project was to investigate the role of ZNF384 rearrangements, together with concomitant genetic alterations, in leukemogenesis, with an emphasis on characterizing the role of cell-of-origin and lineage of the resulting leukemias. Additionally, I aimed to explore the mechanism that leads to a distinct gene expression profile and immunophenotype. Using viral overexpression and newly developed genetically engineered mouse models I have shown the effect of ZNF384 fusion expression at multiple stages of hematopoietic development in mouse and human systems. These experiments revealed the hematopoietic skewing toward immature, myeloid differentiation caused by expression of ZNF384 fusions. While expression of ZNF384 fusion oncoproteins in either mouse or human hematopoietic progenitors resulted in hematopoietic expansion, lineage skewing, and for some fusion partners, self-renewal in vitro; co-expression with common concomitant lesions, such as NRAS G12D, was necessary in order to develop a fully penetrant mouse leukemia in vivo. In contrast, ZNF384 fusions alone drive B/myeloid leukemia when expressed in human hematopoietic stem and progenitor cells and transplanted into NSG-SGM3 mice, highlighting the benefits of using human models to investigate human oncogenes. Importantly, these experiments confirm that hematopoietic stem cells are the most sensitive to cellular transformation by ZNF384 fusions. Mechanistic studies integrating gene expression and chromatin occupancy data revealed that fusions bind canonical ZNF384 sites with greater intensity than wild type protein. A subset of regions with increased fusion binding also had increased H3K27Ac and were intronic or intergenic suggesting they are putative enhancer regions. These findings support that ZNF384 fusions occur in an early hematopoietic stem or progenitor cell which leads to skewed hematopoiesis and leukemic transformation in the presence of additional lesions, proliferative stress, or cytokine stimulation. This is likely caused by inappropriate extended activation of stem and progenitor enhancer regions along with deregulation of lineage-specific genes by altered binding of ZNF384 fusions. Together, these results demonstrate an intersection of cell of origin and expression of fusion oncoproteins as necessary prerequisites for generating lineage ambiguous leukemia."</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1511297714</t>
+          <t>https://openalex.org/W4247114195</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1128/jb.123.1.47-55.1975</t>
+          <t>https://doi.org/10.1097/00003086-200301000-00044</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Read &amp; McElhaney (1975)</t>
+          <t>Erol et al. (2003)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Glucose transport in Acholeplasma laidlawii B: dependence on the fluidity and physical state of membrane lipids</t>
+          <t>Knee Pain in a 13-Year-Old Boy</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>The uptake of D-glucose by Acholeplasma laidlawii B occurs via a mediated transport process, as shown by the following observations: (i) glucose permeates A. laidlawii B cells at a rate at least 100 times greater than would be expected if its entry occurred only by simple passive diffusion; (ii) the apparent activation energy for glucose uptake in A. laidlawii is significantly lower than that expected and observed for the passive permeation of this sugar; (iii) glucose uptake appears to be a saturable process; (iv) glucose uptake can be completely inhibited by low concentrations of phloretin and phlorizin; and (v) glucose uptake is markedly inhibited at temperatures above 45 C, whereas the passive entry of erythritol continues to increase logarithmically until at least 60 C. The metabolism of D-glucose by this organism is rapid and, at low glucose concentrations, the intracellular radioactivity derived from D-[14-C]glucose is at any given time a reflection of the net effect of glucose transport, glucose metabolism, and loss from the cell of radioactive metabolic products. Care must thus be taken when attempting to determine the rate of glucose transport by measuring the accumulation by the cells of the total radioactivity derived from D-[14-C]glucose. The rate of uptake of D-glucose by A. laidlawii B cells is markedly dependent on the fatty acid composition and cholesterol content of the plasma membrane and exhibits a direct dependence on the fluidity of the membrane lipids as measured by their reversible, thermotropic gel to liquie-crystalline phase transition temperatures. In contrast to the transport rates, the apparent activation energy for glucose uptake above the phase transition temperature is not dependent on membrane lipid composition. At the temperature range within the membrane lipid phase transition region, the apparent activation energy of glucose uptake is different from the activation energy observed at temperatures above the phase transition. This may reflect the superimposed operation within the phase transition region of more than one temperature-dependent process.</t>
+          <t xml:space="preserve">Learning Objectives On completion of this article, the reader should be able to: radiographically differentiate most long bone lesions producing periosteal elevation; compare the utility of imaging modalities in assessing long bone lesions with periosteal elevation; and histologically differentiate long bone lesions causing periosteal elevation. A 13-year-old boy reported right knee pain for 3 weeks before presenting to the authors’ institution. He previously was admitted to another institution for evaluation, where plain radiographs and magnetic resonance imaging (MRI) scans were taken. Radiologic studies revealed a destructive bone lesion on the right proximal fibula, and subsequently the patient was referred to the current authors’ institution for additional evaluation. The knee pain gradually had worsened with time, and the patient could not bear weight on his right leg. The patient presented to the emergency room of the authors’ institution before the date of appointment because of severe knee pain. The child otherwise was healthy with no previous major illnesses, injuries, or surgeries. He was the product of a full-term, uncomplicated pregnancy, and his developmental and family histories were noncontributory. On physical examination, the patient was a healthy appearing boy who reported moderate to severe pain over the area of the right proximal fibula. He was unable to bear weight on his right lower extremity. The neurovascular examination was normal. The patient had full range of motion (ROM) of the right knee. There was tenderness over the right proximal fibula with a mild soft tissue swelling. His abdomen was soft and nontender without masses or hepatosplenomegaly. No lymphadenopathy was observed. Plain radiographs and MRI scans of the patient’s right knee obtained before incisional biopsy are shown in Figures 1 through 4.Fig 1A–B.: Plain (A) anteroposterior and (B) lateral radiographs of the right knee.Fig 2.: Sagittal T1-weighted image of the right knee.Fig 3.: Coronal T2-weighted image of the right knee.Fig 4.: Axial T2-weighted image of the right knee.Based on the history, physical findings, and imaging studies, what is the differential diagnosis? RADIOGRAPHIC INTERPRETATION The anteroposterior (AP) radiograph of the right knee (Fig 1A) showed a permeative pattern of bone destruction in the proximal fibular diaphysis extending into the metaphysis. On the lateral radiograph of the right knee (Fig 1B), destruction of the anterior cortex and a Codman triangle pattern of new bone formation (arrow) was seen. In addition, scattered lucent areas represented bone destruction. Magnetic resonance imaging scans also characterized involvement of the bone marrow and adjacent soft tissues. A sagittal T1-weighted image (Fig 2) revealed complete replacement of the bone marrow with a heterogeneous, predominantly low signal intensity mass. A well-defined soft tissue mass extended anteriorly and was separated from the adjacent musculature by thin linear low signal likely representing new periosteal bone (arrows). A coronal T2-weighted image with fat saturation (Fig 3) showed an expansile mass, with increased T2 signal replacing the bone marrow. A small nodule was visible arising from the medial aspect of the mass (arrow). Increased signal in the surrounding muscles represented tumor extension, or edema, or both. An axial T2-weighted image (Fig 4) showed complete replacement of the marrow with a large soft tissue component surrounded by a thin layer of new bone formation. Low intensity, linear strands of new bone formation arising radially from the central bone lesion also were seen (black arrows). This represented a sunburst pattern of aggressive periosteal new bone formation. In addition, soft nodules (white arrows) were seen outside the margin of bone formation, which surrounded the mass. High signal edema or tumor surrounded the neurovascular bundle (curved arrow). DIFFERENTIAL DIAGNOSIS Osteosarcoma Ewing’s sarcoma Langerhans’ cell histiocytosis Osteomyelitis Aneurysmal bone cyst After presentation to authors’ institution, an incisional biopsy with an intraoperative frozen section was done; the photomicrographs are shown in Figure 5.Fig 5A–B.: Photomicrographs of the lesion (Stain, hematoxylin and eosin; magnification, (A) ×200, (B) ×400, and (C) ×400). (continues)Fig 5C.: (continued) Photomicrographs of the lesion (Stain, hematoxylin and eosin; magnification, (A) ×200, (B) ×400, and (C) ×400).Based on the history, physical findings, radiographic studies, and the histologic picture, what is the diagnosis and how should this lesion be treated? HISTOLOGIC EVALUATION The specimen consisted of multiple small fragments of tan soft tissue. Histologic examination revealed a heterogeneous picture, with substantial areas of background pink cartilaginouslike matrix juxtaposed with areas of greater cellularity. Focally, the matrix had features of osteoid, with focal calcification and hyperchromatic cells within lacunae </t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2121673844</t>
+          <t>https://openalex.org/W3091783947</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/13563460903586202</t>
+          <t>https://doi.org/10.1542/hpeds.2020-000752</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Caney (2010)</t>
+          <t>Snow &amp; McCulloh (2020)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Markets, Morality and Climate Change: What, if Anything, is Wrong with Emissions Trading?</t>
+          <t>Discharge Home After Transition to Oral Antibiotics: No Jeopardy</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Abstract This article explores whether emissions trading is morally defensible To do so it examines three different kinds of moral consideration Which might be used to judge emissions trading. The first kind makes what I term an 'ethical' objection, and holds that utilising market instruments to combat climate change is inherently objectionable. I examine three versions if this 'ethical' argument but find none persuasive. The remainder of the article considers two additional moral considerations, both of which appeal to principles of justice. Drawing on these it argues that emissions trading can be morally defensible but only it it meets these two demanding moral criteria. First, the costs of emissions trading should be shared equitably. The paper examines what this might mean and criticises the leading account of what constitutes a just distribution of emissions Second, emissions trading must make an appropriate contribution to climate mitigation. A number of ways in which current emissions trading schemes signally fail to meet this second criterion are then noted. The article concludes that emissions trading schemes could in principle be morally defensible but only if new schemes are introduced or existing schemes are radically redesigned in line with the principles outlined in the article. Keywords: emissions tradingethicsjusticeclimate change Notes An earlier version of this paper was presented at the 'Commodifying Carbon' Conference (University of Oxford, 16 July 2007). I am grateful to the two respondents on my paper, Timmons Roberts and Henry Shue, for their instructive comments. A much later version was presented at the workshop on 'Global Emissions Trading: Ethics, Policy and Politics' (University of Warwick, 8 July 2009). I am grateful to the participants for their suggestions. I am especially indebted to Ed Page for a number of very illuminating discussions of the themes examined in this paper and to the anonymous referee for this journal for their extremely helpful comments. The paper was completed during my tenure of an ESRC Climate Change Leadership Fellowship (2008–11) and I am grateful to the ESRC for its support. Note that emissions trading schemes are not the only market instrument being employed to mitigate climate change. Another potentially important market instrument is the United Nations' programme on Reducing Emissions from Deforestation and Forest Degradation in Developing Countries (UN-REDD). See on this http://www.undp.org/mdtf/un-redd/overview.shtml [last accessed 11 December 2009]. REDD is one specific version of what is known as 'payment for environmental services' (PES). For an overview of PES see Engel et al. Citation(2008). My focus in this article is on emissions trading but some of the issues raised are also relevant for an appraisal of REDD and other schemes which involve paying for environmental services. I am grateful to an anonymous referee for pressing me on this point. This sentence needs to be heavily qualified for the impoverished may be unfree not to sell emissions. That is, their economic disadvantage may compel them to sell their emissions. I have argued elsewhere that there is a duty of justice to eradicate global poverty (Caney Citation2005) and if this were honoured then this concern would be met. One might also address this concern either by allocating large numbers of emissions permits to the disadvantaged or by auctioning the permits and distributing the revenues to the disadvantaged (Beckerman and Pasek Citation2001: 183–4). These issues are examined in section IV. Simmel (Citation1990 [1907]: 286) illustrates his argument through an historical analysis of different systems of payment, such as feudalism. He points out that an economy where persons are required to transfer a certain specific good (such as 'a quantity of beer or poultry or honey') 'thereby determines the activity of the … [duty-bearer] in a certain direction' and, as such, limits their liberty more than one where one can discharge one's debts though payment of money. A second, quite different reason for analysing emissions trading in the light of other policies is that it is often the case that one policy, whilst successful on its own, may undercut the efficacy of a second policy. They may work well separately but undermine each when adopted together. See Carbon Disclosure Project (http://www.cdproject.net/) and Carbon Monitoring for Action (http://carma.org/) [both last accessed on 26 June 2009]. See also the interesting discussion by Thaler and Sunstein in Nudge (Citation2008: 188–92). For the claim that they should be inalienable see Shue (Citation1993: 58). For instructive comparisons of different schemes see Roberts and Thumim (Citation2006: section 2) and Bottrill Citation(2006). For informative overviews see House of Commons Environmental Audit Committee Citation(2008) and DEFRA's analysis of individual carbon permit schemes (now available at the website of the Department for Energy </t>
+          <t>Transitioning children from intravenous to enteral antibiotics is a daily occurrence for providers caring for children in hospitals. These children have clinically improved but require additional days of medication to complete an effective course of therapy. Some clinicians make the change to enteral antibiotics and discharge the child immediately, whereas others watch the child in the hospital setting on the enteral antibiotic therapy for a day or more. In their study, Stromberg et al1 suggest that prolonged observation is not the national norm, that the practice of observation after transitioning therapy has wide variability nationally, and that observation after transitioning therapy is likely unnecessary for children with skin and soft tissue infections (SSTIs). The authors’ findings beg the question: When do you deviate from the norm?The Infectious Diseases Society of America’s SSTI guidelines recommend cephalexin or clindamycin for cases of SSTI in which the child is stable and does not have bacteremia or intravascular infection; but vancomycin is listed as first-line therapy for complicated SSTIs.2 In the current study, the authors found that despite the fact that children in this cohort were considered to have “uncomplicated” SSTI, ∼20% of these children received vancomycin during their hospital stay before transitioning to oral therapy. Vancomycin use in SSTIs can add significant cost to a hospitalization,3 entails additional diagnostic testing for safety and therapeutic monitoring, and adds risk of nephrotoxicity4. This study builds on previous research in adults by revealing that children who received vancomycin were more likely to be observed in the hospital after transition to enteral antibiotic therapy. Because there is no enteral equivalent to intravenous vancomycin, transitioning to enteral therapy would require changing the class of antibiotic being given to the child. Adhering to evidence-based practices for SSTIs would likely limit inpatient observation on oral antibiotics simply by avoiding the need to transition from vancomycin to a different antibiotic class.In the study, the authors recognize that the motivation for keeping 15% of the children an additional day is not known; retrospective data make it hard to infer the reasons a clinician would choose to observe a child who had transitioned to enteral antibiotics. The data reveal that the tendency to watch longer after transitioning to enteral antibiotic therapy was more pronounced for toddlers (age 1–2 years), suggesting a paternalistic streak, possibly over concerns for tolerating and/or adhering to oral medications. Those children with infections in the neck were also more likely to be observed. Again, the motivation is unclear but could stem from concerns about the number of deep critical structures located within the neck or the potential influence of consultants involved in those cases. Although the motivations cannot be ascertained, the study reveals no outcome differences between those observed and those discharged, highlighting an opportunity for clinicians to standardize practice.Regardless of the motivation, observing children after transition to an oral antibiotic can have profound consequences for the child and their family. The fact that these children spent nearly a full day longer in the hospital imposes both financial and safety hazards. The increase of $1800 to the cost of the hospitalization primarily reflects the hospital bed charge for the extra day. Additionally, there is an indirect cost the family bears by the additional hospital day. Beyond the immediate costs due to prolonged hospital stay, the extra day offers the opportunity for any of a multitude of negative, iatrogenic events to occur. To Err is Human: Building a Safer Health System,5 published 20 years ago, broke the silence on medical errors. However, authors of a 2017 meta-analysis suggest that 1 in every 5 patients in a hospital experiences an adverse drug event.6 Stromberg et al1 demonstrated that the number of readmissions within 7 days in both groups was small (7 patients total of 3704 patients) and evenly split between the 2 groups. Consistent with many previous studies, this finding suggests that compliance with enteral therapy was adequate after discharge regardless of whether the child was observed.Although the retrospective use of administrative data sets hinders the interpretation, the authors did a good job of narrowing the study population to eliminate children who likely had more severe disease (ICU stay, placement of a central venous line, etc). Like many studies in which authors have used pediatric administrative data sets over the past decade,7–10 Stromberg et al1 found wide variability in practice across institutions. Stephens et al,8 published in this journal in April, demonstrated a range of variability between 25% and 81% for obtaining blood cultures from patients admitted with SSTIs. However, the current study may offer a small gli</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2117213785</t>
+          <t>https://openalex.org/W2438201574</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1073/pnas.1202526109</t>
+          <t>https://doi.org/10.1049/iet-map.2016.0025</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Carter et al. (2012)</t>
+          <t>Mei et al. (2016)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Mechanism for Hypocretin-mediated sleep-to-wake transitions</t>
+          <t>High‐efficiency microstrip rectenna for microwave power transmission at Ka band with low cost</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Current models of sleep/wake regulation posit that Hypocretin (Hcrt)-expressing neurons in the lateral hypothalamus promote and stabilize wakefulness by projecting to subcortical arousal centers. However, the critical downstream effectors of Hcrt neurons are unknown. Here we use optogenetic, pharmacological, and computational tools to investigate the functional connectivity between Hcrt neurons and downstream noradrenergic neurons in the locus coeruleus (LC) during nonrapid eye movement (NREM) sleep. We found that photoinhibiting LC neurons during Hcrt stimulation blocked Hcrt-mediated sleep-to-wake transitions. In contrast, when LC neurons were optically stimulated to increase membrane excitability, concomitant photostimulation of Hcrt neurons significantly increased the probability of sleep-to-wake transitions compared with Hcrt stimulation alone. We also built a conductance-based computational model of Hcrt-LC circuitry that recapitulates our behavioral results using LC neurons as the main effectors of Hcrt signaling. These results establish the Hcrt-LC connection as a critical integrator-effector circuit that regulates NREM sleep/wake behavior during the inactive period. This coupling of distinct neuronal systems can be generalized to other hypothalamic integrator nuclei with downstream effector/output populations in the brain.</t>
+          <t>IET Microwaves, Antennas &amp; PropagationVolume 10, Issue 15 p. 1648-1655 Research ArticleFree Access High-efficiency microstrip rectenna for microwave power transmission at Ka band with low cost Huan Mei, Huan Mei School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this authorXuexia Yang, Corresponding Author Xuexia Yang yang.xx@shu.edu.cn School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this authorBing Han, Bing Han School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this authorGuannan Tan, Guannan Tan School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this author Huan Mei, Huan Mei School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this authorXuexia Yang, Corresponding Author Xuexia Yang yang.xx@shu.edu.cn School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this authorBing Han, Bing Han School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this authorGuannan Tan, Guannan Tan School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this author First published: 01 December 2016 https://doi.org/10.1049/iet-map.2016.0025Citations: 13AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Abstract This paper presents the design and implementation of a high-efficiency microstrip rectenna for millimetre wave power transmission (MMPT) at Ka band with low cost. An experimental method is suggested to obtain the input impedance of the rectifying diode at millimetre-wave bands. So the high-efficiency rectifying circuit could be designed with an effective input impedance match network and two output class-F dc-pass filters. A high-gain Fabry-Perot resonator antenna with circularly polarised (CP) operation and harmonic suppression function is proposed as the receiving antenna, which has a measured 3-dB axial-ratio bandwidth of 6.5% and peak gain of 17 dBi at the centre frequency of 35 GHz. The antenna is fed by a microstrip line, which is the same as the input port of the rectifying circuit, so the integration of the rectenna is easy. The millimetre wave to direct current (MMW-DC) efficiency of the rectenna has been measured in far field, which shows a good CP performance. A more precise measurement system, which could be applied both in near and far fields, is proposed to evaluate the rectenna efficiency. The highest efficiency of 63.8% is measured on the load of 430 Ω at 34.8 GHz with the received power being 77.3 mW. 1 Introduction With the development of wireless power transmission (WPT) technology, millimetre-wave power transmission (MMPT) is becoming noticeable because of the compact size and the light weight of the transmitters and receivers compared with those operating at microwave bands [1-4]. MMPT has been suggested to transfer power among satellites in the space taking advantage of no atmospheric absorptions [4]. It could also be utilised to recharge radio frequency identification (RFID) devices [5] and sensors for biological medicine supervision [6, 7]. The most used frequencies are 35 and 94 GHz because the atmosphere attenuations are lower than other millimetre-wave bands [2-4]. The rectenna, consisting of a receiving antenna and a rectifying circuit, plays a crucial role in a microwave power transmission (MPT) system. Microwave to direct current (MW-DC) conversion efficiency, which mainly depends on the efficiency of the rectifying circuit, is the most important specification of a rectenna. The MW-DC efficiency of a rectifying circuit would increase with the input power and reach about 80% when the rectifying Schottky diode receives about 100 mW microwave power at S, C bands [1, 8, 9]. However, up to now, only a few millimetre-wave rectennas using printed circuit board (PCB) process have been reported and the millimetre wave to direct current (MMW-DC) conversion efficiencies were low [2, 10-12]. The printed dipole rectenna had a conversion</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2159766471</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1061/(asce)co.1943-7862.0000213</t>
+          <t>https://openalex.org/W2596960879</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Hartmann et al. (2010)</t>
+          <t>Robati (2016)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Closure to “Areas of Application for 3D and 4D Models on Construction Projects” by Timo Hartmann, Ju Gao, and Martin Fischer</t>
+          <t>Model-based techniques for the future integration for formal verification of critical real-time software systems</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>The authors provide a good categorization framework for application areas for 3D and 4D models in construction practices. It will be helpful for the practitioners in finding the most beneficial applications of 3D and 4D models on their projects and also for the researchers in identifying the most promising areas of research. The authors have already explored different possible areas of applications and research; however, the objective of this discussion is to make some additional observations about a few issues related to future research areas for 3D and 4D models. The discusser feels that more points may be incorporated in future studies in order to help readers better understand the authors’ observations. Although 3D computer-aided drafting CAD models are strong visualization tools, they consist of points, lines, polygons, and solids with no topology and no link to a database. As mentioned in the paper, there is a major revolution of building information modeling BIM in the CAD world. BIM is a kind of 3D modeling that includes topology and may be linked with a database. It is a full building life cycle management tool from construction to day-to-day operations to ultimate demolition. The authors mentioned that 3D/4D models, as well as BIM, need to be researched to determine their future use in different applications areas. In the discusser’s opinion, it would have been better if the authors had specified that 3D CAD and 4D modeling should be researched for application in 3D topology, or the industry needs the integration of BIM with 4D tools, or researchers should study the application of 4D tools during the project life cycle as mentioned in the paper , or the 3D and 4D modeling capabilities of BIM should be enhanced. The 4D models require application-level integration to fulfill project requirements such as quantity takeoffs, cost estimation, energy simulations, etc. Hence, software from various disciplines is being used to fulfill such requirements. Architects, engineers, builders, owners, and operators face challenges because different information formats are used to represent the graphical and nongraphical information for a project and this data is difficult to consolidate Isikdag et al. 2008 . During the planning process when using 4D models, planners have to repeatedly reorganize, interpret, and combine the information collected from different software. This process is tedious and frequently produces errors. Therefore, lack of interoperability is a major obstacle to effectively combining information from different sources. BIM provides solutions for overcoming the interoperability problems that</t>
+          <t>Integrated modular avionics architectures combined with the emerging SAE TTEthernet standard provides a strong infrastructure for the deployment of mixed-critical avionic applications that meet stringent safety, reliability and performance requirements. Integrating these systems is a complex and challenging engineering task. Of paramount importance is the development of a model-based approach that can endow system engineers with a methodology and supporting tools to cope with this complexity. In this thesis, we present an extension of AADL, the standard language used for architecture and analysis modeling, in order to enable the modeling of integrated multi-critical avionic applications deployed on TTEthernet-based IMA architectures. To do this, we first present a metamodel for the TTEthernet domain followed by an extension of the core AADL metamodel with concepts and constraints relevant for this domain. In doing so, we define the concrete textual syntax for this extension, and we outline the implementation of this extension using the Open Source AADL Tool Environment (OSATE). To verify the AADL model for TTEthernet, we build on our extension of AADL and leverage model transformations to assess the system models produced with this methodology. In this process, we transform the system models to a target model that is compatible with DEVS formalism in its dedicated simulation environment._x000D_
+_x000D_
+We illustrate the proposed approach using a case study provided by Bombardier, our industrial partner in this project, and we show the benefits of our AADL extension and verification approach to the contention-freedom property of the TTEthernet schedule.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2075007701</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/00005373-199607000-00001</t>
+          <t>https://openalex.org/W2363008669</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Hassett (1996)</t>
+          <t>Zhang (2009)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Do It Right, Do the Right Thing</t>
+          <t>Effects of Perennial Alfalfa and Hedgerow System on the Adjustment and Control of Soil Erosion in the Granite Sloping Fields</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen, members of EAST, and guests! In preparation for this address, I reviewed my predecessors presentations. Dr. Maull urged us to dispel fatalism in 1989. [1] Dr. Harris searched for values in our changing times. [2] Dr. Jacobs identified forces that shape trauma care. [3] Dr. Champion reflected on directions of trauma care. [4] Dr. Schwab identified the largest sociomedical problem of the turn of the century. [5] Dr. Rhodes gave practical guidelines for trauma care. [6] Dr. Boyd reported on the principles of action. [7] Each was a prescient view of the challenges to trauma care. I urge each member to review their comments. I will focus on a continuation of their theme and offer an action plan. I have decided to do so because we stand on the threshold of a new century. Each of us has come to this place in time with unique experiences of mentorship, academic preparation, and clinical experience. Our common thread is our dedication to the trauma patient. Each will be asked to address issues and challenges daily. How we do so and what we do will effect generations of future trauma patients. At the turn of the century we are facing questions like: Can we define life, liberty and the pursuit of happiness specifically? Can we reliably ensure access to health care for all? Our sense of mission and vision of the future are important components as we deal with the challenges and questions. My presidential address is a call to active advocacy. I implore you to "Do it right, do the right thing". Modern health care advocates autonomy not cohesiveness. It values patient choice but reduces patient options. It promotes the bottom line and not people. It sees outcome through economic glasses. It replaces a commitment to excellence with a mandate for equity. It does not ensure equal health care to the economically challenged. It is a bean counters plan concocted by people who don't know beans about health care. This is the result of society's failure to address basic issues of health care and economy. Largely, it is a failure of professional and political leadership. Professionally, many of our colleagues take more than they give. Politically, many of our leaders use health care and social systems for their own gain. Somehow, we have lost the vision of our mission and responsibility. Figure 1Figure 1Entrepreneurs found health care in the seventies. The medical market place was an open and largely unregulated area. It soon became dominated by technology that superseded the normally accepted "doctor skills". Hospitals became technological marvels. Public policy for Medicare and Medicaid created a funding source that could supply this market with sufficient funds to make entrepeneurial investment reasonable. Some define this entrepreneurship as an organized license to steal. Others see it as the natural order of life. In the initial phases, it provided resources and fulfilled the dream of universal health care, where every malady could be addressed directly. In the later phases, it created circumstances where health care devices have astronomical prices and minor problems have million dollar responses. Decisions are directed by the corporate bottom line and controlled by the fear of litigation. The process has made us all commodities to be managed and used. Health care is provided according to the number of covered lives per annum. Health care providers are seen in terms of the number of contact hours per day. We are part of a system of health care delivery that sets a priority on certain types of care. Delays in delivering care are economically driven. The bottom line is important. The question is whose bottom line is being valued in the decision process. Students are taught more about the cost per dose than the pharmacology of the drug given. They are indoctrinated to careers and training programs are modified according to the mantra of managed care. Residents are concerned with a "niche market," attractiveness of their skills to their eventual employer, and their benefits package. Attending staff are evaluated according to the length of stay of their patients or the number of resource days utilized. The natural result is a struggle for the control of health care. In many ways, health care providers and patients are in a "free fire zone" in a modern economic war. Neither controls the environment. Both are victims and victimize the system simultaneously. Today, the other side is winning. However, all is not lost. Groups of health care professionals are addressing issues aggressively. The Phoenix analogy that a better health care system may emerge from the ashes of the past health care system has become a popular concept in groups who accept the challenge of change. The major goals of these groups are intelligent organization, focus, and outcome-based service. None of the issues are new. Most of the issues, challenges, and responses have been with us for a long time. The history of the response to change in m</t>
+          <t>Taking Guanqiao area in Anxi county as study area and based on previous research achievements,this article assessed systematically the mechanism of vegetation in adjusting and controlling soil erosion on the slope lands by integrating field investigation and experiments.The results showed that,under grass cover conditions,either runoff-yielding volume or runoff coefficient reduced by 70% while the average rate of infiltration increased by more than 3 times respectively on the tillage,which proved that a large amount of rainfall had flowed into soil in the form of infiltration.In addition,both the surface flow′s sediment concentration and runoff-sediment-yielding reduced obviously under the conditions of grass cover,for example,the average sediment concentration in lost runoff decreased by 87.5%,and sediment-yielding amount decreased by 97%,indicating that the perennial alfalfa hedgerow system would be effective.And in the light of the observation in the fields for many years,it was proved that the hedgerow system has obvious effects on soil and water conservation.So the applications of suitable measures to reduce runoff-yielding volume and increase the transformation ratio from rainfall to soil water will be effective in reducing soil loss from sloping fields in the area.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380078132</t>
+          <t>https://openalex.org/W2096580202</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3033984/v1</t>
+          <t>https://doi.org/10.1098/rsta.2010.0318</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Araya et al. (2023)</t>
+          <t>Fordy (2011)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Promoting climate-smart sustainable agroforestry to tackle social and environmental challenges: The case of Macadamia agroforestry in Malawi</t>
+          <t>Mutation-periodic quivers, integrable maps and associated Poisson algebras</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Abstract Our current global food system is understood to require a fundamental transformation based on a holistic approach to maintain long-term fertility, healthy biodiverse agroecosystems, and climate-proof/secure livelihoods. Recently, there has been a growing recognition of smallholder farmers' contributions to addressing key global environmental and social development issues (i.e., SDGs), including poverty, food security, climate change, and sustainable development. One specific approach is agroforestry-based agriculture, in which edible food and commercially important trees are grown on cropland, thereby improving the biodiversity of farming systems, enhancing agricultural productivity, and adding benefits such as nutrition and financial stability, not least climate resilience. In this context, we present lessons learned from an agroforestry system in Malawi that involves smallholder farmer cooperatives interplanting macadamia nut trees with annual crops such as groundnuts, maize, and soybeans. We review holistic advantages such as yield improvement, farmer perceptions, and challenges. We provide insights into what works in designing (NMT, linkage with finance plan) and draw lessons that can be applied to other comparable programmes worldwide.</t>
+          <t>We consider a class of map, recently derived in the context of cluster mutation. In this paper, we start with a brief review of the quiver context, but then move onto a discussion of a related Poisson bracket, along with the Poisson algebra of a special family of functions associated with these maps. A bi-Hamiltonian structure is derived and used to construct a sequence of Poisson-commuting functions and hence show complete integrability. Canonical coordinates are derived, with the map now being a canonical transformation with a sequence of commuting invariant functions. Compatibility of a pair of these functions gives rise to Liouville's equation and the map plays the role of a Bäcklund transformation.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2274534862</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/resp.12749</t>
+          <t>https://openalex.org/W1582806985</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Jo et al. (2016)</t>
+          <t>Hanna (2010)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Year in review 2015: Interstitial lung disease, pulmonary vascular disease, pulmonary function, sleep and ventilation, cystic fibrosis and paediatric lung disease</t>
+          <t>Transforming Government and Building the Information Society: Challenges and Opportunities for the Developing World</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>The diagnosis and treatment of interstitial lung diseases (ILD) have undergone revolution in 2015, with the new antifibrotic treatments pirfenidone and nintedanib now incorporated into clinical practice guidelines for the treatment of idiopathic pulmonary fibrosis (IPF).1 This follows their pivotal phase III trials in 20142, 3 that showed, for the first time, slowing of disease progression in this devastatingly fatal disease. While pirfenidone had been licenced in Japan since 2008 and Europe since 2011, both drugs gained Federal Drug Administration (FDA) approval in the United States in 2014, heralding a new era in the management of IPF worldwide. This change in the paradigm of IPF management prompted a comprehensive and timely review series this year in Respirology, focusing on the idiopathic interstitial pneumonias (IIP),4-8 an important subset of ILD. In this series, Jacob et al.5 highlight the three cardinal features of classical usual interstitial pneumonia (UIP) on high-resolution computed tomography (HRCT) scan as honeycomb cysts, traction bronchiectasis and volume loss of the lung parenchyma. They also discuss the current conundrum of ‘possible UIP’: as clinicians, we are currently faced with guidelines that recommend a surgical lung biopsy for further characterization if the HRCT is not classical. However, in reality, only a minority of patients undergo this procedure. With Fell et al.9 showing in patients without definite honeycomb change, that an age greater than 70 years has a positive predictive value of 95% for UIP on lung biopsy; and sub-analysis from the INPULSIS trials showing that patients with possible UIP respond equally well to nintedanib, the clinical utility of the term ‘possible UIP’ comes into question. In a comprehensive review of the histopathology of IIP, Tabaj et al.7 also highlight the challenge posed on histopathology by the ‘certainty’ categories of UIP based on key features as stated in the 2011 IPF guidelines.10 In practice, while these categories provide a common lexicon for clinical trial enrolment, they may lead to confusion and/or oversimplification. These authors note the potential for transbronchial cyrobiopsy, a new diagnostic procedure for ILD patients, to obtain larger tissue fragments with little reported artefact than previously possible with conventional transbronchial biopsy. With promising results demonstrated in the diagnosis of ILD, this may become a feature of future ILD diagnostic algorithms.11 In a critical review of the revised IIP classification,12 Neurohr et al.6 emphasize the importance of a multidisciplinary approach to IIP diagnosis, integrating clinical, physiological, radiological and histopathological data. They also discuss the importance of the newly recognized category of ‘unclassifiable IIPs’ introduced in the 2013 IIP update, in which a disease behaviour classification has been proposed to allow a pragmatic management approach with suggested goals and monitoring strategies. With the rapid changes occurring in ILD diagnosis and management, this review series encapsulates the current standards and complexities involved in the care of ILD patients. The lack of standardized approach to IPF diagnosis and management is highlighted by Troy et al.13 who report a wide variation in diagnostic and therapeutic approach to IPF in 144 Australian and New Zealand respiratory physicians surveyed in 1999 and again in 2012–2013. In the latter survey, 34% of physicians responded that they would refer patients to subspecialist ILD clinics or multidisciplinary meetings and 33% would commence corticosteroids and/or azathioprine. While no antifibrotic therapies were available at the time of this survey, the results of the PANTHER-IPF trial14 showing increased harm with this immunosuppressive regime were available, and thus, they illustrate the fast pace at which IPF management is changing and delay with which recommendations are being translated to clinical practice. The authors argue that there is a need to standardize the approach to diagnosis and treatment of IPF patients. The need for novel tools to enhance our diagnosis of ILDs is apparent and was explored by Bhattachryya et al.15 who reported an algorithm to visually transform the breath sounds of patients with diffuse parenchymal lung disease compared with normal subjects. While this study showed 100% accuracy in differentiating the normal (n = 20) from the abnormal (n = 8), the accompanying editorial by Joshi16 concludes that this algorithm is unlikely to be of any additional value above traditional auscultation. Their transformation of sound to an interpretable visual image, however, shows ingenuity and promise for future medical and educational applications. Diagnostic challenges facing respiratory physicians extend to the granulomatous lung diseases (GLD) with a diverse range of aetiologies reported. In a single-centre retrospective study of 190 GLD patients with surgical lung biopsies, Nazarullah et al.</t>
+          <t>Information and communication technology (ICT) is central to reforming governance, innovating public services, and building inclusive information societies. Countries are learning to weave ICT into their strategies for transforming government as enterprises have learned to use ICT to innovate and transform their processes and competitive strategies. ICT-enabled transformation offers a new path to digital-era government that is responsive to the challenges of our time. It facilitates innovation, partnering, knowledge sharing, community organizing, local monitoring, accelerated learning, and participatory development. In Transforming Government and Building the Information Society, Nagy Hanna draws on multi-disciplinary research on ICT in the public sector, and on his rich experience of over 35 years at the World Bank and other aid agencies, to identify the key ingredients for the strategic integration of ICT into governance and poverty reduction strategies. The author showcases promising practices from around the world to outline the strategic options involved in using ICT to maximize developmental impact--transforming government institutions and public services, and empowering communities for inclusion and grassroots innovation. Despite the ICT promise, Hanna acknowledges that reforming governance and empowering poor communities are difficult long-term undertakings. Hanna moves beyond the imperatives and visions of e-transformation to strategic design and implementation options, and draws practical lessons for policymakers, reformers, innovators, community leaders, ICT specialists and development experts.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://openalex.org/W43931580</t>
+          <t>https://openalex.org/W1496030729</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.9876/sim.v5i1.74</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Storey (1997)</t>
+          <t>Amami &amp; Thevenot (2000)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>The Use of Natural Supports To Increase Integration in Supported Employment Settings for Youth in Transition. Final Report.</t>
+          <t>L'Internet marchand : caractérisation et positionnements stratégiques</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>The rapid development of information exchanges due to technology's pr ogress and open Internet protocol has generated the development of new types of commercial activities. A literature review of this phenomenon known as electronic commerce on the Internet or e-commerce will lead to the formulation of a conceptual framework combining two dimensions : 1) user position relative to the Firewall, and 2) impact of the Internet technology on relationships. Then, fairly in-depth case studies are conducted. This leads to uncover and characterize three distinct strategic positionings : 1) the Internet as a marketing tool, 2) the Internet as a transactional space and 3) the Internet as an integration and innovation space. It also leads to identify the conditions essential to understand the transition from the positioning to another. We draw lessons that can guide managers faced with the strategic decision to invest in the e-commerce infrastructures and help them understand the nature of the winning organization in this new virtual environment. Finally, major stakes related to the integr ation and innovation positioning are discussed.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2026539446</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1074/jbc.273.21.12732</t>
+          <t>https://openalex.org/W2942446064</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Capranico et al. (1998)</t>
+          <t>Forsström (2019)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Mapping Drug Interactions at the Covalent Topoisomerase II-DNA Complex by Bisantrene/Amsacrine Congeners</t>
+          <t>Noise sensitivity and FK-type representations for Gaussian and stable processes</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve">To identify structural determinants for the sequence-specific recognition of covalent topoisomerase II-DNA complexes by anti-cancer drugs, we investigated a number of bisantrene congeners, including a 10-azabioisoster, bearing one or two 4,5-dihydro-1H-imidazol-2-yl hydrazone side chains at positions 1, 4, or 9 of the anthracene ring system. The studied bisantrene/amsacrine (m-AMSA) hybrid and bisantrene isomers were able to poison DNA topoisomerase II with an intermediate activity between those of bisantrene and m-AMSA. Moving the side chain from the central to a lateral ring (from C-9 to C-1/C-4) only slightly modified the drug DNA affinity, whereas it dramatically affected local base preferences of poison-stimulated DNA cleavage. In contrast, switching the planar aromatic systems of bisantrene andm-AMSA did not substantially alter the sequence specificity of drug action. A computer-assisted steric and electrostatic alignment analysis of the test compounds was in agreement with the experimental data, since a common pharmacophore was shared by bisantrene,m-AMSA, and 9-substituted analogs, whereas the 1-substituted isomer showed a radically changed pharmacophoric structure. Thus, the relative space occupancy and electron distribution of putative DNA binding (aromatic rings) and enzyme binding (side chains) moieties are fundamental in directing the specific action of topoisomerase II poisons and in determining the poison pharmacophore. To identify structural determinants for the sequence-specific recognition of covalent topoisomerase II-DNA complexes by anti-cancer drugs, we investigated a number of bisantrene congeners, including a 10-azabioisoster, bearing one or two 4,5-dihydro-1H-imidazol-2-yl hydrazone side chains at positions 1, 4, or 9 of the anthracene ring system. The studied bisantrene/amsacrine (m-AMSA) hybrid and bisantrene isomers were able to poison DNA topoisomerase II with an intermediate activity between those of bisantrene and m-AMSA. Moving the side chain from the central to a lateral ring (from C-9 to C-1/C-4) only slightly modified the drug DNA affinity, whereas it dramatically affected local base preferences of poison-stimulated DNA cleavage. In contrast, switching the planar aromatic systems of bisantrene andm-AMSA did not substantially alter the sequence specificity of drug action. A computer-assisted steric and electrostatic alignment analysis of the test compounds was in agreement with the experimental data, since a common pharmacophore was shared by bisantrene,m-AMSA, and 9-substituted analogs, whereas the 1-substituted isomer showed a radically changed pharmacophoric structure. Thus, the relative space occupancy and electron distribution of putative DNA binding (aromatic rings) and enzyme binding (side chains) moieties are fundamental in directing the specific action of topoisomerase II poisons and in determining the poison pharmacophore. The elucidation of structural determinants of the sequence-specific recognition of DNA by small molecules is fundamental for a rational design of gene-specific DNA binders that are effective in the therapy of human diseases. Several DNA-interactive compounds are known that may bind to the double helix in a site-selective manner; however, the degree and mechanisms of the specificity are very different among them (1Palumbo M. Advances in DNA Sequence-specific Agents 3. Jai Press Inc., 1998Google Scholar, 2Capranico G. Binaschi M. Borgnetto M.E. Zunino F. Palumbo M. Trends Pharmacol. Sci. 1997; 18: 303-346PubMed Google Scholar, 3Baguley B.C. Anti-Cancer Drug Des. 1991; 6: 1-35PubMed Google Scholar, 4Bailly C. Denny W.A. Waring M.J. Anti-Cancer Drug Des. 1996; 11: 611-624PubMed Google Scholar). A wide variety of antitumor drugs, with and without the ability to bind to naked DNA, have been shown to poison DNA topoisomerases with a high sequence selectivity (2Capranico G. Binaschi M. Borgnetto M.E. Zunino F. Palumbo M. Trends Pharmacol. Sci. 1997; 18: 303-346PubMed Google Scholar, 5Pommier Y. Teicher B.A. Cancer Therapeutics: Experimental and Clinical Agents. Humana Press Inc., Totowa, NJ1997: 153-174Crossref Google Scholar, 6Liu L.F. Annu. Rev. Biochem. 1989; 58: 351-375Crossref PubMed Scopus (1913) Google Scholar, 7Froelich-Ammon S.J. Osheroff N. J. Biol. Chem. 1995; 270: 21429-21432Abstract Full Text Full Text PDF PubMed Scopus (504) Google Scholar). DNA topoisomerases are ubiquitous enzymes deputed to resolve topological problems that arise during various nuclear processes including transcription, recombination, and chromosome partitioning at cell division (8Wang J.C. Annu. Rev. Biochem. 1996; 65: 635-692Crossref PubMed Scopus (2060) Google Scholar, 9Watt P.M. Hickson I.D. Biochem. J. 1994; 303: 681-695Crossref PubMed Scopus (385) Google Scholar, 10Osheroff N. Zechiedrich E.L. Gale K.C. BioEssays. 1991; 13: 269-273Crossref PubMed Scopus (235) Google Scholar). Type II enzymes make transient double-stranded breaks into one segment of DNA and pass an </t>
+          <t>This thesis contains four papers on probability theory. Paper A concerns the question of whether the exclusion sensitivity and exclusion stability of a sequence of Boolean functions are monotone with respect to adding edges to the underlying sequence of graphs. In paper B, we use the tools developed in Paper A to give an elementary proof of the behaviour of the mixing time of a random interchange process on a complete graph. In Paper C we discuss the relationship between the noise sensitivity, noise stability and volatility of sequences of Boolean functions. In particular, we show that the set of volatile such sequences is dense in the set of all sequences of Boolean functions. Moreover, we construct a noise stable and volatile sequence of Boolean functions which is not o(1)-close to any non-volatile sequence of Boolean functions. Finally, in Paper D, we investigate which threshold Gaussian and threshold stable random vectors have color representations. We discuss this from many different perspectives, and results include formulae for the dimension of the kernel of the associated linear operator, geometric conditions on the Gaussian vectors whose threshold have color representations and explicit examples of stable vectors with phase transitions at any stability index for the corresponding threshold process to have a color representation for large thresholds .</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4315432957</t>
+          <t>https://openalex.org/W3094258816</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fevo.2022.1048752</t>
+          <t>https://doi.org/10.1016/j.compedu.2020.104058</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Xue et al. (2023)</t>
+          <t>Mädamürk et al. (2021)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Supply-driven evolution: Mutation bias and trait-fitness distributions can drive macro-evolutionary dynamics</t>
+          <t>Adolescent students’ digital engagement and achievement goal orientation profiles</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Many well-documented macro-evolutionary phenomena still challenge current evolutionary theory. Examples include long-term evolutionary trends, major transitions in evolution, conservation of certain biological features such as hox genes, and the episodic creation of new taxa. Here, we present a framework that may explain these phenomena. We do so by introducing a probabilistic relationship between trait value and reproductive fitness. This integration allows mutation bias to become a robust driver of long-term evolutionary trends against environmental bias, in a way that is consistent with all current evolutionary theories. In cases where mutation bias is strong, such as when detrimental mutations are more common than beneficial mutations, a regime called “supply-driven” evolution can arise. This regime can explain the irreversible persistence of higher structural hierarchies, which happens in the major transitions in evolution. We further generalize this result in the long-term dynamics of phenotype spaces. We show how mutations that open new phenotype spaces can become frozen in time. At the same time, new possibilities may be observed as a burst in the creation of new taxa.</t>
+          <t>The current study investigated how students' digital engagement (i.e., digital learning preference, wish for digital schoolwork, and schoolwork and sleep impairment related to Internet use) is related to their achievement goal orientation profiles from Grades 8 to 9. The sample included 1482 Finnish students (15–16 years old, 53% female) from 26 schools. Students' digital engagement and achievement goal orientations were assessed with self-reported questionnaires. Latent profile and latent transition analyses were used to investigate goal orientation profiles, and the Bolck-Croon-Hagenaars approach and logistic regression were used to explore differences between the profiles with respect to digital engagement. Four groups with different achievement goal orientation profiles were identified: mastery-oriented (focused on learning and doing well in school); success-oriented (driven to succeed in school and outperform others); indifferent (had all achievement goals at average level); and avoidance-oriented (sought to avoid schoolwork). Most students tended to remain in a similar group over time. The results indicated that students with either average (indifferent) or high achievement goals (success-oriented) might wish for more digitally mediated schoolwork. Mastery-oriented students tended to have significantly lower schoolwork and sleep impairment related to Internet use than other students. The findings supported previous studies but also provided new insights into relationships between goal orientation profiles and digital engagement.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2006443271</t>
+          <t>https://openalex.org/W2949066837</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/tme.0b013e3182080ef4</t>
+          <t>https://doi.org/10.1097/pcc.0000000000002016</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Polly &amp; Nicole (2011)</t>
+          <t>Neunhoeffer et al. (2019)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Understanding the Transsexual Patient</t>
+          <t>Perioperative Assessment of Cerebral Oxygen Metabolism in Infants With Functionally Univentricular Hearts Undergoing the Bidirectional Cavopulmonary Connection</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transsexual individuals present to the emergency department for various reasons; yet, providers and nurses are often unaware of the unique needs of transsexual patients. This article provides an understanding of challenges faced by transsexual individuals in health care access and treatment. The authors explain commonly used terminology and provide an overview of the transition process including the Diagnostic and Statistical Manual, 4th edition criteria for diagnosis and the World Professional Association of Transgender Health's Standards of Care for treatment. The authors provide important details and specific recommendations for the culturally sensitive care of transsexual patients including using the correct name and pronoun, eliminating bias and discrimination, asking appropriate questions, implementing trans-inclusive policies and guidelines, and proper record keeping.</t>
+          <t>The transition from single-ventricle lesions with surgically placed systemic-to-pulmonary artery shunt to the circulation following a bidirectional cavopulmonary connection results in higher pressure in the superior vena cava when compared with the preceding circulation. The aim of this study was to evaluate the impact of this transition on the perioperative cerebral oxygen metabolism.Prospective observational cohort study.Pediatric critical care unit of a tertiary referral center.Sixteen infants after bidirectional cavopulmonary connection.Cardiac surgery (bidirectional cavopulmonary connection).We measured regional cerebral oxygen saturation, amount of hemoglobin, blood flow velocity, and microperfusion immediately before, 12-24 hours, and 36-48 hours following bidirectional cavopulmonary connection. Based on these measurements, we calculated cerebral fractional tissue oxygen extraction and approximated cerebral metabolic rate of oxygen. Mean pressure in the superior vena cava increased significantly (8 vs 17 mm Hg; p &lt; 0.001) following bidirectional cavopulmonary connection. Mean cerebral oxygen saturation increased from 49.0% (27.4-61.0) to 56.9% (39.5-64.0) (p = 0.008), whereas mean cerebral blood flow velocity decreased from 80.0 arbitrary units (61.9-93.0) to 67.3 arbitrary units (59.0-83.3) (p &lt; 0.001). No change was found in the cerebral amount of hemoglobin and in the cerebral microperfusion. Mean cerebral fractional tissue oxygen extraction (0.48 [0.17-0.63] vs 0.30 [0.19-0.56]; p = 0.006) and approximated cerebral metabolic rate of oxygen (5.82 arbitrary units [2.70-8.78] vs 2.27 arbitrary units [1.19-7.35]; p &lt; 0.001) decreased significantly.Establishment of bidirectional cavopulmonary connection is associated with postoperative improvement in cerebral oxygen metabolism. Cerebral amount of hemoglobin did not increase, although creation of the bidirectional cavopulmonary connection results in significant elevation in superior vena cava pressure. Improvement in cerebral oxygen metabolism was due to lower cerebral blood flow velocity and stable microperfusion, which may indicate intact cerebral autoregulation.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3098999409</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0550-3213(98)00741-x</t>
+          <t>https://openalex.org/W184896242</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Maznytsia et al. (1999)</t>
+          <t>Xu (2012)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Duality of self-dual actions</t>
+          <t>Environmental risks, bank loan covenants and the cost of bank loans: an Australian study</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Using examples of a D = 2 chiral scalar and a duality-symmetric formulation of D = 4 Maxwell theory we study duality properties of actions for describing chiral bosons. In particular, in the D = 4 case, upon performing a duality transformation of an auxiliary scalar field, which ensures Lorentz covariance of the action, we arrive at a new covariant duality-symmetric Maxwell action, which contains a two-form potential as an auxiliary field. When the two-form field is gauge fixed this action reduces to a duality-symmetric action for Maxwell theory constructed by Zwanziger. We consider properties of this new covariant action and discuss its coupling to external dyonic sources. We also demonstrate that the formulations considered are self-dual with respect to a dualization of the field strengths of the chiral fields.</t>
+          <t>There is a growing body of increasingly restrictive environmental legislation surrounding the operation of business within Australia. In conjunction with this, there is heightened awareness and concern from stakeholders who want greater environmental accountability from Australian business. Banks work as a financial intermediary in the economy which is considered as an environmentally friendly sector. However, by extending loans to borrowing firms whose activities impact on the environment, banks’ lending businesses are indirectly related to the environment. Accordingly, banks are likely to be exposed to environmental risks in corporate lending due to borrowing firms’ environmental activities. As such, banks have an incentive to integrate environmental risks into their credit processes. The literature and banks’ practices regarding the integration of environmental risks into banks’ credit processes emphasize the evaluation of environmental risks; however, the subsequent control and monitoring of environmental risks is underdeveloped, especially in the context of Australia._x000D_
+_x000D_
+This study examines environmental risk management in the corporate credit processes of major Australian banks. It particularly investigates the associations between environmental risks and 1) bank loan covenants, and 2) the cost of bank loans in the Australian context. The research problem is as follows:_x000D_
+_x000D_
+How are environmental risks associated with bank loan covenants and the cost of bank loans in Australian banks’ corporate lending?_x000D_
+_x000D_
+Face-to-face semi-structured interviews were undertaken with senior executive bankers in three of the four major Australian banks. These executives are responsible either for corporate lending decision-making or environmental risk management in corporate lending. Two interview checklists were designed for the interviews in a two-stage data collection process. The interviewees were allowed to elaborate on their answers wherever they thought it necessary and the interviews were recorded and transcribed. Given the small sample size, the researcher used critical judgement underpinned by accepted qualitative methods in the literature to manually analyse and extract themes and patterns to address the research problem._x000D_
+_x000D_
+The results of this study indicate that major Australian banks integrate environmental risk management into each stage of the corporate credit process. However, given that they are in the early stages of taking environmental risks into account and because only limited quantifiable environmental data are available, the integration is not sophisticated._x000D_
+_x000D_
+To effectively control and monitor environmental risks, customised environmental covenants are included in bank loan agreements. These environmental covenants are non-financial and are established based on a comprehensive evaluation of environmental issues at industry, borrower and transaction level. Typical environmental covenants are based on environmental obligation compliance and periodic environmental reporting. The findings also suggest that the cost of bank loans will not reflect environmental risks unless these risks impact on the credit ratings of borrowing firms. Although environmental risks are not a specific input of major Australian banks’ credit rating models, they are a non-financial factor of expert judgement on the credit ratings of borrowing firms._x000D_
+_x000D_
+As the first study investigating the associations between environmental risks and 1) bank loan covenants, and 2) the cost of bank loans in the Australian context, this study validates the relevance of agency theory in dealing with environmental risks in the relationship between banks and their corporate customers. The findings also fill a gap in existing literature by indicating dimensions, determinants and attributes of environmental risks in major Australian banks’ corporate lending. In addition, the findings extend prior literature by identifying the form, contents, tightness, functions and establishment process of environmental covenants used in major Australian banks’ corporate lending. Further, this study adds to previous literature by documenting the conditions under which environmental risks impact on the cost of corporate bank loans. Last but not least, this study fills a gap in prior literature by articulating major Australian banks’ environmental sustainability transformation in terms of their environmental practices in corporate lending._x000D_
+_x000D_
+This study provides a detailed evaluation of the stage that major Australian banks are up to in their journey towards environmental sustainability in corporate lending. It does this by confirming that environmental risk management is incorporated in each stage of the corporate credit process in major Australian banks and identifying the corresponding activities in each stage. By indicating that environmental risks should be considered in banks’ corporate credit processes, this study has implications for their staff training act</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2361621631</t>
+          <t>https://openalex.org/W2606101041</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14264/uql.2017.358</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Wen-x (2014)</t>
+          <t>Monckton (2017)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>A Reflection on the Critique and Illumination of Adorno's Theory of Cultural Industry</t>
+          <t>Beneficial use of coal seam water and enterprise transition for case study farms, Chinchilla district, Queensland</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>As a principal school in western Marxism, the Frankfurt school,headed by Adorno,has laid the groundwork for mass cultural criticism, and is generally regarded as the pioneer incultural studies by the academic community.Although Adorno interprets on the whole the capitalist cultural industry under the control of the technological rationality from a negative perspective, his remarks on the relationships between culture and industry, art and technology, cultural industry and ideology and many other aspects, have definitely a positive significance and referential value in the current practice of Chinese cultural industry.We should quicken the transformation of the governmental role,putemphasison the integration of economic benefits and spiritual values, and pay attention to the dissemination of China's main stream culture in the process of cultural industry development,its reform and innovation.</t>
+          <t xml:space="preserve">New water sources are rarely available in Australia for irrigation. It is even rarer for this to be offered to potential users for little or no cost. However, this is the case with coal seam water (CSW). CSW is produced as a by-product of gas extraction. Availability of this water is possible because coal seam gas (CSG) companies operating in Queensland are obliged to treat and dispose of this normally salty water. The cost of this treatment is considerable and yet the companies have not, to date, sought to recover these costs. There is no available data on why the companies choose any particular option within a range of options available for the disposal of CSW. The provision of this water was and is unprecedented to potential users. Accordingly, there is no precedent for its adoption. The objective of state government policy is to encourage the beneficial use of CSW such that it maximizes its productive use. Beneficial users include the environment, existing or new water users, and existing or new water-dependent industries. Following this, remaining CSW is to be treated and disposed of in a way that firstly avoids, and then minimizes impacts on the environment. Current legislation stipulates that if CSW fails to meet sufficient quality criteria it then becomes a waste product. This requires that it be disposed of under strict guidelines. Given that treated CSW is available for use in agriculture, a key question must include how irrigators can best use it. This may mean making decisions about using it for irrigation in their current dryland production system. The thesis particularly aims to determine the economic benefits from the use of this water for irrigation and the motivations of different users who may incorporate this water into their production systems. However, the overall purpose of this thesis is to discover how much water is being made available for beneficial use generally, where and for what purpose. The thesis also aims to provide alternative options for the use and distribution of this water for maximum economic, social and environmental benefit. Individual production data and modelling reveals that an average 100 gigalitres per year (GL/yr) of CSW will be produced during the lifetime of the industry to 2060. This information is derived from gas well production modelling. However, there is no published information which deals with actual water production, its application and use. This thesis presents the first verified information on water use, supply and distribution based on empirical data. Estimates of the amount of CSW available for irrigation is derived from on-farm assessments and landholder interviews. The research for this thesis partly uses cost-benefit methodology for case study farms which utilise input data from economic modelling and from farm interview data provided by affected landholders and industry expert commentators. The study area chosen is Chinchilla, Queensland where most of the State’s CSW is available for irrigation. Here it was found that there were 36 landholders receiving this water. Fourteen of these were willing to be interviewed. In addition, there were 9 other landholders and 13 industry experts interviewed. CSW produced in the Chinchilla area is mostly treated at discrete Reverse Osmosis (RO)[1] plants and supplied to existing weirs and water infrastructure as well as to dedicated reticulation systems. Hence, CSW is only available for agriculture in particular locations such as in the Chinchilla, Wandoan and Wallumbilla districts. For this reason, a case study approach not only suits this physical situation but also the contextual nature of landholder transition and decision-making about irrigation in their enterprise. The acceptance and use of CSW by landholders is not universal. At the outset, potential irrigators need to meet a certain set of conditions before they are in a position to accept and utilise CSW. The first condition is physical proximity to a treatment facility; the second is the ability to meet the supply contract conditions. The third is a willingness to accept the supply risks with an untested and unknown water source. Many potential irrigators did meet these conditions. Despite this, many still chose not to use this water. The reasons for this are complex and related to a combination of economic, social and environmental considerations. The interview material is designed to obtain first-hand information about the reasons why landholders would use or refuse this water. For all landholders, the decision to incorporate CSW into their production system was influenced by their individual outlook and circumstances. One key deciding factor for users was the profit potential and the enterprise establishment opportunities. Clearly, this was favourably influenced by the low price of the water and its reliability of supply. For those unfavourably disposed, their decision was generally based on more complex reasoning. It included perceptions about </t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387254144</t>
+          <t>https://openalex.org/W2606623410</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.1493</t>
+          <t>https://doi.org/10.14264/uql.2017.182</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Santana et al. (2023)</t>
+          <t>Zill (2017)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>HEPATIC ENCEPHALOPATHY IN A PATIENT WITH CIRRHOSIS SUCCESSFULLY REVERTED WITH CONTINUOUS RENAL REPLACEMENT THERAPY (CRRT)</t>
+          <t>Nonequilibrium dynamics of a one-dimensional Bose gas via the coordinate Bethe ansatz</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SESSION TITLE: Critical Care Case Report Posters 57 SESSION TYPE: Case Report Posters PRESENTED ON: 10/11/2023 12:00 pm - 12:45 pm INTRODUCTION: Hepatic encephalopathy is a common complication of cirrhosis that increases morbidity and mortality due to hyperammonemia causing cerebral edema leading to herniation and death. Traditionally, hepatic encephalopathy in patients with cirrhosis treatment aims to reduce ammonia production and absorption, continuous renal replacement therapy (CRRT) has been used to treat hyperammonemia in patients with acute liver failure with positive results but its utility in patients with cirrhosis is not well studied. We present the case of a patient with cirrhosis complicated by hepatic encephalopathy who was treated with CRRT with significant improvement in mental and clinical status (1,2). CASE PRESENTATION: 51 y.o. female with history of decompensated alcoholic cirrhosis with ascites, Child Pugh B, portal hypertensive gastropathy, prior hospitalizations for hepatic encephalopathy was found to have altered mental status, unresponsiveness to painful stimuli, with increased tonicity of upper and lower limbs, absent clonus, found to have an ammonia level of 470 umol/L, creatinine 1.5 mg/dl, Bun 45 mg/dl, Alt 23 U/L, AST 45 U/L, PLT 70/NL, INR 1.4 ratio, MELD-Na score 17. A non-contrast CT scan of the head revealed no acute intracranial findings. Patient was intubated for airway protection, started on lactulose 10 g thrice daily and rifaximin 550 mg every 12 hours. The patient was initiated on CRRT in the context of elevated ammonia with acute change in mental status. Subsequently, the ammonia levels declined appropriate to 47 umol/L after 14 hours of CRRT at which time the modality was terminated. Sixteen hours after admission, the patient became more responsive and opened her eyes spontaneously and moved all of her four extremities while following commands. The patient was then transitioned to a regimen of oral lactulose and rifaximin, however, her ammonia level started to rise again to 98 umol/L for which was restarted on CRRT for 2 days. The patient was successfully extubated and CRRT discontinued completely on day 3 of admission, afterwards Ammonia level continued to be in normal range (33 umol/L), patient next day was discharged on lactulose and rifaximin. DISCUSSION: Lactulose improves mental status in 70-80% patients with hepatic encephalopathy with no change in mortality, while the combination of oral antibiotics such as rifaximin with lactulose has been found to be more effective reverting the encephalopathy while also lowering mortality (23.8% vs. 49.1% respectively, P&lt;0.05). CRRT has shown to decrease ammonia level and correct encephalopathy in patients with acute liver failure but its utility in patients with cirrhosis has not been widely studied. Our patient had a favorable outcome in the short interim to reverse her hepatic encephalopathy so that she was able to be discharged home (3). CONCLUSIONS: In patients with non-end-stage cirrhosis who develop severe hepatic encephalopathy, CRRT should be considered as a temporary option to improve ammonia levels until conventional treatments like lactulose and rifaximin start to be effective. REFERENCE #1: Clemmesen JO, Larsen FS, Kondrup J, Hansen BA, Ott P. Cerebral herniation in patients with acute liver failure is correlated with arterial ammonia concentration. Hepatology. 1999; 29(3):648–653. [PubMed: 10051463] REFERENCE #2: Filipe S. Cardoso et al. Continuous renal replacement therapy is associated with reduced serum ammonia levels and mortality in acute liver failure. Hepatology. 2018 February; 67(2): 711–720. doi:10.1002/hep.29488. REFERENCE #3: Sharma BC, et al. A randomized, double-blind, controlled trial comparing rifaximin plus lactulose with lactulose alone in treatment of overt hepatic encephalopathy. The American Journal of Gastroenterology. 2013. 108(9):1458-1463. DISCLOSURES: No relevant relationships by Vishal Reddy Bejugam No relevant relationships by Damion Hunter No relevant relationships by Belinda jim No relevant relationships by Mallika Pradhan No relevant relationships by Rosalba Santana</t>
+          <t>This thesis is concerned with non-equilibrium phenomena in interacting quantum many-body systems. Specifically, we investigate the time-evolution and relaxation dynamics of Bose gases in a highly restricted geometry, which constrains the dynamics to one spatial dimension. This leads to a description of the system in terms of a simple model Hamiltonian which permits exact many-body quantum mechanical solutions due to its integrability. In the first part of this thesis, a computational method is developed to obtain experimentally relevant correlation functions in the framework of the coordinate Bethe ansatz. We employ this method to compute exact ground-state correlation functions of the Lieb-Liniger gas for up to seven particles covering the whole regime of repulsive interactions. We also investigate the dynamics of the system after an instantaneous change of the interaction strength. This quantum quench deposits large amounts of energy that cannot be dissipated due to the system being closed, and so the dynamics far from equilibrium are probed. We prepare the system in two different initial states, and quench to the same final interaction strength. The latter is determined in such a way that the added energy due to the quench is the same for both scenarios. Conventional statistical mechanics predicts the same relaxed state, but due to the integrability of the system all considered correlation functions of the relaxed states differ from each other and also from the thermal ones. We then investigate the dynamics and relaxed state for a quench from zero to repulsive interactions in more detail, focussing on the mechanism of relaxation and the involved time-scales. We find that local correlation functions relax on time-scales determined by the interaction strength, in contrast to non-local correlation functions, whose relaxation time-scale is proportional to the system size. Next, we employ the same methodology to study the one-dimensional Bose gas with attractive interactions. In this case many-body bound states are permissible solutions of the Lieb-Liniger model. We compare exact ground-state correlation functions of up to seven particles to their corresponding mean-field solution. The latter displays a quantum phase transition at a critical interaction strength, marking the transition from a uniform-density state to a localized bright soliton. Our exact results agree remarkably well with the corresponding mean-field solution past the critical point. We also investigate the dynamics following an interaction strength quench, starting again from the non-interacting ground state. Bound states strongly influence correlation functions for all post-quench interaction strengths, and local correlation functions are largely increased compared to their initial value. In the last part of this thesis, we investigate the behavior of the one-dimensional Bose gas under periodic driving of the interaction strength. To this end, we extend the coordinate Bethe-ansatz formalism by employing Floquet theory to obtain solutions for the full time- dependent Hamiltonian. This realizes an extension to non-integrable systems in a way that allows controlled breaking of integrability. We compare the dynamics of the system following an interaction quench to a fixed final interaction strength to that of a system with periodically modulated post-quench interaction strength. For fast driving, the system evolves according to the time-averaged Hamiltonian and correlation functions are nearly identical to those of the undriven system. The response of the system qualitatively changes at resonances of the time-averaged Hamiltonian, where we observe energy absorption and a marked change in correlation functions. However, the system does not absorb energy indefinitely.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3125157074</t>
+          <t>https://openalex.org/W2917204837</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Wagstaff (2009)</t>
+          <t>Genç (2018)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Social health insurance vs. tax-financed health systems - evidence from the OECD</t>
+          <t>The Future of EU-Turkish Tourism Relationsunder the Shade of BREXIT</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>This paper exploits the transitions between tax-financed health care and social health insurance in the OECD countries over the period 1960-2006 to assess the effects of adopting social health insurance over tax finance on per capita health spending, amenable mortality, and labor market outcomes. The paper uses regression-based generalizations of difference-in-differences and instrumental variables to address the possible endogeneity of a country's health system. It finds that adopting social health insurance in preference to tax financing increases per capita health spending by 3-4 percent, reduces the formal sector share of employment by 8-10 percent, and reduces total employment by as much as 6 percent. For the most part, social health insurance adoption has no significant impact on amenable mortality, but for one cause-breast cancer among women-social health insurance systems perform significantly worse, with 5-6 percent more potential years of life lost.</t>
+          <t>This study aims to discuss the development of tourism sector Turkey with respect to recent political and economic context in EU-Turkey relationship characterized by political instability and growing economic crisis in Turkey along with the era of EU after the leave of United Kingdom, which is commonly known as “Brexit”. Parallel to the analysis of Genc (1998), the manuscript will argue that the strong relationship between EU and Turkey may be beneficial for both parties in the current context, where Turkish lira is rapidly devaluated with respect to adverse political and economic conditions in Turkey and EU seeks alternative routes for structural reforms in order to prevent the collapse of EU after losing one of its strong members, UK, as a result of dissatisfaction from the possibility of Turkey’s membership to the EU. The manuscript will conclude that EU still plays an important role for the development of Turkish tourism; therefore strong relationships will be pursued for a sustainable tourism development with standardized quality and persistent innovation compatible with the EU legislation for service sector.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2125678056</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1017/s1478951509990484</t>
+          <t>https://openalex.org/W2276866181</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Macpherson (2009)</t>
+          <t>王海军 (2010)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Childhood abuse uncovered in a palliative care audit</t>
+          <t>FDI-中国二元经济结勾演化－一个动态实证分析的考量</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>This article aims to highlight potentially high levels of childhood sexual abuse within Cancer and Palliative Care Service users.During a routine audit, data was collated to quantify a perceived high level of disclosure of pre-existing psychological trauma within the palliative care caseload of a Macmillan Children and Families Therapist. Families comprised adults (generally parents or step-parents), one of whom was terminally ill or recently deceased who had direct responsibility for children and young people aged under 20 years old. Each family had at least two members using the service for advice, emotional support or counselling.A childhood sexual abuse rate of 33% for women and 10% for men was revealed. Of 59 families, 49% had one or more members who had experienced childhood sexual abuse. In addition a further 9% of adults had experienced severe physical and emotional abuse in childhood. Many families had faced multiple trauma.Palliative care clinicians have access to detailed personal and family history during a highly vulnerable transition. While confidentiality is paramount it is essential to develop better data collection methods and raise the profile of childhood sexual abuse as a major contributing factor to morbidity. A whole family assessment is crucial to ensure child protection and emotional care for children facing the loss and subsequently bereaved of a parent or a carer. Clinicians must be able to offer a range of approaches which provide distressed patients with a history of childhood abuse some sense of emotional containment at the end of life, a challenge which cannot be overstated.</t>
+          <t>The theory of FDI and the theory of dual economic structure has been the hot issue of domestic and international mainstream economists. But there is no much research combining the perspective of theory and empirical. Firstly, we use the classical growth theory to discusse the effext of FDI on the economic structure and the evolution of dual economic structure, theoretical models show that, FDI in promoting China's economic conversion process may increase the agricultural and non agricultural techniques and employment gap, thus deepening the level of the dual economy and then focus on the dynamic equilibrium relationship between the them. Then, from the empirical point of view, we use statistical indicators, statistical analysis, causality test, co-integration test and revise inspection error models. The results show that, FDI promotes China's economy and industrialization, while, to a certain extent, it has aggravated the economic characteristics of China's dualistic. Finally, this paper concluded that FDI should increase the intensity of the industrial adjustment, regulate the flow of its investment and establish a long-term mechanism to achieve the market-oriented factors of production in rural areas. Beside this, we should fully take the effect of FDI on the transition mode of agricultural production, exert the potential role of agriculture and narrow the gap on production efficiency between agriculture and city.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323777619</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.52388/1811-0770.2022.1(247).07</t>
+          <t>https://openalex.org/W2607942662</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Erhan (2023)</t>
+          <t>Handorf (2017)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Protection of human rights and freedoms by the police</t>
+          <t>Connecting movement and emotion for childbirth preparation : an exploratory study</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>The police is the first line of defense of human rights and the policemen are the guardians of the law, including human rights regulations. Everyone wants a well-trained, responsible, transparent and professional police force, but this can be achieved primarily through those transformations and investments in organizational and functional capacities and capabilities related to respect for and protection of human rights. Having an efficient and professional system of activity where the protection of human rights is the basic principle, together with those institutional reforms that take place within the police, it can contribute to its transformation into a modern institution with professional employees. Today the police such as establish several mechanisms regarding the respect and protection of human rights: implementation of international provisions and standards, elaboration and application of codes of ethics and deontology, determination of responsibilities, development of a police culture relevant to existing social realities, professional training and implementation of standard operating procedures.</t>
+          <t>BACKGROUND
+During pregnancy, many women desire to develop self-confidence in their physical abilities and emotional strength to give birth. In order to achieve this, women often attend childbirth education classes. A number of studies show that traditional classes neither support women’s physical and emotional well-being, nor increase women’s self-confidence or affect women’s experience of childbirth. This led to a perceived need to develop a creative approach to exploring women’s physical and emotional transformation in preparation for childbirth. 
+PURPOSE
+To investigate women’s perceptions of an innovative childbirth preparation programme that integrates the therapeutic strategies of movement therapy with midwifery. The study further explored women’s experience of how connecting motion (movement) and emotions contributes to women’s self-awareness, and might contribute to the woman’s birth experience.
+METHODS
+An exploratory, pre-post, qualitative study investigated five women’s participation in a specially designed, two-day, pre-birth workshop. Focus groups, before and after the workshop and one-to-one, semi-structured interviews were conducted six to eight weeks after birth. The interviews were digitally recorded and transcribed. Researcher memos and field notes recorded non-verbal communication and the language of movement in combination with the interview data. Data were analysed thematically.
+FINDINGS
+Three themes were identified where the therapeutic approach of movement therapy offered women ‘strategies to find their own tools’, supported ‘women’s dialogue’ and ‘connected the whole woman with her baby’. This innovative approach increased women’s self-awareness and created positive expectations of giving birth. Paying attention to themselves and learning through experiencing may raise women’s confidence in their ability to actively give birth.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387105368</t>
+          <t>https://openalex.org/W2183152242</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17803/2311-5998.2023.106.6.124-131</t>
+          <t>https://doi.org/10.15224/978-1-63248-042-2-142</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Markina &amp; Посулихина (2023)</t>
+          <t>Samer et al. (2015)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>A brief outline of the digitalization of medicine</t>
+          <t>Comparison between Fuzzy Risk Assessment Methods</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>The article proposes an analysis of modern digital tools in the field of public health. The expediency of improving the experimental legal regime in the field of digital innovations is substantiated. The main reasons for the technological breakthrough in the field of digital innovations in medicine are investigated. An assessment is given of possible options for further technological development of the healthcare sector in the direction of “artificial intelligence”. At the same time, specific mechanisms for the legal regulation of technological solutions introduced into practice are proposed. A special place is given to strategic planning documents that determine and justify, from the point of view of law, the course towards the digital transformation of the healthcare sector. Particular attention is paid to the issue of transition to a new proactive model of medical care using artificial intelligence systems. At the same time, the lack of legal regulation of issues of legal liability in the case of the use of artificial intelligence systems and robotics is taken into account.</t>
+          <t>Contracting for construction services is an inherently risky venture for the owner, design agent and contractor. All of these parties are exposed to unanticipated risks, exposure to economic loss and unforeseen contract liability while performing under the contract. Project risk management, therefore, has been recognised critical for the construction industry to improve their performance and secure the success of projects. Risk assessment is the most important step in risk management. Classical methods for risk assessment are no longer accurate and effective, therefore, many papers introduced fuzzy logic as a more accurate and effective technique in risk assessment. In this paper, a comparison between two fuzzy risk assessment methods; Nieto-Morote and Ruz-Vila (1) and Kuo and Lu (2) is done using the same input parameters which are risk probability (RP), risk impact (RI) and risk discrimination (RD) to determine if these methods give the same risk ranking or not. Actually, the comparison results in different risk ranking, because the Nieto-Morote and Ruz-Vila (1) method depends on minimization error tool to minimize inconsistency in results, and this tool always doesn't give optimum results, while, we can consider Kuo and Lu (2) method more accurate because it depends on eliminating the inconsistency in results using a transformation process step to remain the decision matrix with reciprocity and additive consistency.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2004832594</t>
+          <t>https://openalex.org/W4392974446</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/j.2168-0159.2014.tb00108.x</t>
+          <t>https://doi.org/10.1016/j.bdr.2024.100448</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Madigan et al. (2014)</t>
+          <t>Peng et al. (2024)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>30.2: &lt;i&gt;Invited Paper&lt;/i&gt;: Advancements in Inkjet Printing for OLED Mass Production</t>
+          <t>Crop Monitoring using remote sensing land use and land change data: Comparative analysis of deep learning methods using pre-trained CNN models</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Abstract Continuous improvements in inkjet printing of organic light emitting diode (OLED) displays have resulted in a number of recent demonstrations of uniform, mura‐free TV‐sized panels. These improvements combined with steady progress in solution OLED material performance, have allowed inkjet to become a realistic near term enabler of cost‐effective mass production of large size OLED TVs. However, for inkjet to make the transition from R&amp;amp;D to mass production, a number of equipment challenges must be overcome, including achieving low particle contamination, maintaining the optimal process environment while preserving serviceability, and providing consistent, uniform, mura‐free results with a wide process window. In this paper, the methodology (with respect to algorithms and process control) used in Kateeva's YIELDjet platform are described that lead to the uniform deposition of ink across an OLED display using inkjet printing, resulting in a highly uniform OLED emission with a wide process window.</t>
+          <t>In the context of the rapidly evolving climate dynamics of the early twenty-first century, the interplay between climate change and biospheric integrity is becoming increasingly critical. The pervasive impact of climate change on ecosystems is manifested not only through alterations in average environmental conditions and their variability but also through ancillary shifts such as escalated oceanic acidification and heightened atmospheric CO2 levels. These climatic transformations are further compounded by concurrent ecological stressors, including habitat degradation, defaunation, and fragmentation. Against this backdrop, this study delves into the efficacy of advanced deep learning methodologies for the classification of land cover from satellite imagery, with a particular emphasis on agricultural crop monitoring. The study leverages state-of-the-art pre-trained Convolutional Neural Network (CNN) architectures, namely VGG16, MobileNetV2, DenseNet121, and ResNet50, selected for their architectural sophistication and proven competence in image recognition domains. The research framework encompasses a comprehensive data preparation phase incorporating augmentation techniques, a thorough exploratory data analysis to pinpoint and address class imbalances through the computation of class weights, and the strategic fine-tuning of CNN architectures with tailored classification layers to suit the specificities of land cover classification challenges. The models' performance was rigorously evaluated against benchmarks of accuracy and loss, both during the training phase and on validation datasets, with preventative strategies against overfitting, such as early stopping and adaptive learning rate modifications, being integral to the methodology. The findings illuminate the considerable potential of leveraging pre-trained deep learning models for remote sensing in agriculture, demonstrating that advanced CNN architectures, particularly DenseNet121 and ResNet50, are notably effective in enhancing crop type classification accuracy from satellite imagery. This study contributes valuable insights to the field of precision agriculture, advocating for the integration of sophisticated image recognition technologies to bolster crop monitoring efficacy, thereby enabling more nuanced agricultural decision-making and resource allocation.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200094928</t>
+          <t>https://openalex.org/W4391307863</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/gco.0000000000000763</t>
+          <t>https://doi.org/10.1109/ciycee59789.2023.10401741</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>NA (2022)</t>
+          <t>Guo et al. (2023)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Editorial introductions</t>
+          <t>A Novel Transient Bus Protection Algorithm Based on HHT</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Current Opinion in Obstetrics and Gynecology was launched in 1989. It is one of a successful series of review journals whose unique format is designed to provide a systematic and critical assessment of the literature as presented in the many primary journals. The field of obstetrics and gynecology is divided into ten sections that are reviewed once a year. Each section is assigned one or more Section Editors. They are the leading authorities in their area, who identify the most important topics at that time. Here we are pleased to introduce the Journal's Editor-in-Chief and Section Editor for this issue. EDITOR-IN-CHIEF Jonathan S. BerekJonathan S. BerekJonathan S. Berek, MD, MMSc, is the Laurie Kraus Lacob Professor at Stanford University, Stanford University School of Medicine; Director, the Stanford Women's Cancer Center; and Senior Advisor, Stanford Cancer Institute, USA. He is the Executive Director, Stanford Health Communication Initiative, Stanford Center for Health Education, Stanford University. He served as the Chair of the Stanford Department of Obstetrics and Gynecology from 2005–2017. Dr Berek is well known as a scholar, clinician, researcher and educator in the field. He is highly regarded for his research on the clinical management of gynecologic cancers and translational research related to these malignancies. He has published over 340 research papers, and several hundred contributed articles, book chapters and monographs. He is especially noted for two of the leading books in the field, Berek &amp; Hacker's Gynecologic Oncology, 7th edition, and Berek &amp; Novak's Gynecology, 16th edition. Dr Berek earned his undergraduate and graduate degrees from Brown University, USA, his Doctor of Medicine degree at Johns Hopkins University School of Medicine, USA, completed his residency at the Harvard Medical School, Brigham and Women's Hospital, USA, and his fellowship in Gynecologic Oncology at the UCLA School of Medicine, USA. For many years, he was a Professor and Vice Chair of Obstetrics and Gynecology at UCLA, where he was also the Chair of the College of Applied Anatomy. Dr Berek is the Group Chair and Principal Investigator for the Cooperative Gynecologic Oncology Investigators (COGI), a member of the Gynecologic Cancer InterGroup (GCIG). He served as Principal Investigator for the Gynecologic Oncology Group (GOG) for more than two decades. His primary research interest is in the immunology and immunotherapy of ovarian cancer, and through the development of experimental models and clinical trials, his initial studies encouraged the development of innovative biologic therapy strategies. Through collaborative work, his group focuses on the development of monoclonal antibodies and targeted immunotherapies for ovarian cancer. Dr Berek has had grant support from the National Institute of Health (NIH) and the Ovarian Cancer Research Foundation (OCRF). Dr Berek is the recipient of the prestigious Sherman Mellinkoff Award and the Excellence in Education Award by the David Geffen School of Medicine at UCLA, and the 2010 John C. Fremont Pathfinder Award. He is regularly listed among America's Best Doctors for Gynecology &amp; Gynecologic Oncology. In 2019, he was given an award by the American Cancer Society in recognition of his lifetime of achievement and for his many contributions to women's cancer care and research. He is board certified by the American Board of Obstetrics and Gynecology (ABOG), and the Division of Gynecologic Oncology. He is a Fellow in the American College of Obstetricians and Gynecologists (FACOG), the American College of Surgeons (FACS), and the American Society of Clinical Oncologists (FASCO). Dr Berek has served as an examiner for the American Board Obstetrics and Gynecology (ABOG) and for the Council on Resident Education in Obstetrics and Gynecology (CREOG). Dr Berek is Past-President of the Council of University Chairs of Obstetrics and Gynecology (CUCOG), and Past President of the International Gynecologic Cancer Society (IGCS). His many honors include receiving the President's Award from the Society of Gynecologic Oncologists (SGO), serving as its Vice President in 1996–1997, and presenting numerous distinguished lectureships. Dr Berek has served on many national committees for the National Institutes of Health (NIH), the National Cancer Institute (NCI), the American College of Surgeons (ACS), the Society of Gynecologic Oncologists (SGO), the American College of Obstetricians and Gynecologists (ACOG), and the American Society of Clinical Oncology (ASCO). He is a member of the Society of Gynecologic Investigation (SGI), and the Society of Pelvic Surgeons (SPS). He is the Editor-in-Chief of Current Problems in Obstetrics and Gynecology, Past Editor-in-Chief of ASCO Connections, and Senior Editor of the International Journal of Gynecologic Cancer. He has served as an Editor of Prolog and Précis for the American College of Obstetricians and Gynecologists, and on the editorial boards of </t>
+          <t>Basing on Hilbert-Huang transform, this study proposes a unique bus transient protection method. The algorithm decomposes the fault travelling wave currents of two lines connected to the bus into inherent mode functions (IMFs) and integrates the instantaneous amplitudes of the IMFs and calculates their differences. The two instantaneous amplitudes and their differences are normalized, basing on the transient resistance and initial fault phase angle. The two normalized instantaneous amplitudes and their differences served as the joint fault feature. Therefore, under various fault conditions, the fault characteristics of the bus fault are very different from the out-of-area fault. Influence of the initial fault phase angle and transition resistance is minimized by normalizing the fault feature variables; thus, the reliability of protection is enhanced. By modelling several failure types of failures in a 500 kV power system in ATP-Draw, the viability of the presented algorithm is demonstrated.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2367313130</t>
+          <t>https://openalex.org/W2775870838</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Jianqian (2009)</t>
+          <t>Lara (2017)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>TOWARDS AN EFFECTIVE AND HOLISTIC PLANNING REGULATION:INSTITUTIONAL REFORM OF REGULATORY DETAILED PLAN IN TRANSITIONAL PERIOD</t>
+          <t>La revolución paradójica: un viaje a la imposibilidad circular del bolchevismo</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>By analyzing the absence of integration in the regulatory detailed planning,this paper explores the idea and method of comprehensive regulation over the plan. It suggests reforming the existing regulatory detailed plan formulation system and constructing a hierarchical system which includes three levels:i.e. city holistic regulation,unit regulation,and block plot regulation,and two stages:i.e. regulatory detailed plan outline and unit regulatory plan. It argues that the regulatory detailed plan outline would be helpful to regulate the general construction of a city and guide the plot regulation,therefore better guide the urban development.</t>
+          <t>espanolRevisitando lecturas realizadas por el autor hace casi treinta anos, el texto ofrece un viaje critico a la formacion y sentido de la razon bolchevique, asi como al caracter paradojico de su proyecto revolucionario. Combinando las referencias teoricas, el analisis sociopolitico y la narracion de su experiencia como estudiante de la universidad de Moscu durante el colapso sovietico, el autor incide en la ligazon entre la racionalidad del bolchevismo y algunos de los elementos centrales de la modernidad occidental, como el sentido hegeliano del progreso, la imposibilidad circular de la realizacion de su proyecto emancipatorio y la colonialidad de un modelo de construccion del otro basado en la sospecha. A traves del analisis de la relacion del bolchevismo con el mundo rural, el discurso de un Lenin marcadamente jacobino, la cualidad reversiva de estallido revolucionario en 1905, la naturaleza trotskista de la politica agraria de Stalin, el relato de la estancia de Walter Benjamin en la capital sovietica, el suicidio del poeta Mayakovski o los testimonios de un bailaor flamenco al que la vida convirtio en habitante rocambolesco de la Rusia revolucionaria, el autor desgrana la naturaleza paradojica de una polifonia revolucionaria silenciada por un bolchevismo atrapado en la naturaleza imposible y tragica de su empresa: liberar al ser humano a traves de un proyecto de control integral de la vida. EnglishDeparting from a review of some readings made by the author almost thirty years ago, this text offers a critical journey through the paradoxical quality of the Bolshevist way of the revolution. The article combines theoretical materials, socio-political analysis, and the author's own experiences as a student at the Moscow university during the collapse of the Soviet world. A central reasoning in the text is the existing bond between the Bolshevist world view and some ingredients of the modern Western system of thinking, such as the Hegelian understanding of historical progress, the proposal of an impossible emancipatory project, and a colonial model of othering based on suspicion. This article deploys a critical map of Bolshevism whose main coordinates are the discourse of a Jacobin Lenin, the Bolshevist policies applied to the countryside, the surprising quality of the revolutionary outbreak in 1905, the Trotskist nature of Stalinist rural policies, Walter Benjamin's diary in Moscow, the death of poet Mayakovsky or the bizarre experience of a flamenco dancer in the middle of the Russian Revolution. All this ingresdients are small pieces of the Bolshevist puzzle- a tragic and circular paradox that imposed a formal project of liberation through a real comprehensive subjugation of life.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4256469991</t>
+          <t>https://openalex.org/W3201447495</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-1-349-19407-0_7</t>
+          <t>https://doi.org/10.1093/oxfordhb/9780198735410.013.10</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Armstrong (1988)</t>
+          <t>Menary (2018)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Lenin Deconstructs</t>
+          <t>Cognitive Integration</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>The retrécissement of novel-space that took place at the end of the last chapter as Levin and Kitty bend over their sleeping child has more than psychological significance. When it is contrasted with, for example, the grand movement of dispersion that is the dramatic and didactic highlight of the last act of Chekhov’s Cherry Orchard (1902–3), it seems to bear the directly opposite political message. The sale of the orchard is a financial necessity; it may also be moral duty; but it is above all a collective release, enabling Trofimov to exclaim with exhilaration that now, ‘The whole of Russia is our cherry-orchard!’ With all the characters except Firs forced out into the world, many of them, like Gaev, to earn their living for the first time, one can easily say that the play is prophetic of the changes to come to the whole country. While Chekhov never specifically mentions revolution, Trofimov’s hailing of a glorious future can be allowably connected to that event, while some specific details that he envisages have been visibly realised. The modern Soviet Union has certainly provided crèches for its children, and Lenin’s aim of universal literacy has involved the construction of libraries in every town. All of which seems to form a strange contrast with the inward-looking preoccupations of the Count and Countess Levin.</t>
+          <t>If cognition is fundamentally interactive how did it come to be so? The cognitive integration framework provides an answer: phylogenetically early forms of cognition, in humans, involve sensorimotor interactions with the environment; these are built upon by more recent cultural innovations, which are a product of cultural evolution and niche construction. The key cultural innovations are symbolic representations and the normative cognitive practices that govern their manipulation. These representational systems and cognitive practices are preserved across generations by cultural inheritance. Phylogenetically early sensorimotor capacities for making and manipulating tools can be reused to create and manipulate representations when completing cognitive tasks. Reuse depends upon neural plasticity and social learning, which results in the transformation of our cognitive capacities. The chapter also provides a dimensional analysis of integrated cognitive systems and provides responses to recent criticisms.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3203683278</t>
+          <t>https://openalex.org/W4297121087</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02513625.2021.1981008</t>
+          <t>https://doi.org/10.1525/curh.2022.121.837.264</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Hillier (2021)</t>
+          <t>Klumbytė (2022)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>The “Flatness” of Deleuze and Guattari: Planning the City as a Tree or as a Rhizome?</t>
+          <t>Lithuania at the Frontier of the War in Ukraine</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Flat ontology has become an umbrella term for several theoretically based approaches, notably Delanda’s controversial reconstruction of DeleuzoGuattarian concepts. I highlight key divergences in Delanda’s “flat ontology” from that of Deleuze and Guattari’s “flattening” of multiplicities on a plane of immanence. The rhizome is arguably the concrete image of Deleuze and Guattari’s multiplicity, constituted by intensive relations, or becomngs, between heterogeneous singularities. A rhizomatic multiplicity contrasts markedly with the hierarchical dualism of the pseudomultiplicities of arborescent structures.Referencing Marston et al.’s “flat” site-ontology, I introduce sites as DeleuzoGuattarian eventspaces; emergent properties of entangled human and non-human relations and their capacities to affect and be affected. I select two spatial planning sites from urban fringe Australia, both of which involve significant transformation of (semi-)riparian habitat. One illustrates an arborescent system of thought and practice and the other a more rhizomatic approach which explores the situational potential of human/non-human encounters. I explore capacities of both sites to affect humans and non-humans and how the respective planning systems engage with them. I then question the possibility of rhizomatic planning practices, whether arborescence is inevitable, or whether a double-structure is possible, before concluding that a double-structure may afford glimpses of the bi-directionality or “flattening” of DeleuzoGuattarian multiplicity – “both/and” – an inclusive disjunctive synthesis of becoming.</t>
+          <t>In the 1990s, Lithuania’s sovereignty politics was defined by its departure from the Soviet authoritarian regime and the transition to democracy, culminating in its integration into the European Union and NATO in 2004. Since Russia’s occupation of Crimea in 2014, Lithuania’s sovereignty has been threatened by Russia’s revisionist politics. Lithuania espoused strong support for Ukraine after Russia’s 2022 invasion, voicing the most radical positions among the European allies accusing Russia of genocide and terrorism. This article discusses the genealogy of sovereignty-building in Lithuania since the collapse of the Soviet Union, illustrating how geopolitical threats shape sovereignty politics, at the center of which is the idea of freedom.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2349092249</t>
+          <t>https://openalex.org/W2282717162</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Cheng-gang (2012)</t>
+          <t>Chopard (2015)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Production Mode, Business Model and Financial Relation</t>
+          <t>La guerre aux civils : les violences contre les populations juives d'Ukraine (1917-1924) : guerre totale, occupations, insurrections, pogroms</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Production mode and business model are two different concepts connected to each other.The main distinctions are embodied in disciplinary attribute and characteristic of production factor and behavioral trait.Relationship between them in cludes two sides.One side is that business model belongs to generalized production mode.The other side is that enterprises’ production mode is the base and environmental premise of construction of business model.With the progress of science and tech nology and development of knowledge,both have been in dynamic transition.The persistent revolution of production mode and constant innovation of business model profoundly affect financial relations of enterprises.Therefore,financial relations present market-oriented trend,and social financial relations(or market-driven financial relations) between enterprises and market re spectively develop towards lineation and network.These changes of enterprises’ financial relations shift the investment of en terprises’ production factor capitals,so that enterprises generate the financial relations based on production factor capitals such as human capital financial relation and technology capital financial relation.</t>
+          <t>La guerre civile qui s'est deroulee dans l'ancien empire russe apres 1917, a constitue pour les populations juives d'Ukraine la pire persecution avant la Shoah, une confrontation avec une guerre terrible et meurtriere ainsi qu'une nouvelle vague de violences specifiquement antisemites. Le present travail explore donc les raisons de l'emergence d'une nouvelle forme d'antisemitisme, petri de ressentiment religieux et economique, mais renouvele en profondeur par l'emergence du mythe du judeo-bolchevisme. L'antisemitisme connut une embellie suite a la revolution de 1917 parce que la figure du Juif servait tout particulierement de repoussoir aux mouvements nationalistes ukrainien et russe qui s'affrontaient avec les partisans d'un pouvoir sovietique en Ukraine. L'antisemitisme servit par consequent de base a la gestion au quotidien par les armees combattantes, de plus de deux millions de Juifs ukrainiens. Et il ouvrit sur des series de pogroms extremement violents dont la perpetration est analysee en details dans ses constantes et ses variations. Une attention toute particuliere est donnee aux formes les plus extremes de cette violence antisemite portee par des voisins contre leurs voisins juifs, confinant a des cas de nettoyage ethnique et d'extermination. Dans un dernier temps sont analyses les effets immediats et a plus long terme sur les victimes de cet dechainement de violences : refugies de guerre geres brutalement par les pays voisins, recomposition de la population et integration a la nouvelle societe sovietique.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2092350897</t>
+          <t>https://openalex.org/W4214729227</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ijedudev.2005.08.005</t>
+          <t>https://doi.org/10.4018/978-1-7998-8963-2.ch010</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Dora (2006)</t>
+          <t>King (2021)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Understanding the complexity of preschool teaching in Hong Kong: The way forward to professionalism</t>
+          <t>Becoming Ellis</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>In Hong Kong, preschool education has been viewed either as preparation for primary education or as custodial care to suit working mothers. These ambiguous images of preschool teachers and teaching are definitely a roadblock to professionalization. This paper critically analyzes the professionalization of preschool education in the local context. Arguing that quality of practice is the cornerstone for improving the status of preschools and their teachers, it examines the complexity of professional knowledge and practice from two aspects: building knowledge and using knowledge. The former concerns child development theory as the knowledge base for practice and the latter addresses the factors affecting transformation of knowledge to pedagogy in the classroom context. Finally, it suggests that action research may provide a better grounding for professionalization.</t>
+          <t>The chapter describes the author's experience as a counselor working with a transgender-identifying teenager named Ellis. The goals of the counseling relationship included exploring transgender identity, managing feelings of depression and anxiety connected to gender dysphoria, and helping Ellis process and cope with life struggles that he experienced. The author provides an in-depth description of Ellis's experience in counseling, as well as a follow-up interview conducted five years after termination of the counseling relationship. This chapter depicts the experience of Ellis's transition and his perspectives about what his transgender identity means to him. The author provides insights on how to best work with transgender clients that emerged from her experience of working with Ellis.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2183152242</t>
+          <t>https://openalex.org/W2233336739</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15224/978-1-63248-042-2-142</t>
+          <t>https://doi.org/10.5821/siiu.6222</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Samer et al. (2015)</t>
+          <t>Soijet &amp; Rodríguez (2015)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Comparison between Fuzzy Risk Assessment Methods</t>
+          <t>Ciudades intermedias: alcances de la denominacion: Santa Fe-Paraná ¿en el inicio de la consolidación metropolitana?</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Contracting for construction services is an inherently risky venture for the owner, design agent and contractor. All of these parties are exposed to unanticipated risks, exposure to economic loss and unforeseen contract liability while performing under the contract. Project risk management, therefore, has been recognised critical for the construction industry to improve their performance and secure the success of projects. Risk assessment is the most important step in risk management. Classical methods for risk assessment are no longer accurate and effective, therefore, many papers introduced fuzzy logic as a more accurate and effective technique in risk assessment. In this paper, a comparison between two fuzzy risk assessment methods; Nieto-Morote and Ruz-Vila (1) and Kuo and Lu (2) is done using the same input parameters which are risk probability (RP), risk impact (RI) and risk discrimination (RD) to determine if these methods give the same risk ranking or not. Actually, the comparison results in different risk ranking, because the Nieto-Morote and Ruz-Vila (1) method depends on minimization error tool to minimize inconsistency in results, and this tool always doesn't give optimum results, while, we can consider Kuo and Lu (2) method more accurate because it depends on eliminating the inconsistency in results using a transformation process step to remain the decision matrix with reciprocity and additive consistency.</t>
+          <t>El caso Santa Fe-Paraná tiene como característica relevante la doble centralidad de dos ciudades intermedias, conformando un sistema susceptible de denominarse “metropolitano” a partir de la presencia de las cabeceras muy interrelacionadas, capacidad de autogestión del área para asumir emprendimientos infraestructurales de magnitud, existencia de desbordes de alta especificidad funcional y un avance en articulaciones institucionales y administrativas entre las distintas jurisdicciones.&amp;#x0D; Los resultados del Censo 2010 muestran que la Región ha sobrepasado el millón de habitantes. Esta situación amerita una profundización de la mirada, para comprender su estado en el momento en que se concreta tal “salto” cuantitativo.&amp;#x0D; Se puede hablar de la continuidad de un tránsito desde la ciudad monocéntrica hacia un modelo de organización en el que pueden definirse pautas en su proceso de reestructuración territorial que claramente involucra a las ciudades centrales, la integración de nuevas áreas a la aglomeración y la consolidación de algunos subcentros metropolitanos, con capacidad de influencia en la estructura integral. The relevant characteristic of the case Santa Fe-Paraná is its double centrality with two intermediate cities, forming an urban system that could be called as "Metropolitan" thanks to the presence of the highly interrelated headers, its self-management capacity to undertake infrastructure facilities of big magnitude, urban overflows of high functional specificity and a sort of progressive institutional and administrative joints between corresponding jurisdictions.&amp;#x0D; 2010 Census results show that the region has surpassed one million inhabitants. This situation is asking for a deeper insight, to understand their status at the time that such quantitative "leap" occurs.&amp;#x0D; We may speak of the continuity of a transition from the monocentric city towards an organizational model in which can be defined patterns in its process of territorial restructuring that clearly involves both central cities; the integration of new areas to agglomeration and the consolidation of some metropolitan sub-centers with capacity to influence the integral structure.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4392974446</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.bdr.2024.100448</t>
+          <t>https://openalex.org/W2946266887</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Peng et al. (2024)</t>
+          <t>Christou (2017)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Crop Monitoring using remote sensing land use and land change data: Comparative analysis of deep learning methods using pre-trained CNN models</t>
+          <t>La territorialisation de la mobilisation politique de la diaspora palestinienne en Suède</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>In the context of the rapidly evolving climate dynamics of the early twenty-first century, the interplay between climate change and biospheric integrity is becoming increasingly critical. The pervasive impact of climate change on ecosystems is manifested not only through alterations in average environmental conditions and their variability but also through ancillary shifts such as escalated oceanic acidification and heightened atmospheric CO2 levels. These climatic transformations are further compounded by concurrent ecological stressors, including habitat degradation, defaunation, and fragmentation. Against this backdrop, this study delves into the efficacy of advanced deep learning methodologies for the classification of land cover from satellite imagery, with a particular emphasis on agricultural crop monitoring. The study leverages state-of-the-art pre-trained Convolutional Neural Network (CNN) architectures, namely VGG16, MobileNetV2, DenseNet121, and ResNet50, selected for their architectural sophistication and proven competence in image recognition domains. The research framework encompasses a comprehensive data preparation phase incorporating augmentation techniques, a thorough exploratory data analysis to pinpoint and address class imbalances through the computation of class weights, and the strategic fine-tuning of CNN architectures with tailored classification layers to suit the specificities of land cover classification challenges. The models' performance was rigorously evaluated against benchmarks of accuracy and loss, both during the training phase and on validation datasets, with preventative strategies against overfitting, such as early stopping and adaptive learning rate modifications, being integral to the methodology. The findings illuminate the considerable potential of leveraging pre-trained deep learning models for remote sensing in agriculture, demonstrating that advanced CNN architectures, particularly DenseNet121 and ResNet50, are notably effective in enhancing crop type classification accuracy from satellite imagery. This study contributes valuable insights to the field of precision agriculture, advocating for the integration of sophisticated image recognition technologies to bolster crop monitoring efficacy, thereby enabling more nuanced agricultural decision-making and resource allocation.</t>
+          <t>Nearly 25 years after the Oslo accords, the Palestinians are still in the quest for a State. The emigration of Palestinians from the Middle East is still increasing in volume and is directed towards more distant areas. In this respect, Sweden is one of the sites where part of the Palestinian diaspora can be found today, even though this movement constitutes the continuation of a migration that began in the 1970s and the 1980s.The mobilization of Palestinians first began in different Middle-Eastern host territories as an expression of their political aspirations but also in response to their living conditions and their level of socio-political integration thereof. Today, the failure of the Oslo Accords and the absence of a “Palestinian spring” have contributed to a reconfigured territorialisation of the Palestinian diaspora political mobilization in territories situated beyond the first places of exile. With the ambition to transcend an approach centered on the Palestinian issues in the Middle-Eastern host territories, this research focuses on a micro-located analysis in Malmo, Sweden. In this context, it is crucial to understand what are the contours of this diasporic fluidity from the first host territories in the Middle-East to Sweden by questioning the spatial, identity and political fissures that are emerging. This doctoral research interrogates Palestinian mobility in the context of the evolution of forms of mobilization in Sweden. Through fieldwork with members of the Palestinian diaspora and participant observation, this thesis proposes a reading of the mobilization of Palestinians in exile. Thus, the migratory trajectories and the activist paths of the Palestinians reveal a specific territorialisation of their mobilization in a space beyond the early loci of exile in the Middle-East. So, we want to understand the meaning of “being Palestinian” by taking into consideration multidimensional factors situated at the crossroads of varied contexts and temporalities. By analyzing the socio-political practices of the Palestinians in Sweden, we want to contribute to a re-reading of thepolitical sense given to the territorialisation of the Palestinian mobilization in the post Oslo context, while the Palestinian emigration to northern Europe is still relevant. Our research analyses different Palestinian migration waves from Jordan, Lebanon, Syria, and the Palestinian territories in order to understand the implications of the politicization of the Palestinian diaspora members who sought refuge in Sweden through their identity and activist transformations. (Less)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3132900290</t>
+          <t>https://openalex.org/W2030275033</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3152/147154302781780769</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Collins et al. (1977)</t>
+          <t>Dufour (2002)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Charge transfer pumping of the helium nitrogen laser at atmospheric pressures in an electrical avalanche discharge</t>
+          <t>Taking the (right?) fork in the road: Canada’s two-track approach to domestic and international science and technology</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>An atmospheric electrical avalanche (AEA) laser, stabilized by displacement current preionization, has been developed to support the study of the collisional pumping of the N+2, B→X, electronic transition by the kinetic step He+2+N2+He→N+2(B2Σu)+3He. With proper preionization, the AEA laser has been operated at a pulse repetition frequency (PRF) of 1–30 Hz in an avalanche mode at 100–200 A/cm2 and an E/p of 5 V/cm Torr. At pressures from 1 to 8 atm, an essentially uniform 30‐cm3 volume containing a high concentration of He+2 has been produced. Resulting laser output pumped by the charge transfer reaction has exceeded 1 MW peak power at 427.8 nm in a 4‐nsec pulse. Efficiency with respect to the instantaneous power conversion has exceeded 2%, and output pulse energies have exceeded 1% of the input pulse of energy dissipated in the laser tube.</t>
+          <t>Canada's approach to developing a strategic capability of integrating science and technology into its international trade and foreign relations agenda has remained largely stagnant, while its domestic strategy for S&amp;T has flowered. Canada is not perceived by the global industry and investment community to have a strong industrial R&amp;D capacity: this may be hindering ready access to emerging international technology. Nevertheless, the quality of Canada's academic and industrial research is widely regarded internationally as of the highest calibre. As long as international S&amp;T issues remain somewhat peripheral and occasionally referenced in the national innovation or foreign policy reviews, Canada's links to international S&amp;T activities will probably remain disassociated from the explicit drive to a coordinated strategy for national S&amp;T. For this to change, structural change will have to take place as well as a significant alteration in the attitude of Canada's major sectors of innovation and research performance.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2996299872</t>
+          <t>https://openalex.org/W2063311544</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ica.2019.119345</t>
+          <t>https://doi.org/10.1016/0927-0248(94)90104-x</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Ishizaki et al. (2020)</t>
+          <t>Aspnes (1994)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Preparation of Co-Fe oxides immobilized on carbon paper using water-dispersible Prussian-blue analog nanoparticles and their oxygen evolution reaction (OER) catalytic activities</t>
+          <t>Fourier critical point analysis: extension to Gaussian lineshapes</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Carbon paper (CP) is one of the most promising metal-free gas-diffusion electrodes for fabricating sustainable energy-conversion devices such as metal-air secondary batteries using the oxygen reduction reaction (ORR) and CO2-reforming systems via the electrochemical CO2 reduction reaction (CO2RR). The common counterpart reaction for ORR and CO2RR is the oxygen evolution reaction (OER) from water. The low-overpotential OER catalyzed by nanoparticles (NPs) immobilized on CP has attracted attention for integration in energy-conversion devices. Earth-abundant and low-cost 3d transition metals have been intensively explored as OER catalysts. In this study, we have successfully prepared Fe-Co Prussian blue analog (PBA) NPs with the formulae of Fe1-xCox[Fe(CN)6]0.67·nH2O and Fe1-yCoy[Co(CN)6]0.67·mH2O, and the Fe-Co PBA NPs are dispersed into water by surface modification using [Fe(CN)6]4−. By a simple drop-coating method, the Fe-Co PBA NPs are immobilized on CP and thermally decomposed into Fe-Co oxides at 400 °C. The OER overpotentials of the Fe-Co oxides are gradually decreased by increasing the Co composition ratios, and the lowest overpotential is 0.46 V vs. RHE at 10 mA/cm2 in y = 0.6.</t>
+          <t>The previous Fourier approach for the determination of critical point parameters is extended to Gaussian-broadened lineshapes. The type broadening is easily reognized in reciprocal space because the variations of ln Cn, where the Cn are the amplitude coefficients, are linear and quadratic in the index n for Lorentzian and Gaussian broadenings, respectively. In an example application, the broadening mechanism of the E1 transition of CdTe is shown to be unequivocally Lorentzian.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3201447495</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/oxfordhb/9780198735410.013.10</t>
+          <t>https://openalex.org/W2297697823</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Menary (2018)</t>
+          <t>Farrokhi (2013)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Cognitive Integration</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>If cognition is fundamentally interactive how did it come to be so? The cognitive integration framework provides an answer: phylogenetically early forms of cognition, in humans, involve sensorimotor interactions with the environment; these are built upon by more recent cultural innovations, which are a product of cultural evolution and niche construction. The key cultural innovations are symbolic representations and the normative cognitive practices that govern their manipulation. These representational systems and cognitive practices are preserved across generations by cultural inheritance. Phylogenetically early sensorimotor capacities for making and manipulating tools can be reused to create and manipulate representations when completing cognitive tasks. Reuse depends upon neural plasticity and social learning, which results in the transformation of our cognitive capacities. The chapter also provides a dimensional analysis of integrated cognitive systems and provides responses to recent criticisms.</t>
+          <t>Building a Learning Healthcare Network:The transition of the Vascular Interventional Surgical Care Outcomes Assessment Program to the Comparative Effectiveness Research Translation Network</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4298147432</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2022.40.28_suppl.062</t>
+          <t>https://openalex.org/W2894512557</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Ozcan et al. (2022)</t>
+          <t>Rojas (2018)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Home-based geriatric oncology care: A feasibility study.</t>
+          <t>Artificial Intelligence, Blockchain and the Platforms of the Future</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>62 Background: The Comprehensive Geriatric Assessment (CGA) improves the outcomes of older patients with cancer, and by identifying of geriatric impairments the CGA can guide the development of supportive interventions. However, the implementation of these interventions in a real-world setting can be burdensome for patients, particularly when additional visits are required in an often frail population. Therefore, our team developed a collaborative model for home-based delivery of CGA-guided interventions. Methods: We performed a retrospective review of community-dwelling patients aged ≥ 70 years with an active cancer diagnosis who were deemed to be frail by a CGA and who received home-based CGA-guided supportive interventions under a collaborative care model established by the geriatric oncology and the palliative home care teams at Hartford HealthCare Cancer Institute between October 2020 and April 2022. The collaboration is based on multidisciplinary discussion of the CGA results / interventions and weekly rounds to discuss patient’s progress and emerging needs. Results: A total of 182 patients received a CGA during the study period, 54% (n = 99) were determined to be frail based on impairment in ≥ 7 geriatric domains. Among all eligible patients, 19 patients (19%) were included in the collaborative model. The median age of enrolled patients was 84 years (74-90), 12/19 (63%) had metastatic cancer, 7/19 (37%) received systemic treatment, and 8/19 (42%) received radiation. The average number of geriatric impairments per patients was 9.5 (7-12). Geriatric impairments addressed at home were skilled nursing (19/19), physical therapy (18/19), occupational therapy (12/19), speech-language-pathology (2/19), nutrition (5/19), or social worker (11/19) support at home. The average number of unplanned hospitalizations was 1.16 per patient (range 0-4), and the average unplanned emergency room visit was 0.89 per person (range 0-4) during study time. Transition to hospice occurred in 8/19 patients (42%), the median time to transition to hospice was 33.5 days (15-167). Conclusions: This study demonstrates the feasibility of a collaborative model for home-based geriatric oncology care in a real-world setting to help reduce the burden of care on patients and ensure patient-centered delivery of CGA-guided interventions. Findings underscore the need for future work to evaluate the impact of this novel geriatric oncology care model on patient outcomes.</t>
+          <t>Artificial intelligence (AI) and Blockchain are infrastructure technologies historically analogous to desktop operating systems and internet communications. _x000D_
+Public controversy surrounding both AI and Blockchain echo back in time to widespread media dialogue in the 1980's and 90's on the potentially deleterious effects of computing power on the autonomy and security of the individual. _x000D_
+AI is the operating system of the future in its capacity to augment human productivity and enhance complex decision-making. Operating systems, such as Microsoft Windows and Mac OS, facilitated user-friendly information processing, specifically access to information and specialized software in data and word processing. As AI research advances and moves to commercialization, tools will become available to better aggregate, process and decipher complex and disparate information. As a result, AI holds the promise of enhancing human cognitive function, and offsetting asymmetries in intellectual and knowledge-based decision-making. _x000D_
+Blockchain will reduce the frictional costs of economic transactions in a manner reminiscent of the internet's power to facilitate the rapid frictionless transfer of information – the so-called information superhighway. Blockchain and its derivative cryptocurrency technology hold the promise of disrupting financial and economic transaction intermediaries in a manner reminiscent of the impact of the internet and email on the telecommunications industry. _x000D_
+Dominant platforms to enable widespread consumer and enterprise adoption of AI and Blockchain have yet to emerge. However, user-friendly operating systems or software to enhance cognitive human capacity and facilitate economic transacting will usher in a new age of productivity and global growth – provided rising public and regulatory concerns regarding their adoption can be alleviated. _x000D_
+Leveraging a historical comparative analysis, this paper explores the capacity of both AI and Blockchain, as distinct and complimentary infrastructure technologies, to enhance the lives of individuals and generate greater social integration by offsetting systemic barriers to socio-economic advancement, while reducing the frictional costs of otherwise complex economic transacting. _x000D_
+In sum, this work proposes new modalities that are fundamental to understanding the structure, qualities and promise of the so-called Fourth Industrial Revolution.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2390391878</t>
+          <t>https://openalex.org/W2255138266</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4337/9781848444942.00008</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Xiu-feng (2011)</t>
+          <t>Gregory (2008)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Predicament and Countermeasures for College Students' Psychological Health Education</t>
+          <t>Breaking Sharply with the Past: Government Employment in New Zealand</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>China is now in the omnidirectional social transformation period,concerning college students' psychological health is really necessary.Influencing factors on college students' psychological health include psychological imbalance,lack of belief,employment anxiety,addicting to the net and poor psychology.The predicaments on college students' psychological health education are as follows: imbalance on carrying out,the courses and activities of education are not normal,the teachers can not satisfy the needs of work,theory research is relatively backward,psychological education is not high.Enhancing and improving college students' psychological health education must insist on people first,pay attention to humanistic care and psychological guide,adapt the needs of times' development,social progress and college population change.</t>
+          <t>Representing the most extensive research on public employment, this volume explores the radical changes that have taken place in the configuration of national public services due to a general expansion of public employment that was followed by stagnation and decreases. Part-time employment and the involvement of women also increased as a component of the public sector and were linked to the most important growth areas such as the educational, health care and personal social services sectors. The two volumes that make up this study shed important insight on these changes.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1529456615</t>
+          <t>https://openalex.org/W2559843127</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5937/inovacije1502018v</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Sleezer et al. (2004)</t>
+          <t>Vidojevic (2015)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Formative Evaluation of a CSCLIP Lesson</t>
+          <t>Humanism, educational-pedagogical process and social havoc</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Abstract Laboratory instruction at a distance using synchronous, remote group settings is the next generation of online learning. Computer-supported, collaborative learning requiring immersive presence (CSCLIP) relies on synchronous web-based instruction and computer-controlled or simulated activities to teach the psychomotor, cognitive, and affective skills that are required in hands-on laboratory instruction. This case study describes the formative evaluation of one CSCLIP lesson. The evaluation identified eight variables that impact such learning. The evaluation resulted in the team sharing ideas on all aspects of the course, brainstorming improvements, and planning activities for their implementation. Introduction The noteworthy growth of online learning in higher education will likely continue (Singh &amp; Pan, 2004). Most distance instruction has concentrated on asynchronous learning and computer-based training. The next generation of online learning involves learning at a distance using synchronous, remote group settings. Indeed, telepresence systems can now immerse remote learners in an environment captured by video cameras and permit them to operate and control devices and processes while working at a distance (Ausburn &amp; Ausburn, in press). This manuscript focuses on a specific instructional approach that includes content delivered via telepresence, CSCLIP (computer-supported, collaborative learning requiring immersive presence). CSCLIP integrates synchronous, collaborative e-learning and computer-controlled or simulated activities to teach the psychomotor, cognitive, and affective skills that are required in hands-on laboratory instruction. Immersive presence is characterized by same time, different place interactions among students and instructors, and by the students' physical control over elements that are typical in laboratory and other situated environments. For example, Juanita participates in a university web-based CSCLIP course while seated at her office desk. She interacts virtually during pre-specified times with equipment, local students, other remote students, and the instructors. She engages in group work, completes laboratory exercises, manipulates equipment and materials, and receives feedback on her learning. Juanita engages in the active, real-time learning of laboratory skills without physically entering the laboratory. She visits all the lab corridors, rooms, etc. virtually, and, she operates and configures many real devices as if she were physically in the lab. She also interacts with other students and instructors in a live mode. Thus the CSCLIP lab experience is a hybrid of real and virtual interaction. CSCLIP offers increased instructor capabilities. The instructor controls the instructional content, the technology that delivers the content, and CSCLIP's increased interaction capabilities that allow all students to interact with remote students, students in the physical laboratory, the instructor, and the laboratory equipment and materials. The instructor limits interaction as appropriate for the lesson. Consequently, the instructor simultaneously manages more phenomena-of-interest than are required by traditional instructional methods. The increased capabilities afforded by CSCLIP instruction call for evaluation research that informs educators about how they can shape it to maximize learning. In this manuscript, we provide as a case study the formative evaluation of one CSCLIP lesson. We first describe the CSCLIP instruction and then we provide the research methodology, results, and discussion. The CSCLIP Instruction CSCLIP was developed by a cross-disciplinary research team with faculty members from engineering, management, and telecommunications. A theoretical foundation for CSCLIP was developed based on scholarly literature in learning and online learning. The team then selected a traditional hands-on laboratory course for transformation to the CSCLIP format (See Scheets &amp; Weiser, 2001). …</t>
+          <t>State of humanism as an idea and praxis is the main indicator of nature of the certain society and every civilisation. Humanism is by no means connected to crime, particularly massive crime, humiliation of people and torture, with exploitation and each form of slavery. All of this can be found in modern world, and in great extent. This is why we can say that the world is deeply inhumane due to the occurrences in it. The very idea of humanism is misused as means of realisation inhumane purposes and in this way, it becomes deformed. However, it is often transformed into bad abstraction, as well as bad abstraction and shallow morals, becoming in this way lifeless. Civilisation of violence, profit as absolute means, conquering the world by all means, which is shown as its freedom, does not lead to extinguishing all forms of humanism, but also about world cataclysm Reconstruction is needed, as well as revival of the idea and praxis of humanism. There is an urgent need of founding realistic, critical and dealing humanism is necessary, which does not start from Godly in man and metaphysic of the good, but something which can be called ontology of grey, imperfect man and turn to priority of evil reducing, first of all the radical one, as well as each form of severe suffering and misfortune. Reconstructed by social-spiritual revolution without blood, revival humanism would be the key ingredient of better historical alternative and value basis of the modern process of education and pedagogical work. System of brutal capitalism, neglected social justice and human dignity, and in this way real freedom in modern Serbia, and in many other countries, severely threatens to annihilate the very essence of humanism. Ethics of vocation and profession of intellectuals poses opposition to this state. Expertise without humanity is deadly; humanity without suitable aid is powerless.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2016629178</t>
+          <t>https://openalex.org/W4388718020</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/nml.108</t>
+          <t>https://doi.org/10.48550/arxiv.2311.07932</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Hoye (2006)</t>
+          <t>Yang et al. (2023)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Leadership within Australian voluntary sport organization boards</t>
+          <t>Cross-subject dual-domain fusion network with task-related and task-discriminant component analysis enhancing one-shot SSVEP classification</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nonprofit Management and LeadershipVolume 16, Issue 3 p. 297-313 Research Article Leadership within Australian voluntary sport organization boards Russell Hoye, Russell Hoye La Trobe University, Melbourne, AustraliaSearch for more papers by this author Russell Hoye, Russell Hoye La Trobe University, Melbourne, AustraliaSearch for more papers by this author First published: 24 March 2006 https://doi.org/10.1002/nml.108Citations: 64AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat Abstract This article applies leader-member exchange theory to the study of dyadic relationships between leaders (board chairs and paid executives) and members (volunteer board members) within the boards of Australian voluntary sport organizations. The article specifically examines leader-member exchanges within a sample of six Queensland State sport organizations and their relationship with board performance. It was found that leadership within voluntary sport organization boards emanates from either board chairs or executives and that when the individuals fulfilling these roles are able to develop a mature working relationship, the board's ability to perform is enhanced. These findings extend our understanding of the importance of leadership roles held by volunteers and paid professionals for the achievement of organizational outcomes. References Auld, C. "Professionalisation of Australian Sport: The Effects on Organizational Decision-Making." European Journal for Sport Management, 1997, 4 (2), 17–39. Google Scholar Auld, C., and Godbey, G. "Influence in Canadian National Sport Organizations: Perceptions of Professionals and Volunteers." Journal of Sport Management, 1998, 12, 20–38. 10.1123/jsm.12.1.20 Web of Science®Google Scholar Berger, P., and Luckmann, T. The Social Construction of Reality: A Treatise on the Sociology of Knowledge. London: Penguin, 1967. Google Scholar Bradshaw, P., Murray, V., and Wolpin, J. "Do Nonprofit Boards Make a Difference? An Exploration of the Relationships Among Board Structure, Process, and Effectiveness." Nonprofit and Voluntary Sector Quarterly, 1992, 21, 227–249. 10.1177/089976409202100304 Google Scholar Dansereau, F., Graen, G., and Haga, B. A. "A Vertical-Dyad Linkage Approach to Le